--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="3409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="3412">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10241,6 +10241,15 @@
   </si>
   <si>
     <t>4-1-2020</t>
+  </si>
+  <si>
+    <t>4-2-2020</t>
+  </si>
+  <si>
+    <t>4-3-2020</t>
+  </si>
+  <si>
+    <t>4-4-2020</t>
   </si>
 </sst>
 </file>
@@ -10377,203 +10386,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3375:$A$3405</c:f>
+              <c:f>DolarToday!$A$3378:$A$3408</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-2-2020</c:v>
+                  <c:v>3-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-3-2020</c:v>
+                  <c:v>3-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-4-2020</c:v>
+                  <c:v>3-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-5-2020</c:v>
+                  <c:v>3-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-6-2020</c:v>
+                  <c:v>3-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-7-2020</c:v>
+                  <c:v>3-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-8-2020</c:v>
+                  <c:v>3-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-9-2020</c:v>
+                  <c:v>3-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-10-2020</c:v>
+                  <c:v>3-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-11-2020</c:v>
+                  <c:v>3-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-12-2020</c:v>
+                  <c:v>3-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-13-2020</c:v>
+                  <c:v>3-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-14-2020</c:v>
+                  <c:v>3-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-15-2020</c:v>
+                  <c:v>3-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-16-2020</c:v>
+                  <c:v>3-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-17-2020</c:v>
+                  <c:v>3-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-18-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-19-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3375:$B$3405</c:f>
+              <c:f>DolarToday!$B$3378:$B$3408</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>75492.29</c:v>
+                  <c:v>75008.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75730.74</c:v>
+                  <c:v>75008.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75201.82</c:v>
+                  <c:v>75008.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75008.41</c:v>
+                  <c:v>76232.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75008.41</c:v>
+                  <c:v>76103.62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75008.41</c:v>
+                  <c:v>76403.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76232.75</c:v>
+                  <c:v>82340.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76103.62</c:v>
+                  <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76403.82</c:v>
+                  <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82340.22</c:v>
+                  <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80023.18</c:v>
+                  <c:v>76713.38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80023.18</c:v>
+                  <c:v>75724.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80023.18</c:v>
+                  <c:v>72731.72</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76713.38</c:v>
+                  <c:v>71842.92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75724.82</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72731.72</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>71842.92</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>84723.01</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>84723.01</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>84581.04</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>87076.65</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>87396.82</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10980,7 +10989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3405"/>
+  <dimension ref="A1:K3408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38240,16 +38249,6 @@
       <c r="B3403">
         <v>87076.65</v>
       </c>
-      <c r="D3403" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3403" s="3"/>
-      <c r="F3403" s="3"/>
-      <c r="G3403" s="3"/>
-      <c r="H3403" s="3"/>
-      <c r="I3403" s="3"/>
-      <c r="J3403" s="3"/>
-      <c r="K3403" s="3"/>
     </row>
     <row r="3404" spans="1:11">
       <c r="A3404" t="s">
@@ -38258,16 +38257,6 @@
       <c r="B3404">
         <v>87396.82</v>
       </c>
-      <c r="D3404" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3404" s="4"/>
-      <c r="F3404" s="4"/>
-      <c r="G3404" s="4"/>
-      <c r="H3404" s="4"/>
-      <c r="I3404" s="4"/>
-      <c r="J3404" s="4"/>
-      <c r="K3404" s="4"/>
     </row>
     <row r="3405" spans="1:11">
       <c r="A3405" t="s">
@@ -38276,21 +38265,65 @@
       <c r="B3405">
         <v>89168.7</v>
       </c>
-      <c r="D3405" s="4"/>
-      <c r="E3405" s="4"/>
-      <c r="F3405" s="4"/>
-      <c r="G3405" s="4"/>
-      <c r="H3405" s="4"/>
-      <c r="I3405" s="4"/>
-      <c r="J3405" s="4"/>
-      <c r="K3405" s="4"/>
+    </row>
+    <row r="3406" spans="1:11">
+      <c r="A3406" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B3406">
+        <v>94120.28</v>
+      </c>
+      <c r="D3406" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3406" s="3"/>
+      <c r="F3406" s="3"/>
+      <c r="G3406" s="3"/>
+      <c r="H3406" s="3"/>
+      <c r="I3406" s="3"/>
+      <c r="J3406" s="3"/>
+      <c r="K3406" s="3"/>
+    </row>
+    <row r="3407" spans="1:11">
+      <c r="A3407" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B3407">
+        <v>94120.28</v>
+      </c>
+      <c r="D3407" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3407" s="4"/>
+      <c r="F3407" s="4"/>
+      <c r="G3407" s="4"/>
+      <c r="H3407" s="4"/>
+      <c r="I3407" s="4"/>
+      <c r="J3407" s="4"/>
+      <c r="K3407" s="4"/>
+    </row>
+    <row r="3408" spans="1:11">
+      <c r="A3408" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B3408">
+        <v>94120.28</v>
+      </c>
+      <c r="D3408" s="4"/>
+      <c r="E3408" s="4"/>
+      <c r="F3408" s="4"/>
+      <c r="G3408" s="4"/>
+      <c r="H3408" s="4"/>
+      <c r="I3408" s="4"/>
+      <c r="J3408" s="4"/>
+      <c r="K3408" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3403:K3403"/>
-    <mergeCell ref="D3404:K3405"/>
+    <mergeCell ref="D3406:K3406"/>
+    <mergeCell ref="D3407:K3408"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="3412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="3413">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10250,6 +10250,9 @@
   </si>
   <si>
     <t>4-4-2020</t>
+  </si>
+  <si>
+    <t>4-5-2020</t>
   </si>
 </sst>
 </file>
@@ -10386,108 +10389,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3378:$A$3408</c:f>
+              <c:f>DolarToday!$A$3379:$A$3409</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-5-2020</c:v>
+                  <c:v>3-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-6-2020</c:v>
+                  <c:v>3-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-7-2020</c:v>
+                  <c:v>3-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-8-2020</c:v>
+                  <c:v>3-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-9-2020</c:v>
+                  <c:v>3-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-10-2020</c:v>
+                  <c:v>3-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-11-2020</c:v>
+                  <c:v>3-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-12-2020</c:v>
+                  <c:v>3-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-13-2020</c:v>
+                  <c:v>3-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-14-2020</c:v>
+                  <c:v>3-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-15-2020</c:v>
+                  <c:v>3-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-16-2020</c:v>
+                  <c:v>3-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-17-2020</c:v>
+                  <c:v>3-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-18-2020</c:v>
+                  <c:v>3-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-19-2020</c:v>
+                  <c:v>3-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3378:$B$3408</c:f>
+              <c:f>DolarToday!$B$3379:$B$3409</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10498,19 +10501,19 @@
                   <c:v>75008.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75008.41</c:v>
+                  <c:v>76232.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76232.75</c:v>
+                  <c:v>76103.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76103.62</c:v>
+                  <c:v>76403.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76403.82</c:v>
+                  <c:v>82340.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82340.22</c:v>
+                  <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>80023.18</c:v>
@@ -10522,25 +10525,25 @@
                   <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80023.18</c:v>
+                  <c:v>76713.38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76713.38</c:v>
+                  <c:v>75724.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75724.82</c:v>
+                  <c:v>72731.72</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72731.72</c:v>
+                  <c:v>71842.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71842.92</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>75184.82</c:v>
@@ -10552,7 +10555,7 @@
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>84723.01</c:v>
@@ -10561,19 +10564,19 @@
                   <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>84581.04</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>87076.65</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>87396.82</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>94120.28</c:v>
@@ -10582,7 +10585,7 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10989,7 +10992,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3408"/>
+  <dimension ref="A1:K3409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38273,16 +38276,6 @@
       <c r="B3406">
         <v>94120.28</v>
       </c>
-      <c r="D3406" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3406" s="3"/>
-      <c r="F3406" s="3"/>
-      <c r="G3406" s="3"/>
-      <c r="H3406" s="3"/>
-      <c r="I3406" s="3"/>
-      <c r="J3406" s="3"/>
-      <c r="K3406" s="3"/>
     </row>
     <row r="3407" spans="1:11">
       <c r="A3407" t="s">
@@ -38291,16 +38284,16 @@
       <c r="B3407">
         <v>94120.28</v>
       </c>
-      <c r="D3407" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3407" s="4"/>
-      <c r="F3407" s="4"/>
-      <c r="G3407" s="4"/>
-      <c r="H3407" s="4"/>
-      <c r="I3407" s="4"/>
-      <c r="J3407" s="4"/>
-      <c r="K3407" s="4"/>
+      <c r="D3407" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3407" s="3"/>
+      <c r="F3407" s="3"/>
+      <c r="G3407" s="3"/>
+      <c r="H3407" s="3"/>
+      <c r="I3407" s="3"/>
+      <c r="J3407" s="3"/>
+      <c r="K3407" s="3"/>
     </row>
     <row r="3408" spans="1:11">
       <c r="A3408" t="s">
@@ -38309,7 +38302,9 @@
       <c r="B3408">
         <v>94120.28</v>
       </c>
-      <c r="D3408" s="4"/>
+      <c r="D3408" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3408" s="4"/>
       <c r="F3408" s="4"/>
       <c r="G3408" s="4"/>
@@ -38318,12 +38313,28 @@
       <c r="J3408" s="4"/>
       <c r="K3408" s="4"/>
     </row>
+    <row r="3409" spans="1:11">
+      <c r="A3409" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B3409">
+        <v>99043.72</v>
+      </c>
+      <c r="D3409" s="4"/>
+      <c r="E3409" s="4"/>
+      <c r="F3409" s="4"/>
+      <c r="G3409" s="4"/>
+      <c r="H3409" s="4"/>
+      <c r="I3409" s="4"/>
+      <c r="J3409" s="4"/>
+      <c r="K3409" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3406:K3406"/>
-    <mergeCell ref="D3407:K3408"/>
+    <mergeCell ref="D3407:K3407"/>
+    <mergeCell ref="D3408:K3409"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="3413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="3414">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10253,6 +10253,9 @@
   </si>
   <si>
     <t>4-5-2020</t>
+  </si>
+  <si>
+    <t>4-6-2020</t>
   </si>
 </sst>
 </file>
@@ -10389,108 +10392,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3379:$A$3409</c:f>
+              <c:f>DolarToday!$A$3380:$A$3410</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-6-2020</c:v>
+                  <c:v>3-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-7-2020</c:v>
+                  <c:v>3-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-8-2020</c:v>
+                  <c:v>3-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-9-2020</c:v>
+                  <c:v>3-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-10-2020</c:v>
+                  <c:v>3-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-11-2020</c:v>
+                  <c:v>3-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-12-2020</c:v>
+                  <c:v>3-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-13-2020</c:v>
+                  <c:v>3-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-14-2020</c:v>
+                  <c:v>3-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-15-2020</c:v>
+                  <c:v>3-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-16-2020</c:v>
+                  <c:v>3-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-17-2020</c:v>
+                  <c:v>3-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-18-2020</c:v>
+                  <c:v>3-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-19-2020</c:v>
+                  <c:v>3-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3379:$B$3409</c:f>
+              <c:f>DolarToday!$B$3380:$B$3410</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10498,19 +10501,19 @@
                   <c:v>75008.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75008.41</c:v>
+                  <c:v>76232.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76232.75</c:v>
+                  <c:v>76103.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76103.62</c:v>
+                  <c:v>76403.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76403.82</c:v>
+                  <c:v>82340.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82340.22</c:v>
+                  <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>80023.18</c:v>
@@ -10522,25 +10525,25 @@
                   <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80023.18</c:v>
+                  <c:v>76713.38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76713.38</c:v>
+                  <c:v>75724.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75724.82</c:v>
+                  <c:v>72731.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72731.72</c:v>
+                  <c:v>71842.92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71842.92</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>75184.82</c:v>
@@ -10552,7 +10555,7 @@
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>84723.01</c:v>
@@ -10561,19 +10564,19 @@
                   <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>84581.04</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>87076.65</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>87396.82</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>94120.28</c:v>
@@ -10582,10 +10585,10 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>99043.72</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10992,7 +10995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3409"/>
+  <dimension ref="A1:K3410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38284,16 +38287,6 @@
       <c r="B3407">
         <v>94120.28</v>
       </c>
-      <c r="D3407" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3407" s="3"/>
-      <c r="F3407" s="3"/>
-      <c r="G3407" s="3"/>
-      <c r="H3407" s="3"/>
-      <c r="I3407" s="3"/>
-      <c r="J3407" s="3"/>
-      <c r="K3407" s="3"/>
     </row>
     <row r="3408" spans="1:11">
       <c r="A3408" t="s">
@@ -38302,16 +38295,16 @@
       <c r="B3408">
         <v>94120.28</v>
       </c>
-      <c r="D3408" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3408" s="4"/>
-      <c r="F3408" s="4"/>
-      <c r="G3408" s="4"/>
-      <c r="H3408" s="4"/>
-      <c r="I3408" s="4"/>
-      <c r="J3408" s="4"/>
-      <c r="K3408" s="4"/>
+      <c r="D3408" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3408" s="3"/>
+      <c r="F3408" s="3"/>
+      <c r="G3408" s="3"/>
+      <c r="H3408" s="3"/>
+      <c r="I3408" s="3"/>
+      <c r="J3408" s="3"/>
+      <c r="K3408" s="3"/>
     </row>
     <row r="3409" spans="1:11">
       <c r="A3409" t="s">
@@ -38320,7 +38313,9 @@
       <c r="B3409">
         <v>99043.72</v>
       </c>
-      <c r="D3409" s="4"/>
+      <c r="D3409" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3409" s="4"/>
       <c r="F3409" s="4"/>
       <c r="G3409" s="4"/>
@@ -38329,12 +38324,28 @@
       <c r="J3409" s="4"/>
       <c r="K3409" s="4"/>
     </row>
+    <row r="3410" spans="1:11">
+      <c r="A3410" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B3410">
+        <v>105729.27</v>
+      </c>
+      <c r="D3410" s="4"/>
+      <c r="E3410" s="4"/>
+      <c r="F3410" s="4"/>
+      <c r="G3410" s="4"/>
+      <c r="H3410" s="4"/>
+      <c r="I3410" s="4"/>
+      <c r="J3410" s="4"/>
+      <c r="K3410" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3407:K3407"/>
-    <mergeCell ref="D3408:K3409"/>
+    <mergeCell ref="D3408:K3408"/>
+    <mergeCell ref="D3409:K3410"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="3414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="3415">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10256,6 +10256,9 @@
   </si>
   <si>
     <t>4-6-2020</t>
+  </si>
+  <si>
+    <t>4-7-2020</t>
   </si>
 </sst>
 </file>
@@ -10392,125 +10395,125 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3380:$A$3410</c:f>
+              <c:f>DolarToday!$A$3381:$A$3411</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-7-2020</c:v>
+                  <c:v>3-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-8-2020</c:v>
+                  <c:v>3-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-9-2020</c:v>
+                  <c:v>3-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-10-2020</c:v>
+                  <c:v>3-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-11-2020</c:v>
+                  <c:v>3-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-12-2020</c:v>
+                  <c:v>3-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-13-2020</c:v>
+                  <c:v>3-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-14-2020</c:v>
+                  <c:v>3-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-15-2020</c:v>
+                  <c:v>3-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-16-2020</c:v>
+                  <c:v>3-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-17-2020</c:v>
+                  <c:v>3-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-18-2020</c:v>
+                  <c:v>3-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-19-2020</c:v>
+                  <c:v>3-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3380:$B$3410</c:f>
+              <c:f>DolarToday!$B$3381:$B$3411</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>75008.41</c:v>
+                  <c:v>76232.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76232.75</c:v>
+                  <c:v>76103.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76103.62</c:v>
+                  <c:v>76403.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76403.82</c:v>
+                  <c:v>82340.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82340.22</c:v>
+                  <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>80023.18</c:v>
@@ -10522,25 +10525,25 @@
                   <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80023.18</c:v>
+                  <c:v>76713.38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76713.38</c:v>
+                  <c:v>75724.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75724.82</c:v>
+                  <c:v>72731.72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72731.72</c:v>
+                  <c:v>71842.92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71842.92</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>75184.82</c:v>
@@ -10552,7 +10555,7 @@
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>84723.01</c:v>
@@ -10561,19 +10564,19 @@
                   <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>84581.04</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>87076.65</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>87396.82</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>94120.28</c:v>
@@ -10582,13 +10585,13 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>99043.72</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10995,7 +10998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3410"/>
+  <dimension ref="A1:K3411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38168,7 +38171,7 @@
         <v>71842.92</v>
       </c>
     </row>
-    <row r="3393" spans="1:11">
+    <row r="3393" spans="1:2">
       <c r="A3393" t="s">
         <v>3396</v>
       </c>
@@ -38176,7 +38179,7 @@
         <v>72931.65</v>
       </c>
     </row>
-    <row r="3394" spans="1:11">
+    <row r="3394" spans="1:2">
       <c r="A3394" t="s">
         <v>3397</v>
       </c>
@@ -38184,7 +38187,7 @@
         <v>72931.65</v>
       </c>
     </row>
-    <row r="3395" spans="1:11">
+    <row r="3395" spans="1:2">
       <c r="A3395" t="s">
         <v>3398</v>
       </c>
@@ -38192,7 +38195,7 @@
         <v>75184.82</v>
       </c>
     </row>
-    <row r="3396" spans="1:11">
+    <row r="3396" spans="1:2">
       <c r="A3396" t="s">
         <v>3399</v>
       </c>
@@ -38200,7 +38203,7 @@
         <v>75184.82</v>
       </c>
     </row>
-    <row r="3397" spans="1:11">
+    <row r="3397" spans="1:2">
       <c r="A3397" t="s">
         <v>3400</v>
       </c>
@@ -38208,7 +38211,7 @@
         <v>75184.82</v>
       </c>
     </row>
-    <row r="3398" spans="1:11">
+    <row r="3398" spans="1:2">
       <c r="A3398" t="s">
         <v>3401</v>
       </c>
@@ -38216,7 +38219,7 @@
         <v>75184.82</v>
       </c>
     </row>
-    <row r="3399" spans="1:11">
+    <row r="3399" spans="1:2">
       <c r="A3399" t="s">
         <v>3402</v>
       </c>
@@ -38224,7 +38227,7 @@
         <v>84723.01</v>
       </c>
     </row>
-    <row r="3400" spans="1:11">
+    <row r="3400" spans="1:2">
       <c r="A3400" t="s">
         <v>3403</v>
       </c>
@@ -38232,7 +38235,7 @@
         <v>84723.01</v>
       </c>
     </row>
-    <row r="3401" spans="1:11">
+    <row r="3401" spans="1:2">
       <c r="A3401" t="s">
         <v>3404</v>
       </c>
@@ -38240,7 +38243,7 @@
         <v>84723.01</v>
       </c>
     </row>
-    <row r="3402" spans="1:11">
+    <row r="3402" spans="1:2">
       <c r="A3402" t="s">
         <v>3405</v>
       </c>
@@ -38248,7 +38251,7 @@
         <v>84581.04</v>
       </c>
     </row>
-    <row r="3403" spans="1:11">
+    <row r="3403" spans="1:2">
       <c r="A3403" t="s">
         <v>3406</v>
       </c>
@@ -38256,7 +38259,7 @@
         <v>87076.65</v>
       </c>
     </row>
-    <row r="3404" spans="1:11">
+    <row r="3404" spans="1:2">
       <c r="A3404" t="s">
         <v>3407</v>
       </c>
@@ -38264,7 +38267,7 @@
         <v>87396.82</v>
       </c>
     </row>
-    <row r="3405" spans="1:11">
+    <row r="3405" spans="1:2">
       <c r="A3405" t="s">
         <v>3408</v>
       </c>
@@ -38272,7 +38275,7 @@
         <v>89168.7</v>
       </c>
     </row>
-    <row r="3406" spans="1:11">
+    <row r="3406" spans="1:2">
       <c r="A3406" t="s">
         <v>3409</v>
       </c>
@@ -38280,7 +38283,7 @@
         <v>94120.28</v>
       </c>
     </row>
-    <row r="3407" spans="1:11">
+    <row r="3407" spans="1:2">
       <c r="A3407" t="s">
         <v>3410</v>
       </c>
@@ -38288,23 +38291,13 @@
         <v>94120.28</v>
       </c>
     </row>
-    <row r="3408" spans="1:11">
+    <row r="3408" spans="1:2">
       <c r="A3408" t="s">
         <v>3411</v>
       </c>
       <c r="B3408">
         <v>94120.28</v>
       </c>
-      <c r="D3408" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3408" s="3"/>
-      <c r="F3408" s="3"/>
-      <c r="G3408" s="3"/>
-      <c r="H3408" s="3"/>
-      <c r="I3408" s="3"/>
-      <c r="J3408" s="3"/>
-      <c r="K3408" s="3"/>
     </row>
     <row r="3409" spans="1:11">
       <c r="A3409" t="s">
@@ -38313,16 +38306,16 @@
       <c r="B3409">
         <v>99043.72</v>
       </c>
-      <c r="D3409" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3409" s="4"/>
-      <c r="F3409" s="4"/>
-      <c r="G3409" s="4"/>
-      <c r="H3409" s="4"/>
-      <c r="I3409" s="4"/>
-      <c r="J3409" s="4"/>
-      <c r="K3409" s="4"/>
+      <c r="D3409" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3409" s="3"/>
+      <c r="F3409" s="3"/>
+      <c r="G3409" s="3"/>
+      <c r="H3409" s="3"/>
+      <c r="I3409" s="3"/>
+      <c r="J3409" s="3"/>
+      <c r="K3409" s="3"/>
     </row>
     <row r="3410" spans="1:11">
       <c r="A3410" t="s">
@@ -38331,7 +38324,9 @@
       <c r="B3410">
         <v>105729.27</v>
       </c>
-      <c r="D3410" s="4"/>
+      <c r="D3410" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3410" s="4"/>
       <c r="F3410" s="4"/>
       <c r="G3410" s="4"/>
@@ -38340,12 +38335,28 @@
       <c r="J3410" s="4"/>
       <c r="K3410" s="4"/>
     </row>
+    <row r="3411" spans="1:11">
+      <c r="A3411" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B3411">
+        <v>117395.02</v>
+      </c>
+      <c r="D3411" s="4"/>
+      <c r="E3411" s="4"/>
+      <c r="F3411" s="4"/>
+      <c r="G3411" s="4"/>
+      <c r="H3411" s="4"/>
+      <c r="I3411" s="4"/>
+      <c r="J3411" s="4"/>
+      <c r="K3411" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3408:K3408"/>
-    <mergeCell ref="D3409:K3410"/>
+    <mergeCell ref="D3409:K3409"/>
+    <mergeCell ref="D3410:K3411"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="3415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="3416">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10259,6 +10259,9 @@
   </si>
   <si>
     <t>4-7-2020</t>
+  </si>
+  <si>
+    <t>4-8-2020</t>
   </si>
 </sst>
 </file>
@@ -10395,122 +10398,122 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3381:$A$3411</c:f>
+              <c:f>DolarToday!$A$3382:$A$3412</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-8-2020</c:v>
+                  <c:v>3-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-9-2020</c:v>
+                  <c:v>3-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-10-2020</c:v>
+                  <c:v>3-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-11-2020</c:v>
+                  <c:v>3-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-12-2020</c:v>
+                  <c:v>3-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-13-2020</c:v>
+                  <c:v>3-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-14-2020</c:v>
+                  <c:v>3-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-15-2020</c:v>
+                  <c:v>3-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-16-2020</c:v>
+                  <c:v>3-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-17-2020</c:v>
+                  <c:v>3-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-18-2020</c:v>
+                  <c:v>3-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-19-2020</c:v>
+                  <c:v>3-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3381:$B$3411</c:f>
+              <c:f>DolarToday!$B$3382:$B$3412</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>76232.75</c:v>
+                  <c:v>76103.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76103.62</c:v>
+                  <c:v>76403.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76403.82</c:v>
+                  <c:v>82340.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82340.22</c:v>
+                  <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>80023.18</c:v>
@@ -10522,25 +10525,25 @@
                   <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80023.18</c:v>
+                  <c:v>76713.38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76713.38</c:v>
+                  <c:v>75724.82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75724.82</c:v>
+                  <c:v>72731.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72731.72</c:v>
+                  <c:v>71842.92</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71842.92</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>75184.82</c:v>
@@ -10552,7 +10555,7 @@
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>84723.01</c:v>
@@ -10561,19 +10564,19 @@
                   <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>84581.04</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>87076.65</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>87396.82</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>94120.28</c:v>
@@ -10582,13 +10585,13 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>99043.72</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>117395.02</c:v>
@@ -10998,7 +11001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3411"/>
+  <dimension ref="A1:K3412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38306,16 +38309,6 @@
       <c r="B3409">
         <v>99043.72</v>
       </c>
-      <c r="D3409" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3409" s="3"/>
-      <c r="F3409" s="3"/>
-      <c r="G3409" s="3"/>
-      <c r="H3409" s="3"/>
-      <c r="I3409" s="3"/>
-      <c r="J3409" s="3"/>
-      <c r="K3409" s="3"/>
     </row>
     <row r="3410" spans="1:11">
       <c r="A3410" t="s">
@@ -38324,16 +38317,16 @@
       <c r="B3410">
         <v>105729.27</v>
       </c>
-      <c r="D3410" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3410" s="4"/>
-      <c r="F3410" s="4"/>
-      <c r="G3410" s="4"/>
-      <c r="H3410" s="4"/>
-      <c r="I3410" s="4"/>
-      <c r="J3410" s="4"/>
-      <c r="K3410" s="4"/>
+      <c r="D3410" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3410" s="3"/>
+      <c r="F3410" s="3"/>
+      <c r="G3410" s="3"/>
+      <c r="H3410" s="3"/>
+      <c r="I3410" s="3"/>
+      <c r="J3410" s="3"/>
+      <c r="K3410" s="3"/>
     </row>
     <row r="3411" spans="1:11">
       <c r="A3411" t="s">
@@ -38342,7 +38335,9 @@
       <c r="B3411">
         <v>117395.02</v>
       </c>
-      <c r="D3411" s="4"/>
+      <c r="D3411" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3411" s="4"/>
       <c r="F3411" s="4"/>
       <c r="G3411" s="4"/>
@@ -38351,12 +38346,28 @@
       <c r="J3411" s="4"/>
       <c r="K3411" s="4"/>
     </row>
+    <row r="3412" spans="1:11">
+      <c r="A3412" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B3412">
+        <v>117395.02</v>
+      </c>
+      <c r="D3412" s="4"/>
+      <c r="E3412" s="4"/>
+      <c r="F3412" s="4"/>
+      <c r="G3412" s="4"/>
+      <c r="H3412" s="4"/>
+      <c r="I3412" s="4"/>
+      <c r="J3412" s="4"/>
+      <c r="K3412" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3409:K3409"/>
-    <mergeCell ref="D3410:K3411"/>
+    <mergeCell ref="D3410:K3410"/>
+    <mergeCell ref="D3411:K3412"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="3416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="3417">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10262,6 +10262,9 @@
   </si>
   <si>
     <t>4-8-2020</t>
+  </si>
+  <si>
+    <t>4-9-2020</t>
   </si>
 </sst>
 </file>
@@ -10398,119 +10401,119 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3382:$A$3412</c:f>
+              <c:f>DolarToday!$A$3383:$A$3413</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-9-2020</c:v>
+                  <c:v>3-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-10-2020</c:v>
+                  <c:v>3-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-11-2020</c:v>
+                  <c:v>3-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-12-2020</c:v>
+                  <c:v>3-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-13-2020</c:v>
+                  <c:v>3-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-14-2020</c:v>
+                  <c:v>3-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-15-2020</c:v>
+                  <c:v>3-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-16-2020</c:v>
+                  <c:v>3-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-17-2020</c:v>
+                  <c:v>3-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-18-2020</c:v>
+                  <c:v>3-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-19-2020</c:v>
+                  <c:v>3-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3382:$B$3412</c:f>
+              <c:f>DolarToday!$B$3383:$B$3413</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>76103.62</c:v>
+                  <c:v>76403.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76403.82</c:v>
+                  <c:v>82340.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82340.22</c:v>
+                  <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>80023.18</c:v>
@@ -10522,25 +10525,25 @@
                   <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80023.18</c:v>
+                  <c:v>76713.38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76713.38</c:v>
+                  <c:v>75724.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75724.82</c:v>
+                  <c:v>72731.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72731.72</c:v>
+                  <c:v>71842.92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71842.92</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>75184.82</c:v>
@@ -10552,7 +10555,7 @@
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>84723.01</c:v>
@@ -10561,19 +10564,19 @@
                   <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84581.04</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>87076.65</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>87396.82</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>94120.28</c:v>
@@ -10582,13 +10585,13 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>99043.72</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>117395.02</c:v>
@@ -11001,7 +11004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3412"/>
+  <dimension ref="A1:K3413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38317,16 +38320,6 @@
       <c r="B3410">
         <v>105729.27</v>
       </c>
-      <c r="D3410" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3410" s="3"/>
-      <c r="F3410" s="3"/>
-      <c r="G3410" s="3"/>
-      <c r="H3410" s="3"/>
-      <c r="I3410" s="3"/>
-      <c r="J3410" s="3"/>
-      <c r="K3410" s="3"/>
     </row>
     <row r="3411" spans="1:11">
       <c r="A3411" t="s">
@@ -38335,16 +38328,16 @@
       <c r="B3411">
         <v>117395.02</v>
       </c>
-      <c r="D3411" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3411" s="4"/>
-      <c r="F3411" s="4"/>
-      <c r="G3411" s="4"/>
-      <c r="H3411" s="4"/>
-      <c r="I3411" s="4"/>
-      <c r="J3411" s="4"/>
-      <c r="K3411" s="4"/>
+      <c r="D3411" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3411" s="3"/>
+      <c r="F3411" s="3"/>
+      <c r="G3411" s="3"/>
+      <c r="H3411" s="3"/>
+      <c r="I3411" s="3"/>
+      <c r="J3411" s="3"/>
+      <c r="K3411" s="3"/>
     </row>
     <row r="3412" spans="1:11">
       <c r="A3412" t="s">
@@ -38353,7 +38346,9 @@
       <c r="B3412">
         <v>117395.02</v>
       </c>
-      <c r="D3412" s="4"/>
+      <c r="D3412" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3412" s="4"/>
       <c r="F3412" s="4"/>
       <c r="G3412" s="4"/>
@@ -38362,12 +38357,28 @@
       <c r="J3412" s="4"/>
       <c r="K3412" s="4"/>
     </row>
+    <row r="3413" spans="1:11">
+      <c r="A3413" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B3413">
+        <v>117395.02</v>
+      </c>
+      <c r="D3413" s="4"/>
+      <c r="E3413" s="4"/>
+      <c r="F3413" s="4"/>
+      <c r="G3413" s="4"/>
+      <c r="H3413" s="4"/>
+      <c r="I3413" s="4"/>
+      <c r="J3413" s="4"/>
+      <c r="K3413" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3410:K3410"/>
-    <mergeCell ref="D3411:K3412"/>
+    <mergeCell ref="D3411:K3411"/>
+    <mergeCell ref="D3412:K3413"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="3417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="3419">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10265,6 +10265,12 @@
   </si>
   <si>
     <t>4-9-2020</t>
+  </si>
+  <si>
+    <t>4-10-2020</t>
+  </si>
+  <si>
+    <t>4-11-2020</t>
   </si>
 </sst>
 </file>
@@ -10401,116 +10407,116 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3383:$A$3413</c:f>
+              <c:f>DolarToday!$A$3385:$A$3415</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-10-2020</c:v>
+                  <c:v>3-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-11-2020</c:v>
+                  <c:v>3-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-12-2020</c:v>
+                  <c:v>3-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-13-2020</c:v>
+                  <c:v>3-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-14-2020</c:v>
+                  <c:v>3-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-15-2020</c:v>
+                  <c:v>3-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-16-2020</c:v>
+                  <c:v>3-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-17-2020</c:v>
+                  <c:v>3-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-18-2020</c:v>
+                  <c:v>3-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-19-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3383:$B$3413</c:f>
+              <c:f>DolarToday!$B$3385:$B$3415</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>76403.82</c:v>
+                  <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82340.22</c:v>
+                  <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>80023.18</c:v>
@@ -10519,28 +10525,28 @@
                   <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80023.18</c:v>
+                  <c:v>76713.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80023.18</c:v>
+                  <c:v>75724.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76713.38</c:v>
+                  <c:v>72731.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75724.82</c:v>
+                  <c:v>71842.92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72731.72</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71842.92</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>75184.82</c:v>
@@ -10549,46 +10555,46 @@
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84723.01</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>84581.04</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>87076.65</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>87396.82</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>94120.28</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>99043.72</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>117395.02</c:v>
@@ -11004,7 +11010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3413"/>
+  <dimension ref="A1:K3415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38328,16 +38334,6 @@
       <c r="B3411">
         <v>117395.02</v>
       </c>
-      <c r="D3411" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3411" s="3"/>
-      <c r="F3411" s="3"/>
-      <c r="G3411" s="3"/>
-      <c r="H3411" s="3"/>
-      <c r="I3411" s="3"/>
-      <c r="J3411" s="3"/>
-      <c r="K3411" s="3"/>
     </row>
     <row r="3412" spans="1:11">
       <c r="A3412" t="s">
@@ -38346,16 +38342,6 @@
       <c r="B3412">
         <v>117395.02</v>
       </c>
-      <c r="D3412" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3412" s="4"/>
-      <c r="F3412" s="4"/>
-      <c r="G3412" s="4"/>
-      <c r="H3412" s="4"/>
-      <c r="I3412" s="4"/>
-      <c r="J3412" s="4"/>
-      <c r="K3412" s="4"/>
     </row>
     <row r="3413" spans="1:11">
       <c r="A3413" t="s">
@@ -38364,21 +38350,57 @@
       <c r="B3413">
         <v>117395.02</v>
       </c>
-      <c r="D3413" s="4"/>
-      <c r="E3413" s="4"/>
-      <c r="F3413" s="4"/>
-      <c r="G3413" s="4"/>
-      <c r="H3413" s="4"/>
-      <c r="I3413" s="4"/>
-      <c r="J3413" s="4"/>
-      <c r="K3413" s="4"/>
+      <c r="D3413" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3413" s="3"/>
+      <c r="F3413" s="3"/>
+      <c r="G3413" s="3"/>
+      <c r="H3413" s="3"/>
+      <c r="I3413" s="3"/>
+      <c r="J3413" s="3"/>
+      <c r="K3413" s="3"/>
+    </row>
+    <row r="3414" spans="1:11">
+      <c r="A3414" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B3414">
+        <v>117395.02</v>
+      </c>
+      <c r="D3414" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3414" s="4"/>
+      <c r="F3414" s="4"/>
+      <c r="G3414" s="4"/>
+      <c r="H3414" s="4"/>
+      <c r="I3414" s="4"/>
+      <c r="J3414" s="4"/>
+      <c r="K3414" s="4"/>
+    </row>
+    <row r="3415" spans="1:11">
+      <c r="A3415" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B3415">
+        <v>117395.02</v>
+      </c>
+      <c r="D3415" s="4"/>
+      <c r="E3415" s="4"/>
+      <c r="F3415" s="4"/>
+      <c r="G3415" s="4"/>
+      <c r="H3415" s="4"/>
+      <c r="I3415" s="4"/>
+      <c r="J3415" s="4"/>
+      <c r="K3415" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3411:K3411"/>
-    <mergeCell ref="D3412:K3413"/>
+    <mergeCell ref="D3413:K3413"/>
+    <mergeCell ref="D3414:K3415"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="3419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="3420">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10271,6 +10271,9 @@
   </si>
   <si>
     <t>4-11-2020</t>
+  </si>
+  <si>
+    <t>4-12-2020</t>
   </si>
 </sst>
 </file>
@@ -10407,108 +10410,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3385:$A$3415</c:f>
+              <c:f>DolarToday!$A$3386:$A$3416</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-12-2020</c:v>
+                  <c:v>3-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-13-2020</c:v>
+                  <c:v>3-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-14-2020</c:v>
+                  <c:v>3-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-15-2020</c:v>
+                  <c:v>3-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-16-2020</c:v>
+                  <c:v>3-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-17-2020</c:v>
+                  <c:v>3-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-18-2020</c:v>
+                  <c:v>3-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-19-2020</c:v>
+                  <c:v>3-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-12-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3385:$B$3415</c:f>
+              <c:f>DolarToday!$B$3386:$B$3416</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10522,25 +10525,25 @@
                   <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80023.18</c:v>
+                  <c:v>76713.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76713.38</c:v>
+                  <c:v>75724.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75724.82</c:v>
+                  <c:v>72731.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72731.72</c:v>
+                  <c:v>71842.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71842.92</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>75184.82</c:v>
@@ -10552,7 +10555,7 @@
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>84723.01</c:v>
@@ -10561,19 +10564,19 @@
                   <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84581.04</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87076.65</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>87396.82</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>94120.28</c:v>
@@ -10582,13 +10585,13 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>99043.72</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>117395.02</c:v>
@@ -10603,7 +10606,7 @@
                   <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>117395.02</c:v>
+                  <c:v>135833.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11010,7 +11013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3415"/>
+  <dimension ref="A1:K3416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38350,16 +38353,6 @@
       <c r="B3413">
         <v>117395.02</v>
       </c>
-      <c r="D3413" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3413" s="3"/>
-      <c r="F3413" s="3"/>
-      <c r="G3413" s="3"/>
-      <c r="H3413" s="3"/>
-      <c r="I3413" s="3"/>
-      <c r="J3413" s="3"/>
-      <c r="K3413" s="3"/>
     </row>
     <row r="3414" spans="1:11">
       <c r="A3414" t="s">
@@ -38368,16 +38361,16 @@
       <c r="B3414">
         <v>117395.02</v>
       </c>
-      <c r="D3414" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3414" s="4"/>
-      <c r="F3414" s="4"/>
-      <c r="G3414" s="4"/>
-      <c r="H3414" s="4"/>
-      <c r="I3414" s="4"/>
-      <c r="J3414" s="4"/>
-      <c r="K3414" s="4"/>
+      <c r="D3414" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3414" s="3"/>
+      <c r="F3414" s="3"/>
+      <c r="G3414" s="3"/>
+      <c r="H3414" s="3"/>
+      <c r="I3414" s="3"/>
+      <c r="J3414" s="3"/>
+      <c r="K3414" s="3"/>
     </row>
     <row r="3415" spans="1:11">
       <c r="A3415" t="s">
@@ -38386,7 +38379,9 @@
       <c r="B3415">
         <v>117395.02</v>
       </c>
-      <c r="D3415" s="4"/>
+      <c r="D3415" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3415" s="4"/>
       <c r="F3415" s="4"/>
       <c r="G3415" s="4"/>
@@ -38395,12 +38390,28 @@
       <c r="J3415" s="4"/>
       <c r="K3415" s="4"/>
     </row>
+    <row r="3416" spans="1:11">
+      <c r="A3416" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B3416">
+        <v>135833.42</v>
+      </c>
+      <c r="D3416" s="4"/>
+      <c r="E3416" s="4"/>
+      <c r="F3416" s="4"/>
+      <c r="G3416" s="4"/>
+      <c r="H3416" s="4"/>
+      <c r="I3416" s="4"/>
+      <c r="J3416" s="4"/>
+      <c r="K3416" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3413:K3413"/>
-    <mergeCell ref="D3414:K3415"/>
+    <mergeCell ref="D3414:K3414"/>
+    <mergeCell ref="D3415:K3416"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="3420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="3421">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10274,6 +10274,9 @@
   </si>
   <si>
     <t>4-12-2020</t>
+  </si>
+  <si>
+    <t>4-13-2020</t>
   </si>
 </sst>
 </file>
@@ -10410,108 +10413,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3386:$A$3416</c:f>
+              <c:f>DolarToday!$A$3387:$A$3417</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-13-2020</c:v>
+                  <c:v>3-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-14-2020</c:v>
+                  <c:v>3-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-15-2020</c:v>
+                  <c:v>3-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-16-2020</c:v>
+                  <c:v>3-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-17-2020</c:v>
+                  <c:v>3-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-18-2020</c:v>
+                  <c:v>3-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-19-2020</c:v>
+                  <c:v>3-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-12-2020</c:v>
+                  <c:v>4-13-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3386:$B$3416</c:f>
+              <c:f>DolarToday!$B$3387:$B$3417</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10522,25 +10525,25 @@
                   <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80023.18</c:v>
+                  <c:v>76713.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76713.38</c:v>
+                  <c:v>75724.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75724.82</c:v>
+                  <c:v>72731.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72731.72</c:v>
+                  <c:v>71842.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71842.92</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>75184.82</c:v>
@@ -10552,7 +10555,7 @@
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>84723.01</c:v>
@@ -10561,19 +10564,19 @@
                   <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84581.04</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>87076.65</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87396.82</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>94120.28</c:v>
@@ -10582,13 +10585,13 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>99043.72</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>117395.02</c:v>
@@ -10603,10 +10606,10 @@
                   <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>117395.02</c:v>
+                  <c:v>135833.42</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>135833.42</c:v>
+                  <c:v>136008.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11013,7 +11016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3416"/>
+  <dimension ref="A1:K3417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38361,16 +38364,6 @@
       <c r="B3414">
         <v>117395.02</v>
       </c>
-      <c r="D3414" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3414" s="3"/>
-      <c r="F3414" s="3"/>
-      <c r="G3414" s="3"/>
-      <c r="H3414" s="3"/>
-      <c r="I3414" s="3"/>
-      <c r="J3414" s="3"/>
-      <c r="K3414" s="3"/>
     </row>
     <row r="3415" spans="1:11">
       <c r="A3415" t="s">
@@ -38379,16 +38372,16 @@
       <c r="B3415">
         <v>117395.02</v>
       </c>
-      <c r="D3415" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3415" s="4"/>
-      <c r="F3415" s="4"/>
-      <c r="G3415" s="4"/>
-      <c r="H3415" s="4"/>
-      <c r="I3415" s="4"/>
-      <c r="J3415" s="4"/>
-      <c r="K3415" s="4"/>
+      <c r="D3415" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3415" s="3"/>
+      <c r="F3415" s="3"/>
+      <c r="G3415" s="3"/>
+      <c r="H3415" s="3"/>
+      <c r="I3415" s="3"/>
+      <c r="J3415" s="3"/>
+      <c r="K3415" s="3"/>
     </row>
     <row r="3416" spans="1:11">
       <c r="A3416" t="s">
@@ -38397,7 +38390,9 @@
       <c r="B3416">
         <v>135833.42</v>
       </c>
-      <c r="D3416" s="4"/>
+      <c r="D3416" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3416" s="4"/>
       <c r="F3416" s="4"/>
       <c r="G3416" s="4"/>
@@ -38406,12 +38401,28 @@
       <c r="J3416" s="4"/>
       <c r="K3416" s="4"/>
     </row>
+    <row r="3417" spans="1:11">
+      <c r="A3417" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B3417">
+        <v>136008.75</v>
+      </c>
+      <c r="D3417" s="4"/>
+      <c r="E3417" s="4"/>
+      <c r="F3417" s="4"/>
+      <c r="G3417" s="4"/>
+      <c r="H3417" s="4"/>
+      <c r="I3417" s="4"/>
+      <c r="J3417" s="4"/>
+      <c r="K3417" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3414:K3414"/>
-    <mergeCell ref="D3415:K3416"/>
+    <mergeCell ref="D3415:K3415"/>
+    <mergeCell ref="D3416:K3417"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="3421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="3422">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10277,6 +10277,9 @@
   </si>
   <si>
     <t>4-13-2020</t>
+  </si>
+  <si>
+    <t>4-14-2020</t>
   </si>
 </sst>
 </file>
@@ -10413,108 +10416,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3387:$A$3417</c:f>
+              <c:f>DolarToday!$A$3388:$A$3418</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-14-2020</c:v>
+                  <c:v>3-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-15-2020</c:v>
+                  <c:v>3-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-16-2020</c:v>
+                  <c:v>3-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-17-2020</c:v>
+                  <c:v>3-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-18-2020</c:v>
+                  <c:v>3-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-19-2020</c:v>
+                  <c:v>3-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-12-2020</c:v>
+                  <c:v>4-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-13-2020</c:v>
+                  <c:v>4-14-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3387:$B$3417</c:f>
+              <c:f>DolarToday!$B$3388:$B$3418</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10522,25 +10525,25 @@
                   <c:v>80023.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80023.18</c:v>
+                  <c:v>76713.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76713.38</c:v>
+                  <c:v>75724.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75724.82</c:v>
+                  <c:v>72731.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72731.72</c:v>
+                  <c:v>71842.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71842.92</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>75184.82</c:v>
@@ -10552,7 +10555,7 @@
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>84723.01</c:v>
@@ -10561,19 +10564,19 @@
                   <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84581.04</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87076.65</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>87396.82</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>94120.28</c:v>
@@ -10582,13 +10585,13 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>99043.72</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>117395.02</c:v>
@@ -10603,13 +10606,13 @@
                   <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>117395.02</c:v>
+                  <c:v>135833.42</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>135833.42</c:v>
+                  <c:v>136008.75</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>136008.75</c:v>
+                  <c:v>138053.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11016,7 +11019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3417"/>
+  <dimension ref="A1:K3418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38372,16 +38375,6 @@
       <c r="B3415">
         <v>117395.02</v>
       </c>
-      <c r="D3415" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3415" s="3"/>
-      <c r="F3415" s="3"/>
-      <c r="G3415" s="3"/>
-      <c r="H3415" s="3"/>
-      <c r="I3415" s="3"/>
-      <c r="J3415" s="3"/>
-      <c r="K3415" s="3"/>
     </row>
     <row r="3416" spans="1:11">
       <c r="A3416" t="s">
@@ -38390,16 +38383,16 @@
       <c r="B3416">
         <v>135833.42</v>
       </c>
-      <c r="D3416" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3416" s="4"/>
-      <c r="F3416" s="4"/>
-      <c r="G3416" s="4"/>
-      <c r="H3416" s="4"/>
-      <c r="I3416" s="4"/>
-      <c r="J3416" s="4"/>
-      <c r="K3416" s="4"/>
+      <c r="D3416" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3416" s="3"/>
+      <c r="F3416" s="3"/>
+      <c r="G3416" s="3"/>
+      <c r="H3416" s="3"/>
+      <c r="I3416" s="3"/>
+      <c r="J3416" s="3"/>
+      <c r="K3416" s="3"/>
     </row>
     <row r="3417" spans="1:11">
       <c r="A3417" t="s">
@@ -38408,7 +38401,9 @@
       <c r="B3417">
         <v>136008.75</v>
       </c>
-      <c r="D3417" s="4"/>
+      <c r="D3417" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3417" s="4"/>
       <c r="F3417" s="4"/>
       <c r="G3417" s="4"/>
@@ -38417,12 +38412,28 @@
       <c r="J3417" s="4"/>
       <c r="K3417" s="4"/>
     </row>
+    <row r="3418" spans="1:11">
+      <c r="A3418" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B3418">
+        <v>138053.53</v>
+      </c>
+      <c r="D3418" s="4"/>
+      <c r="E3418" s="4"/>
+      <c r="F3418" s="4"/>
+      <c r="G3418" s="4"/>
+      <c r="H3418" s="4"/>
+      <c r="I3418" s="4"/>
+      <c r="J3418" s="4"/>
+      <c r="K3418" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3415:K3415"/>
-    <mergeCell ref="D3416:K3417"/>
+    <mergeCell ref="D3416:K3416"/>
+    <mergeCell ref="D3417:K3418"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="3422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3428" uniqueCount="3426">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10280,6 +10280,18 @@
   </si>
   <si>
     <t>4-14-2020</t>
+  </si>
+  <si>
+    <t>4-15-2020</t>
+  </si>
+  <si>
+    <t>4-16-2020</t>
+  </si>
+  <si>
+    <t>4-17-2020</t>
+  </si>
+  <si>
+    <t>4-18-2020</t>
   </si>
 </sst>
 </file>
@@ -10416,203 +10428,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3388:$A$3418</c:f>
+              <c:f>DolarToday!$A$3392:$A$3422</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-15-2020</c:v>
+                  <c:v>3-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-16-2020</c:v>
+                  <c:v>3-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-17-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-18-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-19-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-12-2020</c:v>
+                  <c:v>4-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-13-2020</c:v>
+                  <c:v>4-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-14-2020</c:v>
+                  <c:v>4-18-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3388:$B$3418</c:f>
+              <c:f>DolarToday!$B$3392:$B$3422</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>80023.18</c:v>
+                  <c:v>71842.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76713.38</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75724.82</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72731.72</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71842.92</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75184.82</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84723.01</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84723.01</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84723.01</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84581.04</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>87076.65</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87396.82</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>89168.7</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>94120.28</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>94120.28</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>94120.28</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>99043.72</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>117395.02</c:v>
+                  <c:v>135833.42</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>117395.02</c:v>
+                  <c:v>136008.75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>117395.02</c:v>
+                  <c:v>138053.53</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>117395.02</c:v>
+                  <c:v>134804.72</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>135833.42</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>136008.75</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>138053.53</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11019,7 +11031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3418"/>
+  <dimension ref="A1:K3422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38383,16 +38395,6 @@
       <c r="B3416">
         <v>135833.42</v>
       </c>
-      <c r="D3416" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3416" s="3"/>
-      <c r="F3416" s="3"/>
-      <c r="G3416" s="3"/>
-      <c r="H3416" s="3"/>
-      <c r="I3416" s="3"/>
-      <c r="J3416" s="3"/>
-      <c r="K3416" s="3"/>
     </row>
     <row r="3417" spans="1:11">
       <c r="A3417" t="s">
@@ -38401,16 +38403,6 @@
       <c r="B3417">
         <v>136008.75</v>
       </c>
-      <c r="D3417" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3417" s="4"/>
-      <c r="F3417" s="4"/>
-      <c r="G3417" s="4"/>
-      <c r="H3417" s="4"/>
-      <c r="I3417" s="4"/>
-      <c r="J3417" s="4"/>
-      <c r="K3417" s="4"/>
     </row>
     <row r="3418" spans="1:11">
       <c r="A3418" t="s">
@@ -38419,21 +38411,73 @@
       <c r="B3418">
         <v>138053.53</v>
       </c>
-      <c r="D3418" s="4"/>
-      <c r="E3418" s="4"/>
-      <c r="F3418" s="4"/>
-      <c r="G3418" s="4"/>
-      <c r="H3418" s="4"/>
-      <c r="I3418" s="4"/>
-      <c r="J3418" s="4"/>
-      <c r="K3418" s="4"/>
+    </row>
+    <row r="3419" spans="1:11">
+      <c r="A3419" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B3419">
+        <v>134804.72</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:11">
+      <c r="A3420" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B3420">
+        <v>130032.62</v>
+      </c>
+      <c r="D3420" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3420" s="3"/>
+      <c r="F3420" s="3"/>
+      <c r="G3420" s="3"/>
+      <c r="H3420" s="3"/>
+      <c r="I3420" s="3"/>
+      <c r="J3420" s="3"/>
+      <c r="K3420" s="3"/>
+    </row>
+    <row r="3421" spans="1:11">
+      <c r="A3421" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B3421">
+        <v>130032.62</v>
+      </c>
+      <c r="D3421" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3421" s="4"/>
+      <c r="F3421" s="4"/>
+      <c r="G3421" s="4"/>
+      <c r="H3421" s="4"/>
+      <c r="I3421" s="4"/>
+      <c r="J3421" s="4"/>
+      <c r="K3421" s="4"/>
+    </row>
+    <row r="3422" spans="1:11">
+      <c r="A3422" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B3422">
+        <v>130032.62</v>
+      </c>
+      <c r="D3422" s="4"/>
+      <c r="E3422" s="4"/>
+      <c r="F3422" s="4"/>
+      <c r="G3422" s="4"/>
+      <c r="H3422" s="4"/>
+      <c r="I3422" s="4"/>
+      <c r="J3422" s="4"/>
+      <c r="K3422" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3416:K3416"/>
-    <mergeCell ref="D3417:K3418"/>
+    <mergeCell ref="D3420:K3420"/>
+    <mergeCell ref="D3421:K3422"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3428" uniqueCount="3426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="3427">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10292,6 +10292,9 @@
   </si>
   <si>
     <t>4-18-2020</t>
+  </si>
+  <si>
+    <t>4-19-2020</t>
   </si>
 </sst>
 </file>
@@ -10428,119 +10431,119 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3392:$A$3422</c:f>
+              <c:f>DolarToday!$A$3393:$A$3423</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-19-2020</c:v>
+                  <c:v>3-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-12-2020</c:v>
+                  <c:v>4-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-13-2020</c:v>
+                  <c:v>4-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-14-2020</c:v>
+                  <c:v>4-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-15-2020</c:v>
+                  <c:v>4-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-16-2020</c:v>
+                  <c:v>4-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-17-2020</c:v>
+                  <c:v>4-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-18-2020</c:v>
+                  <c:v>4-19-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3392:$B$3422</c:f>
+              <c:f>DolarToday!$B$3393:$B$3423</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>71842.92</c:v>
+                  <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>75184.82</c:v>
@@ -10552,7 +10555,7 @@
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>84723.01</c:v>
@@ -10561,19 +10564,19 @@
                   <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84581.04</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87076.65</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87396.82</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>94120.28</c:v>
@@ -10582,13 +10585,13 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>99043.72</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>117395.02</c:v>
@@ -10603,19 +10606,19 @@
                   <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>117395.02</c:v>
+                  <c:v>135833.42</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>135833.42</c:v>
+                  <c:v>136008.75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>136008.75</c:v>
+                  <c:v>138053.53</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>138053.53</c:v>
+                  <c:v>134804.72</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>134804.72</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>130032.62</c:v>
@@ -10624,7 +10627,7 @@
                   <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>130032.62</c:v>
+                  <c:v>140102.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11031,7 +11034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3422"/>
+  <dimension ref="A1:K3423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38427,16 +38430,6 @@
       <c r="B3420">
         <v>130032.62</v>
       </c>
-      <c r="D3420" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3420" s="3"/>
-      <c r="F3420" s="3"/>
-      <c r="G3420" s="3"/>
-      <c r="H3420" s="3"/>
-      <c r="I3420" s="3"/>
-      <c r="J3420" s="3"/>
-      <c r="K3420" s="3"/>
     </row>
     <row r="3421" spans="1:11">
       <c r="A3421" t="s">
@@ -38445,16 +38438,16 @@
       <c r="B3421">
         <v>130032.62</v>
       </c>
-      <c r="D3421" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3421" s="4"/>
-      <c r="F3421" s="4"/>
-      <c r="G3421" s="4"/>
-      <c r="H3421" s="4"/>
-      <c r="I3421" s="4"/>
-      <c r="J3421" s="4"/>
-      <c r="K3421" s="4"/>
+      <c r="D3421" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3421" s="3"/>
+      <c r="F3421" s="3"/>
+      <c r="G3421" s="3"/>
+      <c r="H3421" s="3"/>
+      <c r="I3421" s="3"/>
+      <c r="J3421" s="3"/>
+      <c r="K3421" s="3"/>
     </row>
     <row r="3422" spans="1:11">
       <c r="A3422" t="s">
@@ -38463,7 +38456,9 @@
       <c r="B3422">
         <v>130032.62</v>
       </c>
-      <c r="D3422" s="4"/>
+      <c r="D3422" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3422" s="4"/>
       <c r="F3422" s="4"/>
       <c r="G3422" s="4"/>
@@ -38472,12 +38467,28 @@
       <c r="J3422" s="4"/>
       <c r="K3422" s="4"/>
     </row>
+    <row r="3423" spans="1:11">
+      <c r="A3423" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B3423">
+        <v>140102.32</v>
+      </c>
+      <c r="D3423" s="4"/>
+      <c r="E3423" s="4"/>
+      <c r="F3423" s="4"/>
+      <c r="G3423" s="4"/>
+      <c r="H3423" s="4"/>
+      <c r="I3423" s="4"/>
+      <c r="J3423" s="4"/>
+      <c r="K3423" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3420:K3420"/>
-    <mergeCell ref="D3421:K3422"/>
+    <mergeCell ref="D3421:K3421"/>
+    <mergeCell ref="D3422:K3423"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="3427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="3428">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10295,6 +10295,9 @@
   </si>
   <si>
     <t>4-19-2020</t>
+  </si>
+  <si>
+    <t>4-20-2020</t>
   </si>
 </sst>
 </file>
@@ -10431,108 +10434,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3393:$A$3423</c:f>
+              <c:f>DolarToday!$A$3394:$A$3424</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-20-2020</c:v>
+                  <c:v>3-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-12-2020</c:v>
+                  <c:v>4-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-13-2020</c:v>
+                  <c:v>4-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-14-2020</c:v>
+                  <c:v>4-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-15-2020</c:v>
+                  <c:v>4-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-16-2020</c:v>
+                  <c:v>4-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-17-2020</c:v>
+                  <c:v>4-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-18-2020</c:v>
+                  <c:v>4-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-19-2020</c:v>
+                  <c:v>4-20-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3393:$B$3423</c:f>
+              <c:f>DolarToday!$B$3394:$B$3424</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10540,7 +10543,7 @@
                   <c:v>72931.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>75184.82</c:v>
@@ -10552,7 +10555,7 @@
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>84723.01</c:v>
@@ -10561,19 +10564,19 @@
                   <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>84581.04</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87076.65</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87396.82</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>94120.28</c:v>
@@ -10582,13 +10585,13 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>99043.72</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>117395.02</c:v>
@@ -10603,19 +10606,19 @@
                   <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>117395.02</c:v>
+                  <c:v>135833.42</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>135833.42</c:v>
+                  <c:v>136008.75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>136008.75</c:v>
+                  <c:v>138053.53</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>138053.53</c:v>
+                  <c:v>134804.72</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>134804.72</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>130032.62</c:v>
@@ -10624,10 +10627,10 @@
                   <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>130032.62</c:v>
+                  <c:v>140102.32</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>140102.32</c:v>
+                  <c:v>153119.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11034,7 +11037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3423"/>
+  <dimension ref="A1:K3424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38438,16 +38441,6 @@
       <c r="B3421">
         <v>130032.62</v>
       </c>
-      <c r="D3421" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3421" s="3"/>
-      <c r="F3421" s="3"/>
-      <c r="G3421" s="3"/>
-      <c r="H3421" s="3"/>
-      <c r="I3421" s="3"/>
-      <c r="J3421" s="3"/>
-      <c r="K3421" s="3"/>
     </row>
     <row r="3422" spans="1:11">
       <c r="A3422" t="s">
@@ -38456,16 +38449,16 @@
       <c r="B3422">
         <v>130032.62</v>
       </c>
-      <c r="D3422" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3422" s="4"/>
-      <c r="F3422" s="4"/>
-      <c r="G3422" s="4"/>
-      <c r="H3422" s="4"/>
-      <c r="I3422" s="4"/>
-      <c r="J3422" s="4"/>
-      <c r="K3422" s="4"/>
+      <c r="D3422" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3422" s="3"/>
+      <c r="F3422" s="3"/>
+      <c r="G3422" s="3"/>
+      <c r="H3422" s="3"/>
+      <c r="I3422" s="3"/>
+      <c r="J3422" s="3"/>
+      <c r="K3422" s="3"/>
     </row>
     <row r="3423" spans="1:11">
       <c r="A3423" t="s">
@@ -38474,7 +38467,9 @@
       <c r="B3423">
         <v>140102.32</v>
       </c>
-      <c r="D3423" s="4"/>
+      <c r="D3423" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3423" s="4"/>
       <c r="F3423" s="4"/>
       <c r="G3423" s="4"/>
@@ -38483,12 +38478,28 @@
       <c r="J3423" s="4"/>
       <c r="K3423" s="4"/>
     </row>
+    <row r="3424" spans="1:11">
+      <c r="A3424" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B3424">
+        <v>153119.32</v>
+      </c>
+      <c r="D3424" s="4"/>
+      <c r="E3424" s="4"/>
+      <c r="F3424" s="4"/>
+      <c r="G3424" s="4"/>
+      <c r="H3424" s="4"/>
+      <c r="I3424" s="4"/>
+      <c r="J3424" s="4"/>
+      <c r="K3424" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3421:K3421"/>
-    <mergeCell ref="D3422:K3423"/>
+    <mergeCell ref="D3422:K3422"/>
+    <mergeCell ref="D3423:K3424"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="3428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="3429">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10298,6 +10298,9 @@
   </si>
   <si>
     <t>4-20-2020</t>
+  </si>
+  <si>
+    <t>4-21-2020</t>
   </si>
 </sst>
 </file>
@@ -10434,113 +10437,113 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3394:$A$3424</c:f>
+              <c:f>DolarToday!$A$3395:$A$3425</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-21-2020</c:v>
+                  <c:v>3-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-12-2020</c:v>
+                  <c:v>4-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-13-2020</c:v>
+                  <c:v>4-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-14-2020</c:v>
+                  <c:v>4-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-15-2020</c:v>
+                  <c:v>4-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-16-2020</c:v>
+                  <c:v>4-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-17-2020</c:v>
+                  <c:v>4-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-18-2020</c:v>
+                  <c:v>4-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-19-2020</c:v>
+                  <c:v>4-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-20-2020</c:v>
+                  <c:v>4-21-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3394:$B$3424</c:f>
+              <c:f>DolarToday!$B$3395:$B$3425</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>72931.65</c:v>
+                  <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>75184.82</c:v>
@@ -10552,7 +10555,7 @@
                   <c:v>75184.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>84723.01</c:v>
@@ -10561,19 +10564,19 @@
                   <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84581.04</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87076.65</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87396.82</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>94120.28</c:v>
@@ -10582,13 +10585,13 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>99043.72</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>117395.02</c:v>
@@ -10603,19 +10606,19 @@
                   <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>117395.02</c:v>
+                  <c:v>135833.42</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>135833.42</c:v>
+                  <c:v>136008.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>136008.75</c:v>
+                  <c:v>138053.53</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>138053.53</c:v>
+                  <c:v>134804.72</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>134804.72</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>130032.62</c:v>
@@ -10624,13 +10627,13 @@
                   <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>130032.62</c:v>
+                  <c:v>140102.32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>140102.32</c:v>
+                  <c:v>153119.32</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>153119.32</c:v>
+                  <c:v>175523.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11037,7 +11040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3424"/>
+  <dimension ref="A1:K3425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38449,16 +38452,6 @@
       <c r="B3422">
         <v>130032.62</v>
       </c>
-      <c r="D3422" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3422" s="3"/>
-      <c r="F3422" s="3"/>
-      <c r="G3422" s="3"/>
-      <c r="H3422" s="3"/>
-      <c r="I3422" s="3"/>
-      <c r="J3422" s="3"/>
-      <c r="K3422" s="3"/>
     </row>
     <row r="3423" spans="1:11">
       <c r="A3423" t="s">
@@ -38467,16 +38460,16 @@
       <c r="B3423">
         <v>140102.32</v>
       </c>
-      <c r="D3423" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3423" s="4"/>
-      <c r="F3423" s="4"/>
-      <c r="G3423" s="4"/>
-      <c r="H3423" s="4"/>
-      <c r="I3423" s="4"/>
-      <c r="J3423" s="4"/>
-      <c r="K3423" s="4"/>
+      <c r="D3423" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3423" s="3"/>
+      <c r="F3423" s="3"/>
+      <c r="G3423" s="3"/>
+      <c r="H3423" s="3"/>
+      <c r="I3423" s="3"/>
+      <c r="J3423" s="3"/>
+      <c r="K3423" s="3"/>
     </row>
     <row r="3424" spans="1:11">
       <c r="A3424" t="s">
@@ -38485,7 +38478,9 @@
       <c r="B3424">
         <v>153119.32</v>
       </c>
-      <c r="D3424" s="4"/>
+      <c r="D3424" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3424" s="4"/>
       <c r="F3424" s="4"/>
       <c r="G3424" s="4"/>
@@ -38494,12 +38489,28 @@
       <c r="J3424" s="4"/>
       <c r="K3424" s="4"/>
     </row>
+    <row r="3425" spans="1:11">
+      <c r="A3425" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B3425">
+        <v>175523.12</v>
+      </c>
+      <c r="D3425" s="4"/>
+      <c r="E3425" s="4"/>
+      <c r="F3425" s="4"/>
+      <c r="G3425" s="4"/>
+      <c r="H3425" s="4"/>
+      <c r="I3425" s="4"/>
+      <c r="J3425" s="4"/>
+      <c r="K3425" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3422:K3422"/>
-    <mergeCell ref="D3423:K3424"/>
+    <mergeCell ref="D3423:K3423"/>
+    <mergeCell ref="D3424:K3425"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="3429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3436" uniqueCount="3434">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10301,6 +10301,21 @@
   </si>
   <si>
     <t>4-21-2020</t>
+  </si>
+  <si>
+    <t>4-22-2020</t>
+  </si>
+  <si>
+    <t>4-23-2020</t>
+  </si>
+  <si>
+    <t>4-24-2020</t>
+  </si>
+  <si>
+    <t>4-25-2020</t>
+  </si>
+  <si>
+    <t>4-26-2020</t>
   </si>
 </sst>
 </file>
@@ -10437,203 +10452,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3395:$A$3425</c:f>
+              <c:f>DolarToday!$A$3400:$A$3430</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-22-2020</c:v>
+                  <c:v>3-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-23-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-24-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-25-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-26-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-12-2020</c:v>
+                  <c:v>4-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-13-2020</c:v>
+                  <c:v>4-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-14-2020</c:v>
+                  <c:v>4-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-15-2020</c:v>
+                  <c:v>4-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-16-2020</c:v>
+                  <c:v>4-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-17-2020</c:v>
+                  <c:v>4-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-18-2020</c:v>
+                  <c:v>4-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-19-2020</c:v>
+                  <c:v>4-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-20-2020</c:v>
+                  <c:v>4-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-21-2020</c:v>
+                  <c:v>4-26-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3395:$B$3425</c:f>
+              <c:f>DolarToday!$B$3400:$B$3430</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75184.82</c:v>
+                  <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75184.82</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75184.82</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84723.01</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84723.01</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84723.01</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84581.04</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87076.65</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87396.82</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89168.7</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>94120.28</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94120.28</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>94120.28</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>99043.72</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>117395.02</c:v>
+                  <c:v>135833.42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>117395.02</c:v>
+                  <c:v>136008.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>117395.02</c:v>
+                  <c:v>138053.53</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>117395.02</c:v>
+                  <c:v>134804.72</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>117395.02</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>135833.42</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>136008.75</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>138053.53</c:v>
+                  <c:v>140102.32</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>134804.72</c:v>
+                  <c:v>153119.32</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130032.62</c:v>
+                  <c:v>175523.12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>130032.62</c:v>
+                  <c:v>200058.83</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>130032.62</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>140102.32</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>153119.32</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>175523.12</c:v>
+                  <c:v>197242.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11040,7 +11055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3425"/>
+  <dimension ref="A1:K3430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38341,7 +38356,7 @@
         <v>94120.28</v>
       </c>
     </row>
-    <row r="3409" spans="1:11">
+    <row r="3409" spans="1:2">
       <c r="A3409" t="s">
         <v>3412</v>
       </c>
@@ -38349,7 +38364,7 @@
         <v>99043.72</v>
       </c>
     </row>
-    <row r="3410" spans="1:11">
+    <row r="3410" spans="1:2">
       <c r="A3410" t="s">
         <v>3413</v>
       </c>
@@ -38357,7 +38372,7 @@
         <v>105729.27</v>
       </c>
     </row>
-    <row r="3411" spans="1:11">
+    <row r="3411" spans="1:2">
       <c r="A3411" t="s">
         <v>3414</v>
       </c>
@@ -38365,7 +38380,7 @@
         <v>117395.02</v>
       </c>
     </row>
-    <row r="3412" spans="1:11">
+    <row r="3412" spans="1:2">
       <c r="A3412" t="s">
         <v>3415</v>
       </c>
@@ -38373,7 +38388,7 @@
         <v>117395.02</v>
       </c>
     </row>
-    <row r="3413" spans="1:11">
+    <row r="3413" spans="1:2">
       <c r="A3413" t="s">
         <v>3416</v>
       </c>
@@ -38381,7 +38396,7 @@
         <v>117395.02</v>
       </c>
     </row>
-    <row r="3414" spans="1:11">
+    <row r="3414" spans="1:2">
       <c r="A3414" t="s">
         <v>3417</v>
       </c>
@@ -38389,7 +38404,7 @@
         <v>117395.02</v>
       </c>
     </row>
-    <row r="3415" spans="1:11">
+    <row r="3415" spans="1:2">
       <c r="A3415" t="s">
         <v>3418</v>
       </c>
@@ -38397,7 +38412,7 @@
         <v>117395.02</v>
       </c>
     </row>
-    <row r="3416" spans="1:11">
+    <row r="3416" spans="1:2">
       <c r="A3416" t="s">
         <v>3419</v>
       </c>
@@ -38405,7 +38420,7 @@
         <v>135833.42</v>
       </c>
     </row>
-    <row r="3417" spans="1:11">
+    <row r="3417" spans="1:2">
       <c r="A3417" t="s">
         <v>3420</v>
       </c>
@@ -38413,7 +38428,7 @@
         <v>136008.75</v>
       </c>
     </row>
-    <row r="3418" spans="1:11">
+    <row r="3418" spans="1:2">
       <c r="A3418" t="s">
         <v>3421</v>
       </c>
@@ -38421,7 +38436,7 @@
         <v>138053.53</v>
       </c>
     </row>
-    <row r="3419" spans="1:11">
+    <row r="3419" spans="1:2">
       <c r="A3419" t="s">
         <v>3422</v>
       </c>
@@ -38429,7 +38444,7 @@
         <v>134804.72</v>
       </c>
     </row>
-    <row r="3420" spans="1:11">
+    <row r="3420" spans="1:2">
       <c r="A3420" t="s">
         <v>3423</v>
       </c>
@@ -38437,7 +38452,7 @@
         <v>130032.62</v>
       </c>
     </row>
-    <row r="3421" spans="1:11">
+    <row r="3421" spans="1:2">
       <c r="A3421" t="s">
         <v>3424</v>
       </c>
@@ -38445,7 +38460,7 @@
         <v>130032.62</v>
       </c>
     </row>
-    <row r="3422" spans="1:11">
+    <row r="3422" spans="1:2">
       <c r="A3422" t="s">
         <v>3425</v>
       </c>
@@ -38453,41 +38468,21 @@
         <v>130032.62</v>
       </c>
     </row>
-    <row r="3423" spans="1:11">
+    <row r="3423" spans="1:2">
       <c r="A3423" t="s">
         <v>3426</v>
       </c>
       <c r="B3423">
         <v>140102.32</v>
       </c>
-      <c r="D3423" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3423" s="3"/>
-      <c r="F3423" s="3"/>
-      <c r="G3423" s="3"/>
-      <c r="H3423" s="3"/>
-      <c r="I3423" s="3"/>
-      <c r="J3423" s="3"/>
-      <c r="K3423" s="3"/>
-    </row>
-    <row r="3424" spans="1:11">
+    </row>
+    <row r="3424" spans="1:2">
       <c r="A3424" t="s">
         <v>3427</v>
       </c>
       <c r="B3424">
         <v>153119.32</v>
       </c>
-      <c r="D3424" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3424" s="4"/>
-      <c r="F3424" s="4"/>
-      <c r="G3424" s="4"/>
-      <c r="H3424" s="4"/>
-      <c r="I3424" s="4"/>
-      <c r="J3424" s="4"/>
-      <c r="K3424" s="4"/>
     </row>
     <row r="3425" spans="1:11">
       <c r="A3425" t="s">
@@ -38496,21 +38491,81 @@
       <c r="B3425">
         <v>175523.12</v>
       </c>
-      <c r="D3425" s="4"/>
-      <c r="E3425" s="4"/>
-      <c r="F3425" s="4"/>
-      <c r="G3425" s="4"/>
-      <c r="H3425" s="4"/>
-      <c r="I3425" s="4"/>
-      <c r="J3425" s="4"/>
-      <c r="K3425" s="4"/>
+    </row>
+    <row r="3426" spans="1:11">
+      <c r="A3426" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B3426">
+        <v>200058.83</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:11">
+      <c r="A3427" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B3427">
+        <v>195823.41</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:11">
+      <c r="A3428" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B3428">
+        <v>195823.41</v>
+      </c>
+      <c r="D3428" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3428" s="3"/>
+      <c r="F3428" s="3"/>
+      <c r="G3428" s="3"/>
+      <c r="H3428" s="3"/>
+      <c r="I3428" s="3"/>
+      <c r="J3428" s="3"/>
+      <c r="K3428" s="3"/>
+    </row>
+    <row r="3429" spans="1:11">
+      <c r="A3429" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B3429">
+        <v>195823.41</v>
+      </c>
+      <c r="D3429" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3429" s="4"/>
+      <c r="F3429" s="4"/>
+      <c r="G3429" s="4"/>
+      <c r="H3429" s="4"/>
+      <c r="I3429" s="4"/>
+      <c r="J3429" s="4"/>
+      <c r="K3429" s="4"/>
+    </row>
+    <row r="3430" spans="1:11">
+      <c r="A3430" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B3430">
+        <v>197242.02</v>
+      </c>
+      <c r="D3430" s="4"/>
+      <c r="E3430" s="4"/>
+      <c r="F3430" s="4"/>
+      <c r="G3430" s="4"/>
+      <c r="H3430" s="4"/>
+      <c r="I3430" s="4"/>
+      <c r="J3430" s="4"/>
+      <c r="K3430" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3423:K3423"/>
-    <mergeCell ref="D3424:K3425"/>
+    <mergeCell ref="D3428:K3428"/>
+    <mergeCell ref="D3429:K3430"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3436" uniqueCount="3434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="3435">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10316,6 +10316,9 @@
   </si>
   <si>
     <t>4-26-2020</t>
+  </si>
+  <si>
+    <t>4-27-2020</t>
   </si>
 </sst>
 </file>
@@ -10452,108 +10455,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3400:$A$3430</c:f>
+              <c:f>DolarToday!$A$3401:$A$3431</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-27-2020</c:v>
+                  <c:v>3-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-12-2020</c:v>
+                  <c:v>4-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-13-2020</c:v>
+                  <c:v>4-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-14-2020</c:v>
+                  <c:v>4-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-15-2020</c:v>
+                  <c:v>4-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-16-2020</c:v>
+                  <c:v>4-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-17-2020</c:v>
+                  <c:v>4-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-18-2020</c:v>
+                  <c:v>4-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-19-2020</c:v>
+                  <c:v>4-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-20-2020</c:v>
+                  <c:v>4-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-21-2020</c:v>
+                  <c:v>4-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-22-2020</c:v>
+                  <c:v>4-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-23-2020</c:v>
+                  <c:v>4-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-24-2020</c:v>
+                  <c:v>4-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-25-2020</c:v>
+                  <c:v>4-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-26-2020</c:v>
+                  <c:v>4-27-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3400:$B$3430</c:f>
+              <c:f>DolarToday!$B$3401:$B$3431</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10561,19 +10564,19 @@
                   <c:v>84723.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84581.04</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87076.65</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87396.82</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>94120.28</c:v>
@@ -10582,13 +10585,13 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99043.72</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>117395.02</c:v>
@@ -10603,19 +10606,19 @@
                   <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117395.02</c:v>
+                  <c:v>135833.42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>135833.42</c:v>
+                  <c:v>136008.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>136008.75</c:v>
+                  <c:v>138053.53</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>138053.53</c:v>
+                  <c:v>134804.72</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134804.72</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>130032.62</c:v>
@@ -10624,19 +10627,19 @@
                   <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>130032.62</c:v>
+                  <c:v>140102.32</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>140102.32</c:v>
+                  <c:v>153119.32</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>153119.32</c:v>
+                  <c:v>175523.12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>175523.12</c:v>
+                  <c:v>200058.83</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>200058.83</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>195823.41</c:v>
@@ -10645,10 +10648,10 @@
                   <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>195823.41</c:v>
+                  <c:v>197242.02</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>197242.02</c:v>
+                  <c:v>193042.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11055,7 +11058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3430"/>
+  <dimension ref="A1:K3431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38515,16 +38518,6 @@
       <c r="B3428">
         <v>195823.41</v>
       </c>
-      <c r="D3428" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3428" s="3"/>
-      <c r="F3428" s="3"/>
-      <c r="G3428" s="3"/>
-      <c r="H3428" s="3"/>
-      <c r="I3428" s="3"/>
-      <c r="J3428" s="3"/>
-      <c r="K3428" s="3"/>
     </row>
     <row r="3429" spans="1:11">
       <c r="A3429" t="s">
@@ -38533,16 +38526,16 @@
       <c r="B3429">
         <v>195823.41</v>
       </c>
-      <c r="D3429" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3429" s="4"/>
-      <c r="F3429" s="4"/>
-      <c r="G3429" s="4"/>
-      <c r="H3429" s="4"/>
-      <c r="I3429" s="4"/>
-      <c r="J3429" s="4"/>
-      <c r="K3429" s="4"/>
+      <c r="D3429" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3429" s="3"/>
+      <c r="F3429" s="3"/>
+      <c r="G3429" s="3"/>
+      <c r="H3429" s="3"/>
+      <c r="I3429" s="3"/>
+      <c r="J3429" s="3"/>
+      <c r="K3429" s="3"/>
     </row>
     <row r="3430" spans="1:11">
       <c r="A3430" t="s">
@@ -38551,7 +38544,9 @@
       <c r="B3430">
         <v>197242.02</v>
       </c>
-      <c r="D3430" s="4"/>
+      <c r="D3430" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3430" s="4"/>
       <c r="F3430" s="4"/>
       <c r="G3430" s="4"/>
@@ -38560,12 +38555,28 @@
       <c r="J3430" s="4"/>
       <c r="K3430" s="4"/>
     </row>
+    <row r="3431" spans="1:11">
+      <c r="A3431" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B3431">
+        <v>193042.81</v>
+      </c>
+      <c r="D3431" s="4"/>
+      <c r="E3431" s="4"/>
+      <c r="F3431" s="4"/>
+      <c r="G3431" s="4"/>
+      <c r="H3431" s="4"/>
+      <c r="I3431" s="4"/>
+      <c r="J3431" s="4"/>
+      <c r="K3431" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3428:K3428"/>
-    <mergeCell ref="D3429:K3430"/>
+    <mergeCell ref="D3429:K3429"/>
+    <mergeCell ref="D3430:K3431"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="3435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="3436">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10319,6 +10319,9 @@
   </si>
   <si>
     <t>4-27-2020</t>
+  </si>
+  <si>
+    <t>4-28-2020</t>
   </si>
 </sst>
 </file>
@@ -10455,125 +10458,125 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3401:$A$3431</c:f>
+              <c:f>DolarToday!$A$3402:$A$3432</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-28-2020</c:v>
+                  <c:v>3-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>3-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>3-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-12-2020</c:v>
+                  <c:v>4-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-13-2020</c:v>
+                  <c:v>4-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-14-2020</c:v>
+                  <c:v>4-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-15-2020</c:v>
+                  <c:v>4-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-16-2020</c:v>
+                  <c:v>4-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-17-2020</c:v>
+                  <c:v>4-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-18-2020</c:v>
+                  <c:v>4-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-19-2020</c:v>
+                  <c:v>4-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-20-2020</c:v>
+                  <c:v>4-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-21-2020</c:v>
+                  <c:v>4-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-22-2020</c:v>
+                  <c:v>4-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-23-2020</c:v>
+                  <c:v>4-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-24-2020</c:v>
+                  <c:v>4-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-25-2020</c:v>
+                  <c:v>4-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-26-2020</c:v>
+                  <c:v>4-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-27-2020</c:v>
+                  <c:v>4-28-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3401:$B$3431</c:f>
+              <c:f>DolarToday!$B$3402:$B$3432</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>84723.01</c:v>
+                  <c:v>84581.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84581.04</c:v>
+                  <c:v>87076.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87076.65</c:v>
+                  <c:v>87396.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87396.82</c:v>
+                  <c:v>89168.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89168.7</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>94120.28</c:v>
@@ -10582,13 +10585,13 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99043.72</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>117395.02</c:v>
@@ -10603,19 +10606,19 @@
                   <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>117395.02</c:v>
+                  <c:v>135833.42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>135833.42</c:v>
+                  <c:v>136008.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>136008.75</c:v>
+                  <c:v>138053.53</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>138053.53</c:v>
+                  <c:v>134804.72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>134804.72</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>130032.62</c:v>
@@ -10624,19 +10627,19 @@
                   <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>130032.62</c:v>
+                  <c:v>140102.32</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>140102.32</c:v>
+                  <c:v>153119.32</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>153119.32</c:v>
+                  <c:v>175523.12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>175523.12</c:v>
+                  <c:v>200058.83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>200058.83</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>195823.41</c:v>
@@ -10645,13 +10648,13 @@
                   <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>195823.41</c:v>
+                  <c:v>197242.02</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>197242.02</c:v>
+                  <c:v>193042.81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>193042.81</c:v>
+                  <c:v>185004.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11058,7 +11061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3431"/>
+  <dimension ref="A1:K3432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38526,16 +38529,6 @@
       <c r="B3429">
         <v>195823.41</v>
       </c>
-      <c r="D3429" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3429" s="3"/>
-      <c r="F3429" s="3"/>
-      <c r="G3429" s="3"/>
-      <c r="H3429" s="3"/>
-      <c r="I3429" s="3"/>
-      <c r="J3429" s="3"/>
-      <c r="K3429" s="3"/>
     </row>
     <row r="3430" spans="1:11">
       <c r="A3430" t="s">
@@ -38544,16 +38537,16 @@
       <c r="B3430">
         <v>197242.02</v>
       </c>
-      <c r="D3430" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3430" s="4"/>
-      <c r="F3430" s="4"/>
-      <c r="G3430" s="4"/>
-      <c r="H3430" s="4"/>
-      <c r="I3430" s="4"/>
-      <c r="J3430" s="4"/>
-      <c r="K3430" s="4"/>
+      <c r="D3430" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3430" s="3"/>
+      <c r="F3430" s="3"/>
+      <c r="G3430" s="3"/>
+      <c r="H3430" s="3"/>
+      <c r="I3430" s="3"/>
+      <c r="J3430" s="3"/>
+      <c r="K3430" s="3"/>
     </row>
     <row r="3431" spans="1:11">
       <c r="A3431" t="s">
@@ -38562,7 +38555,9 @@
       <c r="B3431">
         <v>193042.81</v>
       </c>
-      <c r="D3431" s="4"/>
+      <c r="D3431" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3431" s="4"/>
       <c r="F3431" s="4"/>
       <c r="G3431" s="4"/>
@@ -38571,12 +38566,28 @@
       <c r="J3431" s="4"/>
       <c r="K3431" s="4"/>
     </row>
+    <row r="3432" spans="1:11">
+      <c r="A3432" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B3432">
+        <v>185004.12</v>
+      </c>
+      <c r="D3432" s="4"/>
+      <c r="E3432" s="4"/>
+      <c r="F3432" s="4"/>
+      <c r="G3432" s="4"/>
+      <c r="H3432" s="4"/>
+      <c r="I3432" s="4"/>
+      <c r="J3432" s="4"/>
+      <c r="K3432" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3429:K3429"/>
-    <mergeCell ref="D3430:K3431"/>
+    <mergeCell ref="D3430:K3430"/>
+    <mergeCell ref="D3431:K3432"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="3436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="3440">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10322,6 +10322,18 @@
   </si>
   <si>
     <t>4-28-2020</t>
+  </si>
+  <si>
+    <t>4-29-2020</t>
+  </si>
+  <si>
+    <t>4-30-2020</t>
+  </si>
+  <si>
+    <t>5-1-2020</t>
+  </si>
+  <si>
+    <t>5-2-2020</t>
   </si>
 </sst>
 </file>
@@ -10458,203 +10470,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3402:$A$3432</c:f>
+              <c:f>DolarToday!$A$3406:$A$3436</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-29-2020</c:v>
+                  <c:v>4-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-30-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-31-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-1-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-12-2020</c:v>
+                  <c:v>4-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-13-2020</c:v>
+                  <c:v>4-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-14-2020</c:v>
+                  <c:v>4-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-15-2020</c:v>
+                  <c:v>4-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-16-2020</c:v>
+                  <c:v>4-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-17-2020</c:v>
+                  <c:v>4-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-18-2020</c:v>
+                  <c:v>4-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-19-2020</c:v>
+                  <c:v>4-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-20-2020</c:v>
+                  <c:v>4-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-21-2020</c:v>
+                  <c:v>4-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-22-2020</c:v>
+                  <c:v>4-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-23-2020</c:v>
+                  <c:v>4-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-24-2020</c:v>
+                  <c:v>4-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-25-2020</c:v>
+                  <c:v>4-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-26-2020</c:v>
+                  <c:v>4-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-27-2020</c:v>
+                  <c:v>5-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-28-2020</c:v>
+                  <c:v>5-2-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3402:$B$3432</c:f>
+              <c:f>DolarToday!$B$3406:$B$3436</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>84581.04</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87076.65</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87396.82</c:v>
+                  <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89168.7</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94120.28</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94120.28</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94120.28</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99043.72</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117395.02</c:v>
+                  <c:v>135833.42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>117395.02</c:v>
+                  <c:v>136008.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>117395.02</c:v>
+                  <c:v>138053.53</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>117395.02</c:v>
+                  <c:v>134804.72</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>135833.42</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>136008.75</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>138053.53</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>134804.72</c:v>
+                  <c:v>140102.32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>130032.62</c:v>
+                  <c:v>153119.32</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>130032.62</c:v>
+                  <c:v>175523.12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>130032.62</c:v>
+                  <c:v>200058.83</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>140102.32</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>153119.32</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>175523.12</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>200058.83</c:v>
+                  <c:v>197242.02</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>195823.41</c:v>
+                  <c:v>193042.81</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>195823.41</c:v>
+                  <c:v>185004.12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>195823.41</c:v>
+                  <c:v>180286.55</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>197242.02</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>193042.81</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>185004.12</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11061,7 +11073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3432"/>
+  <dimension ref="A1:K3436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38537,16 +38549,6 @@
       <c r="B3430">
         <v>197242.02</v>
       </c>
-      <c r="D3430" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3430" s="3"/>
-      <c r="F3430" s="3"/>
-      <c r="G3430" s="3"/>
-      <c r="H3430" s="3"/>
-      <c r="I3430" s="3"/>
-      <c r="J3430" s="3"/>
-      <c r="K3430" s="3"/>
     </row>
     <row r="3431" spans="1:11">
       <c r="A3431" t="s">
@@ -38555,16 +38557,6 @@
       <c r="B3431">
         <v>193042.81</v>
       </c>
-      <c r="D3431" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3431" s="4"/>
-      <c r="F3431" s="4"/>
-      <c r="G3431" s="4"/>
-      <c r="H3431" s="4"/>
-      <c r="I3431" s="4"/>
-      <c r="J3431" s="4"/>
-      <c r="K3431" s="4"/>
     </row>
     <row r="3432" spans="1:11">
       <c r="A3432" t="s">
@@ -38573,21 +38565,73 @@
       <c r="B3432">
         <v>185004.12</v>
       </c>
-      <c r="D3432" s="4"/>
-      <c r="E3432" s="4"/>
-      <c r="F3432" s="4"/>
-      <c r="G3432" s="4"/>
-      <c r="H3432" s="4"/>
-      <c r="I3432" s="4"/>
-      <c r="J3432" s="4"/>
-      <c r="K3432" s="4"/>
+    </row>
+    <row r="3433" spans="1:11">
+      <c r="A3433" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B3433">
+        <v>180286.55</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:11">
+      <c r="A3434" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B3434">
+        <v>177691.94</v>
+      </c>
+      <c r="D3434" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3434" s="3"/>
+      <c r="F3434" s="3"/>
+      <c r="G3434" s="3"/>
+      <c r="H3434" s="3"/>
+      <c r="I3434" s="3"/>
+      <c r="J3434" s="3"/>
+      <c r="K3434" s="3"/>
+    </row>
+    <row r="3435" spans="1:11">
+      <c r="A3435" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B3435">
+        <v>177691.94</v>
+      </c>
+      <c r="D3435" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3435" s="4"/>
+      <c r="F3435" s="4"/>
+      <c r="G3435" s="4"/>
+      <c r="H3435" s="4"/>
+      <c r="I3435" s="4"/>
+      <c r="J3435" s="4"/>
+      <c r="K3435" s="4"/>
+    </row>
+    <row r="3436" spans="1:11">
+      <c r="A3436" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B3436">
+        <v>177691.94</v>
+      </c>
+      <c r="D3436" s="4"/>
+      <c r="E3436" s="4"/>
+      <c r="F3436" s="4"/>
+      <c r="G3436" s="4"/>
+      <c r="H3436" s="4"/>
+      <c r="I3436" s="4"/>
+      <c r="J3436" s="4"/>
+      <c r="K3436" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3430:K3430"/>
-    <mergeCell ref="D3431:K3432"/>
+    <mergeCell ref="D3434:K3434"/>
+    <mergeCell ref="D3435:K3436"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="3440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="3441">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10334,6 +10334,9 @@
   </si>
   <si>
     <t>5-2-2020</t>
+  </si>
+  <si>
+    <t>5-3-2020</t>
   </si>
 </sst>
 </file>
@@ -10470,108 +10473,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3406:$A$3436</c:f>
+              <c:f>DolarToday!$A$3407:$A$3437</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-2-2020</c:v>
+                  <c:v>4-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-12-2020</c:v>
+                  <c:v>4-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-13-2020</c:v>
+                  <c:v>4-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-14-2020</c:v>
+                  <c:v>4-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-15-2020</c:v>
+                  <c:v>4-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-16-2020</c:v>
+                  <c:v>4-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-17-2020</c:v>
+                  <c:v>4-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-18-2020</c:v>
+                  <c:v>4-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-19-2020</c:v>
+                  <c:v>4-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-20-2020</c:v>
+                  <c:v>4-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-21-2020</c:v>
+                  <c:v>4-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-22-2020</c:v>
+                  <c:v>4-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-23-2020</c:v>
+                  <c:v>4-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-24-2020</c:v>
+                  <c:v>4-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-25-2020</c:v>
+                  <c:v>4-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-26-2020</c:v>
+                  <c:v>4-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-27-2020</c:v>
+                  <c:v>4-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-28-2020</c:v>
+                  <c:v>4-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-29-2020</c:v>
+                  <c:v>4-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-30-2020</c:v>
+                  <c:v>5-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-1-2020</c:v>
+                  <c:v>5-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-2-2020</c:v>
+                  <c:v>5-3-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3406:$B$3436</c:f>
+              <c:f>DolarToday!$B$3407:$B$3437</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10582,13 +10585,13 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99043.72</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>117395.02</c:v>
@@ -10603,19 +10606,19 @@
                   <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>117395.02</c:v>
+                  <c:v>135833.42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>135833.42</c:v>
+                  <c:v>136008.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>136008.75</c:v>
+                  <c:v>138053.53</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138053.53</c:v>
+                  <c:v>134804.72</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>134804.72</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>130032.62</c:v>
@@ -10624,19 +10627,19 @@
                   <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>130032.62</c:v>
+                  <c:v>140102.32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>140102.32</c:v>
+                  <c:v>153119.32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>153119.32</c:v>
+                  <c:v>175523.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>175523.12</c:v>
+                  <c:v>200058.83</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200058.83</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>195823.41</c:v>
@@ -10645,19 +10648,19 @@
                   <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>195823.41</c:v>
+                  <c:v>197242.02</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>197242.02</c:v>
+                  <c:v>193042.81</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>193042.81</c:v>
+                  <c:v>185004.12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>185004.12</c:v>
+                  <c:v>180286.55</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>180286.55</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>177691.94</c:v>
@@ -10666,7 +10669,7 @@
                   <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>177691.94</c:v>
+                  <c:v>180022.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11073,7 +11076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3436"/>
+  <dimension ref="A1:K3437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38581,16 +38584,6 @@
       <c r="B3434">
         <v>177691.94</v>
       </c>
-      <c r="D3434" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3434" s="3"/>
-      <c r="F3434" s="3"/>
-      <c r="G3434" s="3"/>
-      <c r="H3434" s="3"/>
-      <c r="I3434" s="3"/>
-      <c r="J3434" s="3"/>
-      <c r="K3434" s="3"/>
     </row>
     <row r="3435" spans="1:11">
       <c r="A3435" t="s">
@@ -38599,16 +38592,16 @@
       <c r="B3435">
         <v>177691.94</v>
       </c>
-      <c r="D3435" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3435" s="4"/>
-      <c r="F3435" s="4"/>
-      <c r="G3435" s="4"/>
-      <c r="H3435" s="4"/>
-      <c r="I3435" s="4"/>
-      <c r="J3435" s="4"/>
-      <c r="K3435" s="4"/>
+      <c r="D3435" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3435" s="3"/>
+      <c r="F3435" s="3"/>
+      <c r="G3435" s="3"/>
+      <c r="H3435" s="3"/>
+      <c r="I3435" s="3"/>
+      <c r="J3435" s="3"/>
+      <c r="K3435" s="3"/>
     </row>
     <row r="3436" spans="1:11">
       <c r="A3436" t="s">
@@ -38617,7 +38610,9 @@
       <c r="B3436">
         <v>177691.94</v>
       </c>
-      <c r="D3436" s="4"/>
+      <c r="D3436" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3436" s="4"/>
       <c r="F3436" s="4"/>
       <c r="G3436" s="4"/>
@@ -38626,12 +38621,28 @@
       <c r="J3436" s="4"/>
       <c r="K3436" s="4"/>
     </row>
+    <row r="3437" spans="1:11">
+      <c r="A3437" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B3437">
+        <v>180022.62</v>
+      </c>
+      <c r="D3437" s="4"/>
+      <c r="E3437" s="4"/>
+      <c r="F3437" s="4"/>
+      <c r="G3437" s="4"/>
+      <c r="H3437" s="4"/>
+      <c r="I3437" s="4"/>
+      <c r="J3437" s="4"/>
+      <c r="K3437" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3434:K3434"/>
-    <mergeCell ref="D3435:K3436"/>
+    <mergeCell ref="D3435:K3435"/>
+    <mergeCell ref="D3436:K3437"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="3441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="3442">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10337,6 +10337,9 @@
   </si>
   <si>
     <t>5-3-2020</t>
+  </si>
+  <si>
+    <t>5-4-2020</t>
   </si>
 </sst>
 </file>
@@ -10473,108 +10476,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3407:$A$3437</c:f>
+              <c:f>DolarToday!$A$3408:$A$3438</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-3-2020</c:v>
+                  <c:v>4-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-12-2020</c:v>
+                  <c:v>4-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-13-2020</c:v>
+                  <c:v>4-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-14-2020</c:v>
+                  <c:v>4-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-15-2020</c:v>
+                  <c:v>4-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-16-2020</c:v>
+                  <c:v>4-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-17-2020</c:v>
+                  <c:v>4-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-18-2020</c:v>
+                  <c:v>4-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-19-2020</c:v>
+                  <c:v>4-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-20-2020</c:v>
+                  <c:v>4-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-21-2020</c:v>
+                  <c:v>4-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-22-2020</c:v>
+                  <c:v>4-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-23-2020</c:v>
+                  <c:v>4-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-24-2020</c:v>
+                  <c:v>4-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-25-2020</c:v>
+                  <c:v>4-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-26-2020</c:v>
+                  <c:v>4-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-27-2020</c:v>
+                  <c:v>4-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-28-2020</c:v>
+                  <c:v>4-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-29-2020</c:v>
+                  <c:v>4-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-30-2020</c:v>
+                  <c:v>5-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5-1-2020</c:v>
+                  <c:v>5-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-2-2020</c:v>
+                  <c:v>5-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-3-2020</c:v>
+                  <c:v>5-4-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3407:$B$3437</c:f>
+              <c:f>DolarToday!$B$3408:$B$3438</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10582,13 +10585,13 @@
                   <c:v>94120.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94120.28</c:v>
+                  <c:v>99043.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99043.72</c:v>
+                  <c:v>105729.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105729.27</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>117395.02</c:v>
@@ -10603,19 +10606,19 @@
                   <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>117395.02</c:v>
+                  <c:v>135833.42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>135833.42</c:v>
+                  <c:v>136008.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>136008.75</c:v>
+                  <c:v>138053.53</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>138053.53</c:v>
+                  <c:v>134804.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>134804.72</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>130032.62</c:v>
@@ -10624,19 +10627,19 @@
                   <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>130032.62</c:v>
+                  <c:v>140102.32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140102.32</c:v>
+                  <c:v>153119.32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>153119.32</c:v>
+                  <c:v>175523.12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>175523.12</c:v>
+                  <c:v>200058.83</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200058.83</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>195823.41</c:v>
@@ -10645,19 +10648,19 @@
                   <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>195823.41</c:v>
+                  <c:v>197242.02</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>197242.02</c:v>
+                  <c:v>193042.81</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>193042.81</c:v>
+                  <c:v>185004.12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>185004.12</c:v>
+                  <c:v>180286.55</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>180286.55</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>177691.94</c:v>
@@ -10666,10 +10669,10 @@
                   <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>177691.94</c:v>
+                  <c:v>180022.62</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>180022.62</c:v>
+                  <c:v>179021.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11076,7 +11079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3437"/>
+  <dimension ref="A1:K3438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38592,16 +38595,6 @@
       <c r="B3435">
         <v>177691.94</v>
       </c>
-      <c r="D3435" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3435" s="3"/>
-      <c r="F3435" s="3"/>
-      <c r="G3435" s="3"/>
-      <c r="H3435" s="3"/>
-      <c r="I3435" s="3"/>
-      <c r="J3435" s="3"/>
-      <c r="K3435" s="3"/>
     </row>
     <row r="3436" spans="1:11">
       <c r="A3436" t="s">
@@ -38610,16 +38603,16 @@
       <c r="B3436">
         <v>177691.94</v>
       </c>
-      <c r="D3436" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3436" s="4"/>
-      <c r="F3436" s="4"/>
-      <c r="G3436" s="4"/>
-      <c r="H3436" s="4"/>
-      <c r="I3436" s="4"/>
-      <c r="J3436" s="4"/>
-      <c r="K3436" s="4"/>
+      <c r="D3436" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3436" s="3"/>
+      <c r="F3436" s="3"/>
+      <c r="G3436" s="3"/>
+      <c r="H3436" s="3"/>
+      <c r="I3436" s="3"/>
+      <c r="J3436" s="3"/>
+      <c r="K3436" s="3"/>
     </row>
     <row r="3437" spans="1:11">
       <c r="A3437" t="s">
@@ -38628,7 +38621,9 @@
       <c r="B3437">
         <v>180022.62</v>
       </c>
-      <c r="D3437" s="4"/>
+      <c r="D3437" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3437" s="4"/>
       <c r="F3437" s="4"/>
       <c r="G3437" s="4"/>
@@ -38637,12 +38632,28 @@
       <c r="J3437" s="4"/>
       <c r="K3437" s="4"/>
     </row>
+    <row r="3438" spans="1:11">
+      <c r="A3438" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B3438">
+        <v>179021.82</v>
+      </c>
+      <c r="D3438" s="4"/>
+      <c r="E3438" s="4"/>
+      <c r="F3438" s="4"/>
+      <c r="G3438" s="4"/>
+      <c r="H3438" s="4"/>
+      <c r="I3438" s="4"/>
+      <c r="J3438" s="4"/>
+      <c r="K3438" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3435:K3435"/>
-    <mergeCell ref="D3436:K3437"/>
+    <mergeCell ref="D3436:K3436"/>
+    <mergeCell ref="D3437:K3438"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="3442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="3448">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10340,6 +10340,24 @@
   </si>
   <si>
     <t>5-4-2020</t>
+  </si>
+  <si>
+    <t>5-5-2020</t>
+  </si>
+  <si>
+    <t>5-6-2020</t>
+  </si>
+  <si>
+    <t>5-7-2020</t>
+  </si>
+  <si>
+    <t>5-8-2020</t>
+  </si>
+  <si>
+    <t>5-9-2020</t>
+  </si>
+  <si>
+    <t>5-10-2020</t>
   </si>
 </sst>
 </file>
@@ -10476,203 +10494,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3408:$A$3438</c:f>
+              <c:f>DolarToday!$A$3414:$A$3444</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-4-2020</c:v>
+                  <c:v>4-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-5-2020</c:v>
+                  <c:v>4-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-6-2020</c:v>
+                  <c:v>4-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-7-2020</c:v>
+                  <c:v>4-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-8-2020</c:v>
+                  <c:v>4-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-9-2020</c:v>
+                  <c:v>4-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-12-2020</c:v>
+                  <c:v>4-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-13-2020</c:v>
+                  <c:v>4-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-14-2020</c:v>
+                  <c:v>4-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-15-2020</c:v>
+                  <c:v>4-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-16-2020</c:v>
+                  <c:v>4-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-17-2020</c:v>
+                  <c:v>4-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-18-2020</c:v>
+                  <c:v>4-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-19-2020</c:v>
+                  <c:v>4-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-20-2020</c:v>
+                  <c:v>4-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-21-2020</c:v>
+                  <c:v>4-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-22-2020</c:v>
+                  <c:v>4-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-23-2020</c:v>
+                  <c:v>4-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-24-2020</c:v>
+                  <c:v>4-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-25-2020</c:v>
+                  <c:v>5-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-26-2020</c:v>
+                  <c:v>5-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-27-2020</c:v>
+                  <c:v>5-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-28-2020</c:v>
+                  <c:v>5-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-29-2020</c:v>
+                  <c:v>5-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-30-2020</c:v>
+                  <c:v>5-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5-1-2020</c:v>
+                  <c:v>5-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5-2-2020</c:v>
+                  <c:v>5-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-3-2020</c:v>
+                  <c:v>5-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-4-2020</c:v>
+                  <c:v>5-10-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3408:$B$3438</c:f>
+              <c:f>DolarToday!$B$3414:$B$3444</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>94120.28</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99043.72</c:v>
+                  <c:v>117395.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105729.27</c:v>
+                  <c:v>135833.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117395.02</c:v>
+                  <c:v>136008.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117395.02</c:v>
+                  <c:v>138053.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117395.02</c:v>
+                  <c:v>134804.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>117395.02</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>117395.02</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>135833.42</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>136008.75</c:v>
+                  <c:v>140102.32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>138053.53</c:v>
+                  <c:v>153119.32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>134804.72</c:v>
+                  <c:v>175523.12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130032.62</c:v>
+                  <c:v>200058.83</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130032.62</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>130032.62</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>140102.32</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>153119.32</c:v>
+                  <c:v>197242.02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>175523.12</c:v>
+                  <c:v>193042.81</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>200058.83</c:v>
+                  <c:v>185004.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>195823.41</c:v>
+                  <c:v>180286.55</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>195823.41</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>195823.41</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>197242.02</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>193042.81</c:v>
+                  <c:v>180022.62</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>185004.12</c:v>
+                  <c:v>179021.82</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>180286.55</c:v>
+                  <c:v>175501.44</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>177691.94</c:v>
+                  <c:v>178502.21</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>177691.94</c:v>
+                  <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>177691.94</c:v>
+                  <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>180022.62</c:v>
+                  <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>179021.82</c:v>
+                  <c:v>185201.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11079,7 +11097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3438"/>
+  <dimension ref="A1:K3444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38508,7 +38526,7 @@
         <v>153119.32</v>
       </c>
     </row>
-    <row r="3425" spans="1:11">
+    <row r="3425" spans="1:2">
       <c r="A3425" t="s">
         <v>3428</v>
       </c>
@@ -38516,7 +38534,7 @@
         <v>175523.12</v>
       </c>
     </row>
-    <row r="3426" spans="1:11">
+    <row r="3426" spans="1:2">
       <c r="A3426" t="s">
         <v>3429</v>
       </c>
@@ -38524,7 +38542,7 @@
         <v>200058.83</v>
       </c>
     </row>
-    <row r="3427" spans="1:11">
+    <row r="3427" spans="1:2">
       <c r="A3427" t="s">
         <v>3430</v>
       </c>
@@ -38532,7 +38550,7 @@
         <v>195823.41</v>
       </c>
     </row>
-    <row r="3428" spans="1:11">
+    <row r="3428" spans="1:2">
       <c r="A3428" t="s">
         <v>3431</v>
       </c>
@@ -38540,7 +38558,7 @@
         <v>195823.41</v>
       </c>
     </row>
-    <row r="3429" spans="1:11">
+    <row r="3429" spans="1:2">
       <c r="A3429" t="s">
         <v>3432</v>
       </c>
@@ -38548,7 +38566,7 @@
         <v>195823.41</v>
       </c>
     </row>
-    <row r="3430" spans="1:11">
+    <row r="3430" spans="1:2">
       <c r="A3430" t="s">
         <v>3433</v>
       </c>
@@ -38556,7 +38574,7 @@
         <v>197242.02</v>
       </c>
     </row>
-    <row r="3431" spans="1:11">
+    <row r="3431" spans="1:2">
       <c r="A3431" t="s">
         <v>3434</v>
       </c>
@@ -38564,7 +38582,7 @@
         <v>193042.81</v>
       </c>
     </row>
-    <row r="3432" spans="1:11">
+    <row r="3432" spans="1:2">
       <c r="A3432" t="s">
         <v>3435</v>
       </c>
@@ -38572,7 +38590,7 @@
         <v>185004.12</v>
       </c>
     </row>
-    <row r="3433" spans="1:11">
+    <row r="3433" spans="1:2">
       <c r="A3433" t="s">
         <v>3436</v>
       </c>
@@ -38580,7 +38598,7 @@
         <v>180286.55</v>
       </c>
     </row>
-    <row r="3434" spans="1:11">
+    <row r="3434" spans="1:2">
       <c r="A3434" t="s">
         <v>3437</v>
       </c>
@@ -38588,7 +38606,7 @@
         <v>177691.94</v>
       </c>
     </row>
-    <row r="3435" spans="1:11">
+    <row r="3435" spans="1:2">
       <c r="A3435" t="s">
         <v>3438</v>
       </c>
@@ -38596,64 +38614,112 @@
         <v>177691.94</v>
       </c>
     </row>
-    <row r="3436" spans="1:11">
+    <row r="3436" spans="1:2">
       <c r="A3436" t="s">
         <v>3439</v>
       </c>
       <c r="B3436">
         <v>177691.94</v>
       </c>
-      <c r="D3436" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3436" s="3"/>
-      <c r="F3436" s="3"/>
-      <c r="G3436" s="3"/>
-      <c r="H3436" s="3"/>
-      <c r="I3436" s="3"/>
-      <c r="J3436" s="3"/>
-      <c r="K3436" s="3"/>
-    </row>
-    <row r="3437" spans="1:11">
+    </row>
+    <row r="3437" spans="1:2">
       <c r="A3437" t="s">
         <v>3440</v>
       </c>
       <c r="B3437">
         <v>180022.62</v>
       </c>
-      <c r="D3437" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3437" s="4"/>
-      <c r="F3437" s="4"/>
-      <c r="G3437" s="4"/>
-      <c r="H3437" s="4"/>
-      <c r="I3437" s="4"/>
-      <c r="J3437" s="4"/>
-      <c r="K3437" s="4"/>
-    </row>
-    <row r="3438" spans="1:11">
+    </row>
+    <row r="3438" spans="1:2">
       <c r="A3438" t="s">
         <v>3441</v>
       </c>
       <c r="B3438">
         <v>179021.82</v>
       </c>
-      <c r="D3438" s="4"/>
-      <c r="E3438" s="4"/>
-      <c r="F3438" s="4"/>
-      <c r="G3438" s="4"/>
-      <c r="H3438" s="4"/>
-      <c r="I3438" s="4"/>
-      <c r="J3438" s="4"/>
-      <c r="K3438" s="4"/>
+    </row>
+    <row r="3439" spans="1:2">
+      <c r="A3439" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B3439">
+        <v>175501.44</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:2">
+      <c r="A3440" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B3440">
+        <v>178502.21</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:11">
+      <c r="A3441" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B3441">
+        <v>182042.31</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:11">
+      <c r="A3442" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B3442">
+        <v>182042.31</v>
+      </c>
+      <c r="D3442" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3442" s="3"/>
+      <c r="F3442" s="3"/>
+      <c r="G3442" s="3"/>
+      <c r="H3442" s="3"/>
+      <c r="I3442" s="3"/>
+      <c r="J3442" s="3"/>
+      <c r="K3442" s="3"/>
+    </row>
+    <row r="3443" spans="1:11">
+      <c r="A3443" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B3443">
+        <v>182042.31</v>
+      </c>
+      <c r="D3443" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3443" s="4"/>
+      <c r="F3443" s="4"/>
+      <c r="G3443" s="4"/>
+      <c r="H3443" s="4"/>
+      <c r="I3443" s="4"/>
+      <c r="J3443" s="4"/>
+      <c r="K3443" s="4"/>
+    </row>
+    <row r="3444" spans="1:11">
+      <c r="A3444" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B3444">
+        <v>185201.74</v>
+      </c>
+      <c r="D3444" s="4"/>
+      <c r="E3444" s="4"/>
+      <c r="F3444" s="4"/>
+      <c r="G3444" s="4"/>
+      <c r="H3444" s="4"/>
+      <c r="I3444" s="4"/>
+      <c r="J3444" s="4"/>
+      <c r="K3444" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3436:K3436"/>
-    <mergeCell ref="D3437:K3438"/>
+    <mergeCell ref="D3442:K3442"/>
+    <mergeCell ref="D3443:K3444"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="3448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="3456">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10358,6 +10358,30 @@
   </si>
   <si>
     <t>5-10-2020</t>
+  </si>
+  <si>
+    <t>5-11-2020</t>
+  </si>
+  <si>
+    <t>5-12-2020</t>
+  </si>
+  <si>
+    <t>5-13-2020</t>
+  </si>
+  <si>
+    <t>5-14-2020</t>
+  </si>
+  <si>
+    <t>5-15-2020</t>
+  </si>
+  <si>
+    <t>5-16-2020</t>
+  </si>
+  <si>
+    <t>5-17-2020</t>
+  </si>
+  <si>
+    <t>5-18-2020</t>
   </si>
 </sst>
 </file>
@@ -10494,203 +10518,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3414:$A$3444</c:f>
+              <c:f>DolarToday!$A$3422:$A$3452</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-10-2020</c:v>
+                  <c:v>4-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-11-2020</c:v>
+                  <c:v>4-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-12-2020</c:v>
+                  <c:v>4-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-13-2020</c:v>
+                  <c:v>4-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-14-2020</c:v>
+                  <c:v>4-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-15-2020</c:v>
+                  <c:v>4-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-16-2020</c:v>
+                  <c:v>4-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-17-2020</c:v>
+                  <c:v>4-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-18-2020</c:v>
+                  <c:v>4-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-19-2020</c:v>
+                  <c:v>4-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-20-2020</c:v>
+                  <c:v>4-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-21-2020</c:v>
+                  <c:v>4-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-22-2020</c:v>
+                  <c:v>4-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-23-2020</c:v>
+                  <c:v>5-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-24-2020</c:v>
+                  <c:v>5-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-25-2020</c:v>
+                  <c:v>5-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-26-2020</c:v>
+                  <c:v>5-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-27-2020</c:v>
+                  <c:v>5-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-28-2020</c:v>
+                  <c:v>5-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-29-2020</c:v>
+                  <c:v>5-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-30-2020</c:v>
+                  <c:v>5-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5-1-2020</c:v>
+                  <c:v>5-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5-2-2020</c:v>
+                  <c:v>5-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5-3-2020</c:v>
+                  <c:v>5-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5-4-2020</c:v>
+                  <c:v>5-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5-5-2020</c:v>
+                  <c:v>5-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5-6-2020</c:v>
+                  <c:v>5-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5-7-2020</c:v>
+                  <c:v>5-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5-8-2020</c:v>
+                  <c:v>5-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-9-2020</c:v>
+                  <c:v>5-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-10-2020</c:v>
+                  <c:v>5-18-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3414:$B$3444</c:f>
+              <c:f>DolarToday!$B$3422:$B$3452</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>117395.02</c:v>
+                  <c:v>130032.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117395.02</c:v>
+                  <c:v>140102.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135833.42</c:v>
+                  <c:v>153119.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136008.75</c:v>
+                  <c:v>175523.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138053.53</c:v>
+                  <c:v>200058.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>134804.72</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130032.62</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130032.62</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130032.62</c:v>
+                  <c:v>197242.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140102.32</c:v>
+                  <c:v>193042.81</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>153119.32</c:v>
+                  <c:v>185004.12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>175523.12</c:v>
+                  <c:v>180286.55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200058.83</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>195823.41</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>195823.41</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>195823.41</c:v>
+                  <c:v>180022.62</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>197242.02</c:v>
+                  <c:v>179021.82</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>193042.81</c:v>
+                  <c:v>175501.44</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>185004.12</c:v>
+                  <c:v>178502.21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>180286.55</c:v>
+                  <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>177691.94</c:v>
+                  <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>177691.94</c:v>
+                  <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>177691.94</c:v>
+                  <c:v>185201.74</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>180022.62</c:v>
+                  <c:v>182499.03</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>179021.82</c:v>
+                  <c:v>186027.48</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>175501.44</c:v>
+                  <c:v>187704.89</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>178502.21</c:v>
+                  <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>182042.31</c:v>
+                  <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>182042.31</c:v>
+                  <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>182042.31</c:v>
+                  <c:v>187241.82</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>185201.74</c:v>
+                  <c:v>188031.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11097,7 +11121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3444"/>
+  <dimension ref="A1:K3452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38669,16 +38693,6 @@
       <c r="B3442">
         <v>182042.31</v>
       </c>
-      <c r="D3442" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3442" s="3"/>
-      <c r="F3442" s="3"/>
-      <c r="G3442" s="3"/>
-      <c r="H3442" s="3"/>
-      <c r="I3442" s="3"/>
-      <c r="J3442" s="3"/>
-      <c r="K3442" s="3"/>
     </row>
     <row r="3443" spans="1:11">
       <c r="A3443" t="s">
@@ -38687,16 +38701,6 @@
       <c r="B3443">
         <v>182042.31</v>
       </c>
-      <c r="D3443" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3443" s="4"/>
-      <c r="F3443" s="4"/>
-      <c r="G3443" s="4"/>
-      <c r="H3443" s="4"/>
-      <c r="I3443" s="4"/>
-      <c r="J3443" s="4"/>
-      <c r="K3443" s="4"/>
     </row>
     <row r="3444" spans="1:11">
       <c r="A3444" t="s">
@@ -38705,21 +38709,105 @@
       <c r="B3444">
         <v>185201.74</v>
       </c>
-      <c r="D3444" s="4"/>
-      <c r="E3444" s="4"/>
-      <c r="F3444" s="4"/>
-      <c r="G3444" s="4"/>
-      <c r="H3444" s="4"/>
-      <c r="I3444" s="4"/>
-      <c r="J3444" s="4"/>
-      <c r="K3444" s="4"/>
+    </row>
+    <row r="3445" spans="1:11">
+      <c r="A3445" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B3445">
+        <v>182499.03</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:11">
+      <c r="A3446" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B3446">
+        <v>186027.48</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:11">
+      <c r="A3447" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B3447">
+        <v>187704.89</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:11">
+      <c r="A3448" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B3448">
+        <v>188021.12</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:11">
+      <c r="A3449" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B3449">
+        <v>188021.12</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:11">
+      <c r="A3450" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B3450">
+        <v>188021.12</v>
+      </c>
+      <c r="D3450" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3450" s="3"/>
+      <c r="F3450" s="3"/>
+      <c r="G3450" s="3"/>
+      <c r="H3450" s="3"/>
+      <c r="I3450" s="3"/>
+      <c r="J3450" s="3"/>
+      <c r="K3450" s="3"/>
+    </row>
+    <row r="3451" spans="1:11">
+      <c r="A3451" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B3451">
+        <v>187241.82</v>
+      </c>
+      <c r="D3451" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3451" s="4"/>
+      <c r="F3451" s="4"/>
+      <c r="G3451" s="4"/>
+      <c r="H3451" s="4"/>
+      <c r="I3451" s="4"/>
+      <c r="J3451" s="4"/>
+      <c r="K3451" s="4"/>
+    </row>
+    <row r="3452" spans="1:11">
+      <c r="A3452" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B3452">
+        <v>188031.86</v>
+      </c>
+      <c r="D3452" s="4"/>
+      <c r="E3452" s="4"/>
+      <c r="F3452" s="4"/>
+      <c r="G3452" s="4"/>
+      <c r="H3452" s="4"/>
+      <c r="I3452" s="4"/>
+      <c r="J3452" s="4"/>
+      <c r="K3452" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3442:K3442"/>
-    <mergeCell ref="D3443:K3444"/>
+    <mergeCell ref="D3450:K3450"/>
+    <mergeCell ref="D3451:K3452"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="3456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="3461">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10382,6 +10382,21 @@
   </si>
   <si>
     <t>5-18-2020</t>
+  </si>
+  <si>
+    <t>5-19-2020</t>
+  </si>
+  <si>
+    <t>5-20-2020</t>
+  </si>
+  <si>
+    <t>5-21-2020</t>
+  </si>
+  <si>
+    <t>5-22-2020</t>
+  </si>
+  <si>
+    <t>5-23-2020</t>
   </si>
 </sst>
 </file>
@@ -10518,203 +10533,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3422:$A$3452</c:f>
+              <c:f>DolarToday!$A$3427:$A$3457</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-18-2020</c:v>
+                  <c:v>4-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-19-2020</c:v>
+                  <c:v>4-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-20-2020</c:v>
+                  <c:v>4-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-21-2020</c:v>
+                  <c:v>4-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-22-2020</c:v>
+                  <c:v>4-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-23-2020</c:v>
+                  <c:v>4-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-24-2020</c:v>
+                  <c:v>4-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-25-2020</c:v>
+                  <c:v>4-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-26-2020</c:v>
+                  <c:v>5-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-27-2020</c:v>
+                  <c:v>5-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-28-2020</c:v>
+                  <c:v>5-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-29-2020</c:v>
+                  <c:v>5-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-30-2020</c:v>
+                  <c:v>5-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5-1-2020</c:v>
+                  <c:v>5-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5-2-2020</c:v>
+                  <c:v>5-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5-3-2020</c:v>
+                  <c:v>5-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5-4-2020</c:v>
+                  <c:v>5-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5-5-2020</c:v>
+                  <c:v>5-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5-6-2020</c:v>
+                  <c:v>5-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5-7-2020</c:v>
+                  <c:v>5-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5-8-2020</c:v>
+                  <c:v>5-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5-9-2020</c:v>
+                  <c:v>5-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5-10-2020</c:v>
+                  <c:v>5-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5-11-2020</c:v>
+                  <c:v>5-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5-12-2020</c:v>
+                  <c:v>5-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5-13-2020</c:v>
+                  <c:v>5-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5-14-2020</c:v>
+                  <c:v>5-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5-15-2020</c:v>
+                  <c:v>5-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5-16-2020</c:v>
+                  <c:v>5-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-17-2020</c:v>
+                  <c:v>5-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-18-2020</c:v>
+                  <c:v>5-23-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3422:$B$3452</c:f>
+              <c:f>DolarToday!$B$3427:$B$3457</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>130032.62</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140102.32</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153119.32</c:v>
+                  <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>175523.12</c:v>
+                  <c:v>197242.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200058.83</c:v>
+                  <c:v>193042.81</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>195823.41</c:v>
+                  <c:v>185004.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>195823.41</c:v>
+                  <c:v>180286.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>195823.41</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>197242.02</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>193042.81</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>185004.12</c:v>
+                  <c:v>180022.62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>180286.55</c:v>
+                  <c:v>179021.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>177691.94</c:v>
+                  <c:v>175501.44</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>177691.94</c:v>
+                  <c:v>178502.21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>177691.94</c:v>
+                  <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>180022.62</c:v>
+                  <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>179021.82</c:v>
+                  <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>175501.44</c:v>
+                  <c:v>185201.74</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>178502.21</c:v>
+                  <c:v>182499.03</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>182042.31</c:v>
+                  <c:v>186027.48</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>182042.31</c:v>
+                  <c:v>187704.89</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>182042.31</c:v>
+                  <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>185201.74</c:v>
+                  <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>182499.03</c:v>
+                  <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>186027.48</c:v>
+                  <c:v>187241.82</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>187704.89</c:v>
+                  <c:v>188031.86</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>188021.12</c:v>
+                  <c:v>188794.82</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>188021.12</c:v>
+                  <c:v>188794.82</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>188021.12</c:v>
+                  <c:v>205043.61</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>187241.82</c:v>
+                  <c:v>205043.61</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>188031.86</c:v>
+                  <c:v>205043.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11121,7 +11136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3452"/>
+  <dimension ref="A1:K3457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38757,16 +38772,6 @@
       <c r="B3450">
         <v>188021.12</v>
       </c>
-      <c r="D3450" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3450" s="3"/>
-      <c r="F3450" s="3"/>
-      <c r="G3450" s="3"/>
-      <c r="H3450" s="3"/>
-      <c r="I3450" s="3"/>
-      <c r="J3450" s="3"/>
-      <c r="K3450" s="3"/>
     </row>
     <row r="3451" spans="1:11">
       <c r="A3451" t="s">
@@ -38775,16 +38780,6 @@
       <c r="B3451">
         <v>187241.82</v>
       </c>
-      <c r="D3451" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3451" s="4"/>
-      <c r="F3451" s="4"/>
-      <c r="G3451" s="4"/>
-      <c r="H3451" s="4"/>
-      <c r="I3451" s="4"/>
-      <c r="J3451" s="4"/>
-      <c r="K3451" s="4"/>
     </row>
     <row r="3452" spans="1:11">
       <c r="A3452" t="s">
@@ -38793,21 +38788,81 @@
       <c r="B3452">
         <v>188031.86</v>
       </c>
-      <c r="D3452" s="4"/>
-      <c r="E3452" s="4"/>
-      <c r="F3452" s="4"/>
-      <c r="G3452" s="4"/>
-      <c r="H3452" s="4"/>
-      <c r="I3452" s="4"/>
-      <c r="J3452" s="4"/>
-      <c r="K3452" s="4"/>
+    </row>
+    <row r="3453" spans="1:11">
+      <c r="A3453" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B3453">
+        <v>188794.82</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:11">
+      <c r="A3454" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B3454">
+        <v>188794.82</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:11">
+      <c r="A3455" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B3455">
+        <v>205043.61</v>
+      </c>
+      <c r="D3455" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3455" s="3"/>
+      <c r="F3455" s="3"/>
+      <c r="G3455" s="3"/>
+      <c r="H3455" s="3"/>
+      <c r="I3455" s="3"/>
+      <c r="J3455" s="3"/>
+      <c r="K3455" s="3"/>
+    </row>
+    <row r="3456" spans="1:11">
+      <c r="A3456" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B3456">
+        <v>205043.61</v>
+      </c>
+      <c r="D3456" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3456" s="4"/>
+      <c r="F3456" s="4"/>
+      <c r="G3456" s="4"/>
+      <c r="H3456" s="4"/>
+      <c r="I3456" s="4"/>
+      <c r="J3456" s="4"/>
+      <c r="K3456" s="4"/>
+    </row>
+    <row r="3457" spans="1:11">
+      <c r="A3457" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B3457">
+        <v>205043.61</v>
+      </c>
+      <c r="D3457" s="4"/>
+      <c r="E3457" s="4"/>
+      <c r="F3457" s="4"/>
+      <c r="G3457" s="4"/>
+      <c r="H3457" s="4"/>
+      <c r="I3457" s="4"/>
+      <c r="J3457" s="4"/>
+      <c r="K3457" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3450:K3450"/>
-    <mergeCell ref="D3451:K3452"/>
+    <mergeCell ref="D3455:K3455"/>
+    <mergeCell ref="D3456:K3457"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="3461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="3463">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10397,6 +10397,12 @@
   </si>
   <si>
     <t>5-23-2020</t>
+  </si>
+  <si>
+    <t>5-24-2020</t>
+  </si>
+  <si>
+    <t>5-25-2020</t>
   </si>
 </sst>
 </file>
@@ -10533,108 +10539,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3427:$A$3457</c:f>
+              <c:f>DolarToday!$A$3429:$A$3459</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-23-2020</c:v>
+                  <c:v>4-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-24-2020</c:v>
+                  <c:v>4-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-25-2020</c:v>
+                  <c:v>4-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-26-2020</c:v>
+                  <c:v>4-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-27-2020</c:v>
+                  <c:v>4-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-28-2020</c:v>
+                  <c:v>4-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-29-2020</c:v>
+                  <c:v>5-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-30-2020</c:v>
+                  <c:v>5-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5-1-2020</c:v>
+                  <c:v>5-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5-2-2020</c:v>
+                  <c:v>5-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5-3-2020</c:v>
+                  <c:v>5-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5-4-2020</c:v>
+                  <c:v>5-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5-5-2020</c:v>
+                  <c:v>5-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5-6-2020</c:v>
+                  <c:v>5-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5-7-2020</c:v>
+                  <c:v>5-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5-8-2020</c:v>
+                  <c:v>5-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5-9-2020</c:v>
+                  <c:v>5-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5-10-2020</c:v>
+                  <c:v>5-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5-11-2020</c:v>
+                  <c:v>5-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5-12-2020</c:v>
+                  <c:v>5-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5-13-2020</c:v>
+                  <c:v>5-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5-14-2020</c:v>
+                  <c:v>5-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5-15-2020</c:v>
+                  <c:v>5-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5-16-2020</c:v>
+                  <c:v>5-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5-17-2020</c:v>
+                  <c:v>5-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5-18-2020</c:v>
+                  <c:v>5-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5-19-2020</c:v>
+                  <c:v>5-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5-20-2020</c:v>
+                  <c:v>5-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5-21-2020</c:v>
+                  <c:v>5-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-22-2020</c:v>
+                  <c:v>5-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-23-2020</c:v>
+                  <c:v>5-25-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3427:$B$3457</c:f>
+              <c:f>DolarToday!$B$3429:$B$3459</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10642,94 +10648,94 @@
                   <c:v>195823.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>195823.41</c:v>
+                  <c:v>197242.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>195823.41</c:v>
+                  <c:v>193042.81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197242.02</c:v>
+                  <c:v>185004.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>193042.81</c:v>
+                  <c:v>180286.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>185004.12</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>180286.55</c:v>
+                  <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>177691.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>177691.94</c:v>
+                  <c:v>180022.62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>177691.94</c:v>
+                  <c:v>179021.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>180022.62</c:v>
+                  <c:v>175501.44</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>179021.82</c:v>
+                  <c:v>178502.21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>175501.44</c:v>
+                  <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>178502.21</c:v>
+                  <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>182042.31</c:v>
+                  <c:v>185201.74</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>182042.31</c:v>
+                  <c:v>182499.03</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>185201.74</c:v>
+                  <c:v>186027.48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>182499.03</c:v>
+                  <c:v>187704.89</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>186027.48</c:v>
+                  <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>187704.89</c:v>
+                  <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>188021.12</c:v>
+                  <c:v>187241.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>188021.12</c:v>
+                  <c:v>188031.86</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>187241.82</c:v>
+                  <c:v>188794.82</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>188031.86</c:v>
+                  <c:v>188794.82</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>188794.82</c:v>
+                  <c:v>205043.61</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>188794.82</c:v>
+                  <c:v>205043.61</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>205043.61</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>205043.61</c:v>
+                  <c:v>206396.53</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>205043.61</c:v>
+                  <c:v>202043.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11136,7 +11142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3457"/>
+  <dimension ref="A1:K3459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38693,7 +38699,7 @@
         <v>178502.21</v>
       </c>
     </row>
-    <row r="3441" spans="1:11">
+    <row r="3441" spans="1:2">
       <c r="A3441" t="s">
         <v>3444</v>
       </c>
@@ -38701,7 +38707,7 @@
         <v>182042.31</v>
       </c>
     </row>
-    <row r="3442" spans="1:11">
+    <row r="3442" spans="1:2">
       <c r="A3442" t="s">
         <v>3445</v>
       </c>
@@ -38709,7 +38715,7 @@
         <v>182042.31</v>
       </c>
     </row>
-    <row r="3443" spans="1:11">
+    <row r="3443" spans="1:2">
       <c r="A3443" t="s">
         <v>3446</v>
       </c>
@@ -38717,7 +38723,7 @@
         <v>182042.31</v>
       </c>
     </row>
-    <row r="3444" spans="1:11">
+    <row r="3444" spans="1:2">
       <c r="A3444" t="s">
         <v>3447</v>
       </c>
@@ -38725,7 +38731,7 @@
         <v>185201.74</v>
       </c>
     </row>
-    <row r="3445" spans="1:11">
+    <row r="3445" spans="1:2">
       <c r="A3445" t="s">
         <v>3448</v>
       </c>
@@ -38733,7 +38739,7 @@
         <v>182499.03</v>
       </c>
     </row>
-    <row r="3446" spans="1:11">
+    <row r="3446" spans="1:2">
       <c r="A3446" t="s">
         <v>3449</v>
       </c>
@@ -38741,7 +38747,7 @@
         <v>186027.48</v>
       </c>
     </row>
-    <row r="3447" spans="1:11">
+    <row r="3447" spans="1:2">
       <c r="A3447" t="s">
         <v>3450</v>
       </c>
@@ -38749,7 +38755,7 @@
         <v>187704.89</v>
       </c>
     </row>
-    <row r="3448" spans="1:11">
+    <row r="3448" spans="1:2">
       <c r="A3448" t="s">
         <v>3451</v>
       </c>
@@ -38757,7 +38763,7 @@
         <v>188021.12</v>
       </c>
     </row>
-    <row r="3449" spans="1:11">
+    <row r="3449" spans="1:2">
       <c r="A3449" t="s">
         <v>3452</v>
       </c>
@@ -38765,7 +38771,7 @@
         <v>188021.12</v>
       </c>
     </row>
-    <row r="3450" spans="1:11">
+    <row r="3450" spans="1:2">
       <c r="A3450" t="s">
         <v>3453</v>
       </c>
@@ -38773,7 +38779,7 @@
         <v>188021.12</v>
       </c>
     </row>
-    <row r="3451" spans="1:11">
+    <row r="3451" spans="1:2">
       <c r="A3451" t="s">
         <v>3454</v>
       </c>
@@ -38781,7 +38787,7 @@
         <v>187241.82</v>
       </c>
     </row>
-    <row r="3452" spans="1:11">
+    <row r="3452" spans="1:2">
       <c r="A3452" t="s">
         <v>3455</v>
       </c>
@@ -38789,7 +38795,7 @@
         <v>188031.86</v>
       </c>
     </row>
-    <row r="3453" spans="1:11">
+    <row r="3453" spans="1:2">
       <c r="A3453" t="s">
         <v>3456</v>
       </c>
@@ -38797,7 +38803,7 @@
         <v>188794.82</v>
       </c>
     </row>
-    <row r="3454" spans="1:11">
+    <row r="3454" spans="1:2">
       <c r="A3454" t="s">
         <v>3457</v>
       </c>
@@ -38805,41 +38811,21 @@
         <v>188794.82</v>
       </c>
     </row>
-    <row r="3455" spans="1:11">
+    <row r="3455" spans="1:2">
       <c r="A3455" t="s">
         <v>3458</v>
       </c>
       <c r="B3455">
         <v>205043.61</v>
       </c>
-      <c r="D3455" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3455" s="3"/>
-      <c r="F3455" s="3"/>
-      <c r="G3455" s="3"/>
-      <c r="H3455" s="3"/>
-      <c r="I3455" s="3"/>
-      <c r="J3455" s="3"/>
-      <c r="K3455" s="3"/>
-    </row>
-    <row r="3456" spans="1:11">
+    </row>
+    <row r="3456" spans="1:2">
       <c r="A3456" t="s">
         <v>3459</v>
       </c>
       <c r="B3456">
         <v>205043.61</v>
       </c>
-      <c r="D3456" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3456" s="4"/>
-      <c r="F3456" s="4"/>
-      <c r="G3456" s="4"/>
-      <c r="H3456" s="4"/>
-      <c r="I3456" s="4"/>
-      <c r="J3456" s="4"/>
-      <c r="K3456" s="4"/>
     </row>
     <row r="3457" spans="1:11">
       <c r="A3457" t="s">
@@ -38848,21 +38834,57 @@
       <c r="B3457">
         <v>205043.61</v>
       </c>
-      <c r="D3457" s="4"/>
-      <c r="E3457" s="4"/>
-      <c r="F3457" s="4"/>
-      <c r="G3457" s="4"/>
-      <c r="H3457" s="4"/>
-      <c r="I3457" s="4"/>
-      <c r="J3457" s="4"/>
-      <c r="K3457" s="4"/>
+      <c r="D3457" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3457" s="3"/>
+      <c r="F3457" s="3"/>
+      <c r="G3457" s="3"/>
+      <c r="H3457" s="3"/>
+      <c r="I3457" s="3"/>
+      <c r="J3457" s="3"/>
+      <c r="K3457" s="3"/>
+    </row>
+    <row r="3458" spans="1:11">
+      <c r="A3458" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B3458">
+        <v>206396.53</v>
+      </c>
+      <c r="D3458" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3458" s="4"/>
+      <c r="F3458" s="4"/>
+      <c r="G3458" s="4"/>
+      <c r="H3458" s="4"/>
+      <c r="I3458" s="4"/>
+      <c r="J3458" s="4"/>
+      <c r="K3458" s="4"/>
+    </row>
+    <row r="3459" spans="1:11">
+      <c r="A3459" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B3459">
+        <v>202043.94</v>
+      </c>
+      <c r="D3459" s="4"/>
+      <c r="E3459" s="4"/>
+      <c r="F3459" s="4"/>
+      <c r="G3459" s="4"/>
+      <c r="H3459" s="4"/>
+      <c r="I3459" s="4"/>
+      <c r="J3459" s="4"/>
+      <c r="K3459" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3455:K3455"/>
-    <mergeCell ref="D3456:K3457"/>
+    <mergeCell ref="D3457:K3457"/>
+    <mergeCell ref="D3458:K3459"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="3463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="3475">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10403,6 +10403,42 @@
   </si>
   <si>
     <t>5-25-2020</t>
+  </si>
+  <si>
+    <t>5-26-2020</t>
+  </si>
+  <si>
+    <t>5-27-2020</t>
+  </si>
+  <si>
+    <t>5-28-2020</t>
+  </si>
+  <si>
+    <t>5-29-2020</t>
+  </si>
+  <si>
+    <t>5-30-2020</t>
+  </si>
+  <si>
+    <t>5-31-2020</t>
+  </si>
+  <si>
+    <t>6-1-2020</t>
+  </si>
+  <si>
+    <t>6-2-2020</t>
+  </si>
+  <si>
+    <t>6-3-2020</t>
+  </si>
+  <si>
+    <t>6-4-2020</t>
+  </si>
+  <si>
+    <t>6-5-2020</t>
+  </si>
+  <si>
+    <t>6-6-2020</t>
   </si>
 </sst>
 </file>
@@ -10539,203 +10575,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3429:$A$3459</c:f>
+              <c:f>DolarToday!$A$3441:$A$3471</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-25-2020</c:v>
+                  <c:v>5-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-26-2020</c:v>
+                  <c:v>5-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-27-2020</c:v>
+                  <c:v>5-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-28-2020</c:v>
+                  <c:v>5-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-29-2020</c:v>
+                  <c:v>5-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-30-2020</c:v>
+                  <c:v>5-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5-1-2020</c:v>
+                  <c:v>5-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5-2-2020</c:v>
+                  <c:v>5-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5-3-2020</c:v>
+                  <c:v>5-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5-4-2020</c:v>
+                  <c:v>5-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5-5-2020</c:v>
+                  <c:v>5-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5-6-2020</c:v>
+                  <c:v>5-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5-7-2020</c:v>
+                  <c:v>5-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5-8-2020</c:v>
+                  <c:v>5-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5-9-2020</c:v>
+                  <c:v>5-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5-10-2020</c:v>
+                  <c:v>5-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5-11-2020</c:v>
+                  <c:v>5-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5-12-2020</c:v>
+                  <c:v>5-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5-13-2020</c:v>
+                  <c:v>5-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5-14-2020</c:v>
+                  <c:v>5-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5-15-2020</c:v>
+                  <c:v>5-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5-16-2020</c:v>
+                  <c:v>5-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5-17-2020</c:v>
+                  <c:v>5-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5-18-2020</c:v>
+                  <c:v>5-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5-19-2020</c:v>
+                  <c:v>5-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5-20-2020</c:v>
+                  <c:v>6-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5-21-2020</c:v>
+                  <c:v>6-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5-22-2020</c:v>
+                  <c:v>6-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5-23-2020</c:v>
+                  <c:v>6-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-24-2020</c:v>
+                  <c:v>6-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-25-2020</c:v>
+                  <c:v>6-6-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3429:$B$3459</c:f>
+              <c:f>DolarToday!$B$3441:$B$3471</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>195823.41</c:v>
+                  <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197242.02</c:v>
+                  <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>193042.81</c:v>
+                  <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>185004.12</c:v>
+                  <c:v>185201.74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180286.55</c:v>
+                  <c:v>182499.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177691.94</c:v>
+                  <c:v>186027.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>177691.94</c:v>
+                  <c:v>187704.89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>177691.94</c:v>
+                  <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180022.62</c:v>
+                  <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>179021.82</c:v>
+                  <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>175501.44</c:v>
+                  <c:v>187241.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>178502.21</c:v>
+                  <c:v>188031.86</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>182042.31</c:v>
+                  <c:v>188794.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>182042.31</c:v>
+                  <c:v>188794.82</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>182042.31</c:v>
+                  <c:v>205043.61</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>185201.74</c:v>
+                  <c:v>205043.61</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>182499.03</c:v>
+                  <c:v>205043.61</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>186027.48</c:v>
+                  <c:v>206396.53</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>187704.89</c:v>
+                  <c:v>202043.94</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>188021.12</c:v>
+                  <c:v>196711.05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>188021.12</c:v>
+                  <c:v>195812.32</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>188021.12</c:v>
+                  <c:v>195802.81</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>187241.82</c:v>
+                  <c:v>195802.81</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>188031.86</c:v>
+                  <c:v>195802.81</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>188794.82</c:v>
+                  <c:v>196922.02</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>188794.82</c:v>
+                  <c:v>196032.78</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>205043.61</c:v>
+                  <c:v>195844.93</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>205043.61</c:v>
+                  <c:v>195405.03</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>205043.61</c:v>
+                  <c:v>195003.91</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>206396.53</c:v>
+                  <c:v>195003.91</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>202043.94</c:v>
+                  <c:v>195003.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11142,7 +11178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3459"/>
+  <dimension ref="A1:K3471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38834,16 +38870,6 @@
       <c r="B3457">
         <v>205043.61</v>
       </c>
-      <c r="D3457" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3457" s="3"/>
-      <c r="F3457" s="3"/>
-      <c r="G3457" s="3"/>
-      <c r="H3457" s="3"/>
-      <c r="I3457" s="3"/>
-      <c r="J3457" s="3"/>
-      <c r="K3457" s="3"/>
     </row>
     <row r="3458" spans="1:11">
       <c r="A3458" t="s">
@@ -38852,16 +38878,6 @@
       <c r="B3458">
         <v>206396.53</v>
       </c>
-      <c r="D3458" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3458" s="4"/>
-      <c r="F3458" s="4"/>
-      <c r="G3458" s="4"/>
-      <c r="H3458" s="4"/>
-      <c r="I3458" s="4"/>
-      <c r="J3458" s="4"/>
-      <c r="K3458" s="4"/>
     </row>
     <row r="3459" spans="1:11">
       <c r="A3459" t="s">
@@ -38870,21 +38886,137 @@
       <c r="B3459">
         <v>202043.94</v>
       </c>
-      <c r="D3459" s="4"/>
-      <c r="E3459" s="4"/>
-      <c r="F3459" s="4"/>
-      <c r="G3459" s="4"/>
-      <c r="H3459" s="4"/>
-      <c r="I3459" s="4"/>
-      <c r="J3459" s="4"/>
-      <c r="K3459" s="4"/>
+    </row>
+    <row r="3460" spans="1:11">
+      <c r="A3460" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B3460">
+        <v>196711.05</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:11">
+      <c r="A3461" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B3461">
+        <v>195812.32</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:11">
+      <c r="A3462" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B3462">
+        <v>195802.81</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:11">
+      <c r="A3463" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B3463">
+        <v>195802.81</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:11">
+      <c r="A3464" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B3464">
+        <v>195802.81</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:11">
+      <c r="A3465" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B3465">
+        <v>196922.02</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:11">
+      <c r="A3466" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B3466">
+        <v>196032.78</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:11">
+      <c r="A3467" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B3467">
+        <v>195844.93</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:11">
+      <c r="A3468" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B3468">
+        <v>195405.03</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:11">
+      <c r="A3469" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B3469">
+        <v>195003.91</v>
+      </c>
+      <c r="D3469" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3469" s="3"/>
+      <c r="F3469" s="3"/>
+      <c r="G3469" s="3"/>
+      <c r="H3469" s="3"/>
+      <c r="I3469" s="3"/>
+      <c r="J3469" s="3"/>
+      <c r="K3469" s="3"/>
+    </row>
+    <row r="3470" spans="1:11">
+      <c r="A3470" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B3470">
+        <v>195003.91</v>
+      </c>
+      <c r="D3470" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3470" s="4"/>
+      <c r="F3470" s="4"/>
+      <c r="G3470" s="4"/>
+      <c r="H3470" s="4"/>
+      <c r="I3470" s="4"/>
+      <c r="J3470" s="4"/>
+      <c r="K3470" s="4"/>
+    </row>
+    <row r="3471" spans="1:11">
+      <c r="A3471" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B3471">
+        <v>195003.91</v>
+      </c>
+      <c r="D3471" s="4"/>
+      <c r="E3471" s="4"/>
+      <c r="F3471" s="4"/>
+      <c r="G3471" s="4"/>
+      <c r="H3471" s="4"/>
+      <c r="I3471" s="4"/>
+      <c r="J3471" s="4"/>
+      <c r="K3471" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3457:K3457"/>
-    <mergeCell ref="D3458:K3459"/>
+    <mergeCell ref="D3469:K3469"/>
+    <mergeCell ref="D3470:K3471"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="3475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="3476">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10439,6 +10439,9 @@
   </si>
   <si>
     <t>6-6-2020</t>
+  </si>
+  <si>
+    <t>6-7-2020</t>
   </si>
 </sst>
 </file>
@@ -10575,108 +10578,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3441:$A$3471</c:f>
+              <c:f>DolarToday!$A$3442:$A$3472</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>5-7-2020</c:v>
+                  <c:v>5-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5-8-2020</c:v>
+                  <c:v>5-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5-9-2020</c:v>
+                  <c:v>5-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5-10-2020</c:v>
+                  <c:v>5-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5-11-2020</c:v>
+                  <c:v>5-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5-12-2020</c:v>
+                  <c:v>5-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5-13-2020</c:v>
+                  <c:v>5-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5-14-2020</c:v>
+                  <c:v>5-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5-15-2020</c:v>
+                  <c:v>5-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5-16-2020</c:v>
+                  <c:v>5-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5-17-2020</c:v>
+                  <c:v>5-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5-18-2020</c:v>
+                  <c:v>5-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5-19-2020</c:v>
+                  <c:v>5-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5-20-2020</c:v>
+                  <c:v>5-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5-21-2020</c:v>
+                  <c:v>5-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5-22-2020</c:v>
+                  <c:v>5-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5-23-2020</c:v>
+                  <c:v>5-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5-24-2020</c:v>
+                  <c:v>5-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5-25-2020</c:v>
+                  <c:v>5-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5-26-2020</c:v>
+                  <c:v>5-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5-27-2020</c:v>
+                  <c:v>5-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5-28-2020</c:v>
+                  <c:v>5-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5-29-2020</c:v>
+                  <c:v>5-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5-30-2020</c:v>
+                  <c:v>5-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5-31-2020</c:v>
+                  <c:v>6-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6-1-2020</c:v>
+                  <c:v>6-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6-2-2020</c:v>
+                  <c:v>6-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6-3-2020</c:v>
+                  <c:v>6-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6-4-2020</c:v>
+                  <c:v>6-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6-5-2020</c:v>
+                  <c:v>6-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6-6-2020</c:v>
+                  <c:v>6-7-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3441:$B$3471</c:f>
+              <c:f>DolarToday!$B$3442:$B$3472</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10687,19 +10690,19 @@
                   <c:v>182042.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>182042.31</c:v>
+                  <c:v>185201.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>185201.74</c:v>
+                  <c:v>182499.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>182499.03</c:v>
+                  <c:v>186027.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>186027.48</c:v>
+                  <c:v>187704.89</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>187704.89</c:v>
+                  <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>188021.12</c:v>
@@ -10708,19 +10711,19 @@
                   <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>188021.12</c:v>
+                  <c:v>187241.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>187241.82</c:v>
+                  <c:v>188031.86</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>188031.86</c:v>
+                  <c:v>188794.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>188794.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>188794.82</c:v>
+                  <c:v>205043.61</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>205043.61</c:v>
@@ -10729,19 +10732,19 @@
                   <c:v>205043.61</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>205043.61</c:v>
+                  <c:v>206396.53</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>206396.53</c:v>
+                  <c:v>202043.94</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>202043.94</c:v>
+                  <c:v>196711.05</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>196711.05</c:v>
+                  <c:v>195812.32</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>195812.32</c:v>
+                  <c:v>195802.81</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>195802.81</c:v>
@@ -10750,19 +10753,19 @@
                   <c:v>195802.81</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>195802.81</c:v>
+                  <c:v>196922.02</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>196922.02</c:v>
+                  <c:v>196032.78</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>196032.78</c:v>
+                  <c:v>195844.93</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>195844.93</c:v>
+                  <c:v>195405.03</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>195405.03</c:v>
+                  <c:v>195003.91</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>195003.91</c:v>
@@ -10771,7 +10774,7 @@
                   <c:v>195003.91</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>195003.91</c:v>
+                  <c:v>196410.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11178,7 +11181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3471"/>
+  <dimension ref="A1:K3472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38966,16 +38969,6 @@
       <c r="B3469">
         <v>195003.91</v>
       </c>
-      <c r="D3469" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3469" s="3"/>
-      <c r="F3469" s="3"/>
-      <c r="G3469" s="3"/>
-      <c r="H3469" s="3"/>
-      <c r="I3469" s="3"/>
-      <c r="J3469" s="3"/>
-      <c r="K3469" s="3"/>
     </row>
     <row r="3470" spans="1:11">
       <c r="A3470" t="s">
@@ -38984,16 +38977,16 @@
       <c r="B3470">
         <v>195003.91</v>
       </c>
-      <c r="D3470" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3470" s="4"/>
-      <c r="F3470" s="4"/>
-      <c r="G3470" s="4"/>
-      <c r="H3470" s="4"/>
-      <c r="I3470" s="4"/>
-      <c r="J3470" s="4"/>
-      <c r="K3470" s="4"/>
+      <c r="D3470" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3470" s="3"/>
+      <c r="F3470" s="3"/>
+      <c r="G3470" s="3"/>
+      <c r="H3470" s="3"/>
+      <c r="I3470" s="3"/>
+      <c r="J3470" s="3"/>
+      <c r="K3470" s="3"/>
     </row>
     <row r="3471" spans="1:11">
       <c r="A3471" t="s">
@@ -39002,7 +38995,9 @@
       <c r="B3471">
         <v>195003.91</v>
       </c>
-      <c r="D3471" s="4"/>
+      <c r="D3471" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3471" s="4"/>
       <c r="F3471" s="4"/>
       <c r="G3471" s="4"/>
@@ -39011,12 +39006,28 @@
       <c r="J3471" s="4"/>
       <c r="K3471" s="4"/>
     </row>
+    <row r="3472" spans="1:11">
+      <c r="A3472" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B3472">
+        <v>196410.29</v>
+      </c>
+      <c r="D3472" s="4"/>
+      <c r="E3472" s="4"/>
+      <c r="F3472" s="4"/>
+      <c r="G3472" s="4"/>
+      <c r="H3472" s="4"/>
+      <c r="I3472" s="4"/>
+      <c r="J3472" s="4"/>
+      <c r="K3472" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3469:K3469"/>
-    <mergeCell ref="D3470:K3471"/>
+    <mergeCell ref="D3470:K3470"/>
+    <mergeCell ref="D3471:K3472"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="3476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="3484">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10442,6 +10442,30 @@
   </si>
   <si>
     <t>6-7-2020</t>
+  </si>
+  <si>
+    <t>6-8-2020</t>
+  </si>
+  <si>
+    <t>6-9-2020</t>
+  </si>
+  <si>
+    <t>6-10-2020</t>
+  </si>
+  <si>
+    <t>6-11-2020</t>
+  </si>
+  <si>
+    <t>6-12-2020</t>
+  </si>
+  <si>
+    <t>6-13-2020</t>
+  </si>
+  <si>
+    <t>6-14-2020</t>
+  </si>
+  <si>
+    <t>6-15-2020</t>
   </si>
 </sst>
 </file>
@@ -10578,203 +10602,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3442:$A$3472</c:f>
+              <c:f>DolarToday!$A$3450:$A$3480</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>5-8-2020</c:v>
+                  <c:v>5-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5-9-2020</c:v>
+                  <c:v>5-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5-10-2020</c:v>
+                  <c:v>5-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5-11-2020</c:v>
+                  <c:v>5-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5-12-2020</c:v>
+                  <c:v>5-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5-13-2020</c:v>
+                  <c:v>5-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5-14-2020</c:v>
+                  <c:v>5-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5-15-2020</c:v>
+                  <c:v>5-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5-16-2020</c:v>
+                  <c:v>5-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5-17-2020</c:v>
+                  <c:v>5-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5-18-2020</c:v>
+                  <c:v>5-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5-19-2020</c:v>
+                  <c:v>5-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5-20-2020</c:v>
+                  <c:v>5-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5-21-2020</c:v>
+                  <c:v>5-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5-22-2020</c:v>
+                  <c:v>5-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5-23-2020</c:v>
+                  <c:v>5-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5-24-2020</c:v>
+                  <c:v>6-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5-25-2020</c:v>
+                  <c:v>6-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5-26-2020</c:v>
+                  <c:v>6-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5-27-2020</c:v>
+                  <c:v>6-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5-28-2020</c:v>
+                  <c:v>6-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5-29-2020</c:v>
+                  <c:v>6-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5-30-2020</c:v>
+                  <c:v>6-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5-31-2020</c:v>
+                  <c:v>6-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6-1-2020</c:v>
+                  <c:v>6-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6-2-2020</c:v>
+                  <c:v>6-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6-3-2020</c:v>
+                  <c:v>6-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6-4-2020</c:v>
+                  <c:v>6-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6-5-2020</c:v>
+                  <c:v>6-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6-6-2020</c:v>
+                  <c:v>6-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6-7-2020</c:v>
+                  <c:v>6-15-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3442:$B$3472</c:f>
+              <c:f>DolarToday!$B$3450:$B$3480</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>182042.31</c:v>
+                  <c:v>188021.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>182042.31</c:v>
+                  <c:v>187241.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>185201.74</c:v>
+                  <c:v>188031.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>182499.03</c:v>
+                  <c:v>188794.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>186027.48</c:v>
+                  <c:v>188794.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187704.89</c:v>
+                  <c:v>205043.61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>188021.12</c:v>
+                  <c:v>205043.61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>188021.12</c:v>
+                  <c:v>205043.61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>188021.12</c:v>
+                  <c:v>206396.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>187241.82</c:v>
+                  <c:v>202043.94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>188031.86</c:v>
+                  <c:v>196711.05</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>188794.82</c:v>
+                  <c:v>195812.32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>188794.82</c:v>
+                  <c:v>195802.81</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>205043.61</c:v>
+                  <c:v>195802.81</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>205043.61</c:v>
+                  <c:v>195802.81</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>205043.61</c:v>
+                  <c:v>196922.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>206396.53</c:v>
+                  <c:v>196032.78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>202043.94</c:v>
+                  <c:v>195844.93</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>196711.05</c:v>
+                  <c:v>195405.03</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>195812.32</c:v>
+                  <c:v>195003.91</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>195802.81</c:v>
+                  <c:v>195003.91</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>195802.81</c:v>
+                  <c:v>195003.91</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>195802.81</c:v>
+                  <c:v>196410.29</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>196922.02</c:v>
+                  <c:v>198401.62</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>196032.78</c:v>
+                  <c:v>260513.11</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>195844.93</c:v>
+                  <c:v>210032.63</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>195405.03</c:v>
+                  <c:v>208612.29</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>195003.91</c:v>
+                  <c:v>208612.29</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>195003.91</c:v>
+                  <c:v>208612.29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>195003.91</c:v>
+                  <c:v>206813.81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>196410.29</c:v>
+                  <c:v>205310.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11181,7 +11205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3472"/>
+  <dimension ref="A1:K3480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38866,7 +38890,7 @@
         <v>205043.61</v>
       </c>
     </row>
-    <row r="3457" spans="1:11">
+    <row r="3457" spans="1:2">
       <c r="A3457" t="s">
         <v>3460</v>
       </c>
@@ -38874,7 +38898,7 @@
         <v>205043.61</v>
       </c>
     </row>
-    <row r="3458" spans="1:11">
+    <row r="3458" spans="1:2">
       <c r="A3458" t="s">
         <v>3461</v>
       </c>
@@ -38882,7 +38906,7 @@
         <v>206396.53</v>
       </c>
     </row>
-    <row r="3459" spans="1:11">
+    <row r="3459" spans="1:2">
       <c r="A3459" t="s">
         <v>3462</v>
       </c>
@@ -38890,7 +38914,7 @@
         <v>202043.94</v>
       </c>
     </row>
-    <row r="3460" spans="1:11">
+    <row r="3460" spans="1:2">
       <c r="A3460" t="s">
         <v>3463</v>
       </c>
@@ -38898,7 +38922,7 @@
         <v>196711.05</v>
       </c>
     </row>
-    <row r="3461" spans="1:11">
+    <row r="3461" spans="1:2">
       <c r="A3461" t="s">
         <v>3464</v>
       </c>
@@ -38906,7 +38930,7 @@
         <v>195812.32</v>
       </c>
     </row>
-    <row r="3462" spans="1:11">
+    <row r="3462" spans="1:2">
       <c r="A3462" t="s">
         <v>3465</v>
       </c>
@@ -38914,7 +38938,7 @@
         <v>195802.81</v>
       </c>
     </row>
-    <row r="3463" spans="1:11">
+    <row r="3463" spans="1:2">
       <c r="A3463" t="s">
         <v>3466</v>
       </c>
@@ -38922,7 +38946,7 @@
         <v>195802.81</v>
       </c>
     </row>
-    <row r="3464" spans="1:11">
+    <row r="3464" spans="1:2">
       <c r="A3464" t="s">
         <v>3467</v>
       </c>
@@ -38930,7 +38954,7 @@
         <v>195802.81</v>
       </c>
     </row>
-    <row r="3465" spans="1:11">
+    <row r="3465" spans="1:2">
       <c r="A3465" t="s">
         <v>3468</v>
       </c>
@@ -38938,7 +38962,7 @@
         <v>196922.02</v>
       </c>
     </row>
-    <row r="3466" spans="1:11">
+    <row r="3466" spans="1:2">
       <c r="A3466" t="s">
         <v>3469</v>
       </c>
@@ -38946,7 +38970,7 @@
         <v>196032.78</v>
       </c>
     </row>
-    <row r="3467" spans="1:11">
+    <row r="3467" spans="1:2">
       <c r="A3467" t="s">
         <v>3470</v>
       </c>
@@ -38954,7 +38978,7 @@
         <v>195844.93</v>
       </c>
     </row>
-    <row r="3468" spans="1:11">
+    <row r="3468" spans="1:2">
       <c r="A3468" t="s">
         <v>3471</v>
       </c>
@@ -38962,7 +38986,7 @@
         <v>195405.03</v>
       </c>
     </row>
-    <row r="3469" spans="1:11">
+    <row r="3469" spans="1:2">
       <c r="A3469" t="s">
         <v>3472</v>
       </c>
@@ -38970,64 +38994,128 @@
         <v>195003.91</v>
       </c>
     </row>
-    <row r="3470" spans="1:11">
+    <row r="3470" spans="1:2">
       <c r="A3470" t="s">
         <v>3473</v>
       </c>
       <c r="B3470">
         <v>195003.91</v>
       </c>
-      <c r="D3470" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3470" s="3"/>
-      <c r="F3470" s="3"/>
-      <c r="G3470" s="3"/>
-      <c r="H3470" s="3"/>
-      <c r="I3470" s="3"/>
-      <c r="J3470" s="3"/>
-      <c r="K3470" s="3"/>
-    </row>
-    <row r="3471" spans="1:11">
+    </row>
+    <row r="3471" spans="1:2">
       <c r="A3471" t="s">
         <v>3474</v>
       </c>
       <c r="B3471">
         <v>195003.91</v>
       </c>
-      <c r="D3471" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3471" s="4"/>
-      <c r="F3471" s="4"/>
-      <c r="G3471" s="4"/>
-      <c r="H3471" s="4"/>
-      <c r="I3471" s="4"/>
-      <c r="J3471" s="4"/>
-      <c r="K3471" s="4"/>
-    </row>
-    <row r="3472" spans="1:11">
+    </row>
+    <row r="3472" spans="1:2">
       <c r="A3472" t="s">
         <v>3475</v>
       </c>
       <c r="B3472">
         <v>196410.29</v>
       </c>
-      <c r="D3472" s="4"/>
-      <c r="E3472" s="4"/>
-      <c r="F3472" s="4"/>
-      <c r="G3472" s="4"/>
-      <c r="H3472" s="4"/>
-      <c r="I3472" s="4"/>
-      <c r="J3472" s="4"/>
-      <c r="K3472" s="4"/>
+    </row>
+    <row r="3473" spans="1:11">
+      <c r="A3473" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B3473">
+        <v>198401.62</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:11">
+      <c r="A3474" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B3474">
+        <v>260513.11</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:11">
+      <c r="A3475" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B3475">
+        <v>210032.63</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:11">
+      <c r="A3476" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B3476">
+        <v>208612.29</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:11">
+      <c r="A3477" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B3477">
+        <v>208612.29</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:11">
+      <c r="A3478" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B3478">
+        <v>208612.29</v>
+      </c>
+      <c r="D3478" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3478" s="3"/>
+      <c r="F3478" s="3"/>
+      <c r="G3478" s="3"/>
+      <c r="H3478" s="3"/>
+      <c r="I3478" s="3"/>
+      <c r="J3478" s="3"/>
+      <c r="K3478" s="3"/>
+    </row>
+    <row r="3479" spans="1:11">
+      <c r="A3479" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B3479">
+        <v>206813.81</v>
+      </c>
+      <c r="D3479" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3479" s="4"/>
+      <c r="F3479" s="4"/>
+      <c r="G3479" s="4"/>
+      <c r="H3479" s="4"/>
+      <c r="I3479" s="4"/>
+      <c r="J3479" s="4"/>
+      <c r="K3479" s="4"/>
+    </row>
+    <row r="3480" spans="1:11">
+      <c r="A3480" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B3480">
+        <v>205310.03</v>
+      </c>
+      <c r="D3480" s="4"/>
+      <c r="E3480" s="4"/>
+      <c r="F3480" s="4"/>
+      <c r="G3480" s="4"/>
+      <c r="H3480" s="4"/>
+      <c r="I3480" s="4"/>
+      <c r="J3480" s="4"/>
+      <c r="K3480" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3470:K3470"/>
-    <mergeCell ref="D3471:K3472"/>
+    <mergeCell ref="D3478:K3478"/>
+    <mergeCell ref="D3479:K3480"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="3484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3495" uniqueCount="3493">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10466,6 +10466,33 @@
   </si>
   <si>
     <t>6-15-2020</t>
+  </si>
+  <si>
+    <t>6-16-2020</t>
+  </si>
+  <si>
+    <t>6-17-2020</t>
+  </si>
+  <si>
+    <t>6-18-2020</t>
+  </si>
+  <si>
+    <t>6-19-2020</t>
+  </si>
+  <si>
+    <t>6-20-2020</t>
+  </si>
+  <si>
+    <t>6-21-2020</t>
+  </si>
+  <si>
+    <t>6-22-2020</t>
+  </si>
+  <si>
+    <t>6-23-2020</t>
+  </si>
+  <si>
+    <t>6-24-2020</t>
   </si>
 </sst>
 </file>
@@ -10602,203 +10629,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3450:$A$3480</c:f>
+              <c:f>DolarToday!$A$3459:$A$3489</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>5-16-2020</c:v>
+                  <c:v>5-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5-17-2020</c:v>
+                  <c:v>5-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5-18-2020</c:v>
+                  <c:v>5-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5-19-2020</c:v>
+                  <c:v>5-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5-20-2020</c:v>
+                  <c:v>5-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5-21-2020</c:v>
+                  <c:v>5-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5-22-2020</c:v>
+                  <c:v>5-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5-23-2020</c:v>
+                  <c:v>6-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5-24-2020</c:v>
+                  <c:v>6-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5-25-2020</c:v>
+                  <c:v>6-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5-26-2020</c:v>
+                  <c:v>6-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5-27-2020</c:v>
+                  <c:v>6-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5-28-2020</c:v>
+                  <c:v>6-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5-29-2020</c:v>
+                  <c:v>6-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5-30-2020</c:v>
+                  <c:v>6-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5-31-2020</c:v>
+                  <c:v>6-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6-1-2020</c:v>
+                  <c:v>6-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6-2-2020</c:v>
+                  <c:v>6-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6-3-2020</c:v>
+                  <c:v>6-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6-4-2020</c:v>
+                  <c:v>6-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6-5-2020</c:v>
+                  <c:v>6-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6-6-2020</c:v>
+                  <c:v>6-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6-7-2020</c:v>
+                  <c:v>6-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6-8-2020</c:v>
+                  <c:v>6-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6-9-2020</c:v>
+                  <c:v>6-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6-10-2020</c:v>
+                  <c:v>6-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6-11-2020</c:v>
+                  <c:v>6-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6-12-2020</c:v>
+                  <c:v>6-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6-13-2020</c:v>
+                  <c:v>6-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6-14-2020</c:v>
+                  <c:v>6-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6-15-2020</c:v>
+                  <c:v>6-24-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3450:$B$3480</c:f>
+              <c:f>DolarToday!$B$3459:$B$3489</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>188021.12</c:v>
+                  <c:v>202043.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>187241.82</c:v>
+                  <c:v>196711.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188031.86</c:v>
+                  <c:v>195812.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>188794.82</c:v>
+                  <c:v>195802.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188794.82</c:v>
+                  <c:v>195802.81</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>205043.61</c:v>
+                  <c:v>195802.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205043.61</c:v>
+                  <c:v>196922.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>205043.61</c:v>
+                  <c:v>196032.78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>206396.53</c:v>
+                  <c:v>195844.93</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>202043.94</c:v>
+                  <c:v>195405.03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>196711.05</c:v>
+                  <c:v>195003.91</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>195812.32</c:v>
+                  <c:v>195003.91</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>195802.81</c:v>
+                  <c:v>195003.91</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>195802.81</c:v>
+                  <c:v>196410.29</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>195802.81</c:v>
+                  <c:v>198401.62</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>196922.02</c:v>
+                  <c:v>260513.11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>196032.78</c:v>
+                  <c:v>210032.63</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195844.93</c:v>
+                  <c:v>208612.29</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>195405.03</c:v>
+                  <c:v>208612.29</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>195003.91</c:v>
+                  <c:v>208612.29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>195003.91</c:v>
+                  <c:v>206813.81</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>195003.91</c:v>
+                  <c:v>205310.03</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>196410.29</c:v>
+                  <c:v>205712.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>198401.62</c:v>
+                  <c:v>205018.91</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>260513.11</c:v>
+                  <c:v>205110.83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>210032.63</c:v>
+                  <c:v>205110.83</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>208612.29</c:v>
+                  <c:v>205110.83</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>208612.29</c:v>
+                  <c:v>205729.18</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>208612.29</c:v>
+                  <c:v>203013.22</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>206813.81</c:v>
+                  <c:v>207012.32</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>205310.03</c:v>
+                  <c:v>207012.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11205,7 +11232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3480"/>
+  <dimension ref="A1:K3489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39065,16 +39092,6 @@
       <c r="B3478">
         <v>208612.29</v>
       </c>
-      <c r="D3478" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3478" s="3"/>
-      <c r="F3478" s="3"/>
-      <c r="G3478" s="3"/>
-      <c r="H3478" s="3"/>
-      <c r="I3478" s="3"/>
-      <c r="J3478" s="3"/>
-      <c r="K3478" s="3"/>
     </row>
     <row r="3479" spans="1:11">
       <c r="A3479" t="s">
@@ -39083,16 +39100,6 @@
       <c r="B3479">
         <v>206813.81</v>
       </c>
-      <c r="D3479" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3479" s="4"/>
-      <c r="F3479" s="4"/>
-      <c r="G3479" s="4"/>
-      <c r="H3479" s="4"/>
-      <c r="I3479" s="4"/>
-      <c r="J3479" s="4"/>
-      <c r="K3479" s="4"/>
     </row>
     <row r="3480" spans="1:11">
       <c r="A3480" t="s">
@@ -39101,21 +39108,113 @@
       <c r="B3480">
         <v>205310.03</v>
       </c>
-      <c r="D3480" s="4"/>
-      <c r="E3480" s="4"/>
-      <c r="F3480" s="4"/>
-      <c r="G3480" s="4"/>
-      <c r="H3480" s="4"/>
-      <c r="I3480" s="4"/>
-      <c r="J3480" s="4"/>
-      <c r="K3480" s="4"/>
+    </row>
+    <row r="3481" spans="1:11">
+      <c r="A3481" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B3481">
+        <v>205712.82</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:11">
+      <c r="A3482" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B3482">
+        <v>205018.91</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:11">
+      <c r="A3483" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B3483">
+        <v>205110.83</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:11">
+      <c r="A3484" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B3484">
+        <v>205110.83</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:11">
+      <c r="A3485" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B3485">
+        <v>205110.83</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:11">
+      <c r="A3486" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B3486">
+        <v>205729.18</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:11">
+      <c r="A3487" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B3487">
+        <v>203013.22</v>
+      </c>
+      <c r="D3487" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3487" s="3"/>
+      <c r="F3487" s="3"/>
+      <c r="G3487" s="3"/>
+      <c r="H3487" s="3"/>
+      <c r="I3487" s="3"/>
+      <c r="J3487" s="3"/>
+      <c r="K3487" s="3"/>
+    </row>
+    <row r="3488" spans="1:11">
+      <c r="A3488" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B3488">
+        <v>207012.32</v>
+      </c>
+      <c r="D3488" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3488" s="4"/>
+      <c r="F3488" s="4"/>
+      <c r="G3488" s="4"/>
+      <c r="H3488" s="4"/>
+      <c r="I3488" s="4"/>
+      <c r="J3488" s="4"/>
+      <c r="K3488" s="4"/>
+    </row>
+    <row r="3489" spans="1:11">
+      <c r="A3489" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B3489">
+        <v>207012.32</v>
+      </c>
+      <c r="D3489" s="4"/>
+      <c r="E3489" s="4"/>
+      <c r="F3489" s="4"/>
+      <c r="G3489" s="4"/>
+      <c r="H3489" s="4"/>
+      <c r="I3489" s="4"/>
+      <c r="J3489" s="4"/>
+      <c r="K3489" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3478:K3478"/>
-    <mergeCell ref="D3479:K3480"/>
+    <mergeCell ref="D3487:K3487"/>
+    <mergeCell ref="D3488:K3489"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3495" uniqueCount="3493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="3505">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10493,6 +10493,42 @@
   </si>
   <si>
     <t>6-24-2020</t>
+  </si>
+  <si>
+    <t>6-25-2020</t>
+  </si>
+  <si>
+    <t>6-26-2020</t>
+  </si>
+  <si>
+    <t>6-27-2020</t>
+  </si>
+  <si>
+    <t>6-28-2020</t>
+  </si>
+  <si>
+    <t>6-29-2020</t>
+  </si>
+  <si>
+    <t>6-30-2020</t>
+  </si>
+  <si>
+    <t>7-1-2020</t>
+  </si>
+  <si>
+    <t>7-2-2020</t>
+  </si>
+  <si>
+    <t>7-3-2020</t>
+  </si>
+  <si>
+    <t>7-4-2020</t>
+  </si>
+  <si>
+    <t>7-5-2020</t>
+  </si>
+  <si>
+    <t>7-6-2020</t>
   </si>
 </sst>
 </file>
@@ -10629,203 +10665,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3459:$A$3489</c:f>
+              <c:f>DolarToday!$A$3471:$A$3501</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>5-25-2020</c:v>
+                  <c:v>6-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5-26-2020</c:v>
+                  <c:v>6-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5-27-2020</c:v>
+                  <c:v>6-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5-28-2020</c:v>
+                  <c:v>6-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5-29-2020</c:v>
+                  <c:v>6-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5-30-2020</c:v>
+                  <c:v>6-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5-31-2020</c:v>
+                  <c:v>6-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6-1-2020</c:v>
+                  <c:v>6-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6-2-2020</c:v>
+                  <c:v>6-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6-3-2020</c:v>
+                  <c:v>6-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6-4-2020</c:v>
+                  <c:v>6-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6-5-2020</c:v>
+                  <c:v>6-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6-6-2020</c:v>
+                  <c:v>6-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6-7-2020</c:v>
+                  <c:v>6-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6-8-2020</c:v>
+                  <c:v>6-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6-9-2020</c:v>
+                  <c:v>6-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6-10-2020</c:v>
+                  <c:v>6-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6-11-2020</c:v>
+                  <c:v>6-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6-12-2020</c:v>
+                  <c:v>6-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6-13-2020</c:v>
+                  <c:v>6-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6-14-2020</c:v>
+                  <c:v>6-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6-15-2020</c:v>
+                  <c:v>6-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6-16-2020</c:v>
+                  <c:v>6-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6-17-2020</c:v>
+                  <c:v>6-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6-18-2020</c:v>
+                  <c:v>6-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6-19-2020</c:v>
+                  <c:v>7-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6-20-2020</c:v>
+                  <c:v>7-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6-21-2020</c:v>
+                  <c:v>7-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6-22-2020</c:v>
+                  <c:v>7-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6-23-2020</c:v>
+                  <c:v>7-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6-24-2020</c:v>
+                  <c:v>7-6-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3459:$B$3489</c:f>
+              <c:f>DolarToday!$B$3471:$B$3501</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>202043.94</c:v>
+                  <c:v>195003.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196711.05</c:v>
+                  <c:v>196410.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>195812.32</c:v>
+                  <c:v>198401.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195802.81</c:v>
+                  <c:v>260513.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195802.81</c:v>
+                  <c:v>210032.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>195802.81</c:v>
+                  <c:v>208612.29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>196922.02</c:v>
+                  <c:v>208612.29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>196032.78</c:v>
+                  <c:v>208612.29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>195844.93</c:v>
+                  <c:v>206813.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>195405.03</c:v>
+                  <c:v>205310.03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>195003.91</c:v>
+                  <c:v>205712.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>195003.91</c:v>
+                  <c:v>205018.91</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>195003.91</c:v>
+                  <c:v>205110.83</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>196410.29</c:v>
+                  <c:v>205110.83</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>198401.62</c:v>
+                  <c:v>205110.83</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>260513.11</c:v>
+                  <c:v>205729.18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>210032.63</c:v>
+                  <c:v>203013.22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>208612.29</c:v>
+                  <c:v>207012.32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>208612.29</c:v>
+                  <c:v>207012.32</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>208612.29</c:v>
+                  <c:v>210123.53</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>206813.81</c:v>
+                  <c:v>210123.53</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>205310.03</c:v>
+                  <c:v>210123.53</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>205712.82</c:v>
+                  <c:v>214202.06</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>205018.91</c:v>
+                  <c:v>212371.73</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>205110.83</c:v>
+                  <c:v>207129.01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>205110.83</c:v>
+                  <c:v>205230.73</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>205110.83</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>205729.18</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>203013.22</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>207012.32</c:v>
+                  <c:v>214720.58</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>207012.32</c:v>
+                  <c:v>218652.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11232,7 +11268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3489"/>
+  <dimension ref="A1:K3501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39045,7 +39081,7 @@
         <v>196410.29</v>
       </c>
     </row>
-    <row r="3473" spans="1:11">
+    <row r="3473" spans="1:2">
       <c r="A3473" t="s">
         <v>3476</v>
       </c>
@@ -39053,7 +39089,7 @@
         <v>198401.62</v>
       </c>
     </row>
-    <row r="3474" spans="1:11">
+    <row r="3474" spans="1:2">
       <c r="A3474" t="s">
         <v>3477</v>
       </c>
@@ -39061,7 +39097,7 @@
         <v>260513.11</v>
       </c>
     </row>
-    <row r="3475" spans="1:11">
+    <row r="3475" spans="1:2">
       <c r="A3475" t="s">
         <v>3478</v>
       </c>
@@ -39069,7 +39105,7 @@
         <v>210032.63</v>
       </c>
     </row>
-    <row r="3476" spans="1:11">
+    <row r="3476" spans="1:2">
       <c r="A3476" t="s">
         <v>3479</v>
       </c>
@@ -39077,7 +39113,7 @@
         <v>208612.29</v>
       </c>
     </row>
-    <row r="3477" spans="1:11">
+    <row r="3477" spans="1:2">
       <c r="A3477" t="s">
         <v>3480</v>
       </c>
@@ -39085,7 +39121,7 @@
         <v>208612.29</v>
       </c>
     </row>
-    <row r="3478" spans="1:11">
+    <row r="3478" spans="1:2">
       <c r="A3478" t="s">
         <v>3481</v>
       </c>
@@ -39093,7 +39129,7 @@
         <v>208612.29</v>
       </c>
     </row>
-    <row r="3479" spans="1:11">
+    <row r="3479" spans="1:2">
       <c r="A3479" t="s">
         <v>3482</v>
       </c>
@@ -39101,7 +39137,7 @@
         <v>206813.81</v>
       </c>
     </row>
-    <row r="3480" spans="1:11">
+    <row r="3480" spans="1:2">
       <c r="A3480" t="s">
         <v>3483</v>
       </c>
@@ -39109,7 +39145,7 @@
         <v>205310.03</v>
       </c>
     </row>
-    <row r="3481" spans="1:11">
+    <row r="3481" spans="1:2">
       <c r="A3481" t="s">
         <v>3484</v>
       </c>
@@ -39117,7 +39153,7 @@
         <v>205712.82</v>
       </c>
     </row>
-    <row r="3482" spans="1:11">
+    <row r="3482" spans="1:2">
       <c r="A3482" t="s">
         <v>3485</v>
       </c>
@@ -39125,7 +39161,7 @@
         <v>205018.91</v>
       </c>
     </row>
-    <row r="3483" spans="1:11">
+    <row r="3483" spans="1:2">
       <c r="A3483" t="s">
         <v>3486</v>
       </c>
@@ -39133,7 +39169,7 @@
         <v>205110.83</v>
       </c>
     </row>
-    <row r="3484" spans="1:11">
+    <row r="3484" spans="1:2">
       <c r="A3484" t="s">
         <v>3487</v>
       </c>
@@ -39141,7 +39177,7 @@
         <v>205110.83</v>
       </c>
     </row>
-    <row r="3485" spans="1:11">
+    <row r="3485" spans="1:2">
       <c r="A3485" t="s">
         <v>3488</v>
       </c>
@@ -39149,7 +39185,7 @@
         <v>205110.83</v>
       </c>
     </row>
-    <row r="3486" spans="1:11">
+    <row r="3486" spans="1:2">
       <c r="A3486" t="s">
         <v>3489</v>
       </c>
@@ -39157,41 +39193,21 @@
         <v>205729.18</v>
       </c>
     </row>
-    <row r="3487" spans="1:11">
+    <row r="3487" spans="1:2">
       <c r="A3487" t="s">
         <v>3490</v>
       </c>
       <c r="B3487">
         <v>203013.22</v>
       </c>
-      <c r="D3487" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3487" s="3"/>
-      <c r="F3487" s="3"/>
-      <c r="G3487" s="3"/>
-      <c r="H3487" s="3"/>
-      <c r="I3487" s="3"/>
-      <c r="J3487" s="3"/>
-      <c r="K3487" s="3"/>
-    </row>
-    <row r="3488" spans="1:11">
+    </row>
+    <row r="3488" spans="1:2">
       <c r="A3488" t="s">
         <v>3491</v>
       </c>
       <c r="B3488">
         <v>207012.32</v>
       </c>
-      <c r="D3488" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3488" s="4"/>
-      <c r="F3488" s="4"/>
-      <c r="G3488" s="4"/>
-      <c r="H3488" s="4"/>
-      <c r="I3488" s="4"/>
-      <c r="J3488" s="4"/>
-      <c r="K3488" s="4"/>
     </row>
     <row r="3489" spans="1:11">
       <c r="A3489" t="s">
@@ -39200,21 +39216,137 @@
       <c r="B3489">
         <v>207012.32</v>
       </c>
-      <c r="D3489" s="4"/>
-      <c r="E3489" s="4"/>
-      <c r="F3489" s="4"/>
-      <c r="G3489" s="4"/>
-      <c r="H3489" s="4"/>
-      <c r="I3489" s="4"/>
-      <c r="J3489" s="4"/>
-      <c r="K3489" s="4"/>
+    </row>
+    <row r="3490" spans="1:11">
+      <c r="A3490" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B3490">
+        <v>210123.53</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:11">
+      <c r="A3491" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B3491">
+        <v>210123.53</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:11">
+      <c r="A3492" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B3492">
+        <v>210123.53</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:11">
+      <c r="A3493" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B3493">
+        <v>214202.06</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:11">
+      <c r="A3494" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B3494">
+        <v>212371.73</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:11">
+      <c r="A3495" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B3495">
+        <v>207129.01</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:11">
+      <c r="A3496" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B3496">
+        <v>205230.73</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:11">
+      <c r="A3497" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B3497">
+        <v>210047.11</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:11">
+      <c r="A3498" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B3498">
+        <v>210047.11</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:11">
+      <c r="A3499" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B3499">
+        <v>210047.11</v>
+      </c>
+      <c r="D3499" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3499" s="3"/>
+      <c r="F3499" s="3"/>
+      <c r="G3499" s="3"/>
+      <c r="H3499" s="3"/>
+      <c r="I3499" s="3"/>
+      <c r="J3499" s="3"/>
+      <c r="K3499" s="3"/>
+    </row>
+    <row r="3500" spans="1:11">
+      <c r="A3500" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B3500">
+        <v>214720.58</v>
+      </c>
+      <c r="D3500" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3500" s="4"/>
+      <c r="F3500" s="4"/>
+      <c r="G3500" s="4"/>
+      <c r="H3500" s="4"/>
+      <c r="I3500" s="4"/>
+      <c r="J3500" s="4"/>
+      <c r="K3500" s="4"/>
+    </row>
+    <row r="3501" spans="1:11">
+      <c r="A3501" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B3501">
+        <v>218652.22</v>
+      </c>
+      <c r="D3501" s="4"/>
+      <c r="E3501" s="4"/>
+      <c r="F3501" s="4"/>
+      <c r="G3501" s="4"/>
+      <c r="H3501" s="4"/>
+      <c r="I3501" s="4"/>
+      <c r="J3501" s="4"/>
+      <c r="K3501" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3487:K3487"/>
-    <mergeCell ref="D3488:K3489"/>
+    <mergeCell ref="D3499:K3499"/>
+    <mergeCell ref="D3500:K3501"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="3505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3512" uniqueCount="3510">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10529,6 +10529,21 @@
   </si>
   <si>
     <t>7-6-2020</t>
+  </si>
+  <si>
+    <t>7-7-2020</t>
+  </si>
+  <si>
+    <t>7-8-2020</t>
+  </si>
+  <si>
+    <t>7-9-2020</t>
+  </si>
+  <si>
+    <t>7-10-2020</t>
+  </si>
+  <si>
+    <t>7-11-2020</t>
   </si>
 </sst>
 </file>
@@ -10665,203 +10680,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3471:$A$3501</c:f>
+              <c:f>DolarToday!$A$3476:$A$3506</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-6-2020</c:v>
+                  <c:v>6-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-7-2020</c:v>
+                  <c:v>6-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-8-2020</c:v>
+                  <c:v>6-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-9-2020</c:v>
+                  <c:v>6-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6-10-2020</c:v>
+                  <c:v>6-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6-11-2020</c:v>
+                  <c:v>6-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6-12-2020</c:v>
+                  <c:v>6-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6-13-2020</c:v>
+                  <c:v>6-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6-14-2020</c:v>
+                  <c:v>6-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6-15-2020</c:v>
+                  <c:v>6-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6-16-2020</c:v>
+                  <c:v>6-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6-17-2020</c:v>
+                  <c:v>6-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6-18-2020</c:v>
+                  <c:v>6-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6-19-2020</c:v>
+                  <c:v>6-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6-20-2020</c:v>
+                  <c:v>6-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6-21-2020</c:v>
+                  <c:v>6-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6-22-2020</c:v>
+                  <c:v>6-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6-23-2020</c:v>
+                  <c:v>6-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6-24-2020</c:v>
+                  <c:v>6-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6-25-2020</c:v>
+                  <c:v>6-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6-26-2020</c:v>
+                  <c:v>7-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6-27-2020</c:v>
+                  <c:v>7-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6-28-2020</c:v>
+                  <c:v>7-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6-29-2020</c:v>
+                  <c:v>7-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6-30-2020</c:v>
+                  <c:v>7-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-1-2020</c:v>
+                  <c:v>7-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-2-2020</c:v>
+                  <c:v>7-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-3-2020</c:v>
+                  <c:v>7-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-4-2020</c:v>
+                  <c:v>7-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-5-2020</c:v>
+                  <c:v>7-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-6-2020</c:v>
+                  <c:v>7-11-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3471:$B$3501</c:f>
+              <c:f>DolarToday!$B$3476:$B$3506</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>195003.91</c:v>
+                  <c:v>208612.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196410.29</c:v>
+                  <c:v>208612.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>198401.62</c:v>
+                  <c:v>208612.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>260513.11</c:v>
+                  <c:v>206813.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210032.63</c:v>
+                  <c:v>205310.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>208612.29</c:v>
+                  <c:v>205712.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>208612.29</c:v>
+                  <c:v>205018.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>208612.29</c:v>
+                  <c:v>205110.83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>206813.81</c:v>
+                  <c:v>205110.83</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>205310.03</c:v>
+                  <c:v>205110.83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>205712.82</c:v>
+                  <c:v>205729.18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>205018.91</c:v>
+                  <c:v>203013.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>205110.83</c:v>
+                  <c:v>207012.32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>205110.83</c:v>
+                  <c:v>207012.32</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>205110.83</c:v>
+                  <c:v>210123.53</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>205729.18</c:v>
+                  <c:v>210123.53</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>203013.22</c:v>
+                  <c:v>210123.53</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>207012.32</c:v>
+                  <c:v>214202.06</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207012.32</c:v>
+                  <c:v>212371.73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>210123.53</c:v>
+                  <c:v>207129.01</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210123.53</c:v>
+                  <c:v>205230.73</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>210123.53</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>214202.06</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>212371.73</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>207129.01</c:v>
+                  <c:v>214720.58</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>205230.73</c:v>
+                  <c:v>218652.22</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>210047.11</c:v>
+                  <c:v>222482.96</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>210047.11</c:v>
+                  <c:v>217204.37</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>210047.11</c:v>
+                  <c:v>223071.1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>214720.58</c:v>
+                  <c:v>223071.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>218652.22</c:v>
+                  <c:v>223071.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11268,7 +11283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3501"/>
+  <dimension ref="A1:K3506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39296,16 +39311,6 @@
       <c r="B3499">
         <v>210047.11</v>
       </c>
-      <c r="D3499" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3499" s="3"/>
-      <c r="F3499" s="3"/>
-      <c r="G3499" s="3"/>
-      <c r="H3499" s="3"/>
-      <c r="I3499" s="3"/>
-      <c r="J3499" s="3"/>
-      <c r="K3499" s="3"/>
     </row>
     <row r="3500" spans="1:11">
       <c r="A3500" t="s">
@@ -39314,16 +39319,6 @@
       <c r="B3500">
         <v>214720.58</v>
       </c>
-      <c r="D3500" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3500" s="4"/>
-      <c r="F3500" s="4"/>
-      <c r="G3500" s="4"/>
-      <c r="H3500" s="4"/>
-      <c r="I3500" s="4"/>
-      <c r="J3500" s="4"/>
-      <c r="K3500" s="4"/>
     </row>
     <row r="3501" spans="1:11">
       <c r="A3501" t="s">
@@ -39332,21 +39327,81 @@
       <c r="B3501">
         <v>218652.22</v>
       </c>
-      <c r="D3501" s="4"/>
-      <c r="E3501" s="4"/>
-      <c r="F3501" s="4"/>
-      <c r="G3501" s="4"/>
-      <c r="H3501" s="4"/>
-      <c r="I3501" s="4"/>
-      <c r="J3501" s="4"/>
-      <c r="K3501" s="4"/>
+    </row>
+    <row r="3502" spans="1:11">
+      <c r="A3502" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B3502">
+        <v>222482.96</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:11">
+      <c r="A3503" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B3503">
+        <v>217204.37</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:11">
+      <c r="A3504" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B3504">
+        <v>223071.1</v>
+      </c>
+      <c r="D3504" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3504" s="3"/>
+      <c r="F3504" s="3"/>
+      <c r="G3504" s="3"/>
+      <c r="H3504" s="3"/>
+      <c r="I3504" s="3"/>
+      <c r="J3504" s="3"/>
+      <c r="K3504" s="3"/>
+    </row>
+    <row r="3505" spans="1:11">
+      <c r="A3505" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B3505">
+        <v>223071.1</v>
+      </c>
+      <c r="D3505" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3505" s="4"/>
+      <c r="F3505" s="4"/>
+      <c r="G3505" s="4"/>
+      <c r="H3505" s="4"/>
+      <c r="I3505" s="4"/>
+      <c r="J3505" s="4"/>
+      <c r="K3505" s="4"/>
+    </row>
+    <row r="3506" spans="1:11">
+      <c r="A3506" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B3506">
+        <v>223071.1</v>
+      </c>
+      <c r="D3506" s="4"/>
+      <c r="E3506" s="4"/>
+      <c r="F3506" s="4"/>
+      <c r="G3506" s="4"/>
+      <c r="H3506" s="4"/>
+      <c r="I3506" s="4"/>
+      <c r="J3506" s="4"/>
+      <c r="K3506" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3499:K3499"/>
-    <mergeCell ref="D3500:K3501"/>
+    <mergeCell ref="D3504:K3504"/>
+    <mergeCell ref="D3505:K3506"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3512" uniqueCount="3510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="3518">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10544,6 +10544,30 @@
   </si>
   <si>
     <t>7-11-2020</t>
+  </si>
+  <si>
+    <t>7-12-2020</t>
+  </si>
+  <si>
+    <t>7-13-2020</t>
+  </si>
+  <si>
+    <t>7-14-2020</t>
+  </si>
+  <si>
+    <t>7-15-2020</t>
+  </si>
+  <si>
+    <t>7-16-2020</t>
+  </si>
+  <si>
+    <t>7-17-2020</t>
+  </si>
+  <si>
+    <t>7-18-2020</t>
+  </si>
+  <si>
+    <t>7-19-2020</t>
   </si>
 </sst>
 </file>
@@ -10680,203 +10704,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3476:$A$3506</c:f>
+              <c:f>DolarToday!$A$3484:$A$3514</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-11-2020</c:v>
+                  <c:v>6-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-12-2020</c:v>
+                  <c:v>6-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-13-2020</c:v>
+                  <c:v>6-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-14-2020</c:v>
+                  <c:v>6-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6-15-2020</c:v>
+                  <c:v>6-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6-16-2020</c:v>
+                  <c:v>6-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6-17-2020</c:v>
+                  <c:v>6-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6-18-2020</c:v>
+                  <c:v>6-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6-19-2020</c:v>
+                  <c:v>6-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6-20-2020</c:v>
+                  <c:v>6-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6-21-2020</c:v>
+                  <c:v>6-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6-22-2020</c:v>
+                  <c:v>6-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6-23-2020</c:v>
+                  <c:v>7-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6-24-2020</c:v>
+                  <c:v>7-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6-25-2020</c:v>
+                  <c:v>7-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6-26-2020</c:v>
+                  <c:v>7-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6-27-2020</c:v>
+                  <c:v>7-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6-28-2020</c:v>
+                  <c:v>7-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6-29-2020</c:v>
+                  <c:v>7-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6-30-2020</c:v>
+                  <c:v>7-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-1-2020</c:v>
+                  <c:v>7-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-2-2020</c:v>
+                  <c:v>7-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-3-2020</c:v>
+                  <c:v>7-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-4-2020</c:v>
+                  <c:v>7-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-5-2020</c:v>
+                  <c:v>7-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-6-2020</c:v>
+                  <c:v>7-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-7-2020</c:v>
+                  <c:v>7-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-8-2020</c:v>
+                  <c:v>7-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-9-2020</c:v>
+                  <c:v>7-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-10-2020</c:v>
+                  <c:v>7-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-11-2020</c:v>
+                  <c:v>7-19-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3476:$B$3506</c:f>
+              <c:f>DolarToday!$B$3484:$B$3514</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>208612.29</c:v>
+                  <c:v>205110.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>208612.29</c:v>
+                  <c:v>205110.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>208612.29</c:v>
+                  <c:v>205729.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>206813.81</c:v>
+                  <c:v>203013.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205310.03</c:v>
+                  <c:v>207012.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>205712.82</c:v>
+                  <c:v>207012.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205018.91</c:v>
+                  <c:v>210123.53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>205110.83</c:v>
+                  <c:v>210123.53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>205110.83</c:v>
+                  <c:v>210123.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>205110.83</c:v>
+                  <c:v>214202.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>205729.18</c:v>
+                  <c:v>212371.73</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>203013.22</c:v>
+                  <c:v>207129.01</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>207012.32</c:v>
+                  <c:v>205230.73</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>207012.32</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>210123.53</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>210123.53</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>210123.53</c:v>
+                  <c:v>214720.58</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>214202.06</c:v>
+                  <c:v>218652.22</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>212371.73</c:v>
+                  <c:v>222482.96</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>207129.01</c:v>
+                  <c:v>217204.37</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>205230.73</c:v>
+                  <c:v>223071.1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>210047.11</c:v>
+                  <c:v>223071.1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>210047.11</c:v>
+                  <c:v>223071.1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>210047.11</c:v>
+                  <c:v>228102.33</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>214720.58</c:v>
+                  <c:v>231100.93</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>218652.22</c:v>
+                  <c:v>231002.35</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>222482.96</c:v>
+                  <c:v>232981.02</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>217204.37</c:v>
+                  <c:v>235012.53</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>223071.1</c:v>
+                  <c:v>235012.53</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>223071.1</c:v>
+                  <c:v>235012.53</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>223071.1</c:v>
+                  <c:v>237892.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11283,7 +11307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3506"/>
+  <dimension ref="A1:K3514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39224,7 +39248,7 @@
         <v>207012.32</v>
       </c>
     </row>
-    <row r="3489" spans="1:11">
+    <row r="3489" spans="1:2">
       <c r="A3489" t="s">
         <v>3492</v>
       </c>
@@ -39232,7 +39256,7 @@
         <v>207012.32</v>
       </c>
     </row>
-    <row r="3490" spans="1:11">
+    <row r="3490" spans="1:2">
       <c r="A3490" t="s">
         <v>3493</v>
       </c>
@@ -39240,7 +39264,7 @@
         <v>210123.53</v>
       </c>
     </row>
-    <row r="3491" spans="1:11">
+    <row r="3491" spans="1:2">
       <c r="A3491" t="s">
         <v>3494</v>
       </c>
@@ -39248,7 +39272,7 @@
         <v>210123.53</v>
       </c>
     </row>
-    <row r="3492" spans="1:11">
+    <row r="3492" spans="1:2">
       <c r="A3492" t="s">
         <v>3495</v>
       </c>
@@ -39256,7 +39280,7 @@
         <v>210123.53</v>
       </c>
     </row>
-    <row r="3493" spans="1:11">
+    <row r="3493" spans="1:2">
       <c r="A3493" t="s">
         <v>3496</v>
       </c>
@@ -39264,7 +39288,7 @@
         <v>214202.06</v>
       </c>
     </row>
-    <row r="3494" spans="1:11">
+    <row r="3494" spans="1:2">
       <c r="A3494" t="s">
         <v>3497</v>
       </c>
@@ -39272,7 +39296,7 @@
         <v>212371.73</v>
       </c>
     </row>
-    <row r="3495" spans="1:11">
+    <row r="3495" spans="1:2">
       <c r="A3495" t="s">
         <v>3498</v>
       </c>
@@ -39280,7 +39304,7 @@
         <v>207129.01</v>
       </c>
     </row>
-    <row r="3496" spans="1:11">
+    <row r="3496" spans="1:2">
       <c r="A3496" t="s">
         <v>3499</v>
       </c>
@@ -39288,7 +39312,7 @@
         <v>205230.73</v>
       </c>
     </row>
-    <row r="3497" spans="1:11">
+    <row r="3497" spans="1:2">
       <c r="A3497" t="s">
         <v>3500</v>
       </c>
@@ -39296,7 +39320,7 @@
         <v>210047.11</v>
       </c>
     </row>
-    <row r="3498" spans="1:11">
+    <row r="3498" spans="1:2">
       <c r="A3498" t="s">
         <v>3501</v>
       </c>
@@ -39304,7 +39328,7 @@
         <v>210047.11</v>
       </c>
     </row>
-    <row r="3499" spans="1:11">
+    <row r="3499" spans="1:2">
       <c r="A3499" t="s">
         <v>3502</v>
       </c>
@@ -39312,7 +39336,7 @@
         <v>210047.11</v>
       </c>
     </row>
-    <row r="3500" spans="1:11">
+    <row r="3500" spans="1:2">
       <c r="A3500" t="s">
         <v>3503</v>
       </c>
@@ -39320,7 +39344,7 @@
         <v>214720.58</v>
       </c>
     </row>
-    <row r="3501" spans="1:11">
+    <row r="3501" spans="1:2">
       <c r="A3501" t="s">
         <v>3504</v>
       </c>
@@ -39328,7 +39352,7 @@
         <v>218652.22</v>
       </c>
     </row>
-    <row r="3502" spans="1:11">
+    <row r="3502" spans="1:2">
       <c r="A3502" t="s">
         <v>3505</v>
       </c>
@@ -39336,7 +39360,7 @@
         <v>222482.96</v>
       </c>
     </row>
-    <row r="3503" spans="1:11">
+    <row r="3503" spans="1:2">
       <c r="A3503" t="s">
         <v>3506</v>
       </c>
@@ -39344,23 +39368,13 @@
         <v>217204.37</v>
       </c>
     </row>
-    <row r="3504" spans="1:11">
+    <row r="3504" spans="1:2">
       <c r="A3504" t="s">
         <v>3507</v>
       </c>
       <c r="B3504">
         <v>223071.1</v>
       </c>
-      <c r="D3504" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3504" s="3"/>
-      <c r="F3504" s="3"/>
-      <c r="G3504" s="3"/>
-      <c r="H3504" s="3"/>
-      <c r="I3504" s="3"/>
-      <c r="J3504" s="3"/>
-      <c r="K3504" s="3"/>
     </row>
     <row r="3505" spans="1:11">
       <c r="A3505" t="s">
@@ -39369,16 +39383,6 @@
       <c r="B3505">
         <v>223071.1</v>
       </c>
-      <c r="D3505" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3505" s="4"/>
-      <c r="F3505" s="4"/>
-      <c r="G3505" s="4"/>
-      <c r="H3505" s="4"/>
-      <c r="I3505" s="4"/>
-      <c r="J3505" s="4"/>
-      <c r="K3505" s="4"/>
     </row>
     <row r="3506" spans="1:11">
       <c r="A3506" t="s">
@@ -39387,21 +39391,105 @@
       <c r="B3506">
         <v>223071.1</v>
       </c>
-      <c r="D3506" s="4"/>
-      <c r="E3506" s="4"/>
-      <c r="F3506" s="4"/>
-      <c r="G3506" s="4"/>
-      <c r="H3506" s="4"/>
-      <c r="I3506" s="4"/>
-      <c r="J3506" s="4"/>
-      <c r="K3506" s="4"/>
+    </row>
+    <row r="3507" spans="1:11">
+      <c r="A3507" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B3507">
+        <v>228102.33</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:11">
+      <c r="A3508" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B3508">
+        <v>231100.93</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:11">
+      <c r="A3509" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B3509">
+        <v>231002.35</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:11">
+      <c r="A3510" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B3510">
+        <v>232981.02</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:11">
+      <c r="A3511" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B3511">
+        <v>235012.53</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:11">
+      <c r="A3512" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B3512">
+        <v>235012.53</v>
+      </c>
+      <c r="D3512" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3512" s="3"/>
+      <c r="F3512" s="3"/>
+      <c r="G3512" s="3"/>
+      <c r="H3512" s="3"/>
+      <c r="I3512" s="3"/>
+      <c r="J3512" s="3"/>
+      <c r="K3512" s="3"/>
+    </row>
+    <row r="3513" spans="1:11">
+      <c r="A3513" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B3513">
+        <v>235012.53</v>
+      </c>
+      <c r="D3513" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3513" s="4"/>
+      <c r="F3513" s="4"/>
+      <c r="G3513" s="4"/>
+      <c r="H3513" s="4"/>
+      <c r="I3513" s="4"/>
+      <c r="J3513" s="4"/>
+      <c r="K3513" s="4"/>
+    </row>
+    <row r="3514" spans="1:11">
+      <c r="A3514" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B3514">
+        <v>237892.02</v>
+      </c>
+      <c r="D3514" s="4"/>
+      <c r="E3514" s="4"/>
+      <c r="F3514" s="4"/>
+      <c r="G3514" s="4"/>
+      <c r="H3514" s="4"/>
+      <c r="I3514" s="4"/>
+      <c r="J3514" s="4"/>
+      <c r="K3514" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3504:K3504"/>
-    <mergeCell ref="D3505:K3506"/>
+    <mergeCell ref="D3512:K3512"/>
+    <mergeCell ref="D3513:K3514"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="3518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="3524">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10568,6 +10568,24 @@
   </si>
   <si>
     <t>7-19-2020</t>
+  </si>
+  <si>
+    <t>7-20-2020</t>
+  </si>
+  <si>
+    <t>7-21-2020</t>
+  </si>
+  <si>
+    <t>7-22-2020</t>
+  </si>
+  <si>
+    <t>7-23-2020</t>
+  </si>
+  <si>
+    <t>7-24-2020</t>
+  </si>
+  <si>
+    <t>7-25-2020</t>
   </si>
 </sst>
 </file>
@@ -10704,203 +10722,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3484:$A$3514</c:f>
+              <c:f>DolarToday!$A$3490:$A$3520</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-19-2020</c:v>
+                  <c:v>6-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-20-2020</c:v>
+                  <c:v>6-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-21-2020</c:v>
+                  <c:v>6-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-22-2020</c:v>
+                  <c:v>6-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6-23-2020</c:v>
+                  <c:v>6-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6-24-2020</c:v>
+                  <c:v>6-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6-25-2020</c:v>
+                  <c:v>7-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6-26-2020</c:v>
+                  <c:v>7-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6-27-2020</c:v>
+                  <c:v>7-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6-28-2020</c:v>
+                  <c:v>7-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6-29-2020</c:v>
+                  <c:v>7-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6-30-2020</c:v>
+                  <c:v>7-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-1-2020</c:v>
+                  <c:v>7-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-2-2020</c:v>
+                  <c:v>7-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-3-2020</c:v>
+                  <c:v>7-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-4-2020</c:v>
+                  <c:v>7-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-5-2020</c:v>
+                  <c:v>7-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-6-2020</c:v>
+                  <c:v>7-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-7-2020</c:v>
+                  <c:v>7-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-8-2020</c:v>
+                  <c:v>7-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-9-2020</c:v>
+                  <c:v>7-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-10-2020</c:v>
+                  <c:v>7-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-11-2020</c:v>
+                  <c:v>7-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-12-2020</c:v>
+                  <c:v>7-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-13-2020</c:v>
+                  <c:v>7-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-14-2020</c:v>
+                  <c:v>7-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-15-2020</c:v>
+                  <c:v>7-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-16-2020</c:v>
+                  <c:v>7-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-17-2020</c:v>
+                  <c:v>7-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-18-2020</c:v>
+                  <c:v>7-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-19-2020</c:v>
+                  <c:v>7-25-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3484:$B$3514</c:f>
+              <c:f>DolarToday!$B$3490:$B$3520</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>205110.83</c:v>
+                  <c:v>210123.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>205110.83</c:v>
+                  <c:v>210123.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>205729.18</c:v>
+                  <c:v>210123.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>203013.22</c:v>
+                  <c:v>214202.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>207012.32</c:v>
+                  <c:v>212371.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>207012.32</c:v>
+                  <c:v>207129.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210123.53</c:v>
+                  <c:v>205230.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210123.53</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>210123.53</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>214202.06</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>212371.73</c:v>
+                  <c:v>214720.58</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>207129.01</c:v>
+                  <c:v>218652.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>205230.73</c:v>
+                  <c:v>222482.96</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>210047.11</c:v>
+                  <c:v>217204.37</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>210047.11</c:v>
+                  <c:v>223071.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>210047.11</c:v>
+                  <c:v>223071.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>214720.58</c:v>
+                  <c:v>223071.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>218652.22</c:v>
+                  <c:v>228102.33</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>222482.96</c:v>
+                  <c:v>231100.93</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>217204.37</c:v>
+                  <c:v>231002.35</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>223071.1</c:v>
+                  <c:v>232981.02</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>223071.1</c:v>
+                  <c:v>235012.53</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>223071.1</c:v>
+                  <c:v>235012.53</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>228102.33</c:v>
+                  <c:v>235012.53</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>231100.93</c:v>
+                  <c:v>237892.02</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>231002.35</c:v>
+                  <c:v>245081.79</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>232981.02</c:v>
+                  <c:v>252313.95</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>235012.53</c:v>
+                  <c:v>258026.12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>235012.53</c:v>
+                  <c:v>258026.12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>235012.53</c:v>
+                  <c:v>258026.12</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>237892.02</c:v>
+                  <c:v>258026.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11307,7 +11325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3514"/>
+  <dimension ref="A1:K3520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39439,16 +39457,6 @@
       <c r="B3512">
         <v>235012.53</v>
       </c>
-      <c r="D3512" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3512" s="3"/>
-      <c r="F3512" s="3"/>
-      <c r="G3512" s="3"/>
-      <c r="H3512" s="3"/>
-      <c r="I3512" s="3"/>
-      <c r="J3512" s="3"/>
-      <c r="K3512" s="3"/>
     </row>
     <row r="3513" spans="1:11">
       <c r="A3513" t="s">
@@ -39457,16 +39465,6 @@
       <c r="B3513">
         <v>235012.53</v>
       </c>
-      <c r="D3513" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3513" s="4"/>
-      <c r="F3513" s="4"/>
-      <c r="G3513" s="4"/>
-      <c r="H3513" s="4"/>
-      <c r="I3513" s="4"/>
-      <c r="J3513" s="4"/>
-      <c r="K3513" s="4"/>
     </row>
     <row r="3514" spans="1:11">
       <c r="A3514" t="s">
@@ -39475,21 +39473,89 @@
       <c r="B3514">
         <v>237892.02</v>
       </c>
-      <c r="D3514" s="4"/>
-      <c r="E3514" s="4"/>
-      <c r="F3514" s="4"/>
-      <c r="G3514" s="4"/>
-      <c r="H3514" s="4"/>
-      <c r="I3514" s="4"/>
-      <c r="J3514" s="4"/>
-      <c r="K3514" s="4"/>
+    </row>
+    <row r="3515" spans="1:11">
+      <c r="A3515" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B3515">
+        <v>245081.79</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:11">
+      <c r="A3516" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B3516">
+        <v>252313.95</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:11">
+      <c r="A3517" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B3517">
+        <v>258026.12</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:11">
+      <c r="A3518" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B3518">
+        <v>258026.12</v>
+      </c>
+      <c r="D3518" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3518" s="3"/>
+      <c r="F3518" s="3"/>
+      <c r="G3518" s="3"/>
+      <c r="H3518" s="3"/>
+      <c r="I3518" s="3"/>
+      <c r="J3518" s="3"/>
+      <c r="K3518" s="3"/>
+    </row>
+    <row r="3519" spans="1:11">
+      <c r="A3519" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B3519">
+        <v>258026.12</v>
+      </c>
+      <c r="D3519" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3519" s="4"/>
+      <c r="F3519" s="4"/>
+      <c r="G3519" s="4"/>
+      <c r="H3519" s="4"/>
+      <c r="I3519" s="4"/>
+      <c r="J3519" s="4"/>
+      <c r="K3519" s="4"/>
+    </row>
+    <row r="3520" spans="1:11">
+      <c r="A3520" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B3520">
+        <v>258026.12</v>
+      </c>
+      <c r="D3520" s="4"/>
+      <c r="E3520" s="4"/>
+      <c r="F3520" s="4"/>
+      <c r="G3520" s="4"/>
+      <c r="H3520" s="4"/>
+      <c r="I3520" s="4"/>
+      <c r="J3520" s="4"/>
+      <c r="K3520" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3512:K3512"/>
-    <mergeCell ref="D3513:K3514"/>
+    <mergeCell ref="D3518:K3518"/>
+    <mergeCell ref="D3519:K3520"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="3524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="3527">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10586,6 +10586,15 @@
   </si>
   <si>
     <t>7-25-2020</t>
+  </si>
+  <si>
+    <t>7-26-2020</t>
+  </si>
+  <si>
+    <t>7-27-2020</t>
+  </si>
+  <si>
+    <t>7-28-2020</t>
   </si>
 </sst>
 </file>
@@ -10722,203 +10731,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3490:$A$3520</c:f>
+              <c:f>DolarToday!$A$3493:$A$3523</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-25-2020</c:v>
+                  <c:v>6-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-26-2020</c:v>
+                  <c:v>6-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-27-2020</c:v>
+                  <c:v>6-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-28-2020</c:v>
+                  <c:v>7-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6-29-2020</c:v>
+                  <c:v>7-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6-30-2020</c:v>
+                  <c:v>7-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7-1-2020</c:v>
+                  <c:v>7-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7-2-2020</c:v>
+                  <c:v>7-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7-3-2020</c:v>
+                  <c:v>7-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7-4-2020</c:v>
+                  <c:v>7-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-5-2020</c:v>
+                  <c:v>7-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-6-2020</c:v>
+                  <c:v>7-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-7-2020</c:v>
+                  <c:v>7-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-8-2020</c:v>
+                  <c:v>7-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-9-2020</c:v>
+                  <c:v>7-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-10-2020</c:v>
+                  <c:v>7-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-11-2020</c:v>
+                  <c:v>7-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-12-2020</c:v>
+                  <c:v>7-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-13-2020</c:v>
+                  <c:v>7-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-14-2020</c:v>
+                  <c:v>7-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-15-2020</c:v>
+                  <c:v>7-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-16-2020</c:v>
+                  <c:v>7-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-17-2020</c:v>
+                  <c:v>7-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-18-2020</c:v>
+                  <c:v>7-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-19-2020</c:v>
+                  <c:v>7-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-20-2020</c:v>
+                  <c:v>7-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-21-2020</c:v>
+                  <c:v>7-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-22-2020</c:v>
+                  <c:v>7-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-23-2020</c:v>
+                  <c:v>7-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-24-2020</c:v>
+                  <c:v>7-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-25-2020</c:v>
+                  <c:v>7-28-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3490:$B$3520</c:f>
+              <c:f>DolarToday!$B$3493:$B$3523</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>210123.53</c:v>
+                  <c:v>214202.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210123.53</c:v>
+                  <c:v>212371.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210123.53</c:v>
+                  <c:v>207129.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>214202.06</c:v>
+                  <c:v>205230.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>212371.73</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>207129.01</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205230.73</c:v>
+                  <c:v>210047.11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210047.11</c:v>
+                  <c:v>214720.58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>210047.11</c:v>
+                  <c:v>218652.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>210047.11</c:v>
+                  <c:v>222482.96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>214720.58</c:v>
+                  <c:v>217204.37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>218652.22</c:v>
+                  <c:v>223071.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>222482.96</c:v>
+                  <c:v>223071.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>217204.37</c:v>
+                  <c:v>223071.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>223071.1</c:v>
+                  <c:v>228102.33</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>223071.1</c:v>
+                  <c:v>231100.93</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>223071.1</c:v>
+                  <c:v>231002.35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>228102.33</c:v>
+                  <c:v>232981.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>231100.93</c:v>
+                  <c:v>235012.53</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>231002.35</c:v>
+                  <c:v>235012.53</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>232981.02</c:v>
+                  <c:v>235012.53</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>235012.53</c:v>
+                  <c:v>237892.02</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>235012.53</c:v>
+                  <c:v>245081.79</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>235012.53</c:v>
+                  <c:v>252313.95</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>237892.02</c:v>
+                  <c:v>258026.12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>245081.79</c:v>
+                  <c:v>258026.12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>252313.95</c:v>
+                  <c:v>258026.12</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>258026.12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>258026.12</c:v>
+                  <c:v>262012.62</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>258026.12</c:v>
+                  <c:v>260068.94</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>258026.12</c:v>
+                  <c:v>258712.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11325,7 +11334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3520"/>
+  <dimension ref="A1:K3523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39394,7 +39403,7 @@
         <v>223071.1</v>
       </c>
     </row>
-    <row r="3505" spans="1:11">
+    <row r="3505" spans="1:2">
       <c r="A3505" t="s">
         <v>3508</v>
       </c>
@@ -39402,7 +39411,7 @@
         <v>223071.1</v>
       </c>
     </row>
-    <row r="3506" spans="1:11">
+    <row r="3506" spans="1:2">
       <c r="A3506" t="s">
         <v>3509</v>
       </c>
@@ -39410,7 +39419,7 @@
         <v>223071.1</v>
       </c>
     </row>
-    <row r="3507" spans="1:11">
+    <row r="3507" spans="1:2">
       <c r="A3507" t="s">
         <v>3510</v>
       </c>
@@ -39418,7 +39427,7 @@
         <v>228102.33</v>
       </c>
     </row>
-    <row r="3508" spans="1:11">
+    <row r="3508" spans="1:2">
       <c r="A3508" t="s">
         <v>3511</v>
       </c>
@@ -39426,7 +39435,7 @@
         <v>231100.93</v>
       </c>
     </row>
-    <row r="3509" spans="1:11">
+    <row r="3509" spans="1:2">
       <c r="A3509" t="s">
         <v>3512</v>
       </c>
@@ -39434,7 +39443,7 @@
         <v>231002.35</v>
       </c>
     </row>
-    <row r="3510" spans="1:11">
+    <row r="3510" spans="1:2">
       <c r="A3510" t="s">
         <v>3513</v>
       </c>
@@ -39442,7 +39451,7 @@
         <v>232981.02</v>
       </c>
     </row>
-    <row r="3511" spans="1:11">
+    <row r="3511" spans="1:2">
       <c r="A3511" t="s">
         <v>3514</v>
       </c>
@@ -39450,7 +39459,7 @@
         <v>235012.53</v>
       </c>
     </row>
-    <row r="3512" spans="1:11">
+    <row r="3512" spans="1:2">
       <c r="A3512" t="s">
         <v>3515</v>
       </c>
@@ -39458,7 +39467,7 @@
         <v>235012.53</v>
       </c>
     </row>
-    <row r="3513" spans="1:11">
+    <row r="3513" spans="1:2">
       <c r="A3513" t="s">
         <v>3516</v>
       </c>
@@ -39466,7 +39475,7 @@
         <v>235012.53</v>
       </c>
     </row>
-    <row r="3514" spans="1:11">
+    <row r="3514" spans="1:2">
       <c r="A3514" t="s">
         <v>3517</v>
       </c>
@@ -39474,7 +39483,7 @@
         <v>237892.02</v>
       </c>
     </row>
-    <row r="3515" spans="1:11">
+    <row r="3515" spans="1:2">
       <c r="A3515" t="s">
         <v>3518</v>
       </c>
@@ -39482,7 +39491,7 @@
         <v>245081.79</v>
       </c>
     </row>
-    <row r="3516" spans="1:11">
+    <row r="3516" spans="1:2">
       <c r="A3516" t="s">
         <v>3519</v>
       </c>
@@ -39490,7 +39499,7 @@
         <v>252313.95</v>
       </c>
     </row>
-    <row r="3517" spans="1:11">
+    <row r="3517" spans="1:2">
       <c r="A3517" t="s">
         <v>3520</v>
       </c>
@@ -39498,64 +39507,88 @@
         <v>258026.12</v>
       </c>
     </row>
-    <row r="3518" spans="1:11">
+    <row r="3518" spans="1:2">
       <c r="A3518" t="s">
         <v>3521</v>
       </c>
       <c r="B3518">
         <v>258026.12</v>
       </c>
-      <c r="D3518" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3518" s="3"/>
-      <c r="F3518" s="3"/>
-      <c r="G3518" s="3"/>
-      <c r="H3518" s="3"/>
-      <c r="I3518" s="3"/>
-      <c r="J3518" s="3"/>
-      <c r="K3518" s="3"/>
-    </row>
-    <row r="3519" spans="1:11">
+    </row>
+    <row r="3519" spans="1:2">
       <c r="A3519" t="s">
         <v>3522</v>
       </c>
       <c r="B3519">
         <v>258026.12</v>
       </c>
-      <c r="D3519" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3519" s="4"/>
-      <c r="F3519" s="4"/>
-      <c r="G3519" s="4"/>
-      <c r="H3519" s="4"/>
-      <c r="I3519" s="4"/>
-      <c r="J3519" s="4"/>
-      <c r="K3519" s="4"/>
-    </row>
-    <row r="3520" spans="1:11">
+    </row>
+    <row r="3520" spans="1:2">
       <c r="A3520" t="s">
         <v>3523</v>
       </c>
       <c r="B3520">
         <v>258026.12</v>
       </c>
-      <c r="D3520" s="4"/>
-      <c r="E3520" s="4"/>
-      <c r="F3520" s="4"/>
-      <c r="G3520" s="4"/>
-      <c r="H3520" s="4"/>
-      <c r="I3520" s="4"/>
-      <c r="J3520" s="4"/>
-      <c r="K3520" s="4"/>
+    </row>
+    <row r="3521" spans="1:11">
+      <c r="A3521" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B3521">
+        <v>262012.62</v>
+      </c>
+      <c r="D3521" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3521" s="3"/>
+      <c r="F3521" s="3"/>
+      <c r="G3521" s="3"/>
+      <c r="H3521" s="3"/>
+      <c r="I3521" s="3"/>
+      <c r="J3521" s="3"/>
+      <c r="K3521" s="3"/>
+    </row>
+    <row r="3522" spans="1:11">
+      <c r="A3522" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B3522">
+        <v>260068.94</v>
+      </c>
+      <c r="D3522" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3522" s="4"/>
+      <c r="F3522" s="4"/>
+      <c r="G3522" s="4"/>
+      <c r="H3522" s="4"/>
+      <c r="I3522" s="4"/>
+      <c r="J3522" s="4"/>
+      <c r="K3522" s="4"/>
+    </row>
+    <row r="3523" spans="1:11">
+      <c r="A3523" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B3523">
+        <v>258712.02</v>
+      </c>
+      <c r="D3523" s="4"/>
+      <c r="E3523" s="4"/>
+      <c r="F3523" s="4"/>
+      <c r="G3523" s="4"/>
+      <c r="H3523" s="4"/>
+      <c r="I3523" s="4"/>
+      <c r="J3523" s="4"/>
+      <c r="K3523" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3518:K3518"/>
-    <mergeCell ref="D3519:K3520"/>
+    <mergeCell ref="D3521:K3521"/>
+    <mergeCell ref="D3522:K3523"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="3527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3541" uniqueCount="3539">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10595,6 +10595,42 @@
   </si>
   <si>
     <t>7-28-2020</t>
+  </si>
+  <si>
+    <t>7-29-2020</t>
+  </si>
+  <si>
+    <t>7-30-2020</t>
+  </si>
+  <si>
+    <t>7-31-2020</t>
+  </si>
+  <si>
+    <t>8-1-2020</t>
+  </si>
+  <si>
+    <t>8-2-2020</t>
+  </si>
+  <si>
+    <t>8-3-2020</t>
+  </si>
+  <si>
+    <t>8-4-2020</t>
+  </si>
+  <si>
+    <t>8-5-2020</t>
+  </si>
+  <si>
+    <t>8-6-2020</t>
+  </si>
+  <si>
+    <t>8-7-2020</t>
+  </si>
+  <si>
+    <t>8-8-2020</t>
+  </si>
+  <si>
+    <t>8-9-2020</t>
   </si>
 </sst>
 </file>
@@ -10731,203 +10767,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3493:$A$3523</c:f>
+              <c:f>DolarToday!$A$3505:$A$3535</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-28-2020</c:v>
+                  <c:v>7-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-29-2020</c:v>
+                  <c:v>7-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-30-2020</c:v>
+                  <c:v>7-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7-1-2020</c:v>
+                  <c:v>7-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7-2-2020</c:v>
+                  <c:v>7-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7-3-2020</c:v>
+                  <c:v>7-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7-4-2020</c:v>
+                  <c:v>7-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7-5-2020</c:v>
+                  <c:v>7-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7-6-2020</c:v>
+                  <c:v>7-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7-7-2020</c:v>
+                  <c:v>7-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-8-2020</c:v>
+                  <c:v>7-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-9-2020</c:v>
+                  <c:v>7-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-10-2020</c:v>
+                  <c:v>7-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-11-2020</c:v>
+                  <c:v>7-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-12-2020</c:v>
+                  <c:v>7-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-13-2020</c:v>
+                  <c:v>7-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-14-2020</c:v>
+                  <c:v>7-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-15-2020</c:v>
+                  <c:v>7-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-16-2020</c:v>
+                  <c:v>7-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-17-2020</c:v>
+                  <c:v>7-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-18-2020</c:v>
+                  <c:v>7-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-19-2020</c:v>
+                  <c:v>7-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-20-2020</c:v>
+                  <c:v>8-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-21-2020</c:v>
+                  <c:v>8-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-22-2020</c:v>
+                  <c:v>8-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-23-2020</c:v>
+                  <c:v>8-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-24-2020</c:v>
+                  <c:v>8-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-25-2020</c:v>
+                  <c:v>8-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-26-2020</c:v>
+                  <c:v>8-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-27-2020</c:v>
+                  <c:v>8-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-28-2020</c:v>
+                  <c:v>8-9-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3493:$B$3523</c:f>
+              <c:f>DolarToday!$B$3505:$B$3535</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>214202.06</c:v>
+                  <c:v>223071.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212371.73</c:v>
+                  <c:v>223071.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>207129.01</c:v>
+                  <c:v>228102.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>205230.73</c:v>
+                  <c:v>231100.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210047.11</c:v>
+                  <c:v>231002.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210047.11</c:v>
+                  <c:v>232981.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210047.11</c:v>
+                  <c:v>235012.53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>214720.58</c:v>
+                  <c:v>235012.53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>218652.22</c:v>
+                  <c:v>235012.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>222482.96</c:v>
+                  <c:v>237892.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>217204.37</c:v>
+                  <c:v>245081.79</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>223071.1</c:v>
+                  <c:v>252313.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>223071.1</c:v>
+                  <c:v>258026.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>223071.1</c:v>
+                  <c:v>258026.12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>228102.33</c:v>
+                  <c:v>258026.12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>231100.93</c:v>
+                  <c:v>258026.12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>231002.35</c:v>
+                  <c:v>262012.62</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>232981.02</c:v>
+                  <c:v>260068.94</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>235012.53</c:v>
+                  <c:v>258712.02</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>235012.53</c:v>
+                  <c:v>265883.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>235012.53</c:v>
+                  <c:v>268022.76</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>237892.02</c:v>
+                  <c:v>268022.76</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>245081.79</c:v>
+                  <c:v>268022.76</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>252313.95</c:v>
+                  <c:v>268109.12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>258026.12</c:v>
+                  <c:v>265980.04</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>258026.12</c:v>
+                  <c:v>268581.06</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>258026.12</c:v>
+                  <c:v>278022.72</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>258026.12</c:v>
+                  <c:v>294729.01</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>262012.62</c:v>
+                  <c:v>294729.01</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>260068.94</c:v>
+                  <c:v>294729.01</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>258712.02</c:v>
+                  <c:v>296128.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11334,7 +11370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3523"/>
+  <dimension ref="A1:K3535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39538,16 +39574,6 @@
       <c r="B3521">
         <v>262012.62</v>
       </c>
-      <c r="D3521" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3521" s="3"/>
-      <c r="F3521" s="3"/>
-      <c r="G3521" s="3"/>
-      <c r="H3521" s="3"/>
-      <c r="I3521" s="3"/>
-      <c r="J3521" s="3"/>
-      <c r="K3521" s="3"/>
     </row>
     <row r="3522" spans="1:11">
       <c r="A3522" t="s">
@@ -39556,16 +39582,6 @@
       <c r="B3522">
         <v>260068.94</v>
       </c>
-      <c r="D3522" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3522" s="4"/>
-      <c r="F3522" s="4"/>
-      <c r="G3522" s="4"/>
-      <c r="H3522" s="4"/>
-      <c r="I3522" s="4"/>
-      <c r="J3522" s="4"/>
-      <c r="K3522" s="4"/>
     </row>
     <row r="3523" spans="1:11">
       <c r="A3523" t="s">
@@ -39574,21 +39590,137 @@
       <c r="B3523">
         <v>258712.02</v>
       </c>
-      <c r="D3523" s="4"/>
-      <c r="E3523" s="4"/>
-      <c r="F3523" s="4"/>
-      <c r="G3523" s="4"/>
-      <c r="H3523" s="4"/>
-      <c r="I3523" s="4"/>
-      <c r="J3523" s="4"/>
-      <c r="K3523" s="4"/>
+    </row>
+    <row r="3524" spans="1:11">
+      <c r="A3524" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B3524">
+        <v>265883.7</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:11">
+      <c r="A3525" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B3525">
+        <v>268022.76</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:11">
+      <c r="A3526" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B3526">
+        <v>268022.76</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:11">
+      <c r="A3527" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B3527">
+        <v>268022.76</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:11">
+      <c r="A3528" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B3528">
+        <v>268109.12</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:11">
+      <c r="A3529" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B3529">
+        <v>265980.04</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:11">
+      <c r="A3530" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B3530">
+        <v>268581.06</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:11">
+      <c r="A3531" t="s">
+        <v>3534</v>
+      </c>
+      <c r="B3531">
+        <v>278022.72</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:11">
+      <c r="A3532" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B3532">
+        <v>294729.01</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:11">
+      <c r="A3533" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B3533">
+        <v>294729.01</v>
+      </c>
+      <c r="D3533" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3533" s="3"/>
+      <c r="F3533" s="3"/>
+      <c r="G3533" s="3"/>
+      <c r="H3533" s="3"/>
+      <c r="I3533" s="3"/>
+      <c r="J3533" s="3"/>
+      <c r="K3533" s="3"/>
+    </row>
+    <row r="3534" spans="1:11">
+      <c r="A3534" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B3534">
+        <v>294729.01</v>
+      </c>
+      <c r="D3534" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3534" s="4"/>
+      <c r="F3534" s="4"/>
+      <c r="G3534" s="4"/>
+      <c r="H3534" s="4"/>
+      <c r="I3534" s="4"/>
+      <c r="J3534" s="4"/>
+      <c r="K3534" s="4"/>
+    </row>
+    <row r="3535" spans="1:11">
+      <c r="A3535" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B3535">
+        <v>296128.94</v>
+      </c>
+      <c r="D3535" s="4"/>
+      <c r="E3535" s="4"/>
+      <c r="F3535" s="4"/>
+      <c r="G3535" s="4"/>
+      <c r="H3535" s="4"/>
+      <c r="I3535" s="4"/>
+      <c r="J3535" s="4"/>
+      <c r="K3535" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3521:K3521"/>
-    <mergeCell ref="D3522:K3523"/>
+    <mergeCell ref="D3533:K3533"/>
+    <mergeCell ref="D3534:K3535"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3541" uniqueCount="3539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="3562">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10631,6 +10631,75 @@
   </si>
   <si>
     <t>8-9-2020</t>
+  </si>
+  <si>
+    <t>8-10-2020</t>
+  </si>
+  <si>
+    <t>8-11-2020</t>
+  </si>
+  <si>
+    <t>8-12-2020</t>
+  </si>
+  <si>
+    <t>8-13-2020</t>
+  </si>
+  <si>
+    <t>8-14-2020</t>
+  </si>
+  <si>
+    <t>8-15-2020</t>
+  </si>
+  <si>
+    <t>8-16-2020</t>
+  </si>
+  <si>
+    <t>8-17-2020</t>
+  </si>
+  <si>
+    <t>8-18-2020</t>
+  </si>
+  <si>
+    <t>8-19-2020</t>
+  </si>
+  <si>
+    <t>8-20-2020</t>
+  </si>
+  <si>
+    <t>8-21-2020</t>
+  </si>
+  <si>
+    <t>8-22-2020</t>
+  </si>
+  <si>
+    <t>8-23-2020</t>
+  </si>
+  <si>
+    <t>8-24-2020</t>
+  </si>
+  <si>
+    <t>8-25-2020</t>
+  </si>
+  <si>
+    <t>8-26-2020</t>
+  </si>
+  <si>
+    <t>8-27-2020</t>
+  </si>
+  <si>
+    <t>8-28-2020</t>
+  </si>
+  <si>
+    <t>8-29-2020</t>
+  </si>
+  <si>
+    <t>8-30-2020</t>
+  </si>
+  <si>
+    <t>8-31-2020</t>
+  </si>
+  <si>
+    <t>9-1-2020</t>
   </si>
 </sst>
 </file>
@@ -10767,203 +10836,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3505:$A$3535</c:f>
+              <c:f>DolarToday!$A$3528:$A$3558</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>7-10-2020</c:v>
+                  <c:v>8-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7-11-2020</c:v>
+                  <c:v>8-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-12-2020</c:v>
+                  <c:v>8-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7-13-2020</c:v>
+                  <c:v>8-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7-14-2020</c:v>
+                  <c:v>8-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7-15-2020</c:v>
+                  <c:v>8-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7-16-2020</c:v>
+                  <c:v>8-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7-17-2020</c:v>
+                  <c:v>8-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7-18-2020</c:v>
+                  <c:v>8-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7-19-2020</c:v>
+                  <c:v>8-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-20-2020</c:v>
+                  <c:v>8-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-21-2020</c:v>
+                  <c:v>8-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-22-2020</c:v>
+                  <c:v>8-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-23-2020</c:v>
+                  <c:v>8-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-24-2020</c:v>
+                  <c:v>8-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-25-2020</c:v>
+                  <c:v>8-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-26-2020</c:v>
+                  <c:v>8-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-27-2020</c:v>
+                  <c:v>8-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-28-2020</c:v>
+                  <c:v>8-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-29-2020</c:v>
+                  <c:v>8-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-30-2020</c:v>
+                  <c:v>8-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-31-2020</c:v>
+                  <c:v>8-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8-1-2020</c:v>
+                  <c:v>8-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8-2-2020</c:v>
+                  <c:v>8-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8-3-2020</c:v>
+                  <c:v>8-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8-4-2020</c:v>
+                  <c:v>8-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8-5-2020</c:v>
+                  <c:v>8-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8-6-2020</c:v>
+                  <c:v>8-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8-7-2020</c:v>
+                  <c:v>8-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8-8-2020</c:v>
+                  <c:v>8-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8-9-2020</c:v>
+                  <c:v>9-1-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3505:$B$3535</c:f>
+              <c:f>DolarToday!$B$3528:$B$3558</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>223071.1</c:v>
+                  <c:v>268109.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223071.1</c:v>
+                  <c:v>265980.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>228102.33</c:v>
+                  <c:v>268581.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>231100.93</c:v>
+                  <c:v>278022.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>231002.35</c:v>
+                  <c:v>294729.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>232981.02</c:v>
+                  <c:v>294729.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>235012.53</c:v>
+                  <c:v>294729.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>235012.53</c:v>
+                  <c:v>296128.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>235012.53</c:v>
+                  <c:v>280012.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>237892.02</c:v>
+                  <c:v>285012.42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>245081.79</c:v>
+                  <c:v>288953.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>252313.95</c:v>
+                  <c:v>298781.93</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>258026.12</c:v>
+                  <c:v>298781.93</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>258026.12</c:v>
+                  <c:v>298781.93</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>258026.12</c:v>
+                  <c:v>289874.72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>258026.12</c:v>
+                  <c:v>294821.82</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>262012.62</c:v>
+                  <c:v>303054.13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>260068.94</c:v>
+                  <c:v>310272.29</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>258712.02</c:v>
+                  <c:v>306993.62</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>265883.7</c:v>
+                  <c:v>306993.62</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>268022.76</c:v>
+                  <c:v>306993.62</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>268022.76</c:v>
+                  <c:v>310022.05</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>268022.76</c:v>
+                  <c:v>317382.73</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>268109.12</c:v>
+                  <c:v>320068.9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>265980.04</c:v>
+                  <c:v>330007.62</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>268581.06</c:v>
+                  <c:v>333093.27</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>278022.72</c:v>
+                  <c:v>333093.27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>294729.01</c:v>
+                  <c:v>333093.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>294729.01</c:v>
+                  <c:v>336821.07</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>294729.01</c:v>
+                  <c:v>345123.12</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>296128.94</c:v>
+                  <c:v>346053.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11370,7 +11439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3535"/>
+  <dimension ref="A1:K3558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39567,7 +39636,7 @@
         <v>258026.12</v>
       </c>
     </row>
-    <row r="3521" spans="1:11">
+    <row r="3521" spans="1:2">
       <c r="A3521" t="s">
         <v>3524</v>
       </c>
@@ -39575,7 +39644,7 @@
         <v>262012.62</v>
       </c>
     </row>
-    <row r="3522" spans="1:11">
+    <row r="3522" spans="1:2">
       <c r="A3522" t="s">
         <v>3525</v>
       </c>
@@ -39583,7 +39652,7 @@
         <v>260068.94</v>
       </c>
     </row>
-    <row r="3523" spans="1:11">
+    <row r="3523" spans="1:2">
       <c r="A3523" t="s">
         <v>3526</v>
       </c>
@@ -39591,7 +39660,7 @@
         <v>258712.02</v>
       </c>
     </row>
-    <row r="3524" spans="1:11">
+    <row r="3524" spans="1:2">
       <c r="A3524" t="s">
         <v>3527</v>
       </c>
@@ -39599,7 +39668,7 @@
         <v>265883.7</v>
       </c>
     </row>
-    <row r="3525" spans="1:11">
+    <row r="3525" spans="1:2">
       <c r="A3525" t="s">
         <v>3528</v>
       </c>
@@ -39607,7 +39676,7 @@
         <v>268022.76</v>
       </c>
     </row>
-    <row r="3526" spans="1:11">
+    <row r="3526" spans="1:2">
       <c r="A3526" t="s">
         <v>3529</v>
       </c>
@@ -39615,7 +39684,7 @@
         <v>268022.76</v>
       </c>
     </row>
-    <row r="3527" spans="1:11">
+    <row r="3527" spans="1:2">
       <c r="A3527" t="s">
         <v>3530</v>
       </c>
@@ -39623,7 +39692,7 @@
         <v>268022.76</v>
       </c>
     </row>
-    <row r="3528" spans="1:11">
+    <row r="3528" spans="1:2">
       <c r="A3528" t="s">
         <v>3531</v>
       </c>
@@ -39631,7 +39700,7 @@
         <v>268109.12</v>
       </c>
     </row>
-    <row r="3529" spans="1:11">
+    <row r="3529" spans="1:2">
       <c r="A3529" t="s">
         <v>3532</v>
       </c>
@@ -39639,7 +39708,7 @@
         <v>265980.04</v>
       </c>
     </row>
-    <row r="3530" spans="1:11">
+    <row r="3530" spans="1:2">
       <c r="A3530" t="s">
         <v>3533</v>
       </c>
@@ -39647,7 +39716,7 @@
         <v>268581.06</v>
       </c>
     </row>
-    <row r="3531" spans="1:11">
+    <row r="3531" spans="1:2">
       <c r="A3531" t="s">
         <v>3534</v>
       </c>
@@ -39655,7 +39724,7 @@
         <v>278022.72</v>
       </c>
     </row>
-    <row r="3532" spans="1:11">
+    <row r="3532" spans="1:2">
       <c r="A3532" t="s">
         <v>3535</v>
       </c>
@@ -39663,64 +39732,248 @@
         <v>294729.01</v>
       </c>
     </row>
-    <row r="3533" spans="1:11">
+    <row r="3533" spans="1:2">
       <c r="A3533" t="s">
         <v>3536</v>
       </c>
       <c r="B3533">
         <v>294729.01</v>
       </c>
-      <c r="D3533" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3533" s="3"/>
-      <c r="F3533" s="3"/>
-      <c r="G3533" s="3"/>
-      <c r="H3533" s="3"/>
-      <c r="I3533" s="3"/>
-      <c r="J3533" s="3"/>
-      <c r="K3533" s="3"/>
-    </row>
-    <row r="3534" spans="1:11">
+    </row>
+    <row r="3534" spans="1:2">
       <c r="A3534" t="s">
         <v>3537</v>
       </c>
       <c r="B3534">
         <v>294729.01</v>
       </c>
-      <c r="D3534" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3534" s="4"/>
-      <c r="F3534" s="4"/>
-      <c r="G3534" s="4"/>
-      <c r="H3534" s="4"/>
-      <c r="I3534" s="4"/>
-      <c r="J3534" s="4"/>
-      <c r="K3534" s="4"/>
-    </row>
-    <row r="3535" spans="1:11">
+    </row>
+    <row r="3535" spans="1:2">
       <c r="A3535" t="s">
         <v>3538</v>
       </c>
       <c r="B3535">
         <v>296128.94</v>
       </c>
-      <c r="D3535" s="4"/>
-      <c r="E3535" s="4"/>
-      <c r="F3535" s="4"/>
-      <c r="G3535" s="4"/>
-      <c r="H3535" s="4"/>
-      <c r="I3535" s="4"/>
-      <c r="J3535" s="4"/>
-      <c r="K3535" s="4"/>
+    </row>
+    <row r="3536" spans="1:2">
+      <c r="A3536" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B3536">
+        <v>280012.53</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:2">
+      <c r="A3537" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B3537">
+        <v>285012.42</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:2">
+      <c r="A3538" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B3538">
+        <v>288953.82</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:2">
+      <c r="A3539" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B3539">
+        <v>298781.93</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:2">
+      <c r="A3540" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B3540">
+        <v>298781.93</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:2">
+      <c r="A3541" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B3541">
+        <v>298781.93</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:2">
+      <c r="A3542" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B3542">
+        <v>289874.72</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:2">
+      <c r="A3543" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B3543">
+        <v>294821.82</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:2">
+      <c r="A3544" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B3544">
+        <v>303054.13</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:2">
+      <c r="A3545" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B3545">
+        <v>310272.29</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:2">
+      <c r="A3546" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B3546">
+        <v>306993.62</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:2">
+      <c r="A3547" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B3547">
+        <v>306993.62</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:2">
+      <c r="A3548" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B3548">
+        <v>306993.62</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:2">
+      <c r="A3549" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B3549">
+        <v>310022.05</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:2">
+      <c r="A3550" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B3550">
+        <v>317382.73</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:2">
+      <c r="A3551" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B3551">
+        <v>320068.9</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:2">
+      <c r="A3552" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B3552">
+        <v>330007.62</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:11">
+      <c r="A3553" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B3553">
+        <v>333093.27</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:11">
+      <c r="A3554" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B3554">
+        <v>333093.27</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:11">
+      <c r="A3555" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B3555">
+        <v>333093.27</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:11">
+      <c r="A3556" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B3556">
+        <v>336821.07</v>
+      </c>
+      <c r="D3556" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3556" s="3"/>
+      <c r="F3556" s="3"/>
+      <c r="G3556" s="3"/>
+      <c r="H3556" s="3"/>
+      <c r="I3556" s="3"/>
+      <c r="J3556" s="3"/>
+      <c r="K3556" s="3"/>
+    </row>
+    <row r="3557" spans="1:11">
+      <c r="A3557" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B3557">
+        <v>345123.12</v>
+      </c>
+      <c r="D3557" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3557" s="4"/>
+      <c r="F3557" s="4"/>
+      <c r="G3557" s="4"/>
+      <c r="H3557" s="4"/>
+      <c r="I3557" s="4"/>
+      <c r="J3557" s="4"/>
+      <c r="K3557" s="4"/>
+    </row>
+    <row r="3558" spans="1:11">
+      <c r="A3558" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B3558">
+        <v>346053.78</v>
+      </c>
+      <c r="D3558" s="4"/>
+      <c r="E3558" s="4"/>
+      <c r="F3558" s="4"/>
+      <c r="G3558" s="4"/>
+      <c r="H3558" s="4"/>
+      <c r="I3558" s="4"/>
+      <c r="J3558" s="4"/>
+      <c r="K3558" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3533:K3533"/>
-    <mergeCell ref="D3534:K3535"/>
+    <mergeCell ref="D3556:K3556"/>
+    <mergeCell ref="D3557:K3558"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="3562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3598" uniqueCount="3596">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10700,6 +10700,108 @@
   </si>
   <si>
     <t>9-1-2020</t>
+  </si>
+  <si>
+    <t>9-2-2020</t>
+  </si>
+  <si>
+    <t>9-3-2020</t>
+  </si>
+  <si>
+    <t>9-4-2020</t>
+  </si>
+  <si>
+    <t>9-5-2020</t>
+  </si>
+  <si>
+    <t>9-6-2020</t>
+  </si>
+  <si>
+    <t>9-7-2020</t>
+  </si>
+  <si>
+    <t>9-8-2020</t>
+  </si>
+  <si>
+    <t>9-9-2020</t>
+  </si>
+  <si>
+    <t>9-10-2020</t>
+  </si>
+  <si>
+    <t>9-11-2020</t>
+  </si>
+  <si>
+    <t>9-12-2020</t>
+  </si>
+  <si>
+    <t>9-13-2020</t>
+  </si>
+  <si>
+    <t>9-14-2020</t>
+  </si>
+  <si>
+    <t>9-15-2020</t>
+  </si>
+  <si>
+    <t>9-16-2020</t>
+  </si>
+  <si>
+    <t>9-17-2020</t>
+  </si>
+  <si>
+    <t>9-18-2020</t>
+  </si>
+  <si>
+    <t>9-19-2020</t>
+  </si>
+  <si>
+    <t>9-20-2020</t>
+  </si>
+  <si>
+    <t>9-21-2020</t>
+  </si>
+  <si>
+    <t>9-22-2020</t>
+  </si>
+  <si>
+    <t>9-23-2020</t>
+  </si>
+  <si>
+    <t>9-24-2020</t>
+  </si>
+  <si>
+    <t>9-25-2020</t>
+  </si>
+  <si>
+    <t>9-26-2020</t>
+  </si>
+  <si>
+    <t>9-27-2020</t>
+  </si>
+  <si>
+    <t>9-28-2020</t>
+  </si>
+  <si>
+    <t>9-29-2020</t>
+  </si>
+  <si>
+    <t>9-30-2020</t>
+  </si>
+  <si>
+    <t>10-1-2020</t>
+  </si>
+  <si>
+    <t>10-2-2020</t>
+  </si>
+  <si>
+    <t>10-3-2020</t>
+  </si>
+  <si>
+    <t>10-4-2020</t>
+  </si>
+  <si>
+    <t>10-5-2020</t>
   </si>
 </sst>
 </file>
@@ -10836,203 +10938,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3528:$A$3558</c:f>
+              <c:f>DolarToday!$A$3562:$A$3592</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>8-2-2020</c:v>
+                  <c:v>9-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8-3-2020</c:v>
+                  <c:v>9-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8-4-2020</c:v>
+                  <c:v>9-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-5-2020</c:v>
+                  <c:v>9-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8-6-2020</c:v>
+                  <c:v>9-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8-7-2020</c:v>
+                  <c:v>9-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8-8-2020</c:v>
+                  <c:v>9-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8-9-2020</c:v>
+                  <c:v>9-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8-10-2020</c:v>
+                  <c:v>9-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8-11-2020</c:v>
+                  <c:v>9-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8-12-2020</c:v>
+                  <c:v>9-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8-13-2020</c:v>
+                  <c:v>9-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8-14-2020</c:v>
+                  <c:v>9-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8-15-2020</c:v>
+                  <c:v>9-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8-16-2020</c:v>
+                  <c:v>9-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8-17-2020</c:v>
+                  <c:v>9-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8-18-2020</c:v>
+                  <c:v>9-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8-19-2020</c:v>
+                  <c:v>9-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8-20-2020</c:v>
+                  <c:v>9-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8-21-2020</c:v>
+                  <c:v>9-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8-22-2020</c:v>
+                  <c:v>9-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8-23-2020</c:v>
+                  <c:v>9-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8-24-2020</c:v>
+                  <c:v>9-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8-25-2020</c:v>
+                  <c:v>9-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8-26-2020</c:v>
+                  <c:v>9-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8-27-2020</c:v>
+                  <c:v>9-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8-28-2020</c:v>
+                  <c:v>10-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8-29-2020</c:v>
+                  <c:v>10-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8-30-2020</c:v>
+                  <c:v>10-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8-31-2020</c:v>
+                  <c:v>10-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9-1-2020</c:v>
+                  <c:v>10-5-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3528:$B$3558</c:f>
+              <c:f>DolarToday!$B$3562:$B$3592</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>268109.12</c:v>
+                  <c:v>364023.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>265980.04</c:v>
+                  <c:v>369074.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>268581.06</c:v>
+                  <c:v>369201.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>278022.72</c:v>
+                  <c:v>368532.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>294729.01</c:v>
+                  <c:v>366713.14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>294729.01</c:v>
+                  <c:v>370032.61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>294729.01</c:v>
+                  <c:v>370032.61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>296128.94</c:v>
+                  <c:v>370032.61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>280012.53</c:v>
+                  <c:v>378043.42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>285012.42</c:v>
+                  <c:v>373489.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>288953.82</c:v>
+                  <c:v>380023.62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>298781.93</c:v>
+                  <c:v>384420.91</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>298781.93</c:v>
+                  <c:v>395043.33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>298781.93</c:v>
+                  <c:v>395043.33</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>289874.72</c:v>
+                  <c:v>395043.33</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>294821.82</c:v>
+                  <c:v>401038.84</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>303054.13</c:v>
+                  <c:v>410183.83</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>310272.29</c:v>
+                  <c:v>410902.63</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>306993.62</c:v>
+                  <c:v>423127.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>306993.62</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>306993.62</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>310022.05</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>317382.73</c:v>
+                  <c:v>440378.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>320068.9</c:v>
+                  <c:v>450102.72</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>330007.62</c:v>
+                  <c:v>452076.76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>333093.27</c:v>
+                  <c:v>444823.76</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>333093.27</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>333093.27</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>336821.07</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>345123.12</c:v>
+                  <c:v>460823.23</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>346053.78</c:v>
+                  <c:v>452042.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11439,7 +11541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3558"/>
+  <dimension ref="A1:K3592"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39892,7 +39994,7 @@
         <v>330007.62</v>
       </c>
     </row>
-    <row r="3553" spans="1:11">
+    <row r="3553" spans="1:2">
       <c r="A3553" t="s">
         <v>3556</v>
       </c>
@@ -39900,7 +40002,7 @@
         <v>333093.27</v>
       </c>
     </row>
-    <row r="3554" spans="1:11">
+    <row r="3554" spans="1:2">
       <c r="A3554" t="s">
         <v>3557</v>
       </c>
@@ -39908,7 +40010,7 @@
         <v>333093.27</v>
       </c>
     </row>
-    <row r="3555" spans="1:11">
+    <row r="3555" spans="1:2">
       <c r="A3555" t="s">
         <v>3558</v>
       </c>
@@ -39916,64 +40018,336 @@
         <v>333093.27</v>
       </c>
     </row>
-    <row r="3556" spans="1:11">
+    <row r="3556" spans="1:2">
       <c r="A3556" t="s">
         <v>3559</v>
       </c>
       <c r="B3556">
         <v>336821.07</v>
       </c>
-      <c r="D3556" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3556" s="3"/>
-      <c r="F3556" s="3"/>
-      <c r="G3556" s="3"/>
-      <c r="H3556" s="3"/>
-      <c r="I3556" s="3"/>
-      <c r="J3556" s="3"/>
-      <c r="K3556" s="3"/>
-    </row>
-    <row r="3557" spans="1:11">
+    </row>
+    <row r="3557" spans="1:2">
       <c r="A3557" t="s">
         <v>3560</v>
       </c>
       <c r="B3557">
         <v>345123.12</v>
       </c>
-      <c r="D3557" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3557" s="4"/>
-      <c r="F3557" s="4"/>
-      <c r="G3557" s="4"/>
-      <c r="H3557" s="4"/>
-      <c r="I3557" s="4"/>
-      <c r="J3557" s="4"/>
-      <c r="K3557" s="4"/>
-    </row>
-    <row r="3558" spans="1:11">
+    </row>
+    <row r="3558" spans="1:2">
       <c r="A3558" t="s">
         <v>3561</v>
       </c>
       <c r="B3558">
         <v>346053.78</v>
       </c>
-      <c r="D3558" s="4"/>
-      <c r="E3558" s="4"/>
-      <c r="F3558" s="4"/>
-      <c r="G3558" s="4"/>
-      <c r="H3558" s="4"/>
-      <c r="I3558" s="4"/>
-      <c r="J3558" s="4"/>
-      <c r="K3558" s="4"/>
+    </row>
+    <row r="3559" spans="1:2">
+      <c r="A3559" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B3559">
+        <v>348782.03</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:2">
+      <c r="A3560" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B3560">
+        <v>364023.12</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:2">
+      <c r="A3561" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B3561">
+        <v>364023.12</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:2">
+      <c r="A3562" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B3562">
+        <v>364023.12</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:2">
+      <c r="A3563" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B3563">
+        <v>369074.44</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:2">
+      <c r="A3564" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B3564">
+        <v>369201.92</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:2">
+      <c r="A3565" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B3565">
+        <v>368532.31</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:2">
+      <c r="A3566" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B3566">
+        <v>366713.14</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:2">
+      <c r="A3567" t="s">
+        <v>3570</v>
+      </c>
+      <c r="B3567">
+        <v>370032.61</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:2">
+      <c r="A3568" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B3568">
+        <v>370032.61</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:2">
+      <c r="A3569" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B3569">
+        <v>370032.61</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:2">
+      <c r="A3570" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B3570">
+        <v>378043.42</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:2">
+      <c r="A3571" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B3571">
+        <v>373489.52</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:2">
+      <c r="A3572" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B3572">
+        <v>380023.62</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:2">
+      <c r="A3573" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B3573">
+        <v>384420.91</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:2">
+      <c r="A3574" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B3574">
+        <v>395043.33</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:2">
+      <c r="A3575" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B3575">
+        <v>395043.33</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:2">
+      <c r="A3576" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B3576">
+        <v>395043.33</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:2">
+      <c r="A3577" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B3577">
+        <v>401038.84</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:2">
+      <c r="A3578" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B3578">
+        <v>410183.83</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:2">
+      <c r="A3579" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B3579">
+        <v>410902.63</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:2">
+      <c r="A3580" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B3580">
+        <v>423127.75</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:2">
+      <c r="A3581" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B3581">
+        <v>438319.92</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:2">
+      <c r="A3582" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B3582">
+        <v>438319.92</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:2">
+      <c r="A3583" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B3583">
+        <v>438319.92</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:2">
+      <c r="A3584" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B3584">
+        <v>440378.38</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:11">
+      <c r="A3585" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B3585">
+        <v>450102.72</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:11">
+      <c r="A3586" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B3586">
+        <v>452076.76</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:11">
+      <c r="A3587" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B3587">
+        <v>444823.76</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:11">
+      <c r="A3588" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B3588">
+        <v>449043.73</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:11">
+      <c r="A3589" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B3589">
+        <v>449043.73</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:11">
+      <c r="A3590" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B3590">
+        <v>449043.73</v>
+      </c>
+      <c r="D3590" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3590" s="3"/>
+      <c r="F3590" s="3"/>
+      <c r="G3590" s="3"/>
+      <c r="H3590" s="3"/>
+      <c r="I3590" s="3"/>
+      <c r="J3590" s="3"/>
+      <c r="K3590" s="3"/>
+    </row>
+    <row r="3591" spans="1:11">
+      <c r="A3591" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B3591">
+        <v>460823.23</v>
+      </c>
+      <c r="D3591" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3591" s="4"/>
+      <c r="F3591" s="4"/>
+      <c r="G3591" s="4"/>
+      <c r="H3591" s="4"/>
+      <c r="I3591" s="4"/>
+      <c r="J3591" s="4"/>
+      <c r="K3591" s="4"/>
+    </row>
+    <row r="3592" spans="1:11">
+      <c r="A3592" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B3592">
+        <v>452042.91</v>
+      </c>
+      <c r="D3592" s="4"/>
+      <c r="E3592" s="4"/>
+      <c r="F3592" s="4"/>
+      <c r="G3592" s="4"/>
+      <c r="H3592" s="4"/>
+      <c r="I3592" s="4"/>
+      <c r="J3592" s="4"/>
+      <c r="K3592" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3556:K3556"/>
-    <mergeCell ref="D3557:K3558"/>
+    <mergeCell ref="D3590:K3590"/>
+    <mergeCell ref="D3591:K3592"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3598" uniqueCount="3596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="3603">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10802,6 +10802,27 @@
   </si>
   <si>
     <t>10-5-2020</t>
+  </si>
+  <si>
+    <t>10-6-2020</t>
+  </si>
+  <si>
+    <t>10-7-2020</t>
+  </si>
+  <si>
+    <t>10-8-2020</t>
+  </si>
+  <si>
+    <t>10-9-2020</t>
+  </si>
+  <si>
+    <t>10-10-2020</t>
+  </si>
+  <si>
+    <t>10-11-2020</t>
+  </si>
+  <si>
+    <t>10-12-2020</t>
   </si>
 </sst>
 </file>
@@ -10938,203 +10959,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3562:$A$3592</c:f>
+              <c:f>DolarToday!$A$3569:$A$3599</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9-5-2020</c:v>
+                  <c:v>9-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9-6-2020</c:v>
+                  <c:v>9-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9-7-2020</c:v>
+                  <c:v>9-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9-8-2020</c:v>
+                  <c:v>9-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-9-2020</c:v>
+                  <c:v>9-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9-10-2020</c:v>
+                  <c:v>9-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9-11-2020</c:v>
+                  <c:v>9-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9-12-2020</c:v>
+                  <c:v>9-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9-13-2020</c:v>
+                  <c:v>9-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9-14-2020</c:v>
+                  <c:v>9-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9-15-2020</c:v>
+                  <c:v>9-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9-16-2020</c:v>
+                  <c:v>9-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9-17-2020</c:v>
+                  <c:v>9-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9-18-2020</c:v>
+                  <c:v>9-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9-19-2020</c:v>
+                  <c:v>9-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9-20-2020</c:v>
+                  <c:v>9-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9-21-2020</c:v>
+                  <c:v>9-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9-22-2020</c:v>
+                  <c:v>9-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9-23-2020</c:v>
+                  <c:v>9-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9-24-2020</c:v>
+                  <c:v>10-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9-25-2020</c:v>
+                  <c:v>10-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9-26-2020</c:v>
+                  <c:v>10-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9-27-2020</c:v>
+                  <c:v>10-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9-28-2020</c:v>
+                  <c:v>10-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9-29-2020</c:v>
+                  <c:v>10-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9-30-2020</c:v>
+                  <c:v>10-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10-1-2020</c:v>
+                  <c:v>10-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10-2-2020</c:v>
+                  <c:v>10-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10-3-2020</c:v>
+                  <c:v>10-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10-4-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10-5-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3562:$B$3592</c:f>
+              <c:f>DolarToday!$B$3569:$B$3599</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>364023.12</c:v>
+                  <c:v>370032.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>369074.44</c:v>
+                  <c:v>378043.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>369201.92</c:v>
+                  <c:v>373489.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>368532.31</c:v>
+                  <c:v>380023.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>366713.14</c:v>
+                  <c:v>384420.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>370032.61</c:v>
+                  <c:v>395043.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>370032.61</c:v>
+                  <c:v>395043.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>370032.61</c:v>
+                  <c:v>395043.33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>378043.42</c:v>
+                  <c:v>401038.84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>373489.52</c:v>
+                  <c:v>410183.83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>380023.62</c:v>
+                  <c:v>410902.63</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>384420.91</c:v>
+                  <c:v>423127.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>395043.33</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>395043.33</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>395043.33</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>401038.84</c:v>
+                  <c:v>440378.38</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>410183.83</c:v>
+                  <c:v>450102.72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>410902.63</c:v>
+                  <c:v>452076.76</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>423127.75</c:v>
+                  <c:v>444823.76</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>438319.92</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>438319.92</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>438319.92</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>440378.38</c:v>
+                  <c:v>460823.23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>450102.72</c:v>
+                  <c:v>452042.91</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>452076.76</c:v>
+                  <c:v>458032.92</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>444823.76</c:v>
+                  <c:v>470012.73</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>449043.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>449043.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>449043.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>460823.23</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>452042.91</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11541,7 +11562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3592"/>
+  <dimension ref="A1:K3599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40297,16 +40318,6 @@
       <c r="B3590">
         <v>449043.73</v>
       </c>
-      <c r="D3590" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3590" s="3"/>
-      <c r="F3590" s="3"/>
-      <c r="G3590" s="3"/>
-      <c r="H3590" s="3"/>
-      <c r="I3590" s="3"/>
-      <c r="J3590" s="3"/>
-      <c r="K3590" s="3"/>
     </row>
     <row r="3591" spans="1:11">
       <c r="A3591" t="s">
@@ -40315,16 +40326,6 @@
       <c r="B3591">
         <v>460823.23</v>
       </c>
-      <c r="D3591" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3591" s="4"/>
-      <c r="F3591" s="4"/>
-      <c r="G3591" s="4"/>
-      <c r="H3591" s="4"/>
-      <c r="I3591" s="4"/>
-      <c r="J3591" s="4"/>
-      <c r="K3591" s="4"/>
     </row>
     <row r="3592" spans="1:11">
       <c r="A3592" t="s">
@@ -40333,21 +40334,97 @@
       <c r="B3592">
         <v>452042.91</v>
       </c>
-      <c r="D3592" s="4"/>
-      <c r="E3592" s="4"/>
-      <c r="F3592" s="4"/>
-      <c r="G3592" s="4"/>
-      <c r="H3592" s="4"/>
-      <c r="I3592" s="4"/>
-      <c r="J3592" s="4"/>
-      <c r="K3592" s="4"/>
+    </row>
+    <row r="3593" spans="1:11">
+      <c r="A3593" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B3593">
+        <v>458032.92</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:11">
+      <c r="A3594" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B3594">
+        <v>470012.73</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:11">
+      <c r="A3595" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B3595">
+        <v>472323.92</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:11">
+      <c r="A3596" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B3596">
+        <v>472323.92</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:11">
+      <c r="A3597" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B3597">
+        <v>472323.92</v>
+      </c>
+      <c r="D3597" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3597" s="3"/>
+      <c r="F3597" s="3"/>
+      <c r="G3597" s="3"/>
+      <c r="H3597" s="3"/>
+      <c r="I3597" s="3"/>
+      <c r="J3597" s="3"/>
+      <c r="K3597" s="3"/>
+    </row>
+    <row r="3598" spans="1:11">
+      <c r="A3598" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B3598">
+        <v>470013.81</v>
+      </c>
+      <c r="D3598" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3598" s="4"/>
+      <c r="F3598" s="4"/>
+      <c r="G3598" s="4"/>
+      <c r="H3598" s="4"/>
+      <c r="I3598" s="4"/>
+      <c r="J3598" s="4"/>
+      <c r="K3598" s="4"/>
+    </row>
+    <row r="3599" spans="1:11">
+      <c r="A3599" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B3599">
+        <v>466923.72</v>
+      </c>
+      <c r="D3599" s="4"/>
+      <c r="E3599" s="4"/>
+      <c r="F3599" s="4"/>
+      <c r="G3599" s="4"/>
+      <c r="H3599" s="4"/>
+      <c r="I3599" s="4"/>
+      <c r="J3599" s="4"/>
+      <c r="K3599" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3590:K3590"/>
-    <mergeCell ref="D3591:K3592"/>
+    <mergeCell ref="D3597:K3597"/>
+    <mergeCell ref="D3598:K3599"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="3603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="3604">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10823,6 +10823,9 @@
   </si>
   <si>
     <t>10-12-2020</t>
+  </si>
+  <si>
+    <t>10-13-2020</t>
   </si>
 </sst>
 </file>
@@ -10959,125 +10962,125 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3569:$A$3599</c:f>
+              <c:f>DolarToday!$A$3570:$A$3600</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9-12-2020</c:v>
+                  <c:v>9-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9-13-2020</c:v>
+                  <c:v>9-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9-14-2020</c:v>
+                  <c:v>9-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9-15-2020</c:v>
+                  <c:v>9-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-16-2020</c:v>
+                  <c:v>9-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9-17-2020</c:v>
+                  <c:v>9-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9-18-2020</c:v>
+                  <c:v>9-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9-19-2020</c:v>
+                  <c:v>9-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9-20-2020</c:v>
+                  <c:v>9-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9-21-2020</c:v>
+                  <c:v>9-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9-22-2020</c:v>
+                  <c:v>9-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9-23-2020</c:v>
+                  <c:v>9-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9-24-2020</c:v>
+                  <c:v>9-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9-25-2020</c:v>
+                  <c:v>9-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9-26-2020</c:v>
+                  <c:v>9-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9-27-2020</c:v>
+                  <c:v>9-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9-28-2020</c:v>
+                  <c:v>9-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9-29-2020</c:v>
+                  <c:v>9-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9-30-2020</c:v>
+                  <c:v>10-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-1-2020</c:v>
+                  <c:v>10-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-2-2020</c:v>
+                  <c:v>10-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10-3-2020</c:v>
+                  <c:v>10-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10-4-2020</c:v>
+                  <c:v>10-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10-5-2020</c:v>
+                  <c:v>10-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10-6-2020</c:v>
+                  <c:v>10-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10-7-2020</c:v>
+                  <c:v>10-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10-8-2020</c:v>
+                  <c:v>10-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10-9-2020</c:v>
+                  <c:v>10-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10-10-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-13-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3569:$B$3599</c:f>
+              <c:f>DolarToday!$B$3570:$B$3600</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>370032.61</c:v>
+                  <c:v>378043.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>378043.42</c:v>
+                  <c:v>373489.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>373489.52</c:v>
+                  <c:v>380023.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>380023.62</c:v>
+                  <c:v>384420.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>384420.91</c:v>
+                  <c:v>395043.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>395043.33</c:v>
@@ -11086,19 +11089,19 @@
                   <c:v>395043.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>395043.33</c:v>
+                  <c:v>401038.84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>401038.84</c:v>
+                  <c:v>410183.83</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>410183.83</c:v>
+                  <c:v>410902.63</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>410902.63</c:v>
+                  <c:v>423127.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>423127.75</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>438319.92</c:v>
@@ -11107,19 +11110,19 @@
                   <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>438319.92</c:v>
+                  <c:v>440378.38</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>440378.38</c:v>
+                  <c:v>450102.72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>450102.72</c:v>
+                  <c:v>452076.76</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>452076.76</c:v>
+                  <c:v>444823.76</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>444823.76</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>449043.73</c:v>
@@ -11128,19 +11131,19 @@
                   <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>449043.73</c:v>
+                  <c:v>460823.23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>460823.23</c:v>
+                  <c:v>452042.91</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>452042.91</c:v>
+                  <c:v>458032.92</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>458032.92</c:v>
+                  <c:v>470012.73</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>470012.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>472323.92</c:v>
@@ -11149,13 +11152,13 @@
                   <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>472323.92</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>470013.81</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>466923.72</c:v>
+                  <c:v>455023.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11562,7 +11565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3599"/>
+  <dimension ref="A1:K3600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40374,16 +40377,6 @@
       <c r="B3597">
         <v>472323.92</v>
       </c>
-      <c r="D3597" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3597" s="3"/>
-      <c r="F3597" s="3"/>
-      <c r="G3597" s="3"/>
-      <c r="H3597" s="3"/>
-      <c r="I3597" s="3"/>
-      <c r="J3597" s="3"/>
-      <c r="K3597" s="3"/>
     </row>
     <row r="3598" spans="1:11">
       <c r="A3598" t="s">
@@ -40392,16 +40385,16 @@
       <c r="B3598">
         <v>470013.81</v>
       </c>
-      <c r="D3598" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3598" s="4"/>
-      <c r="F3598" s="4"/>
-      <c r="G3598" s="4"/>
-      <c r="H3598" s="4"/>
-      <c r="I3598" s="4"/>
-      <c r="J3598" s="4"/>
-      <c r="K3598" s="4"/>
+      <c r="D3598" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3598" s="3"/>
+      <c r="F3598" s="3"/>
+      <c r="G3598" s="3"/>
+      <c r="H3598" s="3"/>
+      <c r="I3598" s="3"/>
+      <c r="J3598" s="3"/>
+      <c r="K3598" s="3"/>
     </row>
     <row r="3599" spans="1:11">
       <c r="A3599" t="s">
@@ -40410,7 +40403,9 @@
       <c r="B3599">
         <v>466923.72</v>
       </c>
-      <c r="D3599" s="4"/>
+      <c r="D3599" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3599" s="4"/>
       <c r="F3599" s="4"/>
       <c r="G3599" s="4"/>
@@ -40419,12 +40414,28 @@
       <c r="J3599" s="4"/>
       <c r="K3599" s="4"/>
     </row>
+    <row r="3600" spans="1:11">
+      <c r="A3600" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B3600">
+        <v>455023.82</v>
+      </c>
+      <c r="D3600" s="4"/>
+      <c r="E3600" s="4"/>
+      <c r="F3600" s="4"/>
+      <c r="G3600" s="4"/>
+      <c r="H3600" s="4"/>
+      <c r="I3600" s="4"/>
+      <c r="J3600" s="4"/>
+      <c r="K3600" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3597:K3597"/>
-    <mergeCell ref="D3598:K3599"/>
+    <mergeCell ref="D3598:K3598"/>
+    <mergeCell ref="D3599:K3600"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="3604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="3606">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10826,6 +10826,12 @@
   </si>
   <si>
     <t>10-13-2020</t>
+  </si>
+  <si>
+    <t>10-14-2020</t>
+  </si>
+  <si>
+    <t>10-15-2020</t>
   </si>
 </sst>
 </file>
@@ -10962,203 +10968,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3570:$A$3600</c:f>
+              <c:f>DolarToday!$A$3572:$A$3602</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9-13-2020</c:v>
+                  <c:v>9-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9-14-2020</c:v>
+                  <c:v>9-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9-15-2020</c:v>
+                  <c:v>9-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9-16-2020</c:v>
+                  <c:v>9-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-17-2020</c:v>
+                  <c:v>9-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9-18-2020</c:v>
+                  <c:v>9-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9-19-2020</c:v>
+                  <c:v>9-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9-20-2020</c:v>
+                  <c:v>9-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9-21-2020</c:v>
+                  <c:v>9-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9-22-2020</c:v>
+                  <c:v>9-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9-23-2020</c:v>
+                  <c:v>9-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9-24-2020</c:v>
+                  <c:v>9-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9-25-2020</c:v>
+                  <c:v>9-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9-26-2020</c:v>
+                  <c:v>9-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9-27-2020</c:v>
+                  <c:v>9-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9-28-2020</c:v>
+                  <c:v>9-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9-29-2020</c:v>
+                  <c:v>10-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9-30-2020</c:v>
+                  <c:v>10-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10-1-2020</c:v>
+                  <c:v>10-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-2-2020</c:v>
+                  <c:v>10-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-3-2020</c:v>
+                  <c:v>10-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10-4-2020</c:v>
+                  <c:v>10-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10-5-2020</c:v>
+                  <c:v>10-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10-6-2020</c:v>
+                  <c:v>10-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10-7-2020</c:v>
+                  <c:v>10-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10-8-2020</c:v>
+                  <c:v>10-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10-9-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10-10-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10-13-2020</c:v>
+                  <c:v>10-15-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3570:$B$3600</c:f>
+              <c:f>DolarToday!$B$3572:$B$3602</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>378043.42</c:v>
+                  <c:v>380023.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>373489.52</c:v>
+                  <c:v>384420.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>380023.62</c:v>
+                  <c:v>395043.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>384420.91</c:v>
+                  <c:v>395043.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>395043.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>395043.33</c:v>
+                  <c:v>401038.84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>395043.33</c:v>
+                  <c:v>410183.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>401038.84</c:v>
+                  <c:v>410902.63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>410183.83</c:v>
+                  <c:v>423127.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>410902.63</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>423127.75</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>438319.92</c:v>
+                  <c:v>440378.38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>438319.92</c:v>
+                  <c:v>450102.72</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>440378.38</c:v>
+                  <c:v>452076.76</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>450102.72</c:v>
+                  <c:v>444823.76</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>452076.76</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>444823.76</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>449043.73</c:v>
+                  <c:v>460823.23</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>449043.73</c:v>
+                  <c:v>452042.91</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>460823.23</c:v>
+                  <c:v>458032.92</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>452042.91</c:v>
+                  <c:v>470012.73</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>458032.92</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>470012.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>472323.92</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>472323.92</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>470013.81</c:v>
+                  <c:v>455023.82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>466923.72</c:v>
+                  <c:v>443684.67</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>455023.82</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11565,7 +11571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3600"/>
+  <dimension ref="A1:K3602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40385,16 +40391,6 @@
       <c r="B3598">
         <v>470013.81</v>
       </c>
-      <c r="D3598" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3598" s="3"/>
-      <c r="F3598" s="3"/>
-      <c r="G3598" s="3"/>
-      <c r="H3598" s="3"/>
-      <c r="I3598" s="3"/>
-      <c r="J3598" s="3"/>
-      <c r="K3598" s="3"/>
     </row>
     <row r="3599" spans="1:11">
       <c r="A3599" t="s">
@@ -40403,16 +40399,6 @@
       <c r="B3599">
         <v>466923.72</v>
       </c>
-      <c r="D3599" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3599" s="4"/>
-      <c r="F3599" s="4"/>
-      <c r="G3599" s="4"/>
-      <c r="H3599" s="4"/>
-      <c r="I3599" s="4"/>
-      <c r="J3599" s="4"/>
-      <c r="K3599" s="4"/>
     </row>
     <row r="3600" spans="1:11">
       <c r="A3600" t="s">
@@ -40421,21 +40407,57 @@
       <c r="B3600">
         <v>455023.82</v>
       </c>
-      <c r="D3600" s="4"/>
-      <c r="E3600" s="4"/>
-      <c r="F3600" s="4"/>
-      <c r="G3600" s="4"/>
-      <c r="H3600" s="4"/>
-      <c r="I3600" s="4"/>
-      <c r="J3600" s="4"/>
-      <c r="K3600" s="4"/>
+      <c r="D3600" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3600" s="3"/>
+      <c r="F3600" s="3"/>
+      <c r="G3600" s="3"/>
+      <c r="H3600" s="3"/>
+      <c r="I3600" s="3"/>
+      <c r="J3600" s="3"/>
+      <c r="K3600" s="3"/>
+    </row>
+    <row r="3601" spans="1:11">
+      <c r="A3601" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B3601">
+        <v>443684.67</v>
+      </c>
+      <c r="D3601" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3601" s="4"/>
+      <c r="F3601" s="4"/>
+      <c r="G3601" s="4"/>
+      <c r="H3601" s="4"/>
+      <c r="I3601" s="4"/>
+      <c r="J3601" s="4"/>
+      <c r="K3601" s="4"/>
+    </row>
+    <row r="3602" spans="1:11">
+      <c r="A3602" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B3602">
+        <v>460012.36</v>
+      </c>
+      <c r="D3602" s="4"/>
+      <c r="E3602" s="4"/>
+      <c r="F3602" s="4"/>
+      <c r="G3602" s="4"/>
+      <c r="H3602" s="4"/>
+      <c r="I3602" s="4"/>
+      <c r="J3602" s="4"/>
+      <c r="K3602" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3598:K3598"/>
-    <mergeCell ref="D3599:K3600"/>
+    <mergeCell ref="D3600:K3600"/>
+    <mergeCell ref="D3601:K3602"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="3606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="3609">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10832,6 +10832,15 @@
   </si>
   <si>
     <t>10-15-2020</t>
+  </si>
+  <si>
+    <t>10-16-2020</t>
+  </si>
+  <si>
+    <t>10-17-2020</t>
+  </si>
+  <si>
+    <t>10-18-2020</t>
   </si>
 </sst>
 </file>
@@ -10968,203 +10977,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3572:$A$3602</c:f>
+              <c:f>DolarToday!$A$3575:$A$3605</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9-15-2020</c:v>
+                  <c:v>9-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9-16-2020</c:v>
+                  <c:v>9-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9-17-2020</c:v>
+                  <c:v>9-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9-18-2020</c:v>
+                  <c:v>9-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-19-2020</c:v>
+                  <c:v>9-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9-20-2020</c:v>
+                  <c:v>9-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9-21-2020</c:v>
+                  <c:v>9-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9-22-2020</c:v>
+                  <c:v>9-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9-23-2020</c:v>
+                  <c:v>9-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9-24-2020</c:v>
+                  <c:v>9-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9-25-2020</c:v>
+                  <c:v>9-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9-26-2020</c:v>
+                  <c:v>9-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9-27-2020</c:v>
+                  <c:v>9-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9-28-2020</c:v>
+                  <c:v>10-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9-29-2020</c:v>
+                  <c:v>10-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9-30-2020</c:v>
+                  <c:v>10-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10-1-2020</c:v>
+                  <c:v>10-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-2-2020</c:v>
+                  <c:v>10-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10-3-2020</c:v>
+                  <c:v>10-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-4-2020</c:v>
+                  <c:v>10-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-5-2020</c:v>
+                  <c:v>10-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10-6-2020</c:v>
+                  <c:v>10-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10-7-2020</c:v>
+                  <c:v>10-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10-8-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10-9-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10-10-2020</c:v>
+                  <c:v>10-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10-13-2020</c:v>
+                  <c:v>10-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10-14-2020</c:v>
+                  <c:v>10-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10-15-2020</c:v>
+                  <c:v>10-18-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3572:$B$3602</c:f>
+              <c:f>DolarToday!$B$3575:$B$3605</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>380023.62</c:v>
+                  <c:v>395043.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>384420.91</c:v>
+                  <c:v>395043.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>395043.33</c:v>
+                  <c:v>401038.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>395043.33</c:v>
+                  <c:v>410183.83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>395043.33</c:v>
+                  <c:v>410902.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>401038.84</c:v>
+                  <c:v>423127.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>410183.83</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>410902.63</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>423127.75</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>438319.92</c:v>
+                  <c:v>440378.38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>438319.92</c:v>
+                  <c:v>450102.72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>438319.92</c:v>
+                  <c:v>452076.76</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>440378.38</c:v>
+                  <c:v>444823.76</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>450102.72</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>452076.76</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>444823.76</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>449043.73</c:v>
+                  <c:v>460823.23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>449043.73</c:v>
+                  <c:v>452042.91</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>449043.73</c:v>
+                  <c:v>458032.92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>460823.23</c:v>
+                  <c:v>470012.73</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>452042.91</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>458032.92</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>470012.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>472323.92</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>472323.92</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>472323.92</c:v>
+                  <c:v>455023.82</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>470013.81</c:v>
+                  <c:v>443684.67</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>466923.72</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>455023.82</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>443684.67</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>460012.36</c:v>
+                  <c:v>490012.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11571,7 +11580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3602"/>
+  <dimension ref="A1:K3605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40280,7 +40289,7 @@
         <v>440378.38</v>
       </c>
     </row>
-    <row r="3585" spans="1:11">
+    <row r="3585" spans="1:2">
       <c r="A3585" t="s">
         <v>3588</v>
       </c>
@@ -40288,7 +40297,7 @@
         <v>450102.72</v>
       </c>
     </row>
-    <row r="3586" spans="1:11">
+    <row r="3586" spans="1:2">
       <c r="A3586" t="s">
         <v>3589</v>
       </c>
@@ -40296,7 +40305,7 @@
         <v>452076.76</v>
       </c>
     </row>
-    <row r="3587" spans="1:11">
+    <row r="3587" spans="1:2">
       <c r="A3587" t="s">
         <v>3590</v>
       </c>
@@ -40304,7 +40313,7 @@
         <v>444823.76</v>
       </c>
     </row>
-    <row r="3588" spans="1:11">
+    <row r="3588" spans="1:2">
       <c r="A3588" t="s">
         <v>3591</v>
       </c>
@@ -40312,7 +40321,7 @@
         <v>449043.73</v>
       </c>
     </row>
-    <row r="3589" spans="1:11">
+    <row r="3589" spans="1:2">
       <c r="A3589" t="s">
         <v>3592</v>
       </c>
@@ -40320,7 +40329,7 @@
         <v>449043.73</v>
       </c>
     </row>
-    <row r="3590" spans="1:11">
+    <row r="3590" spans="1:2">
       <c r="A3590" t="s">
         <v>3593</v>
       </c>
@@ -40328,7 +40337,7 @@
         <v>449043.73</v>
       </c>
     </row>
-    <row r="3591" spans="1:11">
+    <row r="3591" spans="1:2">
       <c r="A3591" t="s">
         <v>3594</v>
       </c>
@@ -40336,7 +40345,7 @@
         <v>460823.23</v>
       </c>
     </row>
-    <row r="3592" spans="1:11">
+    <row r="3592" spans="1:2">
       <c r="A3592" t="s">
         <v>3595</v>
       </c>
@@ -40344,7 +40353,7 @@
         <v>452042.91</v>
       </c>
     </row>
-    <row r="3593" spans="1:11">
+    <row r="3593" spans="1:2">
       <c r="A3593" t="s">
         <v>3596</v>
       </c>
@@ -40352,7 +40361,7 @@
         <v>458032.92</v>
       </c>
     </row>
-    <row r="3594" spans="1:11">
+    <row r="3594" spans="1:2">
       <c r="A3594" t="s">
         <v>3597</v>
       </c>
@@ -40360,7 +40369,7 @@
         <v>470012.73</v>
       </c>
     </row>
-    <row r="3595" spans="1:11">
+    <row r="3595" spans="1:2">
       <c r="A3595" t="s">
         <v>3598</v>
       </c>
@@ -40368,7 +40377,7 @@
         <v>472323.92</v>
       </c>
     </row>
-    <row r="3596" spans="1:11">
+    <row r="3596" spans="1:2">
       <c r="A3596" t="s">
         <v>3599</v>
       </c>
@@ -40376,7 +40385,7 @@
         <v>472323.92</v>
       </c>
     </row>
-    <row r="3597" spans="1:11">
+    <row r="3597" spans="1:2">
       <c r="A3597" t="s">
         <v>3600</v>
       </c>
@@ -40384,7 +40393,7 @@
         <v>472323.92</v>
       </c>
     </row>
-    <row r="3598" spans="1:11">
+    <row r="3598" spans="1:2">
       <c r="A3598" t="s">
         <v>3601</v>
       </c>
@@ -40392,7 +40401,7 @@
         <v>470013.81</v>
       </c>
     </row>
-    <row r="3599" spans="1:11">
+    <row r="3599" spans="1:2">
       <c r="A3599" t="s">
         <v>3602</v>
       </c>
@@ -40400,23 +40409,13 @@
         <v>466923.72</v>
       </c>
     </row>
-    <row r="3600" spans="1:11">
+    <row r="3600" spans="1:2">
       <c r="A3600" t="s">
         <v>3603</v>
       </c>
       <c r="B3600">
         <v>455023.82</v>
       </c>
-      <c r="D3600" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3600" s="3"/>
-      <c r="F3600" s="3"/>
-      <c r="G3600" s="3"/>
-      <c r="H3600" s="3"/>
-      <c r="I3600" s="3"/>
-      <c r="J3600" s="3"/>
-      <c r="K3600" s="3"/>
     </row>
     <row r="3601" spans="1:11">
       <c r="A3601" t="s">
@@ -40425,16 +40424,6 @@
       <c r="B3601">
         <v>443684.67</v>
       </c>
-      <c r="D3601" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3601" s="4"/>
-      <c r="F3601" s="4"/>
-      <c r="G3601" s="4"/>
-      <c r="H3601" s="4"/>
-      <c r="I3601" s="4"/>
-      <c r="J3601" s="4"/>
-      <c r="K3601" s="4"/>
     </row>
     <row r="3602" spans="1:11">
       <c r="A3602" t="s">
@@ -40443,21 +40432,65 @@
       <c r="B3602">
         <v>460012.36</v>
       </c>
-      <c r="D3602" s="4"/>
-      <c r="E3602" s="4"/>
-      <c r="F3602" s="4"/>
-      <c r="G3602" s="4"/>
-      <c r="H3602" s="4"/>
-      <c r="I3602" s="4"/>
-      <c r="J3602" s="4"/>
-      <c r="K3602" s="4"/>
+    </row>
+    <row r="3603" spans="1:11">
+      <c r="A3603" t="s">
+        <v>3606</v>
+      </c>
+      <c r="B3603">
+        <v>460012.36</v>
+      </c>
+      <c r="D3603" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3603" s="3"/>
+      <c r="F3603" s="3"/>
+      <c r="G3603" s="3"/>
+      <c r="H3603" s="3"/>
+      <c r="I3603" s="3"/>
+      <c r="J3603" s="3"/>
+      <c r="K3603" s="3"/>
+    </row>
+    <row r="3604" spans="1:11">
+      <c r="A3604" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B3604">
+        <v>460012.36</v>
+      </c>
+      <c r="D3604" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3604" s="4"/>
+      <c r="F3604" s="4"/>
+      <c r="G3604" s="4"/>
+      <c r="H3604" s="4"/>
+      <c r="I3604" s="4"/>
+      <c r="J3604" s="4"/>
+      <c r="K3604" s="4"/>
+    </row>
+    <row r="3605" spans="1:11">
+      <c r="A3605" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B3605">
+        <v>490012.82</v>
+      </c>
+      <c r="D3605" s="4"/>
+      <c r="E3605" s="4"/>
+      <c r="F3605" s="4"/>
+      <c r="G3605" s="4"/>
+      <c r="H3605" s="4"/>
+      <c r="I3605" s="4"/>
+      <c r="J3605" s="4"/>
+      <c r="K3605" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3600:K3600"/>
-    <mergeCell ref="D3601:K3602"/>
+    <mergeCell ref="D3603:K3603"/>
+    <mergeCell ref="D3604:K3605"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="3609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="3610">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10841,6 +10841,9 @@
   </si>
   <si>
     <t>10-18-2020</t>
+  </si>
+  <si>
+    <t>10-19-2020</t>
   </si>
 </sst>
 </file>
@@ -10977,108 +10980,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3575:$A$3605</c:f>
+              <c:f>DolarToday!$A$3576:$A$3606</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9-18-2020</c:v>
+                  <c:v>9-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9-19-2020</c:v>
+                  <c:v>9-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9-20-2020</c:v>
+                  <c:v>9-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9-21-2020</c:v>
+                  <c:v>9-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-22-2020</c:v>
+                  <c:v>9-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9-23-2020</c:v>
+                  <c:v>9-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9-24-2020</c:v>
+                  <c:v>9-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9-25-2020</c:v>
+                  <c:v>9-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9-26-2020</c:v>
+                  <c:v>9-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9-27-2020</c:v>
+                  <c:v>9-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9-28-2020</c:v>
+                  <c:v>9-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9-29-2020</c:v>
+                  <c:v>9-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9-30-2020</c:v>
+                  <c:v>10-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-1-2020</c:v>
+                  <c:v>10-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10-2-2020</c:v>
+                  <c:v>10-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10-3-2020</c:v>
+                  <c:v>10-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10-4-2020</c:v>
+                  <c:v>10-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-5-2020</c:v>
+                  <c:v>10-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10-6-2020</c:v>
+                  <c:v>10-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-7-2020</c:v>
+                  <c:v>10-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-8-2020</c:v>
+                  <c:v>10-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10-9-2020</c:v>
+                  <c:v>10-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10-10-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10-13-2020</c:v>
+                  <c:v>10-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10-14-2020</c:v>
+                  <c:v>10-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10-15-2020</c:v>
+                  <c:v>10-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10-16-2020</c:v>
+                  <c:v>10-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10-17-2020</c:v>
+                  <c:v>10-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10-18-2020</c:v>
+                  <c:v>10-19-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3575:$B$3605</c:f>
+              <c:f>DolarToday!$B$3576:$B$3606</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11086,19 +11089,19 @@
                   <c:v>395043.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>395043.33</c:v>
+                  <c:v>401038.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>401038.84</c:v>
+                  <c:v>410183.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410183.83</c:v>
+                  <c:v>410902.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410902.63</c:v>
+                  <c:v>423127.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>423127.75</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>438319.92</c:v>
@@ -11107,19 +11110,19 @@
                   <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>438319.92</c:v>
+                  <c:v>440378.38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>440378.38</c:v>
+                  <c:v>450102.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>450102.72</c:v>
+                  <c:v>452076.76</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>452076.76</c:v>
+                  <c:v>444823.76</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>444823.76</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>449043.73</c:v>
@@ -11128,19 +11131,19 @@
                   <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>449043.73</c:v>
+                  <c:v>460823.23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>460823.23</c:v>
+                  <c:v>452042.91</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>452042.91</c:v>
+                  <c:v>458032.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>458032.92</c:v>
+                  <c:v>470012.73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>470012.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>472323.92</c:v>
@@ -11149,19 +11152,19 @@
                   <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>472323.92</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>470013.81</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>466923.72</c:v>
+                  <c:v>455023.82</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>455023.82</c:v>
+                  <c:v>443684.67</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>443684.67</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>460012.36</c:v>
@@ -11170,10 +11173,10 @@
                   <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>460012.36</c:v>
+                  <c:v>490012.82</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>490012.82</c:v>
+                  <c:v>465902.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11580,7 +11583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3605"/>
+  <dimension ref="A1:K3606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40440,16 +40443,6 @@
       <c r="B3603">
         <v>460012.36</v>
       </c>
-      <c r="D3603" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3603" s="3"/>
-      <c r="F3603" s="3"/>
-      <c r="G3603" s="3"/>
-      <c r="H3603" s="3"/>
-      <c r="I3603" s="3"/>
-      <c r="J3603" s="3"/>
-      <c r="K3603" s="3"/>
     </row>
     <row r="3604" spans="1:11">
       <c r="A3604" t="s">
@@ -40458,16 +40451,16 @@
       <c r="B3604">
         <v>460012.36</v>
       </c>
-      <c r="D3604" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3604" s="4"/>
-      <c r="F3604" s="4"/>
-      <c r="G3604" s="4"/>
-      <c r="H3604" s="4"/>
-      <c r="I3604" s="4"/>
-      <c r="J3604" s="4"/>
-      <c r="K3604" s="4"/>
+      <c r="D3604" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3604" s="3"/>
+      <c r="F3604" s="3"/>
+      <c r="G3604" s="3"/>
+      <c r="H3604" s="3"/>
+      <c r="I3604" s="3"/>
+      <c r="J3604" s="3"/>
+      <c r="K3604" s="3"/>
     </row>
     <row r="3605" spans="1:11">
       <c r="A3605" t="s">
@@ -40476,7 +40469,9 @@
       <c r="B3605">
         <v>490012.82</v>
       </c>
-      <c r="D3605" s="4"/>
+      <c r="D3605" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3605" s="4"/>
       <c r="F3605" s="4"/>
       <c r="G3605" s="4"/>
@@ -40485,12 +40480,28 @@
       <c r="J3605" s="4"/>
       <c r="K3605" s="4"/>
     </row>
+    <row r="3606" spans="1:11">
+      <c r="A3606" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B3606">
+        <v>465902.92</v>
+      </c>
+      <c r="D3606" s="4"/>
+      <c r="E3606" s="4"/>
+      <c r="F3606" s="4"/>
+      <c r="G3606" s="4"/>
+      <c r="H3606" s="4"/>
+      <c r="I3606" s="4"/>
+      <c r="J3606" s="4"/>
+      <c r="K3606" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3603:K3603"/>
-    <mergeCell ref="D3604:K3605"/>
+    <mergeCell ref="D3604:K3604"/>
+    <mergeCell ref="D3605:K3606"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="3610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3613" uniqueCount="3611">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10844,6 +10844,9 @@
   </si>
   <si>
     <t>10-19-2020</t>
+  </si>
+  <si>
+    <t>10-20-2020</t>
   </si>
 </sst>
 </file>
@@ -10980,125 +10983,125 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3576:$A$3606</c:f>
+              <c:f>DolarToday!$A$3577:$A$3607</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9-19-2020</c:v>
+                  <c:v>9-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9-20-2020</c:v>
+                  <c:v>9-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9-21-2020</c:v>
+                  <c:v>9-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9-22-2020</c:v>
+                  <c:v>9-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-23-2020</c:v>
+                  <c:v>9-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9-24-2020</c:v>
+                  <c:v>9-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9-25-2020</c:v>
+                  <c:v>9-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9-26-2020</c:v>
+                  <c:v>9-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9-27-2020</c:v>
+                  <c:v>9-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9-28-2020</c:v>
+                  <c:v>9-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9-29-2020</c:v>
+                  <c:v>9-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9-30-2020</c:v>
+                  <c:v>10-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10-1-2020</c:v>
+                  <c:v>10-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-2-2020</c:v>
+                  <c:v>10-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10-3-2020</c:v>
+                  <c:v>10-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10-4-2020</c:v>
+                  <c:v>10-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10-5-2020</c:v>
+                  <c:v>10-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-6-2020</c:v>
+                  <c:v>10-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10-7-2020</c:v>
+                  <c:v>10-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-8-2020</c:v>
+                  <c:v>10-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-9-2020</c:v>
+                  <c:v>10-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10-10-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10-13-2020</c:v>
+                  <c:v>10-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10-14-2020</c:v>
+                  <c:v>10-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10-15-2020</c:v>
+                  <c:v>10-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10-16-2020</c:v>
+                  <c:v>10-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10-17-2020</c:v>
+                  <c:v>10-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10-18-2020</c:v>
+                  <c:v>10-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10-19-2020</c:v>
+                  <c:v>10-20-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3576:$B$3606</c:f>
+              <c:f>DolarToday!$B$3577:$B$3607</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>395043.33</c:v>
+                  <c:v>401038.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>401038.84</c:v>
+                  <c:v>410183.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>410183.83</c:v>
+                  <c:v>410902.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410902.63</c:v>
+                  <c:v>423127.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>423127.75</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>438319.92</c:v>
@@ -11107,19 +11110,19 @@
                   <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>438319.92</c:v>
+                  <c:v>440378.38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>440378.38</c:v>
+                  <c:v>450102.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>450102.72</c:v>
+                  <c:v>452076.76</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>452076.76</c:v>
+                  <c:v>444823.76</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>444823.76</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>449043.73</c:v>
@@ -11128,19 +11131,19 @@
                   <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>449043.73</c:v>
+                  <c:v>460823.23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>460823.23</c:v>
+                  <c:v>452042.91</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>452042.91</c:v>
+                  <c:v>458032.92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>458032.92</c:v>
+                  <c:v>470012.73</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>470012.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>472323.92</c:v>
@@ -11149,19 +11152,19 @@
                   <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>472323.92</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>470013.81</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>466923.72</c:v>
+                  <c:v>455023.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>455023.82</c:v>
+                  <c:v>443684.67</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>443684.67</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>460012.36</c:v>
@@ -11170,13 +11173,13 @@
                   <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>460012.36</c:v>
+                  <c:v>490012.82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>490012.82</c:v>
+                  <c:v>465902.92</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>465902.92</c:v>
+                  <c:v>458193.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11583,7 +11586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3606"/>
+  <dimension ref="A1:K3607"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40451,16 +40454,6 @@
       <c r="B3604">
         <v>460012.36</v>
       </c>
-      <c r="D3604" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3604" s="3"/>
-      <c r="F3604" s="3"/>
-      <c r="G3604" s="3"/>
-      <c r="H3604" s="3"/>
-      <c r="I3604" s="3"/>
-      <c r="J3604" s="3"/>
-      <c r="K3604" s="3"/>
     </row>
     <row r="3605" spans="1:11">
       <c r="A3605" t="s">
@@ -40469,16 +40462,16 @@
       <c r="B3605">
         <v>490012.82</v>
       </c>
-      <c r="D3605" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3605" s="4"/>
-      <c r="F3605" s="4"/>
-      <c r="G3605" s="4"/>
-      <c r="H3605" s="4"/>
-      <c r="I3605" s="4"/>
-      <c r="J3605" s="4"/>
-      <c r="K3605" s="4"/>
+      <c r="D3605" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3605" s="3"/>
+      <c r="F3605" s="3"/>
+      <c r="G3605" s="3"/>
+      <c r="H3605" s="3"/>
+      <c r="I3605" s="3"/>
+      <c r="J3605" s="3"/>
+      <c r="K3605" s="3"/>
     </row>
     <row r="3606" spans="1:11">
       <c r="A3606" t="s">
@@ -40487,7 +40480,9 @@
       <c r="B3606">
         <v>465902.92</v>
       </c>
-      <c r="D3606" s="4"/>
+      <c r="D3606" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3606" s="4"/>
       <c r="F3606" s="4"/>
       <c r="G3606" s="4"/>
@@ -40496,12 +40491,28 @@
       <c r="J3606" s="4"/>
       <c r="K3606" s="4"/>
     </row>
+    <row r="3607" spans="1:11">
+      <c r="A3607" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B3607">
+        <v>458193.82</v>
+      </c>
+      <c r="D3607" s="4"/>
+      <c r="E3607" s="4"/>
+      <c r="F3607" s="4"/>
+      <c r="G3607" s="4"/>
+      <c r="H3607" s="4"/>
+      <c r="I3607" s="4"/>
+      <c r="J3607" s="4"/>
+      <c r="K3607" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3604:K3604"/>
-    <mergeCell ref="D3605:K3606"/>
+    <mergeCell ref="D3605:K3605"/>
+    <mergeCell ref="D3606:K3607"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3613" uniqueCount="3611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="3612">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10847,6 +10847,9 @@
   </si>
   <si>
     <t>10-20-2020</t>
+  </si>
+  <si>
+    <t>10-21-2020</t>
   </si>
 </sst>
 </file>
@@ -10983,122 +10986,122 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3577:$A$3607</c:f>
+              <c:f>DolarToday!$A$3578:$A$3608</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9-20-2020</c:v>
+                  <c:v>9-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9-21-2020</c:v>
+                  <c:v>9-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9-22-2020</c:v>
+                  <c:v>9-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9-23-2020</c:v>
+                  <c:v>9-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-24-2020</c:v>
+                  <c:v>9-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9-25-2020</c:v>
+                  <c:v>9-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9-26-2020</c:v>
+                  <c:v>9-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9-27-2020</c:v>
+                  <c:v>9-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9-28-2020</c:v>
+                  <c:v>9-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9-29-2020</c:v>
+                  <c:v>9-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9-30-2020</c:v>
+                  <c:v>10-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10-1-2020</c:v>
+                  <c:v>10-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10-2-2020</c:v>
+                  <c:v>10-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-3-2020</c:v>
+                  <c:v>10-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10-4-2020</c:v>
+                  <c:v>10-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10-5-2020</c:v>
+                  <c:v>10-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10-6-2020</c:v>
+                  <c:v>10-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-7-2020</c:v>
+                  <c:v>10-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10-8-2020</c:v>
+                  <c:v>10-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-9-2020</c:v>
+                  <c:v>10-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-10-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10-13-2020</c:v>
+                  <c:v>10-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10-14-2020</c:v>
+                  <c:v>10-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10-15-2020</c:v>
+                  <c:v>10-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10-16-2020</c:v>
+                  <c:v>10-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10-17-2020</c:v>
+                  <c:v>10-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10-18-2020</c:v>
+                  <c:v>10-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10-19-2020</c:v>
+                  <c:v>10-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10-20-2020</c:v>
+                  <c:v>10-21-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3577:$B$3607</c:f>
+              <c:f>DolarToday!$B$3578:$B$3608</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>401038.84</c:v>
+                  <c:v>410183.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>410183.83</c:v>
+                  <c:v>410902.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>410902.63</c:v>
+                  <c:v>423127.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>423127.75</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>438319.92</c:v>
@@ -11107,19 +11110,19 @@
                   <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>438319.92</c:v>
+                  <c:v>440378.38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>440378.38</c:v>
+                  <c:v>450102.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>450102.72</c:v>
+                  <c:v>452076.76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>452076.76</c:v>
+                  <c:v>444823.76</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>444823.76</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>449043.73</c:v>
@@ -11128,19 +11131,19 @@
                   <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>449043.73</c:v>
+                  <c:v>460823.23</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>460823.23</c:v>
+                  <c:v>452042.91</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>452042.91</c:v>
+                  <c:v>458032.92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>458032.92</c:v>
+                  <c:v>470012.73</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>470012.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>472323.92</c:v>
@@ -11149,19 +11152,19 @@
                   <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>472323.92</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>470013.81</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>466923.72</c:v>
+                  <c:v>455023.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>455023.82</c:v>
+                  <c:v>443684.67</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>443684.67</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>460012.36</c:v>
@@ -11170,16 +11173,16 @@
                   <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>460012.36</c:v>
+                  <c:v>490012.82</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>490012.82</c:v>
+                  <c:v>465902.92</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>465902.92</c:v>
+                  <c:v>458193.82</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>458193.82</c:v>
+                  <c:v>459023.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11586,7 +11589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3607"/>
+  <dimension ref="A1:K3608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40462,16 +40465,6 @@
       <c r="B3605">
         <v>490012.82</v>
       </c>
-      <c r="D3605" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3605" s="3"/>
-      <c r="F3605" s="3"/>
-      <c r="G3605" s="3"/>
-      <c r="H3605" s="3"/>
-      <c r="I3605" s="3"/>
-      <c r="J3605" s="3"/>
-      <c r="K3605" s="3"/>
     </row>
     <row r="3606" spans="1:11">
       <c r="A3606" t="s">
@@ -40480,16 +40473,16 @@
       <c r="B3606">
         <v>465902.92</v>
       </c>
-      <c r="D3606" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3606" s="4"/>
-      <c r="F3606" s="4"/>
-      <c r="G3606" s="4"/>
-      <c r="H3606" s="4"/>
-      <c r="I3606" s="4"/>
-      <c r="J3606" s="4"/>
-      <c r="K3606" s="4"/>
+      <c r="D3606" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3606" s="3"/>
+      <c r="F3606" s="3"/>
+      <c r="G3606" s="3"/>
+      <c r="H3606" s="3"/>
+      <c r="I3606" s="3"/>
+      <c r="J3606" s="3"/>
+      <c r="K3606" s="3"/>
     </row>
     <row r="3607" spans="1:11">
       <c r="A3607" t="s">
@@ -40498,7 +40491,9 @@
       <c r="B3607">
         <v>458193.82</v>
       </c>
-      <c r="D3607" s="4"/>
+      <c r="D3607" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3607" s="4"/>
       <c r="F3607" s="4"/>
       <c r="G3607" s="4"/>
@@ -40507,12 +40502,28 @@
       <c r="J3607" s="4"/>
       <c r="K3607" s="4"/>
     </row>
+    <row r="3608" spans="1:11">
+      <c r="A3608" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B3608">
+        <v>459023.63</v>
+      </c>
+      <c r="D3608" s="4"/>
+      <c r="E3608" s="4"/>
+      <c r="F3608" s="4"/>
+      <c r="G3608" s="4"/>
+      <c r="H3608" s="4"/>
+      <c r="I3608" s="4"/>
+      <c r="J3608" s="4"/>
+      <c r="K3608" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3605:K3605"/>
-    <mergeCell ref="D3606:K3607"/>
+    <mergeCell ref="D3606:K3606"/>
+    <mergeCell ref="D3607:K3608"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="3612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="3615">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10850,6 +10850,15 @@
   </si>
   <si>
     <t>10-21-2020</t>
+  </si>
+  <si>
+    <t>10-22-2020</t>
+  </si>
+  <si>
+    <t>10-23-2020</t>
+  </si>
+  <si>
+    <t>10-24-2020</t>
   </si>
 </sst>
 </file>
@@ -10986,203 +10995,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3578:$A$3608</c:f>
+              <c:f>DolarToday!$A$3581:$A$3611</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9-21-2020</c:v>
+                  <c:v>9-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9-22-2020</c:v>
+                  <c:v>9-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9-23-2020</c:v>
+                  <c:v>9-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9-24-2020</c:v>
+                  <c:v>9-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-25-2020</c:v>
+                  <c:v>9-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9-26-2020</c:v>
+                  <c:v>9-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9-27-2020</c:v>
+                  <c:v>9-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9-28-2020</c:v>
+                  <c:v>10-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9-29-2020</c:v>
+                  <c:v>10-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9-30-2020</c:v>
+                  <c:v>10-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10-1-2020</c:v>
+                  <c:v>10-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10-2-2020</c:v>
+                  <c:v>10-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10-3-2020</c:v>
+                  <c:v>10-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-4-2020</c:v>
+                  <c:v>10-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10-5-2020</c:v>
+                  <c:v>10-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10-6-2020</c:v>
+                  <c:v>10-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10-7-2020</c:v>
+                  <c:v>10-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-8-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10-9-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-10-2020</c:v>
+                  <c:v>10-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10-13-2020</c:v>
+                  <c:v>10-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10-14-2020</c:v>
+                  <c:v>10-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10-15-2020</c:v>
+                  <c:v>10-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10-16-2020</c:v>
+                  <c:v>10-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10-17-2020</c:v>
+                  <c:v>10-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10-18-2020</c:v>
+                  <c:v>10-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10-19-2020</c:v>
+                  <c:v>10-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10-20-2020</c:v>
+                  <c:v>10-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10-21-2020</c:v>
+                  <c:v>10-24-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3578:$B$3608</c:f>
+              <c:f>DolarToday!$B$3581:$B$3611</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>410183.83</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>410902.63</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>423127.75</c:v>
+                  <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438319.92</c:v>
+                  <c:v>440378.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>438319.92</c:v>
+                  <c:v>450102.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>438319.92</c:v>
+                  <c:v>452076.76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>440378.38</c:v>
+                  <c:v>444823.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>450102.72</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>452076.76</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>444823.76</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>449043.73</c:v>
+                  <c:v>460823.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>449043.73</c:v>
+                  <c:v>452042.91</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>449043.73</c:v>
+                  <c:v>458032.92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>460823.23</c:v>
+                  <c:v>470012.73</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>452042.91</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>458032.92</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>470012.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>472323.92</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>472323.92</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>472323.92</c:v>
+                  <c:v>455023.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>470013.81</c:v>
+                  <c:v>443684.67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>466923.72</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>455023.82</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>443684.67</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>460012.36</c:v>
+                  <c:v>490012.82</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>460012.36</c:v>
+                  <c:v>465902.92</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>460012.36</c:v>
+                  <c:v>458193.82</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>490012.82</c:v>
+                  <c:v>459023.63</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>465902.92</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>458193.82</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>459023.63</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11589,7 +11598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3608"/>
+  <dimension ref="A1:K3611"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40473,16 +40482,6 @@
       <c r="B3606">
         <v>465902.92</v>
       </c>
-      <c r="D3606" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3606" s="3"/>
-      <c r="F3606" s="3"/>
-      <c r="G3606" s="3"/>
-      <c r="H3606" s="3"/>
-      <c r="I3606" s="3"/>
-      <c r="J3606" s="3"/>
-      <c r="K3606" s="3"/>
     </row>
     <row r="3607" spans="1:11">
       <c r="A3607" t="s">
@@ -40491,16 +40490,6 @@
       <c r="B3607">
         <v>458193.82</v>
       </c>
-      <c r="D3607" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3607" s="4"/>
-      <c r="F3607" s="4"/>
-      <c r="G3607" s="4"/>
-      <c r="H3607" s="4"/>
-      <c r="I3607" s="4"/>
-      <c r="J3607" s="4"/>
-      <c r="K3607" s="4"/>
     </row>
     <row r="3608" spans="1:11">
       <c r="A3608" t="s">
@@ -40509,21 +40498,65 @@
       <c r="B3608">
         <v>459023.63</v>
       </c>
-      <c r="D3608" s="4"/>
-      <c r="E3608" s="4"/>
-      <c r="F3608" s="4"/>
-      <c r="G3608" s="4"/>
-      <c r="H3608" s="4"/>
-      <c r="I3608" s="4"/>
-      <c r="J3608" s="4"/>
-      <c r="K3608" s="4"/>
+    </row>
+    <row r="3609" spans="1:11">
+      <c r="A3609" t="s">
+        <v>3612</v>
+      </c>
+      <c r="B3609">
+        <v>470183.51</v>
+      </c>
+      <c r="D3609" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3609" s="3"/>
+      <c r="F3609" s="3"/>
+      <c r="G3609" s="3"/>
+      <c r="H3609" s="3"/>
+      <c r="I3609" s="3"/>
+      <c r="J3609" s="3"/>
+      <c r="K3609" s="3"/>
+    </row>
+    <row r="3610" spans="1:11">
+      <c r="A3610" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B3610">
+        <v>470183.51</v>
+      </c>
+      <c r="D3610" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3610" s="4"/>
+      <c r="F3610" s="4"/>
+      <c r="G3610" s="4"/>
+      <c r="H3610" s="4"/>
+      <c r="I3610" s="4"/>
+      <c r="J3610" s="4"/>
+      <c r="K3610" s="4"/>
+    </row>
+    <row r="3611" spans="1:11">
+      <c r="A3611" t="s">
+        <v>3614</v>
+      </c>
+      <c r="B3611">
+        <v>470183.51</v>
+      </c>
+      <c r="D3611" s="4"/>
+      <c r="E3611" s="4"/>
+      <c r="F3611" s="4"/>
+      <c r="G3611" s="4"/>
+      <c r="H3611" s="4"/>
+      <c r="I3611" s="4"/>
+      <c r="J3611" s="4"/>
+      <c r="K3611" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3606:K3606"/>
-    <mergeCell ref="D3607:K3608"/>
+    <mergeCell ref="D3609:K3609"/>
+    <mergeCell ref="D3610:K3611"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="3615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="3616">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10859,6 +10859,9 @@
   </si>
   <si>
     <t>10-24-2020</t>
+  </si>
+  <si>
+    <t>10-25-2020</t>
   </si>
 </sst>
 </file>
@@ -10995,108 +10998,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3581:$A$3611</c:f>
+              <c:f>DolarToday!$A$3582:$A$3612</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9-24-2020</c:v>
+                  <c:v>9-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9-25-2020</c:v>
+                  <c:v>9-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9-26-2020</c:v>
+                  <c:v>9-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9-27-2020</c:v>
+                  <c:v>9-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-28-2020</c:v>
+                  <c:v>9-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9-29-2020</c:v>
+                  <c:v>9-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9-30-2020</c:v>
+                  <c:v>10-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10-1-2020</c:v>
+                  <c:v>10-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-2-2020</c:v>
+                  <c:v>10-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10-3-2020</c:v>
+                  <c:v>10-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10-4-2020</c:v>
+                  <c:v>10-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10-5-2020</c:v>
+                  <c:v>10-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10-6-2020</c:v>
+                  <c:v>10-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-7-2020</c:v>
+                  <c:v>10-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10-8-2020</c:v>
+                  <c:v>10-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10-9-2020</c:v>
+                  <c:v>10-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10-10-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-13-2020</c:v>
+                  <c:v>10-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-14-2020</c:v>
+                  <c:v>10-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10-15-2020</c:v>
+                  <c:v>10-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10-16-2020</c:v>
+                  <c:v>10-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10-17-2020</c:v>
+                  <c:v>10-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10-18-2020</c:v>
+                  <c:v>10-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10-19-2020</c:v>
+                  <c:v>10-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10-20-2020</c:v>
+                  <c:v>10-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10-21-2020</c:v>
+                  <c:v>10-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10-22-2020</c:v>
+                  <c:v>10-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10-23-2020</c:v>
+                  <c:v>10-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10-24-2020</c:v>
+                  <c:v>10-25-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3581:$B$3611</c:f>
+              <c:f>DolarToday!$B$3582:$B$3612</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11107,19 +11110,19 @@
                   <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>438319.92</c:v>
+                  <c:v>440378.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>440378.38</c:v>
+                  <c:v>450102.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>450102.72</c:v>
+                  <c:v>452076.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>452076.76</c:v>
+                  <c:v>444823.76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>444823.76</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>449043.73</c:v>
@@ -11128,19 +11131,19 @@
                   <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>449043.73</c:v>
+                  <c:v>460823.23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>460823.23</c:v>
+                  <c:v>452042.91</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>452042.91</c:v>
+                  <c:v>458032.92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>458032.92</c:v>
+                  <c:v>470012.73</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>470012.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>472323.92</c:v>
@@ -11149,19 +11152,19 @@
                   <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>472323.92</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>470013.81</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>466923.72</c:v>
+                  <c:v>455023.82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>455023.82</c:v>
+                  <c:v>443684.67</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>443684.67</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>460012.36</c:v>
@@ -11170,19 +11173,19 @@
                   <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>460012.36</c:v>
+                  <c:v>490012.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>490012.82</c:v>
+                  <c:v>465902.92</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>465902.92</c:v>
+                  <c:v>458193.82</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>458193.82</c:v>
+                  <c:v>459023.63</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>459023.63</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>470183.51</c:v>
@@ -11191,7 +11194,7 @@
                   <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>470183.51</c:v>
+                  <c:v>475043.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11598,7 +11601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3611"/>
+  <dimension ref="A1:K3612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40506,16 +40509,6 @@
       <c r="B3609">
         <v>470183.51</v>
       </c>
-      <c r="D3609" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3609" s="3"/>
-      <c r="F3609" s="3"/>
-      <c r="G3609" s="3"/>
-      <c r="H3609" s="3"/>
-      <c r="I3609" s="3"/>
-      <c r="J3609" s="3"/>
-      <c r="K3609" s="3"/>
     </row>
     <row r="3610" spans="1:11">
       <c r="A3610" t="s">
@@ -40524,16 +40517,16 @@
       <c r="B3610">
         <v>470183.51</v>
       </c>
-      <c r="D3610" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3610" s="4"/>
-      <c r="F3610" s="4"/>
-      <c r="G3610" s="4"/>
-      <c r="H3610" s="4"/>
-      <c r="I3610" s="4"/>
-      <c r="J3610" s="4"/>
-      <c r="K3610" s="4"/>
+      <c r="D3610" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3610" s="3"/>
+      <c r="F3610" s="3"/>
+      <c r="G3610" s="3"/>
+      <c r="H3610" s="3"/>
+      <c r="I3610" s="3"/>
+      <c r="J3610" s="3"/>
+      <c r="K3610" s="3"/>
     </row>
     <row r="3611" spans="1:11">
       <c r="A3611" t="s">
@@ -40542,7 +40535,9 @@
       <c r="B3611">
         <v>470183.51</v>
       </c>
-      <c r="D3611" s="4"/>
+      <c r="D3611" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3611" s="4"/>
       <c r="F3611" s="4"/>
       <c r="G3611" s="4"/>
@@ -40551,12 +40546,28 @@
       <c r="J3611" s="4"/>
       <c r="K3611" s="4"/>
     </row>
+    <row r="3612" spans="1:11">
+      <c r="A3612" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B3612">
+        <v>475043.71</v>
+      </c>
+      <c r="D3612" s="4"/>
+      <c r="E3612" s="4"/>
+      <c r="F3612" s="4"/>
+      <c r="G3612" s="4"/>
+      <c r="H3612" s="4"/>
+      <c r="I3612" s="4"/>
+      <c r="J3612" s="4"/>
+      <c r="K3612" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3609:K3609"/>
-    <mergeCell ref="D3610:K3611"/>
+    <mergeCell ref="D3610:K3610"/>
+    <mergeCell ref="D3611:K3612"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="3616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="3617">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10862,6 +10862,9 @@
   </si>
   <si>
     <t>10-25-2020</t>
+  </si>
+  <si>
+    <t>10-26-2020</t>
   </si>
 </sst>
 </file>
@@ -10998,108 +11001,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3582:$A$3612</c:f>
+              <c:f>DolarToday!$A$3583:$A$3613</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9-25-2020</c:v>
+                  <c:v>9-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9-26-2020</c:v>
+                  <c:v>9-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9-27-2020</c:v>
+                  <c:v>9-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9-28-2020</c:v>
+                  <c:v>9-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-29-2020</c:v>
+                  <c:v>9-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9-30-2020</c:v>
+                  <c:v>10-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10-1-2020</c:v>
+                  <c:v>10-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10-2-2020</c:v>
+                  <c:v>10-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-3-2020</c:v>
+                  <c:v>10-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10-4-2020</c:v>
+                  <c:v>10-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10-5-2020</c:v>
+                  <c:v>10-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10-6-2020</c:v>
+                  <c:v>10-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10-7-2020</c:v>
+                  <c:v>10-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-8-2020</c:v>
+                  <c:v>10-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10-9-2020</c:v>
+                  <c:v>10-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10-10-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10-13-2020</c:v>
+                  <c:v>10-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-14-2020</c:v>
+                  <c:v>10-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-15-2020</c:v>
+                  <c:v>10-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10-16-2020</c:v>
+                  <c:v>10-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10-17-2020</c:v>
+                  <c:v>10-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10-18-2020</c:v>
+                  <c:v>10-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10-19-2020</c:v>
+                  <c:v>10-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10-20-2020</c:v>
+                  <c:v>10-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10-21-2020</c:v>
+                  <c:v>10-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10-22-2020</c:v>
+                  <c:v>10-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10-23-2020</c:v>
+                  <c:v>10-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10-24-2020</c:v>
+                  <c:v>10-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10-25-2020</c:v>
+                  <c:v>10-26-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3582:$B$3612</c:f>
+              <c:f>DolarToday!$B$3583:$B$3613</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11107,19 +11110,19 @@
                   <c:v>438319.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>438319.92</c:v>
+                  <c:v>440378.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>440378.38</c:v>
+                  <c:v>450102.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>450102.72</c:v>
+                  <c:v>452076.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>452076.76</c:v>
+                  <c:v>444823.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>444823.76</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>449043.73</c:v>
@@ -11128,19 +11131,19 @@
                   <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>449043.73</c:v>
+                  <c:v>460823.23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>460823.23</c:v>
+                  <c:v>452042.91</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>452042.91</c:v>
+                  <c:v>458032.92</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>458032.92</c:v>
+                  <c:v>470012.73</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>470012.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>472323.92</c:v>
@@ -11149,19 +11152,19 @@
                   <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>472323.92</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>470013.81</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>466923.72</c:v>
+                  <c:v>455023.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>455023.82</c:v>
+                  <c:v>443684.67</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>443684.67</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>460012.36</c:v>
@@ -11170,19 +11173,19 @@
                   <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>460012.36</c:v>
+                  <c:v>490012.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>490012.82</c:v>
+                  <c:v>465902.92</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>465902.92</c:v>
+                  <c:v>458193.82</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>458193.82</c:v>
+                  <c:v>459023.63</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>459023.63</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>470183.51</c:v>
@@ -11191,10 +11194,10 @@
                   <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>470183.51</c:v>
+                  <c:v>475043.71</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>475043.71</c:v>
+                  <c:v>484924.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11601,7 +11604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3612"/>
+  <dimension ref="A1:K3613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40517,16 +40520,6 @@
       <c r="B3610">
         <v>470183.51</v>
       </c>
-      <c r="D3610" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3610" s="3"/>
-      <c r="F3610" s="3"/>
-      <c r="G3610" s="3"/>
-      <c r="H3610" s="3"/>
-      <c r="I3610" s="3"/>
-      <c r="J3610" s="3"/>
-      <c r="K3610" s="3"/>
     </row>
     <row r="3611" spans="1:11">
       <c r="A3611" t="s">
@@ -40535,16 +40528,16 @@
       <c r="B3611">
         <v>470183.51</v>
       </c>
-      <c r="D3611" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3611" s="4"/>
-      <c r="F3611" s="4"/>
-      <c r="G3611" s="4"/>
-      <c r="H3611" s="4"/>
-      <c r="I3611" s="4"/>
-      <c r="J3611" s="4"/>
-      <c r="K3611" s="4"/>
+      <c r="D3611" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3611" s="3"/>
+      <c r="F3611" s="3"/>
+      <c r="G3611" s="3"/>
+      <c r="H3611" s="3"/>
+      <c r="I3611" s="3"/>
+      <c r="J3611" s="3"/>
+      <c r="K3611" s="3"/>
     </row>
     <row r="3612" spans="1:11">
       <c r="A3612" t="s">
@@ -40553,7 +40546,9 @@
       <c r="B3612">
         <v>475043.71</v>
       </c>
-      <c r="D3612" s="4"/>
+      <c r="D3612" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3612" s="4"/>
       <c r="F3612" s="4"/>
       <c r="G3612" s="4"/>
@@ -40562,12 +40557,28 @@
       <c r="J3612" s="4"/>
       <c r="K3612" s="4"/>
     </row>
+    <row r="3613" spans="1:11">
+      <c r="A3613" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B3613">
+        <v>484924.03</v>
+      </c>
+      <c r="D3613" s="4"/>
+      <c r="E3613" s="4"/>
+      <c r="F3613" s="4"/>
+      <c r="G3613" s="4"/>
+      <c r="H3613" s="4"/>
+      <c r="I3613" s="4"/>
+      <c r="J3613" s="4"/>
+      <c r="K3613" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3610:K3610"/>
-    <mergeCell ref="D3611:K3612"/>
+    <mergeCell ref="D3611:K3611"/>
+    <mergeCell ref="D3612:K3613"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="3617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="3619">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10865,6 +10865,12 @@
   </si>
   <si>
     <t>10-26-2020</t>
+  </si>
+  <si>
+    <t>10-27-2020</t>
+  </si>
+  <si>
+    <t>10-28-2020</t>
   </si>
 </sst>
 </file>
@@ -11001,203 +11007,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3583:$A$3613</c:f>
+              <c:f>DolarToday!$A$3585:$A$3615</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9-26-2020</c:v>
+                  <c:v>9-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9-27-2020</c:v>
+                  <c:v>9-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9-28-2020</c:v>
+                  <c:v>9-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9-29-2020</c:v>
+                  <c:v>10-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-30-2020</c:v>
+                  <c:v>10-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10-1-2020</c:v>
+                  <c:v>10-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10-2-2020</c:v>
+                  <c:v>10-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10-3-2020</c:v>
+                  <c:v>10-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-4-2020</c:v>
+                  <c:v>10-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10-5-2020</c:v>
+                  <c:v>10-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10-6-2020</c:v>
+                  <c:v>10-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10-7-2020</c:v>
+                  <c:v>10-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10-8-2020</c:v>
+                  <c:v>10-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-9-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10-10-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-13-2020</c:v>
+                  <c:v>10-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10-14-2020</c:v>
+                  <c:v>10-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-15-2020</c:v>
+                  <c:v>10-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-16-2020</c:v>
+                  <c:v>10-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10-17-2020</c:v>
+                  <c:v>10-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10-18-2020</c:v>
+                  <c:v>10-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10-19-2020</c:v>
+                  <c:v>10-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10-20-2020</c:v>
+                  <c:v>10-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10-21-2020</c:v>
+                  <c:v>10-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10-22-2020</c:v>
+                  <c:v>10-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10-23-2020</c:v>
+                  <c:v>10-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10-24-2020</c:v>
+                  <c:v>10-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10-25-2020</c:v>
+                  <c:v>10-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10-26-2020</c:v>
+                  <c:v>10-28-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3583:$B$3613</c:f>
+              <c:f>DolarToday!$B$3585:$B$3615</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>438319.92</c:v>
+                  <c:v>450102.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>440378.38</c:v>
+                  <c:v>452076.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450102.72</c:v>
+                  <c:v>444823.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>452076.76</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>444823.76</c:v>
+                  <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>449043.73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>449043.73</c:v>
+                  <c:v>460823.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>449043.73</c:v>
+                  <c:v>452042.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>460823.23</c:v>
+                  <c:v>458032.92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>452042.91</c:v>
+                  <c:v>470012.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>458032.92</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>470012.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>472323.92</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>472323.92</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>470013.81</c:v>
+                  <c:v>455023.82</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>466923.72</c:v>
+                  <c:v>443684.67</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>455023.82</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>443684.67</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>460012.36</c:v>
+                  <c:v>490012.82</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>460012.36</c:v>
+                  <c:v>465902.92</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>490012.82</c:v>
+                  <c:v>458193.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>465902.92</c:v>
+                  <c:v>459023.63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>458193.82</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>459023.63</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>470183.51</c:v>
+                  <c:v>475043.71</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>470183.51</c:v>
+                  <c:v>484924.03</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>475043.71</c:v>
+                  <c:v>500116.38</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>484924.03</c:v>
+                  <c:v>540149.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11604,7 +11610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3613"/>
+  <dimension ref="A1:K3615"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40528,16 +40534,6 @@
       <c r="B3611">
         <v>470183.51</v>
       </c>
-      <c r="D3611" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3611" s="3"/>
-      <c r="F3611" s="3"/>
-      <c r="G3611" s="3"/>
-      <c r="H3611" s="3"/>
-      <c r="I3611" s="3"/>
-      <c r="J3611" s="3"/>
-      <c r="K3611" s="3"/>
     </row>
     <row r="3612" spans="1:11">
       <c r="A3612" t="s">
@@ -40546,16 +40542,6 @@
       <c r="B3612">
         <v>475043.71</v>
       </c>
-      <c r="D3612" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3612" s="4"/>
-      <c r="F3612" s="4"/>
-      <c r="G3612" s="4"/>
-      <c r="H3612" s="4"/>
-      <c r="I3612" s="4"/>
-      <c r="J3612" s="4"/>
-      <c r="K3612" s="4"/>
     </row>
     <row r="3613" spans="1:11">
       <c r="A3613" t="s">
@@ -40564,21 +40550,57 @@
       <c r="B3613">
         <v>484924.03</v>
       </c>
-      <c r="D3613" s="4"/>
-      <c r="E3613" s="4"/>
-      <c r="F3613" s="4"/>
-      <c r="G3613" s="4"/>
-      <c r="H3613" s="4"/>
-      <c r="I3613" s="4"/>
-      <c r="J3613" s="4"/>
-      <c r="K3613" s="4"/>
+      <c r="D3613" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3613" s="3"/>
+      <c r="F3613" s="3"/>
+      <c r="G3613" s="3"/>
+      <c r="H3613" s="3"/>
+      <c r="I3613" s="3"/>
+      <c r="J3613" s="3"/>
+      <c r="K3613" s="3"/>
+    </row>
+    <row r="3614" spans="1:11">
+      <c r="A3614" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B3614">
+        <v>500116.38</v>
+      </c>
+      <c r="D3614" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3614" s="4"/>
+      <c r="F3614" s="4"/>
+      <c r="G3614" s="4"/>
+      <c r="H3614" s="4"/>
+      <c r="I3614" s="4"/>
+      <c r="J3614" s="4"/>
+      <c r="K3614" s="4"/>
+    </row>
+    <row r="3615" spans="1:11">
+      <c r="A3615" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B3615">
+        <v>540149.73</v>
+      </c>
+      <c r="D3615" s="4"/>
+      <c r="E3615" s="4"/>
+      <c r="F3615" s="4"/>
+      <c r="G3615" s="4"/>
+      <c r="H3615" s="4"/>
+      <c r="I3615" s="4"/>
+      <c r="J3615" s="4"/>
+      <c r="K3615" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3611:K3611"/>
-    <mergeCell ref="D3612:K3613"/>
+    <mergeCell ref="D3613:K3613"/>
+    <mergeCell ref="D3614:K3615"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="3619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="3625">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10871,6 +10871,24 @@
   </si>
   <si>
     <t>10-28-2020</t>
+  </si>
+  <si>
+    <t>10-29-2020</t>
+  </si>
+  <si>
+    <t>10-30-2020</t>
+  </si>
+  <si>
+    <t>10-31-2020</t>
+  </si>
+  <si>
+    <t>11-1-2020</t>
+  </si>
+  <si>
+    <t>11-2-2020</t>
+  </si>
+  <si>
+    <t>11-3-2020</t>
   </si>
 </sst>
 </file>
@@ -11007,203 +11025,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3585:$A$3615</c:f>
+              <c:f>DolarToday!$A$3591:$A$3621</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9-28-2020</c:v>
+                  <c:v>10-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9-29-2020</c:v>
+                  <c:v>10-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9-30-2020</c:v>
+                  <c:v>10-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-1-2020</c:v>
+                  <c:v>10-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10-2-2020</c:v>
+                  <c:v>10-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10-3-2020</c:v>
+                  <c:v>10-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10-4-2020</c:v>
+                  <c:v>10-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10-5-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-6-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10-7-2020</c:v>
+                  <c:v>10-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10-8-2020</c:v>
+                  <c:v>10-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10-9-2020</c:v>
+                  <c:v>10-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10-10-2020</c:v>
+                  <c:v>10-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10-13-2020</c:v>
+                  <c:v>10-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10-14-2020</c:v>
+                  <c:v>10-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-15-2020</c:v>
+                  <c:v>10-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10-16-2020</c:v>
+                  <c:v>10-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-17-2020</c:v>
+                  <c:v>10-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-18-2020</c:v>
+                  <c:v>10-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10-19-2020</c:v>
+                  <c:v>10-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10-20-2020</c:v>
+                  <c:v>10-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10-21-2020</c:v>
+                  <c:v>10-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10-22-2020</c:v>
+                  <c:v>10-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10-23-2020</c:v>
+                  <c:v>10-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10-24-2020</c:v>
+                  <c:v>10-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10-25-2020</c:v>
+                  <c:v>10-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10-26-2020</c:v>
+                  <c:v>11-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10-27-2020</c:v>
+                  <c:v>11-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10-28-2020</c:v>
+                  <c:v>11-3-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3585:$B$3615</c:f>
+              <c:f>DolarToday!$B$3591:$B$3621</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>450102.72</c:v>
+                  <c:v>460823.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>452076.76</c:v>
+                  <c:v>452042.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>444823.76</c:v>
+                  <c:v>458032.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>449043.73</c:v>
+                  <c:v>470012.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>449043.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>449043.73</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>460823.23</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>452042.91</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>458032.92</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>470012.73</c:v>
+                  <c:v>455023.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>472323.92</c:v>
+                  <c:v>443684.67</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>472323.92</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>472323.92</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>470013.81</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>466923.72</c:v>
+                  <c:v>490012.82</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>455023.82</c:v>
+                  <c:v>465902.92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>443684.67</c:v>
+                  <c:v>458193.82</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>460012.36</c:v>
+                  <c:v>459023.63</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>460012.36</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>460012.36</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>490012.82</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>465902.92</c:v>
+                  <c:v>475043.71</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>458193.82</c:v>
+                  <c:v>484924.03</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>459023.63</c:v>
+                  <c:v>500116.38</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>470183.51</c:v>
+                  <c:v>540149.73</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>470183.51</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>470183.51</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>475043.71</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>484924.03</c:v>
+                  <c:v>535692.1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>500116.38</c:v>
+                  <c:v>524031.03</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>540149.73</c:v>
+                  <c:v>530472.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11610,7 +11628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3615"/>
+  <dimension ref="A1:K3621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40447,7 +40465,7 @@
         <v>455023.82</v>
       </c>
     </row>
-    <row r="3601" spans="1:11">
+    <row r="3601" spans="1:2">
       <c r="A3601" t="s">
         <v>3604</v>
       </c>
@@ -40455,7 +40473,7 @@
         <v>443684.67</v>
       </c>
     </row>
-    <row r="3602" spans="1:11">
+    <row r="3602" spans="1:2">
       <c r="A3602" t="s">
         <v>3605</v>
       </c>
@@ -40463,7 +40481,7 @@
         <v>460012.36</v>
       </c>
     </row>
-    <row r="3603" spans="1:11">
+    <row r="3603" spans="1:2">
       <c r="A3603" t="s">
         <v>3606</v>
       </c>
@@ -40471,7 +40489,7 @@
         <v>460012.36</v>
       </c>
     </row>
-    <row r="3604" spans="1:11">
+    <row r="3604" spans="1:2">
       <c r="A3604" t="s">
         <v>3607</v>
       </c>
@@ -40479,7 +40497,7 @@
         <v>460012.36</v>
       </c>
     </row>
-    <row r="3605" spans="1:11">
+    <row r="3605" spans="1:2">
       <c r="A3605" t="s">
         <v>3608</v>
       </c>
@@ -40487,7 +40505,7 @@
         <v>490012.82</v>
       </c>
     </row>
-    <row r="3606" spans="1:11">
+    <row r="3606" spans="1:2">
       <c r="A3606" t="s">
         <v>3609</v>
       </c>
@@ -40495,7 +40513,7 @@
         <v>465902.92</v>
       </c>
     </row>
-    <row r="3607" spans="1:11">
+    <row r="3607" spans="1:2">
       <c r="A3607" t="s">
         <v>3610</v>
       </c>
@@ -40503,7 +40521,7 @@
         <v>458193.82</v>
       </c>
     </row>
-    <row r="3608" spans="1:11">
+    <row r="3608" spans="1:2">
       <c r="A3608" t="s">
         <v>3611</v>
       </c>
@@ -40511,7 +40529,7 @@
         <v>459023.63</v>
       </c>
     </row>
-    <row r="3609" spans="1:11">
+    <row r="3609" spans="1:2">
       <c r="A3609" t="s">
         <v>3612</v>
       </c>
@@ -40519,7 +40537,7 @@
         <v>470183.51</v>
       </c>
     </row>
-    <row r="3610" spans="1:11">
+    <row r="3610" spans="1:2">
       <c r="A3610" t="s">
         <v>3613</v>
       </c>
@@ -40527,7 +40545,7 @@
         <v>470183.51</v>
       </c>
     </row>
-    <row r="3611" spans="1:11">
+    <row r="3611" spans="1:2">
       <c r="A3611" t="s">
         <v>3614</v>
       </c>
@@ -40535,7 +40553,7 @@
         <v>470183.51</v>
       </c>
     </row>
-    <row r="3612" spans="1:11">
+    <row r="3612" spans="1:2">
       <c r="A3612" t="s">
         <v>3615</v>
       </c>
@@ -40543,64 +40561,112 @@
         <v>475043.71</v>
       </c>
     </row>
-    <row r="3613" spans="1:11">
+    <row r="3613" spans="1:2">
       <c r="A3613" t="s">
         <v>3616</v>
       </c>
       <c r="B3613">
         <v>484924.03</v>
       </c>
-      <c r="D3613" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3613" s="3"/>
-      <c r="F3613" s="3"/>
-      <c r="G3613" s="3"/>
-      <c r="H3613" s="3"/>
-      <c r="I3613" s="3"/>
-      <c r="J3613" s="3"/>
-      <c r="K3613" s="3"/>
-    </row>
-    <row r="3614" spans="1:11">
+    </row>
+    <row r="3614" spans="1:2">
       <c r="A3614" t="s">
         <v>3617</v>
       </c>
       <c r="B3614">
         <v>500116.38</v>
       </c>
-      <c r="D3614" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3614" s="4"/>
-      <c r="F3614" s="4"/>
-      <c r="G3614" s="4"/>
-      <c r="H3614" s="4"/>
-      <c r="I3614" s="4"/>
-      <c r="J3614" s="4"/>
-      <c r="K3614" s="4"/>
-    </row>
-    <row r="3615" spans="1:11">
+    </row>
+    <row r="3615" spans="1:2">
       <c r="A3615" t="s">
         <v>3618</v>
       </c>
       <c r="B3615">
         <v>540149.73</v>
       </c>
-      <c r="D3615" s="4"/>
-      <c r="E3615" s="4"/>
-      <c r="F3615" s="4"/>
-      <c r="G3615" s="4"/>
-      <c r="H3615" s="4"/>
-      <c r="I3615" s="4"/>
-      <c r="J3615" s="4"/>
-      <c r="K3615" s="4"/>
+    </row>
+    <row r="3616" spans="1:2">
+      <c r="A3616" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B3616">
+        <v>542413.91</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:11">
+      <c r="A3617" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B3617">
+        <v>542413.91</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:11">
+      <c r="A3618" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B3618">
+        <v>542413.91</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:11">
+      <c r="A3619" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B3619">
+        <v>535692.1</v>
+      </c>
+      <c r="D3619" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3619" s="3"/>
+      <c r="F3619" s="3"/>
+      <c r="G3619" s="3"/>
+      <c r="H3619" s="3"/>
+      <c r="I3619" s="3"/>
+      <c r="J3619" s="3"/>
+      <c r="K3619" s="3"/>
+    </row>
+    <row r="3620" spans="1:11">
+      <c r="A3620" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B3620">
+        <v>524031.03</v>
+      </c>
+      <c r="D3620" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3620" s="4"/>
+      <c r="F3620" s="4"/>
+      <c r="G3620" s="4"/>
+      <c r="H3620" s="4"/>
+      <c r="I3620" s="4"/>
+      <c r="J3620" s="4"/>
+      <c r="K3620" s="4"/>
+    </row>
+    <row r="3621" spans="1:11">
+      <c r="A3621" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B3621">
+        <v>530472.95</v>
+      </c>
+      <c r="D3621" s="4"/>
+      <c r="E3621" s="4"/>
+      <c r="F3621" s="4"/>
+      <c r="G3621" s="4"/>
+      <c r="H3621" s="4"/>
+      <c r="I3621" s="4"/>
+      <c r="J3621" s="4"/>
+      <c r="K3621" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3613:K3613"/>
-    <mergeCell ref="D3614:K3615"/>
+    <mergeCell ref="D3619:K3619"/>
+    <mergeCell ref="D3620:K3621"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="3625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="3629">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10889,6 +10889,18 @@
   </si>
   <si>
     <t>11-3-2020</t>
+  </si>
+  <si>
+    <t>11-4-2020</t>
+  </si>
+  <si>
+    <t>11-5-2020</t>
+  </si>
+  <si>
+    <t>11-6-2020</t>
+  </si>
+  <si>
+    <t>11-7-2020</t>
   </si>
 </sst>
 </file>
@@ -11025,203 +11037,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3591:$A$3621</c:f>
+              <c:f>DolarToday!$A$3595:$A$3625</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10-4-2020</c:v>
+                  <c:v>10-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10-5-2020</c:v>
+                  <c:v>10-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10-6-2020</c:v>
+                  <c:v>10-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-7-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10-8-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10-9-2020</c:v>
+                  <c:v>10-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10-10-2020</c:v>
+                  <c:v>10-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10-13-2020</c:v>
+                  <c:v>10-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10-14-2020</c:v>
+                  <c:v>10-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10-15-2020</c:v>
+                  <c:v>10-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10-16-2020</c:v>
+                  <c:v>10-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-17-2020</c:v>
+                  <c:v>10-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10-18-2020</c:v>
+                  <c:v>10-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10-19-2020</c:v>
+                  <c:v>10-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10-20-2020</c:v>
+                  <c:v>10-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-21-2020</c:v>
+                  <c:v>10-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10-22-2020</c:v>
+                  <c:v>10-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-23-2020</c:v>
+                  <c:v>10-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-24-2020</c:v>
+                  <c:v>10-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10-25-2020</c:v>
+                  <c:v>10-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10-26-2020</c:v>
+                  <c:v>10-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10-27-2020</c:v>
+                  <c:v>10-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10-28-2020</c:v>
+                  <c:v>11-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10-29-2020</c:v>
+                  <c:v>11-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10-30-2020</c:v>
+                  <c:v>11-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10-31-2020</c:v>
+                  <c:v>11-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11-1-2020</c:v>
+                  <c:v>11-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11-2-2020</c:v>
+                  <c:v>11-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11-3-2020</c:v>
+                  <c:v>11-7-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3591:$B$3621</c:f>
+              <c:f>DolarToday!$B$3595:$B$3625</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>460823.23</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>452042.91</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>458032.92</c:v>
+                  <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>470012.73</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>472323.92</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>472323.92</c:v>
+                  <c:v>455023.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>472323.92</c:v>
+                  <c:v>443684.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>470013.81</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>466923.72</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>455023.82</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>443684.67</c:v>
+                  <c:v>490012.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>460012.36</c:v>
+                  <c:v>465902.92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>460012.36</c:v>
+                  <c:v>458193.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>460012.36</c:v>
+                  <c:v>459023.63</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>490012.82</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>465902.92</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>458193.82</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>459023.63</c:v>
+                  <c:v>475043.71</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>470183.51</c:v>
+                  <c:v>484924.03</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>470183.51</c:v>
+                  <c:v>500116.38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>470183.51</c:v>
+                  <c:v>540149.73</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>475043.71</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>484924.03</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>500116.38</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>540149.73</c:v>
+                  <c:v>535692.1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>542413.91</c:v>
+                  <c:v>524031.03</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>542413.91</c:v>
+                  <c:v>530472.95</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>542413.91</c:v>
+                  <c:v>537859.05</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>535692.1</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>524031.03</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>530472.95</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11628,7 +11640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3621"/>
+  <dimension ref="A1:K3625"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40616,16 +40628,6 @@
       <c r="B3619">
         <v>535692.1</v>
       </c>
-      <c r="D3619" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3619" s="3"/>
-      <c r="F3619" s="3"/>
-      <c r="G3619" s="3"/>
-      <c r="H3619" s="3"/>
-      <c r="I3619" s="3"/>
-      <c r="J3619" s="3"/>
-      <c r="K3619" s="3"/>
     </row>
     <row r="3620" spans="1:11">
       <c r="A3620" t="s">
@@ -40634,16 +40636,6 @@
       <c r="B3620">
         <v>524031.03</v>
       </c>
-      <c r="D3620" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3620" s="4"/>
-      <c r="F3620" s="4"/>
-      <c r="G3620" s="4"/>
-      <c r="H3620" s="4"/>
-      <c r="I3620" s="4"/>
-      <c r="J3620" s="4"/>
-      <c r="K3620" s="4"/>
     </row>
     <row r="3621" spans="1:11">
       <c r="A3621" t="s">
@@ -40652,21 +40644,73 @@
       <c r="B3621">
         <v>530472.95</v>
       </c>
-      <c r="D3621" s="4"/>
-      <c r="E3621" s="4"/>
-      <c r="F3621" s="4"/>
-      <c r="G3621" s="4"/>
-      <c r="H3621" s="4"/>
-      <c r="I3621" s="4"/>
-      <c r="J3621" s="4"/>
-      <c r="K3621" s="4"/>
+    </row>
+    <row r="3622" spans="1:11">
+      <c r="A3622" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B3622">
+        <v>537859.05</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:11">
+      <c r="A3623" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B3623">
+        <v>540023.64</v>
+      </c>
+      <c r="D3623" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3623" s="3"/>
+      <c r="F3623" s="3"/>
+      <c r="G3623" s="3"/>
+      <c r="H3623" s="3"/>
+      <c r="I3623" s="3"/>
+      <c r="J3623" s="3"/>
+      <c r="K3623" s="3"/>
+    </row>
+    <row r="3624" spans="1:11">
+      <c r="A3624" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B3624">
+        <v>540023.64</v>
+      </c>
+      <c r="D3624" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3624" s="4"/>
+      <c r="F3624" s="4"/>
+      <c r="G3624" s="4"/>
+      <c r="H3624" s="4"/>
+      <c r="I3624" s="4"/>
+      <c r="J3624" s="4"/>
+      <c r="K3624" s="4"/>
+    </row>
+    <row r="3625" spans="1:11">
+      <c r="A3625" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B3625">
+        <v>540023.64</v>
+      </c>
+      <c r="D3625" s="4"/>
+      <c r="E3625" s="4"/>
+      <c r="F3625" s="4"/>
+      <c r="G3625" s="4"/>
+      <c r="H3625" s="4"/>
+      <c r="I3625" s="4"/>
+      <c r="J3625" s="4"/>
+      <c r="K3625" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3619:K3619"/>
-    <mergeCell ref="D3620:K3621"/>
+    <mergeCell ref="D3623:K3623"/>
+    <mergeCell ref="D3624:K3625"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="3629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="3630">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10901,6 +10901,9 @@
   </si>
   <si>
     <t>11-7-2020</t>
+  </si>
+  <si>
+    <t>11-8-2020</t>
   </si>
 </sst>
 </file>
@@ -11037,108 +11040,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3595:$A$3625</c:f>
+              <c:f>DolarToday!$A$3596:$A$3626</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10-8-2020</c:v>
+                  <c:v>10-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10-9-2020</c:v>
+                  <c:v>10-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10-10-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10-13-2020</c:v>
+                  <c:v>10-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10-14-2020</c:v>
+                  <c:v>10-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10-15-2020</c:v>
+                  <c:v>10-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-16-2020</c:v>
+                  <c:v>10-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10-17-2020</c:v>
+                  <c:v>10-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10-18-2020</c:v>
+                  <c:v>10-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10-19-2020</c:v>
+                  <c:v>10-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10-20-2020</c:v>
+                  <c:v>10-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-21-2020</c:v>
+                  <c:v>10-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10-22-2020</c:v>
+                  <c:v>10-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10-23-2020</c:v>
+                  <c:v>10-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10-24-2020</c:v>
+                  <c:v>10-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-25-2020</c:v>
+                  <c:v>10-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10-26-2020</c:v>
+                  <c:v>10-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-27-2020</c:v>
+                  <c:v>10-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-28-2020</c:v>
+                  <c:v>10-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10-29-2020</c:v>
+                  <c:v>10-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10-30-2020</c:v>
+                  <c:v>10-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10-31-2020</c:v>
+                  <c:v>11-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11-1-2020</c:v>
+                  <c:v>11-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11-2-2020</c:v>
+                  <c:v>11-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11-3-2020</c:v>
+                  <c:v>11-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11-4-2020</c:v>
+                  <c:v>11-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11-5-2020</c:v>
+                  <c:v>11-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11-6-2020</c:v>
+                  <c:v>11-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11-7-2020</c:v>
+                  <c:v>11-8-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3595:$B$3625</c:f>
+              <c:f>DolarToday!$B$3596:$B$3626</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11149,19 +11152,19 @@
                   <c:v>472323.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>472323.92</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>470013.81</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>466923.72</c:v>
+                  <c:v>455023.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>455023.82</c:v>
+                  <c:v>443684.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>443684.67</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>460012.36</c:v>
@@ -11170,19 +11173,19 @@
                   <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>460012.36</c:v>
+                  <c:v>490012.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>490012.82</c:v>
+                  <c:v>465902.92</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>465902.92</c:v>
+                  <c:v>458193.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>458193.82</c:v>
+                  <c:v>459023.63</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>459023.63</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>470183.51</c:v>
@@ -11191,19 +11194,19 @@
                   <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>470183.51</c:v>
+                  <c:v>475043.71</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>475043.71</c:v>
+                  <c:v>484924.03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>484924.03</c:v>
+                  <c:v>500116.38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>500116.38</c:v>
+                  <c:v>540149.73</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>540149.73</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>542413.91</c:v>
@@ -11212,19 +11215,19 @@
                   <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>542413.91</c:v>
+                  <c:v>535692.1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>535692.1</c:v>
+                  <c:v>524031.03</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>524031.03</c:v>
+                  <c:v>530472.95</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>530472.95</c:v>
+                  <c:v>537859.05</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>537859.05</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>540023.64</c:v>
@@ -11233,7 +11236,7 @@
                   <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>540023.64</c:v>
+                  <c:v>344602.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11640,7 +11643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3625"/>
+  <dimension ref="A1:K3626"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40660,16 +40663,6 @@
       <c r="B3623">
         <v>540023.64</v>
       </c>
-      <c r="D3623" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3623" s="3"/>
-      <c r="F3623" s="3"/>
-      <c r="G3623" s="3"/>
-      <c r="H3623" s="3"/>
-      <c r="I3623" s="3"/>
-      <c r="J3623" s="3"/>
-      <c r="K3623" s="3"/>
     </row>
     <row r="3624" spans="1:11">
       <c r="A3624" t="s">
@@ -40678,16 +40671,16 @@
       <c r="B3624">
         <v>540023.64</v>
       </c>
-      <c r="D3624" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3624" s="4"/>
-      <c r="F3624" s="4"/>
-      <c r="G3624" s="4"/>
-      <c r="H3624" s="4"/>
-      <c r="I3624" s="4"/>
-      <c r="J3624" s="4"/>
-      <c r="K3624" s="4"/>
+      <c r="D3624" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3624" s="3"/>
+      <c r="F3624" s="3"/>
+      <c r="G3624" s="3"/>
+      <c r="H3624" s="3"/>
+      <c r="I3624" s="3"/>
+      <c r="J3624" s="3"/>
+      <c r="K3624" s="3"/>
     </row>
     <row r="3625" spans="1:11">
       <c r="A3625" t="s">
@@ -40696,7 +40689,9 @@
       <c r="B3625">
         <v>540023.64</v>
       </c>
-      <c r="D3625" s="4"/>
+      <c r="D3625" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3625" s="4"/>
       <c r="F3625" s="4"/>
       <c r="G3625" s="4"/>
@@ -40705,12 +40700,28 @@
       <c r="J3625" s="4"/>
       <c r="K3625" s="4"/>
     </row>
+    <row r="3626" spans="1:11">
+      <c r="A3626" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B3626">
+        <v>344602.42</v>
+      </c>
+      <c r="D3626" s="4"/>
+      <c r="E3626" s="4"/>
+      <c r="F3626" s="4"/>
+      <c r="G3626" s="4"/>
+      <c r="H3626" s="4"/>
+      <c r="I3626" s="4"/>
+      <c r="J3626" s="4"/>
+      <c r="K3626" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3623:K3623"/>
-    <mergeCell ref="D3624:K3625"/>
+    <mergeCell ref="D3624:K3624"/>
+    <mergeCell ref="D3625:K3626"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="3630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="3632">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10904,6 +10904,12 @@
   </si>
   <si>
     <t>11-8-2020</t>
+  </si>
+  <si>
+    <t>11-9-2020</t>
+  </si>
+  <si>
+    <t>11-10-2020</t>
   </si>
 </sst>
 </file>
@@ -11040,203 +11046,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3596:$A$3626</c:f>
+              <c:f>DolarToday!$A$3598:$A$3628</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10-9-2020</c:v>
+                  <c:v>10-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10-10-2020</c:v>
+                  <c:v>10-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10-13-2020</c:v>
+                  <c:v>10-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10-14-2020</c:v>
+                  <c:v>10-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10-15-2020</c:v>
+                  <c:v>10-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10-16-2020</c:v>
+                  <c:v>10-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-17-2020</c:v>
+                  <c:v>10-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10-18-2020</c:v>
+                  <c:v>10-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10-19-2020</c:v>
+                  <c:v>10-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10-20-2020</c:v>
+                  <c:v>10-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10-21-2020</c:v>
+                  <c:v>10-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-22-2020</c:v>
+                  <c:v>10-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10-23-2020</c:v>
+                  <c:v>10-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10-24-2020</c:v>
+                  <c:v>10-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10-25-2020</c:v>
+                  <c:v>10-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-26-2020</c:v>
+                  <c:v>10-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10-27-2020</c:v>
+                  <c:v>10-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-28-2020</c:v>
+                  <c:v>10-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-29-2020</c:v>
+                  <c:v>10-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10-30-2020</c:v>
+                  <c:v>11-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10-31-2020</c:v>
+                  <c:v>11-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11-1-2020</c:v>
+                  <c:v>11-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11-2-2020</c:v>
+                  <c:v>11-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11-3-2020</c:v>
+                  <c:v>11-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11-4-2020</c:v>
+                  <c:v>11-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11-5-2020</c:v>
+                  <c:v>11-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11-6-2020</c:v>
+                  <c:v>11-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11-7-2020</c:v>
+                  <c:v>11-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11-8-2020</c:v>
+                  <c:v>11-10-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3596:$B$3626</c:f>
+              <c:f>DolarToday!$B$3598:$B$3628</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>472323.92</c:v>
+                  <c:v>470013.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>472323.92</c:v>
+                  <c:v>466923.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>470013.81</c:v>
+                  <c:v>455023.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>466923.72</c:v>
+                  <c:v>443684.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>455023.82</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>443684.67</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>460012.36</c:v>
+                  <c:v>490012.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>460012.36</c:v>
+                  <c:v>465902.92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>490012.82</c:v>
+                  <c:v>458193.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>465902.92</c:v>
+                  <c:v>459023.63</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>458193.82</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>459023.63</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>470183.51</c:v>
+                  <c:v>475043.71</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>470183.51</c:v>
+                  <c:v>484924.03</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>475043.71</c:v>
+                  <c:v>500116.38</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>484924.03</c:v>
+                  <c:v>540149.73</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>500116.38</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>540149.73</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>542413.91</c:v>
+                  <c:v>535692.1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>542413.91</c:v>
+                  <c:v>524031.03</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>535692.1</c:v>
+                  <c:v>530472.95</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>524031.03</c:v>
+                  <c:v>537859.05</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>530472.95</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>537859.05</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>540023.64</c:v>
+                  <c:v>344602.42</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>540023.64</c:v>
+                  <c:v>564932.23</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>344602.42</c:v>
+                  <c:v>590142.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11643,7 +11649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3626"/>
+  <dimension ref="A1:K3628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40671,16 +40677,6 @@
       <c r="B3624">
         <v>540023.64</v>
       </c>
-      <c r="D3624" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3624" s="3"/>
-      <c r="F3624" s="3"/>
-      <c r="G3624" s="3"/>
-      <c r="H3624" s="3"/>
-      <c r="I3624" s="3"/>
-      <c r="J3624" s="3"/>
-      <c r="K3624" s="3"/>
     </row>
     <row r="3625" spans="1:11">
       <c r="A3625" t="s">
@@ -40689,16 +40685,6 @@
       <c r="B3625">
         <v>540023.64</v>
       </c>
-      <c r="D3625" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3625" s="4"/>
-      <c r="F3625" s="4"/>
-      <c r="G3625" s="4"/>
-      <c r="H3625" s="4"/>
-      <c r="I3625" s="4"/>
-      <c r="J3625" s="4"/>
-      <c r="K3625" s="4"/>
     </row>
     <row r="3626" spans="1:11">
       <c r="A3626" t="s">
@@ -40707,21 +40693,57 @@
       <c r="B3626">
         <v>344602.42</v>
       </c>
-      <c r="D3626" s="4"/>
-      <c r="E3626" s="4"/>
-      <c r="F3626" s="4"/>
-      <c r="G3626" s="4"/>
-      <c r="H3626" s="4"/>
-      <c r="I3626" s="4"/>
-      <c r="J3626" s="4"/>
-      <c r="K3626" s="4"/>
+      <c r="D3626" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3626" s="3"/>
+      <c r="F3626" s="3"/>
+      <c r="G3626" s="3"/>
+      <c r="H3626" s="3"/>
+      <c r="I3626" s="3"/>
+      <c r="J3626" s="3"/>
+      <c r="K3626" s="3"/>
+    </row>
+    <row r="3627" spans="1:11">
+      <c r="A3627" t="s">
+        <v>3630</v>
+      </c>
+      <c r="B3627">
+        <v>564932.23</v>
+      </c>
+      <c r="D3627" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3627" s="4"/>
+      <c r="F3627" s="4"/>
+      <c r="G3627" s="4"/>
+      <c r="H3627" s="4"/>
+      <c r="I3627" s="4"/>
+      <c r="J3627" s="4"/>
+      <c r="K3627" s="4"/>
+    </row>
+    <row r="3628" spans="1:11">
+      <c r="A3628" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B3628">
+        <v>590142.53</v>
+      </c>
+      <c r="D3628" s="4"/>
+      <c r="E3628" s="4"/>
+      <c r="F3628" s="4"/>
+      <c r="G3628" s="4"/>
+      <c r="H3628" s="4"/>
+      <c r="I3628" s="4"/>
+      <c r="J3628" s="4"/>
+      <c r="K3628" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3624:K3624"/>
-    <mergeCell ref="D3625:K3626"/>
+    <mergeCell ref="D3626:K3626"/>
+    <mergeCell ref="D3627:K3628"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="3632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="3636">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10910,6 +10910,18 @@
   </si>
   <si>
     <t>11-10-2020</t>
+  </si>
+  <si>
+    <t>11-11-2020</t>
+  </si>
+  <si>
+    <t>11-12-2020</t>
+  </si>
+  <si>
+    <t>11-13-2020</t>
+  </si>
+  <si>
+    <t>11-14-2020</t>
   </si>
 </sst>
 </file>
@@ -11046,203 +11058,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3598:$A$3628</c:f>
+              <c:f>DolarToday!$A$3602:$A$3632</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10-11-2020</c:v>
+                  <c:v>10-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10-12-2020</c:v>
+                  <c:v>10-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10-13-2020</c:v>
+                  <c:v>10-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-14-2020</c:v>
+                  <c:v>10-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10-15-2020</c:v>
+                  <c:v>10-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10-16-2020</c:v>
+                  <c:v>10-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10-17-2020</c:v>
+                  <c:v>10-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10-18-2020</c:v>
+                  <c:v>10-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-19-2020</c:v>
+                  <c:v>10-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10-20-2020</c:v>
+                  <c:v>10-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10-21-2020</c:v>
+                  <c:v>10-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10-22-2020</c:v>
+                  <c:v>10-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10-23-2020</c:v>
+                  <c:v>10-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-24-2020</c:v>
+                  <c:v>10-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10-25-2020</c:v>
+                  <c:v>10-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10-26-2020</c:v>
+                  <c:v>10-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10-27-2020</c:v>
+                  <c:v>10-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-28-2020</c:v>
+                  <c:v>11-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10-29-2020</c:v>
+                  <c:v>11-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10-30-2020</c:v>
+                  <c:v>11-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10-31-2020</c:v>
+                  <c:v>11-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11-1-2020</c:v>
+                  <c:v>11-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11-2-2020</c:v>
+                  <c:v>11-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11-3-2020</c:v>
+                  <c:v>11-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11-4-2020</c:v>
+                  <c:v>11-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11-5-2020</c:v>
+                  <c:v>11-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11-6-2020</c:v>
+                  <c:v>11-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11-7-2020</c:v>
+                  <c:v>11-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11-8-2020</c:v>
+                  <c:v>11-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11-9-2020</c:v>
+                  <c:v>11-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11-10-2020</c:v>
+                  <c:v>11-14-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3598:$B$3628</c:f>
+              <c:f>DolarToday!$B$3602:$B$3632</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>470013.81</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>466923.72</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>455023.82</c:v>
+                  <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>443684.67</c:v>
+                  <c:v>490012.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>460012.36</c:v>
+                  <c:v>465902.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>460012.36</c:v>
+                  <c:v>458193.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>460012.36</c:v>
+                  <c:v>459023.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>490012.82</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>465902.92</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>458193.82</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>459023.63</c:v>
+                  <c:v>475043.71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>470183.51</c:v>
+                  <c:v>484924.03</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>470183.51</c:v>
+                  <c:v>500116.38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>470183.51</c:v>
+                  <c:v>540149.73</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>475043.71</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>484924.03</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>500116.38</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>540149.73</c:v>
+                  <c:v>535692.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>542413.91</c:v>
+                  <c:v>524031.03</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>542413.91</c:v>
+                  <c:v>530472.95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>542413.91</c:v>
+                  <c:v>537859.05</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>535692.1</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>524031.03</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>530472.95</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>537859.05</c:v>
+                  <c:v>344602.42</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>540023.64</c:v>
+                  <c:v>564932.23</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>540023.64</c:v>
+                  <c:v>590142.53</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>540023.64</c:v>
+                  <c:v>661043.72</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>344602.42</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>564932.23</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>590142.53</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11649,7 +11661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3628"/>
+  <dimension ref="A1:K3632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40693,16 +40705,6 @@
       <c r="B3626">
         <v>344602.42</v>
       </c>
-      <c r="D3626" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3626" s="3"/>
-      <c r="F3626" s="3"/>
-      <c r="G3626" s="3"/>
-      <c r="H3626" s="3"/>
-      <c r="I3626" s="3"/>
-      <c r="J3626" s="3"/>
-      <c r="K3626" s="3"/>
     </row>
     <row r="3627" spans="1:11">
       <c r="A3627" t="s">
@@ -40711,16 +40713,6 @@
       <c r="B3627">
         <v>564932.23</v>
       </c>
-      <c r="D3627" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3627" s="4"/>
-      <c r="F3627" s="4"/>
-      <c r="G3627" s="4"/>
-      <c r="H3627" s="4"/>
-      <c r="I3627" s="4"/>
-      <c r="J3627" s="4"/>
-      <c r="K3627" s="4"/>
     </row>
     <row r="3628" spans="1:11">
       <c r="A3628" t="s">
@@ -40729,21 +40721,73 @@
       <c r="B3628">
         <v>590142.53</v>
       </c>
-      <c r="D3628" s="4"/>
-      <c r="E3628" s="4"/>
-      <c r="F3628" s="4"/>
-      <c r="G3628" s="4"/>
-      <c r="H3628" s="4"/>
-      <c r="I3628" s="4"/>
-      <c r="J3628" s="4"/>
-      <c r="K3628" s="4"/>
+    </row>
+    <row r="3629" spans="1:11">
+      <c r="A3629" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B3629">
+        <v>661043.72</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:11">
+      <c r="A3630" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B3630">
+        <v>690021.4</v>
+      </c>
+      <c r="D3630" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3630" s="3"/>
+      <c r="F3630" s="3"/>
+      <c r="G3630" s="3"/>
+      <c r="H3630" s="3"/>
+      <c r="I3630" s="3"/>
+      <c r="J3630" s="3"/>
+      <c r="K3630" s="3"/>
+    </row>
+    <row r="3631" spans="1:11">
+      <c r="A3631" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B3631">
+        <v>690021.4</v>
+      </c>
+      <c r="D3631" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3631" s="4"/>
+      <c r="F3631" s="4"/>
+      <c r="G3631" s="4"/>
+      <c r="H3631" s="4"/>
+      <c r="I3631" s="4"/>
+      <c r="J3631" s="4"/>
+      <c r="K3631" s="4"/>
+    </row>
+    <row r="3632" spans="1:11">
+      <c r="A3632" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B3632">
+        <v>690021.4</v>
+      </c>
+      <c r="D3632" s="4"/>
+      <c r="E3632" s="4"/>
+      <c r="F3632" s="4"/>
+      <c r="G3632" s="4"/>
+      <c r="H3632" s="4"/>
+      <c r="I3632" s="4"/>
+      <c r="J3632" s="4"/>
+      <c r="K3632" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3626:K3626"/>
-    <mergeCell ref="D3627:K3628"/>
+    <mergeCell ref="D3630:K3630"/>
+    <mergeCell ref="D3631:K3632"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="3636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="3637">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10922,6 +10922,9 @@
   </si>
   <si>
     <t>11-14-2020</t>
+  </si>
+  <si>
+    <t>11-15-2020</t>
   </si>
 </sst>
 </file>
@@ -11058,108 +11061,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3602:$A$3632</c:f>
+              <c:f>DolarToday!$A$3603:$A$3633</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10-15-2020</c:v>
+                  <c:v>10-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10-16-2020</c:v>
+                  <c:v>10-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10-17-2020</c:v>
+                  <c:v>10-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-18-2020</c:v>
+                  <c:v>10-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10-19-2020</c:v>
+                  <c:v>10-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10-20-2020</c:v>
+                  <c:v>10-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10-21-2020</c:v>
+                  <c:v>10-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10-22-2020</c:v>
+                  <c:v>10-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-23-2020</c:v>
+                  <c:v>10-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10-24-2020</c:v>
+                  <c:v>10-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10-25-2020</c:v>
+                  <c:v>10-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10-26-2020</c:v>
+                  <c:v>10-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10-27-2020</c:v>
+                  <c:v>10-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-28-2020</c:v>
+                  <c:v>10-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10-29-2020</c:v>
+                  <c:v>10-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10-30-2020</c:v>
+                  <c:v>10-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10-31-2020</c:v>
+                  <c:v>11-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11-1-2020</c:v>
+                  <c:v>11-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-2-2020</c:v>
+                  <c:v>11-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11-3-2020</c:v>
+                  <c:v>11-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11-4-2020</c:v>
+                  <c:v>11-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11-5-2020</c:v>
+                  <c:v>11-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11-6-2020</c:v>
+                  <c:v>11-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11-7-2020</c:v>
+                  <c:v>11-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11-8-2020</c:v>
+                  <c:v>11-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11-9-2020</c:v>
+                  <c:v>11-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11-10-2020</c:v>
+                  <c:v>11-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11-11-2020</c:v>
+                  <c:v>11-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11-12-2020</c:v>
+                  <c:v>11-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11-13-2020</c:v>
+                  <c:v>11-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11-14-2020</c:v>
+                  <c:v>11-15-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3602:$B$3632</c:f>
+              <c:f>DolarToday!$B$3603:$B$3633</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11170,19 +11173,19 @@
                   <c:v>460012.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>460012.36</c:v>
+                  <c:v>490012.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>490012.82</c:v>
+                  <c:v>465902.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>465902.92</c:v>
+                  <c:v>458193.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>458193.82</c:v>
+                  <c:v>459023.63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>459023.63</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>470183.51</c:v>
@@ -11191,19 +11194,19 @@
                   <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>470183.51</c:v>
+                  <c:v>475043.71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>475043.71</c:v>
+                  <c:v>484924.03</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>484924.03</c:v>
+                  <c:v>500116.38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>500116.38</c:v>
+                  <c:v>540149.73</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>540149.73</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>542413.91</c:v>
@@ -11212,19 +11215,19 @@
                   <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>542413.91</c:v>
+                  <c:v>535692.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>535692.1</c:v>
+                  <c:v>524031.03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>524031.03</c:v>
+                  <c:v>530472.95</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>530472.95</c:v>
+                  <c:v>537859.05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>537859.05</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>540023.64</c:v>
@@ -11233,19 +11236,19 @@
                   <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>540023.64</c:v>
+                  <c:v>344602.42</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>344602.42</c:v>
+                  <c:v>564932.23</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>564932.23</c:v>
+                  <c:v>590142.53</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>590142.53</c:v>
+                  <c:v>661043.72</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>661043.72</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>690021.4</c:v>
@@ -11254,7 +11257,7 @@
                   <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>690021.4</c:v>
+                  <c:v>685272.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11661,7 +11664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3632"/>
+  <dimension ref="A1:K3633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40737,16 +40740,6 @@
       <c r="B3630">
         <v>690021.4</v>
       </c>
-      <c r="D3630" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3630" s="3"/>
-      <c r="F3630" s="3"/>
-      <c r="G3630" s="3"/>
-      <c r="H3630" s="3"/>
-      <c r="I3630" s="3"/>
-      <c r="J3630" s="3"/>
-      <c r="K3630" s="3"/>
     </row>
     <row r="3631" spans="1:11">
       <c r="A3631" t="s">
@@ -40755,16 +40748,16 @@
       <c r="B3631">
         <v>690021.4</v>
       </c>
-      <c r="D3631" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3631" s="4"/>
-      <c r="F3631" s="4"/>
-      <c r="G3631" s="4"/>
-      <c r="H3631" s="4"/>
-      <c r="I3631" s="4"/>
-      <c r="J3631" s="4"/>
-      <c r="K3631" s="4"/>
+      <c r="D3631" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3631" s="3"/>
+      <c r="F3631" s="3"/>
+      <c r="G3631" s="3"/>
+      <c r="H3631" s="3"/>
+      <c r="I3631" s="3"/>
+      <c r="J3631" s="3"/>
+      <c r="K3631" s="3"/>
     </row>
     <row r="3632" spans="1:11">
       <c r="A3632" t="s">
@@ -40773,7 +40766,9 @@
       <c r="B3632">
         <v>690021.4</v>
       </c>
-      <c r="D3632" s="4"/>
+      <c r="D3632" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3632" s="4"/>
       <c r="F3632" s="4"/>
       <c r="G3632" s="4"/>
@@ -40782,12 +40777,28 @@
       <c r="J3632" s="4"/>
       <c r="K3632" s="4"/>
     </row>
+    <row r="3633" spans="1:11">
+      <c r="A3633" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B3633">
+        <v>685272.38</v>
+      </c>
+      <c r="D3633" s="4"/>
+      <c r="E3633" s="4"/>
+      <c r="F3633" s="4"/>
+      <c r="G3633" s="4"/>
+      <c r="H3633" s="4"/>
+      <c r="I3633" s="4"/>
+      <c r="J3633" s="4"/>
+      <c r="K3633" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3630:K3630"/>
-    <mergeCell ref="D3631:K3632"/>
+    <mergeCell ref="D3631:K3631"/>
+    <mergeCell ref="D3632:K3633"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="3637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="3640">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10925,6 +10925,15 @@
   </si>
   <si>
     <t>11-15-2020</t>
+  </si>
+  <si>
+    <t>11-16-2020</t>
+  </si>
+  <si>
+    <t>11-17-2020</t>
+  </si>
+  <si>
+    <t>11-18-2020</t>
   </si>
 </sst>
 </file>
@@ -11061,203 +11070,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3603:$A$3633</c:f>
+              <c:f>DolarToday!$A$3606:$A$3636</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10-16-2020</c:v>
+                  <c:v>10-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10-17-2020</c:v>
+                  <c:v>10-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10-18-2020</c:v>
+                  <c:v>10-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-19-2020</c:v>
+                  <c:v>10-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10-20-2020</c:v>
+                  <c:v>10-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10-21-2020</c:v>
+                  <c:v>10-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10-22-2020</c:v>
+                  <c:v>10-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10-23-2020</c:v>
+                  <c:v>10-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-24-2020</c:v>
+                  <c:v>10-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10-25-2020</c:v>
+                  <c:v>10-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10-26-2020</c:v>
+                  <c:v>10-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10-27-2020</c:v>
+                  <c:v>10-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10-28-2020</c:v>
+                  <c:v>10-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-29-2020</c:v>
+                  <c:v>11-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10-30-2020</c:v>
+                  <c:v>11-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10-31-2020</c:v>
+                  <c:v>11-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11-1-2020</c:v>
+                  <c:v>11-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11-2-2020</c:v>
+                  <c:v>11-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-3-2020</c:v>
+                  <c:v>11-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11-4-2020</c:v>
+                  <c:v>11-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11-5-2020</c:v>
+                  <c:v>11-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11-6-2020</c:v>
+                  <c:v>11-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11-7-2020</c:v>
+                  <c:v>11-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11-8-2020</c:v>
+                  <c:v>11-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11-9-2020</c:v>
+                  <c:v>11-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11-10-2020</c:v>
+                  <c:v>11-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11-11-2020</c:v>
+                  <c:v>11-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11-12-2020</c:v>
+                  <c:v>11-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11-13-2020</c:v>
+                  <c:v>11-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11-14-2020</c:v>
+                  <c:v>11-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11-15-2020</c:v>
+                  <c:v>11-18-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3603:$B$3633</c:f>
+              <c:f>DolarToday!$B$3606:$B$3636</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>460012.36</c:v>
+                  <c:v>465902.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>460012.36</c:v>
+                  <c:v>458193.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490012.82</c:v>
+                  <c:v>459023.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>465902.92</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>458193.82</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>459023.63</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>470183.51</c:v>
+                  <c:v>475043.71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>470183.51</c:v>
+                  <c:v>484924.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>470183.51</c:v>
+                  <c:v>500116.38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>475043.71</c:v>
+                  <c:v>540149.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>484924.03</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>500116.38</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>540149.73</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>542413.91</c:v>
+                  <c:v>535692.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>542413.91</c:v>
+                  <c:v>524031.03</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>542413.91</c:v>
+                  <c:v>530472.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>535692.1</c:v>
+                  <c:v>537859.05</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>524031.03</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>530472.95</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>537859.05</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>540023.64</c:v>
+                  <c:v>344602.42</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>540023.64</c:v>
+                  <c:v>564932.23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>540023.64</c:v>
+                  <c:v>590142.53</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>344602.42</c:v>
+                  <c:v>661043.72</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>564932.23</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>590142.53</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>661043.72</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>690021.4</c:v>
+                  <c:v>685272.38</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>690021.4</c:v>
+                  <c:v>682634.16</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>690021.4</c:v>
+                  <c:v>684903.72</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>685272.38</c:v>
+                  <c:v>725087.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11664,7 +11673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3633"/>
+  <dimension ref="A1:K3636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40629,7 +40638,7 @@
         <v>542413.91</v>
       </c>
     </row>
-    <row r="3617" spans="1:11">
+    <row r="3617" spans="1:2">
       <c r="A3617" t="s">
         <v>3620</v>
       </c>
@@ -40637,7 +40646,7 @@
         <v>542413.91</v>
       </c>
     </row>
-    <row r="3618" spans="1:11">
+    <row r="3618" spans="1:2">
       <c r="A3618" t="s">
         <v>3621</v>
       </c>
@@ -40645,7 +40654,7 @@
         <v>542413.91</v>
       </c>
     </row>
-    <row r="3619" spans="1:11">
+    <row r="3619" spans="1:2">
       <c r="A3619" t="s">
         <v>3622</v>
       </c>
@@ -40653,7 +40662,7 @@
         <v>535692.1</v>
       </c>
     </row>
-    <row r="3620" spans="1:11">
+    <row r="3620" spans="1:2">
       <c r="A3620" t="s">
         <v>3623</v>
       </c>
@@ -40661,7 +40670,7 @@
         <v>524031.03</v>
       </c>
     </row>
-    <row r="3621" spans="1:11">
+    <row r="3621" spans="1:2">
       <c r="A3621" t="s">
         <v>3624</v>
       </c>
@@ -40669,7 +40678,7 @@
         <v>530472.95</v>
       </c>
     </row>
-    <row r="3622" spans="1:11">
+    <row r="3622" spans="1:2">
       <c r="A3622" t="s">
         <v>3625</v>
       </c>
@@ -40677,7 +40686,7 @@
         <v>537859.05</v>
       </c>
     </row>
-    <row r="3623" spans="1:11">
+    <row r="3623" spans="1:2">
       <c r="A3623" t="s">
         <v>3626</v>
       </c>
@@ -40685,7 +40694,7 @@
         <v>540023.64</v>
       </c>
     </row>
-    <row r="3624" spans="1:11">
+    <row r="3624" spans="1:2">
       <c r="A3624" t="s">
         <v>3627</v>
       </c>
@@ -40693,7 +40702,7 @@
         <v>540023.64</v>
       </c>
     </row>
-    <row r="3625" spans="1:11">
+    <row r="3625" spans="1:2">
       <c r="A3625" t="s">
         <v>3628</v>
       </c>
@@ -40701,7 +40710,7 @@
         <v>540023.64</v>
       </c>
     </row>
-    <row r="3626" spans="1:11">
+    <row r="3626" spans="1:2">
       <c r="A3626" t="s">
         <v>3629</v>
       </c>
@@ -40709,7 +40718,7 @@
         <v>344602.42</v>
       </c>
     </row>
-    <row r="3627" spans="1:11">
+    <row r="3627" spans="1:2">
       <c r="A3627" t="s">
         <v>3630</v>
       </c>
@@ -40717,7 +40726,7 @@
         <v>564932.23</v>
       </c>
     </row>
-    <row r="3628" spans="1:11">
+    <row r="3628" spans="1:2">
       <c r="A3628" t="s">
         <v>3631</v>
       </c>
@@ -40725,7 +40734,7 @@
         <v>590142.53</v>
       </c>
     </row>
-    <row r="3629" spans="1:11">
+    <row r="3629" spans="1:2">
       <c r="A3629" t="s">
         <v>3632</v>
       </c>
@@ -40733,7 +40742,7 @@
         <v>661043.72</v>
       </c>
     </row>
-    <row r="3630" spans="1:11">
+    <row r="3630" spans="1:2">
       <c r="A3630" t="s">
         <v>3633</v>
       </c>
@@ -40741,41 +40750,21 @@
         <v>690021.4</v>
       </c>
     </row>
-    <row r="3631" spans="1:11">
+    <row r="3631" spans="1:2">
       <c r="A3631" t="s">
         <v>3634</v>
       </c>
       <c r="B3631">
         <v>690021.4</v>
       </c>
-      <c r="D3631" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3631" s="3"/>
-      <c r="F3631" s="3"/>
-      <c r="G3631" s="3"/>
-      <c r="H3631" s="3"/>
-      <c r="I3631" s="3"/>
-      <c r="J3631" s="3"/>
-      <c r="K3631" s="3"/>
-    </row>
-    <row r="3632" spans="1:11">
+    </row>
+    <row r="3632" spans="1:2">
       <c r="A3632" t="s">
         <v>3635</v>
       </c>
       <c r="B3632">
         <v>690021.4</v>
       </c>
-      <c r="D3632" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3632" s="4"/>
-      <c r="F3632" s="4"/>
-      <c r="G3632" s="4"/>
-      <c r="H3632" s="4"/>
-      <c r="I3632" s="4"/>
-      <c r="J3632" s="4"/>
-      <c r="K3632" s="4"/>
     </row>
     <row r="3633" spans="1:11">
       <c r="A3633" t="s">
@@ -40784,21 +40773,65 @@
       <c r="B3633">
         <v>685272.38</v>
       </c>
-      <c r="D3633" s="4"/>
-      <c r="E3633" s="4"/>
-      <c r="F3633" s="4"/>
-      <c r="G3633" s="4"/>
-      <c r="H3633" s="4"/>
-      <c r="I3633" s="4"/>
-      <c r="J3633" s="4"/>
-      <c r="K3633" s="4"/>
+    </row>
+    <row r="3634" spans="1:11">
+      <c r="A3634" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B3634">
+        <v>682634.16</v>
+      </c>
+      <c r="D3634" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3634" s="3"/>
+      <c r="F3634" s="3"/>
+      <c r="G3634" s="3"/>
+      <c r="H3634" s="3"/>
+      <c r="I3634" s="3"/>
+      <c r="J3634" s="3"/>
+      <c r="K3634" s="3"/>
+    </row>
+    <row r="3635" spans="1:11">
+      <c r="A3635" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B3635">
+        <v>684903.72</v>
+      </c>
+      <c r="D3635" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3635" s="4"/>
+      <c r="F3635" s="4"/>
+      <c r="G3635" s="4"/>
+      <c r="H3635" s="4"/>
+      <c r="I3635" s="4"/>
+      <c r="J3635" s="4"/>
+      <c r="K3635" s="4"/>
+    </row>
+    <row r="3636" spans="1:11">
+      <c r="A3636" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B3636">
+        <v>725087.87</v>
+      </c>
+      <c r="D3636" s="4"/>
+      <c r="E3636" s="4"/>
+      <c r="F3636" s="4"/>
+      <c r="G3636" s="4"/>
+      <c r="H3636" s="4"/>
+      <c r="I3636" s="4"/>
+      <c r="J3636" s="4"/>
+      <c r="K3636" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3631:K3631"/>
-    <mergeCell ref="D3632:K3633"/>
+    <mergeCell ref="D3634:K3634"/>
+    <mergeCell ref="D3635:K3636"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="3640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="3641">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10934,6 +10934,9 @@
   </si>
   <si>
     <t>11-18-2020</t>
+  </si>
+  <si>
+    <t>11-19-2020</t>
   </si>
 </sst>
 </file>
@@ -11070,119 +11073,119 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3606:$A$3636</c:f>
+              <c:f>DolarToday!$A$3607:$A$3637</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10-19-2020</c:v>
+                  <c:v>10-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10-20-2020</c:v>
+                  <c:v>10-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10-21-2020</c:v>
+                  <c:v>10-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-22-2020</c:v>
+                  <c:v>10-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10-23-2020</c:v>
+                  <c:v>10-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10-24-2020</c:v>
+                  <c:v>10-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10-25-2020</c:v>
+                  <c:v>10-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10-26-2020</c:v>
+                  <c:v>10-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-27-2020</c:v>
+                  <c:v>10-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10-28-2020</c:v>
+                  <c:v>10-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10-29-2020</c:v>
+                  <c:v>10-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10-30-2020</c:v>
+                  <c:v>10-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10-31-2020</c:v>
+                  <c:v>11-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11-1-2020</c:v>
+                  <c:v>11-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11-2-2020</c:v>
+                  <c:v>11-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11-3-2020</c:v>
+                  <c:v>11-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11-4-2020</c:v>
+                  <c:v>11-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11-5-2020</c:v>
+                  <c:v>11-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-6-2020</c:v>
+                  <c:v>11-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11-7-2020</c:v>
+                  <c:v>11-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11-8-2020</c:v>
+                  <c:v>11-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11-9-2020</c:v>
+                  <c:v>11-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11-10-2020</c:v>
+                  <c:v>11-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11-11-2020</c:v>
+                  <c:v>11-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11-12-2020</c:v>
+                  <c:v>11-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11-13-2020</c:v>
+                  <c:v>11-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11-14-2020</c:v>
+                  <c:v>11-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11-15-2020</c:v>
+                  <c:v>11-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11-16-2020</c:v>
+                  <c:v>11-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11-17-2020</c:v>
+                  <c:v>11-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11-18-2020</c:v>
+                  <c:v>11-19-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3606:$B$3636</c:f>
+              <c:f>DolarToday!$B$3607:$B$3637</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>465902.92</c:v>
+                  <c:v>458193.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>458193.82</c:v>
+                  <c:v>459023.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>459023.63</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>470183.51</c:v>
@@ -11191,19 +11194,19 @@
                   <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>470183.51</c:v>
+                  <c:v>475043.71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>475043.71</c:v>
+                  <c:v>484924.03</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>484924.03</c:v>
+                  <c:v>500116.38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500116.38</c:v>
+                  <c:v>540149.73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>540149.73</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>542413.91</c:v>
@@ -11212,19 +11215,19 @@
                   <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>542413.91</c:v>
+                  <c:v>535692.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>535692.1</c:v>
+                  <c:v>524031.03</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>524031.03</c:v>
+                  <c:v>530472.95</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>530472.95</c:v>
+                  <c:v>537859.05</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>537859.05</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>540023.64</c:v>
@@ -11233,19 +11236,19 @@
                   <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>540023.64</c:v>
+                  <c:v>344602.42</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>344602.42</c:v>
+                  <c:v>564932.23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>564932.23</c:v>
+                  <c:v>590142.53</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>590142.53</c:v>
+                  <c:v>661043.72</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>661043.72</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>690021.4</c:v>
@@ -11254,19 +11257,19 @@
                   <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>690021.4</c:v>
+                  <c:v>685272.38</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>685272.38</c:v>
+                  <c:v>682634.16</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>682634.16</c:v>
+                  <c:v>684903.72</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>684903.72</c:v>
+                  <c:v>725087.87</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>725087.87</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11673,7 +11676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3636"/>
+  <dimension ref="A1:K3637"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40781,16 +40784,6 @@
       <c r="B3634">
         <v>682634.16</v>
       </c>
-      <c r="D3634" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3634" s="3"/>
-      <c r="F3634" s="3"/>
-      <c r="G3634" s="3"/>
-      <c r="H3634" s="3"/>
-      <c r="I3634" s="3"/>
-      <c r="J3634" s="3"/>
-      <c r="K3634" s="3"/>
     </row>
     <row r="3635" spans="1:11">
       <c r="A3635" t="s">
@@ -40799,16 +40792,16 @@
       <c r="B3635">
         <v>684903.72</v>
       </c>
-      <c r="D3635" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3635" s="4"/>
-      <c r="F3635" s="4"/>
-      <c r="G3635" s="4"/>
-      <c r="H3635" s="4"/>
-      <c r="I3635" s="4"/>
-      <c r="J3635" s="4"/>
-      <c r="K3635" s="4"/>
+      <c r="D3635" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3635" s="3"/>
+      <c r="F3635" s="3"/>
+      <c r="G3635" s="3"/>
+      <c r="H3635" s="3"/>
+      <c r="I3635" s="3"/>
+      <c r="J3635" s="3"/>
+      <c r="K3635" s="3"/>
     </row>
     <row r="3636" spans="1:11">
       <c r="A3636" t="s">
@@ -40817,7 +40810,9 @@
       <c r="B3636">
         <v>725087.87</v>
       </c>
-      <c r="D3636" s="4"/>
+      <c r="D3636" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3636" s="4"/>
       <c r="F3636" s="4"/>
       <c r="G3636" s="4"/>
@@ -40826,12 +40821,28 @@
       <c r="J3636" s="4"/>
       <c r="K3636" s="4"/>
     </row>
+    <row r="3637" spans="1:11">
+      <c r="A3637" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B3637">
+        <v>820186.43</v>
+      </c>
+      <c r="D3637" s="4"/>
+      <c r="E3637" s="4"/>
+      <c r="F3637" s="4"/>
+      <c r="G3637" s="4"/>
+      <c r="H3637" s="4"/>
+      <c r="I3637" s="4"/>
+      <c r="J3637" s="4"/>
+      <c r="K3637" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3634:K3634"/>
-    <mergeCell ref="D3635:K3636"/>
+    <mergeCell ref="D3635:K3635"/>
+    <mergeCell ref="D3636:K3637"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="3641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="3644">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10937,6 +10937,15 @@
   </si>
   <si>
     <t>11-19-2020</t>
+  </si>
+  <si>
+    <t>11-20-2020</t>
+  </si>
+  <si>
+    <t>11-21-2020</t>
+  </si>
+  <si>
+    <t>11-22-2020</t>
   </si>
 </sst>
 </file>
@@ -11073,203 +11082,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3607:$A$3637</c:f>
+              <c:f>DolarToday!$A$3610:$A$3640</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10-20-2020</c:v>
+                  <c:v>10-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10-21-2020</c:v>
+                  <c:v>10-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10-22-2020</c:v>
+                  <c:v>10-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-23-2020</c:v>
+                  <c:v>10-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10-24-2020</c:v>
+                  <c:v>10-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10-25-2020</c:v>
+                  <c:v>10-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10-26-2020</c:v>
+                  <c:v>10-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10-27-2020</c:v>
+                  <c:v>10-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-28-2020</c:v>
+                  <c:v>10-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10-29-2020</c:v>
+                  <c:v>11-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10-30-2020</c:v>
+                  <c:v>11-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10-31-2020</c:v>
+                  <c:v>11-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11-1-2020</c:v>
+                  <c:v>11-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11-2-2020</c:v>
+                  <c:v>11-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11-3-2020</c:v>
+                  <c:v>11-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11-4-2020</c:v>
+                  <c:v>11-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11-5-2020</c:v>
+                  <c:v>11-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11-6-2020</c:v>
+                  <c:v>11-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-7-2020</c:v>
+                  <c:v>11-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11-8-2020</c:v>
+                  <c:v>11-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11-9-2020</c:v>
+                  <c:v>11-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11-10-2020</c:v>
+                  <c:v>11-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11-11-2020</c:v>
+                  <c:v>11-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11-12-2020</c:v>
+                  <c:v>11-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11-13-2020</c:v>
+                  <c:v>11-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11-14-2020</c:v>
+                  <c:v>11-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11-15-2020</c:v>
+                  <c:v>11-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11-16-2020</c:v>
+                  <c:v>11-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11-17-2020</c:v>
+                  <c:v>11-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11-18-2020</c:v>
+                  <c:v>11-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11-19-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3607:$B$3637</c:f>
+              <c:f>DolarToday!$B$3610:$B$3640</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>458193.82</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>459023.63</c:v>
+                  <c:v>470183.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>470183.51</c:v>
+                  <c:v>475043.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>470183.51</c:v>
+                  <c:v>484924.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>470183.51</c:v>
+                  <c:v>500116.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>475043.71</c:v>
+                  <c:v>540149.73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>484924.03</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500116.38</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>540149.73</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>542413.91</c:v>
+                  <c:v>535692.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>542413.91</c:v>
+                  <c:v>524031.03</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>542413.91</c:v>
+                  <c:v>530472.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>535692.1</c:v>
+                  <c:v>537859.05</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>524031.03</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>530472.95</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>537859.05</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>540023.64</c:v>
+                  <c:v>344602.42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>540023.64</c:v>
+                  <c:v>564932.23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>540023.64</c:v>
+                  <c:v>590142.53</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>344602.42</c:v>
+                  <c:v>661043.72</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>564932.23</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>590142.53</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>661043.72</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>690021.4</c:v>
+                  <c:v>685272.38</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>690021.4</c:v>
+                  <c:v>682634.16</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>690021.4</c:v>
+                  <c:v>684903.72</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>685272.38</c:v>
+                  <c:v>725087.87</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>682634.16</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>684903.72</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>725087.87</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>820186.43</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11676,7 +11685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3637"/>
+  <dimension ref="A1:K3640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40792,16 +40801,6 @@
       <c r="B3635">
         <v>684903.72</v>
       </c>
-      <c r="D3635" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3635" s="3"/>
-      <c r="F3635" s="3"/>
-      <c r="G3635" s="3"/>
-      <c r="H3635" s="3"/>
-      <c r="I3635" s="3"/>
-      <c r="J3635" s="3"/>
-      <c r="K3635" s="3"/>
     </row>
     <row r="3636" spans="1:11">
       <c r="A3636" t="s">
@@ -40810,16 +40809,6 @@
       <c r="B3636">
         <v>725087.87</v>
       </c>
-      <c r="D3636" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3636" s="4"/>
-      <c r="F3636" s="4"/>
-      <c r="G3636" s="4"/>
-      <c r="H3636" s="4"/>
-      <c r="I3636" s="4"/>
-      <c r="J3636" s="4"/>
-      <c r="K3636" s="4"/>
     </row>
     <row r="3637" spans="1:11">
       <c r="A3637" t="s">
@@ -40828,21 +40817,65 @@
       <c r="B3637">
         <v>820186.43</v>
       </c>
-      <c r="D3637" s="4"/>
-      <c r="E3637" s="4"/>
-      <c r="F3637" s="4"/>
-      <c r="G3637" s="4"/>
-      <c r="H3637" s="4"/>
-      <c r="I3637" s="4"/>
-      <c r="J3637" s="4"/>
-      <c r="K3637" s="4"/>
+    </row>
+    <row r="3638" spans="1:11">
+      <c r="A3638" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B3638">
+        <v>820186.43</v>
+      </c>
+      <c r="D3638" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3638" s="3"/>
+      <c r="F3638" s="3"/>
+      <c r="G3638" s="3"/>
+      <c r="H3638" s="3"/>
+      <c r="I3638" s="3"/>
+      <c r="J3638" s="3"/>
+      <c r="K3638" s="3"/>
+    </row>
+    <row r="3639" spans="1:11">
+      <c r="A3639" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B3639">
+        <v>820186.43</v>
+      </c>
+      <c r="D3639" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3639" s="4"/>
+      <c r="F3639" s="4"/>
+      <c r="G3639" s="4"/>
+      <c r="H3639" s="4"/>
+      <c r="I3639" s="4"/>
+      <c r="J3639" s="4"/>
+      <c r="K3639" s="4"/>
+    </row>
+    <row r="3640" spans="1:11">
+      <c r="A3640" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B3640">
+        <v>950259.63</v>
+      </c>
+      <c r="D3640" s="4"/>
+      <c r="E3640" s="4"/>
+      <c r="F3640" s="4"/>
+      <c r="G3640" s="4"/>
+      <c r="H3640" s="4"/>
+      <c r="I3640" s="4"/>
+      <c r="J3640" s="4"/>
+      <c r="K3640" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3635:K3635"/>
-    <mergeCell ref="D3636:K3637"/>
+    <mergeCell ref="D3638:K3638"/>
+    <mergeCell ref="D3639:K3640"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="3644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="3646">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10946,6 +10946,12 @@
   </si>
   <si>
     <t>11-22-2020</t>
+  </si>
+  <si>
+    <t>11-23-2020</t>
+  </si>
+  <si>
+    <t>11-24-2020</t>
   </si>
 </sst>
 </file>
@@ -11082,203 +11088,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3610:$A$3640</c:f>
+              <c:f>DolarToday!$A$3612:$A$3642</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10-23-2020</c:v>
+                  <c:v>10-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10-24-2020</c:v>
+                  <c:v>10-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10-25-2020</c:v>
+                  <c:v>10-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-26-2020</c:v>
+                  <c:v>10-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10-27-2020</c:v>
+                  <c:v>10-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10-28-2020</c:v>
+                  <c:v>10-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10-29-2020</c:v>
+                  <c:v>10-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10-30-2020</c:v>
+                  <c:v>11-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-31-2020</c:v>
+                  <c:v>11-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-1-2020</c:v>
+                  <c:v>11-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11-2-2020</c:v>
+                  <c:v>11-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11-3-2020</c:v>
+                  <c:v>11-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11-4-2020</c:v>
+                  <c:v>11-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11-5-2020</c:v>
+                  <c:v>11-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11-6-2020</c:v>
+                  <c:v>11-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11-7-2020</c:v>
+                  <c:v>11-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11-8-2020</c:v>
+                  <c:v>11-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11-9-2020</c:v>
+                  <c:v>11-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-10-2020</c:v>
+                  <c:v>11-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11-11-2020</c:v>
+                  <c:v>11-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11-12-2020</c:v>
+                  <c:v>11-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11-13-2020</c:v>
+                  <c:v>11-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11-14-2020</c:v>
+                  <c:v>11-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11-15-2020</c:v>
+                  <c:v>11-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11-16-2020</c:v>
+                  <c:v>11-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11-17-2020</c:v>
+                  <c:v>11-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11-18-2020</c:v>
+                  <c:v>11-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11-19-2020</c:v>
+                  <c:v>11-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11-20-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11-21-2020</c:v>
+                  <c:v>11-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-24-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3610:$B$3640</c:f>
+              <c:f>DolarToday!$B$3612:$B$3642</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>470183.51</c:v>
+                  <c:v>475043.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>470183.51</c:v>
+                  <c:v>484924.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475043.71</c:v>
+                  <c:v>500116.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>484924.03</c:v>
+                  <c:v>540149.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500116.38</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>540149.73</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>542413.91</c:v>
+                  <c:v>535692.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>542413.91</c:v>
+                  <c:v>524031.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>535692.1</c:v>
+                  <c:v>530472.95</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>524031.03</c:v>
+                  <c:v>537859.05</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>530472.95</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>537859.05</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>540023.64</c:v>
+                  <c:v>344602.42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>540023.64</c:v>
+                  <c:v>564932.23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>344602.42</c:v>
+                  <c:v>590142.53</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>564932.23</c:v>
+                  <c:v>661043.72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>590142.53</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>661043.72</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>690021.4</c:v>
+                  <c:v>685272.38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>690021.4</c:v>
+                  <c:v>682634.16</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>685272.38</c:v>
+                  <c:v>684903.72</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>682634.16</c:v>
+                  <c:v>725087.87</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>684903.72</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>725087.87</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>820186.43</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>820186.43</c:v>
+                  <c:v>1010242.78</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>950259.63</c:v>
+                  <c:v>975013.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11685,7 +11691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3640"/>
+  <dimension ref="A1:K3642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40825,16 +40831,6 @@
       <c r="B3638">
         <v>820186.43</v>
       </c>
-      <c r="D3638" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3638" s="3"/>
-      <c r="F3638" s="3"/>
-      <c r="G3638" s="3"/>
-      <c r="H3638" s="3"/>
-      <c r="I3638" s="3"/>
-      <c r="J3638" s="3"/>
-      <c r="K3638" s="3"/>
     </row>
     <row r="3639" spans="1:11">
       <c r="A3639" t="s">
@@ -40843,16 +40839,6 @@
       <c r="B3639">
         <v>820186.43</v>
       </c>
-      <c r="D3639" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3639" s="4"/>
-      <c r="F3639" s="4"/>
-      <c r="G3639" s="4"/>
-      <c r="H3639" s="4"/>
-      <c r="I3639" s="4"/>
-      <c r="J3639" s="4"/>
-      <c r="K3639" s="4"/>
     </row>
     <row r="3640" spans="1:11">
       <c r="A3640" t="s">
@@ -40861,21 +40847,57 @@
       <c r="B3640">
         <v>950259.63</v>
       </c>
-      <c r="D3640" s="4"/>
-      <c r="E3640" s="4"/>
-      <c r="F3640" s="4"/>
-      <c r="G3640" s="4"/>
-      <c r="H3640" s="4"/>
-      <c r="I3640" s="4"/>
-      <c r="J3640" s="4"/>
-      <c r="K3640" s="4"/>
+      <c r="D3640" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3640" s="3"/>
+      <c r="F3640" s="3"/>
+      <c r="G3640" s="3"/>
+      <c r="H3640" s="3"/>
+      <c r="I3640" s="3"/>
+      <c r="J3640" s="3"/>
+      <c r="K3640" s="3"/>
+    </row>
+    <row r="3641" spans="1:11">
+      <c r="A3641" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B3641">
+        <v>1010242.78</v>
+      </c>
+      <c r="D3641" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3641" s="4"/>
+      <c r="F3641" s="4"/>
+      <c r="G3641" s="4"/>
+      <c r="H3641" s="4"/>
+      <c r="I3641" s="4"/>
+      <c r="J3641" s="4"/>
+      <c r="K3641" s="4"/>
+    </row>
+    <row r="3642" spans="1:11">
+      <c r="A3642" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B3642">
+        <v>975013.78</v>
+      </c>
+      <c r="D3642" s="4"/>
+      <c r="E3642" s="4"/>
+      <c r="F3642" s="4"/>
+      <c r="G3642" s="4"/>
+      <c r="H3642" s="4"/>
+      <c r="I3642" s="4"/>
+      <c r="J3642" s="4"/>
+      <c r="K3642" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3638:K3638"/>
-    <mergeCell ref="D3639:K3640"/>
+    <mergeCell ref="D3640:K3640"/>
+    <mergeCell ref="D3641:K3642"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="3646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3649" uniqueCount="3647">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10952,6 +10952,9 @@
   </si>
   <si>
     <t>11-24-2020</t>
+  </si>
+  <si>
+    <t>11-25-2020</t>
   </si>
 </sst>
 </file>
@@ -11088,122 +11091,122 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3612:$A$3642</c:f>
+              <c:f>DolarToday!$A$3613:$A$3643</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10-25-2020</c:v>
+                  <c:v>10-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10-26-2020</c:v>
+                  <c:v>10-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10-27-2020</c:v>
+                  <c:v>10-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-28-2020</c:v>
+                  <c:v>10-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10-29-2020</c:v>
+                  <c:v>10-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10-30-2020</c:v>
+                  <c:v>10-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10-31-2020</c:v>
+                  <c:v>11-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11-1-2020</c:v>
+                  <c:v>11-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11-2-2020</c:v>
+                  <c:v>11-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-3-2020</c:v>
+                  <c:v>11-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11-4-2020</c:v>
+                  <c:v>11-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11-5-2020</c:v>
+                  <c:v>11-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11-6-2020</c:v>
+                  <c:v>11-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11-7-2020</c:v>
+                  <c:v>11-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11-8-2020</c:v>
+                  <c:v>11-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11-9-2020</c:v>
+                  <c:v>11-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11-10-2020</c:v>
+                  <c:v>11-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11-11-2020</c:v>
+                  <c:v>11-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-12-2020</c:v>
+                  <c:v>11-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11-13-2020</c:v>
+                  <c:v>11-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11-14-2020</c:v>
+                  <c:v>11-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11-15-2020</c:v>
+                  <c:v>11-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11-16-2020</c:v>
+                  <c:v>11-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11-17-2020</c:v>
+                  <c:v>11-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11-18-2020</c:v>
+                  <c:v>11-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11-19-2020</c:v>
+                  <c:v>11-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11-20-2020</c:v>
+                  <c:v>11-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11-21-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11-23-2020</c:v>
+                  <c:v>11-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11-24-2020</c:v>
+                  <c:v>11-25-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3612:$B$3642</c:f>
+              <c:f>DolarToday!$B$3613:$B$3643</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>475043.71</c:v>
+                  <c:v>484924.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>484924.03</c:v>
+                  <c:v>500116.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500116.38</c:v>
+                  <c:v>540149.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>540149.73</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>542413.91</c:v>
@@ -11212,19 +11215,19 @@
                   <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>542413.91</c:v>
+                  <c:v>535692.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>535692.1</c:v>
+                  <c:v>524031.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>524031.03</c:v>
+                  <c:v>530472.95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>530472.95</c:v>
+                  <c:v>537859.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>537859.05</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>540023.64</c:v>
@@ -11233,19 +11236,19 @@
                   <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>540023.64</c:v>
+                  <c:v>344602.42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>344602.42</c:v>
+                  <c:v>564932.23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>564932.23</c:v>
+                  <c:v>590142.53</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>590142.53</c:v>
+                  <c:v>661043.72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>661043.72</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>690021.4</c:v>
@@ -11254,19 +11257,19 @@
                   <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>690021.4</c:v>
+                  <c:v>685272.38</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>685272.38</c:v>
+                  <c:v>682634.16</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>682634.16</c:v>
+                  <c:v>684903.72</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>684903.72</c:v>
+                  <c:v>725087.87</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>725087.87</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>820186.43</c:v>
@@ -11275,16 +11278,16 @@
                   <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>820186.43</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>950259.63</c:v>
+                  <c:v>1010242.78</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1010242.78</c:v>
+                  <c:v>975013.78</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>975013.78</c:v>
+                  <c:v>1030705.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11691,7 +11694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3642"/>
+  <dimension ref="A1:K3643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40847,16 +40850,6 @@
       <c r="B3640">
         <v>950259.63</v>
       </c>
-      <c r="D3640" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3640" s="3"/>
-      <c r="F3640" s="3"/>
-      <c r="G3640" s="3"/>
-      <c r="H3640" s="3"/>
-      <c r="I3640" s="3"/>
-      <c r="J3640" s="3"/>
-      <c r="K3640" s="3"/>
     </row>
     <row r="3641" spans="1:11">
       <c r="A3641" t="s">
@@ -40865,16 +40858,16 @@
       <c r="B3641">
         <v>1010242.78</v>
       </c>
-      <c r="D3641" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3641" s="4"/>
-      <c r="F3641" s="4"/>
-      <c r="G3641" s="4"/>
-      <c r="H3641" s="4"/>
-      <c r="I3641" s="4"/>
-      <c r="J3641" s="4"/>
-      <c r="K3641" s="4"/>
+      <c r="D3641" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3641" s="3"/>
+      <c r="F3641" s="3"/>
+      <c r="G3641" s="3"/>
+      <c r="H3641" s="3"/>
+      <c r="I3641" s="3"/>
+      <c r="J3641" s="3"/>
+      <c r="K3641" s="3"/>
     </row>
     <row r="3642" spans="1:11">
       <c r="A3642" t="s">
@@ -40883,7 +40876,9 @@
       <c r="B3642">
         <v>975013.78</v>
       </c>
-      <c r="D3642" s="4"/>
+      <c r="D3642" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3642" s="4"/>
       <c r="F3642" s="4"/>
       <c r="G3642" s="4"/>
@@ -40892,12 +40887,28 @@
       <c r="J3642" s="4"/>
       <c r="K3642" s="4"/>
     </row>
+    <row r="3643" spans="1:11">
+      <c r="A3643" t="s">
+        <v>3646</v>
+      </c>
+      <c r="B3643">
+        <v>1030705.11</v>
+      </c>
+      <c r="D3643" s="4"/>
+      <c r="E3643" s="4"/>
+      <c r="F3643" s="4"/>
+      <c r="G3643" s="4"/>
+      <c r="H3643" s="4"/>
+      <c r="I3643" s="4"/>
+      <c r="J3643" s="4"/>
+      <c r="K3643" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3640:K3640"/>
-    <mergeCell ref="D3641:K3642"/>
+    <mergeCell ref="D3641:K3641"/>
+    <mergeCell ref="D3642:K3643"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3649" uniqueCount="3647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="3652">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10955,6 +10955,21 @@
   </si>
   <si>
     <t>11-25-2020</t>
+  </si>
+  <si>
+    <t>11-26-2020</t>
+  </si>
+  <si>
+    <t>11-27-2020</t>
+  </si>
+  <si>
+    <t>11-28-2020</t>
+  </si>
+  <si>
+    <t>11-29-2020</t>
+  </si>
+  <si>
+    <t>11-30-2020</t>
   </si>
 </sst>
 </file>
@@ -11091,203 +11106,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3613:$A$3643</c:f>
+              <c:f>DolarToday!$A$3618:$A$3648</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10-26-2020</c:v>
+                  <c:v>10-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10-27-2020</c:v>
+                  <c:v>11-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10-28-2020</c:v>
+                  <c:v>11-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-29-2020</c:v>
+                  <c:v>11-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10-30-2020</c:v>
+                  <c:v>11-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10-31-2020</c:v>
+                  <c:v>11-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11-1-2020</c:v>
+                  <c:v>11-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11-2-2020</c:v>
+                  <c:v>11-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11-3-2020</c:v>
+                  <c:v>11-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-4-2020</c:v>
+                  <c:v>11-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11-5-2020</c:v>
+                  <c:v>11-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11-6-2020</c:v>
+                  <c:v>11-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11-7-2020</c:v>
+                  <c:v>11-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11-8-2020</c:v>
+                  <c:v>11-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11-9-2020</c:v>
+                  <c:v>11-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11-10-2020</c:v>
+                  <c:v>11-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11-11-2020</c:v>
+                  <c:v>11-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11-12-2020</c:v>
+                  <c:v>11-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-13-2020</c:v>
+                  <c:v>11-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11-14-2020</c:v>
+                  <c:v>11-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11-15-2020</c:v>
+                  <c:v>11-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11-16-2020</c:v>
+                  <c:v>11-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11-17-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11-18-2020</c:v>
+                  <c:v>11-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11-19-2020</c:v>
+                  <c:v>11-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11-20-2020</c:v>
+                  <c:v>11-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11-21-2020</c:v>
+                  <c:v>11-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11-23-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11-24-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11-25-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3613:$B$3643</c:f>
+              <c:f>DolarToday!$B$3618:$B$3648</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>484924.03</c:v>
+                  <c:v>542413.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500116.38</c:v>
+                  <c:v>535692.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>540149.73</c:v>
+                  <c:v>524031.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>542413.91</c:v>
+                  <c:v>530472.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>542413.91</c:v>
+                  <c:v>537859.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>542413.91</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>535692.1</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>524031.03</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>530472.95</c:v>
+                  <c:v>344602.42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>537859.05</c:v>
+                  <c:v>564932.23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>540023.64</c:v>
+                  <c:v>590142.53</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>540023.64</c:v>
+                  <c:v>661043.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>540023.64</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>344602.42</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>564932.23</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>590142.53</c:v>
+                  <c:v>685272.38</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>661043.72</c:v>
+                  <c:v>682634.16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>690021.4</c:v>
+                  <c:v>684903.72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>690021.4</c:v>
+                  <c:v>725087.87</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>690021.4</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>685272.38</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>682634.16</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>684903.72</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>725087.87</c:v>
+                  <c:v>1010242.78</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>820186.43</c:v>
+                  <c:v>975013.78</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>820186.43</c:v>
+                  <c:v>1030705.11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>820186.43</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>950259.63</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1010242.78</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>975013.78</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1030705.11</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11694,7 +11709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3643"/>
+  <dimension ref="A1:K3648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40858,16 +40873,6 @@
       <c r="B3641">
         <v>1010242.78</v>
       </c>
-      <c r="D3641" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3641" s="3"/>
-      <c r="F3641" s="3"/>
-      <c r="G3641" s="3"/>
-      <c r="H3641" s="3"/>
-      <c r="I3641" s="3"/>
-      <c r="J3641" s="3"/>
-      <c r="K3641" s="3"/>
     </row>
     <row r="3642" spans="1:11">
       <c r="A3642" t="s">
@@ -40876,16 +40881,6 @@
       <c r="B3642">
         <v>975013.78</v>
       </c>
-      <c r="D3642" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3642" s="4"/>
-      <c r="F3642" s="4"/>
-      <c r="G3642" s="4"/>
-      <c r="H3642" s="4"/>
-      <c r="I3642" s="4"/>
-      <c r="J3642" s="4"/>
-      <c r="K3642" s="4"/>
     </row>
     <row r="3643" spans="1:11">
       <c r="A3643" t="s">
@@ -40894,21 +40889,81 @@
       <c r="B3643">
         <v>1030705.11</v>
       </c>
-      <c r="D3643" s="4"/>
-      <c r="E3643" s="4"/>
-      <c r="F3643" s="4"/>
-      <c r="G3643" s="4"/>
-      <c r="H3643" s="4"/>
-      <c r="I3643" s="4"/>
-      <c r="J3643" s="4"/>
-      <c r="K3643" s="4"/>
+    </row>
+    <row r="3644" spans="1:11">
+      <c r="A3644" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B3644">
+        <v>1204023.27</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:11">
+      <c r="A3645" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B3645">
+        <v>1204023.27</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:11">
+      <c r="A3646" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B3646">
+        <v>1204023.27</v>
+      </c>
+      <c r="D3646" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3646" s="3"/>
+      <c r="F3646" s="3"/>
+      <c r="G3646" s="3"/>
+      <c r="H3646" s="3"/>
+      <c r="I3646" s="3"/>
+      <c r="J3646" s="3"/>
+      <c r="K3646" s="3"/>
+    </row>
+    <row r="3647" spans="1:11">
+      <c r="A3647" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B3647">
+        <v>1214053.74</v>
+      </c>
+      <c r="D3647" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3647" s="4"/>
+      <c r="F3647" s="4"/>
+      <c r="G3647" s="4"/>
+      <c r="H3647" s="4"/>
+      <c r="I3647" s="4"/>
+      <c r="J3647" s="4"/>
+      <c r="K3647" s="4"/>
+    </row>
+    <row r="3648" spans="1:11">
+      <c r="A3648" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B3648">
+        <v>1050374.91</v>
+      </c>
+      <c r="D3648" s="4"/>
+      <c r="E3648" s="4"/>
+      <c r="F3648" s="4"/>
+      <c r="G3648" s="4"/>
+      <c r="H3648" s="4"/>
+      <c r="I3648" s="4"/>
+      <c r="J3648" s="4"/>
+      <c r="K3648" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3641:K3641"/>
-    <mergeCell ref="D3642:K3643"/>
+    <mergeCell ref="D3646:K3646"/>
+    <mergeCell ref="D3647:K3648"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="3652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="3653">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10970,6 +10970,9 @@
   </si>
   <si>
     <t>11-30-2020</t>
+  </si>
+  <si>
+    <t>12-1-2020</t>
   </si>
 </sst>
 </file>
@@ -11106,125 +11109,125 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3618:$A$3648</c:f>
+              <c:f>DolarToday!$A$3619:$A$3649</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>10-31-2020</c:v>
+                  <c:v>11-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-1-2020</c:v>
+                  <c:v>11-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-2-2020</c:v>
+                  <c:v>11-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11-3-2020</c:v>
+                  <c:v>11-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-4-2020</c:v>
+                  <c:v>11-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11-5-2020</c:v>
+                  <c:v>11-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11-6-2020</c:v>
+                  <c:v>11-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11-7-2020</c:v>
+                  <c:v>11-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11-8-2020</c:v>
+                  <c:v>11-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-9-2020</c:v>
+                  <c:v>11-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11-10-2020</c:v>
+                  <c:v>11-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11-11-2020</c:v>
+                  <c:v>11-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11-12-2020</c:v>
+                  <c:v>11-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11-13-2020</c:v>
+                  <c:v>11-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11-14-2020</c:v>
+                  <c:v>11-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11-15-2020</c:v>
+                  <c:v>11-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11-16-2020</c:v>
+                  <c:v>11-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11-17-2020</c:v>
+                  <c:v>11-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-18-2020</c:v>
+                  <c:v>11-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11-19-2020</c:v>
+                  <c:v>11-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11-20-2020</c:v>
+                  <c:v>11-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11-21-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11-23-2020</c:v>
+                  <c:v>11-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11-24-2020</c:v>
+                  <c:v>11-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11-25-2020</c:v>
+                  <c:v>11-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11-26-2020</c:v>
+                  <c:v>11-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11-27-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-1-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3618:$B$3648</c:f>
+              <c:f>DolarToday!$B$3619:$B$3649</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>542413.91</c:v>
+                  <c:v>535692.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>535692.1</c:v>
+                  <c:v>524031.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>524031.03</c:v>
+                  <c:v>530472.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>530472.95</c:v>
+                  <c:v>537859.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>537859.05</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>540023.64</c:v>
@@ -11233,19 +11236,19 @@
                   <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>540023.64</c:v>
+                  <c:v>344602.42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>344602.42</c:v>
+                  <c:v>564932.23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>564932.23</c:v>
+                  <c:v>590142.53</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>590142.53</c:v>
+                  <c:v>661043.72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>661043.72</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>690021.4</c:v>
@@ -11254,19 +11257,19 @@
                   <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>690021.4</c:v>
+                  <c:v>685272.38</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>685272.38</c:v>
+                  <c:v>682634.16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>682634.16</c:v>
+                  <c:v>684903.72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>684903.72</c:v>
+                  <c:v>725087.87</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>725087.87</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>820186.43</c:v>
@@ -11275,19 +11278,19 @@
                   <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>820186.43</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>950259.63</c:v>
+                  <c:v>1010242.78</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1010242.78</c:v>
+                  <c:v>975013.78</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>975013.78</c:v>
+                  <c:v>1030705.11</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1030705.11</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1204023.27</c:v>
@@ -11296,13 +11299,13 @@
                   <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1214053.74</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1050374.91</c:v>
+                  <c:v>999630.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11709,7 +11712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3648"/>
+  <dimension ref="A1:K3649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40913,16 +40916,6 @@
       <c r="B3646">
         <v>1204023.27</v>
       </c>
-      <c r="D3646" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3646" s="3"/>
-      <c r="F3646" s="3"/>
-      <c r="G3646" s="3"/>
-      <c r="H3646" s="3"/>
-      <c r="I3646" s="3"/>
-      <c r="J3646" s="3"/>
-      <c r="K3646" s="3"/>
     </row>
     <row r="3647" spans="1:11">
       <c r="A3647" t="s">
@@ -40931,16 +40924,16 @@
       <c r="B3647">
         <v>1214053.74</v>
       </c>
-      <c r="D3647" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3647" s="4"/>
-      <c r="F3647" s="4"/>
-      <c r="G3647" s="4"/>
-      <c r="H3647" s="4"/>
-      <c r="I3647" s="4"/>
-      <c r="J3647" s="4"/>
-      <c r="K3647" s="4"/>
+      <c r="D3647" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3647" s="3"/>
+      <c r="F3647" s="3"/>
+      <c r="G3647" s="3"/>
+      <c r="H3647" s="3"/>
+      <c r="I3647" s="3"/>
+      <c r="J3647" s="3"/>
+      <c r="K3647" s="3"/>
     </row>
     <row r="3648" spans="1:11">
       <c r="A3648" t="s">
@@ -40949,7 +40942,9 @@
       <c r="B3648">
         <v>1050374.91</v>
       </c>
-      <c r="D3648" s="4"/>
+      <c r="D3648" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3648" s="4"/>
       <c r="F3648" s="4"/>
       <c r="G3648" s="4"/>
@@ -40958,12 +40953,28 @@
       <c r="J3648" s="4"/>
       <c r="K3648" s="4"/>
     </row>
+    <row r="3649" spans="1:11">
+      <c r="A3649" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B3649">
+        <v>999630.72</v>
+      </c>
+      <c r="D3649" s="4"/>
+      <c r="E3649" s="4"/>
+      <c r="F3649" s="4"/>
+      <c r="G3649" s="4"/>
+      <c r="H3649" s="4"/>
+      <c r="I3649" s="4"/>
+      <c r="J3649" s="4"/>
+      <c r="K3649" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3646:K3646"/>
-    <mergeCell ref="D3647:K3648"/>
+    <mergeCell ref="D3647:K3647"/>
+    <mergeCell ref="D3648:K3649"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="3653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="3654">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10973,6 +10973,9 @@
   </si>
   <si>
     <t>12-1-2020</t>
+  </si>
+  <si>
+    <t>12-2-2020</t>
   </si>
 </sst>
 </file>
@@ -11109,122 +11112,122 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3619:$A$3649</c:f>
+              <c:f>DolarToday!$A$3620:$A$3650</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11-1-2020</c:v>
+                  <c:v>11-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-2-2020</c:v>
+                  <c:v>11-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-3-2020</c:v>
+                  <c:v>11-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11-4-2020</c:v>
+                  <c:v>11-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-5-2020</c:v>
+                  <c:v>11-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11-6-2020</c:v>
+                  <c:v>11-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11-7-2020</c:v>
+                  <c:v>11-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11-8-2020</c:v>
+                  <c:v>11-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11-9-2020</c:v>
+                  <c:v>11-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-10-2020</c:v>
+                  <c:v>11-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11-11-2020</c:v>
+                  <c:v>11-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11-12-2020</c:v>
+                  <c:v>11-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11-13-2020</c:v>
+                  <c:v>11-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11-14-2020</c:v>
+                  <c:v>11-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11-15-2020</c:v>
+                  <c:v>11-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11-16-2020</c:v>
+                  <c:v>11-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11-17-2020</c:v>
+                  <c:v>11-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11-18-2020</c:v>
+                  <c:v>11-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-19-2020</c:v>
+                  <c:v>11-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11-20-2020</c:v>
+                  <c:v>11-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11-21-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11-23-2020</c:v>
+                  <c:v>11-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11-24-2020</c:v>
+                  <c:v>11-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11-25-2020</c:v>
+                  <c:v>11-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11-26-2020</c:v>
+                  <c:v>11-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11-27-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12-1-2020</c:v>
+                  <c:v>12-2-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3619:$B$3649</c:f>
+              <c:f>DolarToday!$B$3620:$B$3650</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>535692.1</c:v>
+                  <c:v>524031.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>524031.03</c:v>
+                  <c:v>530472.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>530472.95</c:v>
+                  <c:v>537859.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537859.05</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>540023.64</c:v>
@@ -11233,19 +11236,19 @@
                   <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>540023.64</c:v>
+                  <c:v>344602.42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>344602.42</c:v>
+                  <c:v>564932.23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>564932.23</c:v>
+                  <c:v>590142.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>590142.53</c:v>
+                  <c:v>661043.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>661043.72</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>690021.4</c:v>
@@ -11254,19 +11257,19 @@
                   <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>690021.4</c:v>
+                  <c:v>685272.38</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>685272.38</c:v>
+                  <c:v>682634.16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>682634.16</c:v>
+                  <c:v>684903.72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>684903.72</c:v>
+                  <c:v>725087.87</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>725087.87</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>820186.43</c:v>
@@ -11275,19 +11278,19 @@
                   <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>820186.43</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>950259.63</c:v>
+                  <c:v>1010242.78</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1010242.78</c:v>
+                  <c:v>975013.78</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>975013.78</c:v>
+                  <c:v>1030705.11</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1030705.11</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1204023.27</c:v>
@@ -11296,16 +11299,16 @@
                   <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1214053.74</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1050374.91</c:v>
+                  <c:v>999630.72</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>999630.72</c:v>
+                  <c:v>1025065.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11712,7 +11715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3649"/>
+  <dimension ref="A1:K3650"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40924,16 +40927,6 @@
       <c r="B3647">
         <v>1214053.74</v>
       </c>
-      <c r="D3647" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3647" s="3"/>
-      <c r="F3647" s="3"/>
-      <c r="G3647" s="3"/>
-      <c r="H3647" s="3"/>
-      <c r="I3647" s="3"/>
-      <c r="J3647" s="3"/>
-      <c r="K3647" s="3"/>
     </row>
     <row r="3648" spans="1:11">
       <c r="A3648" t="s">
@@ -40942,16 +40935,16 @@
       <c r="B3648">
         <v>1050374.91</v>
       </c>
-      <c r="D3648" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3648" s="4"/>
-      <c r="F3648" s="4"/>
-      <c r="G3648" s="4"/>
-      <c r="H3648" s="4"/>
-      <c r="I3648" s="4"/>
-      <c r="J3648" s="4"/>
-      <c r="K3648" s="4"/>
+      <c r="D3648" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3648" s="3"/>
+      <c r="F3648" s="3"/>
+      <c r="G3648" s="3"/>
+      <c r="H3648" s="3"/>
+      <c r="I3648" s="3"/>
+      <c r="J3648" s="3"/>
+      <c r="K3648" s="3"/>
     </row>
     <row r="3649" spans="1:11">
       <c r="A3649" t="s">
@@ -40960,7 +40953,9 @@
       <c r="B3649">
         <v>999630.72</v>
       </c>
-      <c r="D3649" s="4"/>
+      <c r="D3649" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3649" s="4"/>
       <c r="F3649" s="4"/>
       <c r="G3649" s="4"/>
@@ -40969,12 +40964,28 @@
       <c r="J3649" s="4"/>
       <c r="K3649" s="4"/>
     </row>
+    <row r="3650" spans="1:11">
+      <c r="A3650" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B3650">
+        <v>1025065.82</v>
+      </c>
+      <c r="D3650" s="4"/>
+      <c r="E3650" s="4"/>
+      <c r="F3650" s="4"/>
+      <c r="G3650" s="4"/>
+      <c r="H3650" s="4"/>
+      <c r="I3650" s="4"/>
+      <c r="J3650" s="4"/>
+      <c r="K3650" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3647:K3647"/>
-    <mergeCell ref="D3648:K3649"/>
+    <mergeCell ref="D3648:K3648"/>
+    <mergeCell ref="D3649:K3650"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="3654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="3658">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10976,6 +10976,18 @@
   </si>
   <si>
     <t>12-2-2020</t>
+  </si>
+  <si>
+    <t>12-3-2020</t>
+  </si>
+  <si>
+    <t>12-4-2020</t>
+  </si>
+  <si>
+    <t>12-5-2020</t>
+  </si>
+  <si>
+    <t>12-6-2020</t>
   </si>
 </sst>
 </file>
@@ -11112,203 +11124,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3620:$A$3650</c:f>
+              <c:f>DolarToday!$A$3624:$A$3654</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11-2-2020</c:v>
+                  <c:v>11-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-3-2020</c:v>
+                  <c:v>11-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-4-2020</c:v>
+                  <c:v>11-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11-5-2020</c:v>
+                  <c:v>11-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-6-2020</c:v>
+                  <c:v>11-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11-7-2020</c:v>
+                  <c:v>11-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11-8-2020</c:v>
+                  <c:v>11-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11-9-2020</c:v>
+                  <c:v>11-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11-10-2020</c:v>
+                  <c:v>11-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-11-2020</c:v>
+                  <c:v>11-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11-12-2020</c:v>
+                  <c:v>11-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11-13-2020</c:v>
+                  <c:v>11-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11-14-2020</c:v>
+                  <c:v>11-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11-15-2020</c:v>
+                  <c:v>11-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11-16-2020</c:v>
+                  <c:v>11-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11-17-2020</c:v>
+                  <c:v>11-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11-18-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11-19-2020</c:v>
+                  <c:v>11-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-20-2020</c:v>
+                  <c:v>11-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11-21-2020</c:v>
+                  <c:v>11-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11-23-2020</c:v>
+                  <c:v>11-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11-24-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11-25-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11-26-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11-27-2020</c:v>
+                  <c:v>12-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>12-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>12-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12-1-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12-2-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3620:$B$3650</c:f>
+              <c:f>DolarToday!$B$3624:$B$3654</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>524031.03</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>530472.95</c:v>
+                  <c:v>540023.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>537859.05</c:v>
+                  <c:v>344602.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>540023.64</c:v>
+                  <c:v>564932.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>540023.64</c:v>
+                  <c:v>590142.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>540023.64</c:v>
+                  <c:v>661043.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>344602.42</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>564932.23</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>590142.53</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>661043.72</c:v>
+                  <c:v>685272.38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>690021.4</c:v>
+                  <c:v>682634.16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>690021.4</c:v>
+                  <c:v>684903.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>690021.4</c:v>
+                  <c:v>725087.87</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>685272.38</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>682634.16</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>684903.72</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>725087.87</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>820186.43</c:v>
+                  <c:v>1010242.78</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>820186.43</c:v>
+                  <c:v>975013.78</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>820186.43</c:v>
+                  <c:v>1030705.11</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>950259.63</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1010242.78</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>975013.78</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1030705.11</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1204023.27</c:v>
+                  <c:v>999630.72</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1025065.82</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1214053.74</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1050374.91</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>999630.72</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1025065.82</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11715,7 +11727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3650"/>
+  <dimension ref="A1:K3654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40808,7 +40820,7 @@
         <v>690021.4</v>
       </c>
     </row>
-    <row r="3633" spans="1:11">
+    <row r="3633" spans="1:2">
       <c r="A3633" t="s">
         <v>3636</v>
       </c>
@@ -40816,7 +40828,7 @@
         <v>685272.38</v>
       </c>
     </row>
-    <row r="3634" spans="1:11">
+    <row r="3634" spans="1:2">
       <c r="A3634" t="s">
         <v>3637</v>
       </c>
@@ -40824,7 +40836,7 @@
         <v>682634.16</v>
       </c>
     </row>
-    <row r="3635" spans="1:11">
+    <row r="3635" spans="1:2">
       <c r="A3635" t="s">
         <v>3638</v>
       </c>
@@ -40832,7 +40844,7 @@
         <v>684903.72</v>
       </c>
     </row>
-    <row r="3636" spans="1:11">
+    <row r="3636" spans="1:2">
       <c r="A3636" t="s">
         <v>3639</v>
       </c>
@@ -40840,7 +40852,7 @@
         <v>725087.87</v>
       </c>
     </row>
-    <row r="3637" spans="1:11">
+    <row r="3637" spans="1:2">
       <c r="A3637" t="s">
         <v>3640</v>
       </c>
@@ -40848,7 +40860,7 @@
         <v>820186.43</v>
       </c>
     </row>
-    <row r="3638" spans="1:11">
+    <row r="3638" spans="1:2">
       <c r="A3638" t="s">
         <v>3641</v>
       </c>
@@ -40856,7 +40868,7 @@
         <v>820186.43</v>
       </c>
     </row>
-    <row r="3639" spans="1:11">
+    <row r="3639" spans="1:2">
       <c r="A3639" t="s">
         <v>3642</v>
       </c>
@@ -40864,7 +40876,7 @@
         <v>820186.43</v>
       </c>
     </row>
-    <row r="3640" spans="1:11">
+    <row r="3640" spans="1:2">
       <c r="A3640" t="s">
         <v>3643</v>
       </c>
@@ -40872,7 +40884,7 @@
         <v>950259.63</v>
       </c>
     </row>
-    <row r="3641" spans="1:11">
+    <row r="3641" spans="1:2">
       <c r="A3641" t="s">
         <v>3644</v>
       </c>
@@ -40880,7 +40892,7 @@
         <v>1010242.78</v>
       </c>
     </row>
-    <row r="3642" spans="1:11">
+    <row r="3642" spans="1:2">
       <c r="A3642" t="s">
         <v>3645</v>
       </c>
@@ -40888,7 +40900,7 @@
         <v>975013.78</v>
       </c>
     </row>
-    <row r="3643" spans="1:11">
+    <row r="3643" spans="1:2">
       <c r="A3643" t="s">
         <v>3646</v>
       </c>
@@ -40896,7 +40908,7 @@
         <v>1030705.11</v>
       </c>
     </row>
-    <row r="3644" spans="1:11">
+    <row r="3644" spans="1:2">
       <c r="A3644" t="s">
         <v>3647</v>
       </c>
@@ -40904,7 +40916,7 @@
         <v>1204023.27</v>
       </c>
     </row>
-    <row r="3645" spans="1:11">
+    <row r="3645" spans="1:2">
       <c r="A3645" t="s">
         <v>3648</v>
       </c>
@@ -40912,7 +40924,7 @@
         <v>1204023.27</v>
       </c>
     </row>
-    <row r="3646" spans="1:11">
+    <row r="3646" spans="1:2">
       <c r="A3646" t="s">
         <v>3649</v>
       </c>
@@ -40920,7 +40932,7 @@
         <v>1204023.27</v>
       </c>
     </row>
-    <row r="3647" spans="1:11">
+    <row r="3647" spans="1:2">
       <c r="A3647" t="s">
         <v>3650</v>
       </c>
@@ -40928,23 +40940,13 @@
         <v>1214053.74</v>
       </c>
     </row>
-    <row r="3648" spans="1:11">
+    <row r="3648" spans="1:2">
       <c r="A3648" t="s">
         <v>3651</v>
       </c>
       <c r="B3648">
         <v>1050374.91</v>
       </c>
-      <c r="D3648" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3648" s="3"/>
-      <c r="F3648" s="3"/>
-      <c r="G3648" s="3"/>
-      <c r="H3648" s="3"/>
-      <c r="I3648" s="3"/>
-      <c r="J3648" s="3"/>
-      <c r="K3648" s="3"/>
     </row>
     <row r="3649" spans="1:11">
       <c r="A3649" t="s">
@@ -40953,16 +40955,6 @@
       <c r="B3649">
         <v>999630.72</v>
       </c>
-      <c r="D3649" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3649" s="4"/>
-      <c r="F3649" s="4"/>
-      <c r="G3649" s="4"/>
-      <c r="H3649" s="4"/>
-      <c r="I3649" s="4"/>
-      <c r="J3649" s="4"/>
-      <c r="K3649" s="4"/>
     </row>
     <row r="3650" spans="1:11">
       <c r="A3650" t="s">
@@ -40971,21 +40963,73 @@
       <c r="B3650">
         <v>1025065.82</v>
       </c>
-      <c r="D3650" s="4"/>
-      <c r="E3650" s="4"/>
-      <c r="F3650" s="4"/>
-      <c r="G3650" s="4"/>
-      <c r="H3650" s="4"/>
-      <c r="I3650" s="4"/>
-      <c r="J3650" s="4"/>
-      <c r="K3650" s="4"/>
+    </row>
+    <row r="3651" spans="1:11">
+      <c r="A3651" t="s">
+        <v>3654</v>
+      </c>
+      <c r="B3651">
+        <v>1305293.44</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:11">
+      <c r="A3652" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B3652">
+        <v>1305293.44</v>
+      </c>
+      <c r="D3652" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3652" s="3"/>
+      <c r="F3652" s="3"/>
+      <c r="G3652" s="3"/>
+      <c r="H3652" s="3"/>
+      <c r="I3652" s="3"/>
+      <c r="J3652" s="3"/>
+      <c r="K3652" s="3"/>
+    </row>
+    <row r="3653" spans="1:11">
+      <c r="A3653" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B3653">
+        <v>1305293.44</v>
+      </c>
+      <c r="D3653" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3653" s="4"/>
+      <c r="F3653" s="4"/>
+      <c r="G3653" s="4"/>
+      <c r="H3653" s="4"/>
+      <c r="I3653" s="4"/>
+      <c r="J3653" s="4"/>
+      <c r="K3653" s="4"/>
+    </row>
+    <row r="3654" spans="1:11">
+      <c r="A3654" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B3654">
+        <v>1163053.07</v>
+      </c>
+      <c r="D3654" s="4"/>
+      <c r="E3654" s="4"/>
+      <c r="F3654" s="4"/>
+      <c r="G3654" s="4"/>
+      <c r="H3654" s="4"/>
+      <c r="I3654" s="4"/>
+      <c r="J3654" s="4"/>
+      <c r="K3654" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3648:K3648"/>
-    <mergeCell ref="D3649:K3650"/>
+    <mergeCell ref="D3652:K3652"/>
+    <mergeCell ref="D3653:K3654"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="3658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3662" uniqueCount="3660">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10988,6 +10988,12 @@
   </si>
   <si>
     <t>12-6-2020</t>
+  </si>
+  <si>
+    <t>12-7-2020</t>
+  </si>
+  <si>
+    <t>12-8-2020</t>
   </si>
 </sst>
 </file>
@@ -11124,203 +11130,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3624:$A$3654</c:f>
+              <c:f>DolarToday!$A$3626:$A$3656</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11-6-2020</c:v>
+                  <c:v>11-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-7-2020</c:v>
+                  <c:v>11-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-8-2020</c:v>
+                  <c:v>11-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11-9-2020</c:v>
+                  <c:v>11-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-10-2020</c:v>
+                  <c:v>11-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11-11-2020</c:v>
+                  <c:v>11-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11-12-2020</c:v>
+                  <c:v>11-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11-13-2020</c:v>
+                  <c:v>11-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11-14-2020</c:v>
+                  <c:v>11-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-15-2020</c:v>
+                  <c:v>11-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11-16-2020</c:v>
+                  <c:v>11-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11-17-2020</c:v>
+                  <c:v>11-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11-18-2020</c:v>
+                  <c:v>11-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11-19-2020</c:v>
+                  <c:v>11-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11-20-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11-21-2020</c:v>
+                  <c:v>11-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11-23-2020</c:v>
+                  <c:v>11-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-24-2020</c:v>
+                  <c:v>11-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11-25-2020</c:v>
+                  <c:v>11-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11-26-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11-27-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>12-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-1-2020</c:v>
+                  <c:v>12-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-2-2020</c:v>
+                  <c:v>12-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12-3-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12-4-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3624:$B$3654</c:f>
+              <c:f>DolarToday!$B$3626:$B$3656</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>540023.64</c:v>
+                  <c:v>344602.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>540023.64</c:v>
+                  <c:v>564932.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>344602.42</c:v>
+                  <c:v>590142.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>564932.23</c:v>
+                  <c:v>661043.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>590142.53</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>661043.72</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>690021.4</c:v>
+                  <c:v>685272.38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>690021.4</c:v>
+                  <c:v>682634.16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>685272.38</c:v>
+                  <c:v>684903.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>682634.16</c:v>
+                  <c:v>725087.87</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>684903.72</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>725087.87</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>820186.43</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>820186.43</c:v>
+                  <c:v>1010242.78</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>950259.63</c:v>
+                  <c:v>975013.78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1010242.78</c:v>
+                  <c:v>1030705.11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>975013.78</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1030705.11</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1214053.74</c:v>
+                  <c:v>999630.72</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1050374.91</c:v>
+                  <c:v>1025065.82</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>999630.72</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1025065.82</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11727,7 +11733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3654"/>
+  <dimension ref="A1:K3656"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40979,16 +40985,6 @@
       <c r="B3652">
         <v>1305293.44</v>
       </c>
-      <c r="D3652" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3652" s="3"/>
-      <c r="F3652" s="3"/>
-      <c r="G3652" s="3"/>
-      <c r="H3652" s="3"/>
-      <c r="I3652" s="3"/>
-      <c r="J3652" s="3"/>
-      <c r="K3652" s="3"/>
     </row>
     <row r="3653" spans="1:11">
       <c r="A3653" t="s">
@@ -40997,16 +40993,6 @@
       <c r="B3653">
         <v>1305293.44</v>
       </c>
-      <c r="D3653" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3653" s="4"/>
-      <c r="F3653" s="4"/>
-      <c r="G3653" s="4"/>
-      <c r="H3653" s="4"/>
-      <c r="I3653" s="4"/>
-      <c r="J3653" s="4"/>
-      <c r="K3653" s="4"/>
     </row>
     <row r="3654" spans="1:11">
       <c r="A3654" t="s">
@@ -41015,21 +41001,57 @@
       <c r="B3654">
         <v>1163053.07</v>
       </c>
-      <c r="D3654" s="4"/>
-      <c r="E3654" s="4"/>
-      <c r="F3654" s="4"/>
-      <c r="G3654" s="4"/>
-      <c r="H3654" s="4"/>
-      <c r="I3654" s="4"/>
-      <c r="J3654" s="4"/>
-      <c r="K3654" s="4"/>
+      <c r="D3654" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3654" s="3"/>
+      <c r="F3654" s="3"/>
+      <c r="G3654" s="3"/>
+      <c r="H3654" s="3"/>
+      <c r="I3654" s="3"/>
+      <c r="J3654" s="3"/>
+      <c r="K3654" s="3"/>
+    </row>
+    <row r="3655" spans="1:11">
+      <c r="A3655" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B3655">
+        <v>1094023.92</v>
+      </c>
+      <c r="D3655" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3655" s="4"/>
+      <c r="F3655" s="4"/>
+      <c r="G3655" s="4"/>
+      <c r="H3655" s="4"/>
+      <c r="I3655" s="4"/>
+      <c r="J3655" s="4"/>
+      <c r="K3655" s="4"/>
+    </row>
+    <row r="3656" spans="1:11">
+      <c r="A3656" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B3656">
+        <v>1100032.3</v>
+      </c>
+      <c r="D3656" s="4"/>
+      <c r="E3656" s="4"/>
+      <c r="F3656" s="4"/>
+      <c r="G3656" s="4"/>
+      <c r="H3656" s="4"/>
+      <c r="I3656" s="4"/>
+      <c r="J3656" s="4"/>
+      <c r="K3656" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3652:K3652"/>
-    <mergeCell ref="D3653:K3654"/>
+    <mergeCell ref="D3654:K3654"/>
+    <mergeCell ref="D3655:K3656"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3662" uniqueCount="3660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="3661">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10994,6 +10994,9 @@
   </si>
   <si>
     <t>12-8-2020</t>
+  </si>
+  <si>
+    <t>12-9-2020</t>
   </si>
 </sst>
 </file>
@@ -11130,122 +11133,122 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3626:$A$3656</c:f>
+              <c:f>DolarToday!$A$3627:$A$3657</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11-8-2020</c:v>
+                  <c:v>11-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-9-2020</c:v>
+                  <c:v>11-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-10-2020</c:v>
+                  <c:v>11-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11-11-2020</c:v>
+                  <c:v>11-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-12-2020</c:v>
+                  <c:v>11-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11-13-2020</c:v>
+                  <c:v>11-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11-14-2020</c:v>
+                  <c:v>11-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11-15-2020</c:v>
+                  <c:v>11-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11-16-2020</c:v>
+                  <c:v>11-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-17-2020</c:v>
+                  <c:v>11-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11-18-2020</c:v>
+                  <c:v>11-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11-19-2020</c:v>
+                  <c:v>11-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11-20-2020</c:v>
+                  <c:v>11-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11-21-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11-23-2020</c:v>
+                  <c:v>11-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11-24-2020</c:v>
+                  <c:v>11-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11-25-2020</c:v>
+                  <c:v>11-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-26-2020</c:v>
+                  <c:v>11-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11-27-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-1-2020</c:v>
+                  <c:v>12-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-2-2020</c:v>
+                  <c:v>12-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-3-2020</c:v>
+                  <c:v>12-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-4-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-9-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3626:$B$3656</c:f>
+              <c:f>DolarToday!$B$3627:$B$3657</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>344602.42</c:v>
+                  <c:v>564932.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>564932.23</c:v>
+                  <c:v>590142.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>590142.53</c:v>
+                  <c:v>661043.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>661043.72</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>690021.4</c:v>
@@ -11254,19 +11257,19 @@
                   <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>690021.4</c:v>
+                  <c:v>685272.38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>685272.38</c:v>
+                  <c:v>682634.16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>682634.16</c:v>
+                  <c:v>684903.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>684903.72</c:v>
+                  <c:v>725087.87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>725087.87</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>820186.43</c:v>
@@ -11275,19 +11278,19 @@
                   <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>820186.43</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>950259.63</c:v>
+                  <c:v>1010242.78</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1010242.78</c:v>
+                  <c:v>975013.78</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>975013.78</c:v>
+                  <c:v>1030705.11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1030705.11</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1204023.27</c:v>
@@ -11296,19 +11299,19 @@
                   <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1214053.74</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1050374.91</c:v>
+                  <c:v>999630.72</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>999630.72</c:v>
+                  <c:v>1025065.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1025065.82</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1305293.44</c:v>
@@ -11317,16 +11320,16 @@
                   <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1180127.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11733,7 +11736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3656"/>
+  <dimension ref="A1:K3657"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41001,16 +41004,6 @@
       <c r="B3654">
         <v>1163053.07</v>
       </c>
-      <c r="D3654" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3654" s="3"/>
-      <c r="F3654" s="3"/>
-      <c r="G3654" s="3"/>
-      <c r="H3654" s="3"/>
-      <c r="I3654" s="3"/>
-      <c r="J3654" s="3"/>
-      <c r="K3654" s="3"/>
     </row>
     <row r="3655" spans="1:11">
       <c r="A3655" t="s">
@@ -41019,16 +41012,16 @@
       <c r="B3655">
         <v>1094023.92</v>
       </c>
-      <c r="D3655" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3655" s="4"/>
-      <c r="F3655" s="4"/>
-      <c r="G3655" s="4"/>
-      <c r="H3655" s="4"/>
-      <c r="I3655" s="4"/>
-      <c r="J3655" s="4"/>
-      <c r="K3655" s="4"/>
+      <c r="D3655" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3655" s="3"/>
+      <c r="F3655" s="3"/>
+      <c r="G3655" s="3"/>
+      <c r="H3655" s="3"/>
+      <c r="I3655" s="3"/>
+      <c r="J3655" s="3"/>
+      <c r="K3655" s="3"/>
     </row>
     <row r="3656" spans="1:11">
       <c r="A3656" t="s">
@@ -41037,7 +41030,9 @@
       <c r="B3656">
         <v>1100032.3</v>
       </c>
-      <c r="D3656" s="4"/>
+      <c r="D3656" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3656" s="4"/>
       <c r="F3656" s="4"/>
       <c r="G3656" s="4"/>
@@ -41046,12 +41041,28 @@
       <c r="J3656" s="4"/>
       <c r="K3656" s="4"/>
     </row>
+    <row r="3657" spans="1:11">
+      <c r="A3657" t="s">
+        <v>3660</v>
+      </c>
+      <c r="B3657">
+        <v>1180127.63</v>
+      </c>
+      <c r="D3657" s="4"/>
+      <c r="E3657" s="4"/>
+      <c r="F3657" s="4"/>
+      <c r="G3657" s="4"/>
+      <c r="H3657" s="4"/>
+      <c r="I3657" s="4"/>
+      <c r="J3657" s="4"/>
+      <c r="K3657" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3654:K3654"/>
-    <mergeCell ref="D3655:K3656"/>
+    <mergeCell ref="D3655:K3655"/>
+    <mergeCell ref="D3656:K3657"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="3661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3668" uniqueCount="3666">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -10997,6 +10997,21 @@
   </si>
   <si>
     <t>12-9-2020</t>
+  </si>
+  <si>
+    <t>12-10-2020</t>
+  </si>
+  <si>
+    <t>12-11-2020</t>
+  </si>
+  <si>
+    <t>12-12-2020</t>
+  </si>
+  <si>
+    <t>12-13-2020</t>
+  </si>
+  <si>
+    <t>12-14-2020</t>
   </si>
 </sst>
 </file>
@@ -11133,203 +11148,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3627:$A$3657</c:f>
+              <c:f>DolarToday!$A$3632:$A$3662</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11-9-2020</c:v>
+                  <c:v>11-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-10-2020</c:v>
+                  <c:v>11-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-11-2020</c:v>
+                  <c:v>11-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11-12-2020</c:v>
+                  <c:v>11-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-13-2020</c:v>
+                  <c:v>11-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11-14-2020</c:v>
+                  <c:v>11-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11-15-2020</c:v>
+                  <c:v>11-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11-16-2020</c:v>
+                  <c:v>11-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11-17-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-18-2020</c:v>
+                  <c:v>11-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11-19-2020</c:v>
+                  <c:v>11-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11-20-2020</c:v>
+                  <c:v>11-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11-21-2020</c:v>
+                  <c:v>11-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11-23-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11-24-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11-25-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11-26-2020</c:v>
+                  <c:v>12-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-27-2020</c:v>
+                  <c:v>12-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>12-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>12-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12-1-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-2-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-3-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-4-2020</c:v>
+                  <c:v>12-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12-9-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3627:$B$3657</c:f>
+              <c:f>DolarToday!$B$3632:$B$3662</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>564932.23</c:v>
+                  <c:v>690021.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>590142.53</c:v>
+                  <c:v>685272.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>661043.72</c:v>
+                  <c:v>682634.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>690021.4</c:v>
+                  <c:v>684903.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>690021.4</c:v>
+                  <c:v>725087.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>690021.4</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>685272.38</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>682634.16</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>684903.72</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>725087.87</c:v>
+                  <c:v>1010242.78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>820186.43</c:v>
+                  <c:v>975013.78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>820186.43</c:v>
+                  <c:v>1030705.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>820186.43</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>950259.63</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1010242.78</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>975013.78</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1030705.11</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1204023.27</c:v>
+                  <c:v>999630.72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1025065.82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1214053.74</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1050374.91</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>999630.72</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1025065.82</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1180127.63</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1180127.63</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11736,7 +11751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3657"/>
+  <dimension ref="A1:K3662"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41012,16 +41027,6 @@
       <c r="B3655">
         <v>1094023.92</v>
       </c>
-      <c r="D3655" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3655" s="3"/>
-      <c r="F3655" s="3"/>
-      <c r="G3655" s="3"/>
-      <c r="H3655" s="3"/>
-      <c r="I3655" s="3"/>
-      <c r="J3655" s="3"/>
-      <c r="K3655" s="3"/>
     </row>
     <row r="3656" spans="1:11">
       <c r="A3656" t="s">
@@ -41030,16 +41035,6 @@
       <c r="B3656">
         <v>1100032.3</v>
       </c>
-      <c r="D3656" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3656" s="4"/>
-      <c r="F3656" s="4"/>
-      <c r="G3656" s="4"/>
-      <c r="H3656" s="4"/>
-      <c r="I3656" s="4"/>
-      <c r="J3656" s="4"/>
-      <c r="K3656" s="4"/>
     </row>
     <row r="3657" spans="1:11">
       <c r="A3657" t="s">
@@ -41048,21 +41043,81 @@
       <c r="B3657">
         <v>1180127.63</v>
       </c>
-      <c r="D3657" s="4"/>
-      <c r="E3657" s="4"/>
-      <c r="F3657" s="4"/>
-      <c r="G3657" s="4"/>
-      <c r="H3657" s="4"/>
-      <c r="I3657" s="4"/>
-      <c r="J3657" s="4"/>
-      <c r="K3657" s="4"/>
+    </row>
+    <row r="3658" spans="1:11">
+      <c r="A3658" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B3658">
+        <v>1135074.29</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:11">
+      <c r="A3659" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B3659">
+        <v>1135074.29</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:11">
+      <c r="A3660" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B3660">
+        <v>1135074.29</v>
+      </c>
+      <c r="D3660" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3660" s="3"/>
+      <c r="F3660" s="3"/>
+      <c r="G3660" s="3"/>
+      <c r="H3660" s="3"/>
+      <c r="I3660" s="3"/>
+      <c r="J3660" s="3"/>
+      <c r="K3660" s="3"/>
+    </row>
+    <row r="3661" spans="1:11">
+      <c r="A3661" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B3661">
+        <v>1150272.95</v>
+      </c>
+      <c r="D3661" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3661" s="4"/>
+      <c r="F3661" s="4"/>
+      <c r="G3661" s="4"/>
+      <c r="H3661" s="4"/>
+      <c r="I3661" s="4"/>
+      <c r="J3661" s="4"/>
+      <c r="K3661" s="4"/>
+    </row>
+    <row r="3662" spans="1:11">
+      <c r="A3662" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B3662">
+        <v>1226312.32</v>
+      </c>
+      <c r="D3662" s="4"/>
+      <c r="E3662" s="4"/>
+      <c r="F3662" s="4"/>
+      <c r="G3662" s="4"/>
+      <c r="H3662" s="4"/>
+      <c r="I3662" s="4"/>
+      <c r="J3662" s="4"/>
+      <c r="K3662" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3655:K3655"/>
-    <mergeCell ref="D3656:K3657"/>
+    <mergeCell ref="D3660:K3660"/>
+    <mergeCell ref="D3661:K3662"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3668" uniqueCount="3666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3669" uniqueCount="3667">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11012,6 +11012,9 @@
   </si>
   <si>
     <t>12-14-2020</t>
+  </si>
+  <si>
+    <t>12-15-2020</t>
   </si>
 </sst>
 </file>
@@ -11148,125 +11151,125 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3632:$A$3662</c:f>
+              <c:f>DolarToday!$A$3633:$A$3663</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11-14-2020</c:v>
+                  <c:v>11-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-15-2020</c:v>
+                  <c:v>11-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-16-2020</c:v>
+                  <c:v>11-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11-17-2020</c:v>
+                  <c:v>11-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-18-2020</c:v>
+                  <c:v>11-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11-19-2020</c:v>
+                  <c:v>11-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11-20-2020</c:v>
+                  <c:v>11-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11-21-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-23-2020</c:v>
+                  <c:v>11-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11-24-2020</c:v>
+                  <c:v>11-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11-25-2020</c:v>
+                  <c:v>11-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11-26-2020</c:v>
+                  <c:v>11-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11-27-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-1-2020</c:v>
+                  <c:v>12-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-2-2020</c:v>
+                  <c:v>12-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-3-2020</c:v>
+                  <c:v>12-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12-4-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-9-2020</c:v>
+                  <c:v>12-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-10-2020</c:v>
+                  <c:v>12-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12-11-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-15-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3632:$B$3662</c:f>
+              <c:f>DolarToday!$B$3633:$B$3663</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>690021.4</c:v>
+                  <c:v>685272.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>685272.38</c:v>
+                  <c:v>682634.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>682634.16</c:v>
+                  <c:v>684903.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>684903.72</c:v>
+                  <c:v>725087.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>725087.87</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>820186.43</c:v>
@@ -11275,19 +11278,19 @@
                   <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>820186.43</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>950259.63</c:v>
+                  <c:v>1010242.78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1010242.78</c:v>
+                  <c:v>975013.78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>975013.78</c:v>
+                  <c:v>1030705.11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1030705.11</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1204023.27</c:v>
@@ -11296,19 +11299,19 @@
                   <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1214053.74</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1050374.91</c:v>
+                  <c:v>999630.72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>999630.72</c:v>
+                  <c:v>1025065.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1025065.82</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1305293.44</c:v>
@@ -11317,19 +11320,19 @@
                   <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1180127.63</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1180127.63</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1135074.29</c:v>
@@ -11338,13 +11341,13 @@
                   <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1068031.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11751,7 +11754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3662"/>
+  <dimension ref="A1:K3663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41067,16 +41070,6 @@
       <c r="B3660">
         <v>1135074.29</v>
       </c>
-      <c r="D3660" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3660" s="3"/>
-      <c r="F3660" s="3"/>
-      <c r="G3660" s="3"/>
-      <c r="H3660" s="3"/>
-      <c r="I3660" s="3"/>
-      <c r="J3660" s="3"/>
-      <c r="K3660" s="3"/>
     </row>
     <row r="3661" spans="1:11">
       <c r="A3661" t="s">
@@ -41085,16 +41078,16 @@
       <c r="B3661">
         <v>1150272.95</v>
       </c>
-      <c r="D3661" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3661" s="4"/>
-      <c r="F3661" s="4"/>
-      <c r="G3661" s="4"/>
-      <c r="H3661" s="4"/>
-      <c r="I3661" s="4"/>
-      <c r="J3661" s="4"/>
-      <c r="K3661" s="4"/>
+      <c r="D3661" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3661" s="3"/>
+      <c r="F3661" s="3"/>
+      <c r="G3661" s="3"/>
+      <c r="H3661" s="3"/>
+      <c r="I3661" s="3"/>
+      <c r="J3661" s="3"/>
+      <c r="K3661" s="3"/>
     </row>
     <row r="3662" spans="1:11">
       <c r="A3662" t="s">
@@ -41103,7 +41096,9 @@
       <c r="B3662">
         <v>1226312.32</v>
       </c>
-      <c r="D3662" s="4"/>
+      <c r="D3662" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3662" s="4"/>
       <c r="F3662" s="4"/>
       <c r="G3662" s="4"/>
@@ -41112,12 +41107,28 @@
       <c r="J3662" s="4"/>
       <c r="K3662" s="4"/>
     </row>
+    <row r="3663" spans="1:11">
+      <c r="A3663" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B3663">
+        <v>1068031.82</v>
+      </c>
+      <c r="D3663" s="4"/>
+      <c r="E3663" s="4"/>
+      <c r="F3663" s="4"/>
+      <c r="G3663" s="4"/>
+      <c r="H3663" s="4"/>
+      <c r="I3663" s="4"/>
+      <c r="J3663" s="4"/>
+      <c r="K3663" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3660:K3660"/>
-    <mergeCell ref="D3661:K3662"/>
+    <mergeCell ref="D3661:K3661"/>
+    <mergeCell ref="D3662:K3663"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3669" uniqueCount="3667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="3668">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11015,6 +11015,9 @@
   </si>
   <si>
     <t>12-15-2020</t>
+  </si>
+  <si>
+    <t>12-16-2020</t>
   </si>
 </sst>
 </file>
@@ -11151,122 +11154,122 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3633:$A$3663</c:f>
+              <c:f>DolarToday!$A$3634:$A$3664</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11-15-2020</c:v>
+                  <c:v>11-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-16-2020</c:v>
+                  <c:v>11-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-17-2020</c:v>
+                  <c:v>11-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11-18-2020</c:v>
+                  <c:v>11-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-19-2020</c:v>
+                  <c:v>11-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11-20-2020</c:v>
+                  <c:v>11-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11-21-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11-23-2020</c:v>
+                  <c:v>11-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-24-2020</c:v>
+                  <c:v>11-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11-25-2020</c:v>
+                  <c:v>11-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11-26-2020</c:v>
+                  <c:v>11-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11-27-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12-1-2020</c:v>
+                  <c:v>12-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-2-2020</c:v>
+                  <c:v>12-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-3-2020</c:v>
+                  <c:v>12-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-4-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-9-2020</c:v>
+                  <c:v>12-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-10-2020</c:v>
+                  <c:v>12-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-11-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12-15-2020</c:v>
+                  <c:v>12-16-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3633:$B$3663</c:f>
+              <c:f>DolarToday!$B$3634:$B$3664</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>685272.38</c:v>
+                  <c:v>682634.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>682634.16</c:v>
+                  <c:v>684903.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>684903.72</c:v>
+                  <c:v>725087.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>725087.87</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>820186.43</c:v>
@@ -11275,19 +11278,19 @@
                   <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>820186.43</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>950259.63</c:v>
+                  <c:v>1010242.78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1010242.78</c:v>
+                  <c:v>975013.78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>975013.78</c:v>
+                  <c:v>1030705.11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1030705.11</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1204023.27</c:v>
@@ -11296,19 +11299,19 @@
                   <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1214053.74</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1050374.91</c:v>
+                  <c:v>999630.72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>999630.72</c:v>
+                  <c:v>1025065.82</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1025065.82</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1305293.44</c:v>
@@ -11317,19 +11320,19 @@
                   <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1180127.63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1180127.63</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1135074.29</c:v>
@@ -11338,16 +11341,16 @@
                   <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1068031.82</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1068031.82</c:v>
+                  <c:v>1001858.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11754,7 +11757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3663"/>
+  <dimension ref="A1:K3664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41078,16 +41081,6 @@
       <c r="B3661">
         <v>1150272.95</v>
       </c>
-      <c r="D3661" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3661" s="3"/>
-      <c r="F3661" s="3"/>
-      <c r="G3661" s="3"/>
-      <c r="H3661" s="3"/>
-      <c r="I3661" s="3"/>
-      <c r="J3661" s="3"/>
-      <c r="K3661" s="3"/>
     </row>
     <row r="3662" spans="1:11">
       <c r="A3662" t="s">
@@ -41096,16 +41089,16 @@
       <c r="B3662">
         <v>1226312.32</v>
       </c>
-      <c r="D3662" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3662" s="4"/>
-      <c r="F3662" s="4"/>
-      <c r="G3662" s="4"/>
-      <c r="H3662" s="4"/>
-      <c r="I3662" s="4"/>
-      <c r="J3662" s="4"/>
-      <c r="K3662" s="4"/>
+      <c r="D3662" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3662" s="3"/>
+      <c r="F3662" s="3"/>
+      <c r="G3662" s="3"/>
+      <c r="H3662" s="3"/>
+      <c r="I3662" s="3"/>
+      <c r="J3662" s="3"/>
+      <c r="K3662" s="3"/>
     </row>
     <row r="3663" spans="1:11">
       <c r="A3663" t="s">
@@ -41114,7 +41107,9 @@
       <c r="B3663">
         <v>1068031.82</v>
       </c>
-      <c r="D3663" s="4"/>
+      <c r="D3663" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3663" s="4"/>
       <c r="F3663" s="4"/>
       <c r="G3663" s="4"/>
@@ -41123,12 +41118,28 @@
       <c r="J3663" s="4"/>
       <c r="K3663" s="4"/>
     </row>
+    <row r="3664" spans="1:11">
+      <c r="A3664" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B3664">
+        <v>1001858.84</v>
+      </c>
+      <c r="D3664" s="4"/>
+      <c r="E3664" s="4"/>
+      <c r="F3664" s="4"/>
+      <c r="G3664" s="4"/>
+      <c r="H3664" s="4"/>
+      <c r="I3664" s="4"/>
+      <c r="J3664" s="4"/>
+      <c r="K3664" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3661:K3661"/>
-    <mergeCell ref="D3662:K3663"/>
+    <mergeCell ref="D3662:K3662"/>
+    <mergeCell ref="D3663:K3664"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="3668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="3671">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11018,6 +11018,15 @@
   </si>
   <si>
     <t>12-16-2020</t>
+  </si>
+  <si>
+    <t>12-17-2020</t>
+  </si>
+  <si>
+    <t>12-18-2020</t>
+  </si>
+  <si>
+    <t>12-19-2020</t>
   </si>
 </sst>
 </file>
@@ -11154,203 +11163,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3634:$A$3664</c:f>
+              <c:f>DolarToday!$A$3637:$A$3667</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11-16-2020</c:v>
+                  <c:v>11-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-17-2020</c:v>
+                  <c:v>11-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-18-2020</c:v>
+                  <c:v>11-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11-19-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-20-2020</c:v>
+                  <c:v>11-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11-21-2020</c:v>
+                  <c:v>11-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11-23-2020</c:v>
+                  <c:v>11-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11-24-2020</c:v>
+                  <c:v>11-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-25-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11-26-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11-27-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>12-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>12-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12-1-2020</c:v>
+                  <c:v>12-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12-2-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-3-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-4-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-9-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-10-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-11-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12-15-2020</c:v>
+                  <c:v>12-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12-16-2020</c:v>
+                  <c:v>12-19-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3634:$B$3664</c:f>
+              <c:f>DolarToday!$B$3637:$B$3667</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>682634.16</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>684903.72</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>725087.87</c:v>
+                  <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>820186.43</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>820186.43</c:v>
+                  <c:v>1010242.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>820186.43</c:v>
+                  <c:v>975013.78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>950259.63</c:v>
+                  <c:v>1030705.11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1010242.78</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>975013.78</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1030705.11</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1204023.27</c:v>
+                  <c:v>999630.72</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1214053.74</c:v>
+                  <c:v>1025065.82</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1050374.91</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>999630.72</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1025065.82</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1180127.63</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1180127.63</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1068031.82</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1001858.84</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1068031.82</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1001858.84</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11757,7 +11766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3664"/>
+  <dimension ref="A1:K3667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40978,7 +40987,7 @@
         <v>1050374.91</v>
       </c>
     </row>
-    <row r="3649" spans="1:11">
+    <row r="3649" spans="1:2">
       <c r="A3649" t="s">
         <v>3652</v>
       </c>
@@ -40986,7 +40995,7 @@
         <v>999630.72</v>
       </c>
     </row>
-    <row r="3650" spans="1:11">
+    <row r="3650" spans="1:2">
       <c r="A3650" t="s">
         <v>3653</v>
       </c>
@@ -40994,7 +41003,7 @@
         <v>1025065.82</v>
       </c>
     </row>
-    <row r="3651" spans="1:11">
+    <row r="3651" spans="1:2">
       <c r="A3651" t="s">
         <v>3654</v>
       </c>
@@ -41002,7 +41011,7 @@
         <v>1305293.44</v>
       </c>
     </row>
-    <row r="3652" spans="1:11">
+    <row r="3652" spans="1:2">
       <c r="A3652" t="s">
         <v>3655</v>
       </c>
@@ -41010,7 +41019,7 @@
         <v>1305293.44</v>
       </c>
     </row>
-    <row r="3653" spans="1:11">
+    <row r="3653" spans="1:2">
       <c r="A3653" t="s">
         <v>3656</v>
       </c>
@@ -41018,7 +41027,7 @@
         <v>1305293.44</v>
       </c>
     </row>
-    <row r="3654" spans="1:11">
+    <row r="3654" spans="1:2">
       <c r="A3654" t="s">
         <v>3657</v>
       </c>
@@ -41026,7 +41035,7 @@
         <v>1163053.07</v>
       </c>
     </row>
-    <row r="3655" spans="1:11">
+    <row r="3655" spans="1:2">
       <c r="A3655" t="s">
         <v>3658</v>
       </c>
@@ -41034,7 +41043,7 @@
         <v>1094023.92</v>
       </c>
     </row>
-    <row r="3656" spans="1:11">
+    <row r="3656" spans="1:2">
       <c r="A3656" t="s">
         <v>3659</v>
       </c>
@@ -41042,7 +41051,7 @@
         <v>1100032.3</v>
       </c>
     </row>
-    <row r="3657" spans="1:11">
+    <row r="3657" spans="1:2">
       <c r="A3657" t="s">
         <v>3660</v>
       </c>
@@ -41050,7 +41059,7 @@
         <v>1180127.63</v>
       </c>
     </row>
-    <row r="3658" spans="1:11">
+    <row r="3658" spans="1:2">
       <c r="A3658" t="s">
         <v>3661</v>
       </c>
@@ -41058,7 +41067,7 @@
         <v>1135074.29</v>
       </c>
     </row>
-    <row r="3659" spans="1:11">
+    <row r="3659" spans="1:2">
       <c r="A3659" t="s">
         <v>3662</v>
       </c>
@@ -41066,7 +41075,7 @@
         <v>1135074.29</v>
       </c>
     </row>
-    <row r="3660" spans="1:11">
+    <row r="3660" spans="1:2">
       <c r="A3660" t="s">
         <v>3663</v>
       </c>
@@ -41074,7 +41083,7 @@
         <v>1135074.29</v>
       </c>
     </row>
-    <row r="3661" spans="1:11">
+    <row r="3661" spans="1:2">
       <c r="A3661" t="s">
         <v>3664</v>
       </c>
@@ -41082,64 +41091,88 @@
         <v>1150272.95</v>
       </c>
     </row>
-    <row r="3662" spans="1:11">
+    <row r="3662" spans="1:2">
       <c r="A3662" t="s">
         <v>3665</v>
       </c>
       <c r="B3662">
         <v>1226312.32</v>
       </c>
-      <c r="D3662" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3662" s="3"/>
-      <c r="F3662" s="3"/>
-      <c r="G3662" s="3"/>
-      <c r="H3662" s="3"/>
-      <c r="I3662" s="3"/>
-      <c r="J3662" s="3"/>
-      <c r="K3662" s="3"/>
-    </row>
-    <row r="3663" spans="1:11">
+    </row>
+    <row r="3663" spans="1:2">
       <c r="A3663" t="s">
         <v>3666</v>
       </c>
       <c r="B3663">
         <v>1068031.82</v>
       </c>
-      <c r="D3663" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3663" s="4"/>
-      <c r="F3663" s="4"/>
-      <c r="G3663" s="4"/>
-      <c r="H3663" s="4"/>
-      <c r="I3663" s="4"/>
-      <c r="J3663" s="4"/>
-      <c r="K3663" s="4"/>
-    </row>
-    <row r="3664" spans="1:11">
+    </row>
+    <row r="3664" spans="1:2">
       <c r="A3664" t="s">
         <v>3667</v>
       </c>
       <c r="B3664">
         <v>1001858.84</v>
       </c>
-      <c r="D3664" s="4"/>
-      <c r="E3664" s="4"/>
-      <c r="F3664" s="4"/>
-      <c r="G3664" s="4"/>
-      <c r="H3664" s="4"/>
-      <c r="I3664" s="4"/>
-      <c r="J3664" s="4"/>
-      <c r="K3664" s="4"/>
+    </row>
+    <row r="3665" spans="1:11">
+      <c r="A3665" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B3665">
+        <v>1050833.77</v>
+      </c>
+      <c r="D3665" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3665" s="3"/>
+      <c r="F3665" s="3"/>
+      <c r="G3665" s="3"/>
+      <c r="H3665" s="3"/>
+      <c r="I3665" s="3"/>
+      <c r="J3665" s="3"/>
+      <c r="K3665" s="3"/>
+    </row>
+    <row r="3666" spans="1:11">
+      <c r="A3666" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B3666">
+        <v>1050833.77</v>
+      </c>
+      <c r="D3666" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3666" s="4"/>
+      <c r="F3666" s="4"/>
+      <c r="G3666" s="4"/>
+      <c r="H3666" s="4"/>
+      <c r="I3666" s="4"/>
+      <c r="J3666" s="4"/>
+      <c r="K3666" s="4"/>
+    </row>
+    <row r="3667" spans="1:11">
+      <c r="A3667" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B3667">
+        <v>1050833.77</v>
+      </c>
+      <c r="D3667" s="4"/>
+      <c r="E3667" s="4"/>
+      <c r="F3667" s="4"/>
+      <c r="G3667" s="4"/>
+      <c r="H3667" s="4"/>
+      <c r="I3667" s="4"/>
+      <c r="J3667" s="4"/>
+      <c r="K3667" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3662:K3662"/>
-    <mergeCell ref="D3663:K3664"/>
+    <mergeCell ref="D3665:K3665"/>
+    <mergeCell ref="D3666:K3667"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="3671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="3673">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11027,6 +11027,12 @@
   </si>
   <si>
     <t>12-19-2020</t>
+  </si>
+  <si>
+    <t>12-20-2020</t>
+  </si>
+  <si>
+    <t>12-21-2020</t>
   </si>
 </sst>
 </file>
@@ -11163,108 +11169,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3637:$A$3667</c:f>
+              <c:f>DolarToday!$A$3639:$A$3669</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11-19-2020</c:v>
+                  <c:v>11-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-20-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-21-2020</c:v>
+                  <c:v>11-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-23-2020</c:v>
+                  <c:v>11-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11-24-2020</c:v>
+                  <c:v>11-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11-25-2020</c:v>
+                  <c:v>11-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11-26-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11-27-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>12-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12-1-2020</c:v>
+                  <c:v>12-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12-2-2020</c:v>
+                  <c:v>12-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12-3-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12-4-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12-9-2020</c:v>
+                  <c:v>12-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12-10-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12-11-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-15-2020</c:v>
+                  <c:v>12-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12-16-2020</c:v>
+                  <c:v>12-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12-17-2020</c:v>
+                  <c:v>12-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12-18-2020</c:v>
+                  <c:v>12-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12-19-2020</c:v>
+                  <c:v>12-21-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3637:$B$3667</c:f>
+              <c:f>DolarToday!$B$3639:$B$3669</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11272,94 +11278,94 @@
                   <c:v>820186.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>820186.43</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>820186.43</c:v>
+                  <c:v>1010242.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>950259.63</c:v>
+                  <c:v>975013.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1010242.78</c:v>
+                  <c:v>1030705.11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>975013.78</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1030705.11</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1214053.74</c:v>
+                  <c:v>999630.72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1050374.91</c:v>
+                  <c:v>1025065.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>999630.72</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1025065.82</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1180127.63</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1180127.63</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1068031.82</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1001858.84</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1068031.82</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1001858.84</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1050833.77</c:v>
+                  <c:v>1120744.03</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1050833.77</c:v>
+                  <c:v>1062934.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11766,7 +11772,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3667"/>
+  <dimension ref="A1:K3669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41122,16 +41128,6 @@
       <c r="B3665">
         <v>1050833.77</v>
       </c>
-      <c r="D3665" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3665" s="3"/>
-      <c r="F3665" s="3"/>
-      <c r="G3665" s="3"/>
-      <c r="H3665" s="3"/>
-      <c r="I3665" s="3"/>
-      <c r="J3665" s="3"/>
-      <c r="K3665" s="3"/>
     </row>
     <row r="3666" spans="1:11">
       <c r="A3666" t="s">
@@ -41140,16 +41136,6 @@
       <c r="B3666">
         <v>1050833.77</v>
       </c>
-      <c r="D3666" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3666" s="4"/>
-      <c r="F3666" s="4"/>
-      <c r="G3666" s="4"/>
-      <c r="H3666" s="4"/>
-      <c r="I3666" s="4"/>
-      <c r="J3666" s="4"/>
-      <c r="K3666" s="4"/>
     </row>
     <row r="3667" spans="1:11">
       <c r="A3667" t="s">
@@ -41158,21 +41144,57 @@
       <c r="B3667">
         <v>1050833.77</v>
       </c>
-      <c r="D3667" s="4"/>
-      <c r="E3667" s="4"/>
-      <c r="F3667" s="4"/>
-      <c r="G3667" s="4"/>
-      <c r="H3667" s="4"/>
-      <c r="I3667" s="4"/>
-      <c r="J3667" s="4"/>
-      <c r="K3667" s="4"/>
+      <c r="D3667" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3667" s="3"/>
+      <c r="F3667" s="3"/>
+      <c r="G3667" s="3"/>
+      <c r="H3667" s="3"/>
+      <c r="I3667" s="3"/>
+      <c r="J3667" s="3"/>
+      <c r="K3667" s="3"/>
+    </row>
+    <row r="3668" spans="1:11">
+      <c r="A3668" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B3668">
+        <v>1120744.03</v>
+      </c>
+      <c r="D3668" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3668" s="4"/>
+      <c r="F3668" s="4"/>
+      <c r="G3668" s="4"/>
+      <c r="H3668" s="4"/>
+      <c r="I3668" s="4"/>
+      <c r="J3668" s="4"/>
+      <c r="K3668" s="4"/>
+    </row>
+    <row r="3669" spans="1:11">
+      <c r="A3669" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B3669">
+        <v>1062934.54</v>
+      </c>
+      <c r="D3669" s="4"/>
+      <c r="E3669" s="4"/>
+      <c r="F3669" s="4"/>
+      <c r="G3669" s="4"/>
+      <c r="H3669" s="4"/>
+      <c r="I3669" s="4"/>
+      <c r="J3669" s="4"/>
+      <c r="K3669" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3665:K3665"/>
-    <mergeCell ref="D3666:K3667"/>
+    <mergeCell ref="D3667:K3667"/>
+    <mergeCell ref="D3668:K3669"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="3673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="3674">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11033,6 +11033,9 @@
   </si>
   <si>
     <t>12-21-2020</t>
+  </si>
+  <si>
+    <t>12-22-2020</t>
   </si>
 </sst>
 </file>
@@ -11169,125 +11172,125 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3639:$A$3669</c:f>
+              <c:f>DolarToday!$A$3640:$A$3670</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11-21-2020</c:v>
+                  <c:v>11-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-23-2020</c:v>
+                  <c:v>11-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11-24-2020</c:v>
+                  <c:v>11-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-25-2020</c:v>
+                  <c:v>11-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11-26-2020</c:v>
+                  <c:v>11-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11-27-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-1-2020</c:v>
+                  <c:v>12-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12-2-2020</c:v>
+                  <c:v>12-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12-3-2020</c:v>
+                  <c:v>12-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12-4-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-9-2020</c:v>
+                  <c:v>12-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-10-2020</c:v>
+                  <c:v>12-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12-11-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-15-2020</c:v>
+                  <c:v>12-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-16-2020</c:v>
+                  <c:v>12-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-17-2020</c:v>
+                  <c:v>12-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12-18-2020</c:v>
+                  <c:v>12-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12-19-2020</c:v>
+                  <c:v>12-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12-20-2020</c:v>
+                  <c:v>12-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12-21-2020</c:v>
+                  <c:v>12-22-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3639:$B$3669</c:f>
+              <c:f>DolarToday!$B$3640:$B$3670</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>820186.43</c:v>
+                  <c:v>950259.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>950259.63</c:v>
+                  <c:v>1010242.78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1010242.78</c:v>
+                  <c:v>975013.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>975013.78</c:v>
+                  <c:v>1030705.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1030705.11</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1204023.27</c:v>
@@ -11296,19 +11299,19 @@
                   <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1214053.74</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1050374.91</c:v>
+                  <c:v>999630.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>999630.72</c:v>
+                  <c:v>1025065.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1025065.82</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1305293.44</c:v>
@@ -11317,19 +11320,19 @@
                   <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1180127.63</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1180127.63</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1135074.29</c:v>
@@ -11338,19 +11341,19 @@
                   <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1068031.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1068031.82</c:v>
+                  <c:v>1001858.84</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1001858.84</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1050833.77</c:v>
@@ -11359,13 +11362,13 @@
                   <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1050833.77</c:v>
+                  <c:v>1120744.03</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1120744.03</c:v>
+                  <c:v>1062934.54</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1062934.54</c:v>
+                  <c:v>1000143.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11772,7 +11775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3669"/>
+  <dimension ref="A1:K3670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41144,16 +41147,6 @@
       <c r="B3667">
         <v>1050833.77</v>
       </c>
-      <c r="D3667" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3667" s="3"/>
-      <c r="F3667" s="3"/>
-      <c r="G3667" s="3"/>
-      <c r="H3667" s="3"/>
-      <c r="I3667" s="3"/>
-      <c r="J3667" s="3"/>
-      <c r="K3667" s="3"/>
     </row>
     <row r="3668" spans="1:11">
       <c r="A3668" t="s">
@@ -41162,16 +41155,16 @@
       <c r="B3668">
         <v>1120744.03</v>
       </c>
-      <c r="D3668" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3668" s="4"/>
-      <c r="F3668" s="4"/>
-      <c r="G3668" s="4"/>
-      <c r="H3668" s="4"/>
-      <c r="I3668" s="4"/>
-      <c r="J3668" s="4"/>
-      <c r="K3668" s="4"/>
+      <c r="D3668" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3668" s="3"/>
+      <c r="F3668" s="3"/>
+      <c r="G3668" s="3"/>
+      <c r="H3668" s="3"/>
+      <c r="I3668" s="3"/>
+      <c r="J3668" s="3"/>
+      <c r="K3668" s="3"/>
     </row>
     <row r="3669" spans="1:11">
       <c r="A3669" t="s">
@@ -41180,7 +41173,9 @@
       <c r="B3669">
         <v>1062934.54</v>
       </c>
-      <c r="D3669" s="4"/>
+      <c r="D3669" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3669" s="4"/>
       <c r="F3669" s="4"/>
       <c r="G3669" s="4"/>
@@ -41189,12 +41184,28 @@
       <c r="J3669" s="4"/>
       <c r="K3669" s="4"/>
     </row>
+    <row r="3670" spans="1:11">
+      <c r="A3670" t="s">
+        <v>3673</v>
+      </c>
+      <c r="B3670">
+        <v>1000143.81</v>
+      </c>
+      <c r="D3670" s="4"/>
+      <c r="E3670" s="4"/>
+      <c r="F3670" s="4"/>
+      <c r="G3670" s="4"/>
+      <c r="H3670" s="4"/>
+      <c r="I3670" s="4"/>
+      <c r="J3670" s="4"/>
+      <c r="K3670" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3667:K3667"/>
-    <mergeCell ref="D3668:K3669"/>
+    <mergeCell ref="D3668:K3668"/>
+    <mergeCell ref="D3669:K3670"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="3674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="3678">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11036,6 +11036,18 @@
   </si>
   <si>
     <t>12-22-2020</t>
+  </si>
+  <si>
+    <t>12-23-2020</t>
+  </si>
+  <si>
+    <t>12-24-2020</t>
+  </si>
+  <si>
+    <t>12-25-2020</t>
+  </si>
+  <si>
+    <t>12-26-2020</t>
   </si>
 </sst>
 </file>
@@ -11172,203 +11184,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3640:$A$3670</c:f>
+              <c:f>DolarToday!$A$3644:$A$3674</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11-22-2020</c:v>
+                  <c:v>11-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-23-2020</c:v>
+                  <c:v>11-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-24-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11-25-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-26-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11-27-2020</c:v>
+                  <c:v>12-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>12-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>12-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12-1-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-2-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12-3-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12-4-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-9-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-10-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-11-2020</c:v>
+                  <c:v>12-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-15-2020</c:v>
+                  <c:v>12-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-16-2020</c:v>
+                  <c:v>12-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-17-2020</c:v>
+                  <c:v>12-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-18-2020</c:v>
+                  <c:v>12-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12-19-2020</c:v>
+                  <c:v>12-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12-20-2020</c:v>
+                  <c:v>12-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12-21-2020</c:v>
+                  <c:v>12-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12-22-2020</c:v>
+                  <c:v>12-26-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3640:$B$3670</c:f>
+              <c:f>DolarToday!$B$3644:$B$3674</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>950259.63</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1010242.78</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>975013.78</c:v>
+                  <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1030705.11</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1204023.27</c:v>
+                  <c:v>999630.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1025065.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1214053.74</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1050374.91</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>999630.72</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1025065.82</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1180127.63</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1180127.63</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1068031.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1001858.84</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1068031.82</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1001858.84</c:v>
+                  <c:v>1120744.03</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1050833.77</c:v>
+                  <c:v>1062934.54</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1050833.77</c:v>
+                  <c:v>1000143.81</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1050833.77</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1120744.03</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1062934.54</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1000143.81</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11775,7 +11787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3670"/>
+  <dimension ref="A1:K3674"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41155,16 +41167,6 @@
       <c r="B3668">
         <v>1120744.03</v>
       </c>
-      <c r="D3668" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3668" s="3"/>
-      <c r="F3668" s="3"/>
-      <c r="G3668" s="3"/>
-      <c r="H3668" s="3"/>
-      <c r="I3668" s="3"/>
-      <c r="J3668" s="3"/>
-      <c r="K3668" s="3"/>
     </row>
     <row r="3669" spans="1:11">
       <c r="A3669" t="s">
@@ -41173,16 +41175,6 @@
       <c r="B3669">
         <v>1062934.54</v>
       </c>
-      <c r="D3669" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3669" s="4"/>
-      <c r="F3669" s="4"/>
-      <c r="G3669" s="4"/>
-      <c r="H3669" s="4"/>
-      <c r="I3669" s="4"/>
-      <c r="J3669" s="4"/>
-      <c r="K3669" s="4"/>
     </row>
     <row r="3670" spans="1:11">
       <c r="A3670" t="s">
@@ -41191,21 +41183,73 @@
       <c r="B3670">
         <v>1000143.81</v>
       </c>
-      <c r="D3670" s="4"/>
-      <c r="E3670" s="4"/>
-      <c r="F3670" s="4"/>
-      <c r="G3670" s="4"/>
-      <c r="H3670" s="4"/>
-      <c r="I3670" s="4"/>
-      <c r="J3670" s="4"/>
-      <c r="K3670" s="4"/>
+    </row>
+    <row r="3671" spans="1:11">
+      <c r="A3671" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B3671">
+        <v>980329.71</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:11">
+      <c r="A3672" t="s">
+        <v>3675</v>
+      </c>
+      <c r="B3672">
+        <v>980329.71</v>
+      </c>
+      <c r="D3672" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3672" s="3"/>
+      <c r="F3672" s="3"/>
+      <c r="G3672" s="3"/>
+      <c r="H3672" s="3"/>
+      <c r="I3672" s="3"/>
+      <c r="J3672" s="3"/>
+      <c r="K3672" s="3"/>
+    </row>
+    <row r="3673" spans="1:11">
+      <c r="A3673" t="s">
+        <v>3676</v>
+      </c>
+      <c r="B3673">
+        <v>980329.71</v>
+      </c>
+      <c r="D3673" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3673" s="4"/>
+      <c r="F3673" s="4"/>
+      <c r="G3673" s="4"/>
+      <c r="H3673" s="4"/>
+      <c r="I3673" s="4"/>
+      <c r="J3673" s="4"/>
+      <c r="K3673" s="4"/>
+    </row>
+    <row r="3674" spans="1:11">
+      <c r="A3674" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B3674">
+        <v>980329.71</v>
+      </c>
+      <c r="D3674" s="4"/>
+      <c r="E3674" s="4"/>
+      <c r="F3674" s="4"/>
+      <c r="G3674" s="4"/>
+      <c r="H3674" s="4"/>
+      <c r="I3674" s="4"/>
+      <c r="J3674" s="4"/>
+      <c r="K3674" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3668:K3668"/>
-    <mergeCell ref="D3669:K3670"/>
+    <mergeCell ref="D3672:K3672"/>
+    <mergeCell ref="D3673:K3674"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="3678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="3679">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11048,6 +11048,9 @@
   </si>
   <si>
     <t>12-26-2020</t>
+  </si>
+  <si>
+    <t>12-27-2020</t>
   </si>
 </sst>
 </file>
@@ -11184,108 +11187,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3644:$A$3674</c:f>
+              <c:f>DolarToday!$A$3645:$A$3675</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11-26-2020</c:v>
+                  <c:v>11-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-27-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-1-2020</c:v>
+                  <c:v>12-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12-2-2020</c:v>
+                  <c:v>12-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12-3-2020</c:v>
+                  <c:v>12-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12-4-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12-9-2020</c:v>
+                  <c:v>12-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12-10-2020</c:v>
+                  <c:v>12-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12-11-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-15-2020</c:v>
+                  <c:v>12-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12-16-2020</c:v>
+                  <c:v>12-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12-17-2020</c:v>
+                  <c:v>12-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12-18-2020</c:v>
+                  <c:v>12-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-19-2020</c:v>
+                  <c:v>12-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-20-2020</c:v>
+                  <c:v>12-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-21-2020</c:v>
+                  <c:v>12-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-22-2020</c:v>
+                  <c:v>12-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12-23-2020</c:v>
+                  <c:v>12-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12-24-2020</c:v>
+                  <c:v>12-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12-25-2020</c:v>
+                  <c:v>12-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12-26-2020</c:v>
+                  <c:v>12-27-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3644:$B$3674</c:f>
+              <c:f>DolarToday!$B$3645:$B$3675</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11296,19 +11299,19 @@
                   <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1214053.74</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1050374.91</c:v>
+                  <c:v>999630.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>999630.72</c:v>
+                  <c:v>1025065.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1025065.82</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1305293.44</c:v>
@@ -11317,19 +11320,19 @@
                   <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1180127.63</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1180127.63</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1135074.29</c:v>
@@ -11338,19 +11341,19 @@
                   <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1068031.82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1068031.82</c:v>
+                  <c:v>1001858.84</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1001858.84</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1050833.77</c:v>
@@ -11359,16 +11362,16 @@
                   <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1050833.77</c:v>
+                  <c:v>1120744.03</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1120744.03</c:v>
+                  <c:v>1062934.54</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1062934.54</c:v>
+                  <c:v>1000143.81</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1000143.81</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>980329.71</c:v>
@@ -11380,7 +11383,7 @@
                   <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>980329.71</c:v>
+                  <c:v>990813.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11787,7 +11790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3674"/>
+  <dimension ref="A1:K3675"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41199,16 +41202,6 @@
       <c r="B3672">
         <v>980329.71</v>
       </c>
-      <c r="D3672" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3672" s="3"/>
-      <c r="F3672" s="3"/>
-      <c r="G3672" s="3"/>
-      <c r="H3672" s="3"/>
-      <c r="I3672" s="3"/>
-      <c r="J3672" s="3"/>
-      <c r="K3672" s="3"/>
     </row>
     <row r="3673" spans="1:11">
       <c r="A3673" t="s">
@@ -41217,16 +41210,16 @@
       <c r="B3673">
         <v>980329.71</v>
       </c>
-      <c r="D3673" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3673" s="4"/>
-      <c r="F3673" s="4"/>
-      <c r="G3673" s="4"/>
-      <c r="H3673" s="4"/>
-      <c r="I3673" s="4"/>
-      <c r="J3673" s="4"/>
-      <c r="K3673" s="4"/>
+      <c r="D3673" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3673" s="3"/>
+      <c r="F3673" s="3"/>
+      <c r="G3673" s="3"/>
+      <c r="H3673" s="3"/>
+      <c r="I3673" s="3"/>
+      <c r="J3673" s="3"/>
+      <c r="K3673" s="3"/>
     </row>
     <row r="3674" spans="1:11">
       <c r="A3674" t="s">
@@ -41235,7 +41228,9 @@
       <c r="B3674">
         <v>980329.71</v>
       </c>
-      <c r="D3674" s="4"/>
+      <c r="D3674" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3674" s="4"/>
       <c r="F3674" s="4"/>
       <c r="G3674" s="4"/>
@@ -41244,12 +41239,28 @@
       <c r="J3674" s="4"/>
       <c r="K3674" s="4"/>
     </row>
+    <row r="3675" spans="1:11">
+      <c r="A3675" t="s">
+        <v>3678</v>
+      </c>
+      <c r="B3675">
+        <v>990813.72</v>
+      </c>
+      <c r="D3675" s="4"/>
+      <c r="E3675" s="4"/>
+      <c r="F3675" s="4"/>
+      <c r="G3675" s="4"/>
+      <c r="H3675" s="4"/>
+      <c r="I3675" s="4"/>
+      <c r="J3675" s="4"/>
+      <c r="K3675" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3672:K3672"/>
-    <mergeCell ref="D3673:K3674"/>
+    <mergeCell ref="D3673:K3673"/>
+    <mergeCell ref="D3674:K3675"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="3679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="3680">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11051,6 +11051,9 @@
   </si>
   <si>
     <t>12-27-2020</t>
+  </si>
+  <si>
+    <t>12-28-2020</t>
   </si>
 </sst>
 </file>
@@ -11187,108 +11190,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3645:$A$3675</c:f>
+              <c:f>DolarToday!$A$3646:$A$3676</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11-27-2020</c:v>
+                  <c:v>11-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>11-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>11-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-1-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-1-2020</c:v>
+                  <c:v>12-2-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-2-2020</c:v>
+                  <c:v>12-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12-3-2020</c:v>
+                  <c:v>12-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12-4-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12-9-2020</c:v>
+                  <c:v>12-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12-10-2020</c:v>
+                  <c:v>12-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12-11-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-15-2020</c:v>
+                  <c:v>12-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-16-2020</c:v>
+                  <c:v>12-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12-17-2020</c:v>
+                  <c:v>12-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12-18-2020</c:v>
+                  <c:v>12-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12-19-2020</c:v>
+                  <c:v>12-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-20-2020</c:v>
+                  <c:v>12-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-21-2020</c:v>
+                  <c:v>12-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-22-2020</c:v>
+                  <c:v>12-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-23-2020</c:v>
+                  <c:v>12-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12-24-2020</c:v>
+                  <c:v>12-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12-25-2020</c:v>
+                  <c:v>12-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12-26-2020</c:v>
+                  <c:v>12-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12-27-2020</c:v>
+                  <c:v>12-28-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3645:$B$3675</c:f>
+              <c:f>DolarToday!$B$3646:$B$3676</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11296,19 +11299,19 @@
                   <c:v>1204023.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1214053.74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1214053.74</c:v>
+                  <c:v>1050374.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1050374.91</c:v>
+                  <c:v>999630.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>999630.72</c:v>
+                  <c:v>1025065.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1025065.82</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1305293.44</c:v>
@@ -11317,19 +11320,19 @@
                   <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1180127.63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1180127.63</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1135074.29</c:v>
@@ -11338,19 +11341,19 @@
                   <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1068031.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1068031.82</c:v>
+                  <c:v>1001858.84</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1001858.84</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1050833.77</c:v>
@@ -11359,16 +11362,16 @@
                   <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1050833.77</c:v>
+                  <c:v>1120744.03</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1120744.03</c:v>
+                  <c:v>1062934.54</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1062934.54</c:v>
+                  <c:v>1000143.81</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000143.81</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>980329.71</c:v>
@@ -11380,10 +11383,10 @@
                   <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>980329.71</c:v>
+                  <c:v>990813.72</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>990813.72</c:v>
+                  <c:v>1204338.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11790,7 +11793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3675"/>
+  <dimension ref="A1:K3676"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41210,16 +41213,6 @@
       <c r="B3673">
         <v>980329.71</v>
       </c>
-      <c r="D3673" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3673" s="3"/>
-      <c r="F3673" s="3"/>
-      <c r="G3673" s="3"/>
-      <c r="H3673" s="3"/>
-      <c r="I3673" s="3"/>
-      <c r="J3673" s="3"/>
-      <c r="K3673" s="3"/>
     </row>
     <row r="3674" spans="1:11">
       <c r="A3674" t="s">
@@ -41228,16 +41221,16 @@
       <c r="B3674">
         <v>980329.71</v>
       </c>
-      <c r="D3674" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3674" s="4"/>
-      <c r="F3674" s="4"/>
-      <c r="G3674" s="4"/>
-      <c r="H3674" s="4"/>
-      <c r="I3674" s="4"/>
-      <c r="J3674" s="4"/>
-      <c r="K3674" s="4"/>
+      <c r="D3674" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3674" s="3"/>
+      <c r="F3674" s="3"/>
+      <c r="G3674" s="3"/>
+      <c r="H3674" s="3"/>
+      <c r="I3674" s="3"/>
+      <c r="J3674" s="3"/>
+      <c r="K3674" s="3"/>
     </row>
     <row r="3675" spans="1:11">
       <c r="A3675" t="s">
@@ -41246,7 +41239,9 @@
       <c r="B3675">
         <v>990813.72</v>
       </c>
-      <c r="D3675" s="4"/>
+      <c r="D3675" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3675" s="4"/>
       <c r="F3675" s="4"/>
       <c r="G3675" s="4"/>
@@ -41255,12 +41250,28 @@
       <c r="J3675" s="4"/>
       <c r="K3675" s="4"/>
     </row>
+    <row r="3676" spans="1:11">
+      <c r="A3676" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B3676">
+        <v>1204338.52</v>
+      </c>
+      <c r="D3676" s="4"/>
+      <c r="E3676" s="4"/>
+      <c r="F3676" s="4"/>
+      <c r="G3676" s="4"/>
+      <c r="H3676" s="4"/>
+      <c r="I3676" s="4"/>
+      <c r="J3676" s="4"/>
+      <c r="K3676" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3673:K3673"/>
-    <mergeCell ref="D3674:K3675"/>
+    <mergeCell ref="D3674:K3674"/>
+    <mergeCell ref="D3675:K3676"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="3680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3687" uniqueCount="3685">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11054,6 +11054,21 @@
   </si>
   <si>
     <t>12-28-2020</t>
+  </si>
+  <si>
+    <t>12-29-2020</t>
+  </si>
+  <si>
+    <t>12-30-2020</t>
+  </si>
+  <si>
+    <t>12-31-2020</t>
+  </si>
+  <si>
+    <t>1-1-2021</t>
+  </si>
+  <si>
+    <t>1-2-2021</t>
   </si>
 </sst>
 </file>
@@ -11190,203 +11205,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3646:$A$3676</c:f>
+              <c:f>DolarToday!$A$3651:$A$3681</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11-28-2020</c:v>
+                  <c:v>12-3-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11-29-2020</c:v>
+                  <c:v>12-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11-30-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-1-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-2-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-3-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12-4-2020</c:v>
+                  <c:v>12-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12-9-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12-10-2020</c:v>
+                  <c:v>12-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12-11-2020</c:v>
+                  <c:v>12-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-15-2020</c:v>
+                  <c:v>12-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-16-2020</c:v>
+                  <c:v>12-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-17-2020</c:v>
+                  <c:v>12-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12-18-2020</c:v>
+                  <c:v>12-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12-19-2020</c:v>
+                  <c:v>12-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12-20-2020</c:v>
+                  <c:v>12-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-21-2020</c:v>
+                  <c:v>12-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-22-2020</c:v>
+                  <c:v>12-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-23-2020</c:v>
+                  <c:v>12-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-24-2020</c:v>
+                  <c:v>12-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12-25-2020</c:v>
+                  <c:v>12-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12-26-2020</c:v>
+                  <c:v>12-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12-27-2020</c:v>
+                  <c:v>1-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12-28-2020</c:v>
+                  <c:v>1-2-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3646:$B$3676</c:f>
+              <c:f>DolarToday!$B$3651:$B$3681</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1204023.27</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1214053.74</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1050374.91</c:v>
+                  <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>999630.72</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1025065.82</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1180127.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1180127.63</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1068031.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1001858.84</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1068031.82</c:v>
+                  <c:v>1120744.03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1001858.84</c:v>
+                  <c:v>1062934.54</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1050833.77</c:v>
+                  <c:v>1000143.81</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1050833.77</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1050833.77</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1120744.03</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1062934.54</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1000143.81</c:v>
+                  <c:v>990813.72</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>980329.71</c:v>
+                  <c:v>1204338.52</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>980329.71</c:v>
+                  <c:v>1103663.33</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>980329.71</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>980329.71</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>990813.72</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1204338.52</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11793,7 +11808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3676"/>
+  <dimension ref="A1:K3681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41221,16 +41236,6 @@
       <c r="B3674">
         <v>980329.71</v>
       </c>
-      <c r="D3674" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3674" s="3"/>
-      <c r="F3674" s="3"/>
-      <c r="G3674" s="3"/>
-      <c r="H3674" s="3"/>
-      <c r="I3674" s="3"/>
-      <c r="J3674" s="3"/>
-      <c r="K3674" s="3"/>
     </row>
     <row r="3675" spans="1:11">
       <c r="A3675" t="s">
@@ -41239,16 +41244,6 @@
       <c r="B3675">
         <v>990813.72</v>
       </c>
-      <c r="D3675" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3675" s="4"/>
-      <c r="F3675" s="4"/>
-      <c r="G3675" s="4"/>
-      <c r="H3675" s="4"/>
-      <c r="I3675" s="4"/>
-      <c r="J3675" s="4"/>
-      <c r="K3675" s="4"/>
     </row>
     <row r="3676" spans="1:11">
       <c r="A3676" t="s">
@@ -41257,21 +41252,81 @@
       <c r="B3676">
         <v>1204338.52</v>
       </c>
-      <c r="D3676" s="4"/>
-      <c r="E3676" s="4"/>
-      <c r="F3676" s="4"/>
-      <c r="G3676" s="4"/>
-      <c r="H3676" s="4"/>
-      <c r="I3676" s="4"/>
-      <c r="J3676" s="4"/>
-      <c r="K3676" s="4"/>
+    </row>
+    <row r="3677" spans="1:11">
+      <c r="A3677" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B3677">
+        <v>1103663.33</v>
+      </c>
+    </row>
+    <row r="3678" spans="1:11">
+      <c r="A3678" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B3678">
+        <v>998942.14</v>
+      </c>
+    </row>
+    <row r="3679" spans="1:11">
+      <c r="A3679" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B3679">
+        <v>998942.14</v>
+      </c>
+      <c r="D3679" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3679" s="3"/>
+      <c r="F3679" s="3"/>
+      <c r="G3679" s="3"/>
+      <c r="H3679" s="3"/>
+      <c r="I3679" s="3"/>
+      <c r="J3679" s="3"/>
+      <c r="K3679" s="3"/>
+    </row>
+    <row r="3680" spans="1:11">
+      <c r="A3680" t="s">
+        <v>3683</v>
+      </c>
+      <c r="B3680">
+        <v>998942.14</v>
+      </c>
+      <c r="D3680" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3680" s="4"/>
+      <c r="F3680" s="4"/>
+      <c r="G3680" s="4"/>
+      <c r="H3680" s="4"/>
+      <c r="I3680" s="4"/>
+      <c r="J3680" s="4"/>
+      <c r="K3680" s="4"/>
+    </row>
+    <row r="3681" spans="1:11">
+      <c r="A3681" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B3681">
+        <v>998942.14</v>
+      </c>
+      <c r="D3681" s="4"/>
+      <c r="E3681" s="4"/>
+      <c r="F3681" s="4"/>
+      <c r="G3681" s="4"/>
+      <c r="H3681" s="4"/>
+      <c r="I3681" s="4"/>
+      <c r="J3681" s="4"/>
+      <c r="K3681" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3674:K3674"/>
-    <mergeCell ref="D3675:K3676"/>
+    <mergeCell ref="D3679:K3679"/>
+    <mergeCell ref="D3680:K3681"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3687" uniqueCount="3685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3688" uniqueCount="3686">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11069,6 +11069,9 @@
   </si>
   <si>
     <t>1-2-2021</t>
+  </si>
+  <si>
+    <t>1-3-2021</t>
   </si>
 </sst>
 </file>
@@ -11205,108 +11208,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3651:$A$3681</c:f>
+              <c:f>DolarToday!$A$3652:$A$3682</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12-3-2020</c:v>
+                  <c:v>12-4-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12-4-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12-9-2020</c:v>
+                  <c:v>12-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12-10-2020</c:v>
+                  <c:v>12-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12-11-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12-15-2020</c:v>
+                  <c:v>12-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12-16-2020</c:v>
+                  <c:v>12-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12-17-2020</c:v>
+                  <c:v>12-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12-18-2020</c:v>
+                  <c:v>12-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12-19-2020</c:v>
+                  <c:v>12-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-20-2020</c:v>
+                  <c:v>12-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-21-2020</c:v>
+                  <c:v>12-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-22-2020</c:v>
+                  <c:v>12-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12-23-2020</c:v>
+                  <c:v>12-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12-24-2020</c:v>
+                  <c:v>12-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12-25-2020</c:v>
+                  <c:v>12-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-26-2020</c:v>
+                  <c:v>12-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-27-2020</c:v>
+                  <c:v>12-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-28-2020</c:v>
+                  <c:v>12-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-29-2020</c:v>
+                  <c:v>12-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12-30-2020</c:v>
+                  <c:v>12-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12-31-2020</c:v>
+                  <c:v>1-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1-1-2021</c:v>
+                  <c:v>1-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1-2-2021</c:v>
+                  <c:v>1-3-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3651:$B$3681</c:f>
+              <c:f>DolarToday!$B$3652:$B$3682</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11317,19 +11320,19 @@
                   <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1180127.63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1180127.63</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1135074.29</c:v>
@@ -11338,19 +11341,19 @@
                   <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1068031.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1068031.82</c:v>
+                  <c:v>1001858.84</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1001858.84</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1050833.77</c:v>
@@ -11359,16 +11362,16 @@
                   <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1050833.77</c:v>
+                  <c:v>1120744.03</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1120744.03</c:v>
+                  <c:v>1062934.54</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1062934.54</c:v>
+                  <c:v>1000143.81</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1000143.81</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>980329.71</c:v>
@@ -11380,16 +11383,16 @@
                   <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>980329.71</c:v>
+                  <c:v>990813.72</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>990813.72</c:v>
+                  <c:v>1204338.52</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1204338.52</c:v>
+                  <c:v>1103663.33</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1103663.33</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>998942.14</c:v>
@@ -11401,7 +11404,7 @@
                   <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>998942.14</c:v>
+                  <c:v>1120102.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11808,7 +11811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3681"/>
+  <dimension ref="A1:K3682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41276,16 +41279,6 @@
       <c r="B3679">
         <v>998942.14</v>
       </c>
-      <c r="D3679" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3679" s="3"/>
-      <c r="F3679" s="3"/>
-      <c r="G3679" s="3"/>
-      <c r="H3679" s="3"/>
-      <c r="I3679" s="3"/>
-      <c r="J3679" s="3"/>
-      <c r="K3679" s="3"/>
     </row>
     <row r="3680" spans="1:11">
       <c r="A3680" t="s">
@@ -41294,16 +41287,16 @@
       <c r="B3680">
         <v>998942.14</v>
       </c>
-      <c r="D3680" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3680" s="4"/>
-      <c r="F3680" s="4"/>
-      <c r="G3680" s="4"/>
-      <c r="H3680" s="4"/>
-      <c r="I3680" s="4"/>
-      <c r="J3680" s="4"/>
-      <c r="K3680" s="4"/>
+      <c r="D3680" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3680" s="3"/>
+      <c r="F3680" s="3"/>
+      <c r="G3680" s="3"/>
+      <c r="H3680" s="3"/>
+      <c r="I3680" s="3"/>
+      <c r="J3680" s="3"/>
+      <c r="K3680" s="3"/>
     </row>
     <row r="3681" spans="1:11">
       <c r="A3681" t="s">
@@ -41312,7 +41305,9 @@
       <c r="B3681">
         <v>998942.14</v>
       </c>
-      <c r="D3681" s="4"/>
+      <c r="D3681" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3681" s="4"/>
       <c r="F3681" s="4"/>
       <c r="G3681" s="4"/>
@@ -41321,12 +41316,28 @@
       <c r="J3681" s="4"/>
       <c r="K3681" s="4"/>
     </row>
+    <row r="3682" spans="1:11">
+      <c r="A3682" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B3682">
+        <v>1120102.43</v>
+      </c>
+      <c r="D3682" s="4"/>
+      <c r="E3682" s="4"/>
+      <c r="F3682" s="4"/>
+      <c r="G3682" s="4"/>
+      <c r="H3682" s="4"/>
+      <c r="I3682" s="4"/>
+      <c r="J3682" s="4"/>
+      <c r="K3682" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3679:K3679"/>
-    <mergeCell ref="D3680:K3681"/>
+    <mergeCell ref="D3680:K3680"/>
+    <mergeCell ref="D3681:K3682"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3688" uniqueCount="3686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="3687">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11072,6 +11072,9 @@
   </si>
   <si>
     <t>1-3-2021</t>
+  </si>
+  <si>
+    <t>1-4-2021</t>
   </si>
 </sst>
 </file>
@@ -11208,108 +11211,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3652:$A$3682</c:f>
+              <c:f>DolarToday!$A$3653:$A$3683</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12-4-2020</c:v>
+                  <c:v>12-5-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-9-2020</c:v>
+                  <c:v>12-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12-10-2020</c:v>
+                  <c:v>12-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12-11-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12-15-2020</c:v>
+                  <c:v>12-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12-16-2020</c:v>
+                  <c:v>12-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12-17-2020</c:v>
+                  <c:v>12-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12-18-2020</c:v>
+                  <c:v>12-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12-19-2020</c:v>
+                  <c:v>12-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12-20-2020</c:v>
+                  <c:v>12-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-21-2020</c:v>
+                  <c:v>12-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-22-2020</c:v>
+                  <c:v>12-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-23-2020</c:v>
+                  <c:v>12-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12-24-2020</c:v>
+                  <c:v>12-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12-25-2020</c:v>
+                  <c:v>12-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12-26-2020</c:v>
+                  <c:v>12-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-27-2020</c:v>
+                  <c:v>12-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-28-2020</c:v>
+                  <c:v>12-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-29-2020</c:v>
+                  <c:v>12-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-30-2020</c:v>
+                  <c:v>12-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12-31-2020</c:v>
+                  <c:v>1-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1-1-2021</c:v>
+                  <c:v>1-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1-2-2021</c:v>
+                  <c:v>1-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1-3-2021</c:v>
+                  <c:v>1-4-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3652:$B$3682</c:f>
+              <c:f>DolarToday!$B$3653:$B$3683</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11317,19 +11320,19 @@
                   <c:v>1305293.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1180127.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1180127.63</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1135074.29</c:v>
@@ -11338,19 +11341,19 @@
                   <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1068031.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1068031.82</c:v>
+                  <c:v>1001858.84</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1001858.84</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1050833.77</c:v>
@@ -11359,16 +11362,16 @@
                   <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1050833.77</c:v>
+                  <c:v>1120744.03</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1120744.03</c:v>
+                  <c:v>1062934.54</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1062934.54</c:v>
+                  <c:v>1000143.81</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1000143.81</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>980329.71</c:v>
@@ -11380,16 +11383,16 @@
                   <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>980329.71</c:v>
+                  <c:v>990813.72</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>990813.72</c:v>
+                  <c:v>1204338.52</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1204338.52</c:v>
+                  <c:v>1103663.33</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1103663.33</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>998942.14</c:v>
@@ -11401,10 +11404,10 @@
                   <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>998942.14</c:v>
+                  <c:v>1120102.43</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1120102.43</c:v>
+                  <c:v>1230063.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11811,7 +11814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3682"/>
+  <dimension ref="A1:K3683"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41160,7 +41163,7 @@
         <v>1001858.84</v>
       </c>
     </row>
-    <row r="3665" spans="1:11">
+    <row r="3665" spans="1:2">
       <c r="A3665" t="s">
         <v>3668</v>
       </c>
@@ -41168,7 +41171,7 @@
         <v>1050833.77</v>
       </c>
     </row>
-    <row r="3666" spans="1:11">
+    <row r="3666" spans="1:2">
       <c r="A3666" t="s">
         <v>3669</v>
       </c>
@@ -41176,7 +41179,7 @@
         <v>1050833.77</v>
       </c>
     </row>
-    <row r="3667" spans="1:11">
+    <row r="3667" spans="1:2">
       <c r="A3667" t="s">
         <v>3670</v>
       </c>
@@ -41184,7 +41187,7 @@
         <v>1050833.77</v>
       </c>
     </row>
-    <row r="3668" spans="1:11">
+    <row r="3668" spans="1:2">
       <c r="A3668" t="s">
         <v>3671</v>
       </c>
@@ -41192,7 +41195,7 @@
         <v>1120744.03</v>
       </c>
     </row>
-    <row r="3669" spans="1:11">
+    <row r="3669" spans="1:2">
       <c r="A3669" t="s">
         <v>3672</v>
       </c>
@@ -41200,7 +41203,7 @@
         <v>1062934.54</v>
       </c>
     </row>
-    <row r="3670" spans="1:11">
+    <row r="3670" spans="1:2">
       <c r="A3670" t="s">
         <v>3673</v>
       </c>
@@ -41208,7 +41211,7 @@
         <v>1000143.81</v>
       </c>
     </row>
-    <row r="3671" spans="1:11">
+    <row r="3671" spans="1:2">
       <c r="A3671" t="s">
         <v>3674</v>
       </c>
@@ -41216,7 +41219,7 @@
         <v>980329.71</v>
       </c>
     </row>
-    <row r="3672" spans="1:11">
+    <row r="3672" spans="1:2">
       <c r="A3672" t="s">
         <v>3675</v>
       </c>
@@ -41224,7 +41227,7 @@
         <v>980329.71</v>
       </c>
     </row>
-    <row r="3673" spans="1:11">
+    <row r="3673" spans="1:2">
       <c r="A3673" t="s">
         <v>3676</v>
       </c>
@@ -41232,7 +41235,7 @@
         <v>980329.71</v>
       </c>
     </row>
-    <row r="3674" spans="1:11">
+    <row r="3674" spans="1:2">
       <c r="A3674" t="s">
         <v>3677</v>
       </c>
@@ -41240,7 +41243,7 @@
         <v>980329.71</v>
       </c>
     </row>
-    <row r="3675" spans="1:11">
+    <row r="3675" spans="1:2">
       <c r="A3675" t="s">
         <v>3678</v>
       </c>
@@ -41248,7 +41251,7 @@
         <v>990813.72</v>
       </c>
     </row>
-    <row r="3676" spans="1:11">
+    <row r="3676" spans="1:2">
       <c r="A3676" t="s">
         <v>3679</v>
       </c>
@@ -41256,7 +41259,7 @@
         <v>1204338.52</v>
       </c>
     </row>
-    <row r="3677" spans="1:11">
+    <row r="3677" spans="1:2">
       <c r="A3677" t="s">
         <v>3680</v>
       </c>
@@ -41264,7 +41267,7 @@
         <v>1103663.33</v>
       </c>
     </row>
-    <row r="3678" spans="1:11">
+    <row r="3678" spans="1:2">
       <c r="A3678" t="s">
         <v>3681</v>
       </c>
@@ -41272,7 +41275,7 @@
         <v>998942.14</v>
       </c>
     </row>
-    <row r="3679" spans="1:11">
+    <row r="3679" spans="1:2">
       <c r="A3679" t="s">
         <v>3682</v>
       </c>
@@ -41280,23 +41283,13 @@
         <v>998942.14</v>
       </c>
     </row>
-    <row r="3680" spans="1:11">
+    <row r="3680" spans="1:2">
       <c r="A3680" t="s">
         <v>3683</v>
       </c>
       <c r="B3680">
         <v>998942.14</v>
       </c>
-      <c r="D3680" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3680" s="3"/>
-      <c r="F3680" s="3"/>
-      <c r="G3680" s="3"/>
-      <c r="H3680" s="3"/>
-      <c r="I3680" s="3"/>
-      <c r="J3680" s="3"/>
-      <c r="K3680" s="3"/>
     </row>
     <row r="3681" spans="1:11">
       <c r="A3681" t="s">
@@ -41305,16 +41298,16 @@
       <c r="B3681">
         <v>998942.14</v>
       </c>
-      <c r="D3681" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3681" s="4"/>
-      <c r="F3681" s="4"/>
-      <c r="G3681" s="4"/>
-      <c r="H3681" s="4"/>
-      <c r="I3681" s="4"/>
-      <c r="J3681" s="4"/>
-      <c r="K3681" s="4"/>
+      <c r="D3681" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3681" s="3"/>
+      <c r="F3681" s="3"/>
+      <c r="G3681" s="3"/>
+      <c r="H3681" s="3"/>
+      <c r="I3681" s="3"/>
+      <c r="J3681" s="3"/>
+      <c r="K3681" s="3"/>
     </row>
     <row r="3682" spans="1:11">
       <c r="A3682" t="s">
@@ -41323,7 +41316,9 @@
       <c r="B3682">
         <v>1120102.43</v>
       </c>
-      <c r="D3682" s="4"/>
+      <c r="D3682" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3682" s="4"/>
       <c r="F3682" s="4"/>
       <c r="G3682" s="4"/>
@@ -41332,12 +41327,28 @@
       <c r="J3682" s="4"/>
       <c r="K3682" s="4"/>
     </row>
+    <row r="3683" spans="1:11">
+      <c r="A3683" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B3683">
+        <v>1230063.75</v>
+      </c>
+      <c r="D3683" s="4"/>
+      <c r="E3683" s="4"/>
+      <c r="F3683" s="4"/>
+      <c r="G3683" s="4"/>
+      <c r="H3683" s="4"/>
+      <c r="I3683" s="4"/>
+      <c r="J3683" s="4"/>
+      <c r="K3683" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3680:K3680"/>
-    <mergeCell ref="D3681:K3682"/>
+    <mergeCell ref="D3681:K3681"/>
+    <mergeCell ref="D3682:K3683"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="3687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3690" uniqueCount="3688">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11075,6 +11075,9 @@
   </si>
   <si>
     <t>1-4-2021</t>
+  </si>
+  <si>
+    <t>1-5-2021</t>
   </si>
 </sst>
 </file>
@@ -11211,125 +11214,125 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3653:$A$3683</c:f>
+              <c:f>DolarToday!$A$3654:$A$3684</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12-5-2020</c:v>
+                  <c:v>12-6-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-7-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-8-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-9-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-9-2020</c:v>
+                  <c:v>12-10-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-10-2020</c:v>
+                  <c:v>12-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12-11-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-15-2020</c:v>
+                  <c:v>12-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12-16-2020</c:v>
+                  <c:v>12-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12-17-2020</c:v>
+                  <c:v>12-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12-18-2020</c:v>
+                  <c:v>12-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12-19-2020</c:v>
+                  <c:v>12-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12-20-2020</c:v>
+                  <c:v>12-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12-21-2020</c:v>
+                  <c:v>12-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-22-2020</c:v>
+                  <c:v>12-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-23-2020</c:v>
+                  <c:v>12-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-24-2020</c:v>
+                  <c:v>12-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12-25-2020</c:v>
+                  <c:v>12-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12-26-2020</c:v>
+                  <c:v>12-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12-27-2020</c:v>
+                  <c:v>12-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-28-2020</c:v>
+                  <c:v>12-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-29-2020</c:v>
+                  <c:v>12-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-30-2020</c:v>
+                  <c:v>12-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12-31-2020</c:v>
+                  <c:v>1-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1-1-2021</c:v>
+                  <c:v>1-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1-2-2021</c:v>
+                  <c:v>1-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1-3-2021</c:v>
+                  <c:v>1-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1-4-2021</c:v>
+                  <c:v>1-5-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3653:$B$3683</c:f>
+              <c:f>DolarToday!$B$3654:$B$3684</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1305293.44</c:v>
+                  <c:v>1163053.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1094023.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1100032.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1180127.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1180127.63</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1135074.29</c:v>
@@ -11338,19 +11341,19 @@
                   <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1068031.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1068031.82</c:v>
+                  <c:v>1001858.84</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1001858.84</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1050833.77</c:v>
@@ -11359,16 +11362,16 @@
                   <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1050833.77</c:v>
+                  <c:v>1120744.03</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1120744.03</c:v>
+                  <c:v>1062934.54</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1062934.54</c:v>
+                  <c:v>1000143.81</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1000143.81</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>980329.71</c:v>
@@ -11380,16 +11383,16 @@
                   <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>980329.71</c:v>
+                  <c:v>990813.72</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>990813.72</c:v>
+                  <c:v>1204338.52</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1204338.52</c:v>
+                  <c:v>1103663.33</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1103663.33</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>998942.14</c:v>
@@ -11401,13 +11404,13 @@
                   <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>998942.14</c:v>
+                  <c:v>1120102.43</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1120102.43</c:v>
+                  <c:v>1230063.75</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1230063.75</c:v>
+                  <c:v>1335065.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11814,7 +11817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3683"/>
+  <dimension ref="A1:K3684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41298,16 +41301,6 @@
       <c r="B3681">
         <v>998942.14</v>
       </c>
-      <c r="D3681" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3681" s="3"/>
-      <c r="F3681" s="3"/>
-      <c r="G3681" s="3"/>
-      <c r="H3681" s="3"/>
-      <c r="I3681" s="3"/>
-      <c r="J3681" s="3"/>
-      <c r="K3681" s="3"/>
     </row>
     <row r="3682" spans="1:11">
       <c r="A3682" t="s">
@@ -41316,16 +41309,16 @@
       <c r="B3682">
         <v>1120102.43</v>
       </c>
-      <c r="D3682" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3682" s="4"/>
-      <c r="F3682" s="4"/>
-      <c r="G3682" s="4"/>
-      <c r="H3682" s="4"/>
-      <c r="I3682" s="4"/>
-      <c r="J3682" s="4"/>
-      <c r="K3682" s="4"/>
+      <c r="D3682" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3682" s="3"/>
+      <c r="F3682" s="3"/>
+      <c r="G3682" s="3"/>
+      <c r="H3682" s="3"/>
+      <c r="I3682" s="3"/>
+      <c r="J3682" s="3"/>
+      <c r="K3682" s="3"/>
     </row>
     <row r="3683" spans="1:11">
       <c r="A3683" t="s">
@@ -41334,7 +41327,9 @@
       <c r="B3683">
         <v>1230063.75</v>
       </c>
-      <c r="D3683" s="4"/>
+      <c r="D3683" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3683" s="4"/>
       <c r="F3683" s="4"/>
       <c r="G3683" s="4"/>
@@ -41343,12 +41338,28 @@
       <c r="J3683" s="4"/>
       <c r="K3683" s="4"/>
     </row>
+    <row r="3684" spans="1:11">
+      <c r="A3684" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B3684">
+        <v>1335065.11</v>
+      </c>
+      <c r="D3684" s="4"/>
+      <c r="E3684" s="4"/>
+      <c r="F3684" s="4"/>
+      <c r="G3684" s="4"/>
+      <c r="H3684" s="4"/>
+      <c r="I3684" s="4"/>
+      <c r="J3684" s="4"/>
+      <c r="K3684" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3681:K3681"/>
-    <mergeCell ref="D3682:K3683"/>
+    <mergeCell ref="D3682:K3682"/>
+    <mergeCell ref="D3683:K3684"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3690" uniqueCount="3688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="3693">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11078,6 +11078,21 @@
   </si>
   <si>
     <t>1-5-2021</t>
+  </si>
+  <si>
+    <t>1-6-2021</t>
+  </si>
+  <si>
+    <t>1-7-2021</t>
+  </si>
+  <si>
+    <t>1-8-2021</t>
+  </si>
+  <si>
+    <t>1-9-2021</t>
+  </si>
+  <si>
+    <t>1-10-2021</t>
   </si>
 </sst>
 </file>
@@ -11214,203 +11229,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3654:$A$3684</c:f>
+              <c:f>DolarToday!$A$3659:$A$3689</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12-6-2020</c:v>
+                  <c:v>12-11-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12-7-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12-8-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-9-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-10-2020</c:v>
+                  <c:v>12-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-11-2020</c:v>
+                  <c:v>12-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12-15-2020</c:v>
+                  <c:v>12-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-16-2020</c:v>
+                  <c:v>12-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12-17-2020</c:v>
+                  <c:v>12-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12-18-2020</c:v>
+                  <c:v>12-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12-19-2020</c:v>
+                  <c:v>12-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12-20-2020</c:v>
+                  <c:v>12-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12-21-2020</c:v>
+                  <c:v>12-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12-22-2020</c:v>
+                  <c:v>12-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-23-2020</c:v>
+                  <c:v>12-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-24-2020</c:v>
+                  <c:v>12-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-25-2020</c:v>
+                  <c:v>12-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12-26-2020</c:v>
+                  <c:v>12-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12-27-2020</c:v>
+                  <c:v>1-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12-28-2020</c:v>
+                  <c:v>1-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12-29-2020</c:v>
+                  <c:v>1-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12-30-2020</c:v>
+                  <c:v>1-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12-31-2020</c:v>
+                  <c:v>1-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1-1-2021</c:v>
+                  <c:v>1-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1-2-2021</c:v>
+                  <c:v>1-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1-3-2021</c:v>
+                  <c:v>1-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1-4-2021</c:v>
+                  <c:v>1-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1-5-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3654:$B$3684</c:f>
+              <c:f>DolarToday!$B$3659:$B$3689</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1163053.07</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1094023.92</c:v>
+                  <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1100032.3</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1180127.63</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1068031.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1001858.84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1068031.82</c:v>
+                  <c:v>1120744.03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1001858.84</c:v>
+                  <c:v>1062934.54</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1050833.77</c:v>
+                  <c:v>1000143.81</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1050833.77</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1050833.77</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1120744.03</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1062934.54</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1000143.81</c:v>
+                  <c:v>990813.72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>980329.71</c:v>
+                  <c:v>1204338.52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>980329.71</c:v>
+                  <c:v>1103663.33</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>980329.71</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>980329.71</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>990813.72</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1204338.52</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1103663.33</c:v>
+                  <c:v>1120102.43</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>998942.14</c:v>
+                  <c:v>1230063.75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>998942.14</c:v>
+                  <c:v>1335065.11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>998942.14</c:v>
+                  <c:v>1446012.11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>998942.14</c:v>
+                  <c:v>1615923.17</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1120102.43</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1230063.75</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1335065.11</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11817,7 +11832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3684"/>
+  <dimension ref="A1:K3689"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41309,16 +41324,6 @@
       <c r="B3682">
         <v>1120102.43</v>
       </c>
-      <c r="D3682" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3682" s="3"/>
-      <c r="F3682" s="3"/>
-      <c r="G3682" s="3"/>
-      <c r="H3682" s="3"/>
-      <c r="I3682" s="3"/>
-      <c r="J3682" s="3"/>
-      <c r="K3682" s="3"/>
     </row>
     <row r="3683" spans="1:11">
       <c r="A3683" t="s">
@@ -41327,16 +41332,6 @@
       <c r="B3683">
         <v>1230063.75</v>
       </c>
-      <c r="D3683" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3683" s="4"/>
-      <c r="F3683" s="4"/>
-      <c r="G3683" s="4"/>
-      <c r="H3683" s="4"/>
-      <c r="I3683" s="4"/>
-      <c r="J3683" s="4"/>
-      <c r="K3683" s="4"/>
     </row>
     <row r="3684" spans="1:11">
       <c r="A3684" t="s">
@@ -41345,21 +41340,81 @@
       <c r="B3684">
         <v>1335065.11</v>
       </c>
-      <c r="D3684" s="4"/>
-      <c r="E3684" s="4"/>
-      <c r="F3684" s="4"/>
-      <c r="G3684" s="4"/>
-      <c r="H3684" s="4"/>
-      <c r="I3684" s="4"/>
-      <c r="J3684" s="4"/>
-      <c r="K3684" s="4"/>
+    </row>
+    <row r="3685" spans="1:11">
+      <c r="A3685" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B3685">
+        <v>1446012.11</v>
+      </c>
+    </row>
+    <row r="3686" spans="1:11">
+      <c r="A3686" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B3686">
+        <v>1615923.17</v>
+      </c>
+    </row>
+    <row r="3687" spans="1:11">
+      <c r="A3687" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B3687">
+        <v>1620852.03</v>
+      </c>
+      <c r="D3687" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3687" s="3"/>
+      <c r="F3687" s="3"/>
+      <c r="G3687" s="3"/>
+      <c r="H3687" s="3"/>
+      <c r="I3687" s="3"/>
+      <c r="J3687" s="3"/>
+      <c r="K3687" s="3"/>
+    </row>
+    <row r="3688" spans="1:11">
+      <c r="A3688" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B3688">
+        <v>1620852.03</v>
+      </c>
+      <c r="D3688" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3688" s="4"/>
+      <c r="F3688" s="4"/>
+      <c r="G3688" s="4"/>
+      <c r="H3688" s="4"/>
+      <c r="I3688" s="4"/>
+      <c r="J3688" s="4"/>
+      <c r="K3688" s="4"/>
+    </row>
+    <row r="3689" spans="1:11">
+      <c r="A3689" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B3689">
+        <v>1621012.12</v>
+      </c>
+      <c r="D3689" s="4"/>
+      <c r="E3689" s="4"/>
+      <c r="F3689" s="4"/>
+      <c r="G3689" s="4"/>
+      <c r="H3689" s="4"/>
+      <c r="I3689" s="4"/>
+      <c r="J3689" s="4"/>
+      <c r="K3689" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3682:K3682"/>
-    <mergeCell ref="D3683:K3684"/>
+    <mergeCell ref="D3687:K3687"/>
+    <mergeCell ref="D3688:K3689"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="3693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="3694">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11093,6 +11093,9 @@
   </si>
   <si>
     <t>1-10-2021</t>
+  </si>
+  <si>
+    <t>1-11-2021</t>
   </si>
 </sst>
 </file>
@@ -11229,108 +11232,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3659:$A$3689</c:f>
+              <c:f>DolarToday!$A$3660:$A$3690</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12-11-2020</c:v>
+                  <c:v>12-12-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-13-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-14-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-15-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-15-2020</c:v>
+                  <c:v>12-16-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-16-2020</c:v>
+                  <c:v>12-17-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12-17-2020</c:v>
+                  <c:v>12-18-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12-18-2020</c:v>
+                  <c:v>12-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12-19-2020</c:v>
+                  <c:v>12-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12-20-2020</c:v>
+                  <c:v>12-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-21-2020</c:v>
+                  <c:v>12-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12-22-2020</c:v>
+                  <c:v>12-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12-23-2020</c:v>
+                  <c:v>12-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12-24-2020</c:v>
+                  <c:v>12-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12-25-2020</c:v>
+                  <c:v>12-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12-26-2020</c:v>
+                  <c:v>12-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12-27-2020</c:v>
+                  <c:v>12-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-28-2020</c:v>
+                  <c:v>12-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-29-2020</c:v>
+                  <c:v>12-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-30-2020</c:v>
+                  <c:v>12-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12-31-2020</c:v>
+                  <c:v>1-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-1-2021</c:v>
+                  <c:v>1-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1-2-2021</c:v>
+                  <c:v>1-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1-3-2021</c:v>
+                  <c:v>1-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1-4-2021</c:v>
+                  <c:v>1-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1-5-2021</c:v>
+                  <c:v>1-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1-6-2021</c:v>
+                  <c:v>1-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1-7-2021</c:v>
+                  <c:v>1-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1-8-2021</c:v>
+                  <c:v>1-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1-9-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-11-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3659:$B$3689</c:f>
+              <c:f>DolarToday!$B$3660:$B$3690</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11338,19 +11341,19 @@
                   <c:v>1135074.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1150272.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1226312.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1068031.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1068031.82</c:v>
+                  <c:v>1001858.84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1001858.84</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1050833.77</c:v>
@@ -11359,16 +11362,16 @@
                   <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1050833.77</c:v>
+                  <c:v>1120744.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1120744.03</c:v>
+                  <c:v>1062934.54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1062934.54</c:v>
+                  <c:v>1000143.81</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1000143.81</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>980329.71</c:v>
@@ -11380,16 +11383,16 @@
                   <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>980329.71</c:v>
+                  <c:v>990813.72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>990813.72</c:v>
+                  <c:v>1204338.52</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1204338.52</c:v>
+                  <c:v>1103663.33</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1103663.33</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>998942.14</c:v>
@@ -11401,31 +11404,31 @@
                   <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>998942.14</c:v>
+                  <c:v>1120102.43</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1120102.43</c:v>
+                  <c:v>1230063.75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1230063.75</c:v>
+                  <c:v>1335065.11</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1335065.11</c:v>
+                  <c:v>1446012.11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1446012.11</c:v>
+                  <c:v>1615923.17</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1615923.17</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1610378.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11832,7 +11835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3689"/>
+  <dimension ref="A1:K3690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41364,16 +41367,6 @@
       <c r="B3687">
         <v>1620852.03</v>
       </c>
-      <c r="D3687" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3687" s="3"/>
-      <c r="F3687" s="3"/>
-      <c r="G3687" s="3"/>
-      <c r="H3687" s="3"/>
-      <c r="I3687" s="3"/>
-      <c r="J3687" s="3"/>
-      <c r="K3687" s="3"/>
     </row>
     <row r="3688" spans="1:11">
       <c r="A3688" t="s">
@@ -41382,16 +41375,16 @@
       <c r="B3688">
         <v>1620852.03</v>
       </c>
-      <c r="D3688" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3688" s="4"/>
-      <c r="F3688" s="4"/>
-      <c r="G3688" s="4"/>
-      <c r="H3688" s="4"/>
-      <c r="I3688" s="4"/>
-      <c r="J3688" s="4"/>
-      <c r="K3688" s="4"/>
+      <c r="D3688" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3688" s="3"/>
+      <c r="F3688" s="3"/>
+      <c r="G3688" s="3"/>
+      <c r="H3688" s="3"/>
+      <c r="I3688" s="3"/>
+      <c r="J3688" s="3"/>
+      <c r="K3688" s="3"/>
     </row>
     <row r="3689" spans="1:11">
       <c r="A3689" t="s">
@@ -41400,7 +41393,9 @@
       <c r="B3689">
         <v>1621012.12</v>
       </c>
-      <c r="D3689" s="4"/>
+      <c r="D3689" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3689" s="4"/>
       <c r="F3689" s="4"/>
       <c r="G3689" s="4"/>
@@ -41409,12 +41404,28 @@
       <c r="J3689" s="4"/>
       <c r="K3689" s="4"/>
     </row>
+    <row r="3690" spans="1:11">
+      <c r="A3690" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B3690">
+        <v>1610378.01</v>
+      </c>
+      <c r="D3690" s="4"/>
+      <c r="E3690" s="4"/>
+      <c r="F3690" s="4"/>
+      <c r="G3690" s="4"/>
+      <c r="H3690" s="4"/>
+      <c r="I3690" s="4"/>
+      <c r="J3690" s="4"/>
+      <c r="K3690" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3687:K3687"/>
-    <mergeCell ref="D3688:K3689"/>
+    <mergeCell ref="D3688:K3688"/>
+    <mergeCell ref="D3689:K3690"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="3694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3703" uniqueCount="3701">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11096,6 +11096,27 @@
   </si>
   <si>
     <t>1-11-2021</t>
+  </si>
+  <si>
+    <t>1-12-2021</t>
+  </si>
+  <si>
+    <t>1-13-2021</t>
+  </si>
+  <si>
+    <t>1-14-2021</t>
+  </si>
+  <si>
+    <t>1-15-2021</t>
+  </si>
+  <si>
+    <t>1-16-2021</t>
+  </si>
+  <si>
+    <t>1-17-2021</t>
+  </si>
+  <si>
+    <t>1-18-2021</t>
   </si>
 </sst>
 </file>
@@ -11232,203 +11253,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3660:$A$3690</c:f>
+              <c:f>DolarToday!$A$3667:$A$3697</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12-12-2020</c:v>
+                  <c:v>12-19-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12-13-2020</c:v>
+                  <c:v>12-20-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12-14-2020</c:v>
+                  <c:v>12-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-15-2020</c:v>
+                  <c:v>12-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-16-2020</c:v>
+                  <c:v>12-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-17-2020</c:v>
+                  <c:v>12-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12-18-2020</c:v>
+                  <c:v>12-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12-19-2020</c:v>
+                  <c:v>12-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12-20-2020</c:v>
+                  <c:v>12-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12-21-2020</c:v>
+                  <c:v>12-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-22-2020</c:v>
+                  <c:v>12-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12-23-2020</c:v>
+                  <c:v>12-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12-24-2020</c:v>
+                  <c:v>12-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12-25-2020</c:v>
+                  <c:v>1-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12-26-2020</c:v>
+                  <c:v>1-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12-27-2020</c:v>
+                  <c:v>1-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12-28-2020</c:v>
+                  <c:v>1-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12-29-2020</c:v>
+                  <c:v>1-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12-30-2020</c:v>
+                  <c:v>1-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-31-2020</c:v>
+                  <c:v>1-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1-1-2021</c:v>
+                  <c:v>1-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-2-2021</c:v>
+                  <c:v>1-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1-3-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1-4-2021</c:v>
+                  <c:v>1-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1-5-2021</c:v>
+                  <c:v>1-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1-6-2021</c:v>
+                  <c:v>1-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1-7-2021</c:v>
+                  <c:v>1-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1-8-2021</c:v>
+                  <c:v>1-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1-9-2021</c:v>
+                  <c:v>1-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1-11-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3660:$B$3690</c:f>
+              <c:f>DolarToday!$B$3667:$B$3697</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1135074.29</c:v>
+                  <c:v>1050833.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1150272.95</c:v>
+                  <c:v>1120744.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1226312.32</c:v>
+                  <c:v>1062934.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1068031.82</c:v>
+                  <c:v>1000143.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1001858.84</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1050833.77</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1050833.77</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1050833.77</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1120744.03</c:v>
+                  <c:v>990813.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1062934.54</c:v>
+                  <c:v>1204338.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1000143.81</c:v>
+                  <c:v>1103663.33</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>980329.71</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>980329.71</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>980329.71</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>980329.71</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>990813.72</c:v>
+                  <c:v>1120102.43</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1204338.52</c:v>
+                  <c:v>1230063.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1103663.33</c:v>
+                  <c:v>1335065.11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>998942.14</c:v>
+                  <c:v>1446012.11</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>998942.14</c:v>
+                  <c:v>1615923.17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>998942.14</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>998942.14</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1120102.43</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1230063.75</c:v>
+                  <c:v>1610378.01</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1335065.11</c:v>
+                  <c:v>1600401.17</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1446012.11</c:v>
+                  <c:v>1602038.88</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1615923.17</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1663064.87</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1610378.01</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11835,7 +11856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3690"/>
+  <dimension ref="A1:K3697"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41375,16 +41396,6 @@
       <c r="B3688">
         <v>1620852.03</v>
       </c>
-      <c r="D3688" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3688" s="3"/>
-      <c r="F3688" s="3"/>
-      <c r="G3688" s="3"/>
-      <c r="H3688" s="3"/>
-      <c r="I3688" s="3"/>
-      <c r="J3688" s="3"/>
-      <c r="K3688" s="3"/>
     </row>
     <row r="3689" spans="1:11">
       <c r="A3689" t="s">
@@ -41393,16 +41404,6 @@
       <c r="B3689">
         <v>1621012.12</v>
       </c>
-      <c r="D3689" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3689" s="4"/>
-      <c r="F3689" s="4"/>
-      <c r="G3689" s="4"/>
-      <c r="H3689" s="4"/>
-      <c r="I3689" s="4"/>
-      <c r="J3689" s="4"/>
-      <c r="K3689" s="4"/>
     </row>
     <row r="3690" spans="1:11">
       <c r="A3690" t="s">
@@ -41411,21 +41412,97 @@
       <c r="B3690">
         <v>1610378.01</v>
       </c>
-      <c r="D3690" s="4"/>
-      <c r="E3690" s="4"/>
-      <c r="F3690" s="4"/>
-      <c r="G3690" s="4"/>
-      <c r="H3690" s="4"/>
-      <c r="I3690" s="4"/>
-      <c r="J3690" s="4"/>
-      <c r="K3690" s="4"/>
+    </row>
+    <row r="3691" spans="1:11">
+      <c r="A3691" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B3691">
+        <v>1600401.17</v>
+      </c>
+    </row>
+    <row r="3692" spans="1:11">
+      <c r="A3692" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B3692">
+        <v>1602038.88</v>
+      </c>
+    </row>
+    <row r="3693" spans="1:11">
+      <c r="A3693" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B3693">
+        <v>1660824.38</v>
+      </c>
+    </row>
+    <row r="3694" spans="1:11">
+      <c r="A3694" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B3694">
+        <v>1660824.38</v>
+      </c>
+    </row>
+    <row r="3695" spans="1:11">
+      <c r="A3695" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B3695">
+        <v>1660824.38</v>
+      </c>
+      <c r="D3695" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3695" s="3"/>
+      <c r="F3695" s="3"/>
+      <c r="G3695" s="3"/>
+      <c r="H3695" s="3"/>
+      <c r="I3695" s="3"/>
+      <c r="J3695" s="3"/>
+      <c r="K3695" s="3"/>
+    </row>
+    <row r="3696" spans="1:11">
+      <c r="A3696" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B3696">
+        <v>1663064.87</v>
+      </c>
+      <c r="D3696" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3696" s="4"/>
+      <c r="F3696" s="4"/>
+      <c r="G3696" s="4"/>
+      <c r="H3696" s="4"/>
+      <c r="I3696" s="4"/>
+      <c r="J3696" s="4"/>
+      <c r="K3696" s="4"/>
+    </row>
+    <row r="3697" spans="1:11">
+      <c r="A3697" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B3697">
+        <v>1600384.65</v>
+      </c>
+      <c r="D3697" s="4"/>
+      <c r="E3697" s="4"/>
+      <c r="F3697" s="4"/>
+      <c r="G3697" s="4"/>
+      <c r="H3697" s="4"/>
+      <c r="I3697" s="4"/>
+      <c r="J3697" s="4"/>
+      <c r="K3697" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3688:K3688"/>
-    <mergeCell ref="D3689:K3690"/>
+    <mergeCell ref="D3695:K3695"/>
+    <mergeCell ref="D3696:K3697"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3703" uniqueCount="3701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="3703">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11117,6 +11117,12 @@
   </si>
   <si>
     <t>1-18-2021</t>
+  </si>
+  <si>
+    <t>1-19-2021</t>
+  </si>
+  <si>
+    <t>1-20-2021</t>
   </si>
 </sst>
 </file>
@@ -11253,122 +11259,122 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3667:$A$3697</c:f>
+              <c:f>DolarToday!$A$3669:$A$3699</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12-19-2020</c:v>
+                  <c:v>12-21-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12-20-2020</c:v>
+                  <c:v>12-22-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12-21-2020</c:v>
+                  <c:v>12-23-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-22-2020</c:v>
+                  <c:v>12-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-23-2020</c:v>
+                  <c:v>12-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-24-2020</c:v>
+                  <c:v>12-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12-25-2020</c:v>
+                  <c:v>12-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12-26-2020</c:v>
+                  <c:v>12-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12-27-2020</c:v>
+                  <c:v>12-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12-28-2020</c:v>
+                  <c:v>12-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-29-2020</c:v>
+                  <c:v>12-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12-30-2020</c:v>
+                  <c:v>1-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12-31-2020</c:v>
+                  <c:v>1-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-1-2021</c:v>
+                  <c:v>1-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1-2-2021</c:v>
+                  <c:v>1-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1-3-2021</c:v>
+                  <c:v>1-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1-4-2021</c:v>
+                  <c:v>1-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1-5-2021</c:v>
+                  <c:v>1-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1-6-2021</c:v>
+                  <c:v>1-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1-7-2021</c:v>
+                  <c:v>1-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1-8-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-9-2021</c:v>
+                  <c:v>1-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1-11-2021</c:v>
+                  <c:v>1-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1-12-2021</c:v>
+                  <c:v>1-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1-13-2021</c:v>
+                  <c:v>1-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1-14-2021</c:v>
+                  <c:v>1-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1-15-2021</c:v>
+                  <c:v>1-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1-16-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1-17-2021</c:v>
+                  <c:v>1-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-20-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3667:$B$3697</c:f>
+              <c:f>DolarToday!$B$3669:$B$3699</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1050833.77</c:v>
+                  <c:v>1062934.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1120744.03</c:v>
+                  <c:v>1000143.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1062934.54</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000143.81</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>980329.71</c:v>
@@ -11377,19 +11383,19 @@
                   <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>980329.71</c:v>
+                  <c:v>990813.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>980329.71</c:v>
+                  <c:v>1204338.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>990813.72</c:v>
+                  <c:v>1103663.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1204338.52</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1103663.33</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>998942.14</c:v>
@@ -11398,58 +11404,58 @@
                   <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>998942.14</c:v>
+                  <c:v>1120102.43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>998942.14</c:v>
+                  <c:v>1230063.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1120102.43</c:v>
+                  <c:v>1335065.11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1230063.75</c:v>
+                  <c:v>1446012.11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1335065.11</c:v>
+                  <c:v>1615923.17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1446012.11</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1615923.17</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1610378.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1600401.17</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1610378.01</c:v>
+                  <c:v>1602038.88</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1600401.17</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1602038.88</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1663064.87</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1663064.87</c:v>
+                  <c:v>1615012.73</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1702492.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11856,7 +11862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3697"/>
+  <dimension ref="A1:K3699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41333,7 +41339,7 @@
         <v>998942.14</v>
       </c>
     </row>
-    <row r="3681" spans="1:11">
+    <row r="3681" spans="1:2">
       <c r="A3681" t="s">
         <v>3684</v>
       </c>
@@ -41341,7 +41347,7 @@
         <v>998942.14</v>
       </c>
     </row>
-    <row r="3682" spans="1:11">
+    <row r="3682" spans="1:2">
       <c r="A3682" t="s">
         <v>3685</v>
       </c>
@@ -41349,7 +41355,7 @@
         <v>1120102.43</v>
       </c>
     </row>
-    <row r="3683" spans="1:11">
+    <row r="3683" spans="1:2">
       <c r="A3683" t="s">
         <v>3686</v>
       </c>
@@ -41357,7 +41363,7 @@
         <v>1230063.75</v>
       </c>
     </row>
-    <row r="3684" spans="1:11">
+    <row r="3684" spans="1:2">
       <c r="A3684" t="s">
         <v>3687</v>
       </c>
@@ -41365,7 +41371,7 @@
         <v>1335065.11</v>
       </c>
     </row>
-    <row r="3685" spans="1:11">
+    <row r="3685" spans="1:2">
       <c r="A3685" t="s">
         <v>3688</v>
       </c>
@@ -41373,7 +41379,7 @@
         <v>1446012.11</v>
       </c>
     </row>
-    <row r="3686" spans="1:11">
+    <row r="3686" spans="1:2">
       <c r="A3686" t="s">
         <v>3689</v>
       </c>
@@ -41381,7 +41387,7 @@
         <v>1615923.17</v>
       </c>
     </row>
-    <row r="3687" spans="1:11">
+    <row r="3687" spans="1:2">
       <c r="A3687" t="s">
         <v>3690</v>
       </c>
@@ -41389,7 +41395,7 @@
         <v>1620852.03</v>
       </c>
     </row>
-    <row r="3688" spans="1:11">
+    <row r="3688" spans="1:2">
       <c r="A3688" t="s">
         <v>3691</v>
       </c>
@@ -41397,7 +41403,7 @@
         <v>1620852.03</v>
       </c>
     </row>
-    <row r="3689" spans="1:11">
+    <row r="3689" spans="1:2">
       <c r="A3689" t="s">
         <v>3692</v>
       </c>
@@ -41405,7 +41411,7 @@
         <v>1621012.12</v>
       </c>
     </row>
-    <row r="3690" spans="1:11">
+    <row r="3690" spans="1:2">
       <c r="A3690" t="s">
         <v>3693</v>
       </c>
@@ -41413,7 +41419,7 @@
         <v>1610378.01</v>
       </c>
     </row>
-    <row r="3691" spans="1:11">
+    <row r="3691" spans="1:2">
       <c r="A3691" t="s">
         <v>3694</v>
       </c>
@@ -41421,7 +41427,7 @@
         <v>1600401.17</v>
       </c>
     </row>
-    <row r="3692" spans="1:11">
+    <row r="3692" spans="1:2">
       <c r="A3692" t="s">
         <v>3695</v>
       </c>
@@ -41429,7 +41435,7 @@
         <v>1602038.88</v>
       </c>
     </row>
-    <row r="3693" spans="1:11">
+    <row r="3693" spans="1:2">
       <c r="A3693" t="s">
         <v>3696</v>
       </c>
@@ -41437,7 +41443,7 @@
         <v>1660824.38</v>
       </c>
     </row>
-    <row r="3694" spans="1:11">
+    <row r="3694" spans="1:2">
       <c r="A3694" t="s">
         <v>3697</v>
       </c>
@@ -41445,41 +41451,21 @@
         <v>1660824.38</v>
       </c>
     </row>
-    <row r="3695" spans="1:11">
+    <row r="3695" spans="1:2">
       <c r="A3695" t="s">
         <v>3698</v>
       </c>
       <c r="B3695">
         <v>1660824.38</v>
       </c>
-      <c r="D3695" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3695" s="3"/>
-      <c r="F3695" s="3"/>
-      <c r="G3695" s="3"/>
-      <c r="H3695" s="3"/>
-      <c r="I3695" s="3"/>
-      <c r="J3695" s="3"/>
-      <c r="K3695" s="3"/>
-    </row>
-    <row r="3696" spans="1:11">
+    </row>
+    <row r="3696" spans="1:2">
       <c r="A3696" t="s">
         <v>3699</v>
       </c>
       <c r="B3696">
         <v>1663064.87</v>
       </c>
-      <c r="D3696" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3696" s="4"/>
-      <c r="F3696" s="4"/>
-      <c r="G3696" s="4"/>
-      <c r="H3696" s="4"/>
-      <c r="I3696" s="4"/>
-      <c r="J3696" s="4"/>
-      <c r="K3696" s="4"/>
     </row>
     <row r="3697" spans="1:11">
       <c r="A3697" t="s">
@@ -41488,21 +41474,57 @@
       <c r="B3697">
         <v>1600384.65</v>
       </c>
-      <c r="D3697" s="4"/>
-      <c r="E3697" s="4"/>
-      <c r="F3697" s="4"/>
-      <c r="G3697" s="4"/>
-      <c r="H3697" s="4"/>
-      <c r="I3697" s="4"/>
-      <c r="J3697" s="4"/>
-      <c r="K3697" s="4"/>
+      <c r="D3697" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3697" s="3"/>
+      <c r="F3697" s="3"/>
+      <c r="G3697" s="3"/>
+      <c r="H3697" s="3"/>
+      <c r="I3697" s="3"/>
+      <c r="J3697" s="3"/>
+      <c r="K3697" s="3"/>
+    </row>
+    <row r="3698" spans="1:11">
+      <c r="A3698" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B3698">
+        <v>1615012.73</v>
+      </c>
+      <c r="D3698" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3698" s="4"/>
+      <c r="F3698" s="4"/>
+      <c r="G3698" s="4"/>
+      <c r="H3698" s="4"/>
+      <c r="I3698" s="4"/>
+      <c r="J3698" s="4"/>
+      <c r="K3698" s="4"/>
+    </row>
+    <row r="3699" spans="1:11">
+      <c r="A3699" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B3699">
+        <v>1702492.12</v>
+      </c>
+      <c r="D3699" s="4"/>
+      <c r="E3699" s="4"/>
+      <c r="F3699" s="4"/>
+      <c r="G3699" s="4"/>
+      <c r="H3699" s="4"/>
+      <c r="I3699" s="4"/>
+      <c r="J3699" s="4"/>
+      <c r="K3699" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3695:K3695"/>
-    <mergeCell ref="D3696:K3697"/>
+    <mergeCell ref="D3697:K3697"/>
+    <mergeCell ref="D3698:K3699"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="3703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3708" uniqueCount="3706">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11123,6 +11123,15 @@
   </si>
   <si>
     <t>1-20-2021</t>
+  </si>
+  <si>
+    <t>1-21-2021</t>
+  </si>
+  <si>
+    <t>1-22-2021</t>
+  </si>
+  <si>
+    <t>1-23-2021</t>
   </si>
 </sst>
 </file>
@@ -11259,203 +11268,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3669:$A$3699</c:f>
+              <c:f>DolarToday!$A$3672:$A$3702</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12-21-2020</c:v>
+                  <c:v>12-24-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12-22-2020</c:v>
+                  <c:v>12-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12-23-2020</c:v>
+                  <c:v>12-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-24-2020</c:v>
+                  <c:v>12-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-25-2020</c:v>
+                  <c:v>12-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-26-2020</c:v>
+                  <c:v>12-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12-27-2020</c:v>
+                  <c:v>12-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12-28-2020</c:v>
+                  <c:v>12-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12-29-2020</c:v>
+                  <c:v>1-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12-30-2020</c:v>
+                  <c:v>1-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-31-2020</c:v>
+                  <c:v>1-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1-1-2021</c:v>
+                  <c:v>1-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1-2-2021</c:v>
+                  <c:v>1-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-3-2021</c:v>
+                  <c:v>1-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1-4-2021</c:v>
+                  <c:v>1-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1-5-2021</c:v>
+                  <c:v>1-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1-6-2021</c:v>
+                  <c:v>1-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1-7-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1-8-2021</c:v>
+                  <c:v>1-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1-9-2021</c:v>
+                  <c:v>1-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-11-2021</c:v>
+                  <c:v>1-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1-12-2021</c:v>
+                  <c:v>1-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1-13-2021</c:v>
+                  <c:v>1-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1-14-2021</c:v>
+                  <c:v>1-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1-15-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1-16-2021</c:v>
+                  <c:v>1-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1-17-2021</c:v>
+                  <c:v>1-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1-19-2021</c:v>
+                  <c:v>1-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1-20-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3669:$B$3699</c:f>
+              <c:f>DolarToday!$B$3672:$B$3702</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1062934.54</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000143.81</c:v>
+                  <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>980329.71</c:v>
+                  <c:v>990813.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>980329.71</c:v>
+                  <c:v>1204338.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>980329.71</c:v>
+                  <c:v>1103663.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>990813.72</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1204338.52</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1103663.33</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>998942.14</c:v>
+                  <c:v>1120102.43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>998942.14</c:v>
+                  <c:v>1230063.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>998942.14</c:v>
+                  <c:v>1335065.11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1120102.43</c:v>
+                  <c:v>1446012.11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1230063.75</c:v>
+                  <c:v>1615923.17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1335065.11</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1446012.11</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1615923.17</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1610378.01</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1600401.17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1602038.88</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1610378.01</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1600401.17</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1602038.88</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1663064.87</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1615012.73</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1663064.87</c:v>
+                  <c:v>1702492.12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1615012.73</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1702492.12</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11862,7 +11871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3699"/>
+  <dimension ref="A1:K3702"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41474,16 +41483,6 @@
       <c r="B3697">
         <v>1600384.65</v>
       </c>
-      <c r="D3697" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3697" s="3"/>
-      <c r="F3697" s="3"/>
-      <c r="G3697" s="3"/>
-      <c r="H3697" s="3"/>
-      <c r="I3697" s="3"/>
-      <c r="J3697" s="3"/>
-      <c r="K3697" s="3"/>
     </row>
     <row r="3698" spans="1:11">
       <c r="A3698" t="s">
@@ -41492,16 +41491,6 @@
       <c r="B3698">
         <v>1615012.73</v>
       </c>
-      <c r="D3698" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3698" s="4"/>
-      <c r="F3698" s="4"/>
-      <c r="G3698" s="4"/>
-      <c r="H3698" s="4"/>
-      <c r="I3698" s="4"/>
-      <c r="J3698" s="4"/>
-      <c r="K3698" s="4"/>
     </row>
     <row r="3699" spans="1:11">
       <c r="A3699" t="s">
@@ -41510,21 +41499,65 @@
       <c r="B3699">
         <v>1702492.12</v>
       </c>
-      <c r="D3699" s="4"/>
-      <c r="E3699" s="4"/>
-      <c r="F3699" s="4"/>
-      <c r="G3699" s="4"/>
-      <c r="H3699" s="4"/>
-      <c r="I3699" s="4"/>
-      <c r="J3699" s="4"/>
-      <c r="K3699" s="4"/>
+    </row>
+    <row r="3700" spans="1:11">
+      <c r="A3700" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B3700">
+        <v>1750236.13</v>
+      </c>
+      <c r="D3700" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3700" s="3"/>
+      <c r="F3700" s="3"/>
+      <c r="G3700" s="3"/>
+      <c r="H3700" s="3"/>
+      <c r="I3700" s="3"/>
+      <c r="J3700" s="3"/>
+      <c r="K3700" s="3"/>
+    </row>
+    <row r="3701" spans="1:11">
+      <c r="A3701" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B3701">
+        <v>1750236.13</v>
+      </c>
+      <c r="D3701" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3701" s="4"/>
+      <c r="F3701" s="4"/>
+      <c r="G3701" s="4"/>
+      <c r="H3701" s="4"/>
+      <c r="I3701" s="4"/>
+      <c r="J3701" s="4"/>
+      <c r="K3701" s="4"/>
+    </row>
+    <row r="3702" spans="1:11">
+      <c r="A3702" t="s">
+        <v>3705</v>
+      </c>
+      <c r="B3702">
+        <v>1750236.13</v>
+      </c>
+      <c r="D3702" s="4"/>
+      <c r="E3702" s="4"/>
+      <c r="F3702" s="4"/>
+      <c r="G3702" s="4"/>
+      <c r="H3702" s="4"/>
+      <c r="I3702" s="4"/>
+      <c r="J3702" s="4"/>
+      <c r="K3702" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3697:K3697"/>
-    <mergeCell ref="D3698:K3699"/>
+    <mergeCell ref="D3700:K3700"/>
+    <mergeCell ref="D3701:K3702"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3708" uniqueCount="3706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3709" uniqueCount="3707">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11132,6 +11132,9 @@
   </si>
   <si>
     <t>1-23-2021</t>
+  </si>
+  <si>
+    <t>1-24-2021</t>
   </si>
 </sst>
 </file>
@@ -11268,108 +11271,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3672:$A$3702</c:f>
+              <c:f>DolarToday!$A$3673:$A$3703</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12-24-2020</c:v>
+                  <c:v>12-25-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12-25-2020</c:v>
+                  <c:v>12-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12-26-2020</c:v>
+                  <c:v>12-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-27-2020</c:v>
+                  <c:v>12-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-28-2020</c:v>
+                  <c:v>12-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-29-2020</c:v>
+                  <c:v>12-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12-30-2020</c:v>
+                  <c:v>12-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12-31-2020</c:v>
+                  <c:v>1-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-1-2021</c:v>
+                  <c:v>1-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1-2-2021</c:v>
+                  <c:v>1-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1-3-2021</c:v>
+                  <c:v>1-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1-4-2021</c:v>
+                  <c:v>1-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1-5-2021</c:v>
+                  <c:v>1-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-6-2021</c:v>
+                  <c:v>1-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1-7-2021</c:v>
+                  <c:v>1-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1-8-2021</c:v>
+                  <c:v>1-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1-9-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1-11-2021</c:v>
+                  <c:v>1-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1-12-2021</c:v>
+                  <c:v>1-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1-13-2021</c:v>
+                  <c:v>1-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-14-2021</c:v>
+                  <c:v>1-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1-15-2021</c:v>
+                  <c:v>1-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1-16-2021</c:v>
+                  <c:v>1-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1-17-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1-19-2021</c:v>
+                  <c:v>1-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1-20-2021</c:v>
+                  <c:v>1-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1-21-2021</c:v>
+                  <c:v>1-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1-22-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-24-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3672:$B$3702</c:f>
+              <c:f>DolarToday!$B$3673:$B$3703</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11380,16 +11383,16 @@
                   <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>980329.71</c:v>
+                  <c:v>990813.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>990813.72</c:v>
+                  <c:v>1204338.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1204338.52</c:v>
+                  <c:v>1103663.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1103663.33</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>998942.14</c:v>
@@ -11401,40 +11404,40 @@
                   <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>998942.14</c:v>
+                  <c:v>1120102.43</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1120102.43</c:v>
+                  <c:v>1230063.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1230063.75</c:v>
+                  <c:v>1335065.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1335065.11</c:v>
+                  <c:v>1446012.11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1446012.11</c:v>
+                  <c:v>1615923.17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1615923.17</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1610378.01</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1610378.01</c:v>
+                  <c:v>1600401.17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1600401.17</c:v>
+                  <c:v>1602038.88</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1602038.88</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1660824.38</c:v>
@@ -11443,19 +11446,19 @@
                   <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1663064.87</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1663064.87</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1615012.73</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1615012.73</c:v>
+                  <c:v>1702492.12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1702492.12</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1750236.13</c:v>
@@ -11464,7 +11467,7 @@
                   <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1748013.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11871,7 +11874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3702"/>
+  <dimension ref="A1:K3703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41507,16 +41510,6 @@
       <c r="B3700">
         <v>1750236.13</v>
       </c>
-      <c r="D3700" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3700" s="3"/>
-      <c r="F3700" s="3"/>
-      <c r="G3700" s="3"/>
-      <c r="H3700" s="3"/>
-      <c r="I3700" s="3"/>
-      <c r="J3700" s="3"/>
-      <c r="K3700" s="3"/>
     </row>
     <row r="3701" spans="1:11">
       <c r="A3701" t="s">
@@ -41525,16 +41518,16 @@
       <c r="B3701">
         <v>1750236.13</v>
       </c>
-      <c r="D3701" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3701" s="4"/>
-      <c r="F3701" s="4"/>
-      <c r="G3701" s="4"/>
-      <c r="H3701" s="4"/>
-      <c r="I3701" s="4"/>
-      <c r="J3701" s="4"/>
-      <c r="K3701" s="4"/>
+      <c r="D3701" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3701" s="3"/>
+      <c r="F3701" s="3"/>
+      <c r="G3701" s="3"/>
+      <c r="H3701" s="3"/>
+      <c r="I3701" s="3"/>
+      <c r="J3701" s="3"/>
+      <c r="K3701" s="3"/>
     </row>
     <row r="3702" spans="1:11">
       <c r="A3702" t="s">
@@ -41543,7 +41536,9 @@
       <c r="B3702">
         <v>1750236.13</v>
       </c>
-      <c r="D3702" s="4"/>
+      <c r="D3702" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3702" s="4"/>
       <c r="F3702" s="4"/>
       <c r="G3702" s="4"/>
@@ -41552,12 +41547,28 @@
       <c r="J3702" s="4"/>
       <c r="K3702" s="4"/>
     </row>
+    <row r="3703" spans="1:11">
+      <c r="A3703" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B3703">
+        <v>1748013.02</v>
+      </c>
+      <c r="D3703" s="4"/>
+      <c r="E3703" s="4"/>
+      <c r="F3703" s="4"/>
+      <c r="G3703" s="4"/>
+      <c r="H3703" s="4"/>
+      <c r="I3703" s="4"/>
+      <c r="J3703" s="4"/>
+      <c r="K3703" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3700:K3700"/>
-    <mergeCell ref="D3701:K3702"/>
+    <mergeCell ref="D3701:K3701"/>
+    <mergeCell ref="D3702:K3703"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3709" uniqueCount="3707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="3708">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11135,6 +11135,9 @@
   </si>
   <si>
     <t>1-24-2021</t>
+  </si>
+  <si>
+    <t>1-25-2021</t>
   </si>
 </sst>
 </file>
@@ -11271,108 +11274,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3673:$A$3703</c:f>
+              <c:f>DolarToday!$A$3674:$A$3704</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12-25-2020</c:v>
+                  <c:v>12-26-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12-26-2020</c:v>
+                  <c:v>12-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12-27-2020</c:v>
+                  <c:v>12-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-28-2020</c:v>
+                  <c:v>12-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-29-2020</c:v>
+                  <c:v>12-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-30-2020</c:v>
+                  <c:v>12-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12-31-2020</c:v>
+                  <c:v>1-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1-1-2021</c:v>
+                  <c:v>1-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-2-2021</c:v>
+                  <c:v>1-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1-3-2021</c:v>
+                  <c:v>1-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1-4-2021</c:v>
+                  <c:v>1-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1-5-2021</c:v>
+                  <c:v>1-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1-6-2021</c:v>
+                  <c:v>1-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-7-2021</c:v>
+                  <c:v>1-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1-8-2021</c:v>
+                  <c:v>1-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1-9-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1-11-2021</c:v>
+                  <c:v>1-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1-12-2021</c:v>
+                  <c:v>1-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1-13-2021</c:v>
+                  <c:v>1-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1-14-2021</c:v>
+                  <c:v>1-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-15-2021</c:v>
+                  <c:v>1-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1-16-2021</c:v>
+                  <c:v>1-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1-17-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1-19-2021</c:v>
+                  <c:v>1-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1-20-2021</c:v>
+                  <c:v>1-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1-21-2021</c:v>
+                  <c:v>1-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1-22-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1-24-2021</c:v>
+                  <c:v>1-25-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3673:$B$3703</c:f>
+              <c:f>DolarToday!$B$3674:$B$3704</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11380,16 +11383,16 @@
                   <c:v>980329.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>980329.71</c:v>
+                  <c:v>990813.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>990813.72</c:v>
+                  <c:v>1204338.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1204338.52</c:v>
+                  <c:v>1103663.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1103663.33</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>998942.14</c:v>
@@ -11401,40 +11404,40 @@
                   <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>998942.14</c:v>
+                  <c:v>1120102.43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1120102.43</c:v>
+                  <c:v>1230063.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1230063.75</c:v>
+                  <c:v>1335065.11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1335065.11</c:v>
+                  <c:v>1446012.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1446012.11</c:v>
+                  <c:v>1615923.17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1615923.17</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1610378.01</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1610378.01</c:v>
+                  <c:v>1600401.17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1600401.17</c:v>
+                  <c:v>1602038.88</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1602038.88</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1660824.38</c:v>
@@ -11443,19 +11446,19 @@
                   <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1663064.87</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1663064.87</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1615012.73</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1615012.73</c:v>
+                  <c:v>1702492.12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1702492.12</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1750236.13</c:v>
@@ -11464,10 +11467,10 @@
                   <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1748013.02</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1748013.02</c:v>
+                  <c:v>1803130.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11874,7 +11877,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3703"/>
+  <dimension ref="A1:K3704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41518,16 +41521,6 @@
       <c r="B3701">
         <v>1750236.13</v>
       </c>
-      <c r="D3701" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3701" s="3"/>
-      <c r="F3701" s="3"/>
-      <c r="G3701" s="3"/>
-      <c r="H3701" s="3"/>
-      <c r="I3701" s="3"/>
-      <c r="J3701" s="3"/>
-      <c r="K3701" s="3"/>
     </row>
     <row r="3702" spans="1:11">
       <c r="A3702" t="s">
@@ -41536,16 +41529,16 @@
       <c r="B3702">
         <v>1750236.13</v>
       </c>
-      <c r="D3702" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3702" s="4"/>
-      <c r="F3702" s="4"/>
-      <c r="G3702" s="4"/>
-      <c r="H3702" s="4"/>
-      <c r="I3702" s="4"/>
-      <c r="J3702" s="4"/>
-      <c r="K3702" s="4"/>
+      <c r="D3702" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3702" s="3"/>
+      <c r="F3702" s="3"/>
+      <c r="G3702" s="3"/>
+      <c r="H3702" s="3"/>
+      <c r="I3702" s="3"/>
+      <c r="J3702" s="3"/>
+      <c r="K3702" s="3"/>
     </row>
     <row r="3703" spans="1:11">
       <c r="A3703" t="s">
@@ -41554,7 +41547,9 @@
       <c r="B3703">
         <v>1748013.02</v>
       </c>
-      <c r="D3703" s="4"/>
+      <c r="D3703" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3703" s="4"/>
       <c r="F3703" s="4"/>
       <c r="G3703" s="4"/>
@@ -41563,12 +41558,28 @@
       <c r="J3703" s="4"/>
       <c r="K3703" s="4"/>
     </row>
+    <row r="3704" spans="1:11">
+      <c r="A3704" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B3704">
+        <v>1803130.82</v>
+      </c>
+      <c r="D3704" s="4"/>
+      <c r="E3704" s="4"/>
+      <c r="F3704" s="4"/>
+      <c r="G3704" s="4"/>
+      <c r="H3704" s="4"/>
+      <c r="I3704" s="4"/>
+      <c r="J3704" s="4"/>
+      <c r="K3704" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3701:K3701"/>
-    <mergeCell ref="D3702:K3703"/>
+    <mergeCell ref="D3702:K3702"/>
+    <mergeCell ref="D3703:K3704"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="3708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3711" uniqueCount="3709">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11138,6 +11138,9 @@
   </si>
   <si>
     <t>1-25-2021</t>
+  </si>
+  <si>
+    <t>1-26-2021</t>
   </si>
 </sst>
 </file>
@@ -11274,122 +11277,122 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3674:$A$3704</c:f>
+              <c:f>DolarToday!$A$3675:$A$3705</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12-26-2020</c:v>
+                  <c:v>12-27-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12-27-2020</c:v>
+                  <c:v>12-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12-28-2020</c:v>
+                  <c:v>12-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-29-2020</c:v>
+                  <c:v>12-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-30-2020</c:v>
+                  <c:v>12-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-31-2020</c:v>
+                  <c:v>1-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1-1-2021</c:v>
+                  <c:v>1-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1-2-2021</c:v>
+                  <c:v>1-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-3-2021</c:v>
+                  <c:v>1-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1-4-2021</c:v>
+                  <c:v>1-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1-5-2021</c:v>
+                  <c:v>1-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1-6-2021</c:v>
+                  <c:v>1-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1-7-2021</c:v>
+                  <c:v>1-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-8-2021</c:v>
+                  <c:v>1-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1-9-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1-11-2021</c:v>
+                  <c:v>1-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1-12-2021</c:v>
+                  <c:v>1-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1-13-2021</c:v>
+                  <c:v>1-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1-14-2021</c:v>
+                  <c:v>1-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1-15-2021</c:v>
+                  <c:v>1-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-16-2021</c:v>
+                  <c:v>1-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1-17-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1-19-2021</c:v>
+                  <c:v>1-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1-20-2021</c:v>
+                  <c:v>1-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1-21-2021</c:v>
+                  <c:v>1-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1-22-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1-24-2021</c:v>
+                  <c:v>1-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1-25-2021</c:v>
+                  <c:v>1-26-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3674:$B$3704</c:f>
+              <c:f>DolarToday!$B$3675:$B$3705</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>980329.71</c:v>
+                  <c:v>990813.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>990813.72</c:v>
+                  <c:v>1204338.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1204338.52</c:v>
+                  <c:v>1103663.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1103663.33</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>998942.14</c:v>
@@ -11401,40 +11404,40 @@
                   <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>998942.14</c:v>
+                  <c:v>1120102.43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1120102.43</c:v>
+                  <c:v>1230063.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1230063.75</c:v>
+                  <c:v>1335065.11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1335065.11</c:v>
+                  <c:v>1446012.11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1446012.11</c:v>
+                  <c:v>1615923.17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1615923.17</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1610378.01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1610378.01</c:v>
+                  <c:v>1600401.17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1600401.17</c:v>
+                  <c:v>1602038.88</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1602038.88</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1660824.38</c:v>
@@ -11443,19 +11446,19 @@
                   <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1663064.87</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1663064.87</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1615012.73</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1615012.73</c:v>
+                  <c:v>1702492.12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1702492.12</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1750236.13</c:v>
@@ -11464,13 +11467,13 @@
                   <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1748013.02</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1748013.02</c:v>
+                  <c:v>1803130.82</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1803130.82</c:v>
+                  <c:v>1850128.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11877,7 +11880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3704"/>
+  <dimension ref="A1:K3705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41529,16 +41532,6 @@
       <c r="B3702">
         <v>1750236.13</v>
       </c>
-      <c r="D3702" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3702" s="3"/>
-      <c r="F3702" s="3"/>
-      <c r="G3702" s="3"/>
-      <c r="H3702" s="3"/>
-      <c r="I3702" s="3"/>
-      <c r="J3702" s="3"/>
-      <c r="K3702" s="3"/>
     </row>
     <row r="3703" spans="1:11">
       <c r="A3703" t="s">
@@ -41547,16 +41540,16 @@
       <c r="B3703">
         <v>1748013.02</v>
       </c>
-      <c r="D3703" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3703" s="4"/>
-      <c r="F3703" s="4"/>
-      <c r="G3703" s="4"/>
-      <c r="H3703" s="4"/>
-      <c r="I3703" s="4"/>
-      <c r="J3703" s="4"/>
-      <c r="K3703" s="4"/>
+      <c r="D3703" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3703" s="3"/>
+      <c r="F3703" s="3"/>
+      <c r="G3703" s="3"/>
+      <c r="H3703" s="3"/>
+      <c r="I3703" s="3"/>
+      <c r="J3703" s="3"/>
+      <c r="K3703" s="3"/>
     </row>
     <row r="3704" spans="1:11">
       <c r="A3704" t="s">
@@ -41565,7 +41558,9 @@
       <c r="B3704">
         <v>1803130.82</v>
       </c>
-      <c r="D3704" s="4"/>
+      <c r="D3704" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3704" s="4"/>
       <c r="F3704" s="4"/>
       <c r="G3704" s="4"/>
@@ -41574,12 +41569,28 @@
       <c r="J3704" s="4"/>
       <c r="K3704" s="4"/>
     </row>
+    <row r="3705" spans="1:11">
+      <c r="A3705" t="s">
+        <v>3708</v>
+      </c>
+      <c r="B3705">
+        <v>1850128.02</v>
+      </c>
+      <c r="D3705" s="4"/>
+      <c r="E3705" s="4"/>
+      <c r="F3705" s="4"/>
+      <c r="G3705" s="4"/>
+      <c r="H3705" s="4"/>
+      <c r="I3705" s="4"/>
+      <c r="J3705" s="4"/>
+      <c r="K3705" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3702:K3702"/>
-    <mergeCell ref="D3703:K3704"/>
+    <mergeCell ref="D3703:K3703"/>
+    <mergeCell ref="D3704:K3705"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3711" uniqueCount="3709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3712" uniqueCount="3710">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11141,6 +11141,9 @@
   </si>
   <si>
     <t>1-26-2021</t>
+  </si>
+  <si>
+    <t>1-27-2021</t>
   </si>
 </sst>
 </file>
@@ -11277,119 +11280,119 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3675:$A$3705</c:f>
+              <c:f>DolarToday!$A$3676:$A$3706</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12-27-2020</c:v>
+                  <c:v>12-28-2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12-28-2020</c:v>
+                  <c:v>12-29-2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12-29-2020</c:v>
+                  <c:v>12-30-2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-30-2020</c:v>
+                  <c:v>12-31-2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-31-2020</c:v>
+                  <c:v>1-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1-1-2021</c:v>
+                  <c:v>1-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1-2-2021</c:v>
+                  <c:v>1-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1-3-2021</c:v>
+                  <c:v>1-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-4-2021</c:v>
+                  <c:v>1-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1-5-2021</c:v>
+                  <c:v>1-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1-6-2021</c:v>
+                  <c:v>1-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1-7-2021</c:v>
+                  <c:v>1-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1-8-2021</c:v>
+                  <c:v>1-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-9-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1-11-2021</c:v>
+                  <c:v>1-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1-12-2021</c:v>
+                  <c:v>1-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1-13-2021</c:v>
+                  <c:v>1-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1-14-2021</c:v>
+                  <c:v>1-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1-15-2021</c:v>
+                  <c:v>1-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1-16-2021</c:v>
+                  <c:v>1-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-17-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1-19-2021</c:v>
+                  <c:v>1-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1-20-2021</c:v>
+                  <c:v>1-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1-21-2021</c:v>
+                  <c:v>1-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1-22-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1-24-2021</c:v>
+                  <c:v>1-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1-25-2021</c:v>
+                  <c:v>1-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1-26-2021</c:v>
+                  <c:v>1-27-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3675:$B$3705</c:f>
+              <c:f>DolarToday!$B$3676:$B$3706</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>990813.72</c:v>
+                  <c:v>1204338.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1204338.52</c:v>
+                  <c:v>1103663.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1103663.33</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>998942.14</c:v>
@@ -11401,40 +11404,40 @@
                   <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>998942.14</c:v>
+                  <c:v>1120102.43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1120102.43</c:v>
+                  <c:v>1230063.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1230063.75</c:v>
+                  <c:v>1335065.11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1335065.11</c:v>
+                  <c:v>1446012.11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1446012.11</c:v>
+                  <c:v>1615923.17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1615923.17</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1610378.01</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1610378.01</c:v>
+                  <c:v>1600401.17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1600401.17</c:v>
+                  <c:v>1602038.88</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1602038.88</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1660824.38</c:v>
@@ -11443,19 +11446,19 @@
                   <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1663064.87</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1663064.87</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1615012.73</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1615012.73</c:v>
+                  <c:v>1702492.12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1702492.12</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1750236.13</c:v>
@@ -11464,16 +11467,16 @@
                   <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1748013.02</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1748013.02</c:v>
+                  <c:v>1803130.82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1803130.82</c:v>
+                  <c:v>1850128.02</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1850128.02</c:v>
+                  <c:v>1802869.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11880,7 +11883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3705"/>
+  <dimension ref="A1:K3706"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41540,16 +41543,6 @@
       <c r="B3703">
         <v>1748013.02</v>
       </c>
-      <c r="D3703" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3703" s="3"/>
-      <c r="F3703" s="3"/>
-      <c r="G3703" s="3"/>
-      <c r="H3703" s="3"/>
-      <c r="I3703" s="3"/>
-      <c r="J3703" s="3"/>
-      <c r="K3703" s="3"/>
     </row>
     <row r="3704" spans="1:11">
       <c r="A3704" t="s">
@@ -41558,16 +41551,16 @@
       <c r="B3704">
         <v>1803130.82</v>
       </c>
-      <c r="D3704" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3704" s="4"/>
-      <c r="F3704" s="4"/>
-      <c r="G3704" s="4"/>
-      <c r="H3704" s="4"/>
-      <c r="I3704" s="4"/>
-      <c r="J3704" s="4"/>
-      <c r="K3704" s="4"/>
+      <c r="D3704" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3704" s="3"/>
+      <c r="F3704" s="3"/>
+      <c r="G3704" s="3"/>
+      <c r="H3704" s="3"/>
+      <c r="I3704" s="3"/>
+      <c r="J3704" s="3"/>
+      <c r="K3704" s="3"/>
     </row>
     <row r="3705" spans="1:11">
       <c r="A3705" t="s">
@@ -41576,7 +41569,9 @@
       <c r="B3705">
         <v>1850128.02</v>
       </c>
-      <c r="D3705" s="4"/>
+      <c r="D3705" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3705" s="4"/>
       <c r="F3705" s="4"/>
       <c r="G3705" s="4"/>
@@ -41585,12 +41580,28 @@
       <c r="J3705" s="4"/>
       <c r="K3705" s="4"/>
     </row>
+    <row r="3706" spans="1:11">
+      <c r="A3706" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B3706">
+        <v>1802869.02</v>
+      </c>
+      <c r="D3706" s="4"/>
+      <c r="E3706" s="4"/>
+      <c r="F3706" s="4"/>
+      <c r="G3706" s="4"/>
+      <c r="H3706" s="4"/>
+      <c r="I3706" s="4"/>
+      <c r="J3706" s="4"/>
+      <c r="K3706" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3703:K3703"/>
-    <mergeCell ref="D3704:K3705"/>
+    <mergeCell ref="D3704:K3704"/>
+    <mergeCell ref="D3705:K3706"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3712" uniqueCount="3710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="3715">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11144,6 +11144,21 @@
   </si>
   <si>
     <t>1-27-2021</t>
+  </si>
+  <si>
+    <t>1-28-2021</t>
+  </si>
+  <si>
+    <t>1-29-2021</t>
+  </si>
+  <si>
+    <t>1-30-2021</t>
+  </si>
+  <si>
+    <t>1-31-2021</t>
+  </si>
+  <si>
+    <t>2-1-2021</t>
   </si>
 </sst>
 </file>
@@ -11280,203 +11295,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3676:$A$3706</c:f>
+              <c:f>DolarToday!$A$3681:$A$3711</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12-28-2020</c:v>
+                  <c:v>1-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12-29-2020</c:v>
+                  <c:v>1-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12-30-2020</c:v>
+                  <c:v>1-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12-31-2020</c:v>
+                  <c:v>1-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1-1-2021</c:v>
+                  <c:v>1-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1-2-2021</c:v>
+                  <c:v>1-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1-3-2021</c:v>
+                  <c:v>1-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1-4-2021</c:v>
+                  <c:v>1-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-5-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1-6-2021</c:v>
+                  <c:v>1-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1-7-2021</c:v>
+                  <c:v>1-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1-8-2021</c:v>
+                  <c:v>1-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1-9-2021</c:v>
+                  <c:v>1-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1-11-2021</c:v>
+                  <c:v>1-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1-12-2021</c:v>
+                  <c:v>1-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1-13-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1-14-2021</c:v>
+                  <c:v>1-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1-15-2021</c:v>
+                  <c:v>1-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1-16-2021</c:v>
+                  <c:v>1-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1-17-2021</c:v>
+                  <c:v>1-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1-19-2021</c:v>
+                  <c:v>1-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1-20-2021</c:v>
+                  <c:v>1-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1-21-2021</c:v>
+                  <c:v>1-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1-22-2021</c:v>
+                  <c:v>1-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1-24-2021</c:v>
+                  <c:v>1-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1-25-2021</c:v>
+                  <c:v>1-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1-26-2021</c:v>
+                  <c:v>1-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1-27-2021</c:v>
+                  <c:v>2-1-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3676:$B$3706</c:f>
+              <c:f>DolarToday!$B$3681:$B$3711</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1204338.52</c:v>
+                  <c:v>998942.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1103663.33</c:v>
+                  <c:v>1120102.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>998942.14</c:v>
+                  <c:v>1230063.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>998942.14</c:v>
+                  <c:v>1335065.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>998942.14</c:v>
+                  <c:v>1446012.11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>998942.14</c:v>
+                  <c:v>1615923.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1120102.43</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1230063.75</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1335065.11</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1446012.11</c:v>
+                  <c:v>1610378.01</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1615923.17</c:v>
+                  <c:v>1600401.17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1602038.88</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1610378.01</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600401.17</c:v>
+                  <c:v>1663064.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1602038.88</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1615012.73</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1702492.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1663064.87</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1615012.73</c:v>
+                  <c:v>1748013.02</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1702492.12</c:v>
+                  <c:v>1803130.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1850128.02</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1802869.02</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1748013.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1803130.82</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1850128.02</c:v>
+                  <c:v>1750022.13</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1802869.02</c:v>
+                  <c:v>1728843.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11883,7 +11898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3706"/>
+  <dimension ref="A1:K3711"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41551,16 +41566,6 @@
       <c r="B3704">
         <v>1803130.82</v>
       </c>
-      <c r="D3704" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3704" s="3"/>
-      <c r="F3704" s="3"/>
-      <c r="G3704" s="3"/>
-      <c r="H3704" s="3"/>
-      <c r="I3704" s="3"/>
-      <c r="J3704" s="3"/>
-      <c r="K3704" s="3"/>
     </row>
     <row r="3705" spans="1:11">
       <c r="A3705" t="s">
@@ -41569,16 +41574,6 @@
       <c r="B3705">
         <v>1850128.02</v>
       </c>
-      <c r="D3705" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3705" s="4"/>
-      <c r="F3705" s="4"/>
-      <c r="G3705" s="4"/>
-      <c r="H3705" s="4"/>
-      <c r="I3705" s="4"/>
-      <c r="J3705" s="4"/>
-      <c r="K3705" s="4"/>
     </row>
     <row r="3706" spans="1:11">
       <c r="A3706" t="s">
@@ -41587,21 +41582,81 @@
       <c r="B3706">
         <v>1802869.02</v>
       </c>
-      <c r="D3706" s="4"/>
-      <c r="E3706" s="4"/>
-      <c r="F3706" s="4"/>
-      <c r="G3706" s="4"/>
-      <c r="H3706" s="4"/>
-      <c r="I3706" s="4"/>
-      <c r="J3706" s="4"/>
-      <c r="K3706" s="4"/>
+    </row>
+    <row r="3707" spans="1:11">
+      <c r="A3707" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B3707">
+        <v>1788641.94</v>
+      </c>
+    </row>
+    <row r="3708" spans="1:11">
+      <c r="A3708" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B3708">
+        <v>1788641.94</v>
+      </c>
+    </row>
+    <row r="3709" spans="1:11">
+      <c r="A3709" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B3709">
+        <v>1788641.94</v>
+      </c>
+      <c r="D3709" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3709" s="3"/>
+      <c r="F3709" s="3"/>
+      <c r="G3709" s="3"/>
+      <c r="H3709" s="3"/>
+      <c r="I3709" s="3"/>
+      <c r="J3709" s="3"/>
+      <c r="K3709" s="3"/>
+    </row>
+    <row r="3710" spans="1:11">
+      <c r="A3710" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B3710">
+        <v>1750022.13</v>
+      </c>
+      <c r="D3710" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3710" s="4"/>
+      <c r="F3710" s="4"/>
+      <c r="G3710" s="4"/>
+      <c r="H3710" s="4"/>
+      <c r="I3710" s="4"/>
+      <c r="J3710" s="4"/>
+      <c r="K3710" s="4"/>
+    </row>
+    <row r="3711" spans="1:11">
+      <c r="A3711" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B3711">
+        <v>1728843.54</v>
+      </c>
+      <c r="D3711" s="4"/>
+      <c r="E3711" s="4"/>
+      <c r="F3711" s="4"/>
+      <c r="G3711" s="4"/>
+      <c r="H3711" s="4"/>
+      <c r="I3711" s="4"/>
+      <c r="J3711" s="4"/>
+      <c r="K3711" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3704:K3704"/>
-    <mergeCell ref="D3705:K3706"/>
+    <mergeCell ref="D3709:K3709"/>
+    <mergeCell ref="D3710:K3711"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="3715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3718" uniqueCount="3716">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11159,6 +11159,9 @@
   </si>
   <si>
     <t>2-1-2021</t>
+  </si>
+  <si>
+    <t>2-2-2021</t>
   </si>
 </sst>
 </file>
@@ -11295,146 +11298,146 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3681:$A$3711</c:f>
+              <c:f>DolarToday!$A$3682:$A$3712</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1-2-2021</c:v>
+                  <c:v>1-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-3-2021</c:v>
+                  <c:v>1-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1-4-2021</c:v>
+                  <c:v>1-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1-5-2021</c:v>
+                  <c:v>1-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1-6-2021</c:v>
+                  <c:v>1-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1-7-2021</c:v>
+                  <c:v>1-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1-8-2021</c:v>
+                  <c:v>1-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1-9-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1-11-2021</c:v>
+                  <c:v>1-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1-12-2021</c:v>
+                  <c:v>1-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1-13-2021</c:v>
+                  <c:v>1-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1-14-2021</c:v>
+                  <c:v>1-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-15-2021</c:v>
+                  <c:v>1-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1-16-2021</c:v>
+                  <c:v>1-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1-17-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1-19-2021</c:v>
+                  <c:v>1-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1-20-2021</c:v>
+                  <c:v>1-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1-21-2021</c:v>
+                  <c:v>1-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1-22-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1-24-2021</c:v>
+                  <c:v>1-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1-25-2021</c:v>
+                  <c:v>1-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1-26-2021</c:v>
+                  <c:v>1-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1-27-2021</c:v>
+                  <c:v>1-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1-28-2021</c:v>
+                  <c:v>1-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1-29-2021</c:v>
+                  <c:v>1-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1-30-2021</c:v>
+                  <c:v>1-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1-31-2021</c:v>
+                  <c:v>2-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2-1-2021</c:v>
+                  <c:v>2-2-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3681:$B$3711</c:f>
+              <c:f>DolarToday!$B$3682:$B$3712</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>998942.14</c:v>
+                  <c:v>1120102.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1120102.43</c:v>
+                  <c:v>1230063.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1230063.75</c:v>
+                  <c:v>1335065.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1335065.11</c:v>
+                  <c:v>1446012.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1446012.11</c:v>
+                  <c:v>1615923.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1615923.17</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1610378.01</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1610378.01</c:v>
+                  <c:v>1600401.17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1600401.17</c:v>
+                  <c:v>1602038.88</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1602038.88</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1660824.38</c:v>
@@ -11443,19 +11446,19 @@
                   <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1663064.87</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1663064.87</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1615012.73</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1615012.73</c:v>
+                  <c:v>1702492.12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1702492.12</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1750236.13</c:v>
@@ -11464,19 +11467,19 @@
                   <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1748013.02</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1748013.02</c:v>
+                  <c:v>1803130.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1803130.82</c:v>
+                  <c:v>1850128.02</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1850128.02</c:v>
+                  <c:v>1802869.02</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1802869.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1788641.94</c:v>
@@ -11485,13 +11488,13 @@
                   <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1750022.13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1750022.13</c:v>
+                  <c:v>1728843.54</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1728843.54</c:v>
+                  <c:v>1800137.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11898,7 +11901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3711"/>
+  <dimension ref="A1:K3712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41606,16 +41609,6 @@
       <c r="B3709">
         <v>1788641.94</v>
       </c>
-      <c r="D3709" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3709" s="3"/>
-      <c r="F3709" s="3"/>
-      <c r="G3709" s="3"/>
-      <c r="H3709" s="3"/>
-      <c r="I3709" s="3"/>
-      <c r="J3709" s="3"/>
-      <c r="K3709" s="3"/>
     </row>
     <row r="3710" spans="1:11">
       <c r="A3710" t="s">
@@ -41624,16 +41617,16 @@
       <c r="B3710">
         <v>1750022.13</v>
       </c>
-      <c r="D3710" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3710" s="4"/>
-      <c r="F3710" s="4"/>
-      <c r="G3710" s="4"/>
-      <c r="H3710" s="4"/>
-      <c r="I3710" s="4"/>
-      <c r="J3710" s="4"/>
-      <c r="K3710" s="4"/>
+      <c r="D3710" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3710" s="3"/>
+      <c r="F3710" s="3"/>
+      <c r="G3710" s="3"/>
+      <c r="H3710" s="3"/>
+      <c r="I3710" s="3"/>
+      <c r="J3710" s="3"/>
+      <c r="K3710" s="3"/>
     </row>
     <row r="3711" spans="1:11">
       <c r="A3711" t="s">
@@ -41642,7 +41635,9 @@
       <c r="B3711">
         <v>1728843.54</v>
       </c>
-      <c r="D3711" s="4"/>
+      <c r="D3711" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3711" s="4"/>
       <c r="F3711" s="4"/>
       <c r="G3711" s="4"/>
@@ -41651,12 +41646,28 @@
       <c r="J3711" s="4"/>
       <c r="K3711" s="4"/>
     </row>
+    <row r="3712" spans="1:11">
+      <c r="A3712" t="s">
+        <v>3715</v>
+      </c>
+      <c r="B3712">
+        <v>1800137.29</v>
+      </c>
+      <c r="D3712" s="4"/>
+      <c r="E3712" s="4"/>
+      <c r="F3712" s="4"/>
+      <c r="G3712" s="4"/>
+      <c r="H3712" s="4"/>
+      <c r="I3712" s="4"/>
+      <c r="J3712" s="4"/>
+      <c r="K3712" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3709:K3709"/>
-    <mergeCell ref="D3710:K3711"/>
+    <mergeCell ref="D3710:K3710"/>
+    <mergeCell ref="D3711:K3712"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3718" uniqueCount="3716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="3717">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11162,6 +11162,9 @@
   </si>
   <si>
     <t>2-2-2021</t>
+  </si>
+  <si>
+    <t>2-3-2021</t>
   </si>
 </sst>
 </file>
@@ -11298,143 +11301,143 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3682:$A$3712</c:f>
+              <c:f>DolarToday!$A$3683:$A$3713</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1-3-2021</c:v>
+                  <c:v>1-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-4-2021</c:v>
+                  <c:v>1-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1-5-2021</c:v>
+                  <c:v>1-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1-6-2021</c:v>
+                  <c:v>1-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1-7-2021</c:v>
+                  <c:v>1-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1-8-2021</c:v>
+                  <c:v>1-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1-9-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-11-2021</c:v>
+                  <c:v>1-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1-12-2021</c:v>
+                  <c:v>1-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1-13-2021</c:v>
+                  <c:v>1-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1-14-2021</c:v>
+                  <c:v>1-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1-15-2021</c:v>
+                  <c:v>1-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-16-2021</c:v>
+                  <c:v>1-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1-17-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1-19-2021</c:v>
+                  <c:v>1-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1-20-2021</c:v>
+                  <c:v>1-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1-21-2021</c:v>
+                  <c:v>1-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1-22-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-24-2021</c:v>
+                  <c:v>1-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1-25-2021</c:v>
+                  <c:v>1-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1-26-2021</c:v>
+                  <c:v>1-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1-27-2021</c:v>
+                  <c:v>1-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1-28-2021</c:v>
+                  <c:v>1-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1-29-2021</c:v>
+                  <c:v>1-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1-30-2021</c:v>
+                  <c:v>1-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1-31-2021</c:v>
+                  <c:v>2-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2-1-2021</c:v>
+                  <c:v>2-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2-2-2021</c:v>
+                  <c:v>2-3-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3682:$B$3712</c:f>
+              <c:f>DolarToday!$B$3683:$B$3713</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1120102.43</c:v>
+                  <c:v>1230063.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1230063.75</c:v>
+                  <c:v>1335065.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1335065.11</c:v>
+                  <c:v>1446012.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1446012.11</c:v>
+                  <c:v>1615923.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1615923.17</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1610378.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1610378.01</c:v>
+                  <c:v>1600401.17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1600401.17</c:v>
+                  <c:v>1602038.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1602038.88</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1660824.38</c:v>
@@ -11443,19 +11446,19 @@
                   <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1663064.87</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1663064.87</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1615012.73</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1615012.73</c:v>
+                  <c:v>1702492.12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1702492.12</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1750236.13</c:v>
@@ -11464,19 +11467,19 @@
                   <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1748013.02</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1748013.02</c:v>
+                  <c:v>1803130.82</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1803130.82</c:v>
+                  <c:v>1850128.02</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1850128.02</c:v>
+                  <c:v>1802869.02</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1802869.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1788641.94</c:v>
@@ -11485,16 +11488,16 @@
                   <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1750022.13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1750022.13</c:v>
+                  <c:v>1728843.54</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1728843.54</c:v>
+                  <c:v>1800137.29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1800137.29</c:v>
+                  <c:v>1850015.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11901,7 +11904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3712"/>
+  <dimension ref="A1:K3713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41617,16 +41620,6 @@
       <c r="B3710">
         <v>1750022.13</v>
       </c>
-      <c r="D3710" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3710" s="3"/>
-      <c r="F3710" s="3"/>
-      <c r="G3710" s="3"/>
-      <c r="H3710" s="3"/>
-      <c r="I3710" s="3"/>
-      <c r="J3710" s="3"/>
-      <c r="K3710" s="3"/>
     </row>
     <row r="3711" spans="1:11">
       <c r="A3711" t="s">
@@ -41635,16 +41628,16 @@
       <c r="B3711">
         <v>1728843.54</v>
       </c>
-      <c r="D3711" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3711" s="4"/>
-      <c r="F3711" s="4"/>
-      <c r="G3711" s="4"/>
-      <c r="H3711" s="4"/>
-      <c r="I3711" s="4"/>
-      <c r="J3711" s="4"/>
-      <c r="K3711" s="4"/>
+      <c r="D3711" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3711" s="3"/>
+      <c r="F3711" s="3"/>
+      <c r="G3711" s="3"/>
+      <c r="H3711" s="3"/>
+      <c r="I3711" s="3"/>
+      <c r="J3711" s="3"/>
+      <c r="K3711" s="3"/>
     </row>
     <row r="3712" spans="1:11">
       <c r="A3712" t="s">
@@ -41653,7 +41646,9 @@
       <c r="B3712">
         <v>1800137.29</v>
       </c>
-      <c r="D3712" s="4"/>
+      <c r="D3712" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3712" s="4"/>
       <c r="F3712" s="4"/>
       <c r="G3712" s="4"/>
@@ -41662,12 +41657,28 @@
       <c r="J3712" s="4"/>
       <c r="K3712" s="4"/>
     </row>
+    <row r="3713" spans="1:11">
+      <c r="A3713" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B3713">
+        <v>1850015.22</v>
+      </c>
+      <c r="D3713" s="4"/>
+      <c r="E3713" s="4"/>
+      <c r="F3713" s="4"/>
+      <c r="G3713" s="4"/>
+      <c r="H3713" s="4"/>
+      <c r="I3713" s="4"/>
+      <c r="J3713" s="4"/>
+      <c r="K3713" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3710:K3710"/>
-    <mergeCell ref="D3711:K3712"/>
+    <mergeCell ref="D3711:K3711"/>
+    <mergeCell ref="D3712:K3713"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="3717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3722" uniqueCount="3720">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11165,6 +11165,15 @@
   </si>
   <si>
     <t>2-3-2021</t>
+  </si>
+  <si>
+    <t>2-4-2021</t>
+  </si>
+  <si>
+    <t>2-5-2021</t>
+  </si>
+  <si>
+    <t>2-6-2021</t>
   </si>
 </sst>
 </file>
@@ -11301,203 +11310,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3683:$A$3713</c:f>
+              <c:f>DolarToday!$A$3686:$A$3716</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1-4-2021</c:v>
+                  <c:v>1-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-5-2021</c:v>
+                  <c:v>1-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1-6-2021</c:v>
+                  <c:v>1-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1-7-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1-8-2021</c:v>
+                  <c:v>1-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1-9-2021</c:v>
+                  <c:v>1-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1-11-2021</c:v>
+                  <c:v>1-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-12-2021</c:v>
+                  <c:v>1-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1-13-2021</c:v>
+                  <c:v>1-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1-14-2021</c:v>
+                  <c:v>1-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1-15-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1-16-2021</c:v>
+                  <c:v>1-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-17-2021</c:v>
+                  <c:v>1-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1-19-2021</c:v>
+                  <c:v>1-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1-20-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1-21-2021</c:v>
+                  <c:v>1-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1-22-2021</c:v>
+                  <c:v>1-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1-24-2021</c:v>
+                  <c:v>1-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-25-2021</c:v>
+                  <c:v>1-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1-26-2021</c:v>
+                  <c:v>1-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1-27-2021</c:v>
+                  <c:v>1-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1-28-2021</c:v>
+                  <c:v>1-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1-29-2021</c:v>
+                  <c:v>2-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1-30-2021</c:v>
+                  <c:v>2-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1-31-2021</c:v>
+                  <c:v>2-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2-1-2021</c:v>
+                  <c:v>2-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2-2-2021</c:v>
+                  <c:v>2-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2-3-2021</c:v>
+                  <c:v>2-6-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3683:$B$3713</c:f>
+              <c:f>DolarToday!$B$3686:$B$3716</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1230063.75</c:v>
+                  <c:v>1615923.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1335065.11</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1446012.11</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1615923.17</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1610378.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1600401.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1602038.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1610378.01</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1600401.17</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1602038.88</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1663064.87</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1615012.73</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1663064.87</c:v>
+                  <c:v>1702492.12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1615012.73</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1702492.12</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1748013.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1803130.82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1850128.02</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1748013.02</c:v>
+                  <c:v>1802869.02</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1803130.82</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1850128.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1802869.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1750022.13</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1728843.54</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1800137.29</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1750022.13</c:v>
+                  <c:v>1850015.22</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1728843.54</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1800137.29</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1850015.22</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11904,7 +11913,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3713"/>
+  <dimension ref="A1:K3716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41509,7 +41518,7 @@
         <v>1663064.87</v>
       </c>
     </row>
-    <row r="3697" spans="1:11">
+    <row r="3697" spans="1:2">
       <c r="A3697" t="s">
         <v>3700</v>
       </c>
@@ -41517,7 +41526,7 @@
         <v>1600384.65</v>
       </c>
     </row>
-    <row r="3698" spans="1:11">
+    <row r="3698" spans="1:2">
       <c r="A3698" t="s">
         <v>3701</v>
       </c>
@@ -41525,7 +41534,7 @@
         <v>1615012.73</v>
       </c>
     </row>
-    <row r="3699" spans="1:11">
+    <row r="3699" spans="1:2">
       <c r="A3699" t="s">
         <v>3702</v>
       </c>
@@ -41533,7 +41542,7 @@
         <v>1702492.12</v>
       </c>
     </row>
-    <row r="3700" spans="1:11">
+    <row r="3700" spans="1:2">
       <c r="A3700" t="s">
         <v>3703</v>
       </c>
@@ -41541,7 +41550,7 @@
         <v>1750236.13</v>
       </c>
     </row>
-    <row r="3701" spans="1:11">
+    <row r="3701" spans="1:2">
       <c r="A3701" t="s">
         <v>3704</v>
       </c>
@@ -41549,7 +41558,7 @@
         <v>1750236.13</v>
       </c>
     </row>
-    <row r="3702" spans="1:11">
+    <row r="3702" spans="1:2">
       <c r="A3702" t="s">
         <v>3705</v>
       </c>
@@ -41557,7 +41566,7 @@
         <v>1750236.13</v>
       </c>
     </row>
-    <row r="3703" spans="1:11">
+    <row r="3703" spans="1:2">
       <c r="A3703" t="s">
         <v>3706</v>
       </c>
@@ -41565,7 +41574,7 @@
         <v>1748013.02</v>
       </c>
     </row>
-    <row r="3704" spans="1:11">
+    <row r="3704" spans="1:2">
       <c r="A3704" t="s">
         <v>3707</v>
       </c>
@@ -41573,7 +41582,7 @@
         <v>1803130.82</v>
       </c>
     </row>
-    <row r="3705" spans="1:11">
+    <row r="3705" spans="1:2">
       <c r="A3705" t="s">
         <v>3708</v>
       </c>
@@ -41581,7 +41590,7 @@
         <v>1850128.02</v>
       </c>
     </row>
-    <row r="3706" spans="1:11">
+    <row r="3706" spans="1:2">
       <c r="A3706" t="s">
         <v>3709</v>
       </c>
@@ -41589,7 +41598,7 @@
         <v>1802869.02</v>
       </c>
     </row>
-    <row r="3707" spans="1:11">
+    <row r="3707" spans="1:2">
       <c r="A3707" t="s">
         <v>3710</v>
       </c>
@@ -41597,7 +41606,7 @@
         <v>1788641.94</v>
       </c>
     </row>
-    <row r="3708" spans="1:11">
+    <row r="3708" spans="1:2">
       <c r="A3708" t="s">
         <v>3711</v>
       </c>
@@ -41605,7 +41614,7 @@
         <v>1788641.94</v>
       </c>
     </row>
-    <row r="3709" spans="1:11">
+    <row r="3709" spans="1:2">
       <c r="A3709" t="s">
         <v>3712</v>
       </c>
@@ -41613,7 +41622,7 @@
         <v>1788641.94</v>
       </c>
     </row>
-    <row r="3710" spans="1:11">
+    <row r="3710" spans="1:2">
       <c r="A3710" t="s">
         <v>3713</v>
       </c>
@@ -41621,41 +41630,21 @@
         <v>1750022.13</v>
       </c>
     </row>
-    <row r="3711" spans="1:11">
+    <row r="3711" spans="1:2">
       <c r="A3711" t="s">
         <v>3714</v>
       </c>
       <c r="B3711">
         <v>1728843.54</v>
       </c>
-      <c r="D3711" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3711" s="3"/>
-      <c r="F3711" s="3"/>
-      <c r="G3711" s="3"/>
-      <c r="H3711" s="3"/>
-      <c r="I3711" s="3"/>
-      <c r="J3711" s="3"/>
-      <c r="K3711" s="3"/>
-    </row>
-    <row r="3712" spans="1:11">
+    </row>
+    <row r="3712" spans="1:2">
       <c r="A3712" t="s">
         <v>3715</v>
       </c>
       <c r="B3712">
         <v>1800137.29</v>
       </c>
-      <c r="D3712" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3712" s="4"/>
-      <c r="F3712" s="4"/>
-      <c r="G3712" s="4"/>
-      <c r="H3712" s="4"/>
-      <c r="I3712" s="4"/>
-      <c r="J3712" s="4"/>
-      <c r="K3712" s="4"/>
     </row>
     <row r="3713" spans="1:11">
       <c r="A3713" t="s">
@@ -41664,21 +41653,65 @@
       <c r="B3713">
         <v>1850015.22</v>
       </c>
-      <c r="D3713" s="4"/>
-      <c r="E3713" s="4"/>
-      <c r="F3713" s="4"/>
-      <c r="G3713" s="4"/>
-      <c r="H3713" s="4"/>
-      <c r="I3713" s="4"/>
-      <c r="J3713" s="4"/>
-      <c r="K3713" s="4"/>
+    </row>
+    <row r="3714" spans="1:11">
+      <c r="A3714" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B3714">
+        <v>1847582.91</v>
+      </c>
+      <c r="D3714" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3714" s="3"/>
+      <c r="F3714" s="3"/>
+      <c r="G3714" s="3"/>
+      <c r="H3714" s="3"/>
+      <c r="I3714" s="3"/>
+      <c r="J3714" s="3"/>
+      <c r="K3714" s="3"/>
+    </row>
+    <row r="3715" spans="1:11">
+      <c r="A3715" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B3715">
+        <v>1847582.91</v>
+      </c>
+      <c r="D3715" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3715" s="4"/>
+      <c r="F3715" s="4"/>
+      <c r="G3715" s="4"/>
+      <c r="H3715" s="4"/>
+      <c r="I3715" s="4"/>
+      <c r="J3715" s="4"/>
+      <c r="K3715" s="4"/>
+    </row>
+    <row r="3716" spans="1:11">
+      <c r="A3716" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B3716">
+        <v>1847582.91</v>
+      </c>
+      <c r="D3716" s="4"/>
+      <c r="E3716" s="4"/>
+      <c r="F3716" s="4"/>
+      <c r="G3716" s="4"/>
+      <c r="H3716" s="4"/>
+      <c r="I3716" s="4"/>
+      <c r="J3716" s="4"/>
+      <c r="K3716" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3711:K3711"/>
-    <mergeCell ref="D3712:K3713"/>
+    <mergeCell ref="D3714:K3714"/>
+    <mergeCell ref="D3715:K3716"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3722" uniqueCount="3720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="3722">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11174,6 +11174,12 @@
   </si>
   <si>
     <t>2-6-2021</t>
+  </si>
+  <si>
+    <t>2-7-2021</t>
+  </si>
+  <si>
+    <t>2-8-2021</t>
   </si>
 </sst>
 </file>
@@ -11310,203 +11316,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3686:$A$3716</c:f>
+              <c:f>DolarToday!$A$3688:$A$3718</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1-7-2021</c:v>
+                  <c:v>1-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-8-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1-9-2021</c:v>
+                  <c:v>1-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1-11-2021</c:v>
+                  <c:v>1-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1-12-2021</c:v>
+                  <c:v>1-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1-13-2021</c:v>
+                  <c:v>1-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1-14-2021</c:v>
+                  <c:v>1-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-15-2021</c:v>
+                  <c:v>1-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1-16-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1-17-2021</c:v>
+                  <c:v>1-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1-19-2021</c:v>
+                  <c:v>1-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-20-2021</c:v>
+                  <c:v>1-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1-21-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1-22-2021</c:v>
+                  <c:v>1-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1-24-2021</c:v>
+                  <c:v>1-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1-25-2021</c:v>
+                  <c:v>1-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1-26-2021</c:v>
+                  <c:v>1-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1-27-2021</c:v>
+                  <c:v>1-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-28-2021</c:v>
+                  <c:v>1-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1-29-2021</c:v>
+                  <c:v>1-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1-30-2021</c:v>
+                  <c:v>2-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1-31-2021</c:v>
+                  <c:v>2-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2-1-2021</c:v>
+                  <c:v>2-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2-2-2021</c:v>
+                  <c:v>2-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2-3-2021</c:v>
+                  <c:v>2-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2-4-2021</c:v>
+                  <c:v>2-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2-5-2021</c:v>
+                  <c:v>2-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2-6-2021</c:v>
+                  <c:v>2-8-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3686:$B$3716</c:f>
+              <c:f>DolarToday!$B$3688:$B$3718</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1615923.17</c:v>
+                  <c:v>1620852.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1610378.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1600401.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1610378.01</c:v>
+                  <c:v>1602038.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600401.17</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1602038.88</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1663064.87</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1663064.87</c:v>
+                  <c:v>1615012.73</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1702492.12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1615012.73</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1702492.12</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1748013.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1803130.82</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1748013.02</c:v>
+                  <c:v>1850128.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1803130.82</c:v>
+                  <c:v>1802869.02</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1850128.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1802869.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1750022.13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1728843.54</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1750022.13</c:v>
+                  <c:v>1800137.29</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1728843.54</c:v>
+                  <c:v>1850015.22</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1800137.29</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1850015.22</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1850173.02</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1765049.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11913,7 +11919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3716"/>
+  <dimension ref="A1:K3718"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41661,16 +41667,6 @@
       <c r="B3714">
         <v>1847582.91</v>
       </c>
-      <c r="D3714" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3714" s="3"/>
-      <c r="F3714" s="3"/>
-      <c r="G3714" s="3"/>
-      <c r="H3714" s="3"/>
-      <c r="I3714" s="3"/>
-      <c r="J3714" s="3"/>
-      <c r="K3714" s="3"/>
     </row>
     <row r="3715" spans="1:11">
       <c r="A3715" t="s">
@@ -41679,16 +41675,6 @@
       <c r="B3715">
         <v>1847582.91</v>
       </c>
-      <c r="D3715" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3715" s="4"/>
-      <c r="F3715" s="4"/>
-      <c r="G3715" s="4"/>
-      <c r="H3715" s="4"/>
-      <c r="I3715" s="4"/>
-      <c r="J3715" s="4"/>
-      <c r="K3715" s="4"/>
     </row>
     <row r="3716" spans="1:11">
       <c r="A3716" t="s">
@@ -41697,21 +41683,57 @@
       <c r="B3716">
         <v>1847582.91</v>
       </c>
-      <c r="D3716" s="4"/>
-      <c r="E3716" s="4"/>
-      <c r="F3716" s="4"/>
-      <c r="G3716" s="4"/>
-      <c r="H3716" s="4"/>
-      <c r="I3716" s="4"/>
-      <c r="J3716" s="4"/>
-      <c r="K3716" s="4"/>
+      <c r="D3716" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3716" s="3"/>
+      <c r="F3716" s="3"/>
+      <c r="G3716" s="3"/>
+      <c r="H3716" s="3"/>
+      <c r="I3716" s="3"/>
+      <c r="J3716" s="3"/>
+      <c r="K3716" s="3"/>
+    </row>
+    <row r="3717" spans="1:11">
+      <c r="A3717" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B3717">
+        <v>1850173.02</v>
+      </c>
+      <c r="D3717" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3717" s="4"/>
+      <c r="F3717" s="4"/>
+      <c r="G3717" s="4"/>
+      <c r="H3717" s="4"/>
+      <c r="I3717" s="4"/>
+      <c r="J3717" s="4"/>
+      <c r="K3717" s="4"/>
+    </row>
+    <row r="3718" spans="1:11">
+      <c r="A3718" t="s">
+        <v>3721</v>
+      </c>
+      <c r="B3718">
+        <v>1765049.56</v>
+      </c>
+      <c r="D3718" s="4"/>
+      <c r="E3718" s="4"/>
+      <c r="F3718" s="4"/>
+      <c r="G3718" s="4"/>
+      <c r="H3718" s="4"/>
+      <c r="I3718" s="4"/>
+      <c r="J3718" s="4"/>
+      <c r="K3718" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3714:K3714"/>
-    <mergeCell ref="D3715:K3716"/>
+    <mergeCell ref="D3716:K3716"/>
+    <mergeCell ref="D3717:K3718"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="3722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3725" uniqueCount="3723">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11180,6 +11180,9 @@
   </si>
   <si>
     <t>2-8-2021</t>
+  </si>
+  <si>
+    <t>2-9-2021</t>
   </si>
 </sst>
 </file>
@@ -11316,125 +11319,125 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3688:$A$3718</c:f>
+              <c:f>DolarToday!$A$3689:$A$3719</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1-9-2021</c:v>
+                  <c:v>1-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1-11-2021</c:v>
+                  <c:v>1-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1-12-2021</c:v>
+                  <c:v>1-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1-13-2021</c:v>
+                  <c:v>1-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1-14-2021</c:v>
+                  <c:v>1-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1-15-2021</c:v>
+                  <c:v>1-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1-16-2021</c:v>
+                  <c:v>1-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-17-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1-19-2021</c:v>
+                  <c:v>1-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1-20-2021</c:v>
+                  <c:v>1-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1-21-2021</c:v>
+                  <c:v>1-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-22-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1-24-2021</c:v>
+                  <c:v>1-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1-25-2021</c:v>
+                  <c:v>1-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1-26-2021</c:v>
+                  <c:v>1-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1-27-2021</c:v>
+                  <c:v>1-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1-28-2021</c:v>
+                  <c:v>1-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1-29-2021</c:v>
+                  <c:v>1-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-30-2021</c:v>
+                  <c:v>1-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1-31-2021</c:v>
+                  <c:v>2-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2-1-2021</c:v>
+                  <c:v>2-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2-2-2021</c:v>
+                  <c:v>2-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2-3-2021</c:v>
+                  <c:v>2-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2-4-2021</c:v>
+                  <c:v>2-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2-5-2021</c:v>
+                  <c:v>2-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2-6-2021</c:v>
+                  <c:v>2-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2-7-2021</c:v>
+                  <c:v>2-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2-8-2021</c:v>
+                  <c:v>2-9-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3688:$B$3718</c:f>
+              <c:f>DolarToday!$B$3689:$B$3719</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1620852.03</c:v>
+                  <c:v>1621012.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1610378.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1610378.01</c:v>
+                  <c:v>1600401.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1600401.17</c:v>
+                  <c:v>1602038.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1602038.88</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1660824.38</c:v>
@@ -11443,19 +11446,19 @@
                   <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1663064.87</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1663064.87</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1615012.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1615012.73</c:v>
+                  <c:v>1702492.12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1702492.12</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1750236.13</c:v>
@@ -11464,19 +11467,19 @@
                   <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1748013.02</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1748013.02</c:v>
+                  <c:v>1803130.82</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1803130.82</c:v>
+                  <c:v>1850128.02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1850128.02</c:v>
+                  <c:v>1802869.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1802869.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1788641.94</c:v>
@@ -11485,19 +11488,19 @@
                   <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1750022.13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1750022.13</c:v>
+                  <c:v>1728843.54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1728843.54</c:v>
+                  <c:v>1800137.29</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1800137.29</c:v>
+                  <c:v>1850015.22</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1850015.22</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1847582.91</c:v>
@@ -11506,13 +11509,13 @@
                   <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1850173.02</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1850173.02</c:v>
+                  <c:v>1765049.56</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1765049.56</c:v>
+                  <c:v>1720033.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11919,7 +11922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3718"/>
+  <dimension ref="A1:K3719"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41683,16 +41686,6 @@
       <c r="B3716">
         <v>1847582.91</v>
       </c>
-      <c r="D3716" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3716" s="3"/>
-      <c r="F3716" s="3"/>
-      <c r="G3716" s="3"/>
-      <c r="H3716" s="3"/>
-      <c r="I3716" s="3"/>
-      <c r="J3716" s="3"/>
-      <c r="K3716" s="3"/>
     </row>
     <row r="3717" spans="1:11">
       <c r="A3717" t="s">
@@ -41701,16 +41694,16 @@
       <c r="B3717">
         <v>1850173.02</v>
       </c>
-      <c r="D3717" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3717" s="4"/>
-      <c r="F3717" s="4"/>
-      <c r="G3717" s="4"/>
-      <c r="H3717" s="4"/>
-      <c r="I3717" s="4"/>
-      <c r="J3717" s="4"/>
-      <c r="K3717" s="4"/>
+      <c r="D3717" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3717" s="3"/>
+      <c r="F3717" s="3"/>
+      <c r="G3717" s="3"/>
+      <c r="H3717" s="3"/>
+      <c r="I3717" s="3"/>
+      <c r="J3717" s="3"/>
+      <c r="K3717" s="3"/>
     </row>
     <row r="3718" spans="1:11">
       <c r="A3718" t="s">
@@ -41719,7 +41712,9 @@
       <c r="B3718">
         <v>1765049.56</v>
       </c>
-      <c r="D3718" s="4"/>
+      <c r="D3718" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3718" s="4"/>
       <c r="F3718" s="4"/>
       <c r="G3718" s="4"/>
@@ -41728,12 +41723,28 @@
       <c r="J3718" s="4"/>
       <c r="K3718" s="4"/>
     </row>
+    <row r="3719" spans="1:11">
+      <c r="A3719" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B3719">
+        <v>1720033.83</v>
+      </c>
+      <c r="D3719" s="4"/>
+      <c r="E3719" s="4"/>
+      <c r="F3719" s="4"/>
+      <c r="G3719" s="4"/>
+      <c r="H3719" s="4"/>
+      <c r="I3719" s="4"/>
+      <c r="J3719" s="4"/>
+      <c r="K3719" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3716:K3716"/>
-    <mergeCell ref="D3717:K3718"/>
+    <mergeCell ref="D3717:K3717"/>
+    <mergeCell ref="D3718:K3719"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3725" uniqueCount="3723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="3725">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11183,6 +11183,12 @@
   </si>
   <si>
     <t>2-9-2021</t>
+  </si>
+  <si>
+    <t>2-10-2021</t>
+  </si>
+  <si>
+    <t>2-11-2021</t>
   </si>
 </sst>
 </file>
@@ -11319,203 +11325,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3689:$A$3719</c:f>
+              <c:f>DolarToday!$A$3691:$A$3721</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1-10-2021</c:v>
+                  <c:v>1-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-11-2021</c:v>
+                  <c:v>1-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1-12-2021</c:v>
+                  <c:v>1-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1-13-2021</c:v>
+                  <c:v>1-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1-14-2021</c:v>
+                  <c:v>1-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1-15-2021</c:v>
+                  <c:v>1-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1-16-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1-17-2021</c:v>
+                  <c:v>1-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1-19-2021</c:v>
+                  <c:v>1-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1-20-2021</c:v>
+                  <c:v>1-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1-21-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1-22-2021</c:v>
+                  <c:v>1-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1-24-2021</c:v>
+                  <c:v>1-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1-25-2021</c:v>
+                  <c:v>1-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1-26-2021</c:v>
+                  <c:v>1-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1-27-2021</c:v>
+                  <c:v>1-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1-28-2021</c:v>
+                  <c:v>1-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1-29-2021</c:v>
+                  <c:v>1-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1-30-2021</c:v>
+                  <c:v>2-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1-31-2021</c:v>
+                  <c:v>2-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2-1-2021</c:v>
+                  <c:v>2-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2-2-2021</c:v>
+                  <c:v>2-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2-3-2021</c:v>
+                  <c:v>2-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2-4-2021</c:v>
+                  <c:v>2-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2-5-2021</c:v>
+                  <c:v>2-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2-6-2021</c:v>
+                  <c:v>2-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2-7-2021</c:v>
+                  <c:v>2-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2-8-2021</c:v>
+                  <c:v>2-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2-9-2021</c:v>
+                  <c:v>2-11-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3689:$B$3719</c:f>
+              <c:f>DolarToday!$B$3691:$B$3721</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1621012.12</c:v>
+                  <c:v>1600401.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1610378.01</c:v>
+                  <c:v>1602038.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1600401.17</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1602038.88</c:v>
+                  <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1660824.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1663064.87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1663064.87</c:v>
+                  <c:v>1615012.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1702492.12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1615012.73</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1702492.12</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1748013.02</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1803130.82</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1748013.02</c:v>
+                  <c:v>1850128.02</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1803130.82</c:v>
+                  <c:v>1802869.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1850128.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1802869.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1750022.13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1728843.54</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1750022.13</c:v>
+                  <c:v>1800137.29</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1728843.54</c:v>
+                  <c:v>1850015.22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1800137.29</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1850015.22</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1850173.02</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1765049.56</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1850173.02</c:v>
+                  <c:v>1720033.83</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1765049.56</c:v>
+                  <c:v>1760302.91</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1720033.83</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11922,7 +11928,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3719"/>
+  <dimension ref="A1:K3721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41694,16 +41700,6 @@
       <c r="B3717">
         <v>1850173.02</v>
       </c>
-      <c r="D3717" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3717" s="3"/>
-      <c r="F3717" s="3"/>
-      <c r="G3717" s="3"/>
-      <c r="H3717" s="3"/>
-      <c r="I3717" s="3"/>
-      <c r="J3717" s="3"/>
-      <c r="K3717" s="3"/>
     </row>
     <row r="3718" spans="1:11">
       <c r="A3718" t="s">
@@ -41712,16 +41708,6 @@
       <c r="B3718">
         <v>1765049.56</v>
       </c>
-      <c r="D3718" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3718" s="4"/>
-      <c r="F3718" s="4"/>
-      <c r="G3718" s="4"/>
-      <c r="H3718" s="4"/>
-      <c r="I3718" s="4"/>
-      <c r="J3718" s="4"/>
-      <c r="K3718" s="4"/>
     </row>
     <row r="3719" spans="1:11">
       <c r="A3719" t="s">
@@ -41730,21 +41716,57 @@
       <c r="B3719">
         <v>1720033.83</v>
       </c>
-      <c r="D3719" s="4"/>
-      <c r="E3719" s="4"/>
-      <c r="F3719" s="4"/>
-      <c r="G3719" s="4"/>
-      <c r="H3719" s="4"/>
-      <c r="I3719" s="4"/>
-      <c r="J3719" s="4"/>
-      <c r="K3719" s="4"/>
+      <c r="D3719" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3719" s="3"/>
+      <c r="F3719" s="3"/>
+      <c r="G3719" s="3"/>
+      <c r="H3719" s="3"/>
+      <c r="I3719" s="3"/>
+      <c r="J3719" s="3"/>
+      <c r="K3719" s="3"/>
+    </row>
+    <row r="3720" spans="1:11">
+      <c r="A3720" t="s">
+        <v>3723</v>
+      </c>
+      <c r="B3720">
+        <v>1760302.91</v>
+      </c>
+      <c r="D3720" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3720" s="4"/>
+      <c r="F3720" s="4"/>
+      <c r="G3720" s="4"/>
+      <c r="H3720" s="4"/>
+      <c r="I3720" s="4"/>
+      <c r="J3720" s="4"/>
+      <c r="K3720" s="4"/>
+    </row>
+    <row r="3721" spans="1:11">
+      <c r="A3721" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B3721">
+        <v>1734814.46</v>
+      </c>
+      <c r="D3721" s="4"/>
+      <c r="E3721" s="4"/>
+      <c r="F3721" s="4"/>
+      <c r="G3721" s="4"/>
+      <c r="H3721" s="4"/>
+      <c r="I3721" s="4"/>
+      <c r="J3721" s="4"/>
+      <c r="K3721" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3717:K3717"/>
-    <mergeCell ref="D3718:K3719"/>
+    <mergeCell ref="D3719:K3719"/>
+    <mergeCell ref="D3720:K3721"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="3725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3733" uniqueCount="3731">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11189,6 +11189,24 @@
   </si>
   <si>
     <t>2-11-2021</t>
+  </si>
+  <si>
+    <t>2-12-2021</t>
+  </si>
+  <si>
+    <t>2-13-2021</t>
+  </si>
+  <si>
+    <t>2-14-2021</t>
+  </si>
+  <si>
+    <t>2-15-2021</t>
+  </si>
+  <si>
+    <t>2-16-2021</t>
+  </si>
+  <si>
+    <t>2-17-2021</t>
   </si>
 </sst>
 </file>
@@ -11325,203 +11343,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3691:$A$3721</c:f>
+              <c:f>DolarToday!$A$3697:$A$3727</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1-12-2021</c:v>
+                  <c:v>1-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-13-2021</c:v>
+                  <c:v>1-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1-14-2021</c:v>
+                  <c:v>1-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1-15-2021</c:v>
+                  <c:v>1-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1-16-2021</c:v>
+                  <c:v>1-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1-17-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1-19-2021</c:v>
+                  <c:v>1-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-20-2021</c:v>
+                  <c:v>1-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1-21-2021</c:v>
+                  <c:v>1-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1-22-2021</c:v>
+                  <c:v>1-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1-24-2021</c:v>
+                  <c:v>1-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-25-2021</c:v>
+                  <c:v>1-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1-26-2021</c:v>
+                  <c:v>2-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1-27-2021</c:v>
+                  <c:v>2-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1-28-2021</c:v>
+                  <c:v>2-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1-29-2021</c:v>
+                  <c:v>2-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1-30-2021</c:v>
+                  <c:v>2-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1-31-2021</c:v>
+                  <c:v>2-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2-1-2021</c:v>
+                  <c:v>2-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2-2-2021</c:v>
+                  <c:v>2-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2-3-2021</c:v>
+                  <c:v>2-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2-4-2021</c:v>
+                  <c:v>2-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2-5-2021</c:v>
+                  <c:v>2-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2-6-2021</c:v>
+                  <c:v>2-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2-7-2021</c:v>
+                  <c:v>2-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2-8-2021</c:v>
+                  <c:v>2-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2-9-2021</c:v>
+                  <c:v>2-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2-10-2021</c:v>
+                  <c:v>2-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2-11-2021</c:v>
+                  <c:v>2-17-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3691:$B$3721</c:f>
+              <c:f>DolarToday!$B$3697:$B$3727</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1600401.17</c:v>
+                  <c:v>1600384.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1602038.88</c:v>
+                  <c:v>1615012.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1702492.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1660824.38</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1663064.87</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1748013.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1615012.73</c:v>
+                  <c:v>1803130.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1702492.12</c:v>
+                  <c:v>1850128.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1802869.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1748013.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1803130.82</c:v>
+                  <c:v>1750022.13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1850128.02</c:v>
+                  <c:v>1728843.54</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1802869.02</c:v>
+                  <c:v>1800137.29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1850015.22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1750022.13</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1728843.54</c:v>
+                  <c:v>1850173.02</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1800137.29</c:v>
+                  <c:v>1765049.56</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1850015.22</c:v>
+                  <c:v>1720033.83</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1760302.91</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1850173.02</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1765049.56</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1720033.83</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1760302.91</c:v>
+                  <c:v>1729896.03</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1720031.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11928,7 +11946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3721"/>
+  <dimension ref="A1:K3727"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41716,16 +41734,6 @@
       <c r="B3719">
         <v>1720033.83</v>
       </c>
-      <c r="D3719" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3719" s="3"/>
-      <c r="F3719" s="3"/>
-      <c r="G3719" s="3"/>
-      <c r="H3719" s="3"/>
-      <c r="I3719" s="3"/>
-      <c r="J3719" s="3"/>
-      <c r="K3719" s="3"/>
     </row>
     <row r="3720" spans="1:11">
       <c r="A3720" t="s">
@@ -41734,16 +41742,6 @@
       <c r="B3720">
         <v>1760302.91</v>
       </c>
-      <c r="D3720" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3720" s="4"/>
-      <c r="F3720" s="4"/>
-      <c r="G3720" s="4"/>
-      <c r="H3720" s="4"/>
-      <c r="I3720" s="4"/>
-      <c r="J3720" s="4"/>
-      <c r="K3720" s="4"/>
     </row>
     <row r="3721" spans="1:11">
       <c r="A3721" t="s">
@@ -41752,21 +41750,89 @@
       <c r="B3721">
         <v>1734814.46</v>
       </c>
-      <c r="D3721" s="4"/>
-      <c r="E3721" s="4"/>
-      <c r="F3721" s="4"/>
-      <c r="G3721" s="4"/>
-      <c r="H3721" s="4"/>
-      <c r="I3721" s="4"/>
-      <c r="J3721" s="4"/>
-      <c r="K3721" s="4"/>
+    </row>
+    <row r="3722" spans="1:11">
+      <c r="A3722" t="s">
+        <v>3725</v>
+      </c>
+      <c r="B3722">
+        <v>1734814.46</v>
+      </c>
+    </row>
+    <row r="3723" spans="1:11">
+      <c r="A3723" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B3723">
+        <v>1734814.46</v>
+      </c>
+    </row>
+    <row r="3724" spans="1:11">
+      <c r="A3724" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B3724">
+        <v>1734814.46</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:11">
+      <c r="A3725" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B3725">
+        <v>1734814.46</v>
+      </c>
+      <c r="D3725" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3725" s="3"/>
+      <c r="F3725" s="3"/>
+      <c r="G3725" s="3"/>
+      <c r="H3725" s="3"/>
+      <c r="I3725" s="3"/>
+      <c r="J3725" s="3"/>
+      <c r="K3725" s="3"/>
+    </row>
+    <row r="3726" spans="1:11">
+      <c r="A3726" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B3726">
+        <v>1729896.03</v>
+      </c>
+      <c r="D3726" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3726" s="4"/>
+      <c r="F3726" s="4"/>
+      <c r="G3726" s="4"/>
+      <c r="H3726" s="4"/>
+      <c r="I3726" s="4"/>
+      <c r="J3726" s="4"/>
+      <c r="K3726" s="4"/>
+    </row>
+    <row r="3727" spans="1:11">
+      <c r="A3727" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B3727">
+        <v>1720031.95</v>
+      </c>
+      <c r="D3727" s="4"/>
+      <c r="E3727" s="4"/>
+      <c r="F3727" s="4"/>
+      <c r="G3727" s="4"/>
+      <c r="H3727" s="4"/>
+      <c r="I3727" s="4"/>
+      <c r="J3727" s="4"/>
+      <c r="K3727" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3719:K3719"/>
-    <mergeCell ref="D3720:K3721"/>
+    <mergeCell ref="D3725:K3725"/>
+    <mergeCell ref="D3726:K3727"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3733" uniqueCount="3731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="3735">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11207,6 +11207,18 @@
   </si>
   <si>
     <t>2-17-2021</t>
+  </si>
+  <si>
+    <t>2-18-2021</t>
+  </si>
+  <si>
+    <t>2-19-2021</t>
+  </si>
+  <si>
+    <t>2-20-2021</t>
+  </si>
+  <si>
+    <t>2-21-2021</t>
   </si>
 </sst>
 </file>
@@ -11343,203 +11355,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3697:$A$3727</c:f>
+              <c:f>DolarToday!$A$3701:$A$3731</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1-18-2021</c:v>
+                  <c:v>1-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-19-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1-20-2021</c:v>
+                  <c:v>1-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1-21-2021</c:v>
+                  <c:v>1-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1-22-2021</c:v>
+                  <c:v>1-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1-24-2021</c:v>
+                  <c:v>1-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1-25-2021</c:v>
+                  <c:v>1-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-26-2021</c:v>
+                  <c:v>1-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1-27-2021</c:v>
+                  <c:v>1-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1-28-2021</c:v>
+                  <c:v>2-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1-29-2021</c:v>
+                  <c:v>2-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1-30-2021</c:v>
+                  <c:v>2-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1-31-2021</c:v>
+                  <c:v>2-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2-1-2021</c:v>
+                  <c:v>2-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2-2-2021</c:v>
+                  <c:v>2-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2-3-2021</c:v>
+                  <c:v>2-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2-4-2021</c:v>
+                  <c:v>2-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2-5-2021</c:v>
+                  <c:v>2-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2-6-2021</c:v>
+                  <c:v>2-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2-7-2021</c:v>
+                  <c:v>2-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2-8-2021</c:v>
+                  <c:v>2-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2-9-2021</c:v>
+                  <c:v>2-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2-10-2021</c:v>
+                  <c:v>2-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2-11-2021</c:v>
+                  <c:v>2-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2-12-2021</c:v>
+                  <c:v>2-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2-13-2021</c:v>
+                  <c:v>2-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2-14-2021</c:v>
+                  <c:v>2-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2-15-2021</c:v>
+                  <c:v>2-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2-16-2021</c:v>
+                  <c:v>2-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2-17-2021</c:v>
+                  <c:v>2-21-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3697:$B$3727</c:f>
+              <c:f>DolarToday!$B$3701:$B$3731</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1600384.65</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1615012.73</c:v>
+                  <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1702492.12</c:v>
+                  <c:v>1748013.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1803130.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1850128.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1802869.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1748013.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1803130.82</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1850128.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1802869.02</c:v>
+                  <c:v>1750022.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1728843.54</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1800137.29</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1850015.22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1750022.13</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1728843.54</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1800137.29</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1850015.22</c:v>
+                  <c:v>1850173.02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1765049.56</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1720033.83</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1760302.91</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1850173.02</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1765049.56</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1720033.83</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1760302.91</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1729896.03</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1720031.95</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1729896.03</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1720031.95</c:v>
+                  <c:v>1860103.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11946,7 +11958,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3727"/>
+  <dimension ref="A1:K3731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41679,7 +41691,7 @@
         <v>1800137.29</v>
       </c>
     </row>
-    <row r="3713" spans="1:11">
+    <row r="3713" spans="1:2">
       <c r="A3713" t="s">
         <v>3716</v>
       </c>
@@ -41687,7 +41699,7 @@
         <v>1850015.22</v>
       </c>
     </row>
-    <row r="3714" spans="1:11">
+    <row r="3714" spans="1:2">
       <c r="A3714" t="s">
         <v>3717</v>
       </c>
@@ -41695,7 +41707,7 @@
         <v>1847582.91</v>
       </c>
     </row>
-    <row r="3715" spans="1:11">
+    <row r="3715" spans="1:2">
       <c r="A3715" t="s">
         <v>3718</v>
       </c>
@@ -41703,7 +41715,7 @@
         <v>1847582.91</v>
       </c>
     </row>
-    <row r="3716" spans="1:11">
+    <row r="3716" spans="1:2">
       <c r="A3716" t="s">
         <v>3719</v>
       </c>
@@ -41711,7 +41723,7 @@
         <v>1847582.91</v>
       </c>
     </row>
-    <row r="3717" spans="1:11">
+    <row r="3717" spans="1:2">
       <c r="A3717" t="s">
         <v>3720</v>
       </c>
@@ -41719,7 +41731,7 @@
         <v>1850173.02</v>
       </c>
     </row>
-    <row r="3718" spans="1:11">
+    <row r="3718" spans="1:2">
       <c r="A3718" t="s">
         <v>3721</v>
       </c>
@@ -41727,7 +41739,7 @@
         <v>1765049.56</v>
       </c>
     </row>
-    <row r="3719" spans="1:11">
+    <row r="3719" spans="1:2">
       <c r="A3719" t="s">
         <v>3722</v>
       </c>
@@ -41735,7 +41747,7 @@
         <v>1720033.83</v>
       </c>
     </row>
-    <row r="3720" spans="1:11">
+    <row r="3720" spans="1:2">
       <c r="A3720" t="s">
         <v>3723</v>
       </c>
@@ -41743,7 +41755,7 @@
         <v>1760302.91</v>
       </c>
     </row>
-    <row r="3721" spans="1:11">
+    <row r="3721" spans="1:2">
       <c r="A3721" t="s">
         <v>3724</v>
       </c>
@@ -41751,7 +41763,7 @@
         <v>1734814.46</v>
       </c>
     </row>
-    <row r="3722" spans="1:11">
+    <row r="3722" spans="1:2">
       <c r="A3722" t="s">
         <v>3725</v>
       </c>
@@ -41759,7 +41771,7 @@
         <v>1734814.46</v>
       </c>
     </row>
-    <row r="3723" spans="1:11">
+    <row r="3723" spans="1:2">
       <c r="A3723" t="s">
         <v>3726</v>
       </c>
@@ -41767,7 +41779,7 @@
         <v>1734814.46</v>
       </c>
     </row>
-    <row r="3724" spans="1:11">
+    <row r="3724" spans="1:2">
       <c r="A3724" t="s">
         <v>3727</v>
       </c>
@@ -41775,64 +41787,96 @@
         <v>1734814.46</v>
       </c>
     </row>
-    <row r="3725" spans="1:11">
+    <row r="3725" spans="1:2">
       <c r="A3725" t="s">
         <v>3728</v>
       </c>
       <c r="B3725">
         <v>1734814.46</v>
       </c>
-      <c r="D3725" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3725" s="3"/>
-      <c r="F3725" s="3"/>
-      <c r="G3725" s="3"/>
-      <c r="H3725" s="3"/>
-      <c r="I3725" s="3"/>
-      <c r="J3725" s="3"/>
-      <c r="K3725" s="3"/>
-    </row>
-    <row r="3726" spans="1:11">
+    </row>
+    <row r="3726" spans="1:2">
       <c r="A3726" t="s">
         <v>3729</v>
       </c>
       <c r="B3726">
         <v>1729896.03</v>
       </c>
-      <c r="D3726" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3726" s="4"/>
-      <c r="F3726" s="4"/>
-      <c r="G3726" s="4"/>
-      <c r="H3726" s="4"/>
-      <c r="I3726" s="4"/>
-      <c r="J3726" s="4"/>
-      <c r="K3726" s="4"/>
-    </row>
-    <row r="3727" spans="1:11">
+    </row>
+    <row r="3727" spans="1:2">
       <c r="A3727" t="s">
         <v>3730</v>
       </c>
       <c r="B3727">
         <v>1720031.95</v>
       </c>
-      <c r="D3727" s="4"/>
-      <c r="E3727" s="4"/>
-      <c r="F3727" s="4"/>
-      <c r="G3727" s="4"/>
-      <c r="H3727" s="4"/>
-      <c r="I3727" s="4"/>
-      <c r="J3727" s="4"/>
-      <c r="K3727" s="4"/>
+    </row>
+    <row r="3728" spans="1:2">
+      <c r="A3728" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B3728">
+        <v>1805035.26</v>
+      </c>
+    </row>
+    <row r="3729" spans="1:11">
+      <c r="A3729" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B3729">
+        <v>1805035.26</v>
+      </c>
+      <c r="D3729" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3729" s="3"/>
+      <c r="F3729" s="3"/>
+      <c r="G3729" s="3"/>
+      <c r="H3729" s="3"/>
+      <c r="I3729" s="3"/>
+      <c r="J3729" s="3"/>
+      <c r="K3729" s="3"/>
+    </row>
+    <row r="3730" spans="1:11">
+      <c r="A3730" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B3730">
+        <v>1805035.26</v>
+      </c>
+      <c r="D3730" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3730" s="4"/>
+      <c r="F3730" s="4"/>
+      <c r="G3730" s="4"/>
+      <c r="H3730" s="4"/>
+      <c r="I3730" s="4"/>
+      <c r="J3730" s="4"/>
+      <c r="K3730" s="4"/>
+    </row>
+    <row r="3731" spans="1:11">
+      <c r="A3731" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B3731">
+        <v>1860103.73</v>
+      </c>
+      <c r="D3731" s="4"/>
+      <c r="E3731" s="4"/>
+      <c r="F3731" s="4"/>
+      <c r="G3731" s="4"/>
+      <c r="H3731" s="4"/>
+      <c r="I3731" s="4"/>
+      <c r="J3731" s="4"/>
+      <c r="K3731" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3725:K3725"/>
-    <mergeCell ref="D3726:K3727"/>
+    <mergeCell ref="D3729:K3729"/>
+    <mergeCell ref="D3730:K3731"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="3735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="3736">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11219,6 +11219,9 @@
   </si>
   <si>
     <t>2-21-2021</t>
+  </si>
+  <si>
+    <t>2-22-2021</t>
   </si>
 </sst>
 </file>
@@ -11355,108 +11358,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3701:$A$3731</c:f>
+              <c:f>DolarToday!$A$3702:$A$3732</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1-22-2021</c:v>
+                  <c:v>1-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1-24-2021</c:v>
+                  <c:v>1-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1-25-2021</c:v>
+                  <c:v>1-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1-26-2021</c:v>
+                  <c:v>1-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1-27-2021</c:v>
+                  <c:v>1-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1-28-2021</c:v>
+                  <c:v>1-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1-29-2021</c:v>
+                  <c:v>1-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-30-2021</c:v>
+                  <c:v>1-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1-31-2021</c:v>
+                  <c:v>2-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2-1-2021</c:v>
+                  <c:v>2-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2-2-2021</c:v>
+                  <c:v>2-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2-3-2021</c:v>
+                  <c:v>2-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2-4-2021</c:v>
+                  <c:v>2-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2-5-2021</c:v>
+                  <c:v>2-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2-6-2021</c:v>
+                  <c:v>2-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2-7-2021</c:v>
+                  <c:v>2-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2-8-2021</c:v>
+                  <c:v>2-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2-9-2021</c:v>
+                  <c:v>2-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2-10-2021</c:v>
+                  <c:v>2-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2-11-2021</c:v>
+                  <c:v>2-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2-12-2021</c:v>
+                  <c:v>2-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2-13-2021</c:v>
+                  <c:v>2-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2-14-2021</c:v>
+                  <c:v>2-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2-15-2021</c:v>
+                  <c:v>2-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2-16-2021</c:v>
+                  <c:v>2-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2-17-2021</c:v>
+                  <c:v>2-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2-18-2021</c:v>
+                  <c:v>2-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2-19-2021</c:v>
+                  <c:v>2-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2-20-2021</c:v>
+                  <c:v>2-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2-21-2021</c:v>
+                  <c:v>2-22-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3701:$B$3731</c:f>
+              <c:f>DolarToday!$B$3702:$B$3732</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11464,19 +11467,19 @@
                   <c:v>1750236.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1748013.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1748013.02</c:v>
+                  <c:v>1803130.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803130.82</c:v>
+                  <c:v>1850128.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1850128.02</c:v>
+                  <c:v>1802869.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1802869.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1788641.94</c:v>
@@ -11485,19 +11488,19 @@
                   <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1750022.13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1750022.13</c:v>
+                  <c:v>1728843.54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1728843.54</c:v>
+                  <c:v>1800137.29</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1800137.29</c:v>
+                  <c:v>1850015.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1850015.22</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1847582.91</c:v>
@@ -11506,19 +11509,19 @@
                   <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1850173.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1850173.02</c:v>
+                  <c:v>1765049.56</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1765049.56</c:v>
+                  <c:v>1720033.83</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1720033.83</c:v>
+                  <c:v>1760302.91</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1760302.91</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1734814.46</c:v>
@@ -11533,13 +11536,13 @@
                   <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1729896.03</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1729896.03</c:v>
+                  <c:v>1720031.95</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1720031.95</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1805035.26</c:v>
@@ -11548,10 +11551,10 @@
                   <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1860103.73</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1860103.73</c:v>
+                  <c:v>1900251.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11958,7 +11961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3731"/>
+  <dimension ref="A1:K3732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41826,16 +41829,6 @@
       <c r="B3729">
         <v>1805035.26</v>
       </c>
-      <c r="D3729" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3729" s="3"/>
-      <c r="F3729" s="3"/>
-      <c r="G3729" s="3"/>
-      <c r="H3729" s="3"/>
-      <c r="I3729" s="3"/>
-      <c r="J3729" s="3"/>
-      <c r="K3729" s="3"/>
     </row>
     <row r="3730" spans="1:11">
       <c r="A3730" t="s">
@@ -41844,16 +41837,16 @@
       <c r="B3730">
         <v>1805035.26</v>
       </c>
-      <c r="D3730" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3730" s="4"/>
-      <c r="F3730" s="4"/>
-      <c r="G3730" s="4"/>
-      <c r="H3730" s="4"/>
-      <c r="I3730" s="4"/>
-      <c r="J3730" s="4"/>
-      <c r="K3730" s="4"/>
+      <c r="D3730" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3730" s="3"/>
+      <c r="F3730" s="3"/>
+      <c r="G3730" s="3"/>
+      <c r="H3730" s="3"/>
+      <c r="I3730" s="3"/>
+      <c r="J3730" s="3"/>
+      <c r="K3730" s="3"/>
     </row>
     <row r="3731" spans="1:11">
       <c r="A3731" t="s">
@@ -41862,7 +41855,9 @@
       <c r="B3731">
         <v>1860103.73</v>
       </c>
-      <c r="D3731" s="4"/>
+      <c r="D3731" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3731" s="4"/>
       <c r="F3731" s="4"/>
       <c r="G3731" s="4"/>
@@ -41871,12 +41866,28 @@
       <c r="J3731" s="4"/>
       <c r="K3731" s="4"/>
     </row>
+    <row r="3732" spans="1:11">
+      <c r="A3732" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B3732">
+        <v>1900251.91</v>
+      </c>
+      <c r="D3732" s="4"/>
+      <c r="E3732" s="4"/>
+      <c r="F3732" s="4"/>
+      <c r="G3732" s="4"/>
+      <c r="H3732" s="4"/>
+      <c r="I3732" s="4"/>
+      <c r="J3732" s="4"/>
+      <c r="K3732" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3729:K3729"/>
-    <mergeCell ref="D3730:K3731"/>
+    <mergeCell ref="D3730:K3730"/>
+    <mergeCell ref="D3731:K3732"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="3736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3740" uniqueCount="3738">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11222,6 +11222,12 @@
   </si>
   <si>
     <t>2-22-2021</t>
+  </si>
+  <si>
+    <t>2-23-2021</t>
+  </si>
+  <si>
+    <t>2-24-2021</t>
   </si>
 </sst>
 </file>
@@ -11358,167 +11364,167 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3702:$A$3732</c:f>
+              <c:f>DolarToday!$A$3704:$A$3734</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1-23-2021</c:v>
+                  <c:v>1-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-24-2021</c:v>
+                  <c:v>1-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1-25-2021</c:v>
+                  <c:v>1-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1-26-2021</c:v>
+                  <c:v>1-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1-27-2021</c:v>
+                  <c:v>1-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1-28-2021</c:v>
+                  <c:v>1-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1-29-2021</c:v>
+                  <c:v>1-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1-30-2021</c:v>
+                  <c:v>2-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1-31-2021</c:v>
+                  <c:v>2-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2-1-2021</c:v>
+                  <c:v>2-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2-2-2021</c:v>
+                  <c:v>2-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2-3-2021</c:v>
+                  <c:v>2-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2-4-2021</c:v>
+                  <c:v>2-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2-5-2021</c:v>
+                  <c:v>2-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2-6-2021</c:v>
+                  <c:v>2-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2-7-2021</c:v>
+                  <c:v>2-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2-8-2021</c:v>
+                  <c:v>2-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2-9-2021</c:v>
+                  <c:v>2-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2-10-2021</c:v>
+                  <c:v>2-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2-11-2021</c:v>
+                  <c:v>2-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2-12-2021</c:v>
+                  <c:v>2-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2-13-2021</c:v>
+                  <c:v>2-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2-14-2021</c:v>
+                  <c:v>2-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2-15-2021</c:v>
+                  <c:v>2-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2-16-2021</c:v>
+                  <c:v>2-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2-17-2021</c:v>
+                  <c:v>2-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2-18-2021</c:v>
+                  <c:v>2-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2-19-2021</c:v>
+                  <c:v>2-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2-20-2021</c:v>
+                  <c:v>2-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2-21-2021</c:v>
+                  <c:v>2-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2-22-2021</c:v>
+                  <c:v>2-24-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3702:$B$3732</c:f>
+              <c:f>DolarToday!$B$3704:$B$3734</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1750236.13</c:v>
+                  <c:v>1803130.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1748013.02</c:v>
+                  <c:v>1850128.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1803130.82</c:v>
+                  <c:v>1802869.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1850128.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1802869.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1750022.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1728843.54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1750022.13</c:v>
+                  <c:v>1800137.29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1728843.54</c:v>
+                  <c:v>1850015.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1800137.29</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1850015.22</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1850173.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1765049.56</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1850173.02</c:v>
+                  <c:v>1720033.83</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1765049.56</c:v>
+                  <c:v>1760302.91</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1720033.83</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1760302.91</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1734814.46</c:v>
@@ -11530,31 +11536,31 @@
                   <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1729896.03</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1720031.95</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1729896.03</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1720031.95</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1860103.73</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1900251.91</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1860103.73</c:v>
+                  <c:v>1970835.98</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1900251.91</c:v>
+                  <c:v>1920076.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11961,7 +11967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3732"/>
+  <dimension ref="A1:K3734"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41837,16 +41843,6 @@
       <c r="B3730">
         <v>1805035.26</v>
       </c>
-      <c r="D3730" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3730" s="3"/>
-      <c r="F3730" s="3"/>
-      <c r="G3730" s="3"/>
-      <c r="H3730" s="3"/>
-      <c r="I3730" s="3"/>
-      <c r="J3730" s="3"/>
-      <c r="K3730" s="3"/>
     </row>
     <row r="3731" spans="1:11">
       <c r="A3731" t="s">
@@ -41855,16 +41851,6 @@
       <c r="B3731">
         <v>1860103.73</v>
       </c>
-      <c r="D3731" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3731" s="4"/>
-      <c r="F3731" s="4"/>
-      <c r="G3731" s="4"/>
-      <c r="H3731" s="4"/>
-      <c r="I3731" s="4"/>
-      <c r="J3731" s="4"/>
-      <c r="K3731" s="4"/>
     </row>
     <row r="3732" spans="1:11">
       <c r="A3732" t="s">
@@ -41873,21 +41859,57 @@
       <c r="B3732">
         <v>1900251.91</v>
       </c>
-      <c r="D3732" s="4"/>
-      <c r="E3732" s="4"/>
-      <c r="F3732" s="4"/>
-      <c r="G3732" s="4"/>
-      <c r="H3732" s="4"/>
-      <c r="I3732" s="4"/>
-      <c r="J3732" s="4"/>
-      <c r="K3732" s="4"/>
+      <c r="D3732" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3732" s="3"/>
+      <c r="F3732" s="3"/>
+      <c r="G3732" s="3"/>
+      <c r="H3732" s="3"/>
+      <c r="I3732" s="3"/>
+      <c r="J3732" s="3"/>
+      <c r="K3732" s="3"/>
+    </row>
+    <row r="3733" spans="1:11">
+      <c r="A3733" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B3733">
+        <v>1970835.98</v>
+      </c>
+      <c r="D3733" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3733" s="4"/>
+      <c r="F3733" s="4"/>
+      <c r="G3733" s="4"/>
+      <c r="H3733" s="4"/>
+      <c r="I3733" s="4"/>
+      <c r="J3733" s="4"/>
+      <c r="K3733" s="4"/>
+    </row>
+    <row r="3734" spans="1:11">
+      <c r="A3734" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B3734">
+        <v>1920076.79</v>
+      </c>
+      <c r="D3734" s="4"/>
+      <c r="E3734" s="4"/>
+      <c r="F3734" s="4"/>
+      <c r="G3734" s="4"/>
+      <c r="H3734" s="4"/>
+      <c r="I3734" s="4"/>
+      <c r="J3734" s="4"/>
+      <c r="K3734" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3730:K3730"/>
-    <mergeCell ref="D3731:K3732"/>
+    <mergeCell ref="D3732:K3732"/>
+    <mergeCell ref="D3733:K3734"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3740" uniqueCount="3738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="3742">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11228,6 +11228,18 @@
   </si>
   <si>
     <t>2-24-2021</t>
+  </si>
+  <si>
+    <t>2-25-2021</t>
+  </si>
+  <si>
+    <t>2-26-2021</t>
+  </si>
+  <si>
+    <t>2-27-2021</t>
+  </si>
+  <si>
+    <t>2-28-2021</t>
   </si>
 </sst>
 </file>
@@ -11364,203 +11376,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3704:$A$3734</c:f>
+              <c:f>DolarToday!$A$3708:$A$3738</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1-25-2021</c:v>
+                  <c:v>1-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-26-2021</c:v>
+                  <c:v>1-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1-27-2021</c:v>
+                  <c:v>1-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1-28-2021</c:v>
+                  <c:v>2-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1-29-2021</c:v>
+                  <c:v>2-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1-30-2021</c:v>
+                  <c:v>2-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1-31-2021</c:v>
+                  <c:v>2-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2-1-2021</c:v>
+                  <c:v>2-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2-2-2021</c:v>
+                  <c:v>2-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2-3-2021</c:v>
+                  <c:v>2-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2-4-2021</c:v>
+                  <c:v>2-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2-5-2021</c:v>
+                  <c:v>2-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2-6-2021</c:v>
+                  <c:v>2-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2-7-2021</c:v>
+                  <c:v>2-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2-8-2021</c:v>
+                  <c:v>2-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2-9-2021</c:v>
+                  <c:v>2-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2-10-2021</c:v>
+                  <c:v>2-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2-11-2021</c:v>
+                  <c:v>2-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2-12-2021</c:v>
+                  <c:v>2-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2-13-2021</c:v>
+                  <c:v>2-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2-14-2021</c:v>
+                  <c:v>2-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2-15-2021</c:v>
+                  <c:v>2-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2-16-2021</c:v>
+                  <c:v>2-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2-17-2021</c:v>
+                  <c:v>2-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2-18-2021</c:v>
+                  <c:v>2-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2-19-2021</c:v>
+                  <c:v>2-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2-20-2021</c:v>
+                  <c:v>2-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2-21-2021</c:v>
+                  <c:v>2-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2-22-2021</c:v>
+                  <c:v>2-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2-23-2021</c:v>
+                  <c:v>2-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2-24-2021</c:v>
+                  <c:v>2-28-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3704:$B$3734</c:f>
+              <c:f>DolarToday!$B$3708:$B$3738</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1803130.82</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1850128.02</c:v>
+                  <c:v>1788641.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1802869.02</c:v>
+                  <c:v>1750022.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1728843.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1800137.29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1850015.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1750022.13</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1728843.54</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1800137.29</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1850015.22</c:v>
+                  <c:v>1850173.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1765049.56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1720033.83</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1760302.91</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1850173.02</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1765049.56</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1720033.83</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1760302.91</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1729896.03</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1720031.95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1729896.03</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1720031.95</c:v>
+                  <c:v>1860103.73</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1900251.91</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1970835.98</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1920076.79</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1860103.73</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1900251.91</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1970835.98</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1920076.79</c:v>
+                  <c:v>1873893.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11967,7 +11979,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3734"/>
+  <dimension ref="A1:K3738"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41859,16 +41871,6 @@
       <c r="B3732">
         <v>1900251.91</v>
       </c>
-      <c r="D3732" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3732" s="3"/>
-      <c r="F3732" s="3"/>
-      <c r="G3732" s="3"/>
-      <c r="H3732" s="3"/>
-      <c r="I3732" s="3"/>
-      <c r="J3732" s="3"/>
-      <c r="K3732" s="3"/>
     </row>
     <row r="3733" spans="1:11">
       <c r="A3733" t="s">
@@ -41877,16 +41879,6 @@
       <c r="B3733">
         <v>1970835.98</v>
       </c>
-      <c r="D3733" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3733" s="4"/>
-      <c r="F3733" s="4"/>
-      <c r="G3733" s="4"/>
-      <c r="H3733" s="4"/>
-      <c r="I3733" s="4"/>
-      <c r="J3733" s="4"/>
-      <c r="K3733" s="4"/>
     </row>
     <row r="3734" spans="1:11">
       <c r="A3734" t="s">
@@ -41895,21 +41887,73 @@
       <c r="B3734">
         <v>1920076.79</v>
       </c>
-      <c r="D3734" s="4"/>
-      <c r="E3734" s="4"/>
-      <c r="F3734" s="4"/>
-      <c r="G3734" s="4"/>
-      <c r="H3734" s="4"/>
-      <c r="I3734" s="4"/>
-      <c r="J3734" s="4"/>
-      <c r="K3734" s="4"/>
+    </row>
+    <row r="3735" spans="1:11">
+      <c r="A3735" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B3735">
+        <v>1899023.81</v>
+      </c>
+    </row>
+    <row r="3736" spans="1:11">
+      <c r="A3736" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B3736">
+        <v>1899023.81</v>
+      </c>
+      <c r="D3736" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3736" s="3"/>
+      <c r="F3736" s="3"/>
+      <c r="G3736" s="3"/>
+      <c r="H3736" s="3"/>
+      <c r="I3736" s="3"/>
+      <c r="J3736" s="3"/>
+      <c r="K3736" s="3"/>
+    </row>
+    <row r="3737" spans="1:11">
+      <c r="A3737" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B3737">
+        <v>1899023.81</v>
+      </c>
+      <c r="D3737" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3737" s="4"/>
+      <c r="F3737" s="4"/>
+      <c r="G3737" s="4"/>
+      <c r="H3737" s="4"/>
+      <c r="I3737" s="4"/>
+      <c r="J3737" s="4"/>
+      <c r="K3737" s="4"/>
+    </row>
+    <row r="3738" spans="1:11">
+      <c r="A3738" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B3738">
+        <v>1873893.89</v>
+      </c>
+      <c r="D3738" s="4"/>
+      <c r="E3738" s="4"/>
+      <c r="F3738" s="4"/>
+      <c r="G3738" s="4"/>
+      <c r="H3738" s="4"/>
+      <c r="I3738" s="4"/>
+      <c r="J3738" s="4"/>
+      <c r="K3738" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3732:K3732"/>
-    <mergeCell ref="D3733:K3734"/>
+    <mergeCell ref="D3736:K3736"/>
+    <mergeCell ref="D3737:K3738"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="3742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="3748">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11240,6 +11240,24 @@
   </si>
   <si>
     <t>2-28-2021</t>
+  </si>
+  <si>
+    <t>3-1-2021</t>
+  </si>
+  <si>
+    <t>3-2-2021</t>
+  </si>
+  <si>
+    <t>3-3-2021</t>
+  </si>
+  <si>
+    <t>3-4-2021</t>
+  </si>
+  <si>
+    <t>3-5-2021</t>
+  </si>
+  <si>
+    <t>3-6-2021</t>
   </si>
 </sst>
 </file>
@@ -11376,203 +11394,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3708:$A$3738</c:f>
+              <c:f>DolarToday!$A$3714:$A$3744</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1-29-2021</c:v>
+                  <c:v>2-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-30-2021</c:v>
+                  <c:v>2-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1-31-2021</c:v>
+                  <c:v>2-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2-1-2021</c:v>
+                  <c:v>2-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2-2-2021</c:v>
+                  <c:v>2-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2-3-2021</c:v>
+                  <c:v>2-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2-4-2021</c:v>
+                  <c:v>2-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2-5-2021</c:v>
+                  <c:v>2-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2-6-2021</c:v>
+                  <c:v>2-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2-7-2021</c:v>
+                  <c:v>2-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2-8-2021</c:v>
+                  <c:v>2-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2-9-2021</c:v>
+                  <c:v>2-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2-10-2021</c:v>
+                  <c:v>2-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2-11-2021</c:v>
+                  <c:v>2-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2-12-2021</c:v>
+                  <c:v>2-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2-13-2021</c:v>
+                  <c:v>2-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2-14-2021</c:v>
+                  <c:v>2-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2-15-2021</c:v>
+                  <c:v>2-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2-16-2021</c:v>
+                  <c:v>2-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2-17-2021</c:v>
+                  <c:v>2-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2-18-2021</c:v>
+                  <c:v>2-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2-19-2021</c:v>
+                  <c:v>2-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2-20-2021</c:v>
+                  <c:v>2-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2-21-2021</c:v>
+                  <c:v>2-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2-22-2021</c:v>
+                  <c:v>2-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2-23-2021</c:v>
+                  <c:v>3-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2-24-2021</c:v>
+                  <c:v>3-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2-25-2021</c:v>
+                  <c:v>3-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2-26-2021</c:v>
+                  <c:v>3-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2-27-2021</c:v>
+                  <c:v>3-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2-28-2021</c:v>
+                  <c:v>3-6-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3708:$B$3738</c:f>
+              <c:f>DolarToday!$B$3714:$B$3744</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1788641.94</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1750022.13</c:v>
+                  <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1728843.54</c:v>
+                  <c:v>1850173.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1800137.29</c:v>
+                  <c:v>1765049.56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1850015.22</c:v>
+                  <c:v>1720033.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1760302.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1850173.02</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1765049.56</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1720033.83</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1760302.91</c:v>
+                  <c:v>1729896.03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1720031.95</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1860103.73</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1729896.03</c:v>
+                  <c:v>1900251.91</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1720031.95</c:v>
+                  <c:v>1970835.98</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1920076.79</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1860103.73</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1900251.91</c:v>
+                  <c:v>1873893.89</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1970835.98</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1920076.79</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1897012.81</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1873893.89</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11979,7 +11997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3738"/>
+  <dimension ref="A1:K3744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41903,16 +41921,6 @@
       <c r="B3736">
         <v>1899023.81</v>
       </c>
-      <c r="D3736" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3736" s="3"/>
-      <c r="F3736" s="3"/>
-      <c r="G3736" s="3"/>
-      <c r="H3736" s="3"/>
-      <c r="I3736" s="3"/>
-      <c r="J3736" s="3"/>
-      <c r="K3736" s="3"/>
     </row>
     <row r="3737" spans="1:11">
       <c r="A3737" t="s">
@@ -41921,16 +41929,6 @@
       <c r="B3737">
         <v>1899023.81</v>
       </c>
-      <c r="D3737" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3737" s="4"/>
-      <c r="F3737" s="4"/>
-      <c r="G3737" s="4"/>
-      <c r="H3737" s="4"/>
-      <c r="I3737" s="4"/>
-      <c r="J3737" s="4"/>
-      <c r="K3737" s="4"/>
     </row>
     <row r="3738" spans="1:11">
       <c r="A3738" t="s">
@@ -41939,21 +41937,89 @@
       <c r="B3738">
         <v>1873893.89</v>
       </c>
-      <c r="D3738" s="4"/>
-      <c r="E3738" s="4"/>
-      <c r="F3738" s="4"/>
-      <c r="G3738" s="4"/>
-      <c r="H3738" s="4"/>
-      <c r="I3738" s="4"/>
-      <c r="J3738" s="4"/>
-      <c r="K3738" s="4"/>
+    </row>
+    <row r="3739" spans="1:11">
+      <c r="A3739" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B3739">
+        <v>1875001.53</v>
+      </c>
+    </row>
+    <row r="3740" spans="1:11">
+      <c r="A3740" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B3740">
+        <v>1875001.53</v>
+      </c>
+    </row>
+    <row r="3741" spans="1:11">
+      <c r="A3741" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B3741">
+        <v>1897012.81</v>
+      </c>
+    </row>
+    <row r="3742" spans="1:11">
+      <c r="A3742" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B3742">
+        <v>1900752.76</v>
+      </c>
+      <c r="D3742" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3742" s="3"/>
+      <c r="F3742" s="3"/>
+      <c r="G3742" s="3"/>
+      <c r="H3742" s="3"/>
+      <c r="I3742" s="3"/>
+      <c r="J3742" s="3"/>
+      <c r="K3742" s="3"/>
+    </row>
+    <row r="3743" spans="1:11">
+      <c r="A3743" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B3743">
+        <v>1900752.76</v>
+      </c>
+      <c r="D3743" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3743" s="4"/>
+      <c r="F3743" s="4"/>
+      <c r="G3743" s="4"/>
+      <c r="H3743" s="4"/>
+      <c r="I3743" s="4"/>
+      <c r="J3743" s="4"/>
+      <c r="K3743" s="4"/>
+    </row>
+    <row r="3744" spans="1:11">
+      <c r="A3744" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B3744">
+        <v>1900752.76</v>
+      </c>
+      <c r="D3744" s="4"/>
+      <c r="E3744" s="4"/>
+      <c r="F3744" s="4"/>
+      <c r="G3744" s="4"/>
+      <c r="H3744" s="4"/>
+      <c r="I3744" s="4"/>
+      <c r="J3744" s="4"/>
+      <c r="K3744" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3736:K3736"/>
-    <mergeCell ref="D3737:K3738"/>
+    <mergeCell ref="D3742:K3742"/>
+    <mergeCell ref="D3743:K3744"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="3748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="3749">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11258,6 +11258,9 @@
   </si>
   <si>
     <t>3-6-2021</t>
+  </si>
+  <si>
+    <t>3-7-2021</t>
   </si>
 </sst>
 </file>
@@ -11394,108 +11397,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3714:$A$3744</c:f>
+              <c:f>DolarToday!$A$3715:$A$3745</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2-4-2021</c:v>
+                  <c:v>2-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2-5-2021</c:v>
+                  <c:v>2-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2-6-2021</c:v>
+                  <c:v>2-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2-7-2021</c:v>
+                  <c:v>2-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2-8-2021</c:v>
+                  <c:v>2-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2-9-2021</c:v>
+                  <c:v>2-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2-10-2021</c:v>
+                  <c:v>2-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2-11-2021</c:v>
+                  <c:v>2-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2-12-2021</c:v>
+                  <c:v>2-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2-13-2021</c:v>
+                  <c:v>2-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2-14-2021</c:v>
+                  <c:v>2-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2-15-2021</c:v>
+                  <c:v>2-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2-16-2021</c:v>
+                  <c:v>2-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2-17-2021</c:v>
+                  <c:v>2-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2-18-2021</c:v>
+                  <c:v>2-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2-19-2021</c:v>
+                  <c:v>2-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2-20-2021</c:v>
+                  <c:v>2-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2-21-2021</c:v>
+                  <c:v>2-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2-22-2021</c:v>
+                  <c:v>2-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2-23-2021</c:v>
+                  <c:v>2-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2-24-2021</c:v>
+                  <c:v>2-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2-25-2021</c:v>
+                  <c:v>2-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2-26-2021</c:v>
+                  <c:v>2-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2-27-2021</c:v>
+                  <c:v>2-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2-28-2021</c:v>
+                  <c:v>3-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-1-2021</c:v>
+                  <c:v>3-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3-2-2021</c:v>
+                  <c:v>3-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3-3-2021</c:v>
+                  <c:v>3-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3-4-2021</c:v>
+                  <c:v>3-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3-5-2021</c:v>
+                  <c:v>3-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3-6-2021</c:v>
+                  <c:v>3-7-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3714:$B$3744</c:f>
+              <c:f>DolarToday!$B$3715:$B$3745</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11506,19 +11509,19 @@
                   <c:v>1847582.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1850173.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1850173.02</c:v>
+                  <c:v>1765049.56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1765049.56</c:v>
+                  <c:v>1720033.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1720033.83</c:v>
+                  <c:v>1760302.91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1760302.91</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1734814.46</c:v>
@@ -11533,13 +11536,13 @@
                   <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1729896.03</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1729896.03</c:v>
+                  <c:v>1720031.95</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1720031.95</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1805035.26</c:v>
@@ -11548,19 +11551,19 @@
                   <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1860103.73</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1860103.73</c:v>
+                  <c:v>1900251.91</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900251.91</c:v>
+                  <c:v>1970835.98</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1970835.98</c:v>
+                  <c:v>1920076.79</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1920076.79</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1899023.81</c:v>
@@ -11569,19 +11572,19 @@
                   <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1873893.89</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1873893.89</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1897012.81</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1897012.81</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1900752.76</c:v>
@@ -11590,7 +11593,7 @@
                   <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1883762.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11997,7 +12000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3744"/>
+  <dimension ref="A1:K3745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41969,16 +41972,6 @@
       <c r="B3742">
         <v>1900752.76</v>
       </c>
-      <c r="D3742" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3742" s="3"/>
-      <c r="F3742" s="3"/>
-      <c r="G3742" s="3"/>
-      <c r="H3742" s="3"/>
-      <c r="I3742" s="3"/>
-      <c r="J3742" s="3"/>
-      <c r="K3742" s="3"/>
     </row>
     <row r="3743" spans="1:11">
       <c r="A3743" t="s">
@@ -41987,16 +41980,16 @@
       <c r="B3743">
         <v>1900752.76</v>
       </c>
-      <c r="D3743" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3743" s="4"/>
-      <c r="F3743" s="4"/>
-      <c r="G3743" s="4"/>
-      <c r="H3743" s="4"/>
-      <c r="I3743" s="4"/>
-      <c r="J3743" s="4"/>
-      <c r="K3743" s="4"/>
+      <c r="D3743" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3743" s="3"/>
+      <c r="F3743" s="3"/>
+      <c r="G3743" s="3"/>
+      <c r="H3743" s="3"/>
+      <c r="I3743" s="3"/>
+      <c r="J3743" s="3"/>
+      <c r="K3743" s="3"/>
     </row>
     <row r="3744" spans="1:11">
       <c r="A3744" t="s">
@@ -42005,7 +41998,9 @@
       <c r="B3744">
         <v>1900752.76</v>
       </c>
-      <c r="D3744" s="4"/>
+      <c r="D3744" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3744" s="4"/>
       <c r="F3744" s="4"/>
       <c r="G3744" s="4"/>
@@ -42014,12 +42009,28 @@
       <c r="J3744" s="4"/>
       <c r="K3744" s="4"/>
     </row>
+    <row r="3745" spans="1:11">
+      <c r="A3745" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B3745">
+        <v>1883762.14</v>
+      </c>
+      <c r="D3745" s="4"/>
+      <c r="E3745" s="4"/>
+      <c r="F3745" s="4"/>
+      <c r="G3745" s="4"/>
+      <c r="H3745" s="4"/>
+      <c r="I3745" s="4"/>
+      <c r="J3745" s="4"/>
+      <c r="K3745" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3742:K3742"/>
-    <mergeCell ref="D3743:K3744"/>
+    <mergeCell ref="D3743:K3743"/>
+    <mergeCell ref="D3744:K3745"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="3749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="3752">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11261,6 +11261,15 @@
   </si>
   <si>
     <t>3-7-2021</t>
+  </si>
+  <si>
+    <t>3-8-2021</t>
+  </si>
+  <si>
+    <t>3-9-2021</t>
+  </si>
+  <si>
+    <t>3-10-2021</t>
   </si>
 </sst>
 </file>
@@ -11397,128 +11406,128 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3715:$A$3745</c:f>
+              <c:f>DolarToday!$A$3718:$A$3748</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2-5-2021</c:v>
+                  <c:v>2-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2-6-2021</c:v>
+                  <c:v>2-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2-7-2021</c:v>
+                  <c:v>2-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2-8-2021</c:v>
+                  <c:v>2-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2-9-2021</c:v>
+                  <c:v>2-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2-10-2021</c:v>
+                  <c:v>2-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2-11-2021</c:v>
+                  <c:v>2-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2-12-2021</c:v>
+                  <c:v>2-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2-13-2021</c:v>
+                  <c:v>2-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2-14-2021</c:v>
+                  <c:v>2-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2-15-2021</c:v>
+                  <c:v>2-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2-16-2021</c:v>
+                  <c:v>2-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2-17-2021</c:v>
+                  <c:v>2-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2-18-2021</c:v>
+                  <c:v>2-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2-19-2021</c:v>
+                  <c:v>2-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2-20-2021</c:v>
+                  <c:v>2-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2-21-2021</c:v>
+                  <c:v>2-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2-22-2021</c:v>
+                  <c:v>2-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2-23-2021</c:v>
+                  <c:v>2-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2-24-2021</c:v>
+                  <c:v>2-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2-25-2021</c:v>
+                  <c:v>2-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2-26-2021</c:v>
+                  <c:v>3-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2-27-2021</c:v>
+                  <c:v>3-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2-28-2021</c:v>
+                  <c:v>3-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-1-2021</c:v>
+                  <c:v>3-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-2-2021</c:v>
+                  <c:v>3-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3-3-2021</c:v>
+                  <c:v>3-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3-4-2021</c:v>
+                  <c:v>3-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3-5-2021</c:v>
+                  <c:v>3-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3-6-2021</c:v>
+                  <c:v>3-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3-7-2021</c:v>
+                  <c:v>3-10-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3715:$B$3745</c:f>
+              <c:f>DolarToday!$B$3718:$B$3748</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1765049.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1847582.91</c:v>
+                  <c:v>1720033.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1850173.02</c:v>
+                  <c:v>1760302.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1765049.56</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1720033.83</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1760302.91</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1734814.46</c:v>
@@ -11527,73 +11536,73 @@
                   <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1729896.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1720031.95</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1729896.03</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1720031.95</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1860103.73</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1900251.91</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1970835.98</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1860103.73</c:v>
+                  <c:v>1920076.79</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1900251.91</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1970835.98</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1920076.79</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1873893.89</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1873893.89</c:v>
+                  <c:v>1897012.81</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1897012.81</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1883762.14</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1879124.25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1894173.81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1883762.14</c:v>
+                  <c:v>1874001.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12000,7 +12009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3745"/>
+  <dimension ref="A1:K3748"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41861,7 +41870,7 @@
         <v>1805035.26</v>
       </c>
     </row>
-    <row r="3729" spans="1:11">
+    <row r="3729" spans="1:2">
       <c r="A3729" t="s">
         <v>3732</v>
       </c>
@@ -41869,7 +41878,7 @@
         <v>1805035.26</v>
       </c>
     </row>
-    <row r="3730" spans="1:11">
+    <row r="3730" spans="1:2">
       <c r="A3730" t="s">
         <v>3733</v>
       </c>
@@ -41877,7 +41886,7 @@
         <v>1805035.26</v>
       </c>
     </row>
-    <row r="3731" spans="1:11">
+    <row r="3731" spans="1:2">
       <c r="A3731" t="s">
         <v>3734</v>
       </c>
@@ -41885,7 +41894,7 @@
         <v>1860103.73</v>
       </c>
     </row>
-    <row r="3732" spans="1:11">
+    <row r="3732" spans="1:2">
       <c r="A3732" t="s">
         <v>3735</v>
       </c>
@@ -41893,7 +41902,7 @@
         <v>1900251.91</v>
       </c>
     </row>
-    <row r="3733" spans="1:11">
+    <row r="3733" spans="1:2">
       <c r="A3733" t="s">
         <v>3736</v>
       </c>
@@ -41901,7 +41910,7 @@
         <v>1970835.98</v>
       </c>
     </row>
-    <row r="3734" spans="1:11">
+    <row r="3734" spans="1:2">
       <c r="A3734" t="s">
         <v>3737</v>
       </c>
@@ -41909,7 +41918,7 @@
         <v>1920076.79</v>
       </c>
     </row>
-    <row r="3735" spans="1:11">
+    <row r="3735" spans="1:2">
       <c r="A3735" t="s">
         <v>3738</v>
       </c>
@@ -41917,7 +41926,7 @@
         <v>1899023.81</v>
       </c>
     </row>
-    <row r="3736" spans="1:11">
+    <row r="3736" spans="1:2">
       <c r="A3736" t="s">
         <v>3739</v>
       </c>
@@ -41925,7 +41934,7 @@
         <v>1899023.81</v>
       </c>
     </row>
-    <row r="3737" spans="1:11">
+    <row r="3737" spans="1:2">
       <c r="A3737" t="s">
         <v>3740</v>
       </c>
@@ -41933,7 +41942,7 @@
         <v>1899023.81</v>
       </c>
     </row>
-    <row r="3738" spans="1:11">
+    <row r="3738" spans="1:2">
       <c r="A3738" t="s">
         <v>3741</v>
       </c>
@@ -41941,7 +41950,7 @@
         <v>1873893.89</v>
       </c>
     </row>
-    <row r="3739" spans="1:11">
+    <row r="3739" spans="1:2">
       <c r="A3739" t="s">
         <v>3742</v>
       </c>
@@ -41949,7 +41958,7 @@
         <v>1875001.53</v>
       </c>
     </row>
-    <row r="3740" spans="1:11">
+    <row r="3740" spans="1:2">
       <c r="A3740" t="s">
         <v>3743</v>
       </c>
@@ -41957,7 +41966,7 @@
         <v>1875001.53</v>
       </c>
     </row>
-    <row r="3741" spans="1:11">
+    <row r="3741" spans="1:2">
       <c r="A3741" t="s">
         <v>3744</v>
       </c>
@@ -41965,7 +41974,7 @@
         <v>1897012.81</v>
       </c>
     </row>
-    <row r="3742" spans="1:11">
+    <row r="3742" spans="1:2">
       <c r="A3742" t="s">
         <v>3745</v>
       </c>
@@ -41973,41 +41982,21 @@
         <v>1900752.76</v>
       </c>
     </row>
-    <row r="3743" spans="1:11">
+    <row r="3743" spans="1:2">
       <c r="A3743" t="s">
         <v>3746</v>
       </c>
       <c r="B3743">
         <v>1900752.76</v>
       </c>
-      <c r="D3743" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3743" s="3"/>
-      <c r="F3743" s="3"/>
-      <c r="G3743" s="3"/>
-      <c r="H3743" s="3"/>
-      <c r="I3743" s="3"/>
-      <c r="J3743" s="3"/>
-      <c r="K3743" s="3"/>
-    </row>
-    <row r="3744" spans="1:11">
+    </row>
+    <row r="3744" spans="1:2">
       <c r="A3744" t="s">
         <v>3747</v>
       </c>
       <c r="B3744">
         <v>1900752.76</v>
       </c>
-      <c r="D3744" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3744" s="4"/>
-      <c r="F3744" s="4"/>
-      <c r="G3744" s="4"/>
-      <c r="H3744" s="4"/>
-      <c r="I3744" s="4"/>
-      <c r="J3744" s="4"/>
-      <c r="K3744" s="4"/>
     </row>
     <row r="3745" spans="1:11">
       <c r="A3745" t="s">
@@ -42016,21 +42005,65 @@
       <c r="B3745">
         <v>1883762.14</v>
       </c>
-      <c r="D3745" s="4"/>
-      <c r="E3745" s="4"/>
-      <c r="F3745" s="4"/>
-      <c r="G3745" s="4"/>
-      <c r="H3745" s="4"/>
-      <c r="I3745" s="4"/>
-      <c r="J3745" s="4"/>
-      <c r="K3745" s="4"/>
+    </row>
+    <row r="3746" spans="1:11">
+      <c r="A3746" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B3746">
+        <v>1879124.25</v>
+      </c>
+      <c r="D3746" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3746" s="3"/>
+      <c r="F3746" s="3"/>
+      <c r="G3746" s="3"/>
+      <c r="H3746" s="3"/>
+      <c r="I3746" s="3"/>
+      <c r="J3746" s="3"/>
+      <c r="K3746" s="3"/>
+    </row>
+    <row r="3747" spans="1:11">
+      <c r="A3747" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B3747">
+        <v>1894173.81</v>
+      </c>
+      <c r="D3747" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3747" s="4"/>
+      <c r="F3747" s="4"/>
+      <c r="G3747" s="4"/>
+      <c r="H3747" s="4"/>
+      <c r="I3747" s="4"/>
+      <c r="J3747" s="4"/>
+      <c r="K3747" s="4"/>
+    </row>
+    <row r="3748" spans="1:11">
+      <c r="A3748" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B3748">
+        <v>1874001.83</v>
+      </c>
+      <c r="D3748" s="4"/>
+      <c r="E3748" s="4"/>
+      <c r="F3748" s="4"/>
+      <c r="G3748" s="4"/>
+      <c r="H3748" s="4"/>
+      <c r="I3748" s="4"/>
+      <c r="J3748" s="4"/>
+      <c r="K3748" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3743:K3743"/>
-    <mergeCell ref="D3744:K3745"/>
+    <mergeCell ref="D3746:K3746"/>
+    <mergeCell ref="D3747:K3748"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="3752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="3755">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11270,6 +11270,15 @@
   </si>
   <si>
     <t>3-10-2021</t>
+  </si>
+  <si>
+    <t>3-11-2021</t>
+  </si>
+  <si>
+    <t>3-12-2021</t>
+  </si>
+  <si>
+    <t>3-13-2021</t>
   </si>
 </sst>
 </file>
@@ -11406,119 +11415,119 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3718:$A$3748</c:f>
+              <c:f>DolarToday!$A$3721:$A$3751</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2-8-2021</c:v>
+                  <c:v>2-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2-9-2021</c:v>
+                  <c:v>2-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2-10-2021</c:v>
+                  <c:v>2-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2-11-2021</c:v>
+                  <c:v>2-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2-12-2021</c:v>
+                  <c:v>2-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2-13-2021</c:v>
+                  <c:v>2-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2-14-2021</c:v>
+                  <c:v>2-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2-15-2021</c:v>
+                  <c:v>2-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2-16-2021</c:v>
+                  <c:v>2-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2-17-2021</c:v>
+                  <c:v>2-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2-18-2021</c:v>
+                  <c:v>2-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2-19-2021</c:v>
+                  <c:v>2-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2-20-2021</c:v>
+                  <c:v>2-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2-21-2021</c:v>
+                  <c:v>2-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2-22-2021</c:v>
+                  <c:v>2-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2-23-2021</c:v>
+                  <c:v>2-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2-24-2021</c:v>
+                  <c:v>2-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2-25-2021</c:v>
+                  <c:v>2-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2-26-2021</c:v>
+                  <c:v>3-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2-27-2021</c:v>
+                  <c:v>3-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2-28-2021</c:v>
+                  <c:v>3-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-1-2021</c:v>
+                  <c:v>3-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-2-2021</c:v>
+                  <c:v>3-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-3-2021</c:v>
+                  <c:v>3-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-4-2021</c:v>
+                  <c:v>3-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-5-2021</c:v>
+                  <c:v>3-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3-6-2021</c:v>
+                  <c:v>3-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3-7-2021</c:v>
+                  <c:v>3-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3-8-2021</c:v>
+                  <c:v>3-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3-9-2021</c:v>
+                  <c:v>3-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3-10-2021</c:v>
+                  <c:v>3-13-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3718:$B$3748</c:f>
+              <c:f>DolarToday!$B$3721:$B$3751</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1765049.56</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1720033.83</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1760302.91</c:v>
+                  <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1734814.46</c:v>
@@ -11527,82 +11536,82 @@
                   <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1729896.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1720031.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1729896.03</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1720031.95</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1860103.73</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1900251.91</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1970835.98</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1860103.73</c:v>
+                  <c:v>1920076.79</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1900251.91</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1970835.98</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1920076.79</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1873893.89</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1873893.89</c:v>
+                  <c:v>1897012.81</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1897012.81</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1883762.14</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1879124.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1894173.81</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1883762.14</c:v>
+                  <c:v>1874001.83</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1879124.25</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1894173.81</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1874001.83</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12009,7 +12018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3748"/>
+  <dimension ref="A1:K3751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42013,16 +42022,6 @@
       <c r="B3746">
         <v>1879124.25</v>
       </c>
-      <c r="D3746" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3746" s="3"/>
-      <c r="F3746" s="3"/>
-      <c r="G3746" s="3"/>
-      <c r="H3746" s="3"/>
-      <c r="I3746" s="3"/>
-      <c r="J3746" s="3"/>
-      <c r="K3746" s="3"/>
     </row>
     <row r="3747" spans="1:11">
       <c r="A3747" t="s">
@@ -42031,16 +42030,6 @@
       <c r="B3747">
         <v>1894173.81</v>
       </c>
-      <c r="D3747" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3747" s="4"/>
-      <c r="F3747" s="4"/>
-      <c r="G3747" s="4"/>
-      <c r="H3747" s="4"/>
-      <c r="I3747" s="4"/>
-      <c r="J3747" s="4"/>
-      <c r="K3747" s="4"/>
     </row>
     <row r="3748" spans="1:11">
       <c r="A3748" t="s">
@@ -42049,21 +42038,65 @@
       <c r="B3748">
         <v>1874001.83</v>
       </c>
-      <c r="D3748" s="4"/>
-      <c r="E3748" s="4"/>
-      <c r="F3748" s="4"/>
-      <c r="G3748" s="4"/>
-      <c r="H3748" s="4"/>
-      <c r="I3748" s="4"/>
-      <c r="J3748" s="4"/>
-      <c r="K3748" s="4"/>
+    </row>
+    <row r="3749" spans="1:11">
+      <c r="A3749" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B3749">
+        <v>1856291.21</v>
+      </c>
+      <c r="D3749" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3749" s="3"/>
+      <c r="F3749" s="3"/>
+      <c r="G3749" s="3"/>
+      <c r="H3749" s="3"/>
+      <c r="I3749" s="3"/>
+      <c r="J3749" s="3"/>
+      <c r="K3749" s="3"/>
+    </row>
+    <row r="3750" spans="1:11">
+      <c r="A3750" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B3750">
+        <v>1856291.21</v>
+      </c>
+      <c r="D3750" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3750" s="4"/>
+      <c r="F3750" s="4"/>
+      <c r="G3750" s="4"/>
+      <c r="H3750" s="4"/>
+      <c r="I3750" s="4"/>
+      <c r="J3750" s="4"/>
+      <c r="K3750" s="4"/>
+    </row>
+    <row r="3751" spans="1:11">
+      <c r="A3751" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B3751">
+        <v>1856291.21</v>
+      </c>
+      <c r="D3751" s="4"/>
+      <c r="E3751" s="4"/>
+      <c r="F3751" s="4"/>
+      <c r="G3751" s="4"/>
+      <c r="H3751" s="4"/>
+      <c r="I3751" s="4"/>
+      <c r="J3751" s="4"/>
+      <c r="K3751" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3746:K3746"/>
-    <mergeCell ref="D3747:K3748"/>
+    <mergeCell ref="D3749:K3749"/>
+    <mergeCell ref="D3750:K3751"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="3755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="3757">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11279,6 +11279,12 @@
   </si>
   <si>
     <t>3-13-2021</t>
+  </si>
+  <si>
+    <t>3-14-2021</t>
+  </si>
+  <si>
+    <t>3-15-2021</t>
   </si>
 </sst>
 </file>
@@ -11415,108 +11421,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3721:$A$3751</c:f>
+              <c:f>DolarToday!$A$3723:$A$3753</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2-11-2021</c:v>
+                  <c:v>2-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2-12-2021</c:v>
+                  <c:v>2-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2-13-2021</c:v>
+                  <c:v>2-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2-14-2021</c:v>
+                  <c:v>2-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2-15-2021</c:v>
+                  <c:v>2-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2-16-2021</c:v>
+                  <c:v>2-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2-17-2021</c:v>
+                  <c:v>2-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2-18-2021</c:v>
+                  <c:v>2-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2-19-2021</c:v>
+                  <c:v>2-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2-20-2021</c:v>
+                  <c:v>2-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2-21-2021</c:v>
+                  <c:v>2-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2-22-2021</c:v>
+                  <c:v>2-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2-23-2021</c:v>
+                  <c:v>2-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2-24-2021</c:v>
+                  <c:v>2-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2-25-2021</c:v>
+                  <c:v>2-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2-26-2021</c:v>
+                  <c:v>2-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2-27-2021</c:v>
+                  <c:v>3-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2-28-2021</c:v>
+                  <c:v>3-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-1-2021</c:v>
+                  <c:v>3-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-2-2021</c:v>
+                  <c:v>3-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-3-2021</c:v>
+                  <c:v>3-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-4-2021</c:v>
+                  <c:v>3-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-5-2021</c:v>
+                  <c:v>3-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-6-2021</c:v>
+                  <c:v>3-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-7-2021</c:v>
+                  <c:v>3-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-8-2021</c:v>
+                  <c:v>3-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3-9-2021</c:v>
+                  <c:v>3-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3-10-2021</c:v>
+                  <c:v>3-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3-11-2021</c:v>
+                  <c:v>3-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3-12-2021</c:v>
+                  <c:v>3-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3-13-2021</c:v>
+                  <c:v>3-15-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3721:$B$3751</c:f>
+              <c:f>DolarToday!$B$3723:$B$3753</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11530,88 +11536,88 @@
                   <c:v>1734814.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1729896.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1720031.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1729896.03</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1720031.95</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1860103.73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1900251.91</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1860103.73</c:v>
+                  <c:v>1970835.98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1900251.91</c:v>
+                  <c:v>1920076.79</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1970835.98</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1920076.79</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1873893.89</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1873893.89</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1897012.81</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1897012.81</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1883762.14</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1879124.25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1883762.14</c:v>
+                  <c:v>1894173.81</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1879124.25</c:v>
+                  <c:v>1874001.83</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1894173.81</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1874001.83</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1859041.38</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1856100.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12018,7 +12024,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3751"/>
+  <dimension ref="A1:K3753"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42046,16 +42052,6 @@
       <c r="B3749">
         <v>1856291.21</v>
       </c>
-      <c r="D3749" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3749" s="3"/>
-      <c r="F3749" s="3"/>
-      <c r="G3749" s="3"/>
-      <c r="H3749" s="3"/>
-      <c r="I3749" s="3"/>
-      <c r="J3749" s="3"/>
-      <c r="K3749" s="3"/>
     </row>
     <row r="3750" spans="1:11">
       <c r="A3750" t="s">
@@ -42064,16 +42060,6 @@
       <c r="B3750">
         <v>1856291.21</v>
       </c>
-      <c r="D3750" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3750" s="4"/>
-      <c r="F3750" s="4"/>
-      <c r="G3750" s="4"/>
-      <c r="H3750" s="4"/>
-      <c r="I3750" s="4"/>
-      <c r="J3750" s="4"/>
-      <c r="K3750" s="4"/>
     </row>
     <row r="3751" spans="1:11">
       <c r="A3751" t="s">
@@ -42082,21 +42068,57 @@
       <c r="B3751">
         <v>1856291.21</v>
       </c>
-      <c r="D3751" s="4"/>
-      <c r="E3751" s="4"/>
-      <c r="F3751" s="4"/>
-      <c r="G3751" s="4"/>
-      <c r="H3751" s="4"/>
-      <c r="I3751" s="4"/>
-      <c r="J3751" s="4"/>
-      <c r="K3751" s="4"/>
+      <c r="D3751" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3751" s="3"/>
+      <c r="F3751" s="3"/>
+      <c r="G3751" s="3"/>
+      <c r="H3751" s="3"/>
+      <c r="I3751" s="3"/>
+      <c r="J3751" s="3"/>
+      <c r="K3751" s="3"/>
+    </row>
+    <row r="3752" spans="1:11">
+      <c r="A3752" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B3752">
+        <v>1859041.38</v>
+      </c>
+      <c r="D3752" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3752" s="4"/>
+      <c r="F3752" s="4"/>
+      <c r="G3752" s="4"/>
+      <c r="H3752" s="4"/>
+      <c r="I3752" s="4"/>
+      <c r="J3752" s="4"/>
+      <c r="K3752" s="4"/>
+    </row>
+    <row r="3753" spans="1:11">
+      <c r="A3753" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B3753">
+        <v>1856100.87</v>
+      </c>
+      <c r="D3753" s="4"/>
+      <c r="E3753" s="4"/>
+      <c r="F3753" s="4"/>
+      <c r="G3753" s="4"/>
+      <c r="H3753" s="4"/>
+      <c r="I3753" s="4"/>
+      <c r="J3753" s="4"/>
+      <c r="K3753" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3749:K3749"/>
-    <mergeCell ref="D3750:K3751"/>
+    <mergeCell ref="D3751:K3751"/>
+    <mergeCell ref="D3752:K3753"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="3757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="3762">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11285,6 +11285,21 @@
   </si>
   <si>
     <t>3-15-2021</t>
+  </si>
+  <si>
+    <t>3-16-2021</t>
+  </si>
+  <si>
+    <t>3-17-2021</t>
+  </si>
+  <si>
+    <t>3-18-2021</t>
+  </si>
+  <si>
+    <t>3-19-2021</t>
+  </si>
+  <si>
+    <t>3-20-2021</t>
   </si>
 </sst>
 </file>
@@ -11421,203 +11436,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3723:$A$3753</c:f>
+              <c:f>DolarToday!$A$3728:$A$3758</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2-13-2021</c:v>
+                  <c:v>2-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2-14-2021</c:v>
+                  <c:v>2-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2-15-2021</c:v>
+                  <c:v>2-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2-16-2021</c:v>
+                  <c:v>2-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2-17-2021</c:v>
+                  <c:v>2-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2-18-2021</c:v>
+                  <c:v>2-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2-19-2021</c:v>
+                  <c:v>2-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2-20-2021</c:v>
+                  <c:v>2-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2-21-2021</c:v>
+                  <c:v>2-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2-22-2021</c:v>
+                  <c:v>2-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2-23-2021</c:v>
+                  <c:v>2-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2-24-2021</c:v>
+                  <c:v>3-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2-25-2021</c:v>
+                  <c:v>3-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2-26-2021</c:v>
+                  <c:v>3-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2-27-2021</c:v>
+                  <c:v>3-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2-28-2021</c:v>
+                  <c:v>3-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-1-2021</c:v>
+                  <c:v>3-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-2-2021</c:v>
+                  <c:v>3-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-3-2021</c:v>
+                  <c:v>3-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-4-2021</c:v>
+                  <c:v>3-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-5-2021</c:v>
+                  <c:v>3-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-6-2021</c:v>
+                  <c:v>3-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-7-2021</c:v>
+                  <c:v>3-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-8-2021</c:v>
+                  <c:v>3-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-9-2021</c:v>
+                  <c:v>3-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-10-2021</c:v>
+                  <c:v>3-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3-11-2021</c:v>
+                  <c:v>3-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3-12-2021</c:v>
+                  <c:v>3-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3-13-2021</c:v>
+                  <c:v>3-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3-14-2021</c:v>
+                  <c:v>3-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3-15-2021</c:v>
+                  <c:v>3-20-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3723:$B$3753</c:f>
+              <c:f>DolarToday!$B$3728:$B$3758</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1734814.46</c:v>
+                  <c:v>1805035.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1729896.03</c:v>
+                  <c:v>1860103.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1720031.95</c:v>
+                  <c:v>1900251.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1970835.98</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1920076.79</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1860103.73</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1900251.91</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1970835.98</c:v>
+                  <c:v>1873893.89</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1920076.79</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1897012.81</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1873893.89</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1883762.14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1897012.81</c:v>
+                  <c:v>1879124.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1894173.81</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1874001.83</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1883762.14</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1879124.25</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1894173.81</c:v>
+                  <c:v>1859041.38</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1874001.83</c:v>
+                  <c:v>1856100.87</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1859853.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1832821.62</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1859041.38</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1856100.87</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12024,7 +12039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3753"/>
+  <dimension ref="A1:K3758"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42068,16 +42083,6 @@
       <c r="B3751">
         <v>1856291.21</v>
       </c>
-      <c r="D3751" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3751" s="3"/>
-      <c r="F3751" s="3"/>
-      <c r="G3751" s="3"/>
-      <c r="H3751" s="3"/>
-      <c r="I3751" s="3"/>
-      <c r="J3751" s="3"/>
-      <c r="K3751" s="3"/>
     </row>
     <row r="3752" spans="1:11">
       <c r="A3752" t="s">
@@ -42086,16 +42091,6 @@
       <c r="B3752">
         <v>1859041.38</v>
       </c>
-      <c r="D3752" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3752" s="4"/>
-      <c r="F3752" s="4"/>
-      <c r="G3752" s="4"/>
-      <c r="H3752" s="4"/>
-      <c r="I3752" s="4"/>
-      <c r="J3752" s="4"/>
-      <c r="K3752" s="4"/>
     </row>
     <row r="3753" spans="1:11">
       <c r="A3753" t="s">
@@ -42104,21 +42099,81 @@
       <c r="B3753">
         <v>1856100.87</v>
       </c>
-      <c r="D3753" s="4"/>
-      <c r="E3753" s="4"/>
-      <c r="F3753" s="4"/>
-      <c r="G3753" s="4"/>
-      <c r="H3753" s="4"/>
-      <c r="I3753" s="4"/>
-      <c r="J3753" s="4"/>
-      <c r="K3753" s="4"/>
+    </row>
+    <row r="3754" spans="1:11">
+      <c r="A3754" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B3754">
+        <v>1859853.2</v>
+      </c>
+    </row>
+    <row r="3755" spans="1:11">
+      <c r="A3755" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B3755">
+        <v>1832821.62</v>
+      </c>
+    </row>
+    <row r="3756" spans="1:11">
+      <c r="A3756" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B3756">
+        <v>1835391.02</v>
+      </c>
+      <c r="D3756" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3756" s="3"/>
+      <c r="F3756" s="3"/>
+      <c r="G3756" s="3"/>
+      <c r="H3756" s="3"/>
+      <c r="I3756" s="3"/>
+      <c r="J3756" s="3"/>
+      <c r="K3756" s="3"/>
+    </row>
+    <row r="3757" spans="1:11">
+      <c r="A3757" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B3757">
+        <v>1835391.02</v>
+      </c>
+      <c r="D3757" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3757" s="4"/>
+      <c r="F3757" s="4"/>
+      <c r="G3757" s="4"/>
+      <c r="H3757" s="4"/>
+      <c r="I3757" s="4"/>
+      <c r="J3757" s="4"/>
+      <c r="K3757" s="4"/>
+    </row>
+    <row r="3758" spans="1:11">
+      <c r="A3758" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B3758">
+        <v>1835391.02</v>
+      </c>
+      <c r="D3758" s="4"/>
+      <c r="E3758" s="4"/>
+      <c r="F3758" s="4"/>
+      <c r="G3758" s="4"/>
+      <c r="H3758" s="4"/>
+      <c r="I3758" s="4"/>
+      <c r="J3758" s="4"/>
+      <c r="K3758" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3751:K3751"/>
-    <mergeCell ref="D3752:K3753"/>
+    <mergeCell ref="D3756:K3756"/>
+    <mergeCell ref="D3757:K3758"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="3762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="3765">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11300,6 +11300,15 @@
   </si>
   <si>
     <t>3-20-2021</t>
+  </si>
+  <si>
+    <t>3-21-2021</t>
+  </si>
+  <si>
+    <t>3-22-2021</t>
+  </si>
+  <si>
+    <t>3-23-2021</t>
   </si>
 </sst>
 </file>
@@ -11436,194 +11445,194 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3728:$A$3758</c:f>
+              <c:f>DolarToday!$A$3731:$A$3761</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2-18-2021</c:v>
+                  <c:v>2-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2-19-2021</c:v>
+                  <c:v>2-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2-20-2021</c:v>
+                  <c:v>2-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2-21-2021</c:v>
+                  <c:v>2-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2-22-2021</c:v>
+                  <c:v>2-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2-23-2021</c:v>
+                  <c:v>2-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2-24-2021</c:v>
+                  <c:v>2-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2-25-2021</c:v>
+                  <c:v>2-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2-26-2021</c:v>
+                  <c:v>3-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2-27-2021</c:v>
+                  <c:v>3-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2-28-2021</c:v>
+                  <c:v>3-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-1-2021</c:v>
+                  <c:v>3-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-2-2021</c:v>
+                  <c:v>3-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-3-2021</c:v>
+                  <c:v>3-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-4-2021</c:v>
+                  <c:v>3-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-5-2021</c:v>
+                  <c:v>3-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-6-2021</c:v>
+                  <c:v>3-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-7-2021</c:v>
+                  <c:v>3-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-8-2021</c:v>
+                  <c:v>3-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-9-2021</c:v>
+                  <c:v>3-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-10-2021</c:v>
+                  <c:v>3-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-11-2021</c:v>
+                  <c:v>3-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-12-2021</c:v>
+                  <c:v>3-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-13-2021</c:v>
+                  <c:v>3-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-14-2021</c:v>
+                  <c:v>3-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-15-2021</c:v>
+                  <c:v>3-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3-16-2021</c:v>
+                  <c:v>3-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3-17-2021</c:v>
+                  <c:v>3-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3-18-2021</c:v>
+                  <c:v>3-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3-19-2021</c:v>
+                  <c:v>3-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3-20-2021</c:v>
+                  <c:v>3-23-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3728:$B$3758</c:f>
+              <c:f>DolarToday!$B$3731:$B$3761</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1860103.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1900251.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1805035.26</c:v>
+                  <c:v>1970835.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1860103.73</c:v>
+                  <c:v>1920076.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1900251.91</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1970835.98</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1920076.79</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1873893.89</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1873893.89</c:v>
+                  <c:v>1897012.81</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1897012.81</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1883762.14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1879124.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1894173.81</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1883762.14</c:v>
+                  <c:v>1874001.83</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1879124.25</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1894173.81</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1874001.83</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1859041.38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1856100.87</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1859853.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1859041.38</c:v>
+                  <c:v>1832821.62</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1856100.87</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1859853.2</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1832821.62</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1835391.02</c:v>
@@ -12039,7 +12048,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3758"/>
+  <dimension ref="A1:K3761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42123,16 +42132,6 @@
       <c r="B3756">
         <v>1835391.02</v>
       </c>
-      <c r="D3756" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3756" s="3"/>
-      <c r="F3756" s="3"/>
-      <c r="G3756" s="3"/>
-      <c r="H3756" s="3"/>
-      <c r="I3756" s="3"/>
-      <c r="J3756" s="3"/>
-      <c r="K3756" s="3"/>
     </row>
     <row r="3757" spans="1:11">
       <c r="A3757" t="s">
@@ -42141,16 +42140,6 @@
       <c r="B3757">
         <v>1835391.02</v>
       </c>
-      <c r="D3757" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3757" s="4"/>
-      <c r="F3757" s="4"/>
-      <c r="G3757" s="4"/>
-      <c r="H3757" s="4"/>
-      <c r="I3757" s="4"/>
-      <c r="J3757" s="4"/>
-      <c r="K3757" s="4"/>
     </row>
     <row r="3758" spans="1:11">
       <c r="A3758" t="s">
@@ -42159,21 +42148,65 @@
       <c r="B3758">
         <v>1835391.02</v>
       </c>
-      <c r="D3758" s="4"/>
-      <c r="E3758" s="4"/>
-      <c r="F3758" s="4"/>
-      <c r="G3758" s="4"/>
-      <c r="H3758" s="4"/>
-      <c r="I3758" s="4"/>
-      <c r="J3758" s="4"/>
-      <c r="K3758" s="4"/>
+    </row>
+    <row r="3759" spans="1:11">
+      <c r="A3759" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B3759">
+        <v>1835391.02</v>
+      </c>
+      <c r="D3759" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3759" s="3"/>
+      <c r="F3759" s="3"/>
+      <c r="G3759" s="3"/>
+      <c r="H3759" s="3"/>
+      <c r="I3759" s="3"/>
+      <c r="J3759" s="3"/>
+      <c r="K3759" s="3"/>
+    </row>
+    <row r="3760" spans="1:11">
+      <c r="A3760" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B3760">
+        <v>1835391.02</v>
+      </c>
+      <c r="D3760" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3760" s="4"/>
+      <c r="F3760" s="4"/>
+      <c r="G3760" s="4"/>
+      <c r="H3760" s="4"/>
+      <c r="I3760" s="4"/>
+      <c r="J3760" s="4"/>
+      <c r="K3760" s="4"/>
+    </row>
+    <row r="3761" spans="1:11">
+      <c r="A3761" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B3761">
+        <v>1835391.02</v>
+      </c>
+      <c r="D3761" s="4"/>
+      <c r="E3761" s="4"/>
+      <c r="F3761" s="4"/>
+      <c r="G3761" s="4"/>
+      <c r="H3761" s="4"/>
+      <c r="I3761" s="4"/>
+      <c r="J3761" s="4"/>
+      <c r="K3761" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3756:K3756"/>
-    <mergeCell ref="D3757:K3758"/>
+    <mergeCell ref="D3759:K3759"/>
+    <mergeCell ref="D3760:K3761"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="3765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="3770">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11309,6 +11309,21 @@
   </si>
   <si>
     <t>3-23-2021</t>
+  </si>
+  <si>
+    <t>3-24-2021</t>
+  </si>
+  <si>
+    <t>3-25-2021</t>
+  </si>
+  <si>
+    <t>3-26-2021</t>
+  </si>
+  <si>
+    <t>3-27-2021</t>
+  </si>
+  <si>
+    <t>3-28-2021</t>
   </si>
 </sst>
 </file>
@@ -11445,185 +11460,185 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3731:$A$3761</c:f>
+              <c:f>DolarToday!$A$3736:$A$3766</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2-21-2021</c:v>
+                  <c:v>2-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2-22-2021</c:v>
+                  <c:v>2-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2-23-2021</c:v>
+                  <c:v>2-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2-24-2021</c:v>
+                  <c:v>3-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2-25-2021</c:v>
+                  <c:v>3-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2-26-2021</c:v>
+                  <c:v>3-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2-27-2021</c:v>
+                  <c:v>3-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2-28-2021</c:v>
+                  <c:v>3-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-1-2021</c:v>
+                  <c:v>3-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-2-2021</c:v>
+                  <c:v>3-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-3-2021</c:v>
+                  <c:v>3-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-4-2021</c:v>
+                  <c:v>3-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-5-2021</c:v>
+                  <c:v>3-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-6-2021</c:v>
+                  <c:v>3-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-7-2021</c:v>
+                  <c:v>3-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-8-2021</c:v>
+                  <c:v>3-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-9-2021</c:v>
+                  <c:v>3-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-10-2021</c:v>
+                  <c:v>3-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-11-2021</c:v>
+                  <c:v>3-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-12-2021</c:v>
+                  <c:v>3-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-13-2021</c:v>
+                  <c:v>3-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-14-2021</c:v>
+                  <c:v>3-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-15-2021</c:v>
+                  <c:v>3-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-16-2021</c:v>
+                  <c:v>3-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-17-2021</c:v>
+                  <c:v>3-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-18-2021</c:v>
+                  <c:v>3-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3-19-2021</c:v>
+                  <c:v>3-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3-20-2021</c:v>
+                  <c:v>3-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3-21-2021</c:v>
+                  <c:v>3-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3-22-2021</c:v>
+                  <c:v>3-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3-23-2021</c:v>
+                  <c:v>3-28-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3731:$B$3761</c:f>
+              <c:f>DolarToday!$B$3736:$B$3766</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1860103.73</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1900251.91</c:v>
+                  <c:v>1899023.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1970835.98</c:v>
+                  <c:v>1873893.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1920076.79</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1897012.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1873893.89</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1883762.14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1897012.81</c:v>
+                  <c:v>1879124.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1894173.81</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1874001.83</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1883762.14</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1879124.25</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1894173.81</c:v>
+                  <c:v>1859041.38</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1874001.83</c:v>
+                  <c:v>1856100.87</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1859853.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1832821.62</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1859041.38</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1856100.87</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1859853.2</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1832821.62</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1835391.02</c:v>
@@ -11632,16 +11647,16 @@
                   <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1975045.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12048,7 +12063,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3761"/>
+  <dimension ref="A1:K3766"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42037,7 +42052,7 @@
         <v>1900752.76</v>
       </c>
     </row>
-    <row r="3745" spans="1:11">
+    <row r="3745" spans="1:2">
       <c r="A3745" t="s">
         <v>3748</v>
       </c>
@@ -42045,7 +42060,7 @@
         <v>1883762.14</v>
       </c>
     </row>
-    <row r="3746" spans="1:11">
+    <row r="3746" spans="1:2">
       <c r="A3746" t="s">
         <v>3749</v>
       </c>
@@ -42053,7 +42068,7 @@
         <v>1879124.25</v>
       </c>
     </row>
-    <row r="3747" spans="1:11">
+    <row r="3747" spans="1:2">
       <c r="A3747" t="s">
         <v>3750</v>
       </c>
@@ -42061,7 +42076,7 @@
         <v>1894173.81</v>
       </c>
     </row>
-    <row r="3748" spans="1:11">
+    <row r="3748" spans="1:2">
       <c r="A3748" t="s">
         <v>3751</v>
       </c>
@@ -42069,7 +42084,7 @@
         <v>1874001.83</v>
       </c>
     </row>
-    <row r="3749" spans="1:11">
+    <row r="3749" spans="1:2">
       <c r="A3749" t="s">
         <v>3752</v>
       </c>
@@ -42077,7 +42092,7 @@
         <v>1856291.21</v>
       </c>
     </row>
-    <row r="3750" spans="1:11">
+    <row r="3750" spans="1:2">
       <c r="A3750" t="s">
         <v>3753</v>
       </c>
@@ -42085,7 +42100,7 @@
         <v>1856291.21</v>
       </c>
     </row>
-    <row r="3751" spans="1:11">
+    <row r="3751" spans="1:2">
       <c r="A3751" t="s">
         <v>3754</v>
       </c>
@@ -42093,7 +42108,7 @@
         <v>1856291.21</v>
       </c>
     </row>
-    <row r="3752" spans="1:11">
+    <row r="3752" spans="1:2">
       <c r="A3752" t="s">
         <v>3755</v>
       </c>
@@ -42101,7 +42116,7 @@
         <v>1859041.38</v>
       </c>
     </row>
-    <row r="3753" spans="1:11">
+    <row r="3753" spans="1:2">
       <c r="A3753" t="s">
         <v>3756</v>
       </c>
@@ -42109,7 +42124,7 @@
         <v>1856100.87</v>
       </c>
     </row>
-    <row r="3754" spans="1:11">
+    <row r="3754" spans="1:2">
       <c r="A3754" t="s">
         <v>3757</v>
       </c>
@@ -42117,7 +42132,7 @@
         <v>1859853.2</v>
       </c>
     </row>
-    <row r="3755" spans="1:11">
+    <row r="3755" spans="1:2">
       <c r="A3755" t="s">
         <v>3758</v>
       </c>
@@ -42125,7 +42140,7 @@
         <v>1832821.62</v>
       </c>
     </row>
-    <row r="3756" spans="1:11">
+    <row r="3756" spans="1:2">
       <c r="A3756" t="s">
         <v>3759</v>
       </c>
@@ -42133,7 +42148,7 @@
         <v>1835391.02</v>
       </c>
     </row>
-    <row r="3757" spans="1:11">
+    <row r="3757" spans="1:2">
       <c r="A3757" t="s">
         <v>3760</v>
       </c>
@@ -42141,7 +42156,7 @@
         <v>1835391.02</v>
       </c>
     </row>
-    <row r="3758" spans="1:11">
+    <row r="3758" spans="1:2">
       <c r="A3758" t="s">
         <v>3761</v>
       </c>
@@ -42149,41 +42164,21 @@
         <v>1835391.02</v>
       </c>
     </row>
-    <row r="3759" spans="1:11">
+    <row r="3759" spans="1:2">
       <c r="A3759" t="s">
         <v>3762</v>
       </c>
       <c r="B3759">
         <v>1835391.02</v>
       </c>
-      <c r="D3759" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3759" s="3"/>
-      <c r="F3759" s="3"/>
-      <c r="G3759" s="3"/>
-      <c r="H3759" s="3"/>
-      <c r="I3759" s="3"/>
-      <c r="J3759" s="3"/>
-      <c r="K3759" s="3"/>
-    </row>
-    <row r="3760" spans="1:11">
+    </row>
+    <row r="3760" spans="1:2">
       <c r="A3760" t="s">
         <v>3763</v>
       </c>
       <c r="B3760">
         <v>1835391.02</v>
       </c>
-      <c r="D3760" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3760" s="4"/>
-      <c r="F3760" s="4"/>
-      <c r="G3760" s="4"/>
-      <c r="H3760" s="4"/>
-      <c r="I3760" s="4"/>
-      <c r="J3760" s="4"/>
-      <c r="K3760" s="4"/>
     </row>
     <row r="3761" spans="1:11">
       <c r="A3761" t="s">
@@ -42192,21 +42187,81 @@
       <c r="B3761">
         <v>1835391.02</v>
       </c>
-      <c r="D3761" s="4"/>
-      <c r="E3761" s="4"/>
-      <c r="F3761" s="4"/>
-      <c r="G3761" s="4"/>
-      <c r="H3761" s="4"/>
-      <c r="I3761" s="4"/>
-      <c r="J3761" s="4"/>
-      <c r="K3761" s="4"/>
+    </row>
+    <row r="3762" spans="1:11">
+      <c r="A3762" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B3762">
+        <v>1835391.02</v>
+      </c>
+    </row>
+    <row r="3763" spans="1:11">
+      <c r="A3763" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B3763">
+        <v>1930237.96</v>
+      </c>
+    </row>
+    <row r="3764" spans="1:11">
+      <c r="A3764" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B3764">
+        <v>1930237.96</v>
+      </c>
+      <c r="D3764" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3764" s="3"/>
+      <c r="F3764" s="3"/>
+      <c r="G3764" s="3"/>
+      <c r="H3764" s="3"/>
+      <c r="I3764" s="3"/>
+      <c r="J3764" s="3"/>
+      <c r="K3764" s="3"/>
+    </row>
+    <row r="3765" spans="1:11">
+      <c r="A3765" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B3765">
+        <v>1930237.96</v>
+      </c>
+      <c r="D3765" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3765" s="4"/>
+      <c r="F3765" s="4"/>
+      <c r="G3765" s="4"/>
+      <c r="H3765" s="4"/>
+      <c r="I3765" s="4"/>
+      <c r="J3765" s="4"/>
+      <c r="K3765" s="4"/>
+    </row>
+    <row r="3766" spans="1:11">
+      <c r="A3766" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B3766">
+        <v>1975045.96</v>
+      </c>
+      <c r="D3766" s="4"/>
+      <c r="E3766" s="4"/>
+      <c r="F3766" s="4"/>
+      <c r="G3766" s="4"/>
+      <c r="H3766" s="4"/>
+      <c r="I3766" s="4"/>
+      <c r="J3766" s="4"/>
+      <c r="K3766" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3759:K3759"/>
-    <mergeCell ref="D3760:K3761"/>
+    <mergeCell ref="D3764:K3764"/>
+    <mergeCell ref="D3765:K3766"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="3770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="3772">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11324,6 +11324,12 @@
   </si>
   <si>
     <t>3-28-2021</t>
+  </si>
+  <si>
+    <t>3-29-2021</t>
+  </si>
+  <si>
+    <t>3-30-2021</t>
   </si>
 </sst>
 </file>
@@ -11460,170 +11466,170 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3736:$A$3766</c:f>
+              <c:f>DolarToday!$A$3738:$A$3768</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2-26-2021</c:v>
+                  <c:v>2-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2-27-2021</c:v>
+                  <c:v>3-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2-28-2021</c:v>
+                  <c:v>3-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-1-2021</c:v>
+                  <c:v>3-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-2-2021</c:v>
+                  <c:v>3-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-3-2021</c:v>
+                  <c:v>3-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-4-2021</c:v>
+                  <c:v>3-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-5-2021</c:v>
+                  <c:v>3-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-6-2021</c:v>
+                  <c:v>3-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-7-2021</c:v>
+                  <c:v>3-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-8-2021</c:v>
+                  <c:v>3-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-9-2021</c:v>
+                  <c:v>3-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-10-2021</c:v>
+                  <c:v>3-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-11-2021</c:v>
+                  <c:v>3-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-12-2021</c:v>
+                  <c:v>3-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-13-2021</c:v>
+                  <c:v>3-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-14-2021</c:v>
+                  <c:v>3-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-15-2021</c:v>
+                  <c:v>3-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-16-2021</c:v>
+                  <c:v>3-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-17-2021</c:v>
+                  <c:v>3-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-18-2021</c:v>
+                  <c:v>3-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-19-2021</c:v>
+                  <c:v>3-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-20-2021</c:v>
+                  <c:v>3-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-21-2021</c:v>
+                  <c:v>3-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-22-2021</c:v>
+                  <c:v>3-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-23-2021</c:v>
+                  <c:v>3-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3-24-2021</c:v>
+                  <c:v>3-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3-25-2021</c:v>
+                  <c:v>3-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3-26-2021</c:v>
+                  <c:v>3-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3-27-2021</c:v>
+                  <c:v>3-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3-28-2021</c:v>
+                  <c:v>3-30-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3736:$B$3766</c:f>
+              <c:f>DolarToday!$B$3738:$B$3768</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1873893.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1899023.81</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1873893.89</c:v>
+                  <c:v>1875001.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1897012.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1897012.81</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1883762.14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1879124.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1883762.14</c:v>
+                  <c:v>1894173.81</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1879124.25</c:v>
+                  <c:v>1874001.83</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1894173.81</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1874001.83</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1859041.38</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1856100.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1859041.38</c:v>
+                  <c:v>1859853.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1856100.87</c:v>
+                  <c:v>1832821.62</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1859853.2</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1832821.62</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1835391.02</c:v>
@@ -11641,22 +11647,22 @@
                   <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1930237.96</c:v>
+                  <c:v>1975045.96</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1930237.96</c:v>
+                  <c:v>2000312.73</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1975045.96</c:v>
+                  <c:v>2115582.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12063,7 +12069,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3766"/>
+  <dimension ref="A1:K3768"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42211,16 +42217,6 @@
       <c r="B3764">
         <v>1930237.96</v>
       </c>
-      <c r="D3764" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3764" s="3"/>
-      <c r="F3764" s="3"/>
-      <c r="G3764" s="3"/>
-      <c r="H3764" s="3"/>
-      <c r="I3764" s="3"/>
-      <c r="J3764" s="3"/>
-      <c r="K3764" s="3"/>
     </row>
     <row r="3765" spans="1:11">
       <c r="A3765" t="s">
@@ -42229,16 +42225,6 @@
       <c r="B3765">
         <v>1930237.96</v>
       </c>
-      <c r="D3765" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3765" s="4"/>
-      <c r="F3765" s="4"/>
-      <c r="G3765" s="4"/>
-      <c r="H3765" s="4"/>
-      <c r="I3765" s="4"/>
-      <c r="J3765" s="4"/>
-      <c r="K3765" s="4"/>
     </row>
     <row r="3766" spans="1:11">
       <c r="A3766" t="s">
@@ -42247,21 +42233,57 @@
       <c r="B3766">
         <v>1975045.96</v>
       </c>
-      <c r="D3766" s="4"/>
-      <c r="E3766" s="4"/>
-      <c r="F3766" s="4"/>
-      <c r="G3766" s="4"/>
-      <c r="H3766" s="4"/>
-      <c r="I3766" s="4"/>
-      <c r="J3766" s="4"/>
-      <c r="K3766" s="4"/>
+      <c r="D3766" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3766" s="3"/>
+      <c r="F3766" s="3"/>
+      <c r="G3766" s="3"/>
+      <c r="H3766" s="3"/>
+      <c r="I3766" s="3"/>
+      <c r="J3766" s="3"/>
+      <c r="K3766" s="3"/>
+    </row>
+    <row r="3767" spans="1:11">
+      <c r="A3767" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B3767">
+        <v>2000312.73</v>
+      </c>
+      <c r="D3767" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3767" s="4"/>
+      <c r="F3767" s="4"/>
+      <c r="G3767" s="4"/>
+      <c r="H3767" s="4"/>
+      <c r="I3767" s="4"/>
+      <c r="J3767" s="4"/>
+      <c r="K3767" s="4"/>
+    </row>
+    <row r="3768" spans="1:11">
+      <c r="A3768" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B3768">
+        <v>2115582.77</v>
+      </c>
+      <c r="D3768" s="4"/>
+      <c r="E3768" s="4"/>
+      <c r="F3768" s="4"/>
+      <c r="G3768" s="4"/>
+      <c r="H3768" s="4"/>
+      <c r="I3768" s="4"/>
+      <c r="J3768" s="4"/>
+      <c r="K3768" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3764:K3764"/>
-    <mergeCell ref="D3765:K3766"/>
+    <mergeCell ref="D3766:K3766"/>
+    <mergeCell ref="D3767:K3768"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="3772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="3778">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11330,6 +11330,24 @@
   </si>
   <si>
     <t>3-30-2021</t>
+  </si>
+  <si>
+    <t>3-31-2021</t>
+  </si>
+  <si>
+    <t>4-1-2021</t>
+  </si>
+  <si>
+    <t>4-2-2021</t>
+  </si>
+  <si>
+    <t>4-3-2021</t>
+  </si>
+  <si>
+    <t>4-4-2021</t>
+  </si>
+  <si>
+    <t>4-5-2021</t>
   </si>
 </sst>
 </file>
@@ -11466,203 +11484,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3738:$A$3768</c:f>
+              <c:f>DolarToday!$A$3744:$A$3774</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2-28-2021</c:v>
+                  <c:v>3-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-1-2021</c:v>
+                  <c:v>3-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-2-2021</c:v>
+                  <c:v>3-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-3-2021</c:v>
+                  <c:v>3-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-4-2021</c:v>
+                  <c:v>3-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-5-2021</c:v>
+                  <c:v>3-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-6-2021</c:v>
+                  <c:v>3-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-7-2021</c:v>
+                  <c:v>3-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-8-2021</c:v>
+                  <c:v>3-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-9-2021</c:v>
+                  <c:v>3-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-10-2021</c:v>
+                  <c:v>3-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-11-2021</c:v>
+                  <c:v>3-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-12-2021</c:v>
+                  <c:v>3-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-13-2021</c:v>
+                  <c:v>3-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-14-2021</c:v>
+                  <c:v>3-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-15-2021</c:v>
+                  <c:v>3-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-16-2021</c:v>
+                  <c:v>3-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-17-2021</c:v>
+                  <c:v>3-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-18-2021</c:v>
+                  <c:v>3-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-19-2021</c:v>
+                  <c:v>3-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-20-2021</c:v>
+                  <c:v>3-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-21-2021</c:v>
+                  <c:v>3-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-22-2021</c:v>
+                  <c:v>3-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-23-2021</c:v>
+                  <c:v>3-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-24-2021</c:v>
+                  <c:v>3-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-25-2021</c:v>
+                  <c:v>3-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3-26-2021</c:v>
+                  <c:v>4-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3-27-2021</c:v>
+                  <c:v>4-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3-28-2021</c:v>
+                  <c:v>4-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3-29-2021</c:v>
+                  <c:v>4-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3-30-2021</c:v>
+                  <c:v>4-5-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3738:$B$3768</c:f>
+              <c:f>DolarToday!$B$3744:$B$3774</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1873893.89</c:v>
+                  <c:v>1900752.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1883762.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1875001.53</c:v>
+                  <c:v>1879124.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1897012.81</c:v>
+                  <c:v>1894173.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1874001.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1883762.14</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1879124.25</c:v>
+                  <c:v>1859041.38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1894173.81</c:v>
+                  <c:v>1856100.87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1874001.83</c:v>
+                  <c:v>1859853.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1832821.62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1859041.38</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1856100.87</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1859853.2</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1832821.62</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1975045.96</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1835391.02</c:v>
+                  <c:v>2000312.73</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1835391.02</c:v>
+                  <c:v>2115582.77</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1930237.96</c:v>
+                  <c:v>2164720.04</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1930237.96</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1930237.96</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1975045.96</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2000312.73</c:v>
+                  <c:v>2175211.94</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2115582.77</c:v>
+                  <c:v>2100577.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12069,7 +12087,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3768"/>
+  <dimension ref="A1:K3774"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42233,16 +42251,6 @@
       <c r="B3766">
         <v>1975045.96</v>
       </c>
-      <c r="D3766" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3766" s="3"/>
-      <c r="F3766" s="3"/>
-      <c r="G3766" s="3"/>
-      <c r="H3766" s="3"/>
-      <c r="I3766" s="3"/>
-      <c r="J3766" s="3"/>
-      <c r="K3766" s="3"/>
     </row>
     <row r="3767" spans="1:11">
       <c r="A3767" t="s">
@@ -42251,16 +42259,6 @@
       <c r="B3767">
         <v>2000312.73</v>
       </c>
-      <c r="D3767" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3767" s="4"/>
-      <c r="F3767" s="4"/>
-      <c r="G3767" s="4"/>
-      <c r="H3767" s="4"/>
-      <c r="I3767" s="4"/>
-      <c r="J3767" s="4"/>
-      <c r="K3767" s="4"/>
     </row>
     <row r="3768" spans="1:11">
       <c r="A3768" t="s">
@@ -42269,21 +42267,89 @@
       <c r="B3768">
         <v>2115582.77</v>
       </c>
-      <c r="D3768" s="4"/>
-      <c r="E3768" s="4"/>
-      <c r="F3768" s="4"/>
-      <c r="G3768" s="4"/>
-      <c r="H3768" s="4"/>
-      <c r="I3768" s="4"/>
-      <c r="J3768" s="4"/>
-      <c r="K3768" s="4"/>
+    </row>
+    <row r="3769" spans="1:11">
+      <c r="A3769" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B3769">
+        <v>2164720.04</v>
+      </c>
+    </row>
+    <row r="3770" spans="1:11">
+      <c r="A3770" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B3770">
+        <v>2230823.93</v>
+      </c>
+    </row>
+    <row r="3771" spans="1:11">
+      <c r="A3771" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B3771">
+        <v>2230823.93</v>
+      </c>
+    </row>
+    <row r="3772" spans="1:11">
+      <c r="A3772" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B3772">
+        <v>2230823.93</v>
+      </c>
+      <c r="D3772" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3772" s="3"/>
+      <c r="F3772" s="3"/>
+      <c r="G3772" s="3"/>
+      <c r="H3772" s="3"/>
+      <c r="I3772" s="3"/>
+      <c r="J3772" s="3"/>
+      <c r="K3772" s="3"/>
+    </row>
+    <row r="3773" spans="1:11">
+      <c r="A3773" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B3773">
+        <v>2175211.94</v>
+      </c>
+      <c r="D3773" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3773" s="4"/>
+      <c r="F3773" s="4"/>
+      <c r="G3773" s="4"/>
+      <c r="H3773" s="4"/>
+      <c r="I3773" s="4"/>
+      <c r="J3773" s="4"/>
+      <c r="K3773" s="4"/>
+    </row>
+    <row r="3774" spans="1:11">
+      <c r="A3774" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B3774">
+        <v>2100577.49</v>
+      </c>
+      <c r="D3774" s="4"/>
+      <c r="E3774" s="4"/>
+      <c r="F3774" s="4"/>
+      <c r="G3774" s="4"/>
+      <c r="H3774" s="4"/>
+      <c r="I3774" s="4"/>
+      <c r="J3774" s="4"/>
+      <c r="K3774" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3766:K3766"/>
-    <mergeCell ref="D3767:K3768"/>
+    <mergeCell ref="D3772:K3772"/>
+    <mergeCell ref="D3773:K3774"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="3778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="3780">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11348,6 +11348,12 @@
   </si>
   <si>
     <t>4-5-2021</t>
+  </si>
+  <si>
+    <t>4-6-2021</t>
+  </si>
+  <si>
+    <t>4-7-2021</t>
   </si>
 </sst>
 </file>
@@ -11484,146 +11490,146 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3744:$A$3774</c:f>
+              <c:f>DolarToday!$A$3746:$A$3776</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-6-2021</c:v>
+                  <c:v>3-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-7-2021</c:v>
+                  <c:v>3-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-8-2021</c:v>
+                  <c:v>3-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-9-2021</c:v>
+                  <c:v>3-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-10-2021</c:v>
+                  <c:v>3-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-11-2021</c:v>
+                  <c:v>3-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-12-2021</c:v>
+                  <c:v>3-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-13-2021</c:v>
+                  <c:v>3-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-14-2021</c:v>
+                  <c:v>3-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-15-2021</c:v>
+                  <c:v>3-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-16-2021</c:v>
+                  <c:v>3-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-17-2021</c:v>
+                  <c:v>3-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-18-2021</c:v>
+                  <c:v>3-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-19-2021</c:v>
+                  <c:v>3-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-20-2021</c:v>
+                  <c:v>3-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-21-2021</c:v>
+                  <c:v>3-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-22-2021</c:v>
+                  <c:v>3-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-23-2021</c:v>
+                  <c:v>3-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-24-2021</c:v>
+                  <c:v>3-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-25-2021</c:v>
+                  <c:v>3-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-26-2021</c:v>
+                  <c:v>3-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-27-2021</c:v>
+                  <c:v>3-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-28-2021</c:v>
+                  <c:v>3-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-29-2021</c:v>
+                  <c:v>3-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3-30-2021</c:v>
+                  <c:v>4-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3-31-2021</c:v>
+                  <c:v>4-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-1-2021</c:v>
+                  <c:v>4-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-2-2021</c:v>
+                  <c:v>4-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-3-2021</c:v>
+                  <c:v>4-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-4-2021</c:v>
+                  <c:v>4-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-5-2021</c:v>
+                  <c:v>4-7-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3744:$B$3774</c:f>
+              <c:f>DolarToday!$B$3746:$B$3776</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1900752.76</c:v>
+                  <c:v>1879124.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1883762.14</c:v>
+                  <c:v>1894173.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1879124.25</c:v>
+                  <c:v>1874001.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1894173.81</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1874001.83</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1859041.38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1856100.87</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1859041.38</c:v>
+                  <c:v>1859853.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1856100.87</c:v>
+                  <c:v>1832821.62</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1859853.2</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1832821.62</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1835391.02</c:v>
@@ -11641,46 +11647,46 @@
                   <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1930237.96</c:v>
+                  <c:v>1975045.96</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1930237.96</c:v>
+                  <c:v>2000312.73</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1975045.96</c:v>
+                  <c:v>2115582.77</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2000312.73</c:v>
+                  <c:v>2164720.04</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2115582.77</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2164720.04</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2175211.94</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2100577.49</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2175211.94</c:v>
+                  <c:v>2110863.54</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2100577.49</c:v>
+                  <c:v>2208023.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12087,7 +12093,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3774"/>
+  <dimension ref="A1:K3776"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42299,16 +42305,6 @@
       <c r="B3772">
         <v>2230823.93</v>
       </c>
-      <c r="D3772" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3772" s="3"/>
-      <c r="F3772" s="3"/>
-      <c r="G3772" s="3"/>
-      <c r="H3772" s="3"/>
-      <c r="I3772" s="3"/>
-      <c r="J3772" s="3"/>
-      <c r="K3772" s="3"/>
     </row>
     <row r="3773" spans="1:11">
       <c r="A3773" t="s">
@@ -42317,16 +42313,6 @@
       <c r="B3773">
         <v>2175211.94</v>
       </c>
-      <c r="D3773" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3773" s="4"/>
-      <c r="F3773" s="4"/>
-      <c r="G3773" s="4"/>
-      <c r="H3773" s="4"/>
-      <c r="I3773" s="4"/>
-      <c r="J3773" s="4"/>
-      <c r="K3773" s="4"/>
     </row>
     <row r="3774" spans="1:11">
       <c r="A3774" t="s">
@@ -42335,21 +42321,57 @@
       <c r="B3774">
         <v>2100577.49</v>
       </c>
-      <c r="D3774" s="4"/>
-      <c r="E3774" s="4"/>
-      <c r="F3774" s="4"/>
-      <c r="G3774" s="4"/>
-      <c r="H3774" s="4"/>
-      <c r="I3774" s="4"/>
-      <c r="J3774" s="4"/>
-      <c r="K3774" s="4"/>
+      <c r="D3774" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3774" s="3"/>
+      <c r="F3774" s="3"/>
+      <c r="G3774" s="3"/>
+      <c r="H3774" s="3"/>
+      <c r="I3774" s="3"/>
+      <c r="J3774" s="3"/>
+      <c r="K3774" s="3"/>
+    </row>
+    <row r="3775" spans="1:11">
+      <c r="A3775" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B3775">
+        <v>2110863.54</v>
+      </c>
+      <c r="D3775" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3775" s="4"/>
+      <c r="F3775" s="4"/>
+      <c r="G3775" s="4"/>
+      <c r="H3775" s="4"/>
+      <c r="I3775" s="4"/>
+      <c r="J3775" s="4"/>
+      <c r="K3775" s="4"/>
+    </row>
+    <row r="3776" spans="1:11">
+      <c r="A3776" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B3776">
+        <v>2208023.52</v>
+      </c>
+      <c r="D3776" s="4"/>
+      <c r="E3776" s="4"/>
+      <c r="F3776" s="4"/>
+      <c r="G3776" s="4"/>
+      <c r="H3776" s="4"/>
+      <c r="I3776" s="4"/>
+      <c r="J3776" s="4"/>
+      <c r="K3776" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3772:K3772"/>
-    <mergeCell ref="D3773:K3774"/>
+    <mergeCell ref="D3774:K3774"/>
+    <mergeCell ref="D3775:K3776"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="3780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="3783">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11354,6 +11354,15 @@
   </si>
   <si>
     <t>4-7-2021</t>
+  </si>
+  <si>
+    <t>4-8-2021</t>
+  </si>
+  <si>
+    <t>4-9-2021</t>
+  </si>
+  <si>
+    <t>4-10-2021</t>
   </si>
 </sst>
 </file>
@@ -11490,140 +11499,140 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3746:$A$3776</c:f>
+              <c:f>DolarToday!$A$3749:$A$3779</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-8-2021</c:v>
+                  <c:v>3-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-9-2021</c:v>
+                  <c:v>3-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-10-2021</c:v>
+                  <c:v>3-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-11-2021</c:v>
+                  <c:v>3-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-12-2021</c:v>
+                  <c:v>3-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-13-2021</c:v>
+                  <c:v>3-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-14-2021</c:v>
+                  <c:v>3-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-15-2021</c:v>
+                  <c:v>3-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-16-2021</c:v>
+                  <c:v>3-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-17-2021</c:v>
+                  <c:v>3-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-18-2021</c:v>
+                  <c:v>3-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-19-2021</c:v>
+                  <c:v>3-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-20-2021</c:v>
+                  <c:v>3-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-21-2021</c:v>
+                  <c:v>3-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-22-2021</c:v>
+                  <c:v>3-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-23-2021</c:v>
+                  <c:v>3-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-24-2021</c:v>
+                  <c:v>3-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-25-2021</c:v>
+                  <c:v>3-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-26-2021</c:v>
+                  <c:v>3-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-27-2021</c:v>
+                  <c:v>3-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-28-2021</c:v>
+                  <c:v>3-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3-29-2021</c:v>
+                  <c:v>4-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3-30-2021</c:v>
+                  <c:v>4-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3-31-2021</c:v>
+                  <c:v>4-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-1-2021</c:v>
+                  <c:v>4-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-2-2021</c:v>
+                  <c:v>4-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-3-2021</c:v>
+                  <c:v>4-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-4-2021</c:v>
+                  <c:v>4-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-5-2021</c:v>
+                  <c:v>4-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-6-2021</c:v>
+                  <c:v>4-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-7-2021</c:v>
+                  <c:v>4-10-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3746:$B$3776</c:f>
+              <c:f>DolarToday!$B$3749:$B$3779</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1879124.25</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1894173.81</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1874001.83</c:v>
+                  <c:v>1856291.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1859041.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1856100.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1859853.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1859041.38</c:v>
+                  <c:v>1832821.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1856100.87</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1859853.2</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1832821.62</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1835391.02</c:v>
@@ -11638,55 +11647,55 @@
                   <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1930237.96</c:v>
+                  <c:v>1975045.96</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1930237.96</c:v>
+                  <c:v>2000312.73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1930237.96</c:v>
+                  <c:v>2115582.77</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1975045.96</c:v>
+                  <c:v>2164720.04</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2000312.73</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2115582.77</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2164720.04</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2175211.94</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2100577.49</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2110863.54</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2175211.94</c:v>
+                  <c:v>2208023.52</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2100577.49</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2110863.54</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2208023.52</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12093,7 +12102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3776"/>
+  <dimension ref="A1:K3779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42210,7 +42219,7 @@
         <v>1835391.02</v>
       </c>
     </row>
-    <row r="3761" spans="1:11">
+    <row r="3761" spans="1:2">
       <c r="A3761" t="s">
         <v>3764</v>
       </c>
@@ -42218,7 +42227,7 @@
         <v>1835391.02</v>
       </c>
     </row>
-    <row r="3762" spans="1:11">
+    <row r="3762" spans="1:2">
       <c r="A3762" t="s">
         <v>3765</v>
       </c>
@@ -42226,7 +42235,7 @@
         <v>1835391.02</v>
       </c>
     </row>
-    <row r="3763" spans="1:11">
+    <row r="3763" spans="1:2">
       <c r="A3763" t="s">
         <v>3766</v>
       </c>
@@ -42234,7 +42243,7 @@
         <v>1930237.96</v>
       </c>
     </row>
-    <row r="3764" spans="1:11">
+    <row r="3764" spans="1:2">
       <c r="A3764" t="s">
         <v>3767</v>
       </c>
@@ -42242,7 +42251,7 @@
         <v>1930237.96</v>
       </c>
     </row>
-    <row r="3765" spans="1:11">
+    <row r="3765" spans="1:2">
       <c r="A3765" t="s">
         <v>3768</v>
       </c>
@@ -42250,7 +42259,7 @@
         <v>1930237.96</v>
       </c>
     </row>
-    <row r="3766" spans="1:11">
+    <row r="3766" spans="1:2">
       <c r="A3766" t="s">
         <v>3769</v>
       </c>
@@ -42258,7 +42267,7 @@
         <v>1975045.96</v>
       </c>
     </row>
-    <row r="3767" spans="1:11">
+    <row r="3767" spans="1:2">
       <c r="A3767" t="s">
         <v>3770</v>
       </c>
@@ -42266,7 +42275,7 @@
         <v>2000312.73</v>
       </c>
     </row>
-    <row r="3768" spans="1:11">
+    <row r="3768" spans="1:2">
       <c r="A3768" t="s">
         <v>3771</v>
       </c>
@@ -42274,7 +42283,7 @@
         <v>2115582.77</v>
       </c>
     </row>
-    <row r="3769" spans="1:11">
+    <row r="3769" spans="1:2">
       <c r="A3769" t="s">
         <v>3772</v>
       </c>
@@ -42282,7 +42291,7 @@
         <v>2164720.04</v>
       </c>
     </row>
-    <row r="3770" spans="1:11">
+    <row r="3770" spans="1:2">
       <c r="A3770" t="s">
         <v>3773</v>
       </c>
@@ -42290,7 +42299,7 @@
         <v>2230823.93</v>
       </c>
     </row>
-    <row r="3771" spans="1:11">
+    <row r="3771" spans="1:2">
       <c r="A3771" t="s">
         <v>3774</v>
       </c>
@@ -42298,7 +42307,7 @@
         <v>2230823.93</v>
       </c>
     </row>
-    <row r="3772" spans="1:11">
+    <row r="3772" spans="1:2">
       <c r="A3772" t="s">
         <v>3775</v>
       </c>
@@ -42306,7 +42315,7 @@
         <v>2230823.93</v>
       </c>
     </row>
-    <row r="3773" spans="1:11">
+    <row r="3773" spans="1:2">
       <c r="A3773" t="s">
         <v>3776</v>
       </c>
@@ -42314,64 +42323,88 @@
         <v>2175211.94</v>
       </c>
     </row>
-    <row r="3774" spans="1:11">
+    <row r="3774" spans="1:2">
       <c r="A3774" t="s">
         <v>3777</v>
       </c>
       <c r="B3774">
         <v>2100577.49</v>
       </c>
-      <c r="D3774" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3774" s="3"/>
-      <c r="F3774" s="3"/>
-      <c r="G3774" s="3"/>
-      <c r="H3774" s="3"/>
-      <c r="I3774" s="3"/>
-      <c r="J3774" s="3"/>
-      <c r="K3774" s="3"/>
-    </row>
-    <row r="3775" spans="1:11">
+    </row>
+    <row r="3775" spans="1:2">
       <c r="A3775" t="s">
         <v>3778</v>
       </c>
       <c r="B3775">
         <v>2110863.54</v>
       </c>
-      <c r="D3775" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3775" s="4"/>
-      <c r="F3775" s="4"/>
-      <c r="G3775" s="4"/>
-      <c r="H3775" s="4"/>
-      <c r="I3775" s="4"/>
-      <c r="J3775" s="4"/>
-      <c r="K3775" s="4"/>
-    </row>
-    <row r="3776" spans="1:11">
+    </row>
+    <row r="3776" spans="1:2">
       <c r="A3776" t="s">
         <v>3779</v>
       </c>
       <c r="B3776">
         <v>2208023.52</v>
       </c>
-      <c r="D3776" s="4"/>
-      <c r="E3776" s="4"/>
-      <c r="F3776" s="4"/>
-      <c r="G3776" s="4"/>
-      <c r="H3776" s="4"/>
-      <c r="I3776" s="4"/>
-      <c r="J3776" s="4"/>
-      <c r="K3776" s="4"/>
+    </row>
+    <row r="3777" spans="1:11">
+      <c r="A3777" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B3777">
+        <v>2241000.94</v>
+      </c>
+      <c r="D3777" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3777" s="3"/>
+      <c r="F3777" s="3"/>
+      <c r="G3777" s="3"/>
+      <c r="H3777" s="3"/>
+      <c r="I3777" s="3"/>
+      <c r="J3777" s="3"/>
+      <c r="K3777" s="3"/>
+    </row>
+    <row r="3778" spans="1:11">
+      <c r="A3778" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B3778">
+        <v>2241000.94</v>
+      </c>
+      <c r="D3778" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3778" s="4"/>
+      <c r="F3778" s="4"/>
+      <c r="G3778" s="4"/>
+      <c r="H3778" s="4"/>
+      <c r="I3778" s="4"/>
+      <c r="J3778" s="4"/>
+      <c r="K3778" s="4"/>
+    </row>
+    <row r="3779" spans="1:11">
+      <c r="A3779" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B3779">
+        <v>2241000.94</v>
+      </c>
+      <c r="D3779" s="4"/>
+      <c r="E3779" s="4"/>
+      <c r="F3779" s="4"/>
+      <c r="G3779" s="4"/>
+      <c r="H3779" s="4"/>
+      <c r="I3779" s="4"/>
+      <c r="J3779" s="4"/>
+      <c r="K3779" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3774:K3774"/>
-    <mergeCell ref="D3775:K3776"/>
+    <mergeCell ref="D3777:K3777"/>
+    <mergeCell ref="D3778:K3779"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="3783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="3791">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11363,6 +11363,30 @@
   </si>
   <si>
     <t>4-10-2021</t>
+  </si>
+  <si>
+    <t>4-11-2021</t>
+  </si>
+  <si>
+    <t>4-12-2021</t>
+  </si>
+  <si>
+    <t>4-13-2021</t>
+  </si>
+  <si>
+    <t>4-14-2021</t>
+  </si>
+  <si>
+    <t>4-15-2021</t>
+  </si>
+  <si>
+    <t>4-16-2021</t>
+  </si>
+  <si>
+    <t>4-17-2021</t>
+  </si>
+  <si>
+    <t>4-18-2021</t>
   </si>
 </sst>
 </file>
@@ -11499,203 +11523,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3749:$A$3779</c:f>
+              <c:f>DolarToday!$A$3757:$A$3787</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-11-2021</c:v>
+                  <c:v>3-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-12-2021</c:v>
+                  <c:v>3-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-13-2021</c:v>
+                  <c:v>3-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-14-2021</c:v>
+                  <c:v>3-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-15-2021</c:v>
+                  <c:v>3-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-16-2021</c:v>
+                  <c:v>3-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-17-2021</c:v>
+                  <c:v>3-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-18-2021</c:v>
+                  <c:v>3-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-19-2021</c:v>
+                  <c:v>3-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-20-2021</c:v>
+                  <c:v>3-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-21-2021</c:v>
+                  <c:v>3-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-22-2021</c:v>
+                  <c:v>3-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-23-2021</c:v>
+                  <c:v>3-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3-24-2021</c:v>
+                  <c:v>4-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3-25-2021</c:v>
+                  <c:v>4-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3-26-2021</c:v>
+                  <c:v>4-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3-27-2021</c:v>
+                  <c:v>4-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3-28-2021</c:v>
+                  <c:v>4-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3-29-2021</c:v>
+                  <c:v>4-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3-30-2021</c:v>
+                  <c:v>4-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3-31-2021</c:v>
+                  <c:v>4-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-1-2021</c:v>
+                  <c:v>4-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-2-2021</c:v>
+                  <c:v>4-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-3-2021</c:v>
+                  <c:v>4-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-4-2021</c:v>
+                  <c:v>4-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-5-2021</c:v>
+                  <c:v>4-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-6-2021</c:v>
+                  <c:v>4-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-7-2021</c:v>
+                  <c:v>4-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-8-2021</c:v>
+                  <c:v>4-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-9-2021</c:v>
+                  <c:v>4-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-10-2021</c:v>
+                  <c:v>4-18-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3749:$B$3779</c:f>
+              <c:f>DolarToday!$B$3757:$B$3787</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1856291.21</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1859041.38</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1856100.87</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1859853.2</c:v>
+                  <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1832821.62</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1975045.96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1835391.02</c:v>
+                  <c:v>2000312.73</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1835391.02</c:v>
+                  <c:v>2115582.77</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1835391.02</c:v>
+                  <c:v>2164720.04</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1835391.02</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1930237.96</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1930237.96</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1930237.96</c:v>
+                  <c:v>2175211.94</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1975045.96</c:v>
+                  <c:v>2100577.49</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2000312.73</c:v>
+                  <c:v>2110863.54</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2115582.77</c:v>
+                  <c:v>2208023.52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2164720.04</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2392024.71</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2175211.94</c:v>
+                  <c:v>2369032.82</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2100577.49</c:v>
+                  <c:v>2370023.73</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2110863.54</c:v>
+                  <c:v>2500103.92</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2208023.52</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2510539.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12102,7 +12126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3779"/>
+  <dimension ref="A1:K3787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42354,16 +42378,6 @@
       <c r="B3777">
         <v>2241000.94</v>
       </c>
-      <c r="D3777" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3777" s="3"/>
-      <c r="F3777" s="3"/>
-      <c r="G3777" s="3"/>
-      <c r="H3777" s="3"/>
-      <c r="I3777" s="3"/>
-      <c r="J3777" s="3"/>
-      <c r="K3777" s="3"/>
     </row>
     <row r="3778" spans="1:11">
       <c r="A3778" t="s">
@@ -42372,16 +42386,6 @@
       <c r="B3778">
         <v>2241000.94</v>
       </c>
-      <c r="D3778" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3778" s="4"/>
-      <c r="F3778" s="4"/>
-      <c r="G3778" s="4"/>
-      <c r="H3778" s="4"/>
-      <c r="I3778" s="4"/>
-      <c r="J3778" s="4"/>
-      <c r="K3778" s="4"/>
     </row>
     <row r="3779" spans="1:11">
       <c r="A3779" t="s">
@@ -42390,21 +42394,105 @@
       <c r="B3779">
         <v>2241000.94</v>
       </c>
-      <c r="D3779" s="4"/>
-      <c r="E3779" s="4"/>
-      <c r="F3779" s="4"/>
-      <c r="G3779" s="4"/>
-      <c r="H3779" s="4"/>
-      <c r="I3779" s="4"/>
-      <c r="J3779" s="4"/>
-      <c r="K3779" s="4"/>
+    </row>
+    <row r="3780" spans="1:11">
+      <c r="A3780" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B3780">
+        <v>2392024.71</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:11">
+      <c r="A3781" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B3781">
+        <v>2369032.82</v>
+      </c>
+    </row>
+    <row r="3782" spans="1:11">
+      <c r="A3782" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B3782">
+        <v>2370023.73</v>
+      </c>
+    </row>
+    <row r="3783" spans="1:11">
+      <c r="A3783" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B3783">
+        <v>2500103.92</v>
+      </c>
+    </row>
+    <row r="3784" spans="1:11">
+      <c r="A3784" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B3784">
+        <v>2509032.82</v>
+      </c>
+    </row>
+    <row r="3785" spans="1:11">
+      <c r="A3785" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B3785">
+        <v>2509032.82</v>
+      </c>
+      <c r="D3785" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3785" s="3"/>
+      <c r="F3785" s="3"/>
+      <c r="G3785" s="3"/>
+      <c r="H3785" s="3"/>
+      <c r="I3785" s="3"/>
+      <c r="J3785" s="3"/>
+      <c r="K3785" s="3"/>
+    </row>
+    <row r="3786" spans="1:11">
+      <c r="A3786" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B3786">
+        <v>2509032.82</v>
+      </c>
+      <c r="D3786" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3786" s="4"/>
+      <c r="F3786" s="4"/>
+      <c r="G3786" s="4"/>
+      <c r="H3786" s="4"/>
+      <c r="I3786" s="4"/>
+      <c r="J3786" s="4"/>
+      <c r="K3786" s="4"/>
+    </row>
+    <row r="3787" spans="1:11">
+      <c r="A3787" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B3787">
+        <v>2510539.71</v>
+      </c>
+      <c r="D3787" s="4"/>
+      <c r="E3787" s="4"/>
+      <c r="F3787" s="4"/>
+      <c r="G3787" s="4"/>
+      <c r="H3787" s="4"/>
+      <c r="I3787" s="4"/>
+      <c r="J3787" s="4"/>
+      <c r="K3787" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3777:K3777"/>
-    <mergeCell ref="D3778:K3779"/>
+    <mergeCell ref="D3785:K3785"/>
+    <mergeCell ref="D3786:K3787"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="3791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3794" uniqueCount="3792">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11387,6 +11387,9 @@
   </si>
   <si>
     <t>4-18-2021</t>
+  </si>
+  <si>
+    <t>4-19-2021</t>
   </si>
 </sst>
 </file>
@@ -11523,108 +11526,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3757:$A$3787</c:f>
+              <c:f>DolarToday!$A$3758:$A$3788</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-19-2021</c:v>
+                  <c:v>3-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-20-2021</c:v>
+                  <c:v>3-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-21-2021</c:v>
+                  <c:v>3-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-22-2021</c:v>
+                  <c:v>3-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-23-2021</c:v>
+                  <c:v>3-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-24-2021</c:v>
+                  <c:v>3-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-25-2021</c:v>
+                  <c:v>3-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-26-2021</c:v>
+                  <c:v>3-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-27-2021</c:v>
+                  <c:v>3-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-28-2021</c:v>
+                  <c:v>3-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-29-2021</c:v>
+                  <c:v>3-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-30-2021</c:v>
+                  <c:v>3-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3-31-2021</c:v>
+                  <c:v>4-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-1-2021</c:v>
+                  <c:v>4-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-2-2021</c:v>
+                  <c:v>4-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-3-2021</c:v>
+                  <c:v>4-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-4-2021</c:v>
+                  <c:v>4-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-5-2021</c:v>
+                  <c:v>4-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-6-2021</c:v>
+                  <c:v>4-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-7-2021</c:v>
+                  <c:v>4-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-8-2021</c:v>
+                  <c:v>4-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-9-2021</c:v>
+                  <c:v>4-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-10-2021</c:v>
+                  <c:v>4-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-11-2021</c:v>
+                  <c:v>4-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-12-2021</c:v>
+                  <c:v>4-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-13-2021</c:v>
+                  <c:v>4-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-14-2021</c:v>
+                  <c:v>4-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-15-2021</c:v>
+                  <c:v>4-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-16-2021</c:v>
+                  <c:v>4-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-17-2021</c:v>
+                  <c:v>4-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-18-2021</c:v>
+                  <c:v>4-19-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3757:$B$3787</c:f>
+              <c:f>DolarToday!$B$3758:$B$3788</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11644,7 +11647,7 @@
                   <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1930237.96</c:v>
@@ -11653,19 +11656,19 @@
                   <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1930237.96</c:v>
+                  <c:v>1975045.96</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1975045.96</c:v>
+                  <c:v>2000312.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2000312.73</c:v>
+                  <c:v>2115582.77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2115582.77</c:v>
+                  <c:v>2164720.04</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2164720.04</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2230823.93</c:v>
@@ -11674,19 +11677,19 @@
                   <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2175211.94</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2175211.94</c:v>
+                  <c:v>2100577.49</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2100577.49</c:v>
+                  <c:v>2110863.54</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2110863.54</c:v>
+                  <c:v>2208023.52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2208023.52</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2241000.94</c:v>
@@ -11695,19 +11698,19 @@
                   <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2392024.71</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2392024.71</c:v>
+                  <c:v>2369032.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2369032.82</c:v>
+                  <c:v>2370023.73</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2370023.73</c:v>
+                  <c:v>2500103.92</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2500103.92</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2509032.82</c:v>
@@ -11716,10 +11719,10 @@
                   <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2510539.71</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2510539.71</c:v>
+                  <c:v>2523903.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12126,7 +12129,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3787"/>
+  <dimension ref="A1:K3788"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42442,16 +42445,6 @@
       <c r="B3785">
         <v>2509032.82</v>
       </c>
-      <c r="D3785" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3785" s="3"/>
-      <c r="F3785" s="3"/>
-      <c r="G3785" s="3"/>
-      <c r="H3785" s="3"/>
-      <c r="I3785" s="3"/>
-      <c r="J3785" s="3"/>
-      <c r="K3785" s="3"/>
     </row>
     <row r="3786" spans="1:11">
       <c r="A3786" t="s">
@@ -42460,16 +42453,16 @@
       <c r="B3786">
         <v>2509032.82</v>
       </c>
-      <c r="D3786" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3786" s="4"/>
-      <c r="F3786" s="4"/>
-      <c r="G3786" s="4"/>
-      <c r="H3786" s="4"/>
-      <c r="I3786" s="4"/>
-      <c r="J3786" s="4"/>
-      <c r="K3786" s="4"/>
+      <c r="D3786" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3786" s="3"/>
+      <c r="F3786" s="3"/>
+      <c r="G3786" s="3"/>
+      <c r="H3786" s="3"/>
+      <c r="I3786" s="3"/>
+      <c r="J3786" s="3"/>
+      <c r="K3786" s="3"/>
     </row>
     <row r="3787" spans="1:11">
       <c r="A3787" t="s">
@@ -42478,7 +42471,9 @@
       <c r="B3787">
         <v>2510539.71</v>
       </c>
-      <c r="D3787" s="4"/>
+      <c r="D3787" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3787" s="4"/>
       <c r="F3787" s="4"/>
       <c r="G3787" s="4"/>
@@ -42487,12 +42482,28 @@
       <c r="J3787" s="4"/>
       <c r="K3787" s="4"/>
     </row>
+    <row r="3788" spans="1:11">
+      <c r="A3788" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B3788">
+        <v>2523903.63</v>
+      </c>
+      <c r="D3788" s="4"/>
+      <c r="E3788" s="4"/>
+      <c r="F3788" s="4"/>
+      <c r="G3788" s="4"/>
+      <c r="H3788" s="4"/>
+      <c r="I3788" s="4"/>
+      <c r="J3788" s="4"/>
+      <c r="K3788" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3785:K3785"/>
-    <mergeCell ref="D3786:K3787"/>
+    <mergeCell ref="D3786:K3786"/>
+    <mergeCell ref="D3787:K3788"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3794" uniqueCount="3792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="3795">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11390,6 +11390,15 @@
   </si>
   <si>
     <t>4-19-2021</t>
+  </si>
+  <si>
+    <t>4-20-2021</t>
+  </si>
+  <si>
+    <t>4-21-2021</t>
+  </si>
+  <si>
+    <t>4-22-2021</t>
   </si>
 </sst>
 </file>
@@ -11526,108 +11535,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3758:$A$3788</c:f>
+              <c:f>DolarToday!$A$3761:$A$3791</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-20-2021</c:v>
+                  <c:v>3-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-21-2021</c:v>
+                  <c:v>3-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-22-2021</c:v>
+                  <c:v>3-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-23-2021</c:v>
+                  <c:v>3-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-24-2021</c:v>
+                  <c:v>3-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-25-2021</c:v>
+                  <c:v>3-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-26-2021</c:v>
+                  <c:v>3-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-27-2021</c:v>
+                  <c:v>3-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-28-2021</c:v>
+                  <c:v>3-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3-29-2021</c:v>
+                  <c:v>4-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3-30-2021</c:v>
+                  <c:v>4-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3-31-2021</c:v>
+                  <c:v>4-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-1-2021</c:v>
+                  <c:v>4-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-2-2021</c:v>
+                  <c:v>4-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-3-2021</c:v>
+                  <c:v>4-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-4-2021</c:v>
+                  <c:v>4-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-5-2021</c:v>
+                  <c:v>4-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-6-2021</c:v>
+                  <c:v>4-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-7-2021</c:v>
+                  <c:v>4-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-8-2021</c:v>
+                  <c:v>4-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-9-2021</c:v>
+                  <c:v>4-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-10-2021</c:v>
+                  <c:v>4-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-11-2021</c:v>
+                  <c:v>4-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-12-2021</c:v>
+                  <c:v>4-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-13-2021</c:v>
+                  <c:v>4-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-14-2021</c:v>
+                  <c:v>4-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-15-2021</c:v>
+                  <c:v>4-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-16-2021</c:v>
+                  <c:v>4-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-17-2021</c:v>
+                  <c:v>4-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-18-2021</c:v>
+                  <c:v>4-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-19-2021</c:v>
+                  <c:v>4-22-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3758:$B$3788</c:f>
+              <c:f>DolarToday!$B$3761:$B$3791</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11638,91 +11647,91 @@
                   <c:v>1835391.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1930237.96</c:v>
+                  <c:v>1975045.96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1930237.96</c:v>
+                  <c:v>2000312.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1930237.96</c:v>
+                  <c:v>2115582.77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1975045.96</c:v>
+                  <c:v>2164720.04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000312.73</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2115582.77</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2164720.04</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2175211.94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2100577.49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2110863.54</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2175211.94</c:v>
+                  <c:v>2208023.52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2100577.49</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2110863.54</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2208023.52</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2392024.71</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2369032.82</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2370023.73</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2392024.71</c:v>
+                  <c:v>2500103.92</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2369032.82</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2370023.73</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2500103.92</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2510539.71</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2523903.63</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2550012.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2510539.71</c:v>
+                  <c:v>22570100.88</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2523903.63</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12129,7 +12138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3788"/>
+  <dimension ref="A1:K3791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42453,16 +42462,6 @@
       <c r="B3786">
         <v>2509032.82</v>
       </c>
-      <c r="D3786" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3786" s="3"/>
-      <c r="F3786" s="3"/>
-      <c r="G3786" s="3"/>
-      <c r="H3786" s="3"/>
-      <c r="I3786" s="3"/>
-      <c r="J3786" s="3"/>
-      <c r="K3786" s="3"/>
     </row>
     <row r="3787" spans="1:11">
       <c r="A3787" t="s">
@@ -42471,16 +42470,6 @@
       <c r="B3787">
         <v>2510539.71</v>
       </c>
-      <c r="D3787" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3787" s="4"/>
-      <c r="F3787" s="4"/>
-      <c r="G3787" s="4"/>
-      <c r="H3787" s="4"/>
-      <c r="I3787" s="4"/>
-      <c r="J3787" s="4"/>
-      <c r="K3787" s="4"/>
     </row>
     <row r="3788" spans="1:11">
       <c r="A3788" t="s">
@@ -42489,21 +42478,65 @@
       <c r="B3788">
         <v>2523903.63</v>
       </c>
-      <c r="D3788" s="4"/>
-      <c r="E3788" s="4"/>
-      <c r="F3788" s="4"/>
-      <c r="G3788" s="4"/>
-      <c r="H3788" s="4"/>
-      <c r="I3788" s="4"/>
-      <c r="J3788" s="4"/>
-      <c r="K3788" s="4"/>
+    </row>
+    <row r="3789" spans="1:11">
+      <c r="A3789" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B3789">
+        <v>2550012.9</v>
+      </c>
+      <c r="D3789" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3789" s="3"/>
+      <c r="F3789" s="3"/>
+      <c r="G3789" s="3"/>
+      <c r="H3789" s="3"/>
+      <c r="I3789" s="3"/>
+      <c r="J3789" s="3"/>
+      <c r="K3789" s="3"/>
+    </row>
+    <row r="3790" spans="1:11">
+      <c r="A3790" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B3790">
+        <v>22570100.88</v>
+      </c>
+      <c r="D3790" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3790" s="4"/>
+      <c r="F3790" s="4"/>
+      <c r="G3790" s="4"/>
+      <c r="H3790" s="4"/>
+      <c r="I3790" s="4"/>
+      <c r="J3790" s="4"/>
+      <c r="K3790" s="4"/>
+    </row>
+    <row r="3791" spans="1:11">
+      <c r="A3791" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B3791">
+        <v>2720146.73</v>
+      </c>
+      <c r="D3791" s="4"/>
+      <c r="E3791" s="4"/>
+      <c r="F3791" s="4"/>
+      <c r="G3791" s="4"/>
+      <c r="H3791" s="4"/>
+      <c r="I3791" s="4"/>
+      <c r="J3791" s="4"/>
+      <c r="K3791" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3786:K3786"/>
-    <mergeCell ref="D3787:K3788"/>
+    <mergeCell ref="D3789:K3789"/>
+    <mergeCell ref="D3790:K3791"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="3795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="3798">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11399,6 +11399,15 @@
   </si>
   <si>
     <t>4-22-2021</t>
+  </si>
+  <si>
+    <t>4-23-2021</t>
+  </si>
+  <si>
+    <t>4-24-2021</t>
+  </si>
+  <si>
+    <t>4-25-2021</t>
   </si>
 </sst>
 </file>
@@ -11535,203 +11544,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3761:$A$3791</c:f>
+              <c:f>DolarToday!$A$3764:$A$3794</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-23-2021</c:v>
+                  <c:v>3-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-24-2021</c:v>
+                  <c:v>3-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-25-2021</c:v>
+                  <c:v>3-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-26-2021</c:v>
+                  <c:v>3-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-27-2021</c:v>
+                  <c:v>3-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-28-2021</c:v>
+                  <c:v>3-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3-29-2021</c:v>
+                  <c:v>4-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-30-2021</c:v>
+                  <c:v>4-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3-31-2021</c:v>
+                  <c:v>4-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-1-2021</c:v>
+                  <c:v>4-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-2-2021</c:v>
+                  <c:v>4-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-3-2021</c:v>
+                  <c:v>4-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-4-2021</c:v>
+                  <c:v>4-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-5-2021</c:v>
+                  <c:v>4-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-6-2021</c:v>
+                  <c:v>4-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-7-2021</c:v>
+                  <c:v>4-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-8-2021</c:v>
+                  <c:v>4-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-9-2021</c:v>
+                  <c:v>4-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-10-2021</c:v>
+                  <c:v>4-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-11-2021</c:v>
+                  <c:v>4-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-12-2021</c:v>
+                  <c:v>4-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-13-2021</c:v>
+                  <c:v>4-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-14-2021</c:v>
+                  <c:v>4-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-15-2021</c:v>
+                  <c:v>4-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-16-2021</c:v>
+                  <c:v>4-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-17-2021</c:v>
+                  <c:v>4-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-18-2021</c:v>
+                  <c:v>4-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-19-2021</c:v>
+                  <c:v>4-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-20-2021</c:v>
+                  <c:v>4-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-21-2021</c:v>
+                  <c:v>4-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-22-2021</c:v>
+                  <c:v>4-25-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3761:$B$3791</c:f>
+              <c:f>DolarToday!$B$3764:$B$3794</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1835391.02</c:v>
+                  <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1930237.96</c:v>
+                  <c:v>1975045.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1930237.96</c:v>
+                  <c:v>2000312.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1930237.96</c:v>
+                  <c:v>2115582.77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1975045.96</c:v>
+                  <c:v>2164720.04</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000312.73</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2115582.77</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2164720.04</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2175211.94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2100577.49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2110863.54</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2175211.94</c:v>
+                  <c:v>2208023.52</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2100577.49</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2110863.54</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2208023.52</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2392024.71</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2369032.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2370023.73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2392024.71</c:v>
+                  <c:v>2500103.92</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2369032.82</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2370023.73</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2500103.92</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2510539.71</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2523903.63</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2550012.9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2510539.71</c:v>
+                  <c:v>22570100.88</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2523903.63</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2550012.9</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22570100.88</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2760224.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12138,7 +12147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3791"/>
+  <dimension ref="A1:K3794"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42486,16 +42495,6 @@
       <c r="B3789">
         <v>2550012.9</v>
       </c>
-      <c r="D3789" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3789" s="3"/>
-      <c r="F3789" s="3"/>
-      <c r="G3789" s="3"/>
-      <c r="H3789" s="3"/>
-      <c r="I3789" s="3"/>
-      <c r="J3789" s="3"/>
-      <c r="K3789" s="3"/>
     </row>
     <row r="3790" spans="1:11">
       <c r="A3790" t="s">
@@ -42504,16 +42503,6 @@
       <c r="B3790">
         <v>22570100.88</v>
       </c>
-      <c r="D3790" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3790" s="4"/>
-      <c r="F3790" s="4"/>
-      <c r="G3790" s="4"/>
-      <c r="H3790" s="4"/>
-      <c r="I3790" s="4"/>
-      <c r="J3790" s="4"/>
-      <c r="K3790" s="4"/>
     </row>
     <row r="3791" spans="1:11">
       <c r="A3791" t="s">
@@ -42522,21 +42511,65 @@
       <c r="B3791">
         <v>2720146.73</v>
       </c>
-      <c r="D3791" s="4"/>
-      <c r="E3791" s="4"/>
-      <c r="F3791" s="4"/>
-      <c r="G3791" s="4"/>
-      <c r="H3791" s="4"/>
-      <c r="I3791" s="4"/>
-      <c r="J3791" s="4"/>
-      <c r="K3791" s="4"/>
+    </row>
+    <row r="3792" spans="1:11">
+      <c r="A3792" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B3792">
+        <v>2720146.73</v>
+      </c>
+      <c r="D3792" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3792" s="3"/>
+      <c r="F3792" s="3"/>
+      <c r="G3792" s="3"/>
+      <c r="H3792" s="3"/>
+      <c r="I3792" s="3"/>
+      <c r="J3792" s="3"/>
+      <c r="K3792" s="3"/>
+    </row>
+    <row r="3793" spans="1:11">
+      <c r="A3793" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B3793">
+        <v>2720146.73</v>
+      </c>
+      <c r="D3793" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3793" s="4"/>
+      <c r="F3793" s="4"/>
+      <c r="G3793" s="4"/>
+      <c r="H3793" s="4"/>
+      <c r="I3793" s="4"/>
+      <c r="J3793" s="4"/>
+      <c r="K3793" s="4"/>
+    </row>
+    <row r="3794" spans="1:11">
+      <c r="A3794" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3794">
+        <v>2760224.75</v>
+      </c>
+      <c r="D3794" s="4"/>
+      <c r="E3794" s="4"/>
+      <c r="F3794" s="4"/>
+      <c r="G3794" s="4"/>
+      <c r="H3794" s="4"/>
+      <c r="I3794" s="4"/>
+      <c r="J3794" s="4"/>
+      <c r="K3794" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3789:K3789"/>
-    <mergeCell ref="D3790:K3791"/>
+    <mergeCell ref="D3792:K3792"/>
+    <mergeCell ref="D3793:K3794"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="3798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="3799">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11408,6 +11408,9 @@
   </si>
   <si>
     <t>4-25-2021</t>
+  </si>
+  <si>
+    <t>4-26-2021</t>
   </si>
 </sst>
 </file>
@@ -11544,108 +11547,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3764:$A$3794</c:f>
+              <c:f>DolarToday!$A$3765:$A$3795</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-26-2021</c:v>
+                  <c:v>3-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-27-2021</c:v>
+                  <c:v>3-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-28-2021</c:v>
+                  <c:v>3-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-29-2021</c:v>
+                  <c:v>3-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-30-2021</c:v>
+                  <c:v>3-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3-31-2021</c:v>
+                  <c:v>4-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-1-2021</c:v>
+                  <c:v>4-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-2-2021</c:v>
+                  <c:v>4-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-3-2021</c:v>
+                  <c:v>4-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-4-2021</c:v>
+                  <c:v>4-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-5-2021</c:v>
+                  <c:v>4-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-6-2021</c:v>
+                  <c:v>4-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-7-2021</c:v>
+                  <c:v>4-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-8-2021</c:v>
+                  <c:v>4-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-9-2021</c:v>
+                  <c:v>4-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-10-2021</c:v>
+                  <c:v>4-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-11-2021</c:v>
+                  <c:v>4-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-12-2021</c:v>
+                  <c:v>4-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-13-2021</c:v>
+                  <c:v>4-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-14-2021</c:v>
+                  <c:v>4-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-15-2021</c:v>
+                  <c:v>4-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-16-2021</c:v>
+                  <c:v>4-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-17-2021</c:v>
+                  <c:v>4-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-18-2021</c:v>
+                  <c:v>4-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-19-2021</c:v>
+                  <c:v>4-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-20-2021</c:v>
+                  <c:v>4-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-21-2021</c:v>
+                  <c:v>4-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-22-2021</c:v>
+                  <c:v>4-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-23-2021</c:v>
+                  <c:v>4-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-24-2021</c:v>
+                  <c:v>4-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-25-2021</c:v>
+                  <c:v>4-26-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3764:$B$3794</c:f>
+              <c:f>DolarToday!$B$3765:$B$3795</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11653,19 +11656,19 @@
                   <c:v>1930237.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1930237.96</c:v>
+                  <c:v>1975045.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1975045.96</c:v>
+                  <c:v>2000312.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000312.73</c:v>
+                  <c:v>2115582.77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2115582.77</c:v>
+                  <c:v>2164720.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2164720.04</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2230823.93</c:v>
@@ -11674,19 +11677,19 @@
                   <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2175211.94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2175211.94</c:v>
+                  <c:v>2100577.49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2100577.49</c:v>
+                  <c:v>2110863.54</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2110863.54</c:v>
+                  <c:v>2208023.52</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2208023.52</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2241000.94</c:v>
@@ -11695,19 +11698,19 @@
                   <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2392024.71</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2392024.71</c:v>
+                  <c:v>2369032.82</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2369032.82</c:v>
+                  <c:v>2370023.73</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2370023.73</c:v>
+                  <c:v>2500103.92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2500103.92</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2509032.82</c:v>
@@ -11716,19 +11719,19 @@
                   <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2510539.71</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2510539.71</c:v>
+                  <c:v>2523903.63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2523903.63</c:v>
+                  <c:v>2550012.9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2550012.9</c:v>
+                  <c:v>22570100.88</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22570100.88</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2720146.73</c:v>
@@ -11737,10 +11740,10 @@
                   <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2760224.75</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2760224.75</c:v>
+                  <c:v>2655232.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12147,7 +12150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3794"/>
+  <dimension ref="A1:K3795"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42392,7 +42395,7 @@
         <v>2208023.52</v>
       </c>
     </row>
-    <row r="3777" spans="1:11">
+    <row r="3777" spans="1:2">
       <c r="A3777" t="s">
         <v>3780</v>
       </c>
@@ -42400,7 +42403,7 @@
         <v>2241000.94</v>
       </c>
     </row>
-    <row r="3778" spans="1:11">
+    <row r="3778" spans="1:2">
       <c r="A3778" t="s">
         <v>3781</v>
       </c>
@@ -42408,7 +42411,7 @@
         <v>2241000.94</v>
       </c>
     </row>
-    <row r="3779" spans="1:11">
+    <row r="3779" spans="1:2">
       <c r="A3779" t="s">
         <v>3782</v>
       </c>
@@ -42416,7 +42419,7 @@
         <v>2241000.94</v>
       </c>
     </row>
-    <row r="3780" spans="1:11">
+    <row r="3780" spans="1:2">
       <c r="A3780" t="s">
         <v>3783</v>
       </c>
@@ -42424,7 +42427,7 @@
         <v>2392024.71</v>
       </c>
     </row>
-    <row r="3781" spans="1:11">
+    <row r="3781" spans="1:2">
       <c r="A3781" t="s">
         <v>3784</v>
       </c>
@@ -42432,7 +42435,7 @@
         <v>2369032.82</v>
       </c>
     </row>
-    <row r="3782" spans="1:11">
+    <row r="3782" spans="1:2">
       <c r="A3782" t="s">
         <v>3785</v>
       </c>
@@ -42440,7 +42443,7 @@
         <v>2370023.73</v>
       </c>
     </row>
-    <row r="3783" spans="1:11">
+    <row r="3783" spans="1:2">
       <c r="A3783" t="s">
         <v>3786</v>
       </c>
@@ -42448,7 +42451,7 @@
         <v>2500103.92</v>
       </c>
     </row>
-    <row r="3784" spans="1:11">
+    <row r="3784" spans="1:2">
       <c r="A3784" t="s">
         <v>3787</v>
       </c>
@@ -42456,7 +42459,7 @@
         <v>2509032.82</v>
       </c>
     </row>
-    <row r="3785" spans="1:11">
+    <row r="3785" spans="1:2">
       <c r="A3785" t="s">
         <v>3788</v>
       </c>
@@ -42464,7 +42467,7 @@
         <v>2509032.82</v>
       </c>
     </row>
-    <row r="3786" spans="1:11">
+    <row r="3786" spans="1:2">
       <c r="A3786" t="s">
         <v>3789</v>
       </c>
@@ -42472,7 +42475,7 @@
         <v>2509032.82</v>
       </c>
     </row>
-    <row r="3787" spans="1:11">
+    <row r="3787" spans="1:2">
       <c r="A3787" t="s">
         <v>3790</v>
       </c>
@@ -42480,7 +42483,7 @@
         <v>2510539.71</v>
       </c>
     </row>
-    <row r="3788" spans="1:11">
+    <row r="3788" spans="1:2">
       <c r="A3788" t="s">
         <v>3791</v>
       </c>
@@ -42488,7 +42491,7 @@
         <v>2523903.63</v>
       </c>
     </row>
-    <row r="3789" spans="1:11">
+    <row r="3789" spans="1:2">
       <c r="A3789" t="s">
         <v>3792</v>
       </c>
@@ -42496,7 +42499,7 @@
         <v>2550012.9</v>
       </c>
     </row>
-    <row r="3790" spans="1:11">
+    <row r="3790" spans="1:2">
       <c r="A3790" t="s">
         <v>3793</v>
       </c>
@@ -42504,7 +42507,7 @@
         <v>22570100.88</v>
       </c>
     </row>
-    <row r="3791" spans="1:11">
+    <row r="3791" spans="1:2">
       <c r="A3791" t="s">
         <v>3794</v>
       </c>
@@ -42512,23 +42515,13 @@
         <v>2720146.73</v>
       </c>
     </row>
-    <row r="3792" spans="1:11">
+    <row r="3792" spans="1:2">
       <c r="A3792" t="s">
         <v>3795</v>
       </c>
       <c r="B3792">
         <v>2720146.73</v>
       </c>
-      <c r="D3792" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3792" s="3"/>
-      <c r="F3792" s="3"/>
-      <c r="G3792" s="3"/>
-      <c r="H3792" s="3"/>
-      <c r="I3792" s="3"/>
-      <c r="J3792" s="3"/>
-      <c r="K3792" s="3"/>
     </row>
     <row r="3793" spans="1:11">
       <c r="A3793" t="s">
@@ -42537,16 +42530,16 @@
       <c r="B3793">
         <v>2720146.73</v>
       </c>
-      <c r="D3793" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3793" s="4"/>
-      <c r="F3793" s="4"/>
-      <c r="G3793" s="4"/>
-      <c r="H3793" s="4"/>
-      <c r="I3793" s="4"/>
-      <c r="J3793" s="4"/>
-      <c r="K3793" s="4"/>
+      <c r="D3793" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3793" s="3"/>
+      <c r="F3793" s="3"/>
+      <c r="G3793" s="3"/>
+      <c r="H3793" s="3"/>
+      <c r="I3793" s="3"/>
+      <c r="J3793" s="3"/>
+      <c r="K3793" s="3"/>
     </row>
     <row r="3794" spans="1:11">
       <c r="A3794" t="s">
@@ -42555,7 +42548,9 @@
       <c r="B3794">
         <v>2760224.75</v>
       </c>
-      <c r="D3794" s="4"/>
+      <c r="D3794" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3794" s="4"/>
       <c r="F3794" s="4"/>
       <c r="G3794" s="4"/>
@@ -42564,12 +42559,28 @@
       <c r="J3794" s="4"/>
       <c r="K3794" s="4"/>
     </row>
+    <row r="3795" spans="1:11">
+      <c r="A3795" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B3795">
+        <v>2655232.54</v>
+      </c>
+      <c r="D3795" s="4"/>
+      <c r="E3795" s="4"/>
+      <c r="F3795" s="4"/>
+      <c r="G3795" s="4"/>
+      <c r="H3795" s="4"/>
+      <c r="I3795" s="4"/>
+      <c r="J3795" s="4"/>
+      <c r="K3795" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3792:K3792"/>
-    <mergeCell ref="D3793:K3794"/>
+    <mergeCell ref="D3793:K3793"/>
+    <mergeCell ref="D3794:K3795"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="3799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3802" uniqueCount="3800">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11411,6 +11411,9 @@
   </si>
   <si>
     <t>4-26-2021</t>
+  </si>
+  <si>
+    <t>4-27-2021</t>
   </si>
 </sst>
 </file>
@@ -11547,125 +11550,125 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3765:$A$3795</c:f>
+              <c:f>DolarToday!$A$3766:$A$3796</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-27-2021</c:v>
+                  <c:v>3-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-28-2021</c:v>
+                  <c:v>3-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-29-2021</c:v>
+                  <c:v>3-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-30-2021</c:v>
+                  <c:v>3-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-31-2021</c:v>
+                  <c:v>4-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-1-2021</c:v>
+                  <c:v>4-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-2-2021</c:v>
+                  <c:v>4-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-3-2021</c:v>
+                  <c:v>4-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-4-2021</c:v>
+                  <c:v>4-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-5-2021</c:v>
+                  <c:v>4-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-6-2021</c:v>
+                  <c:v>4-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-7-2021</c:v>
+                  <c:v>4-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-8-2021</c:v>
+                  <c:v>4-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-9-2021</c:v>
+                  <c:v>4-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-10-2021</c:v>
+                  <c:v>4-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-11-2021</c:v>
+                  <c:v>4-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-12-2021</c:v>
+                  <c:v>4-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-13-2021</c:v>
+                  <c:v>4-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-14-2021</c:v>
+                  <c:v>4-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-15-2021</c:v>
+                  <c:v>4-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-16-2021</c:v>
+                  <c:v>4-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-17-2021</c:v>
+                  <c:v>4-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-18-2021</c:v>
+                  <c:v>4-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-19-2021</c:v>
+                  <c:v>4-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-20-2021</c:v>
+                  <c:v>4-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-21-2021</c:v>
+                  <c:v>4-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-22-2021</c:v>
+                  <c:v>4-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-23-2021</c:v>
+                  <c:v>4-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-24-2021</c:v>
+                  <c:v>4-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-25-2021</c:v>
+                  <c:v>4-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-26-2021</c:v>
+                  <c:v>4-27-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3765:$B$3795</c:f>
+              <c:f>DolarToday!$B$3766:$B$3796</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1930237.96</c:v>
+                  <c:v>1975045.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1975045.96</c:v>
+                  <c:v>2000312.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000312.73</c:v>
+                  <c:v>2115582.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2115582.77</c:v>
+                  <c:v>2164720.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2164720.04</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2230823.93</c:v>
@@ -11674,19 +11677,19 @@
                   <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2175211.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2175211.94</c:v>
+                  <c:v>2100577.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2100577.49</c:v>
+                  <c:v>2110863.54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2110863.54</c:v>
+                  <c:v>2208023.52</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2208023.52</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2241000.94</c:v>
@@ -11695,19 +11698,19 @@
                   <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2392024.71</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2392024.71</c:v>
+                  <c:v>2369032.82</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2369032.82</c:v>
+                  <c:v>2370023.73</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2370023.73</c:v>
+                  <c:v>2500103.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2500103.92</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2509032.82</c:v>
@@ -11716,19 +11719,19 @@
                   <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2510539.71</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2510539.71</c:v>
+                  <c:v>2523903.63</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2523903.63</c:v>
+                  <c:v>2550012.9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2550012.9</c:v>
+                  <c:v>22570100.88</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22570100.88</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2720146.73</c:v>
@@ -11737,13 +11740,13 @@
                   <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2760224.75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2760224.75</c:v>
+                  <c:v>2655232.54</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2655232.54</c:v>
+                  <c:v>2760083.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12150,7 +12153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3795"/>
+  <dimension ref="A1:K3796"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42530,16 +42533,6 @@
       <c r="B3793">
         <v>2720146.73</v>
       </c>
-      <c r="D3793" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3793" s="3"/>
-      <c r="F3793" s="3"/>
-      <c r="G3793" s="3"/>
-      <c r="H3793" s="3"/>
-      <c r="I3793" s="3"/>
-      <c r="J3793" s="3"/>
-      <c r="K3793" s="3"/>
     </row>
     <row r="3794" spans="1:11">
       <c r="A3794" t="s">
@@ -42548,16 +42541,16 @@
       <c r="B3794">
         <v>2760224.75</v>
       </c>
-      <c r="D3794" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3794" s="4"/>
-      <c r="F3794" s="4"/>
-      <c r="G3794" s="4"/>
-      <c r="H3794" s="4"/>
-      <c r="I3794" s="4"/>
-      <c r="J3794" s="4"/>
-      <c r="K3794" s="4"/>
+      <c r="D3794" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3794" s="3"/>
+      <c r="F3794" s="3"/>
+      <c r="G3794" s="3"/>
+      <c r="H3794" s="3"/>
+      <c r="I3794" s="3"/>
+      <c r="J3794" s="3"/>
+      <c r="K3794" s="3"/>
     </row>
     <row r="3795" spans="1:11">
       <c r="A3795" t="s">
@@ -42566,7 +42559,9 @@
       <c r="B3795">
         <v>2655232.54</v>
       </c>
-      <c r="D3795" s="4"/>
+      <c r="D3795" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3795" s="4"/>
       <c r="F3795" s="4"/>
       <c r="G3795" s="4"/>
@@ -42575,12 +42570,28 @@
       <c r="J3795" s="4"/>
       <c r="K3795" s="4"/>
     </row>
+    <row r="3796" spans="1:11">
+      <c r="A3796" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B3796">
+        <v>2760083.73</v>
+      </c>
+      <c r="D3796" s="4"/>
+      <c r="E3796" s="4"/>
+      <c r="F3796" s="4"/>
+      <c r="G3796" s="4"/>
+      <c r="H3796" s="4"/>
+      <c r="I3796" s="4"/>
+      <c r="J3796" s="4"/>
+      <c r="K3796" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3793:K3793"/>
-    <mergeCell ref="D3794:K3795"/>
+    <mergeCell ref="D3794:K3794"/>
+    <mergeCell ref="D3795:K3796"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3802" uniqueCount="3800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3803" uniqueCount="3801">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11414,6 +11414,9 @@
   </si>
   <si>
     <t>4-27-2021</t>
+  </si>
+  <si>
+    <t>4-28-2021</t>
   </si>
 </sst>
 </file>
@@ -11550,122 +11553,122 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3766:$A$3796</c:f>
+              <c:f>DolarToday!$A$3767:$A$3797</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-28-2021</c:v>
+                  <c:v>3-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-29-2021</c:v>
+                  <c:v>3-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-30-2021</c:v>
+                  <c:v>3-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3-31-2021</c:v>
+                  <c:v>4-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-1-2021</c:v>
+                  <c:v>4-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-2-2021</c:v>
+                  <c:v>4-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-3-2021</c:v>
+                  <c:v>4-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-4-2021</c:v>
+                  <c:v>4-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-5-2021</c:v>
+                  <c:v>4-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-6-2021</c:v>
+                  <c:v>4-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-7-2021</c:v>
+                  <c:v>4-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-8-2021</c:v>
+                  <c:v>4-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-9-2021</c:v>
+                  <c:v>4-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-10-2021</c:v>
+                  <c:v>4-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-11-2021</c:v>
+                  <c:v>4-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-12-2021</c:v>
+                  <c:v>4-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-13-2021</c:v>
+                  <c:v>4-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-14-2021</c:v>
+                  <c:v>4-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-15-2021</c:v>
+                  <c:v>4-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-16-2021</c:v>
+                  <c:v>4-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-17-2021</c:v>
+                  <c:v>4-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-18-2021</c:v>
+                  <c:v>4-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-19-2021</c:v>
+                  <c:v>4-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-20-2021</c:v>
+                  <c:v>4-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-21-2021</c:v>
+                  <c:v>4-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-22-2021</c:v>
+                  <c:v>4-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-23-2021</c:v>
+                  <c:v>4-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-24-2021</c:v>
+                  <c:v>4-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-25-2021</c:v>
+                  <c:v>4-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-26-2021</c:v>
+                  <c:v>4-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-27-2021</c:v>
+                  <c:v>4-28-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3766:$B$3796</c:f>
+              <c:f>DolarToday!$B$3767:$B$3797</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1975045.96</c:v>
+                  <c:v>2000312.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000312.73</c:v>
+                  <c:v>2115582.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2115582.77</c:v>
+                  <c:v>2164720.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2164720.04</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2230823.93</c:v>
@@ -11674,19 +11677,19 @@
                   <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2175211.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2175211.94</c:v>
+                  <c:v>2100577.49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2100577.49</c:v>
+                  <c:v>2110863.54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2110863.54</c:v>
+                  <c:v>2208023.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2208023.52</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2241000.94</c:v>
@@ -11695,19 +11698,19 @@
                   <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2392024.71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2392024.71</c:v>
+                  <c:v>2369032.82</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2369032.82</c:v>
+                  <c:v>2370023.73</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2370023.73</c:v>
+                  <c:v>2500103.92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2500103.92</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2509032.82</c:v>
@@ -11716,19 +11719,19 @@
                   <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2510539.71</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2510539.71</c:v>
+                  <c:v>2523903.63</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2523903.63</c:v>
+                  <c:v>2550012.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2550012.9</c:v>
+                  <c:v>22570100.88</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22570100.88</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2720146.73</c:v>
@@ -11737,16 +11740,16 @@
                   <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2760224.75</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2760224.75</c:v>
+                  <c:v>2655232.54</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2655232.54</c:v>
+                  <c:v>2760083.73</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2760083.73</c:v>
+                  <c:v>2850074.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12153,7 +12156,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3796"/>
+  <dimension ref="A1:K3797"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42541,16 +42544,6 @@
       <c r="B3794">
         <v>2760224.75</v>
       </c>
-      <c r="D3794" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3794" s="3"/>
-      <c r="F3794" s="3"/>
-      <c r="G3794" s="3"/>
-      <c r="H3794" s="3"/>
-      <c r="I3794" s="3"/>
-      <c r="J3794" s="3"/>
-      <c r="K3794" s="3"/>
     </row>
     <row r="3795" spans="1:11">
       <c r="A3795" t="s">
@@ -42559,16 +42552,16 @@
       <c r="B3795">
         <v>2655232.54</v>
       </c>
-      <c r="D3795" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3795" s="4"/>
-      <c r="F3795" s="4"/>
-      <c r="G3795" s="4"/>
-      <c r="H3795" s="4"/>
-      <c r="I3795" s="4"/>
-      <c r="J3795" s="4"/>
-      <c r="K3795" s="4"/>
+      <c r="D3795" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3795" s="3"/>
+      <c r="F3795" s="3"/>
+      <c r="G3795" s="3"/>
+      <c r="H3795" s="3"/>
+      <c r="I3795" s="3"/>
+      <c r="J3795" s="3"/>
+      <c r="K3795" s="3"/>
     </row>
     <row r="3796" spans="1:11">
       <c r="A3796" t="s">
@@ -42577,7 +42570,9 @@
       <c r="B3796">
         <v>2760083.73</v>
       </c>
-      <c r="D3796" s="4"/>
+      <c r="D3796" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3796" s="4"/>
       <c r="F3796" s="4"/>
       <c r="G3796" s="4"/>
@@ -42586,12 +42581,28 @@
       <c r="J3796" s="4"/>
       <c r="K3796" s="4"/>
     </row>
+    <row r="3797" spans="1:11">
+      <c r="A3797" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B3797">
+        <v>2850074.64</v>
+      </c>
+      <c r="D3797" s="4"/>
+      <c r="E3797" s="4"/>
+      <c r="F3797" s="4"/>
+      <c r="G3797" s="4"/>
+      <c r="H3797" s="4"/>
+      <c r="I3797" s="4"/>
+      <c r="J3797" s="4"/>
+      <c r="K3797" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3794:K3794"/>
-    <mergeCell ref="D3795:K3796"/>
+    <mergeCell ref="D3795:K3795"/>
+    <mergeCell ref="D3796:K3797"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3803" uniqueCount="3801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3808" uniqueCount="3806">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11417,6 +11417,21 @@
   </si>
   <si>
     <t>4-28-2021</t>
+  </si>
+  <si>
+    <t>4-29-2021</t>
+  </si>
+  <si>
+    <t>4-30-2021</t>
+  </si>
+  <si>
+    <t>5-1-2021</t>
+  </si>
+  <si>
+    <t>5-2-2021</t>
+  </si>
+  <si>
+    <t>5-3-2021</t>
   </si>
 </sst>
 </file>
@@ -11553,203 +11568,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3767:$A$3797</c:f>
+              <c:f>DolarToday!$A$3772:$A$3802</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3-29-2021</c:v>
+                  <c:v>4-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3-30-2021</c:v>
+                  <c:v>4-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-31-2021</c:v>
+                  <c:v>4-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-1-2021</c:v>
+                  <c:v>4-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-2-2021</c:v>
+                  <c:v>4-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-3-2021</c:v>
+                  <c:v>4-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-4-2021</c:v>
+                  <c:v>4-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-5-2021</c:v>
+                  <c:v>4-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-6-2021</c:v>
+                  <c:v>4-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-7-2021</c:v>
+                  <c:v>4-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-8-2021</c:v>
+                  <c:v>4-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-9-2021</c:v>
+                  <c:v>4-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-10-2021</c:v>
+                  <c:v>4-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-11-2021</c:v>
+                  <c:v>4-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-12-2021</c:v>
+                  <c:v>4-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-13-2021</c:v>
+                  <c:v>4-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-14-2021</c:v>
+                  <c:v>4-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-15-2021</c:v>
+                  <c:v>4-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-16-2021</c:v>
+                  <c:v>4-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-17-2021</c:v>
+                  <c:v>4-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-18-2021</c:v>
+                  <c:v>4-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-19-2021</c:v>
+                  <c:v>4-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-20-2021</c:v>
+                  <c:v>4-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-21-2021</c:v>
+                  <c:v>4-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-22-2021</c:v>
+                  <c:v>4-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-23-2021</c:v>
+                  <c:v>4-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-24-2021</c:v>
+                  <c:v>4-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-25-2021</c:v>
+                  <c:v>4-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4-26-2021</c:v>
+                  <c:v>5-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4-27-2021</c:v>
+                  <c:v>5-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4-28-2021</c:v>
+                  <c:v>5-3-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3767:$B$3797</c:f>
+              <c:f>DolarToday!$B$3772:$B$3802</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2000312.73</c:v>
+                  <c:v>2230823.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2115582.77</c:v>
+                  <c:v>2175211.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2164720.04</c:v>
+                  <c:v>2100577.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2110863.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2208023.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2175211.94</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2100577.49</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2110863.54</c:v>
+                  <c:v>2392024.71</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2208023.52</c:v>
+                  <c:v>2369032.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2370023.73</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2500103.92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2392024.71</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2369032.82</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2370023.73</c:v>
+                  <c:v>2510539.71</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2500103.92</c:v>
+                  <c:v>2523903.63</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2550012.9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2509032.82</c:v>
+                  <c:v>22570100.88</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2510539.71</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2523903.63</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2550012.9</c:v>
+                  <c:v>2760224.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22570100.88</c:v>
+                  <c:v>2655232.54</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2760083.73</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2850074.64</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2760224.75</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2655232.54</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2760083.73</c:v>
+                  <c:v>2930013.24</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2850074.64</c:v>
+                  <c:v>2899538.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12156,7 +12171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3797"/>
+  <dimension ref="A1:K3802"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42552,16 +42567,6 @@
       <c r="B3795">
         <v>2655232.54</v>
       </c>
-      <c r="D3795" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3795" s="3"/>
-      <c r="F3795" s="3"/>
-      <c r="G3795" s="3"/>
-      <c r="H3795" s="3"/>
-      <c r="I3795" s="3"/>
-      <c r="J3795" s="3"/>
-      <c r="K3795" s="3"/>
     </row>
     <row r="3796" spans="1:11">
       <c r="A3796" t="s">
@@ -42570,16 +42575,6 @@
       <c r="B3796">
         <v>2760083.73</v>
       </c>
-      <c r="D3796" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3796" s="4"/>
-      <c r="F3796" s="4"/>
-      <c r="G3796" s="4"/>
-      <c r="H3796" s="4"/>
-      <c r="I3796" s="4"/>
-      <c r="J3796" s="4"/>
-      <c r="K3796" s="4"/>
     </row>
     <row r="3797" spans="1:11">
       <c r="A3797" t="s">
@@ -42588,21 +42583,81 @@
       <c r="B3797">
         <v>2850074.64</v>
       </c>
-      <c r="D3797" s="4"/>
-      <c r="E3797" s="4"/>
-      <c r="F3797" s="4"/>
-      <c r="G3797" s="4"/>
-      <c r="H3797" s="4"/>
-      <c r="I3797" s="4"/>
-      <c r="J3797" s="4"/>
-      <c r="K3797" s="4"/>
+    </row>
+    <row r="3798" spans="1:11">
+      <c r="A3798" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B3798">
+        <v>2900823.01</v>
+      </c>
+    </row>
+    <row r="3799" spans="1:11">
+      <c r="A3799" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B3799">
+        <v>2900823.01</v>
+      </c>
+    </row>
+    <row r="3800" spans="1:11">
+      <c r="A3800" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B3800">
+        <v>2900823.01</v>
+      </c>
+      <c r="D3800" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3800" s="3"/>
+      <c r="F3800" s="3"/>
+      <c r="G3800" s="3"/>
+      <c r="H3800" s="3"/>
+      <c r="I3800" s="3"/>
+      <c r="J3800" s="3"/>
+      <c r="K3800" s="3"/>
+    </row>
+    <row r="3801" spans="1:11">
+      <c r="A3801" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B3801">
+        <v>2930013.24</v>
+      </c>
+      <c r="D3801" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3801" s="4"/>
+      <c r="F3801" s="4"/>
+      <c r="G3801" s="4"/>
+      <c r="H3801" s="4"/>
+      <c r="I3801" s="4"/>
+      <c r="J3801" s="4"/>
+      <c r="K3801" s="4"/>
+    </row>
+    <row r="3802" spans="1:11">
+      <c r="A3802" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B3802">
+        <v>2899538.81</v>
+      </c>
+      <c r="D3802" s="4"/>
+      <c r="E3802" s="4"/>
+      <c r="F3802" s="4"/>
+      <c r="G3802" s="4"/>
+      <c r="H3802" s="4"/>
+      <c r="I3802" s="4"/>
+      <c r="J3802" s="4"/>
+      <c r="K3802" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3795:K3795"/>
-    <mergeCell ref="D3796:K3797"/>
+    <mergeCell ref="D3800:K3800"/>
+    <mergeCell ref="D3801:K3802"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3808" uniqueCount="3806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="3808">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11432,6 +11432,12 @@
   </si>
   <si>
     <t>5-3-2021</t>
+  </si>
+  <si>
+    <t>5-4-2021</t>
+  </si>
+  <si>
+    <t>5-5-2021</t>
   </si>
 </sst>
 </file>
@@ -11568,203 +11574,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3772:$A$3802</c:f>
+              <c:f>DolarToday!$A$3774:$A$3804</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-3-2021</c:v>
+                  <c:v>4-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-4-2021</c:v>
+                  <c:v>4-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-5-2021</c:v>
+                  <c:v>4-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-6-2021</c:v>
+                  <c:v>4-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-7-2021</c:v>
+                  <c:v>4-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-8-2021</c:v>
+                  <c:v>4-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-9-2021</c:v>
+                  <c:v>4-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-10-2021</c:v>
+                  <c:v>4-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-11-2021</c:v>
+                  <c:v>4-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-12-2021</c:v>
+                  <c:v>4-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-13-2021</c:v>
+                  <c:v>4-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-14-2021</c:v>
+                  <c:v>4-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-15-2021</c:v>
+                  <c:v>4-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-16-2021</c:v>
+                  <c:v>4-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-17-2021</c:v>
+                  <c:v>4-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-18-2021</c:v>
+                  <c:v>4-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-19-2021</c:v>
+                  <c:v>4-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-20-2021</c:v>
+                  <c:v>4-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-21-2021</c:v>
+                  <c:v>4-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-22-2021</c:v>
+                  <c:v>4-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-23-2021</c:v>
+                  <c:v>4-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-24-2021</c:v>
+                  <c:v>4-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-25-2021</c:v>
+                  <c:v>4-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-26-2021</c:v>
+                  <c:v>4-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-27-2021</c:v>
+                  <c:v>4-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-28-2021</c:v>
+                  <c:v>4-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4-29-2021</c:v>
+                  <c:v>5-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4-30-2021</c:v>
+                  <c:v>5-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5-1-2021</c:v>
+                  <c:v>5-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-2-2021</c:v>
+                  <c:v>5-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-3-2021</c:v>
+                  <c:v>5-5-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3772:$B$3802</c:f>
+              <c:f>DolarToday!$B$3774:$B$3804</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2230823.93</c:v>
+                  <c:v>2100577.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2175211.94</c:v>
+                  <c:v>2110863.54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2100577.49</c:v>
+                  <c:v>2208023.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2110863.54</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2208023.52</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2392024.71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2369032.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2392024.71</c:v>
+                  <c:v>2370023.73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2369032.82</c:v>
+                  <c:v>2500103.92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2370023.73</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2500103.92</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2510539.71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2523903.63</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2510539.71</c:v>
+                  <c:v>2550012.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2523903.63</c:v>
+                  <c:v>22570100.88</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2550012.9</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22570100.88</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2760224.75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2655232.54</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2760224.75</c:v>
+                  <c:v>2760083.73</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2655232.54</c:v>
+                  <c:v>2850074.64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2760083.73</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2850074.64</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2930013.24</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2899538.81</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2930013.24</c:v>
+                  <c:v>2980311.68</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2899538.81</c:v>
+                  <c:v>2920823.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12171,7 +12177,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3802"/>
+  <dimension ref="A1:K3804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42607,16 +42613,6 @@
       <c r="B3800">
         <v>2900823.01</v>
       </c>
-      <c r="D3800" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3800" s="3"/>
-      <c r="F3800" s="3"/>
-      <c r="G3800" s="3"/>
-      <c r="H3800" s="3"/>
-      <c r="I3800" s="3"/>
-      <c r="J3800" s="3"/>
-      <c r="K3800" s="3"/>
     </row>
     <row r="3801" spans="1:11">
       <c r="A3801" t="s">
@@ -42625,16 +42621,6 @@
       <c r="B3801">
         <v>2930013.24</v>
       </c>
-      <c r="D3801" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3801" s="4"/>
-      <c r="F3801" s="4"/>
-      <c r="G3801" s="4"/>
-      <c r="H3801" s="4"/>
-      <c r="I3801" s="4"/>
-      <c r="J3801" s="4"/>
-      <c r="K3801" s="4"/>
     </row>
     <row r="3802" spans="1:11">
       <c r="A3802" t="s">
@@ -42643,21 +42629,57 @@
       <c r="B3802">
         <v>2899538.81</v>
       </c>
-      <c r="D3802" s="4"/>
-      <c r="E3802" s="4"/>
-      <c r="F3802" s="4"/>
-      <c r="G3802" s="4"/>
-      <c r="H3802" s="4"/>
-      <c r="I3802" s="4"/>
-      <c r="J3802" s="4"/>
-      <c r="K3802" s="4"/>
+      <c r="D3802" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3802" s="3"/>
+      <c r="F3802" s="3"/>
+      <c r="G3802" s="3"/>
+      <c r="H3802" s="3"/>
+      <c r="I3802" s="3"/>
+      <c r="J3802" s="3"/>
+      <c r="K3802" s="3"/>
+    </row>
+    <row r="3803" spans="1:11">
+      <c r="A3803" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B3803">
+        <v>2980311.68</v>
+      </c>
+      <c r="D3803" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3803" s="4"/>
+      <c r="F3803" s="4"/>
+      <c r="G3803" s="4"/>
+      <c r="H3803" s="4"/>
+      <c r="I3803" s="4"/>
+      <c r="J3803" s="4"/>
+      <c r="K3803" s="4"/>
+    </row>
+    <row r="3804" spans="1:11">
+      <c r="A3804" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B3804">
+        <v>2920823.21</v>
+      </c>
+      <c r="D3804" s="4"/>
+      <c r="E3804" s="4"/>
+      <c r="F3804" s="4"/>
+      <c r="G3804" s="4"/>
+      <c r="H3804" s="4"/>
+      <c r="I3804" s="4"/>
+      <c r="J3804" s="4"/>
+      <c r="K3804" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3800:K3800"/>
-    <mergeCell ref="D3801:K3802"/>
+    <mergeCell ref="D3802:K3802"/>
+    <mergeCell ref="D3803:K3804"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="3808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="3812">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11438,6 +11438,18 @@
   </si>
   <si>
     <t>5-5-2021</t>
+  </si>
+  <si>
+    <t>5-6-2021</t>
+  </si>
+  <si>
+    <t>5-7-2021</t>
+  </si>
+  <si>
+    <t>5-8-2021</t>
+  </si>
+  <si>
+    <t>5-9-2021</t>
   </si>
 </sst>
 </file>
@@ -11574,203 +11586,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3774:$A$3804</c:f>
+              <c:f>DolarToday!$A$3778:$A$3808</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-5-2021</c:v>
+                  <c:v>4-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-6-2021</c:v>
+                  <c:v>4-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-7-2021</c:v>
+                  <c:v>4-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-8-2021</c:v>
+                  <c:v>4-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-9-2021</c:v>
+                  <c:v>4-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-10-2021</c:v>
+                  <c:v>4-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-11-2021</c:v>
+                  <c:v>4-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-12-2021</c:v>
+                  <c:v>4-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-13-2021</c:v>
+                  <c:v>4-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-14-2021</c:v>
+                  <c:v>4-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-15-2021</c:v>
+                  <c:v>4-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-16-2021</c:v>
+                  <c:v>4-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-17-2021</c:v>
+                  <c:v>4-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-18-2021</c:v>
+                  <c:v>4-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-19-2021</c:v>
+                  <c:v>4-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-20-2021</c:v>
+                  <c:v>4-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-21-2021</c:v>
+                  <c:v>4-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-22-2021</c:v>
+                  <c:v>4-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-23-2021</c:v>
+                  <c:v>4-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-24-2021</c:v>
+                  <c:v>4-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-25-2021</c:v>
+                  <c:v>4-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-26-2021</c:v>
+                  <c:v>4-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4-27-2021</c:v>
+                  <c:v>5-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4-28-2021</c:v>
+                  <c:v>5-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4-29-2021</c:v>
+                  <c:v>5-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4-30-2021</c:v>
+                  <c:v>5-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5-1-2021</c:v>
+                  <c:v>5-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5-2-2021</c:v>
+                  <c:v>5-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5-3-2021</c:v>
+                  <c:v>5-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-4-2021</c:v>
+                  <c:v>5-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-5-2021</c:v>
+                  <c:v>5-9-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3774:$B$3804</c:f>
+              <c:f>DolarToday!$B$3778:$B$3808</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2100577.49</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2110863.54</c:v>
+                  <c:v>2241000.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2208023.52</c:v>
+                  <c:v>2392024.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2369032.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2370023.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2500103.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2392024.71</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2369032.82</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2370023.73</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2500103.92</c:v>
+                  <c:v>2510539.71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2523903.63</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2550012.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2509032.82</c:v>
+                  <c:v>22570100.88</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2510539.71</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2523903.63</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2550012.9</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22570100.88</c:v>
+                  <c:v>2760224.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2655232.54</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2760083.73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2850074.64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2760224.75</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2655232.54</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2760083.73</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2850074.64</c:v>
+                  <c:v>2930013.24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2899538.81</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2980311.68</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2920823.21</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2930013.24</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2899538.81</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2980311.68</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2920823.21</c:v>
+                  <c:v>2850102.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12177,7 +12189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3804"/>
+  <dimension ref="A1:K3808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42629,16 +42641,6 @@
       <c r="B3802">
         <v>2899538.81</v>
       </c>
-      <c r="D3802" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3802" s="3"/>
-      <c r="F3802" s="3"/>
-      <c r="G3802" s="3"/>
-      <c r="H3802" s="3"/>
-      <c r="I3802" s="3"/>
-      <c r="J3802" s="3"/>
-      <c r="K3802" s="3"/>
     </row>
     <row r="3803" spans="1:11">
       <c r="A3803" t="s">
@@ -42647,16 +42649,6 @@
       <c r="B3803">
         <v>2980311.68</v>
       </c>
-      <c r="D3803" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3803" s="4"/>
-      <c r="F3803" s="4"/>
-      <c r="G3803" s="4"/>
-      <c r="H3803" s="4"/>
-      <c r="I3803" s="4"/>
-      <c r="J3803" s="4"/>
-      <c r="K3803" s="4"/>
     </row>
     <row r="3804" spans="1:11">
       <c r="A3804" t="s">
@@ -42665,21 +42657,73 @@
       <c r="B3804">
         <v>2920823.21</v>
       </c>
-      <c r="D3804" s="4"/>
-      <c r="E3804" s="4"/>
-      <c r="F3804" s="4"/>
-      <c r="G3804" s="4"/>
-      <c r="H3804" s="4"/>
-      <c r="I3804" s="4"/>
-      <c r="J3804" s="4"/>
-      <c r="K3804" s="4"/>
+    </row>
+    <row r="3805" spans="1:11">
+      <c r="A3805" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B3805">
+        <v>2887384.04</v>
+      </c>
+    </row>
+    <row r="3806" spans="1:11">
+      <c r="A3806" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B3806">
+        <v>2887384.04</v>
+      </c>
+      <c r="D3806" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3806" s="3"/>
+      <c r="F3806" s="3"/>
+      <c r="G3806" s="3"/>
+      <c r="H3806" s="3"/>
+      <c r="I3806" s="3"/>
+      <c r="J3806" s="3"/>
+      <c r="K3806" s="3"/>
+    </row>
+    <row r="3807" spans="1:11">
+      <c r="A3807" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B3807">
+        <v>2887384.04</v>
+      </c>
+      <c r="D3807" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3807" s="4"/>
+      <c r="F3807" s="4"/>
+      <c r="G3807" s="4"/>
+      <c r="H3807" s="4"/>
+      <c r="I3807" s="4"/>
+      <c r="J3807" s="4"/>
+      <c r="K3807" s="4"/>
+    </row>
+    <row r="3808" spans="1:11">
+      <c r="A3808" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B3808">
+        <v>2850102.81</v>
+      </c>
+      <c r="D3808" s="4"/>
+      <c r="E3808" s="4"/>
+      <c r="F3808" s="4"/>
+      <c r="G3808" s="4"/>
+      <c r="H3808" s="4"/>
+      <c r="I3808" s="4"/>
+      <c r="J3808" s="4"/>
+      <c r="K3808" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3802:K3802"/>
-    <mergeCell ref="D3803:K3804"/>
+    <mergeCell ref="D3806:K3806"/>
+    <mergeCell ref="D3807:K3808"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="3812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3817" uniqueCount="3815">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11450,6 +11450,15 @@
   </si>
   <si>
     <t>5-9-2021</t>
+  </si>
+  <si>
+    <t>5-10-2021</t>
+  </si>
+  <si>
+    <t>5-11-2021</t>
+  </si>
+  <si>
+    <t>5-12-2021</t>
   </si>
 </sst>
 </file>
@@ -11586,203 +11595,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3778:$A$3808</c:f>
+              <c:f>DolarToday!$A$3781:$A$3811</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-9-2021</c:v>
+                  <c:v>4-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-10-2021</c:v>
+                  <c:v>4-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-11-2021</c:v>
+                  <c:v>4-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-12-2021</c:v>
+                  <c:v>4-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-13-2021</c:v>
+                  <c:v>4-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-14-2021</c:v>
+                  <c:v>4-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-15-2021</c:v>
+                  <c:v>4-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-16-2021</c:v>
+                  <c:v>4-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-17-2021</c:v>
+                  <c:v>4-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-18-2021</c:v>
+                  <c:v>4-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-19-2021</c:v>
+                  <c:v>4-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-20-2021</c:v>
+                  <c:v>4-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-21-2021</c:v>
+                  <c:v>4-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-22-2021</c:v>
+                  <c:v>4-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-23-2021</c:v>
+                  <c:v>4-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-24-2021</c:v>
+                  <c:v>4-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-25-2021</c:v>
+                  <c:v>4-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-26-2021</c:v>
+                  <c:v>4-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-27-2021</c:v>
+                  <c:v>4-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4-28-2021</c:v>
+                  <c:v>5-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4-29-2021</c:v>
+                  <c:v>5-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4-30-2021</c:v>
+                  <c:v>5-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5-1-2021</c:v>
+                  <c:v>5-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5-2-2021</c:v>
+                  <c:v>5-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5-3-2021</c:v>
+                  <c:v>5-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5-4-2021</c:v>
+                  <c:v>5-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5-5-2021</c:v>
+                  <c:v>5-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5-6-2021</c:v>
+                  <c:v>5-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5-7-2021</c:v>
+                  <c:v>5-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-8-2021</c:v>
+                  <c:v>5-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-9-2021</c:v>
+                  <c:v>5-12-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3778:$B$3808</c:f>
+              <c:f>DolarToday!$B$3781:$B$3811</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2369032.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2241000.94</c:v>
+                  <c:v>2370023.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2392024.71</c:v>
+                  <c:v>2500103.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2369032.82</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2370023.73</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500103.92</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2510539.71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2523903.63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2550012.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2510539.71</c:v>
+                  <c:v>22570100.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2523903.63</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2550012.9</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22570100.88</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2760224.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2655232.54</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2760083.73</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2760224.75</c:v>
+                  <c:v>2850074.64</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2655232.54</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2760083.73</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2850074.64</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2930013.24</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2899538.81</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2980311.68</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2930013.24</c:v>
+                  <c:v>2920823.21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2899538.81</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2980311.68</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2920823.21</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2887384.04</c:v>
+                  <c:v>2850102.81</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2887384.04</c:v>
+                  <c:v>2804482.66</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2887384.04</c:v>
+                  <c:v>2875489.65</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2850102.81</c:v>
+                  <c:v>3012481.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12189,7 +12198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3808"/>
+  <dimension ref="A1:K3811"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42562,7 +42571,7 @@
         <v>2720146.73</v>
       </c>
     </row>
-    <row r="3793" spans="1:11">
+    <row r="3793" spans="1:2">
       <c r="A3793" t="s">
         <v>3796</v>
       </c>
@@ -42570,7 +42579,7 @@
         <v>2720146.73</v>
       </c>
     </row>
-    <row r="3794" spans="1:11">
+    <row r="3794" spans="1:2">
       <c r="A3794" t="s">
         <v>3797</v>
       </c>
@@ -42578,7 +42587,7 @@
         <v>2760224.75</v>
       </c>
     </row>
-    <row r="3795" spans="1:11">
+    <row r="3795" spans="1:2">
       <c r="A3795" t="s">
         <v>3798</v>
       </c>
@@ -42586,7 +42595,7 @@
         <v>2655232.54</v>
       </c>
     </row>
-    <row r="3796" spans="1:11">
+    <row r="3796" spans="1:2">
       <c r="A3796" t="s">
         <v>3799</v>
       </c>
@@ -42594,7 +42603,7 @@
         <v>2760083.73</v>
       </c>
     </row>
-    <row r="3797" spans="1:11">
+    <row r="3797" spans="1:2">
       <c r="A3797" t="s">
         <v>3800</v>
       </c>
@@ -42602,7 +42611,7 @@
         <v>2850074.64</v>
       </c>
     </row>
-    <row r="3798" spans="1:11">
+    <row r="3798" spans="1:2">
       <c r="A3798" t="s">
         <v>3801</v>
       </c>
@@ -42610,7 +42619,7 @@
         <v>2900823.01</v>
       </c>
     </row>
-    <row r="3799" spans="1:11">
+    <row r="3799" spans="1:2">
       <c r="A3799" t="s">
         <v>3802</v>
       </c>
@@ -42618,7 +42627,7 @@
         <v>2900823.01</v>
       </c>
     </row>
-    <row r="3800" spans="1:11">
+    <row r="3800" spans="1:2">
       <c r="A3800" t="s">
         <v>3803</v>
       </c>
@@ -42626,7 +42635,7 @@
         <v>2900823.01</v>
       </c>
     </row>
-    <row r="3801" spans="1:11">
+    <row r="3801" spans="1:2">
       <c r="A3801" t="s">
         <v>3804</v>
       </c>
@@ -42634,7 +42643,7 @@
         <v>2930013.24</v>
       </c>
     </row>
-    <row r="3802" spans="1:11">
+    <row r="3802" spans="1:2">
       <c r="A3802" t="s">
         <v>3805</v>
       </c>
@@ -42642,7 +42651,7 @@
         <v>2899538.81</v>
       </c>
     </row>
-    <row r="3803" spans="1:11">
+    <row r="3803" spans="1:2">
       <c r="A3803" t="s">
         <v>3806</v>
       </c>
@@ -42650,7 +42659,7 @@
         <v>2980311.68</v>
       </c>
     </row>
-    <row r="3804" spans="1:11">
+    <row r="3804" spans="1:2">
       <c r="A3804" t="s">
         <v>3807</v>
       </c>
@@ -42658,7 +42667,7 @@
         <v>2920823.21</v>
       </c>
     </row>
-    <row r="3805" spans="1:11">
+    <row r="3805" spans="1:2">
       <c r="A3805" t="s">
         <v>3808</v>
       </c>
@@ -42666,64 +42675,88 @@
         <v>2887384.04</v>
       </c>
     </row>
-    <row r="3806" spans="1:11">
+    <row r="3806" spans="1:2">
       <c r="A3806" t="s">
         <v>3809</v>
       </c>
       <c r="B3806">
         <v>2887384.04</v>
       </c>
-      <c r="D3806" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3806" s="3"/>
-      <c r="F3806" s="3"/>
-      <c r="G3806" s="3"/>
-      <c r="H3806" s="3"/>
-      <c r="I3806" s="3"/>
-      <c r="J3806" s="3"/>
-      <c r="K3806" s="3"/>
-    </row>
-    <row r="3807" spans="1:11">
+    </row>
+    <row r="3807" spans="1:2">
       <c r="A3807" t="s">
         <v>3810</v>
       </c>
       <c r="B3807">
         <v>2887384.04</v>
       </c>
-      <c r="D3807" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3807" s="4"/>
-      <c r="F3807" s="4"/>
-      <c r="G3807" s="4"/>
-      <c r="H3807" s="4"/>
-      <c r="I3807" s="4"/>
-      <c r="J3807" s="4"/>
-      <c r="K3807" s="4"/>
-    </row>
-    <row r="3808" spans="1:11">
+    </row>
+    <row r="3808" spans="1:2">
       <c r="A3808" t="s">
         <v>3811</v>
       </c>
       <c r="B3808">
         <v>2850102.81</v>
       </c>
-      <c r="D3808" s="4"/>
-      <c r="E3808" s="4"/>
-      <c r="F3808" s="4"/>
-      <c r="G3808" s="4"/>
-      <c r="H3808" s="4"/>
-      <c r="I3808" s="4"/>
-      <c r="J3808" s="4"/>
-      <c r="K3808" s="4"/>
+    </row>
+    <row r="3809" spans="1:11">
+      <c r="A3809" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B3809">
+        <v>2804482.66</v>
+      </c>
+      <c r="D3809" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3809" s="3"/>
+      <c r="F3809" s="3"/>
+      <c r="G3809" s="3"/>
+      <c r="H3809" s="3"/>
+      <c r="I3809" s="3"/>
+      <c r="J3809" s="3"/>
+      <c r="K3809" s="3"/>
+    </row>
+    <row r="3810" spans="1:11">
+      <c r="A3810" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B3810">
+        <v>2875489.65</v>
+      </c>
+      <c r="D3810" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3810" s="4"/>
+      <c r="F3810" s="4"/>
+      <c r="G3810" s="4"/>
+      <c r="H3810" s="4"/>
+      <c r="I3810" s="4"/>
+      <c r="J3810" s="4"/>
+      <c r="K3810" s="4"/>
+    </row>
+    <row r="3811" spans="1:11">
+      <c r="A3811" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B3811">
+        <v>3012481.82</v>
+      </c>
+      <c r="D3811" s="4"/>
+      <c r="E3811" s="4"/>
+      <c r="F3811" s="4"/>
+      <c r="G3811" s="4"/>
+      <c r="H3811" s="4"/>
+      <c r="I3811" s="4"/>
+      <c r="J3811" s="4"/>
+      <c r="K3811" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3806:K3806"/>
-    <mergeCell ref="D3807:K3808"/>
+    <mergeCell ref="D3809:K3809"/>
+    <mergeCell ref="D3810:K3811"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3817" uniqueCount="3815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="3820">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11459,6 +11459,21 @@
   </si>
   <si>
     <t>5-12-2021</t>
+  </si>
+  <si>
+    <t>5-13-2021</t>
+  </si>
+  <si>
+    <t>5-14-2021</t>
+  </si>
+  <si>
+    <t>5-15-2021</t>
+  </si>
+  <si>
+    <t>5-16-2021</t>
+  </si>
+  <si>
+    <t>5-17-2021</t>
   </si>
 </sst>
 </file>
@@ -11595,203 +11610,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3781:$A$3811</c:f>
+              <c:f>DolarToday!$A$3786:$A$3816</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-12-2021</c:v>
+                  <c:v>4-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-13-2021</c:v>
+                  <c:v>4-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-14-2021</c:v>
+                  <c:v>4-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-15-2021</c:v>
+                  <c:v>4-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-16-2021</c:v>
+                  <c:v>4-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-17-2021</c:v>
+                  <c:v>4-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-18-2021</c:v>
+                  <c:v>4-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-19-2021</c:v>
+                  <c:v>4-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-20-2021</c:v>
+                  <c:v>4-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-21-2021</c:v>
+                  <c:v>4-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-22-2021</c:v>
+                  <c:v>4-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-23-2021</c:v>
+                  <c:v>4-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-24-2021</c:v>
+                  <c:v>4-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-25-2021</c:v>
+                  <c:v>4-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4-26-2021</c:v>
+                  <c:v>5-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4-27-2021</c:v>
+                  <c:v>5-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4-28-2021</c:v>
+                  <c:v>5-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4-29-2021</c:v>
+                  <c:v>5-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4-30-2021</c:v>
+                  <c:v>5-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5-1-2021</c:v>
+                  <c:v>5-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5-2-2021</c:v>
+                  <c:v>5-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5-3-2021</c:v>
+                  <c:v>5-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5-4-2021</c:v>
+                  <c:v>5-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5-5-2021</c:v>
+                  <c:v>5-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5-6-2021</c:v>
+                  <c:v>5-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5-7-2021</c:v>
+                  <c:v>5-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5-8-2021</c:v>
+                  <c:v>5-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5-9-2021</c:v>
+                  <c:v>5-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5-10-2021</c:v>
+                  <c:v>5-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-11-2021</c:v>
+                  <c:v>5-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-12-2021</c:v>
+                  <c:v>5-17-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3781:$B$3811</c:f>
+              <c:f>DolarToday!$B$3786:$B$3816</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2369032.82</c:v>
+                  <c:v>2509032.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2370023.73</c:v>
+                  <c:v>2510539.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2500103.92</c:v>
+                  <c:v>2523903.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2550012.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2509032.82</c:v>
+                  <c:v>22570100.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2510539.71</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2523903.63</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2550012.9</c:v>
+                  <c:v>2760224.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22570100.88</c:v>
+                  <c:v>2655232.54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2760083.73</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2850074.64</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2760224.75</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2655232.54</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2760083.73</c:v>
+                  <c:v>2930013.24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2850074.64</c:v>
+                  <c:v>2899538.81</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2980311.68</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2920823.21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2930013.24</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2899538.81</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2980311.68</c:v>
+                  <c:v>2850102.81</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2920823.21</c:v>
+                  <c:v>2804482.66</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2887384.04</c:v>
+                  <c:v>2875489.65</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2887384.04</c:v>
+                  <c:v>3012481.82</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2887384.04</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2850102.81</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2804482.66</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2875489.65</c:v>
+                  <c:v>3007524.73</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3012481.82</c:v>
+                  <c:v>2976975.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12198,7 +12213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3811"/>
+  <dimension ref="A1:K3816"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42706,16 +42721,6 @@
       <c r="B3809">
         <v>2804482.66</v>
       </c>
-      <c r="D3809" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3809" s="3"/>
-      <c r="F3809" s="3"/>
-      <c r="G3809" s="3"/>
-      <c r="H3809" s="3"/>
-      <c r="I3809" s="3"/>
-      <c r="J3809" s="3"/>
-      <c r="K3809" s="3"/>
     </row>
     <row r="3810" spans="1:11">
       <c r="A3810" t="s">
@@ -42724,16 +42729,6 @@
       <c r="B3810">
         <v>2875489.65</v>
       </c>
-      <c r="D3810" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3810" s="4"/>
-      <c r="F3810" s="4"/>
-      <c r="G3810" s="4"/>
-      <c r="H3810" s="4"/>
-      <c r="I3810" s="4"/>
-      <c r="J3810" s="4"/>
-      <c r="K3810" s="4"/>
     </row>
     <row r="3811" spans="1:11">
       <c r="A3811" t="s">
@@ -42742,21 +42737,81 @@
       <c r="B3811">
         <v>3012481.82</v>
       </c>
-      <c r="D3811" s="4"/>
-      <c r="E3811" s="4"/>
-      <c r="F3811" s="4"/>
-      <c r="G3811" s="4"/>
-      <c r="H3811" s="4"/>
-      <c r="I3811" s="4"/>
-      <c r="J3811" s="4"/>
-      <c r="K3811" s="4"/>
+    </row>
+    <row r="3812" spans="1:11">
+      <c r="A3812" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B3812">
+        <v>3010980.42</v>
+      </c>
+    </row>
+    <row r="3813" spans="1:11">
+      <c r="A3813" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B3813">
+        <v>3010980.42</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:11">
+      <c r="A3814" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B3814">
+        <v>3010980.42</v>
+      </c>
+      <c r="D3814" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3814" s="3"/>
+      <c r="F3814" s="3"/>
+      <c r="G3814" s="3"/>
+      <c r="H3814" s="3"/>
+      <c r="I3814" s="3"/>
+      <c r="J3814" s="3"/>
+      <c r="K3814" s="3"/>
+    </row>
+    <row r="3815" spans="1:11">
+      <c r="A3815" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B3815">
+        <v>3007524.73</v>
+      </c>
+      <c r="D3815" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3815" s="4"/>
+      <c r="F3815" s="4"/>
+      <c r="G3815" s="4"/>
+      <c r="H3815" s="4"/>
+      <c r="I3815" s="4"/>
+      <c r="J3815" s="4"/>
+      <c r="K3815" s="4"/>
+    </row>
+    <row r="3816" spans="1:11">
+      <c r="A3816" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B3816">
+        <v>2976975.66</v>
+      </c>
+      <c r="D3816" s="4"/>
+      <c r="E3816" s="4"/>
+      <c r="F3816" s="4"/>
+      <c r="G3816" s="4"/>
+      <c r="H3816" s="4"/>
+      <c r="I3816" s="4"/>
+      <c r="J3816" s="4"/>
+      <c r="K3816" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3809:K3809"/>
-    <mergeCell ref="D3810:K3811"/>
+    <mergeCell ref="D3814:K3814"/>
+    <mergeCell ref="D3815:K3816"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="3820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="3822">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11474,6 +11474,12 @@
   </si>
   <si>
     <t>5-17-2021</t>
+  </si>
+  <si>
+    <t>5-18-2021</t>
+  </si>
+  <si>
+    <t>5-19-2021</t>
   </si>
 </sst>
 </file>
@@ -11610,203 +11616,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3786:$A$3816</c:f>
+              <c:f>DolarToday!$A$3788:$A$3818</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-17-2021</c:v>
+                  <c:v>4-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-18-2021</c:v>
+                  <c:v>4-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-19-2021</c:v>
+                  <c:v>4-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-20-2021</c:v>
+                  <c:v>4-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-21-2021</c:v>
+                  <c:v>4-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-22-2021</c:v>
+                  <c:v>4-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-23-2021</c:v>
+                  <c:v>4-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-24-2021</c:v>
+                  <c:v>4-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-25-2021</c:v>
+                  <c:v>4-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-26-2021</c:v>
+                  <c:v>4-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-27-2021</c:v>
+                  <c:v>4-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-28-2021</c:v>
+                  <c:v>4-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4-29-2021</c:v>
+                  <c:v>5-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4-30-2021</c:v>
+                  <c:v>5-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5-1-2021</c:v>
+                  <c:v>5-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5-2-2021</c:v>
+                  <c:v>5-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5-3-2021</c:v>
+                  <c:v>5-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5-4-2021</c:v>
+                  <c:v>5-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5-5-2021</c:v>
+                  <c:v>5-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5-6-2021</c:v>
+                  <c:v>5-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5-7-2021</c:v>
+                  <c:v>5-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5-8-2021</c:v>
+                  <c:v>5-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5-9-2021</c:v>
+                  <c:v>5-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5-10-2021</c:v>
+                  <c:v>5-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5-11-2021</c:v>
+                  <c:v>5-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5-12-2021</c:v>
+                  <c:v>5-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5-13-2021</c:v>
+                  <c:v>5-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5-14-2021</c:v>
+                  <c:v>5-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5-15-2021</c:v>
+                  <c:v>5-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-16-2021</c:v>
+                  <c:v>5-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-17-2021</c:v>
+                  <c:v>5-19-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3786:$B$3816</c:f>
+              <c:f>DolarToday!$B$3788:$B$3818</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2509032.82</c:v>
+                  <c:v>2523903.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2510539.71</c:v>
+                  <c:v>2550012.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2523903.63</c:v>
+                  <c:v>22570100.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2550012.9</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22570100.88</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2760224.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2655232.54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2760224.75</c:v>
+                  <c:v>2760083.73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2655232.54</c:v>
+                  <c:v>2850074.64</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2760083.73</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2850074.64</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2930013.24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2899538.81</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2930013.24</c:v>
+                  <c:v>2980311.68</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2899538.81</c:v>
+                  <c:v>2920823.21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2980311.68</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2920823.21</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2887384.04</c:v>
+                  <c:v>2850102.81</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2887384.04</c:v>
+                  <c:v>2804482.66</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2850102.81</c:v>
+                  <c:v>2875489.65</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2804482.66</c:v>
+                  <c:v>3012481.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2875489.65</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3012481.82</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3010980.42</c:v>
+                  <c:v>3007524.73</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3010980.42</c:v>
+                  <c:v>2976975.66</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3007524.73</c:v>
+                  <c:v>3150271.9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2976975.66</c:v>
+                  <c:v>3103582.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12213,7 +12219,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3816"/>
+  <dimension ref="A1:K3818"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42761,16 +42767,6 @@
       <c r="B3814">
         <v>3010980.42</v>
       </c>
-      <c r="D3814" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3814" s="3"/>
-      <c r="F3814" s="3"/>
-      <c r="G3814" s="3"/>
-      <c r="H3814" s="3"/>
-      <c r="I3814" s="3"/>
-      <c r="J3814" s="3"/>
-      <c r="K3814" s="3"/>
     </row>
     <row r="3815" spans="1:11">
       <c r="A3815" t="s">
@@ -42779,16 +42775,6 @@
       <c r="B3815">
         <v>3007524.73</v>
       </c>
-      <c r="D3815" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3815" s="4"/>
-      <c r="F3815" s="4"/>
-      <c r="G3815" s="4"/>
-      <c r="H3815" s="4"/>
-      <c r="I3815" s="4"/>
-      <c r="J3815" s="4"/>
-      <c r="K3815" s="4"/>
     </row>
     <row r="3816" spans="1:11">
       <c r="A3816" t="s">
@@ -42797,21 +42783,57 @@
       <c r="B3816">
         <v>2976975.66</v>
       </c>
-      <c r="D3816" s="4"/>
-      <c r="E3816" s="4"/>
-      <c r="F3816" s="4"/>
-      <c r="G3816" s="4"/>
-      <c r="H3816" s="4"/>
-      <c r="I3816" s="4"/>
-      <c r="J3816" s="4"/>
-      <c r="K3816" s="4"/>
+      <c r="D3816" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3816" s="3"/>
+      <c r="F3816" s="3"/>
+      <c r="G3816" s="3"/>
+      <c r="H3816" s="3"/>
+      <c r="I3816" s="3"/>
+      <c r="J3816" s="3"/>
+      <c r="K3816" s="3"/>
+    </row>
+    <row r="3817" spans="1:11">
+      <c r="A3817" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B3817">
+        <v>3150271.9</v>
+      </c>
+      <c r="D3817" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3817" s="4"/>
+      <c r="F3817" s="4"/>
+      <c r="G3817" s="4"/>
+      <c r="H3817" s="4"/>
+      <c r="I3817" s="4"/>
+      <c r="J3817" s="4"/>
+      <c r="K3817" s="4"/>
+    </row>
+    <row r="3818" spans="1:11">
+      <c r="A3818" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B3818">
+        <v>3103582.42</v>
+      </c>
+      <c r="D3818" s="4"/>
+      <c r="E3818" s="4"/>
+      <c r="F3818" s="4"/>
+      <c r="G3818" s="4"/>
+      <c r="H3818" s="4"/>
+      <c r="I3818" s="4"/>
+      <c r="J3818" s="4"/>
+      <c r="K3818" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3814:K3814"/>
-    <mergeCell ref="D3815:K3816"/>
+    <mergeCell ref="D3816:K3816"/>
+    <mergeCell ref="D3817:K3818"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="3822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="3826">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11480,6 +11480,18 @@
   </si>
   <si>
     <t>5-19-2021</t>
+  </si>
+  <si>
+    <t>5-20-2021</t>
+  </si>
+  <si>
+    <t>5-21-2021</t>
+  </si>
+  <si>
+    <t>5-22-2021</t>
+  </si>
+  <si>
+    <t>5-23-2021</t>
   </si>
 </sst>
 </file>
@@ -11616,203 +11628,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3788:$A$3818</c:f>
+              <c:f>DolarToday!$A$3792:$A$3822</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-19-2021</c:v>
+                  <c:v>4-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-20-2021</c:v>
+                  <c:v>4-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-21-2021</c:v>
+                  <c:v>4-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-22-2021</c:v>
+                  <c:v>4-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-23-2021</c:v>
+                  <c:v>4-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-24-2021</c:v>
+                  <c:v>4-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-25-2021</c:v>
+                  <c:v>4-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-26-2021</c:v>
+                  <c:v>4-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4-27-2021</c:v>
+                  <c:v>5-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4-28-2021</c:v>
+                  <c:v>5-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4-29-2021</c:v>
+                  <c:v>5-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4-30-2021</c:v>
+                  <c:v>5-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5-1-2021</c:v>
+                  <c:v>5-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5-2-2021</c:v>
+                  <c:v>5-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5-3-2021</c:v>
+                  <c:v>5-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5-4-2021</c:v>
+                  <c:v>5-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5-5-2021</c:v>
+                  <c:v>5-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5-6-2021</c:v>
+                  <c:v>5-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5-7-2021</c:v>
+                  <c:v>5-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5-8-2021</c:v>
+                  <c:v>5-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5-9-2021</c:v>
+                  <c:v>5-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5-10-2021</c:v>
+                  <c:v>5-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5-11-2021</c:v>
+                  <c:v>5-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5-12-2021</c:v>
+                  <c:v>5-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5-13-2021</c:v>
+                  <c:v>5-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5-14-2021</c:v>
+                  <c:v>5-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5-15-2021</c:v>
+                  <c:v>5-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5-16-2021</c:v>
+                  <c:v>5-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5-17-2021</c:v>
+                  <c:v>5-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-18-2021</c:v>
+                  <c:v>5-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-19-2021</c:v>
+                  <c:v>5-23-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3788:$B$3818</c:f>
+              <c:f>DolarToday!$B$3792:$B$3822</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2523903.63</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2550012.9</c:v>
+                  <c:v>2720146.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22570100.88</c:v>
+                  <c:v>2760224.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2655232.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2760083.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2850074.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2760224.75</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2655232.54</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2760083.73</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2850074.64</c:v>
+                  <c:v>2930013.24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2899538.81</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2980311.68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2920823.21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2930013.24</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2899538.81</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2980311.68</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2920823.21</c:v>
+                  <c:v>2850102.81</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2887384.04</c:v>
+                  <c:v>2804482.66</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2887384.04</c:v>
+                  <c:v>2875489.65</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2887384.04</c:v>
+                  <c:v>3012481.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2850102.81</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2804482.66</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2875489.65</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3012481.82</c:v>
+                  <c:v>3007524.73</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3010980.42</c:v>
+                  <c:v>2976975.66</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3010980.42</c:v>
+                  <c:v>3150271.9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3010980.42</c:v>
+                  <c:v>3103582.42</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3007524.73</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2976975.66</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3150271.9</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3103582.42</c:v>
+                  <c:v>3146121.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12219,7 +12231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3818"/>
+  <dimension ref="A1:K3822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42783,16 +42795,6 @@
       <c r="B3816">
         <v>2976975.66</v>
       </c>
-      <c r="D3816" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3816" s="3"/>
-      <c r="F3816" s="3"/>
-      <c r="G3816" s="3"/>
-      <c r="H3816" s="3"/>
-      <c r="I3816" s="3"/>
-      <c r="J3816" s="3"/>
-      <c r="K3816" s="3"/>
     </row>
     <row r="3817" spans="1:11">
       <c r="A3817" t="s">
@@ -42801,16 +42803,6 @@
       <c r="B3817">
         <v>3150271.9</v>
       </c>
-      <c r="D3817" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3817" s="4"/>
-      <c r="F3817" s="4"/>
-      <c r="G3817" s="4"/>
-      <c r="H3817" s="4"/>
-      <c r="I3817" s="4"/>
-      <c r="J3817" s="4"/>
-      <c r="K3817" s="4"/>
     </row>
     <row r="3818" spans="1:11">
       <c r="A3818" t="s">
@@ -42819,21 +42811,73 @@
       <c r="B3818">
         <v>3103582.42</v>
       </c>
-      <c r="D3818" s="4"/>
-      <c r="E3818" s="4"/>
-      <c r="F3818" s="4"/>
-      <c r="G3818" s="4"/>
-      <c r="H3818" s="4"/>
-      <c r="I3818" s="4"/>
-      <c r="J3818" s="4"/>
-      <c r="K3818" s="4"/>
+    </row>
+    <row r="3819" spans="1:11">
+      <c r="A3819" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B3819">
+        <v>3150602.82</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:11">
+      <c r="A3820" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B3820">
+        <v>3150602.82</v>
+      </c>
+      <c r="D3820" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3820" s="3"/>
+      <c r="F3820" s="3"/>
+      <c r="G3820" s="3"/>
+      <c r="H3820" s="3"/>
+      <c r="I3820" s="3"/>
+      <c r="J3820" s="3"/>
+      <c r="K3820" s="3"/>
+    </row>
+    <row r="3821" spans="1:11">
+      <c r="A3821" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B3821">
+        <v>3150602.82</v>
+      </c>
+      <c r="D3821" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3821" s="4"/>
+      <c r="F3821" s="4"/>
+      <c r="G3821" s="4"/>
+      <c r="H3821" s="4"/>
+      <c r="I3821" s="4"/>
+      <c r="J3821" s="4"/>
+      <c r="K3821" s="4"/>
+    </row>
+    <row r="3822" spans="1:11">
+      <c r="A3822" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B3822">
+        <v>3146121.68</v>
+      </c>
+      <c r="D3822" s="4"/>
+      <c r="E3822" s="4"/>
+      <c r="F3822" s="4"/>
+      <c r="G3822" s="4"/>
+      <c r="H3822" s="4"/>
+      <c r="I3822" s="4"/>
+      <c r="J3822" s="4"/>
+      <c r="K3822" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3816:K3816"/>
-    <mergeCell ref="D3817:K3818"/>
+    <mergeCell ref="D3820:K3820"/>
+    <mergeCell ref="D3821:K3822"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="3826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3834" uniqueCount="3832">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11492,6 +11492,24 @@
   </si>
   <si>
     <t>5-23-2021</t>
+  </si>
+  <si>
+    <t>5-24-2021</t>
+  </si>
+  <si>
+    <t>5-25-2021</t>
+  </si>
+  <si>
+    <t>5-26-2021</t>
+  </si>
+  <si>
+    <t>5-27-2021</t>
+  </si>
+  <si>
+    <t>5-28-2021</t>
+  </si>
+  <si>
+    <t>5-29-2021</t>
   </si>
 </sst>
 </file>
@@ -11628,203 +11646,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3792:$A$3822</c:f>
+              <c:f>DolarToday!$A$3798:$A$3828</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-23-2021</c:v>
+                  <c:v>4-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-24-2021</c:v>
+                  <c:v>4-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-25-2021</c:v>
+                  <c:v>5-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4-26-2021</c:v>
+                  <c:v>5-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4-27-2021</c:v>
+                  <c:v>5-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4-28-2021</c:v>
+                  <c:v>5-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4-29-2021</c:v>
+                  <c:v>5-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4-30-2021</c:v>
+                  <c:v>5-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5-1-2021</c:v>
+                  <c:v>5-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5-2-2021</c:v>
+                  <c:v>5-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5-3-2021</c:v>
+                  <c:v>5-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5-4-2021</c:v>
+                  <c:v>5-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5-5-2021</c:v>
+                  <c:v>5-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5-6-2021</c:v>
+                  <c:v>5-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5-7-2021</c:v>
+                  <c:v>5-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5-8-2021</c:v>
+                  <c:v>5-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5-9-2021</c:v>
+                  <c:v>5-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5-10-2021</c:v>
+                  <c:v>5-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5-11-2021</c:v>
+                  <c:v>5-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5-12-2021</c:v>
+                  <c:v>5-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5-13-2021</c:v>
+                  <c:v>5-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5-14-2021</c:v>
+                  <c:v>5-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5-15-2021</c:v>
+                  <c:v>5-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5-16-2021</c:v>
+                  <c:v>5-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5-17-2021</c:v>
+                  <c:v>5-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5-18-2021</c:v>
+                  <c:v>5-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5-19-2021</c:v>
+                  <c:v>5-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5-20-2021</c:v>
+                  <c:v>5-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5-21-2021</c:v>
+                  <c:v>5-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-22-2021</c:v>
+                  <c:v>5-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-23-2021</c:v>
+                  <c:v>5-29-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3792:$B$3822</c:f>
+              <c:f>DolarToday!$B$3798:$B$3828</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2720146.73</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2760224.75</c:v>
+                  <c:v>2900823.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2655232.54</c:v>
+                  <c:v>2930013.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2760083.73</c:v>
+                  <c:v>2899538.81</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2850074.64</c:v>
+                  <c:v>2980311.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2920823.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2930013.24</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2899538.81</c:v>
+                  <c:v>2850102.81</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2980311.68</c:v>
+                  <c:v>2804482.66</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2920823.21</c:v>
+                  <c:v>2875489.65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2887384.04</c:v>
+                  <c:v>3012481.82</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2887384.04</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2887384.04</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2850102.81</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2804482.66</c:v>
+                  <c:v>3007524.73</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2875489.65</c:v>
+                  <c:v>2976975.66</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3012481.82</c:v>
+                  <c:v>3150271.9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3010980.42</c:v>
+                  <c:v>3103582.42</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3010980.42</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3010980.42</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3007524.73</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2976975.66</c:v>
+                  <c:v>3146121.68</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3150271.9</c:v>
+                  <c:v>3148023.77</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3103582.42</c:v>
+                  <c:v>3080236.05</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3071321.77</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3146121.68</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12231,7 +12249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3822"/>
+  <dimension ref="A1:K3828"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42732,7 +42750,7 @@
         <v>2850102.81</v>
       </c>
     </row>
-    <row r="3809" spans="1:11">
+    <row r="3809" spans="1:2">
       <c r="A3809" t="s">
         <v>3812</v>
       </c>
@@ -42740,7 +42758,7 @@
         <v>2804482.66</v>
       </c>
     </row>
-    <row r="3810" spans="1:11">
+    <row r="3810" spans="1:2">
       <c r="A3810" t="s">
         <v>3813</v>
       </c>
@@ -42748,7 +42766,7 @@
         <v>2875489.65</v>
       </c>
     </row>
-    <row r="3811" spans="1:11">
+    <row r="3811" spans="1:2">
       <c r="A3811" t="s">
         <v>3814</v>
       </c>
@@ -42756,7 +42774,7 @@
         <v>3012481.82</v>
       </c>
     </row>
-    <row r="3812" spans="1:11">
+    <row r="3812" spans="1:2">
       <c r="A3812" t="s">
         <v>3815</v>
       </c>
@@ -42764,7 +42782,7 @@
         <v>3010980.42</v>
       </c>
     </row>
-    <row r="3813" spans="1:11">
+    <row r="3813" spans="1:2">
       <c r="A3813" t="s">
         <v>3816</v>
       </c>
@@ -42772,7 +42790,7 @@
         <v>3010980.42</v>
       </c>
     </row>
-    <row r="3814" spans="1:11">
+    <row r="3814" spans="1:2">
       <c r="A3814" t="s">
         <v>3817</v>
       </c>
@@ -42780,7 +42798,7 @@
         <v>3010980.42</v>
       </c>
     </row>
-    <row r="3815" spans="1:11">
+    <row r="3815" spans="1:2">
       <c r="A3815" t="s">
         <v>3818</v>
       </c>
@@ -42788,7 +42806,7 @@
         <v>3007524.73</v>
       </c>
     </row>
-    <row r="3816" spans="1:11">
+    <row r="3816" spans="1:2">
       <c r="A3816" t="s">
         <v>3819</v>
       </c>
@@ -42796,7 +42814,7 @@
         <v>2976975.66</v>
       </c>
     </row>
-    <row r="3817" spans="1:11">
+    <row r="3817" spans="1:2">
       <c r="A3817" t="s">
         <v>3820</v>
       </c>
@@ -42804,7 +42822,7 @@
         <v>3150271.9</v>
       </c>
     </row>
-    <row r="3818" spans="1:11">
+    <row r="3818" spans="1:2">
       <c r="A3818" t="s">
         <v>3821</v>
       </c>
@@ -42812,7 +42830,7 @@
         <v>3103582.42</v>
       </c>
     </row>
-    <row r="3819" spans="1:11">
+    <row r="3819" spans="1:2">
       <c r="A3819" t="s">
         <v>3822</v>
       </c>
@@ -42820,64 +42838,112 @@
         <v>3150602.82</v>
       </c>
     </row>
-    <row r="3820" spans="1:11">
+    <row r="3820" spans="1:2">
       <c r="A3820" t="s">
         <v>3823</v>
       </c>
       <c r="B3820">
         <v>3150602.82</v>
       </c>
-      <c r="D3820" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3820" s="3"/>
-      <c r="F3820" s="3"/>
-      <c r="G3820" s="3"/>
-      <c r="H3820" s="3"/>
-      <c r="I3820" s="3"/>
-      <c r="J3820" s="3"/>
-      <c r="K3820" s="3"/>
-    </row>
-    <row r="3821" spans="1:11">
+    </row>
+    <row r="3821" spans="1:2">
       <c r="A3821" t="s">
         <v>3824</v>
       </c>
       <c r="B3821">
         <v>3150602.82</v>
       </c>
-      <c r="D3821" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3821" s="4"/>
-      <c r="F3821" s="4"/>
-      <c r="G3821" s="4"/>
-      <c r="H3821" s="4"/>
-      <c r="I3821" s="4"/>
-      <c r="J3821" s="4"/>
-      <c r="K3821" s="4"/>
-    </row>
-    <row r="3822" spans="1:11">
+    </row>
+    <row r="3822" spans="1:2">
       <c r="A3822" t="s">
         <v>3825</v>
       </c>
       <c r="B3822">
         <v>3146121.68</v>
       </c>
-      <c r="D3822" s="4"/>
-      <c r="E3822" s="4"/>
-      <c r="F3822" s="4"/>
-      <c r="G3822" s="4"/>
-      <c r="H3822" s="4"/>
-      <c r="I3822" s="4"/>
-      <c r="J3822" s="4"/>
-      <c r="K3822" s="4"/>
+    </row>
+    <row r="3823" spans="1:2">
+      <c r="A3823" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B3823">
+        <v>3148023.77</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:2">
+      <c r="A3824" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B3824">
+        <v>3080236.05</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:11">
+      <c r="A3825" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B3825">
+        <v>3071321.77</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:11">
+      <c r="A3826" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B3826">
+        <v>3207042.87</v>
+      </c>
+      <c r="D3826" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3826" s="3"/>
+      <c r="F3826" s="3"/>
+      <c r="G3826" s="3"/>
+      <c r="H3826" s="3"/>
+      <c r="I3826" s="3"/>
+      <c r="J3826" s="3"/>
+      <c r="K3826" s="3"/>
+    </row>
+    <row r="3827" spans="1:11">
+      <c r="A3827" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3827">
+        <v>3207042.87</v>
+      </c>
+      <c r="D3827" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3827" s="4"/>
+      <c r="F3827" s="4"/>
+      <c r="G3827" s="4"/>
+      <c r="H3827" s="4"/>
+      <c r="I3827" s="4"/>
+      <c r="J3827" s="4"/>
+      <c r="K3827" s="4"/>
+    </row>
+    <row r="3828" spans="1:11">
+      <c r="A3828" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B3828">
+        <v>3207042.87</v>
+      </c>
+      <c r="D3828" s="4"/>
+      <c r="E3828" s="4"/>
+      <c r="F3828" s="4"/>
+      <c r="G3828" s="4"/>
+      <c r="H3828" s="4"/>
+      <c r="I3828" s="4"/>
+      <c r="J3828" s="4"/>
+      <c r="K3828" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3820:K3820"/>
-    <mergeCell ref="D3821:K3822"/>
+    <mergeCell ref="D3826:K3826"/>
+    <mergeCell ref="D3827:K3828"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3834" uniqueCount="3832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="3841">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11510,6 +11510,33 @@
   </si>
   <si>
     <t>5-29-2021</t>
+  </si>
+  <si>
+    <t>5-30-2021</t>
+  </si>
+  <si>
+    <t>5-31-2021</t>
+  </si>
+  <si>
+    <t>6-1-2021</t>
+  </si>
+  <si>
+    <t>6-2-2021</t>
+  </si>
+  <si>
+    <t>6-3-2021</t>
+  </si>
+  <si>
+    <t>6-5-2021</t>
+  </si>
+  <si>
+    <t>6-6-2021</t>
+  </si>
+  <si>
+    <t>6-7-2021</t>
+  </si>
+  <si>
+    <t>6-8-2021</t>
   </si>
 </sst>
 </file>
@@ -11646,203 +11673,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3798:$A$3828</c:f>
+              <c:f>DolarToday!$A$3807:$A$3837</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4-29-2021</c:v>
+                  <c:v>5-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4-30-2021</c:v>
+                  <c:v>5-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5-1-2021</c:v>
+                  <c:v>5-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5-2-2021</c:v>
+                  <c:v>5-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5-3-2021</c:v>
+                  <c:v>5-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5-4-2021</c:v>
+                  <c:v>5-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5-5-2021</c:v>
+                  <c:v>5-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5-6-2021</c:v>
+                  <c:v>5-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5-7-2021</c:v>
+                  <c:v>5-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5-8-2021</c:v>
+                  <c:v>5-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5-9-2021</c:v>
+                  <c:v>5-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5-10-2021</c:v>
+                  <c:v>5-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5-11-2021</c:v>
+                  <c:v>5-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5-12-2021</c:v>
+                  <c:v>5-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5-13-2021</c:v>
+                  <c:v>5-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5-14-2021</c:v>
+                  <c:v>5-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5-15-2021</c:v>
+                  <c:v>5-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5-16-2021</c:v>
+                  <c:v>5-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5-17-2021</c:v>
+                  <c:v>5-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5-18-2021</c:v>
+                  <c:v>5-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5-19-2021</c:v>
+                  <c:v>5-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5-20-2021</c:v>
+                  <c:v>5-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5-21-2021</c:v>
+                  <c:v>5-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5-22-2021</c:v>
+                  <c:v>5-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5-23-2021</c:v>
+                  <c:v>6-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5-24-2021</c:v>
+                  <c:v>6-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5-25-2021</c:v>
+                  <c:v>6-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5-26-2021</c:v>
+                  <c:v>6-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5-27-2021</c:v>
+                  <c:v>6-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5-28-2021</c:v>
+                  <c:v>6-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5-29-2021</c:v>
+                  <c:v>6-8-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3798:$B$3828</c:f>
+              <c:f>DolarToday!$B$3807:$B$3837</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2887384.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2850102.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2900823.01</c:v>
+                  <c:v>2804482.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2930013.24</c:v>
+                  <c:v>2875489.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2899538.81</c:v>
+                  <c:v>3012481.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2980311.68</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2920823.21</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2887384.04</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2887384.04</c:v>
+                  <c:v>3007524.73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2887384.04</c:v>
+                  <c:v>2976975.66</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2850102.81</c:v>
+                  <c:v>3150271.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2804482.66</c:v>
+                  <c:v>3103582.42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2875489.65</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3012481.82</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3010980.42</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3010980.42</c:v>
+                  <c:v>3146121.68</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3010980.42</c:v>
+                  <c:v>3148023.77</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3007524.73</c:v>
+                  <c:v>3080236.05</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2976975.66</c:v>
+                  <c:v>3071321.77</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3150271.9</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3103582.42</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3143738.91</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3120313.06</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3146121.68</c:v>
+                  <c:v>3100829.52</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3148023.77</c:v>
+                  <c:v>3125043.85</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3080236.05</c:v>
+                  <c:v>3129771.64</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3071321.77</c:v>
+                  <c:v>3129771.64</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3145829.53</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3150002.57</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3148923.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12249,7 +12276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3828"/>
+  <dimension ref="A1:K3837"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42893,16 +42920,6 @@
       <c r="B3826">
         <v>3207042.87</v>
       </c>
-      <c r="D3826" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3826" s="3"/>
-      <c r="F3826" s="3"/>
-      <c r="G3826" s="3"/>
-      <c r="H3826" s="3"/>
-      <c r="I3826" s="3"/>
-      <c r="J3826" s="3"/>
-      <c r="K3826" s="3"/>
     </row>
     <row r="3827" spans="1:11">
       <c r="A3827" t="s">
@@ -42911,16 +42928,6 @@
       <c r="B3827">
         <v>3207042.87</v>
       </c>
-      <c r="D3827" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3827" s="4"/>
-      <c r="F3827" s="4"/>
-      <c r="G3827" s="4"/>
-      <c r="H3827" s="4"/>
-      <c r="I3827" s="4"/>
-      <c r="J3827" s="4"/>
-      <c r="K3827" s="4"/>
     </row>
     <row r="3828" spans="1:11">
       <c r="A3828" t="s">
@@ -42929,21 +42936,113 @@
       <c r="B3828">
         <v>3207042.87</v>
       </c>
-      <c r="D3828" s="4"/>
-      <c r="E3828" s="4"/>
-      <c r="F3828" s="4"/>
-      <c r="G3828" s="4"/>
-      <c r="H3828" s="4"/>
-      <c r="I3828" s="4"/>
-      <c r="J3828" s="4"/>
-      <c r="K3828" s="4"/>
+    </row>
+    <row r="3829" spans="1:11">
+      <c r="A3829" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B3829">
+        <v>3143738.91</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:11">
+      <c r="A3830" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B3830">
+        <v>3120313.06</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:11">
+      <c r="A3831" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B3831">
+        <v>3100829.52</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:11">
+      <c r="A3832" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B3832">
+        <v>3125043.85</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:11">
+      <c r="A3833" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B3833">
+        <v>3129771.64</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:11">
+      <c r="A3834" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B3834">
+        <v>3129771.64</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:11">
+      <c r="A3835" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B3835">
+        <v>3145829.53</v>
+      </c>
+      <c r="D3835" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3835" s="3"/>
+      <c r="F3835" s="3"/>
+      <c r="G3835" s="3"/>
+      <c r="H3835" s="3"/>
+      <c r="I3835" s="3"/>
+      <c r="J3835" s="3"/>
+      <c r="K3835" s="3"/>
+    </row>
+    <row r="3836" spans="1:11">
+      <c r="A3836" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B3836">
+        <v>3150002.57</v>
+      </c>
+      <c r="D3836" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3836" s="4"/>
+      <c r="F3836" s="4"/>
+      <c r="G3836" s="4"/>
+      <c r="H3836" s="4"/>
+      <c r="I3836" s="4"/>
+      <c r="J3836" s="4"/>
+      <c r="K3836" s="4"/>
+    </row>
+    <row r="3837" spans="1:11">
+      <c r="A3837" t="s">
+        <v>3840</v>
+      </c>
+      <c r="B3837">
+        <v>3148923.03</v>
+      </c>
+      <c r="D3837" s="4"/>
+      <c r="E3837" s="4"/>
+      <c r="F3837" s="4"/>
+      <c r="G3837" s="4"/>
+      <c r="H3837" s="4"/>
+      <c r="I3837" s="4"/>
+      <c r="J3837" s="4"/>
+      <c r="K3837" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3826:K3826"/>
-    <mergeCell ref="D3827:K3828"/>
+    <mergeCell ref="D3835:K3835"/>
+    <mergeCell ref="D3836:K3837"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="3841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="3846">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11537,6 +11537,21 @@
   </si>
   <si>
     <t>6-8-2021</t>
+  </si>
+  <si>
+    <t>6-9-2021</t>
+  </si>
+  <si>
+    <t>6-10-2021</t>
+  </si>
+  <si>
+    <t>6-11-2021</t>
+  </si>
+  <si>
+    <t>6-12-2021</t>
+  </si>
+  <si>
+    <t>6-13-2021</t>
   </si>
 </sst>
 </file>
@@ -11673,203 +11688,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3807:$A$3837</c:f>
+              <c:f>DolarToday!$A$3812:$A$3842</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>5-8-2021</c:v>
+                  <c:v>5-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5-9-2021</c:v>
+                  <c:v>5-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5-10-2021</c:v>
+                  <c:v>5-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5-11-2021</c:v>
+                  <c:v>5-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5-12-2021</c:v>
+                  <c:v>5-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5-13-2021</c:v>
+                  <c:v>5-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5-14-2021</c:v>
+                  <c:v>5-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5-15-2021</c:v>
+                  <c:v>5-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5-16-2021</c:v>
+                  <c:v>5-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5-17-2021</c:v>
+                  <c:v>5-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5-18-2021</c:v>
+                  <c:v>5-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5-19-2021</c:v>
+                  <c:v>5-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5-20-2021</c:v>
+                  <c:v>5-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5-21-2021</c:v>
+                  <c:v>5-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5-22-2021</c:v>
+                  <c:v>5-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5-23-2021</c:v>
+                  <c:v>5-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5-24-2021</c:v>
+                  <c:v>5-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5-25-2021</c:v>
+                  <c:v>5-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5-26-2021</c:v>
+                  <c:v>5-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5-27-2021</c:v>
+                  <c:v>6-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5-28-2021</c:v>
+                  <c:v>6-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5-29-2021</c:v>
+                  <c:v>6-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5-30-2021</c:v>
+                  <c:v>6-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5-31-2021</c:v>
+                  <c:v>6-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6-1-2021</c:v>
+                  <c:v>6-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6-2-2021</c:v>
+                  <c:v>6-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6-3-2021</c:v>
+                  <c:v>6-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6-5-2021</c:v>
+                  <c:v>6-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6-6-2021</c:v>
+                  <c:v>6-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6-7-2021</c:v>
+                  <c:v>6-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6-8-2021</c:v>
+                  <c:v>6-13-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3807:$B$3837</c:f>
+              <c:f>DolarToday!$B$3812:$B$3842</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2887384.04</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2850102.81</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2804482.66</c:v>
+                  <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2875489.65</c:v>
+                  <c:v>3007524.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3012481.82</c:v>
+                  <c:v>2976975.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3010980.42</c:v>
+                  <c:v>3150271.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3010980.42</c:v>
+                  <c:v>3103582.42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3010980.42</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3007524.73</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2976975.66</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3150271.9</c:v>
+                  <c:v>3146121.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3103582.42</c:v>
+                  <c:v>3148023.77</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3080236.05</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3071321.77</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3146121.68</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3148023.77</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3080236.05</c:v>
+                  <c:v>3143738.91</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3071321.77</c:v>
+                  <c:v>3120313.06</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3100829.52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3125043.85</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3129771.64</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3143738.91</c:v>
+                  <c:v>3129771.64</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3120313.06</c:v>
+                  <c:v>3145829.53</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3100829.52</c:v>
+                  <c:v>3150002.57</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3125043.85</c:v>
+                  <c:v>3148923.03</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3129771.64</c:v>
+                  <c:v>2151829.94</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3129771.64</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3145829.53</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3150002.57</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3148923.03</c:v>
+                  <c:v>3100824.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12276,7 +12291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3837"/>
+  <dimension ref="A1:K3842"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42992,16 +43007,6 @@
       <c r="B3835">
         <v>3145829.53</v>
       </c>
-      <c r="D3835" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3835" s="3"/>
-      <c r="F3835" s="3"/>
-      <c r="G3835" s="3"/>
-      <c r="H3835" s="3"/>
-      <c r="I3835" s="3"/>
-      <c r="J3835" s="3"/>
-      <c r="K3835" s="3"/>
     </row>
     <row r="3836" spans="1:11">
       <c r="A3836" t="s">
@@ -43010,16 +43015,6 @@
       <c r="B3836">
         <v>3150002.57</v>
       </c>
-      <c r="D3836" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3836" s="4"/>
-      <c r="F3836" s="4"/>
-      <c r="G3836" s="4"/>
-      <c r="H3836" s="4"/>
-      <c r="I3836" s="4"/>
-      <c r="J3836" s="4"/>
-      <c r="K3836" s="4"/>
     </row>
     <row r="3837" spans="1:11">
       <c r="A3837" t="s">
@@ -43028,21 +43023,81 @@
       <c r="B3837">
         <v>3148923.03</v>
       </c>
-      <c r="D3837" s="4"/>
-      <c r="E3837" s="4"/>
-      <c r="F3837" s="4"/>
-      <c r="G3837" s="4"/>
-      <c r="H3837" s="4"/>
-      <c r="I3837" s="4"/>
-      <c r="J3837" s="4"/>
-      <c r="K3837" s="4"/>
+    </row>
+    <row r="3838" spans="1:11">
+      <c r="A3838" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B3838">
+        <v>2151829.94</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:11">
+      <c r="A3839" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B3839">
+        <v>3121966.67</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:11">
+      <c r="A3840" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B3840">
+        <v>3121966.67</v>
+      </c>
+      <c r="D3840" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3840" s="3"/>
+      <c r="F3840" s="3"/>
+      <c r="G3840" s="3"/>
+      <c r="H3840" s="3"/>
+      <c r="I3840" s="3"/>
+      <c r="J3840" s="3"/>
+      <c r="K3840" s="3"/>
+    </row>
+    <row r="3841" spans="1:11">
+      <c r="A3841" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B3841">
+        <v>3121966.67</v>
+      </c>
+      <c r="D3841" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3841" s="4"/>
+      <c r="F3841" s="4"/>
+      <c r="G3841" s="4"/>
+      <c r="H3841" s="4"/>
+      <c r="I3841" s="4"/>
+      <c r="J3841" s="4"/>
+      <c r="K3841" s="4"/>
+    </row>
+    <row r="3842" spans="1:11">
+      <c r="A3842" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B3842">
+        <v>3100824.12</v>
+      </c>
+      <c r="D3842" s="4"/>
+      <c r="E3842" s="4"/>
+      <c r="F3842" s="4"/>
+      <c r="G3842" s="4"/>
+      <c r="H3842" s="4"/>
+      <c r="I3842" s="4"/>
+      <c r="J3842" s="4"/>
+      <c r="K3842" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3835:K3835"/>
-    <mergeCell ref="D3836:K3837"/>
+    <mergeCell ref="D3840:K3840"/>
+    <mergeCell ref="D3841:K3842"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="3846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="3847">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11552,6 +11552,9 @@
   </si>
   <si>
     <t>6-13-2021</t>
+  </si>
+  <si>
+    <t>6-14-2021</t>
   </si>
 </sst>
 </file>
@@ -11688,108 +11691,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3812:$A$3842</c:f>
+              <c:f>DolarToday!$A$3813:$A$3843</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>5-13-2021</c:v>
+                  <c:v>5-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5-14-2021</c:v>
+                  <c:v>5-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5-15-2021</c:v>
+                  <c:v>5-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5-16-2021</c:v>
+                  <c:v>5-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5-17-2021</c:v>
+                  <c:v>5-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5-18-2021</c:v>
+                  <c:v>5-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5-19-2021</c:v>
+                  <c:v>5-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5-20-2021</c:v>
+                  <c:v>5-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5-21-2021</c:v>
+                  <c:v>5-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5-22-2021</c:v>
+                  <c:v>5-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5-23-2021</c:v>
+                  <c:v>5-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5-24-2021</c:v>
+                  <c:v>5-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5-25-2021</c:v>
+                  <c:v>5-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5-26-2021</c:v>
+                  <c:v>5-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5-27-2021</c:v>
+                  <c:v>5-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5-28-2021</c:v>
+                  <c:v>5-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5-29-2021</c:v>
+                  <c:v>5-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5-30-2021</c:v>
+                  <c:v>5-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5-31-2021</c:v>
+                  <c:v>6-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6-1-2021</c:v>
+                  <c:v>6-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6-2-2021</c:v>
+                  <c:v>6-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6-3-2021</c:v>
+                  <c:v>6-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6-5-2021</c:v>
+                  <c:v>6-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6-6-2021</c:v>
+                  <c:v>6-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6-7-2021</c:v>
+                  <c:v>6-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6-8-2021</c:v>
+                  <c:v>6-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6-9-2021</c:v>
+                  <c:v>6-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6-10-2021</c:v>
+                  <c:v>6-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6-11-2021</c:v>
+                  <c:v>6-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6-12-2021</c:v>
+                  <c:v>6-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6-13-2021</c:v>
+                  <c:v>6-14-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3812:$B$3842</c:f>
+              <c:f>DolarToday!$B$3813:$B$3843</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11800,19 +11803,19 @@
                   <c:v>3010980.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3010980.42</c:v>
+                  <c:v>3007524.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3007524.73</c:v>
+                  <c:v>2976975.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2976975.66</c:v>
+                  <c:v>3150271.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3150271.9</c:v>
+                  <c:v>3103582.42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3103582.42</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3150602.82</c:v>
@@ -11821,19 +11824,19 @@
                   <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3146121.68</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3146121.68</c:v>
+                  <c:v>3148023.77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3148023.77</c:v>
+                  <c:v>3080236.05</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3080236.05</c:v>
+                  <c:v>3071321.77</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3071321.77</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3207042.87</c:v>
@@ -11842,37 +11845,37 @@
                   <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3143738.91</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3143738.91</c:v>
+                  <c:v>3120313.06</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3120313.06</c:v>
+                  <c:v>3100829.52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3100829.52</c:v>
+                  <c:v>3125043.85</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3125043.85</c:v>
+                  <c:v>3129771.64</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3129771.64</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3129771.64</c:v>
+                  <c:v>3145829.53</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3145829.53</c:v>
+                  <c:v>3150002.57</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3150002.57</c:v>
+                  <c:v>3148923.03</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3148923.03</c:v>
+                  <c:v>2151829.94</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2151829.94</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3121966.67</c:v>
@@ -11881,10 +11884,10 @@
                   <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3100824.12</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3100824.12</c:v>
+                  <c:v>3097622.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12291,7 +12294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3842"/>
+  <dimension ref="A1:K3843"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42920,7 +42923,7 @@
         <v>3080236.05</v>
       </c>
     </row>
-    <row r="3825" spans="1:11">
+    <row r="3825" spans="1:2">
       <c r="A3825" t="s">
         <v>3828</v>
       </c>
@@ -42928,7 +42931,7 @@
         <v>3071321.77</v>
       </c>
     </row>
-    <row r="3826" spans="1:11">
+    <row r="3826" spans="1:2">
       <c r="A3826" t="s">
         <v>3829</v>
       </c>
@@ -42936,7 +42939,7 @@
         <v>3207042.87</v>
       </c>
     </row>
-    <row r="3827" spans="1:11">
+    <row r="3827" spans="1:2">
       <c r="A3827" t="s">
         <v>3830</v>
       </c>
@@ -42944,7 +42947,7 @@
         <v>3207042.87</v>
       </c>
     </row>
-    <row r="3828" spans="1:11">
+    <row r="3828" spans="1:2">
       <c r="A3828" t="s">
         <v>3831</v>
       </c>
@@ -42952,7 +42955,7 @@
         <v>3207042.87</v>
       </c>
     </row>
-    <row r="3829" spans="1:11">
+    <row r="3829" spans="1:2">
       <c r="A3829" t="s">
         <v>3832</v>
       </c>
@@ -42960,7 +42963,7 @@
         <v>3143738.91</v>
       </c>
     </row>
-    <row r="3830" spans="1:11">
+    <row r="3830" spans="1:2">
       <c r="A3830" t="s">
         <v>3833</v>
       </c>
@@ -42968,7 +42971,7 @@
         <v>3120313.06</v>
       </c>
     </row>
-    <row r="3831" spans="1:11">
+    <row r="3831" spans="1:2">
       <c r="A3831" t="s">
         <v>3834</v>
       </c>
@@ -42976,7 +42979,7 @@
         <v>3100829.52</v>
       </c>
     </row>
-    <row r="3832" spans="1:11">
+    <row r="3832" spans="1:2">
       <c r="A3832" t="s">
         <v>3835</v>
       </c>
@@ -42984,7 +42987,7 @@
         <v>3125043.85</v>
       </c>
     </row>
-    <row r="3833" spans="1:11">
+    <row r="3833" spans="1:2">
       <c r="A3833" t="s">
         <v>3836</v>
       </c>
@@ -42992,7 +42995,7 @@
         <v>3129771.64</v>
       </c>
     </row>
-    <row r="3834" spans="1:11">
+    <row r="3834" spans="1:2">
       <c r="A3834" t="s">
         <v>3837</v>
       </c>
@@ -43000,7 +43003,7 @@
         <v>3129771.64</v>
       </c>
     </row>
-    <row r="3835" spans="1:11">
+    <row r="3835" spans="1:2">
       <c r="A3835" t="s">
         <v>3838</v>
       </c>
@@ -43008,7 +43011,7 @@
         <v>3145829.53</v>
       </c>
     </row>
-    <row r="3836" spans="1:11">
+    <row r="3836" spans="1:2">
       <c r="A3836" t="s">
         <v>3839</v>
       </c>
@@ -43016,7 +43019,7 @@
         <v>3150002.57</v>
       </c>
     </row>
-    <row r="3837" spans="1:11">
+    <row r="3837" spans="1:2">
       <c r="A3837" t="s">
         <v>3840</v>
       </c>
@@ -43024,7 +43027,7 @@
         <v>3148923.03</v>
       </c>
     </row>
-    <row r="3838" spans="1:11">
+    <row r="3838" spans="1:2">
       <c r="A3838" t="s">
         <v>3841</v>
       </c>
@@ -43032,7 +43035,7 @@
         <v>2151829.94</v>
       </c>
     </row>
-    <row r="3839" spans="1:11">
+    <row r="3839" spans="1:2">
       <c r="A3839" t="s">
         <v>3842</v>
       </c>
@@ -43040,23 +43043,13 @@
         <v>3121966.67</v>
       </c>
     </row>
-    <row r="3840" spans="1:11">
+    <row r="3840" spans="1:2">
       <c r="A3840" t="s">
         <v>3843</v>
       </c>
       <c r="B3840">
         <v>3121966.67</v>
       </c>
-      <c r="D3840" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3840" s="3"/>
-      <c r="F3840" s="3"/>
-      <c r="G3840" s="3"/>
-      <c r="H3840" s="3"/>
-      <c r="I3840" s="3"/>
-      <c r="J3840" s="3"/>
-      <c r="K3840" s="3"/>
     </row>
     <row r="3841" spans="1:11">
       <c r="A3841" t="s">
@@ -43065,16 +43058,16 @@
       <c r="B3841">
         <v>3121966.67</v>
       </c>
-      <c r="D3841" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3841" s="4"/>
-      <c r="F3841" s="4"/>
-      <c r="G3841" s="4"/>
-      <c r="H3841" s="4"/>
-      <c r="I3841" s="4"/>
-      <c r="J3841" s="4"/>
-      <c r="K3841" s="4"/>
+      <c r="D3841" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3841" s="3"/>
+      <c r="F3841" s="3"/>
+      <c r="G3841" s="3"/>
+      <c r="H3841" s="3"/>
+      <c r="I3841" s="3"/>
+      <c r="J3841" s="3"/>
+      <c r="K3841" s="3"/>
     </row>
     <row r="3842" spans="1:11">
       <c r="A3842" t="s">
@@ -43083,7 +43076,9 @@
       <c r="B3842">
         <v>3100824.12</v>
       </c>
-      <c r="D3842" s="4"/>
+      <c r="D3842" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3842" s="4"/>
       <c r="F3842" s="4"/>
       <c r="G3842" s="4"/>
@@ -43092,12 +43087,28 @@
       <c r="J3842" s="4"/>
       <c r="K3842" s="4"/>
     </row>
+    <row r="3843" spans="1:11">
+      <c r="A3843" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B3843">
+        <v>3097622.12</v>
+      </c>
+      <c r="D3843" s="4"/>
+      <c r="E3843" s="4"/>
+      <c r="F3843" s="4"/>
+      <c r="G3843" s="4"/>
+      <c r="H3843" s="4"/>
+      <c r="I3843" s="4"/>
+      <c r="J3843" s="4"/>
+      <c r="K3843" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3840:K3840"/>
-    <mergeCell ref="D3841:K3842"/>
+    <mergeCell ref="D3841:K3841"/>
+    <mergeCell ref="D3842:K3843"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="3847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="3849">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11555,6 +11555,12 @@
   </si>
   <si>
     <t>6-14-2021</t>
+  </si>
+  <si>
+    <t>6-15-2021</t>
+  </si>
+  <si>
+    <t>6-16-2021</t>
   </si>
 </sst>
 </file>
@@ -11691,203 +11697,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3813:$A$3843</c:f>
+              <c:f>DolarToday!$A$3815:$A$3845</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>5-14-2021</c:v>
+                  <c:v>5-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5-15-2021</c:v>
+                  <c:v>5-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5-16-2021</c:v>
+                  <c:v>5-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5-17-2021</c:v>
+                  <c:v>5-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5-18-2021</c:v>
+                  <c:v>5-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5-19-2021</c:v>
+                  <c:v>5-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5-20-2021</c:v>
+                  <c:v>5-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5-21-2021</c:v>
+                  <c:v>5-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5-22-2021</c:v>
+                  <c:v>5-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5-23-2021</c:v>
+                  <c:v>5-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5-24-2021</c:v>
+                  <c:v>5-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5-25-2021</c:v>
+                  <c:v>5-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5-26-2021</c:v>
+                  <c:v>5-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5-27-2021</c:v>
+                  <c:v>5-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5-28-2021</c:v>
+                  <c:v>5-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5-29-2021</c:v>
+                  <c:v>5-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5-30-2021</c:v>
+                  <c:v>6-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5-31-2021</c:v>
+                  <c:v>6-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6-1-2021</c:v>
+                  <c:v>6-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6-2-2021</c:v>
+                  <c:v>6-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6-3-2021</c:v>
+                  <c:v>6-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6-5-2021</c:v>
+                  <c:v>6-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6-6-2021</c:v>
+                  <c:v>6-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6-7-2021</c:v>
+                  <c:v>6-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6-8-2021</c:v>
+                  <c:v>6-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6-9-2021</c:v>
+                  <c:v>6-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6-10-2021</c:v>
+                  <c:v>6-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6-11-2021</c:v>
+                  <c:v>6-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6-12-2021</c:v>
+                  <c:v>6-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6-13-2021</c:v>
+                  <c:v>6-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6-14-2021</c:v>
+                  <c:v>6-16-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3813:$B$3843</c:f>
+              <c:f>DolarToday!$B$3815:$B$3845</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3010980.42</c:v>
+                  <c:v>3007524.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3010980.42</c:v>
+                  <c:v>2976975.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3007524.73</c:v>
+                  <c:v>3150271.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2976975.66</c:v>
+                  <c:v>3103582.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3150271.9</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3103582.42</c:v>
+                  <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3150602.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3146121.68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3148023.77</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3146121.68</c:v>
+                  <c:v>3080236.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3148023.77</c:v>
+                  <c:v>3071321.77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3080236.05</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3071321.77</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3143738.91</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3120313.06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3143738.91</c:v>
+                  <c:v>3100829.52</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3120313.06</c:v>
+                  <c:v>3125043.85</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3100829.52</c:v>
+                  <c:v>3129771.64</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3125043.85</c:v>
+                  <c:v>3129771.64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3129771.64</c:v>
+                  <c:v>3145829.53</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3129771.64</c:v>
+                  <c:v>3150002.57</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3145829.53</c:v>
+                  <c:v>3148923.03</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3150002.57</c:v>
+                  <c:v>2151829.94</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3148923.03</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2151829.94</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3100824.12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3097622.12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3100824.12</c:v>
+                  <c:v>3069103.84</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3097622.12</c:v>
+                  <c:v>3120044.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12294,7 +12300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3843"/>
+  <dimension ref="A1:K3845"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43058,16 +43064,6 @@
       <c r="B3841">
         <v>3121966.67</v>
       </c>
-      <c r="D3841" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3841" s="3"/>
-      <c r="F3841" s="3"/>
-      <c r="G3841" s="3"/>
-      <c r="H3841" s="3"/>
-      <c r="I3841" s="3"/>
-      <c r="J3841" s="3"/>
-      <c r="K3841" s="3"/>
     </row>
     <row r="3842" spans="1:11">
       <c r="A3842" t="s">
@@ -43076,16 +43072,6 @@
       <c r="B3842">
         <v>3100824.12</v>
       </c>
-      <c r="D3842" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3842" s="4"/>
-      <c r="F3842" s="4"/>
-      <c r="G3842" s="4"/>
-      <c r="H3842" s="4"/>
-      <c r="I3842" s="4"/>
-      <c r="J3842" s="4"/>
-      <c r="K3842" s="4"/>
     </row>
     <row r="3843" spans="1:11">
       <c r="A3843" t="s">
@@ -43094,21 +43080,57 @@
       <c r="B3843">
         <v>3097622.12</v>
       </c>
-      <c r="D3843" s="4"/>
-      <c r="E3843" s="4"/>
-      <c r="F3843" s="4"/>
-      <c r="G3843" s="4"/>
-      <c r="H3843" s="4"/>
-      <c r="I3843" s="4"/>
-      <c r="J3843" s="4"/>
-      <c r="K3843" s="4"/>
+      <c r="D3843" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3843" s="3"/>
+      <c r="F3843" s="3"/>
+      <c r="G3843" s="3"/>
+      <c r="H3843" s="3"/>
+      <c r="I3843" s="3"/>
+      <c r="J3843" s="3"/>
+      <c r="K3843" s="3"/>
+    </row>
+    <row r="3844" spans="1:11">
+      <c r="A3844" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B3844">
+        <v>3069103.84</v>
+      </c>
+      <c r="D3844" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3844" s="4"/>
+      <c r="F3844" s="4"/>
+      <c r="G3844" s="4"/>
+      <c r="H3844" s="4"/>
+      <c r="I3844" s="4"/>
+      <c r="J3844" s="4"/>
+      <c r="K3844" s="4"/>
+    </row>
+    <row r="3845" spans="1:11">
+      <c r="A3845" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B3845">
+        <v>3120044.2</v>
+      </c>
+      <c r="D3845" s="4"/>
+      <c r="E3845" s="4"/>
+      <c r="F3845" s="4"/>
+      <c r="G3845" s="4"/>
+      <c r="H3845" s="4"/>
+      <c r="I3845" s="4"/>
+      <c r="J3845" s="4"/>
+      <c r="K3845" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3841:K3841"/>
-    <mergeCell ref="D3842:K3843"/>
+    <mergeCell ref="D3843:K3843"/>
+    <mergeCell ref="D3844:K3845"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="3849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="3856">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11561,6 +11561,27 @@
   </si>
   <si>
     <t>6-16-2021</t>
+  </si>
+  <si>
+    <t>6-17-2021</t>
+  </si>
+  <si>
+    <t>6-18-2021</t>
+  </si>
+  <si>
+    <t>6-19-2021</t>
+  </si>
+  <si>
+    <t>6-20-2021</t>
+  </si>
+  <si>
+    <t>6-21-2021</t>
+  </si>
+  <si>
+    <t>6-22-2021</t>
+  </si>
+  <si>
+    <t>6-23-2021</t>
   </si>
 </sst>
 </file>
@@ -11697,203 +11718,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3815:$A$3845</c:f>
+              <c:f>DolarToday!$A$3822:$A$3852</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>5-16-2021</c:v>
+                  <c:v>5-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5-17-2021</c:v>
+                  <c:v>5-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5-18-2021</c:v>
+                  <c:v>5-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5-19-2021</c:v>
+                  <c:v>5-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5-20-2021</c:v>
+                  <c:v>5-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5-21-2021</c:v>
+                  <c:v>5-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5-22-2021</c:v>
+                  <c:v>5-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5-23-2021</c:v>
+                  <c:v>5-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5-24-2021</c:v>
+                  <c:v>5-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5-25-2021</c:v>
+                  <c:v>6-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5-26-2021</c:v>
+                  <c:v>6-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5-27-2021</c:v>
+                  <c:v>6-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5-28-2021</c:v>
+                  <c:v>6-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5-29-2021</c:v>
+                  <c:v>6-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5-30-2021</c:v>
+                  <c:v>6-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5-31-2021</c:v>
+                  <c:v>6-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6-1-2021</c:v>
+                  <c:v>6-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6-2-2021</c:v>
+                  <c:v>6-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6-3-2021</c:v>
+                  <c:v>6-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6-5-2021</c:v>
+                  <c:v>6-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6-6-2021</c:v>
+                  <c:v>6-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6-7-2021</c:v>
+                  <c:v>6-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6-8-2021</c:v>
+                  <c:v>6-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6-9-2021</c:v>
+                  <c:v>6-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6-10-2021</c:v>
+                  <c:v>6-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6-11-2021</c:v>
+                  <c:v>6-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6-12-2021</c:v>
+                  <c:v>6-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6-13-2021</c:v>
+                  <c:v>6-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6-14-2021</c:v>
+                  <c:v>6-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6-15-2021</c:v>
+                  <c:v>6-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6-16-2021</c:v>
+                  <c:v>6-23-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3815:$B$3845</c:f>
+              <c:f>DolarToday!$B$3822:$B$3852</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3007524.73</c:v>
+                  <c:v>3146121.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2976975.66</c:v>
+                  <c:v>3148023.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3150271.9</c:v>
+                  <c:v>3080236.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3103582.42</c:v>
+                  <c:v>3071321.77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3150602.82</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3146121.68</c:v>
+                  <c:v>3143738.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3148023.77</c:v>
+                  <c:v>3120313.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3080236.05</c:v>
+                  <c:v>3100829.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3071321.77</c:v>
+                  <c:v>3125043.85</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3129771.64</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3129771.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3145829.53</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3143738.91</c:v>
+                  <c:v>3150002.57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3120313.06</c:v>
+                  <c:v>3148923.03</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3100829.52</c:v>
+                  <c:v>2151829.94</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3125043.85</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3129771.64</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3129771.64</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3145829.53</c:v>
+                  <c:v>3100824.12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3150002.57</c:v>
+                  <c:v>3097622.12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3148923.03</c:v>
+                  <c:v>3069103.84</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2151829.94</c:v>
+                  <c:v>3120044.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3180962.61</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3180962.61</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3180962.61</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3100824.12</c:v>
+                  <c:v>3200102.55</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3097622.12</c:v>
+                  <c:v>3204461.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3069103.84</c:v>
+                  <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3120044.2</c:v>
+                  <c:v>3180628.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12300,7 +12321,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3845"/>
+  <dimension ref="A1:K3852"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43080,16 +43101,6 @@
       <c r="B3843">
         <v>3097622.12</v>
       </c>
-      <c r="D3843" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3843" s="3"/>
-      <c r="F3843" s="3"/>
-      <c r="G3843" s="3"/>
-      <c r="H3843" s="3"/>
-      <c r="I3843" s="3"/>
-      <c r="J3843" s="3"/>
-      <c r="K3843" s="3"/>
     </row>
     <row r="3844" spans="1:11">
       <c r="A3844" t="s">
@@ -43098,16 +43109,6 @@
       <c r="B3844">
         <v>3069103.84</v>
       </c>
-      <c r="D3844" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3844" s="4"/>
-      <c r="F3844" s="4"/>
-      <c r="G3844" s="4"/>
-      <c r="H3844" s="4"/>
-      <c r="I3844" s="4"/>
-      <c r="J3844" s="4"/>
-      <c r="K3844" s="4"/>
     </row>
     <row r="3845" spans="1:11">
       <c r="A3845" t="s">
@@ -43116,21 +43117,97 @@
       <c r="B3845">
         <v>3120044.2</v>
       </c>
-      <c r="D3845" s="4"/>
-      <c r="E3845" s="4"/>
-      <c r="F3845" s="4"/>
-      <c r="G3845" s="4"/>
-      <c r="H3845" s="4"/>
-      <c r="I3845" s="4"/>
-      <c r="J3845" s="4"/>
-      <c r="K3845" s="4"/>
+    </row>
+    <row r="3846" spans="1:11">
+      <c r="A3846" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B3846">
+        <v>3180962.61</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:11">
+      <c r="A3847" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B3847">
+        <v>3180962.61</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:11">
+      <c r="A3848" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B3848">
+        <v>3180962.61</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:11">
+      <c r="A3849" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B3849">
+        <v>3200102.55</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:11">
+      <c r="A3850" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B3850">
+        <v>3204461.5</v>
+      </c>
+      <c r="D3850" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3850" s="3"/>
+      <c r="F3850" s="3"/>
+      <c r="G3850" s="3"/>
+      <c r="H3850" s="3"/>
+      <c r="I3850" s="3"/>
+      <c r="J3850" s="3"/>
+      <c r="K3850" s="3"/>
+    </row>
+    <row r="3851" spans="1:11">
+      <c r="A3851" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B3851">
+        <v>3180628.91</v>
+      </c>
+      <c r="D3851" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3851" s="4"/>
+      <c r="F3851" s="4"/>
+      <c r="G3851" s="4"/>
+      <c r="H3851" s="4"/>
+      <c r="I3851" s="4"/>
+      <c r="J3851" s="4"/>
+      <c r="K3851" s="4"/>
+    </row>
+    <row r="3852" spans="1:11">
+      <c r="A3852" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B3852">
+        <v>3180628.91</v>
+      </c>
+      <c r="D3852" s="4"/>
+      <c r="E3852" s="4"/>
+      <c r="F3852" s="4"/>
+      <c r="G3852" s="4"/>
+      <c r="H3852" s="4"/>
+      <c r="I3852" s="4"/>
+      <c r="J3852" s="4"/>
+      <c r="K3852" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3843:K3843"/>
-    <mergeCell ref="D3844:K3845"/>
+    <mergeCell ref="D3850:K3850"/>
+    <mergeCell ref="D3851:K3852"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="3856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="3862">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11582,6 +11582,24 @@
   </si>
   <si>
     <t>6-23-2021</t>
+  </si>
+  <si>
+    <t>6-24-2021</t>
+  </si>
+  <si>
+    <t>6-25-2021</t>
+  </si>
+  <si>
+    <t>6-26-2021</t>
+  </si>
+  <si>
+    <t>6-27-2021</t>
+  </si>
+  <si>
+    <t>6-28-2021</t>
+  </si>
+  <si>
+    <t>6-29-2021</t>
   </si>
 </sst>
 </file>
@@ -11718,203 +11736,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3822:$A$3852</c:f>
+              <c:f>DolarToday!$A$3828:$A$3858</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>5-23-2021</c:v>
+                  <c:v>5-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5-24-2021</c:v>
+                  <c:v>5-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5-25-2021</c:v>
+                  <c:v>5-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5-26-2021</c:v>
+                  <c:v>6-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5-27-2021</c:v>
+                  <c:v>6-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5-28-2021</c:v>
+                  <c:v>6-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5-29-2021</c:v>
+                  <c:v>6-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5-30-2021</c:v>
+                  <c:v>6-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5-31-2021</c:v>
+                  <c:v>6-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6-1-2021</c:v>
+                  <c:v>6-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6-2-2021</c:v>
+                  <c:v>6-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6-3-2021</c:v>
+                  <c:v>6-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6-5-2021</c:v>
+                  <c:v>6-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6-6-2021</c:v>
+                  <c:v>6-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6-7-2021</c:v>
+                  <c:v>6-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6-8-2021</c:v>
+                  <c:v>6-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6-9-2021</c:v>
+                  <c:v>6-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6-10-2021</c:v>
+                  <c:v>6-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6-11-2021</c:v>
+                  <c:v>6-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6-12-2021</c:v>
+                  <c:v>6-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6-13-2021</c:v>
+                  <c:v>6-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6-14-2021</c:v>
+                  <c:v>6-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6-15-2021</c:v>
+                  <c:v>6-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6-16-2021</c:v>
+                  <c:v>6-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6-17-2021</c:v>
+                  <c:v>6-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6-18-2021</c:v>
+                  <c:v>6-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6-19-2021</c:v>
+                  <c:v>6-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6-20-2021</c:v>
+                  <c:v>6-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6-21-2021</c:v>
+                  <c:v>6-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6-22-2021</c:v>
+                  <c:v>6-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6-23-2021</c:v>
+                  <c:v>6-29-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3822:$B$3852</c:f>
+              <c:f>DolarToday!$B$3828:$B$3858</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3146121.68</c:v>
+                  <c:v>3207042.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3148023.77</c:v>
+                  <c:v>3143738.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3080236.05</c:v>
+                  <c:v>3120313.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3071321.77</c:v>
+                  <c:v>3100829.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3125043.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3129771.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3129771.64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3143738.91</c:v>
+                  <c:v>3145829.53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3120313.06</c:v>
+                  <c:v>3150002.57</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100829.52</c:v>
+                  <c:v>3148923.03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3125043.85</c:v>
+                  <c:v>2151829.94</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3129771.64</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3129771.64</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3145829.53</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3150002.57</c:v>
+                  <c:v>3100824.12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3148923.03</c:v>
+                  <c:v>3097622.12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2151829.94</c:v>
+                  <c:v>3069103.84</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3120044.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3180962.61</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3180962.61</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3100824.12</c:v>
+                  <c:v>3180962.61</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3097622.12</c:v>
+                  <c:v>3200102.55</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3069103.84</c:v>
+                  <c:v>3204461.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3120044.2</c:v>
+                  <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3180962.61</c:v>
+                  <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3180962.61</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3180962.61</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3200102.55</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3204461.5</c:v>
+                  <c:v>3273013.54</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3180628.91</c:v>
+                  <c:v>3259413.02</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3180628.91</c:v>
+                  <c:v>3267940.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12321,7 +12339,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3852"/>
+  <dimension ref="A1:K3858"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43157,16 +43175,6 @@
       <c r="B3850">
         <v>3204461.5</v>
       </c>
-      <c r="D3850" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3850" s="3"/>
-      <c r="F3850" s="3"/>
-      <c r="G3850" s="3"/>
-      <c r="H3850" s="3"/>
-      <c r="I3850" s="3"/>
-      <c r="J3850" s="3"/>
-      <c r="K3850" s="3"/>
     </row>
     <row r="3851" spans="1:11">
       <c r="A3851" t="s">
@@ -43175,16 +43183,6 @@
       <c r="B3851">
         <v>3180628.91</v>
       </c>
-      <c r="D3851" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3851" s="4"/>
-      <c r="F3851" s="4"/>
-      <c r="G3851" s="4"/>
-      <c r="H3851" s="4"/>
-      <c r="I3851" s="4"/>
-      <c r="J3851" s="4"/>
-      <c r="K3851" s="4"/>
     </row>
     <row r="3852" spans="1:11">
       <c r="A3852" t="s">
@@ -43193,21 +43191,89 @@
       <c r="B3852">
         <v>3180628.91</v>
       </c>
-      <c r="D3852" s="4"/>
-      <c r="E3852" s="4"/>
-      <c r="F3852" s="4"/>
-      <c r="G3852" s="4"/>
-      <c r="H3852" s="4"/>
-      <c r="I3852" s="4"/>
-      <c r="J3852" s="4"/>
-      <c r="K3852" s="4"/>
+    </row>
+    <row r="3853" spans="1:11">
+      <c r="A3853" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B3853">
+        <v>3200592.8</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:11">
+      <c r="A3854" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B3854">
+        <v>3200592.8</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:11">
+      <c r="A3855" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B3855">
+        <v>3200592.8</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:11">
+      <c r="A3856" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B3856">
+        <v>3273013.54</v>
+      </c>
+      <c r="D3856" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3856" s="3"/>
+      <c r="F3856" s="3"/>
+      <c r="G3856" s="3"/>
+      <c r="H3856" s="3"/>
+      <c r="I3856" s="3"/>
+      <c r="J3856" s="3"/>
+      <c r="K3856" s="3"/>
+    </row>
+    <row r="3857" spans="1:11">
+      <c r="A3857" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B3857">
+        <v>3259413.02</v>
+      </c>
+      <c r="D3857" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3857" s="4"/>
+      <c r="F3857" s="4"/>
+      <c r="G3857" s="4"/>
+      <c r="H3857" s="4"/>
+      <c r="I3857" s="4"/>
+      <c r="J3857" s="4"/>
+      <c r="K3857" s="4"/>
+    </row>
+    <row r="3858" spans="1:11">
+      <c r="A3858" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B3858">
+        <v>3267940.03</v>
+      </c>
+      <c r="D3858" s="4"/>
+      <c r="E3858" s="4"/>
+      <c r="F3858" s="4"/>
+      <c r="G3858" s="4"/>
+      <c r="H3858" s="4"/>
+      <c r="I3858" s="4"/>
+      <c r="J3858" s="4"/>
+      <c r="K3858" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3850:K3850"/>
-    <mergeCell ref="D3851:K3852"/>
+    <mergeCell ref="D3856:K3856"/>
+    <mergeCell ref="D3857:K3858"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="3862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="3868">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11600,6 +11600,24 @@
   </si>
   <si>
     <t>6-29-2021</t>
+  </si>
+  <si>
+    <t>6-30-2021</t>
+  </si>
+  <si>
+    <t>7-1-2021</t>
+  </si>
+  <si>
+    <t>7-2-2021</t>
+  </si>
+  <si>
+    <t>7-3-2021</t>
+  </si>
+  <si>
+    <t>7-4-2021</t>
+  </si>
+  <si>
+    <t>7-5-2021</t>
   </si>
 </sst>
 </file>
@@ -11736,203 +11754,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3828:$A$3858</c:f>
+              <c:f>DolarToday!$A$3834:$A$3864</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>5-29-2021</c:v>
+                  <c:v>6-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5-30-2021</c:v>
+                  <c:v>6-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5-31-2021</c:v>
+                  <c:v>6-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-1-2021</c:v>
+                  <c:v>6-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6-2-2021</c:v>
+                  <c:v>6-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6-3-2021</c:v>
+                  <c:v>6-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6-5-2021</c:v>
+                  <c:v>6-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6-6-2021</c:v>
+                  <c:v>6-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6-7-2021</c:v>
+                  <c:v>6-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6-8-2021</c:v>
+                  <c:v>6-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6-9-2021</c:v>
+                  <c:v>6-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6-10-2021</c:v>
+                  <c:v>6-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6-11-2021</c:v>
+                  <c:v>6-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6-12-2021</c:v>
+                  <c:v>6-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6-13-2021</c:v>
+                  <c:v>6-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6-14-2021</c:v>
+                  <c:v>6-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6-15-2021</c:v>
+                  <c:v>6-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6-16-2021</c:v>
+                  <c:v>6-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6-17-2021</c:v>
+                  <c:v>6-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6-18-2021</c:v>
+                  <c:v>6-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6-19-2021</c:v>
+                  <c:v>6-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6-20-2021</c:v>
+                  <c:v>6-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6-21-2021</c:v>
+                  <c:v>6-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6-22-2021</c:v>
+                  <c:v>6-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6-23-2021</c:v>
+                  <c:v>6-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6-24-2021</c:v>
+                  <c:v>6-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6-25-2021</c:v>
+                  <c:v>7-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6-26-2021</c:v>
+                  <c:v>7-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6-27-2021</c:v>
+                  <c:v>7-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6-28-2021</c:v>
+                  <c:v>7-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6-29-2021</c:v>
+                  <c:v>7-5-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3828:$B$3858</c:f>
+              <c:f>DolarToday!$B$3834:$B$3864</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3207042.87</c:v>
+                  <c:v>3129771.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3143738.91</c:v>
+                  <c:v>3145829.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3120313.06</c:v>
+                  <c:v>3150002.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3100829.52</c:v>
+                  <c:v>3148923.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3125043.85</c:v>
+                  <c:v>2151829.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3129771.64</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3129771.64</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3145829.53</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3150002.57</c:v>
+                  <c:v>3100824.12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3148923.03</c:v>
+                  <c:v>3097622.12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2151829.94</c:v>
+                  <c:v>3069103.84</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3120044.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3180962.61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3180962.61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3100824.12</c:v>
+                  <c:v>3180962.61</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3097622.12</c:v>
+                  <c:v>3200102.55</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3069103.84</c:v>
+                  <c:v>3204461.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3120044.2</c:v>
+                  <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3180962.61</c:v>
+                  <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3180962.61</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3180962.61</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3200102.55</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3204461.5</c:v>
+                  <c:v>3273013.54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3180628.91</c:v>
+                  <c:v>3259413.02</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3180628.91</c:v>
+                  <c:v>3267940.03</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3290130.05</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3273013.54</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3259413.02</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3267940.03</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12339,7 +12357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3858"/>
+  <dimension ref="A1:K3864"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43096,7 +43114,7 @@
         <v>3121966.67</v>
       </c>
     </row>
-    <row r="3841" spans="1:11">
+    <row r="3841" spans="1:2">
       <c r="A3841" t="s">
         <v>3844</v>
       </c>
@@ -43104,7 +43122,7 @@
         <v>3121966.67</v>
       </c>
     </row>
-    <row r="3842" spans="1:11">
+    <row r="3842" spans="1:2">
       <c r="A3842" t="s">
         <v>3845</v>
       </c>
@@ -43112,7 +43130,7 @@
         <v>3100824.12</v>
       </c>
     </row>
-    <row r="3843" spans="1:11">
+    <row r="3843" spans="1:2">
       <c r="A3843" t="s">
         <v>3846</v>
       </c>
@@ -43120,7 +43138,7 @@
         <v>3097622.12</v>
       </c>
     </row>
-    <row r="3844" spans="1:11">
+    <row r="3844" spans="1:2">
       <c r="A3844" t="s">
         <v>3847</v>
       </c>
@@ -43128,7 +43146,7 @@
         <v>3069103.84</v>
       </c>
     </row>
-    <row r="3845" spans="1:11">
+    <row r="3845" spans="1:2">
       <c r="A3845" t="s">
         <v>3848</v>
       </c>
@@ -43136,7 +43154,7 @@
         <v>3120044.2</v>
       </c>
     </row>
-    <row r="3846" spans="1:11">
+    <row r="3846" spans="1:2">
       <c r="A3846" t="s">
         <v>3849</v>
       </c>
@@ -43144,7 +43162,7 @@
         <v>3180962.61</v>
       </c>
     </row>
-    <row r="3847" spans="1:11">
+    <row r="3847" spans="1:2">
       <c r="A3847" t="s">
         <v>3850</v>
       </c>
@@ -43152,7 +43170,7 @@
         <v>3180962.61</v>
       </c>
     </row>
-    <row r="3848" spans="1:11">
+    <row r="3848" spans="1:2">
       <c r="A3848" t="s">
         <v>3851</v>
       </c>
@@ -43160,7 +43178,7 @@
         <v>3180962.61</v>
       </c>
     </row>
-    <row r="3849" spans="1:11">
+    <row r="3849" spans="1:2">
       <c r="A3849" t="s">
         <v>3852</v>
       </c>
@@ -43168,7 +43186,7 @@
         <v>3200102.55</v>
       </c>
     </row>
-    <row r="3850" spans="1:11">
+    <row r="3850" spans="1:2">
       <c r="A3850" t="s">
         <v>3853</v>
       </c>
@@ -43176,7 +43194,7 @@
         <v>3204461.5</v>
       </c>
     </row>
-    <row r="3851" spans="1:11">
+    <row r="3851" spans="1:2">
       <c r="A3851" t="s">
         <v>3854</v>
       </c>
@@ -43184,7 +43202,7 @@
         <v>3180628.91</v>
       </c>
     </row>
-    <row r="3852" spans="1:11">
+    <row r="3852" spans="1:2">
       <c r="A3852" t="s">
         <v>3855</v>
       </c>
@@ -43192,7 +43210,7 @@
         <v>3180628.91</v>
       </c>
     </row>
-    <row r="3853" spans="1:11">
+    <row r="3853" spans="1:2">
       <c r="A3853" t="s">
         <v>3856</v>
       </c>
@@ -43200,7 +43218,7 @@
         <v>3200592.8</v>
       </c>
     </row>
-    <row r="3854" spans="1:11">
+    <row r="3854" spans="1:2">
       <c r="A3854" t="s">
         <v>3857</v>
       </c>
@@ -43208,7 +43226,7 @@
         <v>3200592.8</v>
       </c>
     </row>
-    <row r="3855" spans="1:11">
+    <row r="3855" spans="1:2">
       <c r="A3855" t="s">
         <v>3858</v>
       </c>
@@ -43216,23 +43234,13 @@
         <v>3200592.8</v>
       </c>
     </row>
-    <row r="3856" spans="1:11">
+    <row r="3856" spans="1:2">
       <c r="A3856" t="s">
         <v>3859</v>
       </c>
       <c r="B3856">
         <v>3273013.54</v>
       </c>
-      <c r="D3856" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3856" s="3"/>
-      <c r="F3856" s="3"/>
-      <c r="G3856" s="3"/>
-      <c r="H3856" s="3"/>
-      <c r="I3856" s="3"/>
-      <c r="J3856" s="3"/>
-      <c r="K3856" s="3"/>
     </row>
     <row r="3857" spans="1:11">
       <c r="A3857" t="s">
@@ -43241,16 +43249,6 @@
       <c r="B3857">
         <v>3259413.02</v>
       </c>
-      <c r="D3857" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3857" s="4"/>
-      <c r="F3857" s="4"/>
-      <c r="G3857" s="4"/>
-      <c r="H3857" s="4"/>
-      <c r="I3857" s="4"/>
-      <c r="J3857" s="4"/>
-      <c r="K3857" s="4"/>
     </row>
     <row r="3858" spans="1:11">
       <c r="A3858" t="s">
@@ -43259,21 +43257,89 @@
       <c r="B3858">
         <v>3267940.03</v>
       </c>
-      <c r="D3858" s="4"/>
-      <c r="E3858" s="4"/>
-      <c r="F3858" s="4"/>
-      <c r="G3858" s="4"/>
-      <c r="H3858" s="4"/>
-      <c r="I3858" s="4"/>
-      <c r="J3858" s="4"/>
-      <c r="K3858" s="4"/>
+    </row>
+    <row r="3859" spans="1:11">
+      <c r="A3859" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B3859">
+        <v>3290130.05</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:11">
+      <c r="A3860" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B3860">
+        <v>3250012.94</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:11">
+      <c r="A3861" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B3861">
+        <v>3250012.94</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:11">
+      <c r="A3862" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B3862">
+        <v>3250012.94</v>
+      </c>
+      <c r="D3862" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3862" s="3"/>
+      <c r="F3862" s="3"/>
+      <c r="G3862" s="3"/>
+      <c r="H3862" s="3"/>
+      <c r="I3862" s="3"/>
+      <c r="J3862" s="3"/>
+      <c r="K3862" s="3"/>
+    </row>
+    <row r="3863" spans="1:11">
+      <c r="A3863" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B3863">
+        <v>3250012.94</v>
+      </c>
+      <c r="D3863" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3863" s="4"/>
+      <c r="F3863" s="4"/>
+      <c r="G3863" s="4"/>
+      <c r="H3863" s="4"/>
+      <c r="I3863" s="4"/>
+      <c r="J3863" s="4"/>
+      <c r="K3863" s="4"/>
+    </row>
+    <row r="3864" spans="1:11">
+      <c r="A3864" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B3864">
+        <v>3250012.94</v>
+      </c>
+      <c r="D3864" s="4"/>
+      <c r="E3864" s="4"/>
+      <c r="F3864" s="4"/>
+      <c r="G3864" s="4"/>
+      <c r="H3864" s="4"/>
+      <c r="I3864" s="4"/>
+      <c r="J3864" s="4"/>
+      <c r="K3864" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3856:K3856"/>
-    <mergeCell ref="D3857:K3858"/>
+    <mergeCell ref="D3862:K3862"/>
+    <mergeCell ref="D3863:K3864"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="3868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="3874">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11618,6 +11618,24 @@
   </si>
   <si>
     <t>7-5-2021</t>
+  </si>
+  <si>
+    <t>7-6-2021</t>
+  </si>
+  <si>
+    <t>7-7-2021</t>
+  </si>
+  <si>
+    <t>7-8-2021</t>
+  </si>
+  <si>
+    <t>7-9-2021</t>
+  </si>
+  <si>
+    <t>7-10-2021</t>
+  </si>
+  <si>
+    <t>7-11-2021</t>
   </si>
 </sst>
 </file>
@@ -11754,203 +11772,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3834:$A$3864</c:f>
+              <c:f>DolarToday!$A$3840:$A$3870</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-5-2021</c:v>
+                  <c:v>6-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-6-2021</c:v>
+                  <c:v>6-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-7-2021</c:v>
+                  <c:v>6-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-8-2021</c:v>
+                  <c:v>6-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6-9-2021</c:v>
+                  <c:v>6-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6-10-2021</c:v>
+                  <c:v>6-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6-11-2021</c:v>
+                  <c:v>6-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6-12-2021</c:v>
+                  <c:v>6-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6-13-2021</c:v>
+                  <c:v>6-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6-14-2021</c:v>
+                  <c:v>6-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6-15-2021</c:v>
+                  <c:v>6-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6-16-2021</c:v>
+                  <c:v>6-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6-17-2021</c:v>
+                  <c:v>6-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6-18-2021</c:v>
+                  <c:v>6-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6-19-2021</c:v>
+                  <c:v>6-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6-20-2021</c:v>
+                  <c:v>6-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6-21-2021</c:v>
+                  <c:v>6-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6-22-2021</c:v>
+                  <c:v>6-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6-23-2021</c:v>
+                  <c:v>6-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6-24-2021</c:v>
+                  <c:v>6-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6-25-2021</c:v>
+                  <c:v>7-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6-26-2021</c:v>
+                  <c:v>7-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6-27-2021</c:v>
+                  <c:v>7-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6-28-2021</c:v>
+                  <c:v>7-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6-29-2021</c:v>
+                  <c:v>7-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6-30-2021</c:v>
+                  <c:v>7-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-1-2021</c:v>
+                  <c:v>7-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-2-2021</c:v>
+                  <c:v>7-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-3-2021</c:v>
+                  <c:v>7-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-4-2021</c:v>
+                  <c:v>7-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-5-2021</c:v>
+                  <c:v>7-11-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3834:$B$3864</c:f>
+              <c:f>DolarToday!$B$3840:$B$3870</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3129771.64</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3145829.53</c:v>
+                  <c:v>3121966.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3150002.57</c:v>
+                  <c:v>3100824.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3148923.03</c:v>
+                  <c:v>3097622.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2151829.94</c:v>
+                  <c:v>3069103.84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3120044.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3180962.61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3180962.61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3100824.12</c:v>
+                  <c:v>3180962.61</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3097622.12</c:v>
+                  <c:v>3200102.55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3069103.84</c:v>
+                  <c:v>3204461.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3120044.2</c:v>
+                  <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3180962.61</c:v>
+                  <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3180962.61</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3180962.61</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3200102.55</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3204461.5</c:v>
+                  <c:v>3273013.54</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3180628.91</c:v>
+                  <c:v>3259413.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3180628.91</c:v>
+                  <c:v>3267940.03</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3290130.05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3273013.54</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3259413.02</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3267940.03</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3290130.05</c:v>
+                  <c:v>3251735.81</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3555673.96</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3310043.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12357,7 +12375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3864"/>
+  <dimension ref="A1:K3870"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43289,16 +43307,6 @@
       <c r="B3862">
         <v>3250012.94</v>
       </c>
-      <c r="D3862" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3862" s="3"/>
-      <c r="F3862" s="3"/>
-      <c r="G3862" s="3"/>
-      <c r="H3862" s="3"/>
-      <c r="I3862" s="3"/>
-      <c r="J3862" s="3"/>
-      <c r="K3862" s="3"/>
     </row>
     <row r="3863" spans="1:11">
       <c r="A3863" t="s">
@@ -43307,16 +43315,6 @@
       <c r="B3863">
         <v>3250012.94</v>
       </c>
-      <c r="D3863" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3863" s="4"/>
-      <c r="F3863" s="4"/>
-      <c r="G3863" s="4"/>
-      <c r="H3863" s="4"/>
-      <c r="I3863" s="4"/>
-      <c r="J3863" s="4"/>
-      <c r="K3863" s="4"/>
     </row>
     <row r="3864" spans="1:11">
       <c r="A3864" t="s">
@@ -43325,21 +43323,89 @@
       <c r="B3864">
         <v>3250012.94</v>
       </c>
-      <c r="D3864" s="4"/>
-      <c r="E3864" s="4"/>
-      <c r="F3864" s="4"/>
-      <c r="G3864" s="4"/>
-      <c r="H3864" s="4"/>
-      <c r="I3864" s="4"/>
-      <c r="J3864" s="4"/>
-      <c r="K3864" s="4"/>
+    </row>
+    <row r="3865" spans="1:11">
+      <c r="A3865" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B3865">
+        <v>3251735.81</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:11">
+      <c r="A3866" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B3866">
+        <v>3555673.96</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:11">
+      <c r="A3867" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B3867">
+        <v>3306628.55</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:11">
+      <c r="A3868" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B3868">
+        <v>3306628.55</v>
+      </c>
+      <c r="D3868" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3868" s="3"/>
+      <c r="F3868" s="3"/>
+      <c r="G3868" s="3"/>
+      <c r="H3868" s="3"/>
+      <c r="I3868" s="3"/>
+      <c r="J3868" s="3"/>
+      <c r="K3868" s="3"/>
+    </row>
+    <row r="3869" spans="1:11">
+      <c r="A3869" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B3869">
+        <v>3306628.55</v>
+      </c>
+      <c r="D3869" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3869" s="4"/>
+      <c r="F3869" s="4"/>
+      <c r="G3869" s="4"/>
+      <c r="H3869" s="4"/>
+      <c r="I3869" s="4"/>
+      <c r="J3869" s="4"/>
+      <c r="K3869" s="4"/>
+    </row>
+    <row r="3870" spans="1:11">
+      <c r="A3870" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B3870">
+        <v>3310043.99</v>
+      </c>
+      <c r="D3870" s="4"/>
+      <c r="E3870" s="4"/>
+      <c r="F3870" s="4"/>
+      <c r="G3870" s="4"/>
+      <c r="H3870" s="4"/>
+      <c r="I3870" s="4"/>
+      <c r="J3870" s="4"/>
+      <c r="K3870" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3862:K3862"/>
-    <mergeCell ref="D3863:K3864"/>
+    <mergeCell ref="D3868:K3868"/>
+    <mergeCell ref="D3869:K3870"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="3874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="3882">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11636,6 +11636,30 @@
   </si>
   <si>
     <t>7-11-2021</t>
+  </si>
+  <si>
+    <t>7-12-2021</t>
+  </si>
+  <si>
+    <t>7-13-2021</t>
+  </si>
+  <si>
+    <t>7-14-2021</t>
+  </si>
+  <si>
+    <t>7-15-2021</t>
+  </si>
+  <si>
+    <t>7-16-2021</t>
+  </si>
+  <si>
+    <t>7-17-2021</t>
+  </si>
+  <si>
+    <t>7-18-2021</t>
+  </si>
+  <si>
+    <t>7-19-2021</t>
   </si>
 </sst>
 </file>
@@ -11772,203 +11796,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3840:$A$3870</c:f>
+              <c:f>DolarToday!$A$3848:$A$3878</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-11-2021</c:v>
+                  <c:v>6-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-12-2021</c:v>
+                  <c:v>6-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-13-2021</c:v>
+                  <c:v>6-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-14-2021</c:v>
+                  <c:v>6-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6-15-2021</c:v>
+                  <c:v>6-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6-16-2021</c:v>
+                  <c:v>6-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6-17-2021</c:v>
+                  <c:v>6-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6-18-2021</c:v>
+                  <c:v>6-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6-19-2021</c:v>
+                  <c:v>6-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6-20-2021</c:v>
+                  <c:v>6-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6-21-2021</c:v>
+                  <c:v>6-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6-22-2021</c:v>
+                  <c:v>6-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6-23-2021</c:v>
+                  <c:v>7-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6-24-2021</c:v>
+                  <c:v>7-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6-25-2021</c:v>
+                  <c:v>7-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6-26-2021</c:v>
+                  <c:v>7-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6-27-2021</c:v>
+                  <c:v>7-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6-28-2021</c:v>
+                  <c:v>7-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6-29-2021</c:v>
+                  <c:v>7-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6-30-2021</c:v>
+                  <c:v>7-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-1-2021</c:v>
+                  <c:v>7-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-2-2021</c:v>
+                  <c:v>7-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-3-2021</c:v>
+                  <c:v>7-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-4-2021</c:v>
+                  <c:v>7-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-5-2021</c:v>
+                  <c:v>7-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-6-2021</c:v>
+                  <c:v>7-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-7-2021</c:v>
+                  <c:v>7-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-8-2021</c:v>
+                  <c:v>7-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-9-2021</c:v>
+                  <c:v>7-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-10-2021</c:v>
+                  <c:v>7-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-11-2021</c:v>
+                  <c:v>7-19-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3840:$B$3870</c:f>
+              <c:f>DolarToday!$B$3848:$B$3878</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3180962.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3121966.67</c:v>
+                  <c:v>3200102.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3100824.12</c:v>
+                  <c:v>3204461.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3097622.12</c:v>
+                  <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3069103.84</c:v>
+                  <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3120044.2</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3180962.61</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3180962.61</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3180962.61</c:v>
+                  <c:v>3273013.54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3200102.55</c:v>
+                  <c:v>3259413.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3204461.5</c:v>
+                  <c:v>3267940.03</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3180628.91</c:v>
+                  <c:v>3290130.05</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3180628.91</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3273013.54</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3259413.02</c:v>
+                  <c:v>3251735.81</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3267940.03</c:v>
+                  <c:v>3555673.96</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3290130.05</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3310043.99</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3350022.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3425119.54</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3251735.81</c:v>
+                  <c:v>3555323.05</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3555673.96</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3702021.73</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3310043.99</c:v>
+                  <c:v>3705023.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12375,7 +12399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3870"/>
+  <dimension ref="A1:K3878"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43260,7 +43284,7 @@
         <v>3273013.54</v>
       </c>
     </row>
-    <row r="3857" spans="1:11">
+    <row r="3857" spans="1:2">
       <c r="A3857" t="s">
         <v>3860</v>
       </c>
@@ -43268,7 +43292,7 @@
         <v>3259413.02</v>
       </c>
     </row>
-    <row r="3858" spans="1:11">
+    <row r="3858" spans="1:2">
       <c r="A3858" t="s">
         <v>3861</v>
       </c>
@@ -43276,7 +43300,7 @@
         <v>3267940.03</v>
       </c>
     </row>
-    <row r="3859" spans="1:11">
+    <row r="3859" spans="1:2">
       <c r="A3859" t="s">
         <v>3862</v>
       </c>
@@ -43284,7 +43308,7 @@
         <v>3290130.05</v>
       </c>
     </row>
-    <row r="3860" spans="1:11">
+    <row r="3860" spans="1:2">
       <c r="A3860" t="s">
         <v>3863</v>
       </c>
@@ -43292,7 +43316,7 @@
         <v>3250012.94</v>
       </c>
     </row>
-    <row r="3861" spans="1:11">
+    <row r="3861" spans="1:2">
       <c r="A3861" t="s">
         <v>3864</v>
       </c>
@@ -43300,7 +43324,7 @@
         <v>3250012.94</v>
       </c>
     </row>
-    <row r="3862" spans="1:11">
+    <row r="3862" spans="1:2">
       <c r="A3862" t="s">
         <v>3865</v>
       </c>
@@ -43308,7 +43332,7 @@
         <v>3250012.94</v>
       </c>
     </row>
-    <row r="3863" spans="1:11">
+    <row r="3863" spans="1:2">
       <c r="A3863" t="s">
         <v>3866</v>
       </c>
@@ -43316,7 +43340,7 @@
         <v>3250012.94</v>
       </c>
     </row>
-    <row r="3864" spans="1:11">
+    <row r="3864" spans="1:2">
       <c r="A3864" t="s">
         <v>3867</v>
       </c>
@@ -43324,7 +43348,7 @@
         <v>3250012.94</v>
       </c>
     </row>
-    <row r="3865" spans="1:11">
+    <row r="3865" spans="1:2">
       <c r="A3865" t="s">
         <v>3868</v>
       </c>
@@ -43332,7 +43356,7 @@
         <v>3251735.81</v>
       </c>
     </row>
-    <row r="3866" spans="1:11">
+    <row r="3866" spans="1:2">
       <c r="A3866" t="s">
         <v>3869</v>
       </c>
@@ -43340,7 +43364,7 @@
         <v>3555673.96</v>
       </c>
     </row>
-    <row r="3867" spans="1:11">
+    <row r="3867" spans="1:2">
       <c r="A3867" t="s">
         <v>3870</v>
       </c>
@@ -43348,64 +43372,128 @@
         <v>3306628.55</v>
       </c>
     </row>
-    <row r="3868" spans="1:11">
+    <row r="3868" spans="1:2">
       <c r="A3868" t="s">
         <v>3871</v>
       </c>
       <c r="B3868">
         <v>3306628.55</v>
       </c>
-      <c r="D3868" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3868" s="3"/>
-      <c r="F3868" s="3"/>
-      <c r="G3868" s="3"/>
-      <c r="H3868" s="3"/>
-      <c r="I3868" s="3"/>
-      <c r="J3868" s="3"/>
-      <c r="K3868" s="3"/>
-    </row>
-    <row r="3869" spans="1:11">
+    </row>
+    <row r="3869" spans="1:2">
       <c r="A3869" t="s">
         <v>3872</v>
       </c>
       <c r="B3869">
         <v>3306628.55</v>
       </c>
-      <c r="D3869" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3869" s="4"/>
-      <c r="F3869" s="4"/>
-      <c r="G3869" s="4"/>
-      <c r="H3869" s="4"/>
-      <c r="I3869" s="4"/>
-      <c r="J3869" s="4"/>
-      <c r="K3869" s="4"/>
-    </row>
-    <row r="3870" spans="1:11">
+    </row>
+    <row r="3870" spans="1:2">
       <c r="A3870" t="s">
         <v>3873</v>
       </c>
       <c r="B3870">
         <v>3310043.99</v>
       </c>
-      <c r="D3870" s="4"/>
-      <c r="E3870" s="4"/>
-      <c r="F3870" s="4"/>
-      <c r="G3870" s="4"/>
-      <c r="H3870" s="4"/>
-      <c r="I3870" s="4"/>
-      <c r="J3870" s="4"/>
-      <c r="K3870" s="4"/>
+    </row>
+    <row r="3871" spans="1:2">
+      <c r="A3871" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B3871">
+        <v>3350022.5</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:2">
+      <c r="A3872" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B3872">
+        <v>3425119.54</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:11">
+      <c r="A3873" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B3873">
+        <v>3555323.05</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:11">
+      <c r="A3874" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B3874">
+        <v>3700022.18</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:11">
+      <c r="A3875" t="s">
+        <v>3878</v>
+      </c>
+      <c r="B3875">
+        <v>3700022.18</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:11">
+      <c r="A3876" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B3876">
+        <v>3700022.18</v>
+      </c>
+      <c r="D3876" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3876" s="3"/>
+      <c r="F3876" s="3"/>
+      <c r="G3876" s="3"/>
+      <c r="H3876" s="3"/>
+      <c r="I3876" s="3"/>
+      <c r="J3876" s="3"/>
+      <c r="K3876" s="3"/>
+    </row>
+    <row r="3877" spans="1:11">
+      <c r="A3877" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B3877">
+        <v>3702021.73</v>
+      </c>
+      <c r="D3877" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3877" s="4"/>
+      <c r="F3877" s="4"/>
+      <c r="G3877" s="4"/>
+      <c r="H3877" s="4"/>
+      <c r="I3877" s="4"/>
+      <c r="J3877" s="4"/>
+      <c r="K3877" s="4"/>
+    </row>
+    <row r="3878" spans="1:11">
+      <c r="A3878" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B3878">
+        <v>3705023.76</v>
+      </c>
+      <c r="D3878" s="4"/>
+      <c r="E3878" s="4"/>
+      <c r="F3878" s="4"/>
+      <c r="G3878" s="4"/>
+      <c r="H3878" s="4"/>
+      <c r="I3878" s="4"/>
+      <c r="J3878" s="4"/>
+      <c r="K3878" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3868:K3868"/>
-    <mergeCell ref="D3869:K3870"/>
+    <mergeCell ref="D3876:K3876"/>
+    <mergeCell ref="D3877:K3878"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="3882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3885" uniqueCount="3883">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11660,6 +11660,9 @@
   </si>
   <si>
     <t>7-19-2021</t>
+  </si>
+  <si>
+    <t>7-20-2021</t>
   </si>
 </sst>
 </file>
@@ -11796,125 +11799,125 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3848:$A$3878</c:f>
+              <c:f>DolarToday!$A$3849:$A$3879</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-19-2021</c:v>
+                  <c:v>6-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-20-2021</c:v>
+                  <c:v>6-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-21-2021</c:v>
+                  <c:v>6-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-22-2021</c:v>
+                  <c:v>6-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6-23-2021</c:v>
+                  <c:v>6-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6-24-2021</c:v>
+                  <c:v>6-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6-25-2021</c:v>
+                  <c:v>6-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6-26-2021</c:v>
+                  <c:v>6-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6-27-2021</c:v>
+                  <c:v>6-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6-28-2021</c:v>
+                  <c:v>6-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6-29-2021</c:v>
+                  <c:v>6-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6-30-2021</c:v>
+                  <c:v>7-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-1-2021</c:v>
+                  <c:v>7-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-2-2021</c:v>
+                  <c:v>7-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-3-2021</c:v>
+                  <c:v>7-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-4-2021</c:v>
+                  <c:v>7-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-5-2021</c:v>
+                  <c:v>7-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-6-2021</c:v>
+                  <c:v>7-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-7-2021</c:v>
+                  <c:v>7-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-8-2021</c:v>
+                  <c:v>7-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-9-2021</c:v>
+                  <c:v>7-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-10-2021</c:v>
+                  <c:v>7-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-11-2021</c:v>
+                  <c:v>7-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-12-2021</c:v>
+                  <c:v>7-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-13-2021</c:v>
+                  <c:v>7-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-14-2021</c:v>
+                  <c:v>7-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-15-2021</c:v>
+                  <c:v>7-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-16-2021</c:v>
+                  <c:v>7-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-17-2021</c:v>
+                  <c:v>7-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-18-2021</c:v>
+                  <c:v>7-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-19-2021</c:v>
+                  <c:v>7-20-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3848:$B$3878</c:f>
+              <c:f>DolarToday!$B$3849:$B$3879</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3180962.61</c:v>
+                  <c:v>3200102.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3200102.55</c:v>
+                  <c:v>3204461.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3204461.5</c:v>
+                  <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3180628.91</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3200592.8</c:v>
@@ -11923,19 +11926,19 @@
                   <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3273013.54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3273013.54</c:v>
+                  <c:v>3259413.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3259413.02</c:v>
+                  <c:v>3267940.03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3267940.03</c:v>
+                  <c:v>3290130.05</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3290130.05</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3250012.94</c:v>
@@ -11950,13 +11953,13 @@
                   <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3251735.81</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3251735.81</c:v>
+                  <c:v>3555673.96</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3555673.96</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3306628.55</c:v>
@@ -11965,19 +11968,19 @@
                   <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3310043.99</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3310043.99</c:v>
+                  <c:v>3350022.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3350022.5</c:v>
+                  <c:v>3425119.54</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3425119.54</c:v>
+                  <c:v>3555323.05</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3555323.05</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3700022.18</c:v>
@@ -11986,13 +11989,13 @@
                   <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3702021.73</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3702021.73</c:v>
+                  <c:v>3705023.76</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3705023.76</c:v>
+                  <c:v>3790225.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12399,7 +12402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3878"/>
+  <dimension ref="A1:K3879"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43443,16 +43446,6 @@
       <c r="B3876">
         <v>3700022.18</v>
       </c>
-      <c r="D3876" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3876" s="3"/>
-      <c r="F3876" s="3"/>
-      <c r="G3876" s="3"/>
-      <c r="H3876" s="3"/>
-      <c r="I3876" s="3"/>
-      <c r="J3876" s="3"/>
-      <c r="K3876" s="3"/>
     </row>
     <row r="3877" spans="1:11">
       <c r="A3877" t="s">
@@ -43461,16 +43454,16 @@
       <c r="B3877">
         <v>3702021.73</v>
       </c>
-      <c r="D3877" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3877" s="4"/>
-      <c r="F3877" s="4"/>
-      <c r="G3877" s="4"/>
-      <c r="H3877" s="4"/>
-      <c r="I3877" s="4"/>
-      <c r="J3877" s="4"/>
-      <c r="K3877" s="4"/>
+      <c r="D3877" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3877" s="3"/>
+      <c r="F3877" s="3"/>
+      <c r="G3877" s="3"/>
+      <c r="H3877" s="3"/>
+      <c r="I3877" s="3"/>
+      <c r="J3877" s="3"/>
+      <c r="K3877" s="3"/>
     </row>
     <row r="3878" spans="1:11">
       <c r="A3878" t="s">
@@ -43479,7 +43472,9 @@
       <c r="B3878">
         <v>3705023.76</v>
       </c>
-      <c r="D3878" s="4"/>
+      <c r="D3878" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3878" s="4"/>
       <c r="F3878" s="4"/>
       <c r="G3878" s="4"/>
@@ -43488,12 +43483,28 @@
       <c r="J3878" s="4"/>
       <c r="K3878" s="4"/>
     </row>
+    <row r="3879" spans="1:11">
+      <c r="A3879" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B3879">
+        <v>3790225.82</v>
+      </c>
+      <c r="D3879" s="4"/>
+      <c r="E3879" s="4"/>
+      <c r="F3879" s="4"/>
+      <c r="G3879" s="4"/>
+      <c r="H3879" s="4"/>
+      <c r="I3879" s="4"/>
+      <c r="J3879" s="4"/>
+      <c r="K3879" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3876:K3876"/>
-    <mergeCell ref="D3877:K3878"/>
+    <mergeCell ref="D3877:K3877"/>
+    <mergeCell ref="D3878:K3879"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3885" uniqueCount="3883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="3884">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11663,6 +11663,9 @@
   </si>
   <si>
     <t>7-20-2021</t>
+  </si>
+  <si>
+    <t>7-21-2021</t>
   </si>
 </sst>
 </file>
@@ -11799,122 +11802,122 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3849:$A$3879</c:f>
+              <c:f>DolarToday!$A$3850:$A$3880</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-20-2021</c:v>
+                  <c:v>6-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-21-2021</c:v>
+                  <c:v>6-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-22-2021</c:v>
+                  <c:v>6-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-23-2021</c:v>
+                  <c:v>6-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6-24-2021</c:v>
+                  <c:v>6-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6-25-2021</c:v>
+                  <c:v>6-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6-26-2021</c:v>
+                  <c:v>6-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6-27-2021</c:v>
+                  <c:v>6-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6-28-2021</c:v>
+                  <c:v>6-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6-29-2021</c:v>
+                  <c:v>6-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6-30-2021</c:v>
+                  <c:v>7-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-1-2021</c:v>
+                  <c:v>7-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-2-2021</c:v>
+                  <c:v>7-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-3-2021</c:v>
+                  <c:v>7-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-4-2021</c:v>
+                  <c:v>7-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-5-2021</c:v>
+                  <c:v>7-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-6-2021</c:v>
+                  <c:v>7-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-7-2021</c:v>
+                  <c:v>7-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-8-2021</c:v>
+                  <c:v>7-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-9-2021</c:v>
+                  <c:v>7-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-10-2021</c:v>
+                  <c:v>7-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-11-2021</c:v>
+                  <c:v>7-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-12-2021</c:v>
+                  <c:v>7-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-13-2021</c:v>
+                  <c:v>7-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-14-2021</c:v>
+                  <c:v>7-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-15-2021</c:v>
+                  <c:v>7-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-16-2021</c:v>
+                  <c:v>7-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-17-2021</c:v>
+                  <c:v>7-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-18-2021</c:v>
+                  <c:v>7-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-19-2021</c:v>
+                  <c:v>7-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-20-2021</c:v>
+                  <c:v>7-21-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3849:$B$3879</c:f>
+              <c:f>DolarToday!$B$3850:$B$3880</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3200102.55</c:v>
+                  <c:v>3204461.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3204461.5</c:v>
+                  <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3180628.91</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3200592.8</c:v>
@@ -11923,19 +11926,19 @@
                   <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3273013.54</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3273013.54</c:v>
+                  <c:v>3259413.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3259413.02</c:v>
+                  <c:v>3267940.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3267940.03</c:v>
+                  <c:v>3290130.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3290130.05</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3250012.94</c:v>
@@ -11950,13 +11953,13 @@
                   <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3251735.81</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3251735.81</c:v>
+                  <c:v>3555673.96</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3555673.96</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3306628.55</c:v>
@@ -11965,19 +11968,19 @@
                   <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3310043.99</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3310043.99</c:v>
+                  <c:v>3350022.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3350022.5</c:v>
+                  <c:v>3425119.54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3425119.54</c:v>
+                  <c:v>3555323.05</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3555323.05</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3700022.18</c:v>
@@ -11986,16 +11989,16 @@
                   <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3702021.73</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3702021.73</c:v>
+                  <c:v>3705023.76</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3705023.76</c:v>
+                  <c:v>3790225.82</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3790225.82</c:v>
+                  <c:v>3850301.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12402,7 +12405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3879"/>
+  <dimension ref="A1:K3880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43454,16 +43457,6 @@
       <c r="B3877">
         <v>3702021.73</v>
       </c>
-      <c r="D3877" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3877" s="3"/>
-      <c r="F3877" s="3"/>
-      <c r="G3877" s="3"/>
-      <c r="H3877" s="3"/>
-      <c r="I3877" s="3"/>
-      <c r="J3877" s="3"/>
-      <c r="K3877" s="3"/>
     </row>
     <row r="3878" spans="1:11">
       <c r="A3878" t="s">
@@ -43472,16 +43465,16 @@
       <c r="B3878">
         <v>3705023.76</v>
       </c>
-      <c r="D3878" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3878" s="4"/>
-      <c r="F3878" s="4"/>
-      <c r="G3878" s="4"/>
-      <c r="H3878" s="4"/>
-      <c r="I3878" s="4"/>
-      <c r="J3878" s="4"/>
-      <c r="K3878" s="4"/>
+      <c r="D3878" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3878" s="3"/>
+      <c r="F3878" s="3"/>
+      <c r="G3878" s="3"/>
+      <c r="H3878" s="3"/>
+      <c r="I3878" s="3"/>
+      <c r="J3878" s="3"/>
+      <c r="K3878" s="3"/>
     </row>
     <row r="3879" spans="1:11">
       <c r="A3879" t="s">
@@ -43490,7 +43483,9 @@
       <c r="B3879">
         <v>3790225.82</v>
       </c>
-      <c r="D3879" s="4"/>
+      <c r="D3879" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3879" s="4"/>
       <c r="F3879" s="4"/>
       <c r="G3879" s="4"/>
@@ -43499,12 +43494,28 @@
       <c r="J3879" s="4"/>
       <c r="K3879" s="4"/>
     </row>
+    <row r="3880" spans="1:11">
+      <c r="A3880" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B3880">
+        <v>3850301.78</v>
+      </c>
+      <c r="D3880" s="4"/>
+      <c r="E3880" s="4"/>
+      <c r="F3880" s="4"/>
+      <c r="G3880" s="4"/>
+      <c r="H3880" s="4"/>
+      <c r="I3880" s="4"/>
+      <c r="J3880" s="4"/>
+      <c r="K3880" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3877:K3877"/>
-    <mergeCell ref="D3878:K3879"/>
+    <mergeCell ref="D3878:K3878"/>
+    <mergeCell ref="D3879:K3880"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
